--- a/England Northern League Division One/England Northern League Division One.xlsx
+++ b/England Northern League Division One/England Northern League Division One.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1373" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1397" uniqueCount="110">
   <si>
     <t>id</t>
   </si>
@@ -115,10 +115,10 @@
     <t>Shildon</t>
   </si>
   <si>
-    <t>Grimsby Borough</t>
+    <t>Ossett United</t>
   </si>
   <si>
-    <t>Ossett United</t>
+    <t>Grimsby Borough</t>
   </si>
   <si>
     <t>Stocksbridge PS</t>
@@ -163,19 +163,19 @@
     <t>Dunston UTS</t>
   </si>
   <si>
-    <t>Shepshed Dynamo</t>
+    <t>Grantham</t>
   </si>
   <si>
-    <t>Grantham</t>
+    <t>Shepshed Dynamo</t>
   </si>
   <si>
     <t>Sheffield FC</t>
   </si>
   <si>
-    <t>Pontefract Collieries</t>
+    <t>Long Eaton Utd</t>
   </si>
   <si>
-    <t>Long Eaton Utd</t>
+    <t>Pontefract Collieries</t>
   </si>
   <si>
     <t>Cambridge City</t>
@@ -202,10 +202,10 @@
     <t>Bridlington Town</t>
   </si>
   <si>
-    <t>Widnes</t>
+    <t>Chasetown</t>
   </si>
   <si>
-    <t>Chasetown</t>
+    <t>Widnes</t>
   </si>
   <si>
     <t>Corby</t>
@@ -244,10 +244,10 @@
     <t>AFC Rushden  Diamonds</t>
   </si>
   <si>
-    <t>Hednesford</t>
+    <t>Rugby Town</t>
   </si>
   <si>
-    <t>Rugby Town</t>
+    <t>Hednesford</t>
   </si>
   <si>
     <t>Liversedge</t>
@@ -256,10 +256,10 @@
     <t>North Ferriby</t>
   </si>
   <si>
-    <t>Avro FC</t>
+    <t>Winterton Rangers</t>
   </si>
   <si>
-    <t>Winterton Rangers</t>
+    <t>Avro FC</t>
   </si>
   <si>
     <t>Stalybridge</t>
@@ -705,7 +705,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC270"/>
+  <dimension ref="A1:AC276"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1158,7 +1158,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6084117</v>
+        <v>6084115</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -1173,70 +1173,70 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="H6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I6">
         <v>2</v>
       </c>
       <c r="J6" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K6">
-        <v>2.25</v>
+        <v>3.2</v>
       </c>
       <c r="L6">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="M6">
-        <v>3</v>
+        <v>1.909</v>
       </c>
       <c r="N6">
-        <v>2.25</v>
+        <v>2.875</v>
       </c>
       <c r="O6">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="P6">
-        <v>3</v>
+        <v>2.15</v>
       </c>
       <c r="Q6">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R6">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S6">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T6">
         <v>2.75</v>
       </c>
       <c r="U6">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V6">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W6">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X6">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y6">
         <v>-1</v>
       </c>
       <c r="Z6">
-        <v>1</v>
+        <v>0.425</v>
       </c>
       <c r="AA6">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB6">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AC6">
         <v>-1</v>
@@ -1247,7 +1247,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6084115</v>
+        <v>6084117</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1262,70 +1262,70 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I7">
         <v>2</v>
       </c>
       <c r="J7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K7">
-        <v>3.2</v>
+        <v>2.25</v>
       </c>
       <c r="L7">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="M7">
-        <v>1.909</v>
+        <v>3</v>
       </c>
       <c r="N7">
-        <v>2.875</v>
+        <v>2.25</v>
       </c>
       <c r="O7">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="P7">
-        <v>2.15</v>
+        <v>3</v>
       </c>
       <c r="Q7">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R7">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S7">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T7">
         <v>2.75</v>
       </c>
       <c r="U7">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V7">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W7">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X7">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y7">
         <v>-1</v>
       </c>
       <c r="Z7">
-        <v>0.425</v>
+        <v>1</v>
       </c>
       <c r="AA7">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB7">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC7">
         <v>-1</v>
@@ -2330,7 +2330,7 @@
         <v>32</v>
       </c>
       <c r="G19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H19">
         <v>1</v>
@@ -2416,7 +2416,7 @@
         <v>44953.69791666666</v>
       </c>
       <c r="F20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G20" t="s">
         <v>47</v>
@@ -2760,7 +2760,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6204105</v>
+        <v>6204107</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2772,10 +2772,10 @@
         <v>44957.69791666666</v>
       </c>
       <c r="F24" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G24" t="s">
-        <v>65</v>
+        <v>97</v>
       </c>
       <c r="H24">
         <v>2</v>
@@ -2787,43 +2787,43 @@
         <v>107</v>
       </c>
       <c r="K24">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="L24">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M24">
-        <v>3.25</v>
+        <v>3.8</v>
       </c>
       <c r="N24">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="O24">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P24">
-        <v>2.9</v>
+        <v>3.8</v>
       </c>
       <c r="Q24">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R24">
+        <v>1.825</v>
+      </c>
+      <c r="S24">
         <v>1.975</v>
-      </c>
-      <c r="S24">
-        <v>1.825</v>
       </c>
       <c r="T24">
         <v>2.75</v>
       </c>
       <c r="U24">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V24">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W24">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="X24">
         <v>-1</v>
@@ -2832,13 +2832,13 @@
         <v>-1</v>
       </c>
       <c r="Z24">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AA24">
         <v>-1</v>
       </c>
       <c r="AB24">
-        <v>0.4375</v>
+        <v>0.4</v>
       </c>
       <c r="AC24">
         <v>-0.5</v>
@@ -2849,7 +2849,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6204107</v>
+        <v>6204105</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2861,10 +2861,10 @@
         <v>44957.69791666666</v>
       </c>
       <c r="F25" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G25" t="s">
-        <v>97</v>
+        <v>65</v>
       </c>
       <c r="H25">
         <v>2</v>
@@ -2876,43 +2876,43 @@
         <v>107</v>
       </c>
       <c r="K25">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="L25">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M25">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="N25">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="O25">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P25">
-        <v>3.8</v>
+        <v>2.9</v>
       </c>
       <c r="Q25">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R25">
+        <v>1.975</v>
+      </c>
+      <c r="S25">
         <v>1.825</v>
-      </c>
-      <c r="S25">
-        <v>1.975</v>
       </c>
       <c r="T25">
         <v>2.75</v>
       </c>
       <c r="U25">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V25">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W25">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="X25">
         <v>-1</v>
@@ -2921,13 +2921,13 @@
         <v>-1</v>
       </c>
       <c r="Z25">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA25">
         <v>-1</v>
       </c>
       <c r="AB25">
-        <v>0.4</v>
+        <v>0.4375</v>
       </c>
       <c r="AC25">
         <v>-0.5</v>
@@ -3205,7 +3205,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6224009</v>
+        <v>6224010</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3220,7 +3220,7 @@
         <v>49</v>
       </c>
       <c r="G29" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="H29">
         <v>0</v>
@@ -3232,31 +3232,31 @@
         <v>109</v>
       </c>
       <c r="K29">
-        <v>2</v>
+        <v>3.4</v>
       </c>
       <c r="L29">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M29">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="N29">
-        <v>2</v>
+        <v>3.4</v>
       </c>
       <c r="O29">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P29">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="Q29">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R29">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S29">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T29">
         <v>2.75</v>
@@ -3274,13 +3274,13 @@
         <v>-1</v>
       </c>
       <c r="Y29">
-        <v>2</v>
+        <v>0.8</v>
       </c>
       <c r="Z29">
         <v>-1</v>
       </c>
       <c r="AA29">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB29">
         <v>-1</v>
@@ -3294,7 +3294,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6224010</v>
+        <v>6224011</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3306,10 +3306,10 @@
         <v>44961.5</v>
       </c>
       <c r="F30" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>98</v>
       </c>
       <c r="H30">
         <v>0</v>
@@ -3321,40 +3321,40 @@
         <v>109</v>
       </c>
       <c r="K30">
-        <v>3.4</v>
+        <v>2.2</v>
       </c>
       <c r="L30">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="M30">
-        <v>1.8</v>
+        <v>3.1</v>
       </c>
       <c r="N30">
-        <v>3.4</v>
+        <v>2.2</v>
       </c>
       <c r="O30">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="P30">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="Q30">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R30">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S30">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T30">
         <v>2.75</v>
       </c>
       <c r="U30">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="V30">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W30">
         <v>-1</v>
@@ -3363,19 +3363,19 @@
         <v>-1</v>
       </c>
       <c r="Y30">
-        <v>0.8</v>
+        <v>2</v>
       </c>
       <c r="Z30">
         <v>-1</v>
       </c>
       <c r="AA30">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AB30">
         <v>-1</v>
       </c>
       <c r="AC30">
-        <v>1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3383,7 +3383,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6224011</v>
+        <v>6224009</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3395,10 +3395,10 @@
         <v>44961.5</v>
       </c>
       <c r="F31" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="G31" t="s">
-        <v>98</v>
+        <v>54</v>
       </c>
       <c r="H31">
         <v>0</v>
@@ -3410,19 +3410,19 @@
         <v>109</v>
       </c>
       <c r="K31">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="L31">
+        <v>3.5</v>
+      </c>
+      <c r="M31">
         <v>3</v>
       </c>
-      <c r="M31">
-        <v>3.1</v>
-      </c>
       <c r="N31">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="O31">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="P31">
         <v>3</v>
@@ -3431,19 +3431,19 @@
         <v>-0.25</v>
       </c>
       <c r="R31">
+        <v>1.825</v>
+      </c>
+      <c r="S31">
         <v>1.975</v>
-      </c>
-      <c r="S31">
-        <v>1.825</v>
       </c>
       <c r="T31">
         <v>2.75</v>
       </c>
       <c r="U31">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="V31">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W31">
         <v>-1</v>
@@ -3458,13 +3458,13 @@
         <v>-1</v>
       </c>
       <c r="AA31">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB31">
         <v>-1</v>
       </c>
       <c r="AC31">
-        <v>1.025</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -3487,7 +3487,7 @@
         <v>51</v>
       </c>
       <c r="G32" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H32">
         <v>0</v>
@@ -3561,7 +3561,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6236793</v>
+        <v>6236704</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3573,76 +3573,76 @@
         <v>44964.69791666666</v>
       </c>
       <c r="F33" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="G33" t="s">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J33" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="K33">
-        <v>2.25</v>
+        <v>3.1</v>
       </c>
       <c r="L33">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="M33">
-        <v>2.75</v>
+        <v>1.909</v>
       </c>
       <c r="N33">
-        <v>2.25</v>
+        <v>3.6</v>
       </c>
       <c r="O33">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="P33">
-        <v>2.75</v>
+        <v>1.7</v>
       </c>
       <c r="Q33">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R33">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S33">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T33">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U33">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V33">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W33">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X33">
         <v>-1</v>
       </c>
       <c r="Y33">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="Z33">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA33">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB33">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AC33">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="34" spans="1:29">
@@ -3650,7 +3650,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>6236704</v>
+        <v>6236703</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -3662,46 +3662,46 @@
         <v>44964.69791666666</v>
       </c>
       <c r="F34" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G34" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J34" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K34">
-        <v>3.1</v>
+        <v>1.4</v>
       </c>
       <c r="L34">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="M34">
-        <v>1.909</v>
+        <v>5.5</v>
       </c>
       <c r="N34">
-        <v>3.6</v>
+        <v>1.444</v>
       </c>
       <c r="O34">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="P34">
-        <v>1.7</v>
+        <v>5</v>
       </c>
       <c r="Q34">
-        <v>0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R34">
+        <v>1.95</v>
+      </c>
+      <c r="S34">
         <v>1.85</v>
-      </c>
-      <c r="S34">
-        <v>1.95</v>
       </c>
       <c r="T34">
         <v>3</v>
@@ -3713,25 +3713,25 @@
         <v>1.85</v>
       </c>
       <c r="W34">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X34">
         <v>-1</v>
       </c>
       <c r="Y34">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="Z34">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA34">
-        <v>0.95</v>
+        <v>0.425</v>
       </c>
       <c r="AB34">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC34">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="35" spans="1:29">
@@ -3739,7 +3739,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6236703</v>
+        <v>6236792</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -3751,10 +3751,10 @@
         <v>44964.69791666666</v>
       </c>
       <c r="F35" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="G35" t="s">
-        <v>66</v>
+        <v>35</v>
       </c>
       <c r="H35">
         <v>2</v>
@@ -3766,43 +3766,43 @@
         <v>107</v>
       </c>
       <c r="K35">
-        <v>1.4</v>
+        <v>2.9</v>
       </c>
       <c r="L35">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="M35">
-        <v>5.5</v>
+        <v>2.1</v>
       </c>
       <c r="N35">
-        <v>1.444</v>
+        <v>2.9</v>
       </c>
       <c r="O35">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="P35">
-        <v>5</v>
+        <v>2.1</v>
       </c>
       <c r="Q35">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R35">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S35">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T35">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U35">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V35">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W35">
-        <v>0.444</v>
+        <v>1.9</v>
       </c>
       <c r="X35">
         <v>-1</v>
@@ -3811,16 +3811,16 @@
         <v>-1</v>
       </c>
       <c r="Z35">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AA35">
+        <v>-1</v>
+      </c>
+      <c r="AB35">
+        <v>0.4375</v>
+      </c>
+      <c r="AC35">
         <v>-0.5</v>
-      </c>
-      <c r="AA35">
-        <v>0.425</v>
-      </c>
-      <c r="AB35">
-        <v>0</v>
-      </c>
-      <c r="AC35">
-        <v>-0</v>
       </c>
     </row>
     <row r="36" spans="1:29">
@@ -3917,7 +3917,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6236792</v>
+        <v>6236793</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3932,7 +3932,7 @@
         <v>53</v>
       </c>
       <c r="G37" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="H37">
         <v>2</v>
@@ -3944,43 +3944,43 @@
         <v>107</v>
       </c>
       <c r="K37">
-        <v>2.9</v>
+        <v>2.25</v>
       </c>
       <c r="L37">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M37">
-        <v>2.1</v>
+        <v>2.75</v>
       </c>
       <c r="N37">
-        <v>2.9</v>
+        <v>2.25</v>
       </c>
       <c r="O37">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P37">
-        <v>2.1</v>
+        <v>2.75</v>
       </c>
       <c r="Q37">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R37">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S37">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="T37">
         <v>2.75</v>
       </c>
       <c r="U37">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V37">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W37">
-        <v>1.9</v>
+        <v>1.25</v>
       </c>
       <c r="X37">
         <v>-1</v>
@@ -3989,13 +3989,13 @@
         <v>-1</v>
       </c>
       <c r="Z37">
-        <v>0.8999999999999999</v>
+        <v>1.025</v>
       </c>
       <c r="AA37">
         <v>-1</v>
       </c>
       <c r="AB37">
-        <v>0.4375</v>
+        <v>0.4</v>
       </c>
       <c r="AC37">
         <v>-0.5</v>
@@ -4466,7 +4466,7 @@
         <v>30</v>
       </c>
       <c r="G43" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H43">
         <v>4</v>
@@ -4641,7 +4641,7 @@
         <v>44968.5</v>
       </c>
       <c r="F45" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G45" t="s">
         <v>59</v>
@@ -4819,7 +4819,7 @@
         <v>44971.69791666666</v>
       </c>
       <c r="F47" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G47" t="s">
         <v>73</v>
@@ -5341,7 +5341,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>6285726</v>
+        <v>6285728</v>
       </c>
       <c r="C53" t="s">
         <v>28</v>
@@ -5353,76 +5353,76 @@
         <v>44975.5</v>
       </c>
       <c r="F53" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="G53" t="s">
-        <v>39</v>
+        <v>100</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J53" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="K53">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="L53">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M53">
-        <v>2.8</v>
+        <v>5</v>
       </c>
       <c r="N53">
-        <v>2.15</v>
+        <v>1.6</v>
       </c>
       <c r="O53">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="P53">
-        <v>2.875</v>
+        <v>4.333</v>
       </c>
       <c r="Q53">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R53">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="S53">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="T53">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U53">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V53">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W53">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X53">
         <v>-1</v>
       </c>
       <c r="Y53">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Z53">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA53">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB53">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC53">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="54" spans="1:29">
@@ -5430,7 +5430,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>6285728</v>
+        <v>6285726</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5442,76 +5442,76 @@
         <v>44975.5</v>
       </c>
       <c r="F54" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="G54" t="s">
-        <v>100</v>
+        <v>39</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J54" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K54">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="L54">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M54">
-        <v>5</v>
+        <v>2.8</v>
       </c>
       <c r="N54">
-        <v>1.6</v>
+        <v>2.15</v>
       </c>
       <c r="O54">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="P54">
-        <v>4.333</v>
+        <v>2.875</v>
       </c>
       <c r="Q54">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R54">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="S54">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="T54">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U54">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V54">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W54">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X54">
         <v>-1</v>
       </c>
       <c r="Y54">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Z54">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA54">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB54">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC54">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="55" spans="1:29">
@@ -5709,10 +5709,10 @@
         <v>44979.69791666666</v>
       </c>
       <c r="F57" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G57" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H57">
         <v>2</v>
@@ -5887,7 +5887,7 @@
         <v>44982.5</v>
       </c>
       <c r="F59" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G59" t="s">
         <v>64</v>
@@ -6409,7 +6409,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6348831</v>
+        <v>6348818</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6421,76 +6421,76 @@
         <v>44989.5</v>
       </c>
       <c r="F65" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G65" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="H65">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I65">
         <v>0</v>
       </c>
       <c r="J65" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K65">
-        <v>1.444</v>
+        <v>2</v>
       </c>
       <c r="L65">
-        <v>4.5</v>
+        <v>4.333</v>
       </c>
       <c r="M65">
-        <v>5</v>
+        <v>2.625</v>
       </c>
       <c r="N65">
-        <v>1.666</v>
+        <v>2</v>
       </c>
       <c r="O65">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="P65">
-        <v>3.8</v>
+        <v>2.625</v>
       </c>
       <c r="Q65">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R65">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S65">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T65">
         <v>3</v>
       </c>
       <c r="U65">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V65">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W65">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X65">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y65">
         <v>-1</v>
       </c>
       <c r="Z65">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AA65">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AB65">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC65">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="66" spans="1:29">
@@ -6498,7 +6498,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>6348818</v>
+        <v>6348816</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6510,40 +6510,40 @@
         <v>44989.5</v>
       </c>
       <c r="F66" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="G66" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J66" t="s">
         <v>108</v>
       </c>
       <c r="K66">
-        <v>2</v>
+        <v>3.75</v>
       </c>
       <c r="L66">
-        <v>4.333</v>
+        <v>4.75</v>
       </c>
       <c r="M66">
-        <v>2.625</v>
+        <v>1.571</v>
       </c>
       <c r="N66">
-        <v>2</v>
+        <v>3.8</v>
       </c>
       <c r="O66">
-        <v>4.333</v>
+        <v>4.75</v>
       </c>
       <c r="P66">
-        <v>2.625</v>
+        <v>1.571</v>
       </c>
       <c r="Q66">
-        <v>-0.25</v>
+        <v>1</v>
       </c>
       <c r="R66">
         <v>1.85</v>
@@ -6552,34 +6552,34 @@
         <v>1.95</v>
       </c>
       <c r="T66">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U66">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V66">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W66">
         <v>-1</v>
       </c>
       <c r="X66">
-        <v>3.333</v>
+        <v>3.75</v>
       </c>
       <c r="Y66">
         <v>-1</v>
       </c>
       <c r="Z66">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA66">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AB66">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC66">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="67" spans="1:29">
@@ -6587,7 +6587,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>6348816</v>
+        <v>6348815</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6599,76 +6599,76 @@
         <v>44989.5</v>
       </c>
       <c r="F67" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G67" t="s">
-        <v>72</v>
+        <v>95</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I67">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J67" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K67">
-        <v>3.75</v>
+        <v>1.363</v>
       </c>
       <c r="L67">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="M67">
-        <v>1.571</v>
+        <v>5</v>
       </c>
       <c r="N67">
-        <v>3.8</v>
+        <v>1.4</v>
       </c>
       <c r="O67">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="P67">
-        <v>1.571</v>
+        <v>5</v>
       </c>
       <c r="Q67">
-        <v>1</v>
+        <v>-1.5</v>
       </c>
       <c r="R67">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S67">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T67">
         <v>3.25</v>
       </c>
       <c r="U67">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V67">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W67">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X67">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y67">
         <v>-1</v>
       </c>
       <c r="Z67">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AA67">
         <v>-1</v>
       </c>
       <c r="AB67">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC67">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="68" spans="1:29">
@@ -6676,7 +6676,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>6348815</v>
+        <v>6348817</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6688,76 +6688,76 @@
         <v>44989.5</v>
       </c>
       <c r="F68" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="G68" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="H68">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I68">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J68" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K68">
+        <v>4.75</v>
+      </c>
+      <c r="L68">
+        <v>6</v>
+      </c>
+      <c r="M68">
         <v>1.363</v>
       </c>
-      <c r="L68">
-        <v>5.5</v>
-      </c>
-      <c r="M68">
-        <v>5</v>
-      </c>
       <c r="N68">
-        <v>1.4</v>
+        <v>4.75</v>
       </c>
       <c r="O68">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="P68">
-        <v>5</v>
+        <v>1.363</v>
       </c>
       <c r="Q68">
-        <v>-1.5</v>
+        <v>1.25</v>
       </c>
       <c r="R68">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S68">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="T68">
         <v>3.25</v>
       </c>
       <c r="U68">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V68">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W68">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X68">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Y68">
         <v>-1</v>
       </c>
       <c r="Z68">
-        <v>0.925</v>
+        <v>1.05</v>
       </c>
       <c r="AA68">
         <v>-1</v>
       </c>
       <c r="AB68">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC68">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -6765,7 +6765,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>6348817</v>
+        <v>6348831</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6777,49 +6777,49 @@
         <v>44989.5</v>
       </c>
       <c r="F69" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="G69" t="s">
-        <v>99</v>
+        <v>66</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I69">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J69" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K69">
-        <v>4.75</v>
+        <v>1.444</v>
       </c>
       <c r="L69">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="M69">
-        <v>1.363</v>
+        <v>5</v>
       </c>
       <c r="N69">
-        <v>4.75</v>
+        <v>1.666</v>
       </c>
       <c r="O69">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="P69">
-        <v>1.363</v>
+        <v>3.8</v>
       </c>
       <c r="Q69">
-        <v>1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R69">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="S69">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="T69">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U69">
         <v>1.975</v>
@@ -6828,25 +6828,25 @@
         <v>1.825</v>
       </c>
       <c r="W69">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X69">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Y69">
         <v>-1</v>
       </c>
       <c r="Z69">
-        <v>1.05</v>
+        <v>0.875</v>
       </c>
       <c r="AA69">
         <v>-1</v>
       </c>
       <c r="AB69">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC69">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -7047,7 +7047,7 @@
         <v>35</v>
       </c>
       <c r="G72" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H72">
         <v>1</v>
@@ -7133,7 +7133,7 @@
         <v>44996.5</v>
       </c>
       <c r="F73" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G73" t="s">
         <v>61</v>
@@ -7222,10 +7222,10 @@
         <v>44996.5</v>
       </c>
       <c r="F74" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G74" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H74">
         <v>3</v>
@@ -7489,7 +7489,7 @@
         <v>44999.69791666666</v>
       </c>
       <c r="F77" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G77" t="s">
         <v>90</v>
@@ -7670,7 +7670,7 @@
         <v>35</v>
       </c>
       <c r="G79" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H79">
         <v>0</v>
@@ -7922,7 +7922,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6423094</v>
+        <v>6423095</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7937,73 +7937,73 @@
         <v>62</v>
       </c>
       <c r="G82" t="s">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I82">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J82" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K82">
-        <v>6</v>
+        <v>1.571</v>
       </c>
       <c r="L82">
+        <v>3.75</v>
+      </c>
+      <c r="M82">
+        <v>4.75</v>
+      </c>
+      <c r="N82">
+        <v>1.6</v>
+      </c>
+      <c r="O82">
+        <v>3.5</v>
+      </c>
+      <c r="P82">
         <v>5</v>
       </c>
-      <c r="M82">
-        <v>1.333</v>
-      </c>
-      <c r="N82">
-        <v>5.75</v>
-      </c>
-      <c r="O82">
-        <v>4.5</v>
-      </c>
-      <c r="P82">
-        <v>1.4</v>
-      </c>
       <c r="Q82">
-        <v>1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R82">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S82">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T82">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U82">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V82">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W82">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X82">
         <v>-1</v>
       </c>
       <c r="Y82">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z82">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA82">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB82">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC82">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="83" spans="1:29">
@@ -8011,7 +8011,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6423095</v>
+        <v>6423094</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -8026,73 +8026,73 @@
         <v>63</v>
       </c>
       <c r="G83" t="s">
-        <v>83</v>
+        <v>41</v>
       </c>
       <c r="H83">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I83">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J83" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="K83">
-        <v>1.571</v>
+        <v>6</v>
       </c>
       <c r="L83">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="M83">
-        <v>4.75</v>
+        <v>1.333</v>
       </c>
       <c r="N83">
-        <v>1.6</v>
+        <v>5.75</v>
       </c>
       <c r="O83">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="P83">
-        <v>5</v>
+        <v>1.4</v>
       </c>
       <c r="Q83">
-        <v>-0.75</v>
+        <v>1.25</v>
       </c>
       <c r="R83">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S83">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T83">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U83">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V83">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W83">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X83">
         <v>-1</v>
       </c>
       <c r="Y83">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Z83">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA83">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB83">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC83">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -8201,7 +8201,7 @@
         <v>45006.69791666666</v>
       </c>
       <c r="F85" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G85" t="s">
         <v>90</v>
@@ -8557,10 +8557,10 @@
         <v>45010.5</v>
       </c>
       <c r="F89" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G89" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H89">
         <v>1</v>
@@ -8646,10 +8646,10 @@
         <v>45010.5</v>
       </c>
       <c r="F90" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G90" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H90">
         <v>1</v>
@@ -8812,7 +8812,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6454748</v>
+        <v>6454750</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8824,76 +8824,76 @@
         <v>45013.65625</v>
       </c>
       <c r="F92" t="s">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="G92" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="H92">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I92">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J92" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K92">
-        <v>1.5</v>
+        <v>4.2</v>
       </c>
       <c r="L92">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M92">
-        <v>5</v>
+        <v>1.666</v>
       </c>
       <c r="N92">
-        <v>1.571</v>
+        <v>3.75</v>
       </c>
       <c r="O92">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P92">
-        <v>4.75</v>
+        <v>1.8</v>
       </c>
       <c r="Q92">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="R92">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S92">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T92">
         <v>2.5</v>
       </c>
       <c r="U92">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V92">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W92">
         <v>-1</v>
       </c>
       <c r="X92">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y92">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z92">
         <v>-1</v>
       </c>
       <c r="AA92">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AB92">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC92">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="93" spans="1:29">
@@ -8901,7 +8901,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6454750</v>
+        <v>6454748</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8913,76 +8913,76 @@
         <v>45013.65625</v>
       </c>
       <c r="F93" t="s">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="G93" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I93">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J93" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K93">
-        <v>4.2</v>
+        <v>1.5</v>
       </c>
       <c r="L93">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M93">
-        <v>1.666</v>
+        <v>5</v>
       </c>
       <c r="N93">
-        <v>3.75</v>
+        <v>1.571</v>
       </c>
       <c r="O93">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P93">
+        <v>4.75</v>
+      </c>
+      <c r="Q93">
+        <v>-1</v>
+      </c>
+      <c r="R93">
+        <v>2</v>
+      </c>
+      <c r="S93">
         <v>1.8</v>
-      </c>
-      <c r="Q93">
-        <v>0.5</v>
-      </c>
-      <c r="R93">
-        <v>1.975</v>
-      </c>
-      <c r="S93">
-        <v>1.825</v>
       </c>
       <c r="T93">
         <v>2.5</v>
       </c>
       <c r="U93">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V93">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W93">
         <v>-1</v>
       </c>
       <c r="X93">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y93">
+        <v>-1</v>
+      </c>
+      <c r="Z93">
+        <v>-1</v>
+      </c>
+      <c r="AA93">
         <v>0.8</v>
       </c>
-      <c r="Z93">
-        <v>-1</v>
-      </c>
-      <c r="AA93">
-        <v>0.825</v>
-      </c>
       <c r="AB93">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC93">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -9002,7 +9002,7 @@
         <v>45014.65625</v>
       </c>
       <c r="F94" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G94" t="s">
         <v>36</v>
@@ -9183,7 +9183,7 @@
         <v>35</v>
       </c>
       <c r="G96" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H96">
         <v>1</v>
@@ -9272,7 +9272,7 @@
         <v>36</v>
       </c>
       <c r="G97" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H97">
         <v>1</v>
@@ -9361,7 +9361,7 @@
         <v>51</v>
       </c>
       <c r="G98" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H98">
         <v>2</v>
@@ -9628,7 +9628,7 @@
         <v>48</v>
       </c>
       <c r="G101" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H101">
         <v>1</v>
@@ -9702,7 +9702,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6498440</v>
+        <v>6498376</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9714,76 +9714,76 @@
         <v>45024.45833333334</v>
       </c>
       <c r="F102" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G102" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H102">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J102" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K102">
-        <v>1.909</v>
+        <v>2.15</v>
       </c>
       <c r="L102">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="M102">
-        <v>3.3</v>
+        <v>2.55</v>
       </c>
       <c r="N102">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="O102">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P102">
-        <v>3.1</v>
+        <v>2.6</v>
       </c>
       <c r="Q102">
         <v>-0.25</v>
       </c>
       <c r="R102">
+        <v>1.975</v>
+      </c>
+      <c r="S102">
+        <v>1.825</v>
+      </c>
+      <c r="T102">
+        <v>3</v>
+      </c>
+      <c r="U102">
         <v>1.8</v>
       </c>
-      <c r="S102">
-        <v>2</v>
-      </c>
-      <c r="T102">
-        <v>2.75</v>
-      </c>
-      <c r="U102">
-        <v>1.75</v>
-      </c>
       <c r="V102">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W102">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X102">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y102">
         <v>-1</v>
       </c>
       <c r="Z102">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA102">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB102">
         <v>-1</v>
       </c>
       <c r="AC102">
-        <v>0.95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -9791,7 +9791,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6498376</v>
+        <v>6498442</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9803,76 +9803,76 @@
         <v>45024.45833333334</v>
       </c>
       <c r="F103" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="G103" t="s">
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J103" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="K103">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="L103">
-        <v>3.9</v>
+        <v>3.25</v>
       </c>
       <c r="M103">
-        <v>2.55</v>
+        <v>3.3</v>
       </c>
       <c r="N103">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="O103">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="P103">
-        <v>2.6</v>
+        <v>3.3</v>
       </c>
       <c r="Q103">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R103">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="S103">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="T103">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U103">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V103">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W103">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X103">
         <v>-1</v>
       </c>
       <c r="Y103">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z103">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA103">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AB103">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC103">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9880,7 +9880,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6498442</v>
+        <v>6498440</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9892,25 +9892,25 @@
         <v>45024.45833333334</v>
       </c>
       <c r="F104" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G104" t="s">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I104">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J104" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K104">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="L104">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="M104">
         <v>3.3</v>
@@ -9919,49 +9919,49 @@
         <v>2</v>
       </c>
       <c r="O104">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P104">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="Q104">
+        <v>-0.25</v>
+      </c>
+      <c r="R104">
+        <v>1.8</v>
+      </c>
+      <c r="S104">
+        <v>2</v>
+      </c>
+      <c r="T104">
+        <v>2.75</v>
+      </c>
+      <c r="U104">
+        <v>1.75</v>
+      </c>
+      <c r="V104">
+        <v>1.95</v>
+      </c>
+      <c r="W104">
+        <v>-1</v>
+      </c>
+      <c r="X104">
+        <v>2.4</v>
+      </c>
+      <c r="Y104">
+        <v>-1</v>
+      </c>
+      <c r="Z104">
         <v>-0.5</v>
       </c>
-      <c r="R104">
-        <v>2.05</v>
-      </c>
-      <c r="S104">
-        <v>1.75</v>
-      </c>
-      <c r="T104">
-        <v>2.5</v>
-      </c>
-      <c r="U104">
-        <v>1.9</v>
-      </c>
-      <c r="V104">
-        <v>1.9</v>
-      </c>
-      <c r="W104">
-        <v>-1</v>
-      </c>
-      <c r="X104">
-        <v>-1</v>
-      </c>
-      <c r="Y104">
-        <v>2.3</v>
-      </c>
-      <c r="Z104">
-        <v>-1</v>
-      </c>
       <c r="AA104">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="AB104">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC104">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -10073,7 +10073,7 @@
         <v>56</v>
       </c>
       <c r="G106" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H106">
         <v>2</v>
@@ -10147,7 +10147,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>6498451</v>
+        <v>6498446</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -10159,58 +10159,58 @@
         <v>45024.45833333334</v>
       </c>
       <c r="F107" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="G107" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H107">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J107" t="s">
         <v>107</v>
       </c>
       <c r="K107">
-        <v>2</v>
+        <v>1.181</v>
       </c>
       <c r="L107">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="M107">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="N107">
-        <v>2</v>
+        <v>1.142</v>
       </c>
       <c r="O107">
-        <v>3.6</v>
+        <v>7</v>
       </c>
       <c r="P107">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="Q107">
-        <v>-0.25</v>
+        <v>-2.25</v>
       </c>
       <c r="R107">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S107">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T107">
         <v>3.25</v>
       </c>
       <c r="U107">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V107">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W107">
-        <v>1</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="X107">
         <v>-1</v>
@@ -10219,13 +10219,13 @@
         <v>-1</v>
       </c>
       <c r="Z107">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AA107">
         <v>-1</v>
       </c>
       <c r="AB107">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC107">
         <v>-1</v>
@@ -10236,7 +10236,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>6498446</v>
+        <v>6498451</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10248,58 +10248,58 @@
         <v>45024.45833333334</v>
       </c>
       <c r="F108" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="G108" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H108">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I108">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J108" t="s">
         <v>107</v>
       </c>
       <c r="K108">
-        <v>1.181</v>
+        <v>2</v>
       </c>
       <c r="L108">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="M108">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="N108">
-        <v>1.142</v>
+        <v>2</v>
       </c>
       <c r="O108">
-        <v>7</v>
+        <v>3.6</v>
       </c>
       <c r="P108">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="Q108">
-        <v>-2.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R108">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S108">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T108">
         <v>3.25</v>
       </c>
       <c r="U108">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V108">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W108">
-        <v>0.1419999999999999</v>
+        <v>1</v>
       </c>
       <c r="X108">
         <v>-1</v>
@@ -10308,13 +10308,13 @@
         <v>-1</v>
       </c>
       <c r="Z108">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AA108">
         <v>-1</v>
       </c>
       <c r="AB108">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC108">
         <v>-1</v>
@@ -10325,7 +10325,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>6498520</v>
+        <v>6498375</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10337,73 +10337,73 @@
         <v>45024.45833333334</v>
       </c>
       <c r="F109" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="G109" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I109">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J109" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="K109">
-        <v>2.6</v>
+        <v>2.9</v>
       </c>
       <c r="L109">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="M109">
         <v>2.15</v>
       </c>
       <c r="N109">
-        <v>2.4</v>
+        <v>2.9</v>
       </c>
       <c r="O109">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="P109">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="Q109">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R109">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S109">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T109">
         <v>2.75</v>
       </c>
       <c r="U109">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V109">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="W109">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X109">
         <v>-1</v>
       </c>
       <c r="Y109">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z109">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA109">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB109">
-        <v>0.425</v>
+        <v>0.4625</v>
       </c>
       <c r="AC109">
         <v>-0.5</v>
@@ -10414,7 +10414,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>6498375</v>
+        <v>6498520</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10426,73 +10426,73 @@
         <v>45024.45833333334</v>
       </c>
       <c r="F110" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="G110" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="H110">
+        <v>2</v>
+      </c>
+      <c r="I110">
         <v>1</v>
       </c>
-      <c r="I110">
-        <v>2</v>
-      </c>
       <c r="J110" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K110">
-        <v>2.9</v>
+        <v>2.6</v>
       </c>
       <c r="L110">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="M110">
         <v>2.15</v>
       </c>
       <c r="N110">
-        <v>2.9</v>
+        <v>2.4</v>
       </c>
       <c r="O110">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="P110">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="Q110">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R110">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S110">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T110">
         <v>2.75</v>
       </c>
       <c r="U110">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V110">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="W110">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X110">
         <v>-1</v>
       </c>
       <c r="Y110">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z110">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA110">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB110">
-        <v>0.4625</v>
+        <v>0.425</v>
       </c>
       <c r="AC110">
         <v>-0.5</v>
@@ -10696,7 +10696,7 @@
         <v>65</v>
       </c>
       <c r="G113" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H113">
         <v>0</v>
@@ -10782,7 +10782,7 @@
         <v>45024.45833333334</v>
       </c>
       <c r="F114" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G114" t="s">
         <v>47</v>
@@ -10963,7 +10963,7 @@
         <v>36</v>
       </c>
       <c r="G116" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H116">
         <v>0</v>
@@ -11052,7 +11052,7 @@
         <v>35</v>
       </c>
       <c r="G117" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H117">
         <v>2</v>
@@ -11319,7 +11319,7 @@
         <v>48</v>
       </c>
       <c r="G120" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H120">
         <v>2</v>
@@ -11583,7 +11583,7 @@
         <v>45034.65625</v>
       </c>
       <c r="F123" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G123" t="s">
         <v>45</v>
@@ -12120,7 +12120,7 @@
         <v>51</v>
       </c>
       <c r="G129" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H129">
         <v>3</v>
@@ -12283,7 +12283,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>7067556</v>
+        <v>7067560</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12295,76 +12295,76 @@
         <v>45153.65625</v>
       </c>
       <c r="F131" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G131" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="H131">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I131">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J131" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K131">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="L131">
         <v>3.75</v>
       </c>
       <c r="M131">
-        <v>2.55</v>
+        <v>3.4</v>
       </c>
       <c r="N131">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="O131">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P131">
-        <v>2.6</v>
+        <v>3.4</v>
       </c>
       <c r="Q131">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R131">
+        <v>1.85</v>
+      </c>
+      <c r="S131">
         <v>1.95</v>
       </c>
-      <c r="S131">
-        <v>1.75</v>
-      </c>
       <c r="T131">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U131">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V131">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W131">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X131">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y131">
         <v>-1</v>
       </c>
       <c r="Z131">
+        <v>-1</v>
+      </c>
+      <c r="AA131">
         <v>0.95</v>
       </c>
-      <c r="AA131">
-        <v>-1</v>
-      </c>
       <c r="AB131">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AC131">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -12372,7 +12372,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>7067560</v>
+        <v>7067556</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12384,76 +12384,76 @@
         <v>45153.65625</v>
       </c>
       <c r="F132" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G132" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I132">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J132" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K132">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="L132">
         <v>3.75</v>
       </c>
       <c r="M132">
-        <v>3.4</v>
+        <v>2.55</v>
       </c>
       <c r="N132">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="O132">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P132">
-        <v>3.4</v>
+        <v>2.6</v>
       </c>
       <c r="Q132">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R132">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="S132">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="T132">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U132">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V132">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W132">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X132">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y132">
         <v>-1</v>
       </c>
       <c r="Z132">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA132">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB132">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AC132">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="133" spans="1:29">
@@ -12476,7 +12476,7 @@
         <v>64</v>
       </c>
       <c r="G133" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H133">
         <v>0</v>
@@ -12562,7 +12562,7 @@
         <v>45154.65625</v>
       </c>
       <c r="F134" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G134" t="s">
         <v>91</v>
@@ -12654,7 +12654,7 @@
         <v>56</v>
       </c>
       <c r="G135" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H135">
         <v>1</v>
@@ -12817,7 +12817,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>7100544</v>
+        <v>7100392</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12829,76 +12829,76 @@
         <v>45160.65625</v>
       </c>
       <c r="F137" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="G137" t="s">
-        <v>40</v>
+        <v>92</v>
       </c>
       <c r="H137">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I137">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J137" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K137">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="L137">
         <v>4</v>
       </c>
       <c r="M137">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="N137">
-        <v>1.666</v>
+        <v>2</v>
       </c>
       <c r="O137">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P137">
-        <v>3.6</v>
+        <v>2.75</v>
       </c>
       <c r="Q137">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R137">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S137">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T137">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U137">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V137">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W137">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X137">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y137">
         <v>-1</v>
       </c>
       <c r="Z137">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AA137">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB137">
-        <v>0.45</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC137">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="138" spans="1:29">
@@ -13099,7 +13099,7 @@
         <v>31</v>
       </c>
       <c r="G140" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H140">
         <v>1</v>
@@ -13173,7 +13173,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>7100546</v>
+        <v>7100544</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -13185,76 +13185,76 @@
         <v>45160.65625</v>
       </c>
       <c r="F141" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="G141" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="H141">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I141">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J141" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K141">
-        <v>1.615</v>
+        <v>1.8</v>
       </c>
       <c r="L141">
         <v>4</v>
       </c>
       <c r="M141">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="N141">
-        <v>1.45</v>
+        <v>1.666</v>
       </c>
       <c r="O141">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="P141">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="Q141">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R141">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S141">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T141">
         <v>2.75</v>
       </c>
       <c r="U141">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V141">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W141">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X141">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y141">
         <v>-1</v>
       </c>
       <c r="Z141">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA141">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB141">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AC141">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -13262,7 +13262,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>7100543</v>
+        <v>7100405</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13277,52 +13277,52 @@
         <v>76</v>
       </c>
       <c r="G142" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="H142">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J142" t="s">
         <v>109</v>
       </c>
       <c r="K142">
-        <v>1.909</v>
+        <v>2.5</v>
       </c>
       <c r="L142">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M142">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="N142">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="O142">
         <v>3.6</v>
       </c>
       <c r="P142">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="Q142">
         <v>0</v>
       </c>
       <c r="R142">
+        <v>2</v>
+      </c>
+      <c r="S142">
         <v>1.8</v>
       </c>
-      <c r="S142">
-        <v>2</v>
-      </c>
       <c r="T142">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U142">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V142">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W142">
         <v>-1</v>
@@ -13331,16 +13331,16 @@
         <v>-1</v>
       </c>
       <c r="Y142">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="Z142">
         <v>-1</v>
       </c>
       <c r="AA142">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AB142">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AC142">
         <v>-1</v>
@@ -13351,7 +13351,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>7100394</v>
+        <v>7100543</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13363,76 +13363,76 @@
         <v>45160.65625</v>
       </c>
       <c r="F143" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="G143" t="s">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="H143">
         <v>2</v>
       </c>
       <c r="I143">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J143" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="K143">
-        <v>2.25</v>
+        <v>1.909</v>
       </c>
       <c r="L143">
         <v>3.75</v>
       </c>
       <c r="M143">
+        <v>3.1</v>
+      </c>
+      <c r="N143">
+        <v>2.3</v>
+      </c>
+      <c r="O143">
+        <v>3.6</v>
+      </c>
+      <c r="P143">
         <v>2.5</v>
       </c>
-      <c r="N143">
-        <v>1.909</v>
-      </c>
-      <c r="O143">
-        <v>4</v>
-      </c>
-      <c r="P143">
-        <v>3.1</v>
-      </c>
       <c r="Q143">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R143">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S143">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T143">
         <v>2.75</v>
       </c>
       <c r="U143">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V143">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W143">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X143">
         <v>-1</v>
       </c>
       <c r="Y143">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z143">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA143">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB143">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC143">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="144" spans="1:29">
@@ -13440,7 +13440,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>7100106</v>
+        <v>7100394</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13452,37 +13452,37 @@
         <v>45160.65625</v>
       </c>
       <c r="F144" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G144" t="s">
-        <v>102</v>
+        <v>69</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144">
         <v>0</v>
       </c>
       <c r="J144" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K144">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="L144">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="M144">
-        <v>3.2</v>
+        <v>2.5</v>
       </c>
       <c r="N144">
-        <v>1.85</v>
+        <v>1.909</v>
       </c>
       <c r="O144">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P144">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="Q144">
         <v>-0.5</v>
@@ -13497,31 +13497,31 @@
         <v>2.75</v>
       </c>
       <c r="U144">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V144">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W144">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X144">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y144">
         <v>-1</v>
       </c>
       <c r="Z144">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA144">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB144">
         <v>-1</v>
       </c>
       <c r="AC144">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:29">
@@ -13529,7 +13529,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>7100405</v>
+        <v>7100546</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13541,76 +13541,76 @@
         <v>45160.65625</v>
       </c>
       <c r="F145" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="G145" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I145">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J145" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K145">
-        <v>2.5</v>
+        <v>1.615</v>
       </c>
       <c r="L145">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M145">
-        <v>2.3</v>
+        <v>4</v>
       </c>
       <c r="N145">
-        <v>2.5</v>
+        <v>1.45</v>
       </c>
       <c r="O145">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="P145">
-        <v>2.3</v>
+        <v>5</v>
       </c>
       <c r="Q145">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R145">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S145">
+        <v>2</v>
+      </c>
+      <c r="T145">
+        <v>2.75</v>
+      </c>
+      <c r="U145">
         <v>1.8</v>
       </c>
-      <c r="T145">
-        <v>3</v>
-      </c>
-      <c r="U145">
-        <v>1.95</v>
-      </c>
       <c r="V145">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W145">
         <v>-1</v>
       </c>
       <c r="X145">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y145">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z145">
         <v>-1</v>
       </c>
       <c r="AA145">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AB145">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC145">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:29">
@@ -13618,7 +13618,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>7100111</v>
+        <v>7100106</v>
       </c>
       <c r="C146" t="s">
         <v>28</v>
@@ -13630,40 +13630,40 @@
         <v>45160.65625</v>
       </c>
       <c r="F146" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G146" t="s">
-        <v>56</v>
+        <v>102</v>
       </c>
       <c r="H146">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I146">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J146" t="s">
         <v>108</v>
       </c>
       <c r="K146">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="L146">
         <v>3.2</v>
       </c>
       <c r="M146">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="N146">
-        <v>3.1</v>
+        <v>1.85</v>
       </c>
       <c r="O146">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P146">
-        <v>2.05</v>
+        <v>3.4</v>
       </c>
       <c r="Q146">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R146">
         <v>1.95</v>
@@ -13672,34 +13672,34 @@
         <v>1.85</v>
       </c>
       <c r="T146">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U146">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V146">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W146">
         <v>-1</v>
       </c>
       <c r="X146">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="Y146">
         <v>-1</v>
       </c>
       <c r="Z146">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AA146">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB146">
         <v>-1</v>
       </c>
       <c r="AC146">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="147" spans="1:29">
@@ -13707,7 +13707,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>7100107</v>
+        <v>7100111</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13719,76 +13719,76 @@
         <v>45160.65625</v>
       </c>
       <c r="F147" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G147" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I147">
         <v>1</v>
       </c>
       <c r="J147" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K147">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="L147">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M147">
-        <v>2.4</v>
+        <v>2.75</v>
       </c>
       <c r="N147">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="O147">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P147">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="Q147">
         <v>0.25</v>
       </c>
       <c r="R147">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S147">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T147">
         <v>2.5</v>
       </c>
       <c r="U147">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V147">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W147">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="X147">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y147">
         <v>-1</v>
       </c>
       <c r="Z147">
-        <v>0.875</v>
+        <v>0.475</v>
       </c>
       <c r="AA147">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB147">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC147">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:29">
@@ -13796,7 +13796,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>7100108</v>
+        <v>7100107</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13808,58 +13808,58 @@
         <v>45160.65625</v>
       </c>
       <c r="F148" t="s">
-        <v>78</v>
+        <v>49</v>
       </c>
       <c r="G148" t="s">
-        <v>87</v>
+        <v>35</v>
       </c>
       <c r="H148">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I148">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J148" t="s">
         <v>107</v>
       </c>
       <c r="K148">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="L148">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M148">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="N148">
-        <v>2.3</v>
+        <v>2.9</v>
       </c>
       <c r="O148">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P148">
-        <v>2.625</v>
+        <v>2.1</v>
       </c>
       <c r="Q148">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R148">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S148">
-        <v>1.725</v>
+        <v>1.925</v>
       </c>
       <c r="T148">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U148">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V148">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W148">
-        <v>1.3</v>
+        <v>1.9</v>
       </c>
       <c r="X148">
         <v>-1</v>
@@ -13868,13 +13868,13 @@
         <v>-1</v>
       </c>
       <c r="Z148">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AA148">
         <v>-1</v>
       </c>
       <c r="AB148">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC148">
         <v>-1</v>
@@ -13885,7 +13885,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>7100392</v>
+        <v>7100108</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -13897,73 +13897,73 @@
         <v>45160.65625</v>
       </c>
       <c r="F149" t="s">
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="G149" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I149">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J149" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K149">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="L149">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M149">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="N149">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="O149">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P149">
-        <v>2.75</v>
+        <v>2.625</v>
       </c>
       <c r="Q149">
         <v>-0.25</v>
       </c>
       <c r="R149">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="S149">
-        <v>1.975</v>
+        <v>1.725</v>
       </c>
       <c r="T149">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U149">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V149">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W149">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X149">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y149">
         <v>-1</v>
       </c>
       <c r="Z149">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA149">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AB149">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AC149">
         <v>-1</v>
@@ -14075,7 +14075,7 @@
         <v>45160.65625</v>
       </c>
       <c r="F151" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G151" t="s">
         <v>46</v>
@@ -14152,7 +14152,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>7104131</v>
+        <v>7104130</v>
       </c>
       <c r="C152" t="s">
         <v>28</v>
@@ -14167,73 +14167,73 @@
         <v>80</v>
       </c>
       <c r="G152" t="s">
-        <v>39</v>
+        <v>90</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I152">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J152" t="s">
         <v>109</v>
       </c>
       <c r="K152">
-        <v>2.25</v>
+        <v>2.375</v>
       </c>
       <c r="L152">
+        <v>3.6</v>
+      </c>
+      <c r="M152">
+        <v>2.375</v>
+      </c>
+      <c r="N152">
+        <v>2.625</v>
+      </c>
+      <c r="O152">
         <v>3.5</v>
       </c>
-      <c r="M152">
-        <v>2.6</v>
-      </c>
-      <c r="N152">
-        <v>1.833</v>
-      </c>
-      <c r="O152">
-        <v>3.6</v>
-      </c>
       <c r="P152">
-        <v>3.5</v>
+        <v>2.2</v>
       </c>
       <c r="Q152">
+        <v>0.25</v>
+      </c>
+      <c r="R152">
+        <v>1.825</v>
+      </c>
+      <c r="S152">
+        <v>1.975</v>
+      </c>
+      <c r="T152">
+        <v>2.75</v>
+      </c>
+      <c r="U152">
+        <v>1.8</v>
+      </c>
+      <c r="V152">
+        <v>2</v>
+      </c>
+      <c r="W152">
+        <v>-1</v>
+      </c>
+      <c r="X152">
+        <v>-1</v>
+      </c>
+      <c r="Y152">
+        <v>1.2</v>
+      </c>
+      <c r="Z152">
+        <v>-1</v>
+      </c>
+      <c r="AA152">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB152">
+        <v>0.4</v>
+      </c>
+      <c r="AC152">
         <v>-0.5</v>
-      </c>
-      <c r="R152">
-        <v>1.875</v>
-      </c>
-      <c r="S152">
-        <v>1.925</v>
-      </c>
-      <c r="T152">
-        <v>2.5</v>
-      </c>
-      <c r="U152">
-        <v>1.775</v>
-      </c>
-      <c r="V152">
-        <v>1.925</v>
-      </c>
-      <c r="W152">
-        <v>-1</v>
-      </c>
-      <c r="X152">
-        <v>-1</v>
-      </c>
-      <c r="Y152">
-        <v>2.5</v>
-      </c>
-      <c r="Z152">
-        <v>-1</v>
-      </c>
-      <c r="AA152">
-        <v>0.925</v>
-      </c>
-      <c r="AB152">
-        <v>-1</v>
-      </c>
-      <c r="AC152">
-        <v>0.925</v>
       </c>
     </row>
     <row r="153" spans="1:29">
@@ -14241,7 +14241,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>7104130</v>
+        <v>7104106</v>
       </c>
       <c r="C153" t="s">
         <v>28</v>
@@ -14253,19 +14253,19 @@
         <v>45161.65625</v>
       </c>
       <c r="F153" t="s">
-        <v>81</v>
+        <v>34</v>
       </c>
       <c r="G153" t="s">
-        <v>90</v>
+        <v>59</v>
       </c>
       <c r="H153">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I153">
         <v>2</v>
       </c>
       <c r="J153" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K153">
         <v>2.375</v>
@@ -14277,13 +14277,13 @@
         <v>2.375</v>
       </c>
       <c r="N153">
-        <v>2.625</v>
+        <v>2.6</v>
       </c>
       <c r="O153">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P153">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="Q153">
         <v>0.25</v>
@@ -14295,34 +14295,34 @@
         <v>1.975</v>
       </c>
       <c r="T153">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U153">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="V153">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W153">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="X153">
         <v>-1</v>
       </c>
       <c r="Y153">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z153">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA153">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB153">
-        <v>0.4</v>
+        <v>0.75</v>
       </c>
       <c r="AC153">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="154" spans="1:29">
@@ -14419,7 +14419,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>7104106</v>
+        <v>7104131</v>
       </c>
       <c r="C155" t="s">
         <v>28</v>
@@ -14431,76 +14431,76 @@
         <v>45161.65625</v>
       </c>
       <c r="F155" t="s">
-        <v>33</v>
+        <v>81</v>
       </c>
       <c r="G155" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="H155">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I155">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J155" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="K155">
-        <v>2.375</v>
+        <v>2.25</v>
       </c>
       <c r="L155">
+        <v>3.5</v>
+      </c>
+      <c r="M155">
+        <v>2.6</v>
+      </c>
+      <c r="N155">
+        <v>1.833</v>
+      </c>
+      <c r="O155">
         <v>3.6</v>
       </c>
-      <c r="M155">
-        <v>2.375</v>
-      </c>
-      <c r="N155">
-        <v>2.6</v>
-      </c>
-      <c r="O155">
-        <v>3.8</v>
-      </c>
       <c r="P155">
-        <v>2.15</v>
+        <v>3.5</v>
       </c>
       <c r="Q155">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R155">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S155">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T155">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U155">
-        <v>1.75</v>
+        <v>1.775</v>
       </c>
       <c r="V155">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W155">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="X155">
         <v>-1</v>
       </c>
       <c r="Y155">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z155">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA155">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB155">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AC155">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="156" spans="1:29">
@@ -14864,7 +14864,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>7134272</v>
+        <v>7132468</v>
       </c>
       <c r="C160" t="s">
         <v>28</v>
@@ -14876,76 +14876,76 @@
         <v>45166.45833333334</v>
       </c>
       <c r="F160" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="G160" t="s">
-        <v>90</v>
+        <v>38</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I160">
         <v>3</v>
       </c>
       <c r="J160" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K160">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="L160">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M160">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="N160">
-        <v>2.6</v>
+        <v>2.25</v>
       </c>
       <c r="O160">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P160">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="Q160">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R160">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="S160">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="T160">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U160">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V160">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W160">
         <v>-1</v>
       </c>
       <c r="X160">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y160">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z160">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA160">
-        <v>1.025</v>
+        <v>0.375</v>
       </c>
       <c r="AB160">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC160">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="161" spans="1:29">
@@ -14953,7 +14953,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>7132468</v>
+        <v>7134272</v>
       </c>
       <c r="C161" t="s">
         <v>28</v>
@@ -14965,76 +14965,76 @@
         <v>45166.45833333334</v>
       </c>
       <c r="F161" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="G161" t="s">
-        <v>38</v>
+        <v>90</v>
       </c>
       <c r="H161">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I161">
         <v>3</v>
       </c>
       <c r="J161" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K161">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="L161">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M161">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="N161">
-        <v>2.25</v>
+        <v>2.6</v>
       </c>
       <c r="O161">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P161">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="Q161">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R161">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="S161">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="T161">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U161">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V161">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W161">
         <v>-1</v>
       </c>
       <c r="X161">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y161">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z161">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA161">
-        <v>0.375</v>
+        <v>1.025</v>
       </c>
       <c r="AB161">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC161">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="162" spans="1:29">
@@ -15143,10 +15143,10 @@
         <v>45166.45833333334</v>
       </c>
       <c r="F163" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G163" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H163">
         <v>4</v>
@@ -15502,7 +15502,7 @@
         <v>57</v>
       </c>
       <c r="G167" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H167">
         <v>3</v>
@@ -15588,7 +15588,7 @@
         <v>45182.65625</v>
       </c>
       <c r="F168" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G168" t="s">
         <v>95</v>
@@ -15769,7 +15769,7 @@
         <v>54</v>
       </c>
       <c r="G170" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H170">
         <v>5</v>
@@ -16036,7 +16036,7 @@
         <v>56</v>
       </c>
       <c r="G173" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H173">
         <v>4</v>
@@ -16122,10 +16122,10 @@
         <v>45202.65625</v>
       </c>
       <c r="F174" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G174" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H174">
         <v>0</v>
@@ -16300,7 +16300,7 @@
         <v>45202.65625</v>
       </c>
       <c r="F176" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G176" t="s">
         <v>89</v>
@@ -17101,7 +17101,7 @@
         <v>45213.45833333334</v>
       </c>
       <c r="F185" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G185" t="s">
         <v>74</v>
@@ -17193,7 +17193,7 @@
         <v>51</v>
       </c>
       <c r="G186" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H186">
         <v>1</v>
@@ -17267,7 +17267,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>7350910</v>
+        <v>7350911</v>
       </c>
       <c r="C187" t="s">
         <v>28</v>
@@ -17279,40 +17279,40 @@
         <v>45216.65625</v>
       </c>
       <c r="F187" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="G187" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187">
+        <v>2</v>
+      </c>
+      <c r="J187" t="s">
+        <v>108</v>
+      </c>
+      <c r="K187">
+        <v>4.4</v>
+      </c>
+      <c r="L187">
+        <v>4.2</v>
+      </c>
+      <c r="M187">
+        <v>1.55</v>
+      </c>
+      <c r="N187">
+        <v>5</v>
+      </c>
+      <c r="O187">
+        <v>4.333</v>
+      </c>
+      <c r="P187">
+        <v>1.5</v>
+      </c>
+      <c r="Q187">
         <v>1</v>
-      </c>
-      <c r="J187" t="s">
-        <v>109</v>
-      </c>
-      <c r="K187">
-        <v>2.25</v>
-      </c>
-      <c r="L187">
-        <v>3.75</v>
-      </c>
-      <c r="M187">
-        <v>2.5</v>
-      </c>
-      <c r="N187">
-        <v>2.5</v>
-      </c>
-      <c r="O187">
-        <v>3.75</v>
-      </c>
-      <c r="P187">
-        <v>2.25</v>
-      </c>
-      <c r="Q187">
-        <v>0</v>
       </c>
       <c r="R187">
         <v>2</v>
@@ -17324,31 +17324,31 @@
         <v>2.75</v>
       </c>
       <c r="U187">
+        <v>1.75</v>
+      </c>
+      <c r="V187">
         <v>1.95</v>
       </c>
-      <c r="V187">
-        <v>1.85</v>
-      </c>
       <c r="W187">
         <v>-1</v>
       </c>
       <c r="X187">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y187">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z187">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA187">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB187">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AC187">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="188" spans="1:29">
@@ -17356,7 +17356,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>7350912</v>
+        <v>7350910</v>
       </c>
       <c r="C188" t="s">
         <v>28</v>
@@ -17368,49 +17368,49 @@
         <v>45216.65625</v>
       </c>
       <c r="F188" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="G188" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="H188">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I188">
         <v>1</v>
       </c>
       <c r="J188" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="K188">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L188">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="M188">
         <v>2.5</v>
       </c>
       <c r="N188">
-        <v>2.375</v>
+        <v>2.5</v>
       </c>
       <c r="O188">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P188">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="Q188">
         <v>0</v>
       </c>
       <c r="R188">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S188">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T188">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U188">
         <v>1.95</v>
@@ -17419,25 +17419,25 @@
         <v>1.85</v>
       </c>
       <c r="W188">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X188">
         <v>-1</v>
       </c>
       <c r="Y188">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z188">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA188">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB188">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC188">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="189" spans="1:29">
@@ -17445,7 +17445,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>7350911</v>
+        <v>7350921</v>
       </c>
       <c r="C189" t="s">
         <v>28</v>
@@ -17457,76 +17457,76 @@
         <v>45216.65625</v>
       </c>
       <c r="F189" t="s">
-        <v>83</v>
+        <v>41</v>
       </c>
       <c r="G189" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="H189">
         <v>2</v>
       </c>
       <c r="I189">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J189" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K189">
-        <v>4.4</v>
+        <v>2</v>
       </c>
       <c r="L189">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="M189">
-        <v>1.55</v>
+        <v>2.75</v>
       </c>
       <c r="N189">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O189">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="P189">
-        <v>1.5</v>
+        <v>2.75</v>
       </c>
       <c r="Q189">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="R189">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S189">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T189">
         <v>2.75</v>
       </c>
       <c r="U189">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="V189">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W189">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X189">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y189">
         <v>-1</v>
       </c>
       <c r="Z189">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA189">
         <v>-1</v>
       </c>
       <c r="AB189">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AC189">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="190" spans="1:29">
@@ -17534,7 +17534,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>7350921</v>
+        <v>7350912</v>
       </c>
       <c r="C190" t="s">
         <v>28</v>
@@ -17546,58 +17546,58 @@
         <v>45216.65625</v>
       </c>
       <c r="F190" t="s">
-        <v>41</v>
+        <v>90</v>
       </c>
       <c r="G190" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="H190">
         <v>2</v>
       </c>
       <c r="I190">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J190" t="s">
         <v>107</v>
       </c>
       <c r="K190">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="L190">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="M190">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="N190">
-        <v>2</v>
+        <v>2.375</v>
       </c>
       <c r="O190">
         <v>4</v>
       </c>
       <c r="P190">
-        <v>2.75</v>
+        <v>2.3</v>
       </c>
       <c r="Q190">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R190">
+        <v>1.925</v>
+      </c>
+      <c r="S190">
+        <v>1.875</v>
+      </c>
+      <c r="T190">
+        <v>3</v>
+      </c>
+      <c r="U190">
+        <v>1.95</v>
+      </c>
+      <c r="V190">
         <v>1.85</v>
       </c>
-      <c r="S190">
-        <v>1.95</v>
-      </c>
-      <c r="T190">
-        <v>2.75</v>
-      </c>
-      <c r="U190">
-        <v>1.875</v>
-      </c>
-      <c r="V190">
-        <v>1.925</v>
-      </c>
       <c r="W190">
-        <v>1</v>
+        <v>1.375</v>
       </c>
       <c r="X190">
         <v>-1</v>
@@ -17606,16 +17606,16 @@
         <v>-1</v>
       </c>
       <c r="Z190">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AA190">
         <v>-1</v>
       </c>
       <c r="AB190">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC190">
-        <v>0.925</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="191" spans="1:29">
@@ -17635,10 +17635,10 @@
         <v>45220.45833333334</v>
       </c>
       <c r="F191" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G191" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H191">
         <v>1</v>
@@ -17994,7 +17994,7 @@
         <v>35</v>
       </c>
       <c r="G195" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H195">
         <v>0</v>
@@ -18335,7 +18335,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>7440454</v>
+        <v>7440455</v>
       </c>
       <c r="C199" t="s">
         <v>28</v>
@@ -18347,10 +18347,10 @@
         <v>45237.69791666666</v>
       </c>
       <c r="F199" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G199" t="s">
-        <v>54</v>
+        <v>95</v>
       </c>
       <c r="H199">
         <v>2</v>
@@ -18362,43 +18362,43 @@
         <v>107</v>
       </c>
       <c r="K199">
-        <v>1.85</v>
+        <v>1.5</v>
       </c>
       <c r="L199">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="M199">
-        <v>3.1</v>
+        <v>4.75</v>
       </c>
       <c r="N199">
-        <v>1.85</v>
+        <v>1.5</v>
       </c>
       <c r="O199">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P199">
-        <v>3.1</v>
+        <v>4.75</v>
       </c>
       <c r="Q199">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R199">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S199">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T199">
         <v>3</v>
       </c>
       <c r="U199">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V199">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W199">
-        <v>0.8500000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="X199">
         <v>-1</v>
@@ -18407,10 +18407,10 @@
         <v>-1</v>
       </c>
       <c r="Z199">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA199">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB199">
         <v>0</v>
@@ -18424,7 +18424,7 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>7440455</v>
+        <v>7440454</v>
       </c>
       <c r="C200" t="s">
         <v>28</v>
@@ -18436,10 +18436,10 @@
         <v>45237.69791666666</v>
       </c>
       <c r="F200" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G200" t="s">
-        <v>95</v>
+        <v>54</v>
       </c>
       <c r="H200">
         <v>2</v>
@@ -18451,43 +18451,43 @@
         <v>107</v>
       </c>
       <c r="K200">
-        <v>1.5</v>
+        <v>1.85</v>
       </c>
       <c r="L200">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="M200">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="N200">
-        <v>1.5</v>
+        <v>1.85</v>
       </c>
       <c r="O200">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P200">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="Q200">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R200">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S200">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T200">
         <v>3</v>
       </c>
       <c r="U200">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V200">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W200">
-        <v>0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X200">
         <v>-1</v>
@@ -18496,10 +18496,10 @@
         <v>-1</v>
       </c>
       <c r="Z200">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA200">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB200">
         <v>0</v>
@@ -18525,7 +18525,7 @@
         <v>45237.69791666666</v>
       </c>
       <c r="F201" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G201" t="s">
         <v>85</v>
@@ -19062,7 +19062,7 @@
         <v>79</v>
       </c>
       <c r="G207" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H207">
         <v>4</v>
@@ -19326,7 +19326,7 @@
         <v>45258.69791666666</v>
       </c>
       <c r="F210" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G210" t="s">
         <v>78</v>
@@ -19415,7 +19415,7 @@
         <v>45262.5</v>
       </c>
       <c r="F211" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G211" t="s">
         <v>104</v>
@@ -19682,7 +19682,7 @@
         <v>45269.5</v>
       </c>
       <c r="F214" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G214" t="s">
         <v>71</v>
@@ -19848,7 +19848,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>7581048</v>
+        <v>7581047</v>
       </c>
       <c r="C216" t="s">
         <v>28</v>
@@ -19860,76 +19860,76 @@
         <v>45272.69791666666</v>
       </c>
       <c r="F216" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="G216" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="H216">
         <v>0</v>
       </c>
       <c r="I216">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J216" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K216">
-        <v>2.25</v>
+        <v>6</v>
       </c>
       <c r="L216">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="M216">
-        <v>2.5</v>
+        <v>1.333</v>
       </c>
       <c r="N216">
-        <v>2.2</v>
+        <v>5</v>
       </c>
       <c r="O216">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="P216">
-        <v>2.5</v>
+        <v>1.45</v>
       </c>
       <c r="Q216">
-        <v>-0.25</v>
+        <v>1.25</v>
       </c>
       <c r="R216">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S216">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T216">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U216">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="V216">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="W216">
         <v>-1</v>
       </c>
       <c r="X216">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y216">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z216">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA216">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB216">
         <v>-1</v>
       </c>
       <c r="AC216">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="217" spans="1:29">
@@ -19937,7 +19937,7 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>7581047</v>
+        <v>7581048</v>
       </c>
       <c r="C217" t="s">
         <v>28</v>
@@ -19949,76 +19949,76 @@
         <v>45272.69791666666</v>
       </c>
       <c r="F217" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="G217" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="H217">
         <v>0</v>
       </c>
       <c r="I217">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J217" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K217">
-        <v>6</v>
+        <v>2.25</v>
       </c>
       <c r="L217">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="M217">
-        <v>1.333</v>
+        <v>2.5</v>
       </c>
       <c r="N217">
-        <v>5</v>
+        <v>2.2</v>
       </c>
       <c r="O217">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="P217">
-        <v>1.45</v>
+        <v>2.5</v>
       </c>
       <c r="Q217">
-        <v>1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R217">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S217">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T217">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U217">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="V217">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="W217">
         <v>-1</v>
       </c>
       <c r="X217">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y217">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z217">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA217">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB217">
         <v>-1</v>
       </c>
       <c r="AC217">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="218" spans="1:29">
@@ -20038,7 +20038,7 @@
         <v>45275.69791666666</v>
       </c>
       <c r="F218" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G218" t="s">
         <v>102</v>
@@ -20216,7 +20216,7 @@
         <v>45282.69791666666</v>
       </c>
       <c r="F220" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G220" t="s">
         <v>51</v>
@@ -20397,7 +20397,7 @@
         <v>88</v>
       </c>
       <c r="G222" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H222">
         <v>1</v>
@@ -20483,7 +20483,7 @@
         <v>45286.41666666666</v>
       </c>
       <c r="F223" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G223" t="s">
         <v>56</v>
@@ -20572,7 +20572,7 @@
         <v>45286.41666666666</v>
       </c>
       <c r="F224" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G224" t="s">
         <v>35</v>
@@ -20753,7 +20753,7 @@
         <v>90</v>
       </c>
       <c r="G226" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H226">
         <v>1</v>
@@ -20842,7 +20842,7 @@
         <v>61</v>
       </c>
       <c r="G227" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H227">
         <v>2</v>
@@ -21109,7 +21109,7 @@
         <v>93</v>
       </c>
       <c r="G230" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H230">
         <v>5</v>
@@ -21999,7 +21999,7 @@
         <v>73</v>
       </c>
       <c r="G240" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H240">
         <v>1</v>
@@ -22174,7 +22174,7 @@
         <v>45300.69791666666</v>
       </c>
       <c r="F242" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G242" t="s">
         <v>87</v>
@@ -22266,7 +22266,7 @@
         <v>79</v>
       </c>
       <c r="G243" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H243">
         <v>0</v>
@@ -22533,7 +22533,7 @@
         <v>56</v>
       </c>
       <c r="G246" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H246">
         <v>2</v>
@@ -22889,7 +22889,7 @@
         <v>88</v>
       </c>
       <c r="G250" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H250">
         <v>1</v>
@@ -23052,7 +23052,7 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>7719604</v>
+        <v>7719544</v>
       </c>
       <c r="C252" t="s">
         <v>28</v>
@@ -23064,13 +23064,13 @@
         <v>45311.5</v>
       </c>
       <c r="F252" t="s">
-        <v>88</v>
+        <v>34</v>
       </c>
       <c r="G252" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="H252">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I252">
         <v>0</v>
@@ -23079,43 +23079,43 @@
         <v>107</v>
       </c>
       <c r="K252">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="L252">
         <v>4</v>
       </c>
       <c r="M252">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="N252">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="O252">
         <v>4</v>
       </c>
       <c r="P252">
-        <v>2.45</v>
+        <v>2.7</v>
       </c>
       <c r="Q252">
         <v>-0.25</v>
       </c>
       <c r="R252">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="S252">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="T252">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U252">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V252">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W252">
-        <v>1.25</v>
+        <v>1.05</v>
       </c>
       <c r="X252">
         <v>-1</v>
@@ -23124,16 +23124,16 @@
         <v>-1</v>
       </c>
       <c r="Z252">
-        <v>1.05</v>
+        <v>0.875</v>
       </c>
       <c r="AA252">
         <v>-1</v>
       </c>
       <c r="AB252">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC252">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="253" spans="1:29">
@@ -23141,7 +23141,7 @@
         <v>251</v>
       </c>
       <c r="B253">
-        <v>7719544</v>
+        <v>7719594</v>
       </c>
       <c r="C253" t="s">
         <v>28</v>
@@ -23153,76 +23153,76 @@
         <v>45311.5</v>
       </c>
       <c r="F253" t="s">
-        <v>33</v>
+        <v>71</v>
       </c>
       <c r="G253" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H253">
+        <v>0</v>
+      </c>
+      <c r="I253">
+        <v>0</v>
+      </c>
+      <c r="J253" t="s">
+        <v>108</v>
+      </c>
+      <c r="K253">
+        <v>1.4</v>
+      </c>
+      <c r="L253">
+        <v>5</v>
+      </c>
+      <c r="M253">
+        <v>5</v>
+      </c>
+      <c r="N253">
+        <v>1.4</v>
+      </c>
+      <c r="O253">
+        <v>5</v>
+      </c>
+      <c r="P253">
+        <v>5</v>
+      </c>
+      <c r="Q253">
+        <v>-1.25</v>
+      </c>
+      <c r="R253">
+        <v>1.85</v>
+      </c>
+      <c r="S253">
+        <v>1.95</v>
+      </c>
+      <c r="T253">
         <v>3</v>
       </c>
-      <c r="I253">
-        <v>0</v>
-      </c>
-      <c r="J253" t="s">
-        <v>107</v>
-      </c>
-      <c r="K253">
-        <v>2.05</v>
-      </c>
-      <c r="L253">
+      <c r="U253">
+        <v>1.825</v>
+      </c>
+      <c r="V253">
+        <v>1.975</v>
+      </c>
+      <c r="W253">
+        <v>-1</v>
+      </c>
+      <c r="X253">
         <v>4</v>
       </c>
-      <c r="M253">
-        <v>2.7</v>
-      </c>
-      <c r="N253">
-        <v>2.05</v>
-      </c>
-      <c r="O253">
-        <v>4</v>
-      </c>
-      <c r="P253">
-        <v>2.7</v>
-      </c>
-      <c r="Q253">
-        <v>-0.25</v>
-      </c>
-      <c r="R253">
-        <v>1.875</v>
-      </c>
-      <c r="S253">
-        <v>1.925</v>
-      </c>
-      <c r="T253">
-        <v>2.5</v>
-      </c>
-      <c r="U253">
-        <v>1.8</v>
-      </c>
-      <c r="V253">
-        <v>2</v>
-      </c>
-      <c r="W253">
-        <v>1.05</v>
-      </c>
-      <c r="X253">
-        <v>-1</v>
-      </c>
       <c r="Y253">
         <v>-1</v>
       </c>
       <c r="Z253">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA253">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB253">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC253">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="254" spans="1:29">
@@ -23230,7 +23230,7 @@
         <v>252</v>
       </c>
       <c r="B254">
-        <v>7719594</v>
+        <v>7719604</v>
       </c>
       <c r="C254" t="s">
         <v>28</v>
@@ -23242,46 +23242,46 @@
         <v>45311.5</v>
       </c>
       <c r="F254" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="G254" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="H254">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I254">
         <v>0</v>
       </c>
       <c r="J254" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K254">
-        <v>1.4</v>
+        <v>2.25</v>
       </c>
       <c r="L254">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M254">
-        <v>5</v>
+        <v>2.4</v>
       </c>
       <c r="N254">
-        <v>1.4</v>
+        <v>2.25</v>
       </c>
       <c r="O254">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P254">
-        <v>5</v>
+        <v>2.45</v>
       </c>
       <c r="Q254">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R254">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="S254">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="T254">
         <v>3</v>
@@ -23293,19 +23293,19 @@
         <v>1.975</v>
       </c>
       <c r="W254">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X254">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Y254">
         <v>-1</v>
       </c>
       <c r="Z254">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA254">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB254">
         <v>-1</v>
@@ -23423,7 +23423,7 @@
         <v>94</v>
       </c>
       <c r="G256" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H256">
         <v>2</v>
@@ -23776,7 +23776,7 @@
         <v>45321.69791666666</v>
       </c>
       <c r="F260" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G260" t="s">
         <v>35</v>
@@ -24046,7 +24046,7 @@
         <v>95</v>
       </c>
       <c r="G263" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H263">
         <v>3</v>
@@ -24132,7 +24132,7 @@
         <v>45325.5</v>
       </c>
       <c r="F264" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G264" t="s">
         <v>29</v>
@@ -24224,7 +24224,7 @@
         <v>60</v>
       </c>
       <c r="G265" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H265">
         <v>1</v>
@@ -24577,7 +24577,7 @@
         <v>45332.5</v>
       </c>
       <c r="F269" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G269" t="s">
         <v>105</v>
@@ -24736,6 +24736,450 @@
       </c>
       <c r="AC270">
         <v>-0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:29">
+      <c r="A271" s="1">
+        <v>269</v>
+      </c>
+      <c r="B271">
+        <v>7844457</v>
+      </c>
+      <c r="C271" t="s">
+        <v>28</v>
+      </c>
+      <c r="D271" t="s">
+        <v>28</v>
+      </c>
+      <c r="E271" s="2">
+        <v>45339.5</v>
+      </c>
+      <c r="F271" t="s">
+        <v>35</v>
+      </c>
+      <c r="G271" t="s">
+        <v>80</v>
+      </c>
+      <c r="K271">
+        <v>1.6</v>
+      </c>
+      <c r="L271">
+        <v>4</v>
+      </c>
+      <c r="M271">
+        <v>4.2</v>
+      </c>
+      <c r="N271">
+        <v>1.6</v>
+      </c>
+      <c r="O271">
+        <v>4</v>
+      </c>
+      <c r="P271">
+        <v>4.2</v>
+      </c>
+      <c r="Q271">
+        <v>-0.75</v>
+      </c>
+      <c r="R271">
+        <v>1.8</v>
+      </c>
+      <c r="S271">
+        <v>2</v>
+      </c>
+      <c r="T271">
+        <v>2.5</v>
+      </c>
+      <c r="U271">
+        <v>1.85</v>
+      </c>
+      <c r="V271">
+        <v>1.95</v>
+      </c>
+      <c r="W271">
+        <v>0</v>
+      </c>
+      <c r="X271">
+        <v>0</v>
+      </c>
+      <c r="Y271">
+        <v>0</v>
+      </c>
+      <c r="Z271">
+        <v>0</v>
+      </c>
+      <c r="AA271">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:29">
+      <c r="A272" s="1">
+        <v>270</v>
+      </c>
+      <c r="B272">
+        <v>7844458</v>
+      </c>
+      <c r="C272" t="s">
+        <v>28</v>
+      </c>
+      <c r="D272" t="s">
+        <v>28</v>
+      </c>
+      <c r="E272" s="2">
+        <v>45339.5</v>
+      </c>
+      <c r="F272" t="s">
+        <v>86</v>
+      </c>
+      <c r="G272" t="s">
+        <v>39</v>
+      </c>
+      <c r="K272">
+        <v>3.6</v>
+      </c>
+      <c r="L272">
+        <v>3.6</v>
+      </c>
+      <c r="M272">
+        <v>1.8</v>
+      </c>
+      <c r="N272">
+        <v>4</v>
+      </c>
+      <c r="O272">
+        <v>3.5</v>
+      </c>
+      <c r="P272">
+        <v>1.7</v>
+      </c>
+      <c r="Q272">
+        <v>0.5</v>
+      </c>
+      <c r="R272">
+        <v>2.05</v>
+      </c>
+      <c r="S272">
+        <v>1.75</v>
+      </c>
+      <c r="T272">
+        <v>3</v>
+      </c>
+      <c r="U272">
+        <v>1.95</v>
+      </c>
+      <c r="V272">
+        <v>1.85</v>
+      </c>
+      <c r="W272">
+        <v>0</v>
+      </c>
+      <c r="X272">
+        <v>0</v>
+      </c>
+      <c r="Y272">
+        <v>0</v>
+      </c>
+      <c r="Z272">
+        <v>0</v>
+      </c>
+      <c r="AA272">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:27">
+      <c r="A273" s="1">
+        <v>271</v>
+      </c>
+      <c r="B273">
+        <v>7844459</v>
+      </c>
+      <c r="C273" t="s">
+        <v>28</v>
+      </c>
+      <c r="D273" t="s">
+        <v>28</v>
+      </c>
+      <c r="E273" s="2">
+        <v>45339.5</v>
+      </c>
+      <c r="F273" t="s">
+        <v>45</v>
+      </c>
+      <c r="G273" t="s">
+        <v>75</v>
+      </c>
+      <c r="K273">
+        <v>1.4</v>
+      </c>
+      <c r="L273">
+        <v>4.5</v>
+      </c>
+      <c r="M273">
+        <v>5.5</v>
+      </c>
+      <c r="N273">
+        <v>1.4</v>
+      </c>
+      <c r="O273">
+        <v>4.5</v>
+      </c>
+      <c r="P273">
+        <v>5.25</v>
+      </c>
+      <c r="Q273">
+        <v>-1.25</v>
+      </c>
+      <c r="R273">
+        <v>1.9</v>
+      </c>
+      <c r="S273">
+        <v>1.9</v>
+      </c>
+      <c r="T273">
+        <v>2.75</v>
+      </c>
+      <c r="U273">
+        <v>1.9</v>
+      </c>
+      <c r="V273">
+        <v>1.9</v>
+      </c>
+      <c r="W273">
+        <v>0</v>
+      </c>
+      <c r="X273">
+        <v>0</v>
+      </c>
+      <c r="Y273">
+        <v>0</v>
+      </c>
+      <c r="Z273">
+        <v>0</v>
+      </c>
+      <c r="AA273">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:27">
+      <c r="A274" s="1">
+        <v>272</v>
+      </c>
+      <c r="B274">
+        <v>7844460</v>
+      </c>
+      <c r="C274" t="s">
+        <v>28</v>
+      </c>
+      <c r="D274" t="s">
+        <v>28</v>
+      </c>
+      <c r="E274" s="2">
+        <v>45339.5</v>
+      </c>
+      <c r="F274" t="s">
+        <v>38</v>
+      </c>
+      <c r="G274" t="s">
+        <v>69</v>
+      </c>
+      <c r="K274">
+        <v>1.8</v>
+      </c>
+      <c r="L274">
+        <v>3.8</v>
+      </c>
+      <c r="M274">
+        <v>3.4</v>
+      </c>
+      <c r="N274">
+        <v>1.8</v>
+      </c>
+      <c r="O274">
+        <v>3.8</v>
+      </c>
+      <c r="P274">
+        <v>3.3</v>
+      </c>
+      <c r="Q274">
+        <v>-0.5</v>
+      </c>
+      <c r="R274">
+        <v>1.85</v>
+      </c>
+      <c r="S274">
+        <v>1.95</v>
+      </c>
+      <c r="T274">
+        <v>2.75</v>
+      </c>
+      <c r="U274">
+        <v>1.8</v>
+      </c>
+      <c r="V274">
+        <v>2</v>
+      </c>
+      <c r="W274">
+        <v>0</v>
+      </c>
+      <c r="X274">
+        <v>0</v>
+      </c>
+      <c r="Y274">
+        <v>0</v>
+      </c>
+      <c r="Z274">
+        <v>0</v>
+      </c>
+      <c r="AA274">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:27">
+      <c r="A275" s="1">
+        <v>273</v>
+      </c>
+      <c r="B275">
+        <v>7844461</v>
+      </c>
+      <c r="C275" t="s">
+        <v>28</v>
+      </c>
+      <c r="D275" t="s">
+        <v>28</v>
+      </c>
+      <c r="E275" s="2">
+        <v>45339.5</v>
+      </c>
+      <c r="F275" t="s">
+        <v>34</v>
+      </c>
+      <c r="G275" t="s">
+        <v>33</v>
+      </c>
+      <c r="K275">
+        <v>1.6</v>
+      </c>
+      <c r="L275">
+        <v>4</v>
+      </c>
+      <c r="M275">
+        <v>4.2</v>
+      </c>
+      <c r="N275">
+        <v>1.75</v>
+      </c>
+      <c r="O275">
+        <v>4</v>
+      </c>
+      <c r="P275">
+        <v>3.4</v>
+      </c>
+      <c r="Q275">
+        <v>-0.5</v>
+      </c>
+      <c r="R275">
+        <v>1.8</v>
+      </c>
+      <c r="S275">
+        <v>2</v>
+      </c>
+      <c r="T275">
+        <v>2.75</v>
+      </c>
+      <c r="U275">
+        <v>1.85</v>
+      </c>
+      <c r="V275">
+        <v>1.95</v>
+      </c>
+      <c r="W275">
+        <v>0</v>
+      </c>
+      <c r="X275">
+        <v>0</v>
+      </c>
+      <c r="Y275">
+        <v>0</v>
+      </c>
+      <c r="Z275">
+        <v>0</v>
+      </c>
+      <c r="AA275">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:27">
+      <c r="A276" s="1">
+        <v>274</v>
+      </c>
+      <c r="B276">
+        <v>7844462</v>
+      </c>
+      <c r="C276" t="s">
+        <v>28</v>
+      </c>
+      <c r="D276" t="s">
+        <v>28</v>
+      </c>
+      <c r="E276" s="2">
+        <v>45339.5</v>
+      </c>
+      <c r="F276" t="s">
+        <v>79</v>
+      </c>
+      <c r="G276" t="s">
+        <v>71</v>
+      </c>
+      <c r="K276">
+        <v>2.4</v>
+      </c>
+      <c r="L276">
+        <v>4</v>
+      </c>
+      <c r="M276">
+        <v>2.25</v>
+      </c>
+      <c r="N276">
+        <v>2.4</v>
+      </c>
+      <c r="O276">
+        <v>4</v>
+      </c>
+      <c r="P276">
+        <v>2.25</v>
+      </c>
+      <c r="Q276">
+        <v>0</v>
+      </c>
+      <c r="R276">
+        <v>1.975</v>
+      </c>
+      <c r="S276">
+        <v>1.825</v>
+      </c>
+      <c r="T276">
+        <v>3</v>
+      </c>
+      <c r="U276">
+        <v>1.775</v>
+      </c>
+      <c r="V276">
+        <v>2.025</v>
+      </c>
+      <c r="W276">
+        <v>0</v>
+      </c>
+      <c r="X276">
+        <v>0</v>
+      </c>
+      <c r="Y276">
+        <v>0</v>
+      </c>
+      <c r="Z276">
+        <v>0</v>
+      </c>
+      <c r="AA276">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/England Northern League Division One/England Northern League Division One.xlsx
+++ b/England Northern League Division One/England Northern League Division One.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1397" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1373" uniqueCount="110">
   <si>
     <t>id</t>
   </si>
@@ -115,10 +115,10 @@
     <t>Shildon</t>
   </si>
   <si>
-    <t>Ossett United</t>
+    <t>Grimsby Borough</t>
   </si>
   <si>
-    <t>Grimsby Borough</t>
+    <t>Ossett United</t>
   </si>
   <si>
     <t>Stocksbridge PS</t>
@@ -163,19 +163,19 @@
     <t>Dunston UTS</t>
   </si>
   <si>
-    <t>Grantham</t>
+    <t>Shepshed Dynamo</t>
   </si>
   <si>
-    <t>Shepshed Dynamo</t>
+    <t>Grantham</t>
   </si>
   <si>
     <t>Sheffield FC</t>
   </si>
   <si>
-    <t>Long Eaton Utd</t>
+    <t>Pontefract Collieries</t>
   </si>
   <si>
-    <t>Pontefract Collieries</t>
+    <t>Long Eaton Utd</t>
   </si>
   <si>
     <t>Cambridge City</t>
@@ -202,10 +202,10 @@
     <t>Bridlington Town</t>
   </si>
   <si>
-    <t>Chasetown</t>
+    <t>Widnes</t>
   </si>
   <si>
-    <t>Widnes</t>
+    <t>Chasetown</t>
   </si>
   <si>
     <t>Corby</t>
@@ -244,10 +244,10 @@
     <t>AFC Rushden  Diamonds</t>
   </si>
   <si>
-    <t>Rugby Town</t>
+    <t>Hednesford</t>
   </si>
   <si>
-    <t>Hednesford</t>
+    <t>Rugby Town</t>
   </si>
   <si>
     <t>Liversedge</t>
@@ -256,10 +256,10 @@
     <t>North Ferriby</t>
   </si>
   <si>
-    <t>Winterton Rangers</t>
+    <t>Avro FC</t>
   </si>
   <si>
-    <t>Avro FC</t>
+    <t>Winterton Rangers</t>
   </si>
   <si>
     <t>Stalybridge</t>
@@ -280,10 +280,10 @@
     <t>Newton Aycliffe</t>
   </si>
   <si>
-    <t>Nantwich Town</t>
+    <t>Harborough Town</t>
   </si>
   <si>
-    <t>Harborough Town</t>
+    <t>Nantwich Town</t>
   </si>
   <si>
     <t>Carlton Town</t>
@@ -292,10 +292,10 @@
     <t>Bootle</t>
   </si>
   <si>
-    <t>Quorn</t>
+    <t>Belper Town</t>
   </si>
   <si>
-    <t>Belper Town</t>
+    <t>Quorn</t>
   </si>
   <si>
     <t>Walsall Wood</t>
@@ -705,7 +705,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC276"/>
+  <dimension ref="A1:AC270"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1158,7 +1158,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6084115</v>
+        <v>6084117</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -1173,70 +1173,70 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I6">
         <v>2</v>
       </c>
       <c r="J6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K6">
-        <v>3.2</v>
+        <v>2.25</v>
       </c>
       <c r="L6">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="M6">
-        <v>1.909</v>
+        <v>3</v>
       </c>
       <c r="N6">
-        <v>2.875</v>
+        <v>2.25</v>
       </c>
       <c r="O6">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="P6">
-        <v>2.15</v>
+        <v>3</v>
       </c>
       <c r="Q6">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R6">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S6">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T6">
         <v>2.75</v>
       </c>
       <c r="U6">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V6">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W6">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X6">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y6">
         <v>-1</v>
       </c>
       <c r="Z6">
-        <v>0.425</v>
+        <v>1</v>
       </c>
       <c r="AA6">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB6">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC6">
         <v>-1</v>
@@ -1247,7 +1247,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6084117</v>
+        <v>6084115</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1262,70 +1262,70 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="H7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I7">
         <v>2</v>
       </c>
       <c r="J7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K7">
-        <v>2.25</v>
+        <v>3.2</v>
       </c>
       <c r="L7">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="M7">
-        <v>3</v>
+        <v>1.909</v>
       </c>
       <c r="N7">
-        <v>2.25</v>
+        <v>2.875</v>
       </c>
       <c r="O7">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="P7">
-        <v>3</v>
+        <v>2.15</v>
       </c>
       <c r="Q7">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R7">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S7">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T7">
         <v>2.75</v>
       </c>
       <c r="U7">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V7">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W7">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X7">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y7">
         <v>-1</v>
       </c>
       <c r="Z7">
-        <v>1</v>
+        <v>0.425</v>
       </c>
       <c r="AA7">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB7">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AC7">
         <v>-1</v>
@@ -2330,7 +2330,7 @@
         <v>32</v>
       </c>
       <c r="G19" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H19">
         <v>1</v>
@@ -2416,7 +2416,7 @@
         <v>44953.69791666666</v>
       </c>
       <c r="F20" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G20" t="s">
         <v>47</v>
@@ -2760,7 +2760,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6204107</v>
+        <v>6204105</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2772,10 +2772,10 @@
         <v>44957.69791666666</v>
       </c>
       <c r="F24" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G24" t="s">
-        <v>97</v>
+        <v>65</v>
       </c>
       <c r="H24">
         <v>2</v>
@@ -2787,43 +2787,43 @@
         <v>107</v>
       </c>
       <c r="K24">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="L24">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M24">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="N24">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="O24">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P24">
-        <v>3.8</v>
+        <v>2.9</v>
       </c>
       <c r="Q24">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R24">
+        <v>1.975</v>
+      </c>
+      <c r="S24">
         <v>1.825</v>
-      </c>
-      <c r="S24">
-        <v>1.975</v>
       </c>
       <c r="T24">
         <v>2.75</v>
       </c>
       <c r="U24">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V24">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W24">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="X24">
         <v>-1</v>
@@ -2832,13 +2832,13 @@
         <v>-1</v>
       </c>
       <c r="Z24">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA24">
         <v>-1</v>
       </c>
       <c r="AB24">
-        <v>0.4</v>
+        <v>0.4375</v>
       </c>
       <c r="AC24">
         <v>-0.5</v>
@@ -2849,7 +2849,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6204105</v>
+        <v>6204107</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2861,10 +2861,10 @@
         <v>44957.69791666666</v>
       </c>
       <c r="F25" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G25" t="s">
-        <v>65</v>
+        <v>97</v>
       </c>
       <c r="H25">
         <v>2</v>
@@ -2876,43 +2876,43 @@
         <v>107</v>
       </c>
       <c r="K25">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="L25">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M25">
-        <v>3.25</v>
+        <v>3.8</v>
       </c>
       <c r="N25">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="O25">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P25">
-        <v>2.9</v>
+        <v>3.8</v>
       </c>
       <c r="Q25">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R25">
+        <v>1.825</v>
+      </c>
+      <c r="S25">
         <v>1.975</v>
-      </c>
-      <c r="S25">
-        <v>1.825</v>
       </c>
       <c r="T25">
         <v>2.75</v>
       </c>
       <c r="U25">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V25">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W25">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="X25">
         <v>-1</v>
@@ -2921,13 +2921,13 @@
         <v>-1</v>
       </c>
       <c r="Z25">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AA25">
         <v>-1</v>
       </c>
       <c r="AB25">
-        <v>0.4375</v>
+        <v>0.4</v>
       </c>
       <c r="AC25">
         <v>-0.5</v>
@@ -3205,7 +3205,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6224010</v>
+        <v>6224009</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3220,7 +3220,7 @@
         <v>49</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H29">
         <v>0</v>
@@ -3232,31 +3232,31 @@
         <v>109</v>
       </c>
       <c r="K29">
-        <v>3.4</v>
+        <v>2</v>
       </c>
       <c r="L29">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M29">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="N29">
-        <v>3.4</v>
+        <v>2</v>
       </c>
       <c r="O29">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P29">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="Q29">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R29">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S29">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T29">
         <v>2.75</v>
@@ -3274,13 +3274,13 @@
         <v>-1</v>
       </c>
       <c r="Y29">
-        <v>0.8</v>
+        <v>2</v>
       </c>
       <c r="Z29">
         <v>-1</v>
       </c>
       <c r="AA29">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB29">
         <v>-1</v>
@@ -3294,7 +3294,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6224011</v>
+        <v>6224010</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3306,10 +3306,10 @@
         <v>44961.5</v>
       </c>
       <c r="F30" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="G30" t="s">
-        <v>98</v>
+        <v>46</v>
       </c>
       <c r="H30">
         <v>0</v>
@@ -3321,40 +3321,40 @@
         <v>109</v>
       </c>
       <c r="K30">
-        <v>2.2</v>
+        <v>3.4</v>
       </c>
       <c r="L30">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="M30">
-        <v>3.1</v>
+        <v>1.8</v>
       </c>
       <c r="N30">
-        <v>2.2</v>
+        <v>3.4</v>
       </c>
       <c r="O30">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="P30">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="Q30">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R30">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S30">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T30">
         <v>2.75</v>
       </c>
       <c r="U30">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="V30">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W30">
         <v>-1</v>
@@ -3363,19 +3363,19 @@
         <v>-1</v>
       </c>
       <c r="Y30">
-        <v>2</v>
+        <v>0.8</v>
       </c>
       <c r="Z30">
         <v>-1</v>
       </c>
       <c r="AA30">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB30">
         <v>-1</v>
       </c>
       <c r="AC30">
-        <v>1.025</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3383,7 +3383,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6224009</v>
+        <v>6224011</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3395,10 +3395,10 @@
         <v>44961.5</v>
       </c>
       <c r="F31" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="G31" t="s">
-        <v>54</v>
+        <v>98</v>
       </c>
       <c r="H31">
         <v>0</v>
@@ -3410,19 +3410,19 @@
         <v>109</v>
       </c>
       <c r="K31">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="L31">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="M31">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="N31">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="O31">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="P31">
         <v>3</v>
@@ -3431,19 +3431,19 @@
         <v>-0.25</v>
       </c>
       <c r="R31">
+        <v>1.975</v>
+      </c>
+      <c r="S31">
         <v>1.825</v>
-      </c>
-      <c r="S31">
-        <v>1.975</v>
       </c>
       <c r="T31">
         <v>2.75</v>
       </c>
       <c r="U31">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="V31">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W31">
         <v>-1</v>
@@ -3458,13 +3458,13 @@
         <v>-1</v>
       </c>
       <c r="AA31">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AB31">
         <v>-1</v>
       </c>
       <c r="AC31">
-        <v>1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -3487,7 +3487,7 @@
         <v>51</v>
       </c>
       <c r="G32" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H32">
         <v>0</v>
@@ -3561,7 +3561,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6236704</v>
+        <v>6236793</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3573,76 +3573,76 @@
         <v>44964.69791666666</v>
       </c>
       <c r="F33" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="G33" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J33" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K33">
-        <v>3.1</v>
+        <v>2.25</v>
       </c>
       <c r="L33">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="M33">
-        <v>1.909</v>
+        <v>2.75</v>
       </c>
       <c r="N33">
-        <v>3.6</v>
+        <v>2.25</v>
       </c>
       <c r="O33">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="P33">
-        <v>1.7</v>
+        <v>2.75</v>
       </c>
       <c r="Q33">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R33">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S33">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T33">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U33">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V33">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W33">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X33">
         <v>-1</v>
       </c>
       <c r="Y33">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="Z33">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA33">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB33">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AC33">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="34" spans="1:29">
@@ -3650,7 +3650,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>6236703</v>
+        <v>6236704</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -3662,46 +3662,46 @@
         <v>44964.69791666666</v>
       </c>
       <c r="F34" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G34" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J34" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="K34">
-        <v>1.4</v>
+        <v>3.1</v>
       </c>
       <c r="L34">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="M34">
-        <v>5.5</v>
+        <v>1.909</v>
       </c>
       <c r="N34">
-        <v>1.444</v>
+        <v>3.6</v>
       </c>
       <c r="O34">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="P34">
-        <v>5</v>
+        <v>1.7</v>
       </c>
       <c r="Q34">
-        <v>-1.25</v>
+        <v>0.75</v>
       </c>
       <c r="R34">
+        <v>1.85</v>
+      </c>
+      <c r="S34">
         <v>1.95</v>
-      </c>
-      <c r="S34">
-        <v>1.85</v>
       </c>
       <c r="T34">
         <v>3</v>
@@ -3713,25 +3713,25 @@
         <v>1.85</v>
       </c>
       <c r="W34">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X34">
         <v>-1</v>
       </c>
       <c r="Y34">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="Z34">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA34">
-        <v>0.425</v>
+        <v>0.95</v>
       </c>
       <c r="AB34">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC34">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="35" spans="1:29">
@@ -3739,7 +3739,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6236792</v>
+        <v>6236703</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -3751,10 +3751,10 @@
         <v>44964.69791666666</v>
       </c>
       <c r="F35" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="G35" t="s">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="H35">
         <v>2</v>
@@ -3766,43 +3766,43 @@
         <v>107</v>
       </c>
       <c r="K35">
-        <v>2.9</v>
+        <v>1.4</v>
       </c>
       <c r="L35">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="M35">
-        <v>2.1</v>
+        <v>5.5</v>
       </c>
       <c r="N35">
-        <v>2.9</v>
+        <v>1.444</v>
       </c>
       <c r="O35">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="P35">
-        <v>2.1</v>
+        <v>5</v>
       </c>
       <c r="Q35">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R35">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S35">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T35">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U35">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V35">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W35">
-        <v>1.9</v>
+        <v>0.444</v>
       </c>
       <c r="X35">
         <v>-1</v>
@@ -3811,16 +3811,16 @@
         <v>-1</v>
       </c>
       <c r="Z35">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AA35">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AB35">
-        <v>0.4375</v>
+        <v>0</v>
       </c>
       <c r="AC35">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="36" spans="1:29">
@@ -3917,7 +3917,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6236793</v>
+        <v>6236792</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3932,7 +3932,7 @@
         <v>53</v>
       </c>
       <c r="G37" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="H37">
         <v>2</v>
@@ -3944,43 +3944,43 @@
         <v>107</v>
       </c>
       <c r="K37">
-        <v>2.25</v>
+        <v>2.9</v>
       </c>
       <c r="L37">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M37">
-        <v>2.75</v>
+        <v>2.1</v>
       </c>
       <c r="N37">
-        <v>2.25</v>
+        <v>2.9</v>
       </c>
       <c r="O37">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P37">
-        <v>2.75</v>
+        <v>2.1</v>
       </c>
       <c r="Q37">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R37">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S37">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="T37">
         <v>2.75</v>
       </c>
       <c r="U37">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V37">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W37">
-        <v>1.25</v>
+        <v>1.9</v>
       </c>
       <c r="X37">
         <v>-1</v>
@@ -3989,13 +3989,13 @@
         <v>-1</v>
       </c>
       <c r="Z37">
-        <v>1.025</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA37">
         <v>-1</v>
       </c>
       <c r="AB37">
-        <v>0.4</v>
+        <v>0.4375</v>
       </c>
       <c r="AC37">
         <v>-0.5</v>
@@ -4466,7 +4466,7 @@
         <v>30</v>
       </c>
       <c r="G43" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H43">
         <v>4</v>
@@ -4641,7 +4641,7 @@
         <v>44968.5</v>
       </c>
       <c r="F45" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G45" t="s">
         <v>59</v>
@@ -4819,7 +4819,7 @@
         <v>44971.69791666666</v>
       </c>
       <c r="F47" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G47" t="s">
         <v>73</v>
@@ -5341,7 +5341,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>6285728</v>
+        <v>6285726</v>
       </c>
       <c r="C53" t="s">
         <v>28</v>
@@ -5353,76 +5353,76 @@
         <v>44975.5</v>
       </c>
       <c r="F53" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="G53" t="s">
-        <v>100</v>
+        <v>39</v>
       </c>
       <c r="H53">
+        <v>2</v>
+      </c>
+      <c r="I53">
         <v>0</v>
       </c>
-      <c r="I53">
-        <v>5</v>
-      </c>
       <c r="J53" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K53">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="L53">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M53">
-        <v>5</v>
+        <v>2.8</v>
       </c>
       <c r="N53">
-        <v>1.6</v>
+        <v>2.15</v>
       </c>
       <c r="O53">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="P53">
-        <v>4.333</v>
+        <v>2.875</v>
       </c>
       <c r="Q53">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R53">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="S53">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="T53">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U53">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V53">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W53">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X53">
         <v>-1</v>
       </c>
       <c r="Y53">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Z53">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA53">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB53">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC53">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="54" spans="1:29">
@@ -5430,7 +5430,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>6285726</v>
+        <v>6285728</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5442,76 +5442,76 @@
         <v>44975.5</v>
       </c>
       <c r="F54" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="G54" t="s">
-        <v>39</v>
+        <v>100</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J54" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="K54">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="L54">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M54">
-        <v>2.8</v>
+        <v>5</v>
       </c>
       <c r="N54">
-        <v>2.15</v>
+        <v>1.6</v>
       </c>
       <c r="O54">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="P54">
-        <v>2.875</v>
+        <v>4.333</v>
       </c>
       <c r="Q54">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R54">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="S54">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="T54">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U54">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V54">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W54">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X54">
         <v>-1</v>
       </c>
       <c r="Y54">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Z54">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA54">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB54">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC54">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="55" spans="1:29">
@@ -5709,10 +5709,10 @@
         <v>44979.69791666666</v>
       </c>
       <c r="F57" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G57" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H57">
         <v>2</v>
@@ -5887,7 +5887,7 @@
         <v>44982.5</v>
       </c>
       <c r="F59" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G59" t="s">
         <v>64</v>
@@ -6409,7 +6409,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6348818</v>
+        <v>6348831</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6421,76 +6421,76 @@
         <v>44989.5</v>
       </c>
       <c r="F65" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G65" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I65">
         <v>0</v>
       </c>
       <c r="J65" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K65">
-        <v>2</v>
+        <v>1.444</v>
       </c>
       <c r="L65">
-        <v>4.333</v>
+        <v>4.5</v>
       </c>
       <c r="M65">
-        <v>2.625</v>
+        <v>5</v>
       </c>
       <c r="N65">
-        <v>2</v>
+        <v>1.666</v>
       </c>
       <c r="O65">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="P65">
-        <v>2.625</v>
+        <v>3.8</v>
       </c>
       <c r="Q65">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R65">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S65">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T65">
         <v>3</v>
       </c>
       <c r="U65">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V65">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W65">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X65">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y65">
         <v>-1</v>
       </c>
       <c r="Z65">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AA65">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AB65">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC65">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="66" spans="1:29">
@@ -6498,7 +6498,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>6348816</v>
+        <v>6348818</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6510,40 +6510,40 @@
         <v>44989.5</v>
       </c>
       <c r="F66" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="G66" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J66" t="s">
         <v>108</v>
       </c>
       <c r="K66">
-        <v>3.75</v>
+        <v>2</v>
       </c>
       <c r="L66">
-        <v>4.75</v>
+        <v>4.333</v>
       </c>
       <c r="M66">
-        <v>1.571</v>
+        <v>2.625</v>
       </c>
       <c r="N66">
-        <v>3.8</v>
+        <v>2</v>
       </c>
       <c r="O66">
-        <v>4.75</v>
+        <v>4.333</v>
       </c>
       <c r="P66">
-        <v>1.571</v>
+        <v>2.625</v>
       </c>
       <c r="Q66">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="R66">
         <v>1.85</v>
@@ -6552,34 +6552,34 @@
         <v>1.95</v>
       </c>
       <c r="T66">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U66">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V66">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W66">
         <v>-1</v>
       </c>
       <c r="X66">
-        <v>3.75</v>
+        <v>3.333</v>
       </c>
       <c r="Y66">
         <v>-1</v>
       </c>
       <c r="Z66">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA66">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AB66">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC66">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="67" spans="1:29">
@@ -6587,7 +6587,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>6348815</v>
+        <v>6348816</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6599,76 +6599,76 @@
         <v>44989.5</v>
       </c>
       <c r="F67" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G67" t="s">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="H67">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I67">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J67" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K67">
-        <v>1.363</v>
+        <v>3.75</v>
       </c>
       <c r="L67">
-        <v>5.5</v>
+        <v>4.75</v>
       </c>
       <c r="M67">
-        <v>5</v>
+        <v>1.571</v>
       </c>
       <c r="N67">
-        <v>1.4</v>
+        <v>3.8</v>
       </c>
       <c r="O67">
-        <v>5.5</v>
+        <v>4.75</v>
       </c>
       <c r="P67">
-        <v>5</v>
+        <v>1.571</v>
       </c>
       <c r="Q67">
-        <v>-1.5</v>
+        <v>1</v>
       </c>
       <c r="R67">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S67">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T67">
         <v>3.25</v>
       </c>
       <c r="U67">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V67">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W67">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X67">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Y67">
         <v>-1</v>
       </c>
       <c r="Z67">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA67">
         <v>-1</v>
       </c>
       <c r="AB67">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AC67">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="68" spans="1:29">
@@ -6676,7 +6676,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>6348817</v>
+        <v>6348815</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6688,76 +6688,76 @@
         <v>44989.5</v>
       </c>
       <c r="F68" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="G68" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I68">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J68" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K68">
-        <v>4.75</v>
+        <v>1.363</v>
       </c>
       <c r="L68">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="M68">
-        <v>1.363</v>
+        <v>5</v>
       </c>
       <c r="N68">
-        <v>4.75</v>
+        <v>1.4</v>
       </c>
       <c r="O68">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="P68">
-        <v>1.363</v>
+        <v>5</v>
       </c>
       <c r="Q68">
-        <v>1.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R68">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S68">
-        <v>1.75</v>
+        <v>1.775</v>
       </c>
       <c r="T68">
         <v>3.25</v>
       </c>
       <c r="U68">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V68">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W68">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X68">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Y68">
         <v>-1</v>
       </c>
       <c r="Z68">
-        <v>1.05</v>
+        <v>0.925</v>
       </c>
       <c r="AA68">
         <v>-1</v>
       </c>
       <c r="AB68">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC68">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -6765,7 +6765,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>6348831</v>
+        <v>6348817</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6777,49 +6777,49 @@
         <v>44989.5</v>
       </c>
       <c r="F69" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="G69" t="s">
-        <v>66</v>
+        <v>99</v>
       </c>
       <c r="H69">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I69">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J69" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K69">
-        <v>1.444</v>
+        <v>4.75</v>
       </c>
       <c r="L69">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="M69">
-        <v>5</v>
+        <v>1.363</v>
       </c>
       <c r="N69">
-        <v>1.666</v>
+        <v>4.75</v>
       </c>
       <c r="O69">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="P69">
-        <v>3.8</v>
+        <v>1.363</v>
       </c>
       <c r="Q69">
-        <v>-0.75</v>
+        <v>1.25</v>
       </c>
       <c r="R69">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="S69">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="T69">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U69">
         <v>1.975</v>
@@ -6828,25 +6828,25 @@
         <v>1.825</v>
       </c>
       <c r="W69">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X69">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Y69">
         <v>-1</v>
       </c>
       <c r="Z69">
-        <v>0.875</v>
+        <v>1.05</v>
       </c>
       <c r="AA69">
         <v>-1</v>
       </c>
       <c r="AB69">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC69">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -7047,7 +7047,7 @@
         <v>35</v>
       </c>
       <c r="G72" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H72">
         <v>1</v>
@@ -7133,7 +7133,7 @@
         <v>44996.5</v>
       </c>
       <c r="F73" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G73" t="s">
         <v>61</v>
@@ -7222,10 +7222,10 @@
         <v>44996.5</v>
       </c>
       <c r="F74" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G74" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H74">
         <v>3</v>
@@ -7489,7 +7489,7 @@
         <v>44999.69791666666</v>
       </c>
       <c r="F77" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G77" t="s">
         <v>90</v>
@@ -7670,7 +7670,7 @@
         <v>35</v>
       </c>
       <c r="G79" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H79">
         <v>0</v>
@@ -7922,7 +7922,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6423095</v>
+        <v>6423094</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7937,73 +7937,73 @@
         <v>62</v>
       </c>
       <c r="G82" t="s">
-        <v>83</v>
+        <v>41</v>
       </c>
       <c r="H82">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I82">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J82" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="K82">
-        <v>1.571</v>
+        <v>6</v>
       </c>
       <c r="L82">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="M82">
-        <v>4.75</v>
+        <v>1.333</v>
       </c>
       <c r="N82">
-        <v>1.6</v>
+        <v>5.75</v>
       </c>
       <c r="O82">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="P82">
-        <v>5</v>
+        <v>1.4</v>
       </c>
       <c r="Q82">
-        <v>-0.75</v>
+        <v>1.25</v>
       </c>
       <c r="R82">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S82">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T82">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U82">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V82">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W82">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X82">
         <v>-1</v>
       </c>
       <c r="Y82">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Z82">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA82">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB82">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC82">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="83" spans="1:29">
@@ -8011,7 +8011,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6423094</v>
+        <v>6423095</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -8026,73 +8026,73 @@
         <v>63</v>
       </c>
       <c r="G83" t="s">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="H83">
+        <v>3</v>
+      </c>
+      <c r="I83">
         <v>0</v>
       </c>
-      <c r="I83">
-        <v>2</v>
-      </c>
       <c r="J83" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K83">
-        <v>6</v>
+        <v>1.571</v>
       </c>
       <c r="L83">
+        <v>3.75</v>
+      </c>
+      <c r="M83">
+        <v>4.75</v>
+      </c>
+      <c r="N83">
+        <v>1.6</v>
+      </c>
+      <c r="O83">
+        <v>3.5</v>
+      </c>
+      <c r="P83">
         <v>5</v>
       </c>
-      <c r="M83">
-        <v>1.333</v>
-      </c>
-      <c r="N83">
-        <v>5.75</v>
-      </c>
-      <c r="O83">
-        <v>4.5</v>
-      </c>
-      <c r="P83">
-        <v>1.4</v>
-      </c>
       <c r="Q83">
-        <v>1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R83">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S83">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T83">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U83">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V83">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W83">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X83">
         <v>-1</v>
       </c>
       <c r="Y83">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z83">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA83">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB83">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC83">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -8201,7 +8201,7 @@
         <v>45006.69791666666</v>
       </c>
       <c r="F85" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G85" t="s">
         <v>90</v>
@@ -8557,10 +8557,10 @@
         <v>45010.5</v>
       </c>
       <c r="F89" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G89" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H89">
         <v>1</v>
@@ -8646,10 +8646,10 @@
         <v>45010.5</v>
       </c>
       <c r="F90" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G90" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H90">
         <v>1</v>
@@ -8738,7 +8738,7 @@
         <v>42</v>
       </c>
       <c r="G91" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H91">
         <v>2</v>
@@ -8812,7 +8812,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6454750</v>
+        <v>6454748</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8824,76 +8824,76 @@
         <v>45013.65625</v>
       </c>
       <c r="F92" t="s">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="G92" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I92">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J92" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K92">
-        <v>4.2</v>
+        <v>1.5</v>
       </c>
       <c r="L92">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M92">
-        <v>1.666</v>
+        <v>5</v>
       </c>
       <c r="N92">
-        <v>3.75</v>
+        <v>1.571</v>
       </c>
       <c r="O92">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P92">
+        <v>4.75</v>
+      </c>
+      <c r="Q92">
+        <v>-1</v>
+      </c>
+      <c r="R92">
+        <v>2</v>
+      </c>
+      <c r="S92">
         <v>1.8</v>
-      </c>
-      <c r="Q92">
-        <v>0.5</v>
-      </c>
-      <c r="R92">
-        <v>1.975</v>
-      </c>
-      <c r="S92">
-        <v>1.825</v>
       </c>
       <c r="T92">
         <v>2.5</v>
       </c>
       <c r="U92">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V92">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W92">
         <v>-1</v>
       </c>
       <c r="X92">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y92">
+        <v>-1</v>
+      </c>
+      <c r="Z92">
+        <v>-1</v>
+      </c>
+      <c r="AA92">
         <v>0.8</v>
       </c>
-      <c r="Z92">
-        <v>-1</v>
-      </c>
-      <c r="AA92">
-        <v>0.825</v>
-      </c>
       <c r="AB92">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC92">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="93" spans="1:29">
@@ -8901,7 +8901,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6454748</v>
+        <v>6454750</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8913,76 +8913,76 @@
         <v>45013.65625</v>
       </c>
       <c r="F93" t="s">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="G93" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="H93">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I93">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J93" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K93">
-        <v>1.5</v>
+        <v>4.2</v>
       </c>
       <c r="L93">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M93">
-        <v>5</v>
+        <v>1.666</v>
       </c>
       <c r="N93">
-        <v>1.571</v>
+        <v>3.75</v>
       </c>
       <c r="O93">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P93">
-        <v>4.75</v>
+        <v>1.8</v>
       </c>
       <c r="Q93">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="R93">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S93">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T93">
         <v>2.5</v>
       </c>
       <c r="U93">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V93">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W93">
         <v>-1</v>
       </c>
       <c r="X93">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y93">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z93">
         <v>-1</v>
       </c>
       <c r="AA93">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AB93">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC93">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -9002,7 +9002,7 @@
         <v>45014.65625</v>
       </c>
       <c r="F94" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G94" t="s">
         <v>36</v>
@@ -9183,7 +9183,7 @@
         <v>35</v>
       </c>
       <c r="G96" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H96">
         <v>1</v>
@@ -9272,7 +9272,7 @@
         <v>36</v>
       </c>
       <c r="G97" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H97">
         <v>1</v>
@@ -9361,7 +9361,7 @@
         <v>51</v>
       </c>
       <c r="G98" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H98">
         <v>2</v>
@@ -9628,7 +9628,7 @@
         <v>48</v>
       </c>
       <c r="G101" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H101">
         <v>1</v>
@@ -9702,7 +9702,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6498376</v>
+        <v>6498442</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9714,76 +9714,76 @@
         <v>45024.45833333334</v>
       </c>
       <c r="F102" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="G102" t="s">
-        <v>34</v>
+        <v>63</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J102" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="K102">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="L102">
-        <v>3.9</v>
+        <v>3.25</v>
       </c>
       <c r="M102">
-        <v>2.55</v>
+        <v>3.3</v>
       </c>
       <c r="N102">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="O102">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="P102">
-        <v>2.6</v>
+        <v>3.3</v>
       </c>
       <c r="Q102">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R102">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="S102">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="T102">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U102">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V102">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W102">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X102">
         <v>-1</v>
       </c>
       <c r="Y102">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z102">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA102">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AB102">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC102">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -9791,7 +9791,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6498442</v>
+        <v>6498440</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9803,25 +9803,25 @@
         <v>45024.45833333334</v>
       </c>
       <c r="F103" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G103" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I103">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J103" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K103">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="L103">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="M103">
         <v>3.3</v>
@@ -9830,49 +9830,49 @@
         <v>2</v>
       </c>
       <c r="O103">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P103">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="Q103">
+        <v>-0.25</v>
+      </c>
+      <c r="R103">
+        <v>1.8</v>
+      </c>
+      <c r="S103">
+        <v>2</v>
+      </c>
+      <c r="T103">
+        <v>2.75</v>
+      </c>
+      <c r="U103">
+        <v>1.75</v>
+      </c>
+      <c r="V103">
+        <v>1.95</v>
+      </c>
+      <c r="W103">
+        <v>-1</v>
+      </c>
+      <c r="X103">
+        <v>2.4</v>
+      </c>
+      <c r="Y103">
+        <v>-1</v>
+      </c>
+      <c r="Z103">
         <v>-0.5</v>
       </c>
-      <c r="R103">
-        <v>2.05</v>
-      </c>
-      <c r="S103">
-        <v>1.75</v>
-      </c>
-      <c r="T103">
-        <v>2.5</v>
-      </c>
-      <c r="U103">
-        <v>1.9</v>
-      </c>
-      <c r="V103">
-        <v>1.9</v>
-      </c>
-      <c r="W103">
-        <v>-1</v>
-      </c>
-      <c r="X103">
-        <v>-1</v>
-      </c>
-      <c r="Y103">
-        <v>2.3</v>
-      </c>
-      <c r="Z103">
-        <v>-1</v>
-      </c>
       <c r="AA103">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="AB103">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC103">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9880,7 +9880,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6498440</v>
+        <v>6498443</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9892,76 +9892,76 @@
         <v>45024.45833333334</v>
       </c>
       <c r="F104" t="s">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="G104" t="s">
-        <v>32</v>
+        <v>103</v>
       </c>
       <c r="H104">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J104" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K104">
-        <v>1.909</v>
+        <v>1.125</v>
       </c>
       <c r="L104">
-        <v>3.5</v>
+        <v>9</v>
       </c>
       <c r="M104">
-        <v>3.3</v>
+        <v>19</v>
       </c>
       <c r="N104">
-        <v>2</v>
+        <v>1.142</v>
       </c>
       <c r="O104">
-        <v>3.4</v>
+        <v>7.5</v>
       </c>
       <c r="P104">
-        <v>3.1</v>
+        <v>17</v>
       </c>
       <c r="Q104">
-        <v>-0.25</v>
+        <v>-2.25</v>
       </c>
       <c r="R104">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S104">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T104">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U104">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="V104">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="W104">
-        <v>-1</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="X104">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y104">
         <v>-1</v>
       </c>
       <c r="Z104">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA104">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB104">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC104">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -9969,7 +9969,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>6498443</v>
+        <v>6498441</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9981,13 +9981,13 @@
         <v>45024.45833333334</v>
       </c>
       <c r="F105" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="G105" t="s">
-        <v>103</v>
+        <v>34</v>
       </c>
       <c r="H105">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I105">
         <v>0</v>
@@ -9996,43 +9996,43 @@
         <v>107</v>
       </c>
       <c r="K105">
-        <v>1.125</v>
+        <v>2</v>
       </c>
       <c r="L105">
-        <v>9</v>
+        <v>3.4</v>
       </c>
       <c r="M105">
-        <v>19</v>
+        <v>3.2</v>
       </c>
       <c r="N105">
-        <v>1.142</v>
+        <v>2</v>
       </c>
       <c r="O105">
-        <v>7.5</v>
+        <v>3.4</v>
       </c>
       <c r="P105">
-        <v>17</v>
+        <v>3.25</v>
       </c>
       <c r="Q105">
-        <v>-2.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R105">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="S105">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T105">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U105">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V105">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="W105">
-        <v>0.1419999999999999</v>
+        <v>1</v>
       </c>
       <c r="X105">
         <v>-1</v>
@@ -10041,16 +10041,16 @@
         <v>-1</v>
       </c>
       <c r="Z105">
-        <v>0.8999999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="AA105">
         <v>-1</v>
       </c>
       <c r="AB105">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC105">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -10058,7 +10058,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>6498441</v>
+        <v>6498376</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -10070,7 +10070,7 @@
         <v>45024.45833333334</v>
       </c>
       <c r="F106" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="G106" t="s">
         <v>33</v>
@@ -10085,61 +10085,61 @@
         <v>107</v>
       </c>
       <c r="K106">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="L106">
-        <v>3.4</v>
+        <v>3.9</v>
       </c>
       <c r="M106">
-        <v>3.2</v>
+        <v>2.55</v>
       </c>
       <c r="N106">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="O106">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P106">
-        <v>3.25</v>
+        <v>2.6</v>
       </c>
       <c r="Q106">
         <v>-0.25</v>
       </c>
       <c r="R106">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="S106">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T106">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U106">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V106">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="W106">
+        <v>1.15</v>
+      </c>
+      <c r="X106">
+        <v>-1</v>
+      </c>
+      <c r="Y106">
+        <v>-1</v>
+      </c>
+      <c r="Z106">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AA106">
+        <v>-1</v>
+      </c>
+      <c r="AB106">
+        <v>-1</v>
+      </c>
+      <c r="AC106">
         <v>1</v>
-      </c>
-      <c r="X106">
-        <v>-1</v>
-      </c>
-      <c r="Y106">
-        <v>-1</v>
-      </c>
-      <c r="Z106">
-        <v>0.75</v>
-      </c>
-      <c r="AA106">
-        <v>-1</v>
-      </c>
-      <c r="AB106">
-        <v>-1</v>
-      </c>
-      <c r="AC106">
-        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="107" spans="1:29">
@@ -10147,7 +10147,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>6498446</v>
+        <v>6498520</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -10159,58 +10159,58 @@
         <v>45024.45833333334</v>
       </c>
       <c r="F107" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="G107" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="H107">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J107" t="s">
         <v>107</v>
       </c>
       <c r="K107">
-        <v>1.181</v>
+        <v>2.6</v>
       </c>
       <c r="L107">
-        <v>6</v>
+        <v>3.8</v>
       </c>
       <c r="M107">
-        <v>10</v>
+        <v>2.15</v>
       </c>
       <c r="N107">
-        <v>1.142</v>
+        <v>2.4</v>
       </c>
       <c r="O107">
-        <v>7</v>
+        <v>3.8</v>
       </c>
       <c r="P107">
-        <v>13</v>
+        <v>2.25</v>
       </c>
       <c r="Q107">
-        <v>-2.25</v>
+        <v>0</v>
       </c>
       <c r="R107">
+        <v>1.975</v>
+      </c>
+      <c r="S107">
+        <v>1.825</v>
+      </c>
+      <c r="T107">
+        <v>2.75</v>
+      </c>
+      <c r="U107">
+        <v>1.85</v>
+      </c>
+      <c r="V107">
         <v>1.95</v>
       </c>
-      <c r="S107">
-        <v>1.85</v>
-      </c>
-      <c r="T107">
-        <v>3.25</v>
-      </c>
-      <c r="U107">
-        <v>1.975</v>
-      </c>
-      <c r="V107">
-        <v>1.825</v>
-      </c>
       <c r="W107">
-        <v>0.1419999999999999</v>
+        <v>1.4</v>
       </c>
       <c r="X107">
         <v>-1</v>
@@ -10219,16 +10219,16 @@
         <v>-1</v>
       </c>
       <c r="Z107">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA107">
         <v>-1</v>
       </c>
       <c r="AB107">
-        <v>0.9750000000000001</v>
+        <v>0.425</v>
       </c>
       <c r="AC107">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="108" spans="1:29">
@@ -10248,7 +10248,7 @@
         <v>45024.45833333334</v>
       </c>
       <c r="F108" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G108" t="s">
         <v>36</v>
@@ -10325,7 +10325,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>6498375</v>
+        <v>6498446</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10337,76 +10337,76 @@
         <v>45024.45833333334</v>
       </c>
       <c r="F109" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G109" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H109">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I109">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J109" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K109">
-        <v>2.9</v>
+        <v>1.181</v>
       </c>
       <c r="L109">
-        <v>3.3</v>
+        <v>6</v>
       </c>
       <c r="M109">
-        <v>2.15</v>
+        <v>10</v>
       </c>
       <c r="N109">
-        <v>2.9</v>
+        <v>1.142</v>
       </c>
       <c r="O109">
-        <v>3.3</v>
+        <v>7</v>
       </c>
       <c r="P109">
-        <v>2.15</v>
+        <v>13</v>
       </c>
       <c r="Q109">
-        <v>0.25</v>
+        <v>-2.25</v>
       </c>
       <c r="R109">
+        <v>1.95</v>
+      </c>
+      <c r="S109">
         <v>1.85</v>
       </c>
-      <c r="S109">
-        <v>1.95</v>
-      </c>
       <c r="T109">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U109">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V109">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="W109">
-        <v>-1</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="X109">
         <v>-1</v>
       </c>
       <c r="Y109">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z109">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA109">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB109">
-        <v>0.4625</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC109">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="110" spans="1:29">
@@ -10414,7 +10414,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>6498520</v>
+        <v>6498375</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10426,73 +10426,73 @@
         <v>45024.45833333334</v>
       </c>
       <c r="F110" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="G110" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I110">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J110" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="K110">
-        <v>2.6</v>
+        <v>2.9</v>
       </c>
       <c r="L110">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="M110">
         <v>2.15</v>
       </c>
       <c r="N110">
-        <v>2.4</v>
+        <v>2.9</v>
       </c>
       <c r="O110">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="P110">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="Q110">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R110">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S110">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T110">
         <v>2.75</v>
       </c>
       <c r="U110">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V110">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="W110">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X110">
         <v>-1</v>
       </c>
       <c r="Y110">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z110">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA110">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB110">
-        <v>0.425</v>
+        <v>0.4625</v>
       </c>
       <c r="AC110">
         <v>-0.5</v>
@@ -10696,7 +10696,7 @@
         <v>65</v>
       </c>
       <c r="G113" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H113">
         <v>0</v>
@@ -10782,7 +10782,7 @@
         <v>45024.45833333334</v>
       </c>
       <c r="F114" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G114" t="s">
         <v>47</v>
@@ -10963,7 +10963,7 @@
         <v>36</v>
       </c>
       <c r="G116" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H116">
         <v>0</v>
@@ -11052,7 +11052,7 @@
         <v>35</v>
       </c>
       <c r="G117" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H117">
         <v>2</v>
@@ -11215,7 +11215,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>6536855</v>
+        <v>6536854</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11227,76 +11227,76 @@
         <v>45034.65625</v>
       </c>
       <c r="F119" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G119" t="s">
-        <v>99</v>
+        <v>33</v>
       </c>
       <c r="H119">
+        <v>2</v>
+      </c>
+      <c r="I119">
         <v>1</v>
       </c>
-      <c r="I119">
+      <c r="J119" t="s">
+        <v>107</v>
+      </c>
+      <c r="K119">
+        <v>2.1</v>
+      </c>
+      <c r="L119">
+        <v>3.25</v>
+      </c>
+      <c r="M119">
         <v>3</v>
       </c>
-      <c r="J119" t="s">
-        <v>109</v>
-      </c>
-      <c r="K119">
-        <v>5</v>
-      </c>
-      <c r="L119">
-        <v>3.75</v>
-      </c>
-      <c r="M119">
-        <v>1.55</v>
-      </c>
       <c r="N119">
-        <v>5.25</v>
+        <v>1.75</v>
       </c>
       <c r="O119">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P119">
-        <v>1.45</v>
+        <v>3.8</v>
       </c>
       <c r="Q119">
-        <v>1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R119">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="S119">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T119">
         <v>3</v>
       </c>
       <c r="U119">
+        <v>1.975</v>
+      </c>
+      <c r="V119">
         <v>1.825</v>
       </c>
-      <c r="V119">
-        <v>1.975</v>
-      </c>
       <c r="W119">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X119">
         <v>-1</v>
       </c>
       <c r="Y119">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="Z119">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA119">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB119">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AC119">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -11304,7 +11304,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>6536854</v>
+        <v>6536853</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11316,76 +11316,76 @@
         <v>45034.65625</v>
       </c>
       <c r="F120" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="G120" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J120" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="K120">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="L120">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M120">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="N120">
-        <v>1.75</v>
+        <v>2.4</v>
       </c>
       <c r="O120">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P120">
-        <v>3.8</v>
+        <v>2.5</v>
       </c>
       <c r="Q120">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R120">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S120">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T120">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U120">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V120">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W120">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X120">
         <v>-1</v>
       </c>
       <c r="Y120">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z120">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA120">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB120">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC120">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="121" spans="1:29">
@@ -11393,7 +11393,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>6536853</v>
+        <v>6536801</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11405,55 +11405,55 @@
         <v>45034.65625</v>
       </c>
       <c r="F121" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="G121" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="H121">
         <v>0</v>
       </c>
       <c r="I121">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J121" t="s">
         <v>109</v>
       </c>
       <c r="K121">
-        <v>2.4</v>
+        <v>6.5</v>
       </c>
       <c r="L121">
-        <v>3.4</v>
+        <v>5.25</v>
       </c>
       <c r="M121">
-        <v>2.5</v>
+        <v>1.3</v>
       </c>
       <c r="N121">
-        <v>2.4</v>
+        <v>8</v>
       </c>
       <c r="O121">
-        <v>3.4</v>
+        <v>5.75</v>
       </c>
       <c r="P121">
-        <v>2.5</v>
+        <v>1.25</v>
       </c>
       <c r="Q121">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R121">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="S121">
         <v>1.95</v>
       </c>
       <c r="T121">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U121">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V121">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W121">
         <v>-1</v>
@@ -11462,7 +11462,7 @@
         <v>-1</v>
       </c>
       <c r="Y121">
-        <v>1.5</v>
+        <v>0.25</v>
       </c>
       <c r="Z121">
         <v>-1</v>
@@ -11471,10 +11471,10 @@
         <v>0.95</v>
       </c>
       <c r="AB121">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC121">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="122" spans="1:29">
@@ -11482,7 +11482,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>6536801</v>
+        <v>6536800</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11494,76 +11494,76 @@
         <v>45034.65625</v>
       </c>
       <c r="F122" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G122" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="H122">
+        <v>1</v>
+      </c>
+      <c r="I122">
         <v>0</v>
       </c>
-      <c r="I122">
-        <v>7</v>
-      </c>
       <c r="J122" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K122">
-        <v>6.5</v>
+        <v>1.333</v>
       </c>
       <c r="L122">
-        <v>5.25</v>
+        <v>4.333</v>
       </c>
       <c r="M122">
-        <v>1.3</v>
+        <v>7.5</v>
       </c>
       <c r="N122">
-        <v>8</v>
+        <v>1.45</v>
       </c>
       <c r="O122">
-        <v>5.75</v>
+        <v>3.6</v>
       </c>
       <c r="P122">
-        <v>1.25</v>
+        <v>6</v>
       </c>
       <c r="Q122">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="R122">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S122">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T122">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="U122">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V122">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W122">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X122">
         <v>-1</v>
       </c>
       <c r="Y122">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="Z122">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA122">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
       <c r="AB122">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC122">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="123" spans="1:29">
@@ -11571,7 +11571,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>6536800</v>
+        <v>6536855</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11583,76 +11583,76 @@
         <v>45034.65625</v>
       </c>
       <c r="F123" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="G123" t="s">
-        <v>45</v>
+        <v>99</v>
       </c>
       <c r="H123">
         <v>1</v>
       </c>
       <c r="I123">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J123" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="K123">
-        <v>1.333</v>
+        <v>5</v>
       </c>
       <c r="L123">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="M123">
-        <v>7.5</v>
+        <v>1.55</v>
       </c>
       <c r="N123">
+        <v>5.25</v>
+      </c>
+      <c r="O123">
+        <v>4</v>
+      </c>
+      <c r="P123">
         <v>1.45</v>
       </c>
-      <c r="O123">
-        <v>3.6</v>
-      </c>
-      <c r="P123">
-        <v>6</v>
-      </c>
       <c r="Q123">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="R123">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S123">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T123">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U123">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V123">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W123">
+        <v>-1</v>
+      </c>
+      <c r="X123">
+        <v>-1</v>
+      </c>
+      <c r="Y123">
         <v>0.45</v>
       </c>
-      <c r="X123">
-        <v>-1</v>
-      </c>
-      <c r="Y123">
-        <v>-1</v>
-      </c>
       <c r="Z123">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA123">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
       <c r="AB123">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC123">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -12120,7 +12120,7 @@
         <v>51</v>
       </c>
       <c r="G129" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H129">
         <v>3</v>
@@ -12476,7 +12476,7 @@
         <v>64</v>
       </c>
       <c r="G133" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H133">
         <v>0</v>
@@ -12562,7 +12562,7 @@
         <v>45154.65625</v>
       </c>
       <c r="F134" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G134" t="s">
         <v>91</v>
@@ -12654,7 +12654,7 @@
         <v>56</v>
       </c>
       <c r="G135" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H135">
         <v>1</v>
@@ -12817,7 +12817,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>7100392</v>
+        <v>7100544</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12829,76 +12829,76 @@
         <v>45160.65625</v>
       </c>
       <c r="F137" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="G137" t="s">
-        <v>92</v>
+        <v>40</v>
       </c>
       <c r="H137">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I137">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J137" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K137">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="L137">
         <v>4</v>
       </c>
       <c r="M137">
+        <v>3.25</v>
+      </c>
+      <c r="N137">
+        <v>1.666</v>
+      </c>
+      <c r="O137">
+        <v>4.2</v>
+      </c>
+      <c r="P137">
+        <v>3.6</v>
+      </c>
+      <c r="Q137">
+        <v>-0.75</v>
+      </c>
+      <c r="R137">
+        <v>1.875</v>
+      </c>
+      <c r="S137">
+        <v>1.925</v>
+      </c>
+      <c r="T137">
         <v>2.75</v>
       </c>
-      <c r="N137">
-        <v>2</v>
-      </c>
-      <c r="O137">
-        <v>4</v>
-      </c>
-      <c r="P137">
-        <v>2.75</v>
-      </c>
-      <c r="Q137">
-        <v>-0.25</v>
-      </c>
-      <c r="R137">
-        <v>1.825</v>
-      </c>
-      <c r="S137">
-        <v>1.975</v>
-      </c>
-      <c r="T137">
-        <v>3</v>
-      </c>
       <c r="U137">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V137">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W137">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X137">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y137">
         <v>-1</v>
       </c>
       <c r="Z137">
+        <v>0.875</v>
+      </c>
+      <c r="AA137">
+        <v>-1</v>
+      </c>
+      <c r="AB137">
+        <v>0.45</v>
+      </c>
+      <c r="AC137">
         <v>-0.5</v>
-      </c>
-      <c r="AA137">
-        <v>0.4875</v>
-      </c>
-      <c r="AB137">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AC137">
-        <v>-1</v>
       </c>
     </row>
     <row r="138" spans="1:29">
@@ -13099,7 +13099,7 @@
         <v>31</v>
       </c>
       <c r="G140" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H140">
         <v>1</v>
@@ -13173,7 +13173,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>7100544</v>
+        <v>7100546</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -13185,76 +13185,76 @@
         <v>45160.65625</v>
       </c>
       <c r="F141" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="G141" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="H141">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I141">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J141" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K141">
-        <v>1.8</v>
+        <v>1.615</v>
       </c>
       <c r="L141">
         <v>4</v>
       </c>
       <c r="M141">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="N141">
-        <v>1.666</v>
+        <v>1.45</v>
       </c>
       <c r="O141">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="P141">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="Q141">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R141">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S141">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T141">
         <v>2.75</v>
       </c>
       <c r="U141">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V141">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W141">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X141">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y141">
         <v>-1</v>
       </c>
       <c r="Z141">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA141">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB141">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AC141">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -13262,7 +13262,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>7100405</v>
+        <v>7100543</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13277,52 +13277,52 @@
         <v>76</v>
       </c>
       <c r="G142" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J142" t="s">
         <v>109</v>
       </c>
       <c r="K142">
-        <v>2.5</v>
+        <v>1.909</v>
       </c>
       <c r="L142">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M142">
+        <v>3.1</v>
+      </c>
+      <c r="N142">
         <v>2.3</v>
-      </c>
-      <c r="N142">
-        <v>2.5</v>
       </c>
       <c r="O142">
         <v>3.6</v>
       </c>
       <c r="P142">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="Q142">
         <v>0</v>
       </c>
       <c r="R142">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S142">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T142">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U142">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V142">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W142">
         <v>-1</v>
@@ -13331,16 +13331,16 @@
         <v>-1</v>
       </c>
       <c r="Y142">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="Z142">
         <v>-1</v>
       </c>
       <c r="AA142">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AB142">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AC142">
         <v>-1</v>
@@ -13351,7 +13351,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>7100543</v>
+        <v>7100394</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13363,76 +13363,76 @@
         <v>45160.65625</v>
       </c>
       <c r="F143" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="G143" t="s">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="H143">
         <v>2</v>
       </c>
       <c r="I143">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J143" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K143">
-        <v>1.909</v>
+        <v>2.25</v>
       </c>
       <c r="L143">
         <v>3.75</v>
       </c>
       <c r="M143">
+        <v>2.5</v>
+      </c>
+      <c r="N143">
+        <v>1.909</v>
+      </c>
+      <c r="O143">
+        <v>4</v>
+      </c>
+      <c r="P143">
         <v>3.1</v>
       </c>
-      <c r="N143">
-        <v>2.3</v>
-      </c>
-      <c r="O143">
-        <v>3.6</v>
-      </c>
-      <c r="P143">
-        <v>2.5</v>
-      </c>
       <c r="Q143">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R143">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S143">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T143">
         <v>2.75</v>
       </c>
       <c r="U143">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V143">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W143">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X143">
         <v>-1</v>
       </c>
       <c r="Y143">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z143">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA143">
+        <v>-1</v>
+      </c>
+      <c r="AB143">
+        <v>-1</v>
+      </c>
+      <c r="AC143">
         <v>1</v>
-      </c>
-      <c r="AB143">
-        <v>0.875</v>
-      </c>
-      <c r="AC143">
-        <v>-1</v>
       </c>
     </row>
     <row r="144" spans="1:29">
@@ -13440,7 +13440,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>7100394</v>
+        <v>7100106</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13452,37 +13452,37 @@
         <v>45160.65625</v>
       </c>
       <c r="F144" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G144" t="s">
-        <v>69</v>
+        <v>102</v>
       </c>
       <c r="H144">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144">
         <v>0</v>
       </c>
       <c r="J144" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K144">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="L144">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="M144">
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
       <c r="N144">
-        <v>1.909</v>
+        <v>1.85</v>
       </c>
       <c r="O144">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P144">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="Q144">
         <v>-0.5</v>
@@ -13497,31 +13497,31 @@
         <v>2.75</v>
       </c>
       <c r="U144">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V144">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W144">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X144">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y144">
         <v>-1</v>
       </c>
       <c r="Z144">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA144">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB144">
         <v>-1</v>
       </c>
       <c r="AC144">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="145" spans="1:29">
@@ -13529,7 +13529,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>7100546</v>
+        <v>7100405</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13541,76 +13541,76 @@
         <v>45160.65625</v>
       </c>
       <c r="F145" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="G145" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="H145">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I145">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J145" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K145">
-        <v>1.615</v>
+        <v>2.5</v>
       </c>
       <c r="L145">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M145">
-        <v>4</v>
+        <v>2.3</v>
       </c>
       <c r="N145">
-        <v>1.45</v>
+        <v>2.5</v>
       </c>
       <c r="O145">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="P145">
-        <v>5</v>
+        <v>2.3</v>
       </c>
       <c r="Q145">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R145">
+        <v>2</v>
+      </c>
+      <c r="S145">
         <v>1.8</v>
       </c>
-      <c r="S145">
-        <v>2</v>
-      </c>
       <c r="T145">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U145">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V145">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W145">
         <v>-1</v>
       </c>
       <c r="X145">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y145">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z145">
         <v>-1</v>
       </c>
       <c r="AA145">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AB145">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC145">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="146" spans="1:29">
@@ -13618,7 +13618,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>7100106</v>
+        <v>7100111</v>
       </c>
       <c r="C146" t="s">
         <v>28</v>
@@ -13630,40 +13630,40 @@
         <v>45160.65625</v>
       </c>
       <c r="F146" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G146" t="s">
-        <v>102</v>
+        <v>56</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I146">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J146" t="s">
         <v>108</v>
       </c>
       <c r="K146">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="L146">
         <v>3.2</v>
       </c>
       <c r="M146">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="N146">
-        <v>1.85</v>
+        <v>3.1</v>
       </c>
       <c r="O146">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P146">
-        <v>3.4</v>
+        <v>2.05</v>
       </c>
       <c r="Q146">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R146">
         <v>1.95</v>
@@ -13672,34 +13672,34 @@
         <v>1.85</v>
       </c>
       <c r="T146">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U146">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V146">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W146">
         <v>-1</v>
       </c>
       <c r="X146">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="Y146">
         <v>-1</v>
       </c>
       <c r="Z146">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AA146">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB146">
         <v>-1</v>
       </c>
       <c r="AC146">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:29">
@@ -13707,7 +13707,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>7100111</v>
+        <v>7100107</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13719,76 +13719,76 @@
         <v>45160.65625</v>
       </c>
       <c r="F147" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G147" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="H147">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I147">
         <v>1</v>
       </c>
       <c r="J147" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K147">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="L147">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M147">
-        <v>2.75</v>
+        <v>2.4</v>
       </c>
       <c r="N147">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="O147">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P147">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="Q147">
         <v>0.25</v>
       </c>
       <c r="R147">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S147">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T147">
         <v>2.5</v>
       </c>
       <c r="U147">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V147">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W147">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="X147">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y147">
         <v>-1</v>
       </c>
       <c r="Z147">
-        <v>0.475</v>
+        <v>0.875</v>
       </c>
       <c r="AA147">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB147">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC147">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="148" spans="1:29">
@@ -13796,7 +13796,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>7100107</v>
+        <v>7100108</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13808,58 +13808,58 @@
         <v>45160.65625</v>
       </c>
       <c r="F148" t="s">
-        <v>49</v>
+        <v>78</v>
       </c>
       <c r="G148" t="s">
-        <v>35</v>
+        <v>87</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I148">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J148" t="s">
         <v>107</v>
       </c>
       <c r="K148">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="L148">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M148">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="N148">
-        <v>2.9</v>
+        <v>2.3</v>
       </c>
       <c r="O148">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P148">
-        <v>2.1</v>
+        <v>2.625</v>
       </c>
       <c r="Q148">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R148">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S148">
-        <v>1.925</v>
+        <v>1.725</v>
       </c>
       <c r="T148">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U148">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V148">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W148">
-        <v>1.9</v>
+        <v>1.3</v>
       </c>
       <c r="X148">
         <v>-1</v>
@@ -13868,13 +13868,13 @@
         <v>-1</v>
       </c>
       <c r="Z148">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA148">
         <v>-1</v>
       </c>
       <c r="AB148">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AC148">
         <v>-1</v>
@@ -13885,7 +13885,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>7100108</v>
+        <v>7100392</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -13897,73 +13897,73 @@
         <v>45160.65625</v>
       </c>
       <c r="F149" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="G149" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="H149">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I149">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J149" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K149">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="L149">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M149">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="N149">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="O149">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P149">
-        <v>2.625</v>
+        <v>2.75</v>
       </c>
       <c r="Q149">
         <v>-0.25</v>
       </c>
       <c r="R149">
+        <v>1.825</v>
+      </c>
+      <c r="S149">
         <v>1.975</v>
       </c>
-      <c r="S149">
-        <v>1.725</v>
-      </c>
       <c r="T149">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U149">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V149">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W149">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X149">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y149">
         <v>-1</v>
       </c>
       <c r="Z149">
+        <v>-0.5</v>
+      </c>
+      <c r="AA149">
+        <v>0.4875</v>
+      </c>
+      <c r="AB149">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AA149">
-        <v>-1</v>
-      </c>
-      <c r="AB149">
-        <v>0.8</v>
       </c>
       <c r="AC149">
         <v>-1</v>
@@ -13989,7 +13989,7 @@
         <v>79</v>
       </c>
       <c r="G150" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H150">
         <v>0</v>
@@ -14075,7 +14075,7 @@
         <v>45160.65625</v>
       </c>
       <c r="F151" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G151" t="s">
         <v>46</v>
@@ -14152,7 +14152,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>7104130</v>
+        <v>7104131</v>
       </c>
       <c r="C152" t="s">
         <v>28</v>
@@ -14167,52 +14167,52 @@
         <v>80</v>
       </c>
       <c r="G152" t="s">
-        <v>90</v>
+        <v>39</v>
       </c>
       <c r="H152">
+        <v>0</v>
+      </c>
+      <c r="I152">
         <v>1</v>
-      </c>
-      <c r="I152">
-        <v>2</v>
       </c>
       <c r="J152" t="s">
         <v>109</v>
       </c>
       <c r="K152">
-        <v>2.375</v>
+        <v>2.25</v>
       </c>
       <c r="L152">
+        <v>3.5</v>
+      </c>
+      <c r="M152">
+        <v>2.6</v>
+      </c>
+      <c r="N152">
+        <v>1.833</v>
+      </c>
+      <c r="O152">
         <v>3.6</v>
       </c>
-      <c r="M152">
-        <v>2.375</v>
-      </c>
-      <c r="N152">
-        <v>2.625</v>
-      </c>
-      <c r="O152">
+      <c r="P152">
         <v>3.5</v>
       </c>
-      <c r="P152">
-        <v>2.2</v>
-      </c>
       <c r="Q152">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R152">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S152">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T152">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U152">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="V152">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W152">
         <v>-1</v>
@@ -14221,19 +14221,19 @@
         <v>-1</v>
       </c>
       <c r="Y152">
-        <v>1.2</v>
+        <v>2.5</v>
       </c>
       <c r="Z152">
         <v>-1</v>
       </c>
       <c r="AA152">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AB152">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AC152">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="153" spans="1:29">
@@ -14253,7 +14253,7 @@
         <v>45161.65625</v>
       </c>
       <c r="F153" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G153" t="s">
         <v>59</v>
@@ -14419,7 +14419,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>7104131</v>
+        <v>7104130</v>
       </c>
       <c r="C155" t="s">
         <v>28</v>
@@ -14434,73 +14434,73 @@
         <v>81</v>
       </c>
       <c r="G155" t="s">
-        <v>39</v>
+        <v>90</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I155">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J155" t="s">
         <v>109</v>
       </c>
       <c r="K155">
-        <v>2.25</v>
+        <v>2.375</v>
       </c>
       <c r="L155">
+        <v>3.6</v>
+      </c>
+      <c r="M155">
+        <v>2.375</v>
+      </c>
+      <c r="N155">
+        <v>2.625</v>
+      </c>
+      <c r="O155">
         <v>3.5</v>
       </c>
-      <c r="M155">
-        <v>2.6</v>
-      </c>
-      <c r="N155">
-        <v>1.833</v>
-      </c>
-      <c r="O155">
-        <v>3.6</v>
-      </c>
       <c r="P155">
-        <v>3.5</v>
+        <v>2.2</v>
       </c>
       <c r="Q155">
+        <v>0.25</v>
+      </c>
+      <c r="R155">
+        <v>1.825</v>
+      </c>
+      <c r="S155">
+        <v>1.975</v>
+      </c>
+      <c r="T155">
+        <v>2.75</v>
+      </c>
+      <c r="U155">
+        <v>1.8</v>
+      </c>
+      <c r="V155">
+        <v>2</v>
+      </c>
+      <c r="W155">
+        <v>-1</v>
+      </c>
+      <c r="X155">
+        <v>-1</v>
+      </c>
+      <c r="Y155">
+        <v>1.2</v>
+      </c>
+      <c r="Z155">
+        <v>-1</v>
+      </c>
+      <c r="AA155">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB155">
+        <v>0.4</v>
+      </c>
+      <c r="AC155">
         <v>-0.5</v>
-      </c>
-      <c r="R155">
-        <v>1.875</v>
-      </c>
-      <c r="S155">
-        <v>1.925</v>
-      </c>
-      <c r="T155">
-        <v>2.5</v>
-      </c>
-      <c r="U155">
-        <v>1.775</v>
-      </c>
-      <c r="V155">
-        <v>1.925</v>
-      </c>
-      <c r="W155">
-        <v>-1</v>
-      </c>
-      <c r="X155">
-        <v>-1</v>
-      </c>
-      <c r="Y155">
-        <v>2.5</v>
-      </c>
-      <c r="Z155">
-        <v>-1</v>
-      </c>
-      <c r="AA155">
-        <v>0.925</v>
-      </c>
-      <c r="AB155">
-        <v>-1</v>
-      </c>
-      <c r="AC155">
-        <v>0.925</v>
       </c>
     </row>
     <row r="156" spans="1:29">
@@ -14876,7 +14876,7 @@
         <v>45166.45833333334</v>
       </c>
       <c r="F160" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G160" t="s">
         <v>38</v>
@@ -14965,7 +14965,7 @@
         <v>45166.45833333334</v>
       </c>
       <c r="F161" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G161" t="s">
         <v>90</v>
@@ -15143,10 +15143,10 @@
         <v>45166.45833333334</v>
       </c>
       <c r="F163" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G163" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H163">
         <v>4</v>
@@ -15502,7 +15502,7 @@
         <v>57</v>
       </c>
       <c r="G167" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H167">
         <v>3</v>
@@ -15588,7 +15588,7 @@
         <v>45182.65625</v>
       </c>
       <c r="F168" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G168" t="s">
         <v>95</v>
@@ -15769,7 +15769,7 @@
         <v>54</v>
       </c>
       <c r="G170" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H170">
         <v>5</v>
@@ -16036,7 +16036,7 @@
         <v>56</v>
       </c>
       <c r="G173" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H173">
         <v>4</v>
@@ -16110,7 +16110,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>7287633</v>
+        <v>7287638</v>
       </c>
       <c r="C174" t="s">
         <v>28</v>
@@ -16122,10 +16122,10 @@
         <v>45202.65625</v>
       </c>
       <c r="F174" t="s">
-        <v>33</v>
+        <v>68</v>
       </c>
       <c r="G174" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="H174">
         <v>0</v>
@@ -16137,61 +16137,61 @@
         <v>108</v>
       </c>
       <c r="K174">
-        <v>2.55</v>
+        <v>1.909</v>
       </c>
       <c r="L174">
+        <v>3.25</v>
+      </c>
+      <c r="M174">
+        <v>3.5</v>
+      </c>
+      <c r="N174">
+        <v>2</v>
+      </c>
+      <c r="O174">
+        <v>3.25</v>
+      </c>
+      <c r="P174">
         <v>3.2</v>
       </c>
-      <c r="M174">
-        <v>2.45</v>
-      </c>
-      <c r="N174">
-        <v>2.55</v>
-      </c>
-      <c r="O174">
-        <v>3.2</v>
-      </c>
-      <c r="P174">
-        <v>2.45</v>
-      </c>
       <c r="Q174">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R174">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S174">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T174">
         <v>2.75</v>
       </c>
       <c r="U174">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V174">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W174">
         <v>-1</v>
       </c>
       <c r="X174">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="Y174">
         <v>-1</v>
       </c>
       <c r="Z174">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA174">
-        <v>-0</v>
+        <v>0.5</v>
       </c>
       <c r="AB174">
         <v>-1</v>
       </c>
       <c r="AC174">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="175" spans="1:29">
@@ -16300,10 +16300,10 @@
         <v>45202.65625</v>
       </c>
       <c r="F176" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G176" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H176">
         <v>0</v>
@@ -16377,7 +16377,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>7287638</v>
+        <v>7287633</v>
       </c>
       <c r="C177" t="s">
         <v>28</v>
@@ -16389,10 +16389,10 @@
         <v>45202.65625</v>
       </c>
       <c r="F177" t="s">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="G177" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="H177">
         <v>0</v>
@@ -16404,61 +16404,61 @@
         <v>108</v>
       </c>
       <c r="K177">
-        <v>1.909</v>
+        <v>2.55</v>
       </c>
       <c r="L177">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M177">
-        <v>3.5</v>
+        <v>2.45</v>
       </c>
       <c r="N177">
-        <v>2</v>
+        <v>2.55</v>
       </c>
       <c r="O177">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="P177">
-        <v>3.2</v>
+        <v>2.45</v>
       </c>
       <c r="Q177">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R177">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S177">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T177">
         <v>2.75</v>
       </c>
       <c r="U177">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V177">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W177">
         <v>-1</v>
       </c>
       <c r="X177">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="Y177">
         <v>-1</v>
       </c>
       <c r="Z177">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA177">
-        <v>0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB177">
         <v>-1</v>
       </c>
       <c r="AC177">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="178" spans="1:29">
@@ -16733,7 +16733,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>7319624</v>
+        <v>7319621</v>
       </c>
       <c r="C181" t="s">
         <v>28</v>
@@ -16748,37 +16748,37 @@
         <v>88</v>
       </c>
       <c r="G181" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="H181">
         <v>3</v>
       </c>
       <c r="I181">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J181" t="s">
         <v>107</v>
       </c>
       <c r="K181">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="L181">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="M181">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="N181">
-        <v>2.4</v>
+        <v>2.05</v>
       </c>
       <c r="O181">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P181">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="Q181">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R181">
         <v>1.9</v>
@@ -16790,13 +16790,13 @@
         <v>2.75</v>
       </c>
       <c r="U181">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V181">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W181">
-        <v>1.4</v>
+        <v>1.05</v>
       </c>
       <c r="X181">
         <v>-1</v>
@@ -16811,10 +16811,10 @@
         <v>-1</v>
       </c>
       <c r="AB181">
-        <v>0.8999999999999999</v>
+        <v>0.4</v>
       </c>
       <c r="AC181">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="182" spans="1:29">
@@ -16822,7 +16822,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>7319608</v>
+        <v>7319624</v>
       </c>
       <c r="C182" t="s">
         <v>28</v>
@@ -16834,10 +16834,10 @@
         <v>45209.65625</v>
       </c>
       <c r="F182" t="s">
-        <v>37</v>
+        <v>89</v>
       </c>
       <c r="G182" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="H182">
         <v>3</v>
@@ -16849,31 +16849,31 @@
         <v>107</v>
       </c>
       <c r="K182">
-        <v>1.95</v>
+        <v>2.4</v>
       </c>
       <c r="L182">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="M182">
-        <v>2.75</v>
+        <v>2.4</v>
       </c>
       <c r="N182">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="O182">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P182">
-        <v>2.75</v>
+        <v>2.4</v>
       </c>
       <c r="Q182">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R182">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S182">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T182">
         <v>2.75</v>
@@ -16885,7 +16885,7 @@
         <v>1.9</v>
       </c>
       <c r="W182">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="X182">
         <v>-1</v>
@@ -16894,7 +16894,7 @@
         <v>-1</v>
       </c>
       <c r="Z182">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA182">
         <v>-1</v>
@@ -16911,7 +16911,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>7319621</v>
+        <v>7319608</v>
       </c>
       <c r="C183" t="s">
         <v>28</v>
@@ -16923,58 +16923,58 @@
         <v>45209.65625</v>
       </c>
       <c r="F183" t="s">
-        <v>89</v>
+        <v>37</v>
       </c>
       <c r="G183" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H183">
         <v>3</v>
       </c>
       <c r="I183">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J183" t="s">
         <v>107</v>
       </c>
       <c r="K183">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="L183">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="M183">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="N183">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="O183">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P183">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="Q183">
         <v>-0.25</v>
       </c>
       <c r="R183">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S183">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T183">
         <v>2.75</v>
       </c>
       <c r="U183">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V183">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W183">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="X183">
         <v>-1</v>
@@ -16983,16 +16983,16 @@
         <v>-1</v>
       </c>
       <c r="Z183">
+        <v>0.825</v>
+      </c>
+      <c r="AA183">
+        <v>-1</v>
+      </c>
+      <c r="AB183">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AA183">
-        <v>-1</v>
-      </c>
-      <c r="AB183">
-        <v>0.4</v>
-      </c>
       <c r="AC183">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="184" spans="1:29">
@@ -17101,7 +17101,7 @@
         <v>45213.45833333334</v>
       </c>
       <c r="F185" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G185" t="s">
         <v>74</v>
@@ -17193,7 +17193,7 @@
         <v>51</v>
       </c>
       <c r="G186" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H186">
         <v>1</v>
@@ -17267,7 +17267,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>7350911</v>
+        <v>7350912</v>
       </c>
       <c r="C187" t="s">
         <v>28</v>
@@ -17279,76 +17279,76 @@
         <v>45216.65625</v>
       </c>
       <c r="F187" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="G187" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="H187">
         <v>2</v>
       </c>
       <c r="I187">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J187" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K187">
-        <v>4.4</v>
+        <v>2.2</v>
       </c>
       <c r="L187">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="M187">
-        <v>1.55</v>
+        <v>2.5</v>
       </c>
       <c r="N187">
-        <v>5</v>
+        <v>2.375</v>
       </c>
       <c r="O187">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="P187">
-        <v>1.5</v>
+        <v>2.3</v>
       </c>
       <c r="Q187">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R187">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S187">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T187">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U187">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="V187">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="W187">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X187">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y187">
         <v>-1</v>
       </c>
       <c r="Z187">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AA187">
         <v>-1</v>
       </c>
       <c r="AB187">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="AC187">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="188" spans="1:29">
@@ -17356,7 +17356,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>7350910</v>
+        <v>7350911</v>
       </c>
       <c r="C188" t="s">
         <v>28</v>
@@ -17368,40 +17368,40 @@
         <v>45216.65625</v>
       </c>
       <c r="F188" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="G188" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I188">
+        <v>2</v>
+      </c>
+      <c r="J188" t="s">
+        <v>108</v>
+      </c>
+      <c r="K188">
+        <v>4.4</v>
+      </c>
+      <c r="L188">
+        <v>4.2</v>
+      </c>
+      <c r="M188">
+        <v>1.55</v>
+      </c>
+      <c r="N188">
+        <v>5</v>
+      </c>
+      <c r="O188">
+        <v>4.333</v>
+      </c>
+      <c r="P188">
+        <v>1.5</v>
+      </c>
+      <c r="Q188">
         <v>1</v>
-      </c>
-      <c r="J188" t="s">
-        <v>109</v>
-      </c>
-      <c r="K188">
-        <v>2.25</v>
-      </c>
-      <c r="L188">
-        <v>3.75</v>
-      </c>
-      <c r="M188">
-        <v>2.5</v>
-      </c>
-      <c r="N188">
-        <v>2.5</v>
-      </c>
-      <c r="O188">
-        <v>3.75</v>
-      </c>
-      <c r="P188">
-        <v>2.25</v>
-      </c>
-      <c r="Q188">
-        <v>0</v>
       </c>
       <c r="R188">
         <v>2</v>
@@ -17413,31 +17413,31 @@
         <v>2.75</v>
       </c>
       <c r="U188">
+        <v>1.75</v>
+      </c>
+      <c r="V188">
         <v>1.95</v>
       </c>
-      <c r="V188">
-        <v>1.85</v>
-      </c>
       <c r="W188">
         <v>-1</v>
       </c>
       <c r="X188">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y188">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z188">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA188">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB188">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AC188">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="189" spans="1:29">
@@ -17460,7 +17460,7 @@
         <v>41</v>
       </c>
       <c r="G189" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H189">
         <v>2</v>
@@ -17534,7 +17534,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>7350912</v>
+        <v>7350910</v>
       </c>
       <c r="C190" t="s">
         <v>28</v>
@@ -17546,49 +17546,49 @@
         <v>45216.65625</v>
       </c>
       <c r="F190" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="G190" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="H190">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I190">
         <v>1</v>
       </c>
       <c r="J190" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="K190">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L190">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="M190">
         <v>2.5</v>
       </c>
       <c r="N190">
-        <v>2.375</v>
+        <v>2.5</v>
       </c>
       <c r="O190">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P190">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="Q190">
         <v>0</v>
       </c>
       <c r="R190">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S190">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T190">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U190">
         <v>1.95</v>
@@ -17597,25 +17597,25 @@
         <v>1.85</v>
       </c>
       <c r="W190">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X190">
         <v>-1</v>
       </c>
       <c r="Y190">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z190">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA190">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB190">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC190">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="191" spans="1:29">
@@ -17635,10 +17635,10 @@
         <v>45220.45833333334</v>
       </c>
       <c r="F191" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G191" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H191">
         <v>1</v>
@@ -17994,7 +17994,7 @@
         <v>35</v>
       </c>
       <c r="G195" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H195">
         <v>0</v>
@@ -18172,7 +18172,7 @@
         <v>40</v>
       </c>
       <c r="G197" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H197">
         <v>2</v>
@@ -18525,7 +18525,7 @@
         <v>45237.69791666666</v>
       </c>
       <c r="F201" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G201" t="s">
         <v>85</v>
@@ -18614,7 +18614,7 @@
         <v>45237.69791666666</v>
       </c>
       <c r="F202" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G202" t="s">
         <v>91</v>
@@ -18706,7 +18706,7 @@
         <v>45</v>
       </c>
       <c r="G203" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H203">
         <v>1</v>
@@ -18780,7 +18780,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>7473234</v>
+        <v>7476390</v>
       </c>
       <c r="C204" t="s">
         <v>28</v>
@@ -18792,58 +18792,58 @@
         <v>45244.69791666666</v>
       </c>
       <c r="F204" t="s">
-        <v>55</v>
+        <v>82</v>
       </c>
       <c r="G204" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H204">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I204">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J204" t="s">
         <v>107</v>
       </c>
       <c r="K204">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="L204">
         <v>3.6</v>
       </c>
       <c r="M204">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="N204">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="O204">
         <v>3.6</v>
       </c>
       <c r="P204">
-        <v>2.45</v>
+        <v>3</v>
       </c>
       <c r="Q204">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R204">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S204">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T204">
         <v>2.75</v>
       </c>
       <c r="U204">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V204">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W204">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="X204">
         <v>-1</v>
@@ -18852,13 +18852,13 @@
         <v>-1</v>
       </c>
       <c r="Z204">
+        <v>0.8</v>
+      </c>
+      <c r="AA204">
+        <v>-1</v>
+      </c>
+      <c r="AB204">
         <v>0.825</v>
-      </c>
-      <c r="AA204">
-        <v>-1</v>
-      </c>
-      <c r="AB204">
-        <v>0.95</v>
       </c>
       <c r="AC204">
         <v>-1</v>
@@ -18869,7 +18869,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>7476390</v>
+        <v>7473234</v>
       </c>
       <c r="C205" t="s">
         <v>28</v>
@@ -18881,58 +18881,58 @@
         <v>45244.69791666666</v>
       </c>
       <c r="F205" t="s">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="G205" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H205">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I205">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J205" t="s">
         <v>107</v>
       </c>
       <c r="K205">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="L205">
         <v>3.6</v>
       </c>
       <c r="M205">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="N205">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="O205">
         <v>3.6</v>
       </c>
       <c r="P205">
-        <v>3</v>
+        <v>2.45</v>
       </c>
       <c r="Q205">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R205">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S205">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T205">
         <v>2.75</v>
       </c>
       <c r="U205">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V205">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W205">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="X205">
         <v>-1</v>
@@ -18941,13 +18941,13 @@
         <v>-1</v>
       </c>
       <c r="Z205">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AA205">
         <v>-1</v>
       </c>
       <c r="AB205">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AC205">
         <v>-1</v>
@@ -18973,7 +18973,7 @@
         <v>83</v>
       </c>
       <c r="G206" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H206">
         <v>0</v>
@@ -19062,7 +19062,7 @@
         <v>79</v>
       </c>
       <c r="G207" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H207">
         <v>4</v>
@@ -19240,7 +19240,7 @@
         <v>64</v>
       </c>
       <c r="G209" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H209">
         <v>2</v>
@@ -19326,7 +19326,7 @@
         <v>45258.69791666666</v>
       </c>
       <c r="F210" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G210" t="s">
         <v>78</v>
@@ -19415,7 +19415,7 @@
         <v>45262.5</v>
       </c>
       <c r="F211" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G211" t="s">
         <v>104</v>
@@ -19682,7 +19682,7 @@
         <v>45269.5</v>
       </c>
       <c r="F214" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G214" t="s">
         <v>71</v>
@@ -19949,10 +19949,10 @@
         <v>45272.69791666666</v>
       </c>
       <c r="F217" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G217" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H217">
         <v>0</v>
@@ -20038,7 +20038,7 @@
         <v>45275.69791666666</v>
       </c>
       <c r="F218" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G218" t="s">
         <v>102</v>
@@ -20216,7 +20216,7 @@
         <v>45282.69791666666</v>
       </c>
       <c r="F220" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G220" t="s">
         <v>51</v>
@@ -20394,10 +20394,10 @@
         <v>45283.5</v>
       </c>
       <c r="F222" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G222" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H222">
         <v>1</v>
@@ -20471,7 +20471,7 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>7624928</v>
+        <v>7624929</v>
       </c>
       <c r="C223" t="s">
         <v>28</v>
@@ -20483,58 +20483,58 @@
         <v>45286.41666666666</v>
       </c>
       <c r="F223" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="G223" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="H223">
+        <v>2</v>
+      </c>
+      <c r="I223">
         <v>1</v>
-      </c>
-      <c r="I223">
-        <v>0</v>
       </c>
       <c r="J223" t="s">
         <v>107</v>
       </c>
       <c r="K223">
-        <v>2.75</v>
+        <v>1.727</v>
       </c>
       <c r="L223">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="M223">
-        <v>2.25</v>
+        <v>3.5</v>
       </c>
       <c r="N223">
-        <v>2.9</v>
+        <v>1.95</v>
       </c>
       <c r="O223">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="P223">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="Q223">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R223">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S223">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T223">
         <v>2.75</v>
       </c>
       <c r="U223">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V223">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W223">
-        <v>1.9</v>
+        <v>0.95</v>
       </c>
       <c r="X223">
         <v>-1</v>
@@ -20543,16 +20543,16 @@
         <v>-1</v>
       </c>
       <c r="Z223">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AA223">
         <v>-1</v>
       </c>
       <c r="AB223">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AC223">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="224" spans="1:29">
@@ -20560,7 +20560,7 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>7624929</v>
+        <v>7624928</v>
       </c>
       <c r="C224" t="s">
         <v>28</v>
@@ -20572,58 +20572,58 @@
         <v>45286.41666666666</v>
       </c>
       <c r="F224" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="G224" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="H224">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I224">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J224" t="s">
         <v>107</v>
       </c>
       <c r="K224">
-        <v>1.727</v>
+        <v>2.75</v>
       </c>
       <c r="L224">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="M224">
-        <v>3.5</v>
+        <v>2.25</v>
       </c>
       <c r="N224">
+        <v>2.9</v>
+      </c>
+      <c r="O224">
+        <v>3.3</v>
+      </c>
+      <c r="P224">
+        <v>2.25</v>
+      </c>
+      <c r="Q224">
+        <v>0.25</v>
+      </c>
+      <c r="R224">
+        <v>1.85</v>
+      </c>
+      <c r="S224">
         <v>1.95</v>
-      </c>
-      <c r="O224">
-        <v>3.8</v>
-      </c>
-      <c r="P224">
-        <v>3</v>
-      </c>
-      <c r="Q224">
-        <v>-0.25</v>
-      </c>
-      <c r="R224">
-        <v>1.8</v>
-      </c>
-      <c r="S224">
-        <v>2</v>
       </c>
       <c r="T224">
         <v>2.75</v>
       </c>
       <c r="U224">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V224">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W224">
-        <v>0.95</v>
+        <v>1.9</v>
       </c>
       <c r="X224">
         <v>-1</v>
@@ -20632,16 +20632,16 @@
         <v>-1</v>
       </c>
       <c r="Z224">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA224">
         <v>-1</v>
       </c>
       <c r="AB224">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AC224">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="225" spans="1:29">
@@ -20753,7 +20753,7 @@
         <v>90</v>
       </c>
       <c r="G226" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H226">
         <v>1</v>
@@ -20842,7 +20842,7 @@
         <v>61</v>
       </c>
       <c r="G227" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H227">
         <v>2</v>
@@ -20916,7 +20916,7 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>7640085</v>
+        <v>7639918</v>
       </c>
       <c r="C228" t="s">
         <v>28</v>
@@ -20928,49 +20928,49 @@
         <v>45290.5</v>
       </c>
       <c r="F228" t="s">
-        <v>92</v>
+        <v>35</v>
       </c>
       <c r="G228" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="H228">
+        <v>2</v>
+      </c>
+      <c r="I228">
         <v>1</v>
       </c>
-      <c r="I228">
-        <v>2</v>
-      </c>
       <c r="J228" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K228">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="L228">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M228">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="N228">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="O228">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P228">
-        <v>2.55</v>
+        <v>3</v>
       </c>
       <c r="Q228">
         <v>-0.25</v>
       </c>
       <c r="R228">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S228">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T228">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U228">
         <v>1.95</v>
@@ -20979,25 +20979,25 @@
         <v>1.85</v>
       </c>
       <c r="W228">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X228">
         <v>-1</v>
       </c>
       <c r="Y228">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="Z228">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA228">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB228">
-        <v>0</v>
+        <v>0.475</v>
       </c>
       <c r="AC228">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="229" spans="1:29">
@@ -21005,7 +21005,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>7639918</v>
+        <v>7639915</v>
       </c>
       <c r="C229" t="s">
         <v>28</v>
@@ -21017,49 +21017,49 @@
         <v>45290.5</v>
       </c>
       <c r="F229" t="s">
-        <v>35</v>
+        <v>92</v>
       </c>
       <c r="G229" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H229">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I229">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J229" t="s">
         <v>107</v>
       </c>
       <c r="K229">
-        <v>2.5</v>
+        <v>1.3</v>
       </c>
       <c r="L229">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="M229">
-        <v>2.35</v>
+        <v>7</v>
       </c>
       <c r="N229">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="O229">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="P229">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="Q229">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R229">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S229">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T229">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U229">
         <v>1.95</v>
@@ -21068,7 +21068,7 @@
         <v>1.85</v>
       </c>
       <c r="W229">
-        <v>1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X229">
         <v>-1</v>
@@ -21077,16 +21077,16 @@
         <v>-1</v>
       </c>
       <c r="Z229">
-        <v>0.8</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA229">
         <v>-1</v>
       </c>
       <c r="AB229">
-        <v>0.475</v>
+        <v>0.95</v>
       </c>
       <c r="AC229">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="230" spans="1:29">
@@ -21094,7 +21094,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>7639915</v>
+        <v>7640085</v>
       </c>
       <c r="C230" t="s">
         <v>28</v>
@@ -21109,46 +21109,46 @@
         <v>93</v>
       </c>
       <c r="G230" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="H230">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I230">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J230" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="K230">
-        <v>1.3</v>
+        <v>2.25</v>
       </c>
       <c r="L230">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M230">
-        <v>7</v>
+        <v>2.4</v>
       </c>
       <c r="N230">
-        <v>1.4</v>
+        <v>2.15</v>
       </c>
       <c r="O230">
-        <v>4.75</v>
+        <v>3.8</v>
       </c>
       <c r="P230">
-        <v>5.5</v>
+        <v>2.55</v>
       </c>
       <c r="Q230">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R230">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S230">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T230">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U230">
         <v>1.95</v>
@@ -21157,25 +21157,25 @@
         <v>1.85</v>
       </c>
       <c r="W230">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X230">
         <v>-1</v>
       </c>
       <c r="Y230">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="Z230">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA230">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB230">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AC230">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="231" spans="1:29">
@@ -21373,7 +21373,7 @@
         <v>45292.5</v>
       </c>
       <c r="F233" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G233" t="s">
         <v>86</v>
@@ -21821,7 +21821,7 @@
         <v>30</v>
       </c>
       <c r="G238" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H238">
         <v>0</v>
@@ -21999,7 +21999,7 @@
         <v>73</v>
       </c>
       <c r="G240" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H240">
         <v>1</v>
@@ -22174,7 +22174,7 @@
         <v>45300.69791666666</v>
       </c>
       <c r="F242" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G242" t="s">
         <v>87</v>
@@ -22266,7 +22266,7 @@
         <v>79</v>
       </c>
       <c r="G243" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H243">
         <v>0</v>
@@ -22429,7 +22429,7 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>7679052</v>
+        <v>7679042</v>
       </c>
       <c r="C245" t="s">
         <v>28</v>
@@ -22441,76 +22441,76 @@
         <v>45301.69791666666</v>
       </c>
       <c r="F245" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="G245" t="s">
-        <v>89</v>
+        <v>34</v>
       </c>
       <c r="H245">
+        <v>2</v>
+      </c>
+      <c r="I245">
         <v>0</v>
       </c>
-      <c r="I245">
+      <c r="J245" t="s">
+        <v>107</v>
+      </c>
+      <c r="K245">
+        <v>1.571</v>
+      </c>
+      <c r="L245">
         <v>4</v>
       </c>
-      <c r="J245" t="s">
-        <v>109</v>
-      </c>
-      <c r="K245">
-        <v>2.5</v>
-      </c>
-      <c r="L245">
+      <c r="M245">
+        <v>4.333</v>
+      </c>
+      <c r="N245">
+        <v>1.65</v>
+      </c>
+      <c r="O245">
         <v>3.75</v>
       </c>
-      <c r="M245">
-        <v>2.25</v>
-      </c>
-      <c r="N245">
-        <v>2.55</v>
-      </c>
-      <c r="O245">
-        <v>3.6</v>
-      </c>
       <c r="P245">
-        <v>2.25</v>
+        <v>4.2</v>
       </c>
       <c r="Q245">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R245">
-        <v>1.725</v>
+        <v>1.85</v>
       </c>
       <c r="S245">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T245">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U245">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="V245">
         <v>1.95</v>
       </c>
       <c r="W245">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X245">
         <v>-1</v>
       </c>
       <c r="Y245">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z245">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA245">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB245">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC245">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="246" spans="1:29">
@@ -22518,7 +22518,7 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>7679042</v>
+        <v>7679052</v>
       </c>
       <c r="C246" t="s">
         <v>28</v>
@@ -22530,76 +22530,76 @@
         <v>45301.69791666666</v>
       </c>
       <c r="F246" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="G246" t="s">
-        <v>33</v>
+        <v>88</v>
       </c>
       <c r="H246">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I246">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J246" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="K246">
-        <v>1.571</v>
+        <v>2.5</v>
       </c>
       <c r="L246">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M246">
-        <v>4.333</v>
+        <v>2.25</v>
       </c>
       <c r="N246">
-        <v>1.65</v>
+        <v>2.55</v>
       </c>
       <c r="O246">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P246">
-        <v>4.2</v>
+        <v>2.25</v>
       </c>
       <c r="Q246">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R246">
+        <v>1.725</v>
+      </c>
+      <c r="S246">
+        <v>1.975</v>
+      </c>
+      <c r="T246">
+        <v>3</v>
+      </c>
+      <c r="U246">
         <v>1.85</v>
-      </c>
-      <c r="S246">
-        <v>1.95</v>
-      </c>
-      <c r="T246">
-        <v>2.75</v>
-      </c>
-      <c r="U246">
-        <v>1.75</v>
       </c>
       <c r="V246">
         <v>1.95</v>
       </c>
       <c r="W246">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X246">
         <v>-1</v>
       </c>
       <c r="Y246">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z246">
+        <v>-1</v>
+      </c>
+      <c r="AA246">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB246">
         <v>0.8500000000000001</v>
       </c>
-      <c r="AA246">
-        <v>-1</v>
-      </c>
-      <c r="AB246">
-        <v>-1</v>
-      </c>
       <c r="AC246">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="247" spans="1:29">
@@ -22619,7 +22619,7 @@
         <v>45304.5</v>
       </c>
       <c r="F247" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G247" t="s">
         <v>79</v>
@@ -22696,7 +22696,7 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>7691319</v>
+        <v>7691322</v>
       </c>
       <c r="C248" t="s">
         <v>28</v>
@@ -22708,76 +22708,76 @@
         <v>45304.5</v>
       </c>
       <c r="F248" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="G248" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="H248">
         <v>2</v>
       </c>
       <c r="I248">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J248" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K248">
-        <v>4.75</v>
+        <v>1.75</v>
       </c>
       <c r="L248">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="M248">
-        <v>1.5</v>
+        <v>3.75</v>
       </c>
       <c r="N248">
-        <v>5.25</v>
+        <v>1.75</v>
       </c>
       <c r="O248">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="P248">
-        <v>1.363</v>
+        <v>3.75</v>
       </c>
       <c r="Q248">
-        <v>1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R248">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S248">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T248">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U248">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V248">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W248">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X248">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Y248">
         <v>-1</v>
       </c>
       <c r="Z248">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AA248">
         <v>-1</v>
       </c>
       <c r="AB248">
-        <v>0.95</v>
+        <v>0.4</v>
       </c>
       <c r="AC248">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="249" spans="1:29">
@@ -22785,7 +22785,7 @@
         <v>247</v>
       </c>
       <c r="B249">
-        <v>7691322</v>
+        <v>7691319</v>
       </c>
       <c r="C249" t="s">
         <v>28</v>
@@ -22797,76 +22797,76 @@
         <v>45304.5</v>
       </c>
       <c r="F249" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="G249" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="H249">
         <v>2</v>
       </c>
       <c r="I249">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J249" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K249">
-        <v>1.75</v>
+        <v>4.75</v>
       </c>
       <c r="L249">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="M249">
-        <v>3.75</v>
+        <v>1.5</v>
       </c>
       <c r="N249">
-        <v>1.75</v>
+        <v>5.25</v>
       </c>
       <c r="O249">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="P249">
-        <v>3.75</v>
+        <v>1.363</v>
       </c>
       <c r="Q249">
-        <v>-0.5</v>
+        <v>1.5</v>
       </c>
       <c r="R249">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S249">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T249">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U249">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V249">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W249">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X249">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Y249">
         <v>-1</v>
       </c>
       <c r="Z249">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA249">
         <v>-1</v>
       </c>
       <c r="AB249">
-        <v>0.4</v>
+        <v>0.95</v>
       </c>
       <c r="AC249">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="250" spans="1:29">
@@ -22886,10 +22886,10 @@
         <v>45307.69791666666</v>
       </c>
       <c r="F250" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G250" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H250">
         <v>1</v>
@@ -22975,7 +22975,7 @@
         <v>45311.5</v>
       </c>
       <c r="F251" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G251" t="s">
         <v>64</v>
@@ -23052,7 +23052,7 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>7719544</v>
+        <v>7719604</v>
       </c>
       <c r="C252" t="s">
         <v>28</v>
@@ -23064,13 +23064,13 @@
         <v>45311.5</v>
       </c>
       <c r="F252" t="s">
-        <v>34</v>
+        <v>89</v>
       </c>
       <c r="G252" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="H252">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I252">
         <v>0</v>
@@ -23079,61 +23079,61 @@
         <v>107</v>
       </c>
       <c r="K252">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="L252">
         <v>4</v>
       </c>
       <c r="M252">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="N252">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="O252">
         <v>4</v>
       </c>
       <c r="P252">
-        <v>2.7</v>
+        <v>2.45</v>
       </c>
       <c r="Q252">
         <v>-0.25</v>
       </c>
       <c r="R252">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="S252">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="T252">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U252">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V252">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W252">
+        <v>1.25</v>
+      </c>
+      <c r="X252">
+        <v>-1</v>
+      </c>
+      <c r="Y252">
+        <v>-1</v>
+      </c>
+      <c r="Z252">
         <v>1.05</v>
       </c>
-      <c r="X252">
-        <v>-1</v>
-      </c>
-      <c r="Y252">
-        <v>-1</v>
-      </c>
-      <c r="Z252">
-        <v>0.875</v>
-      </c>
       <c r="AA252">
         <v>-1</v>
       </c>
       <c r="AB252">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC252">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="253" spans="1:29">
@@ -23141,7 +23141,7 @@
         <v>251</v>
       </c>
       <c r="B253">
-        <v>7719594</v>
+        <v>7719544</v>
       </c>
       <c r="C253" t="s">
         <v>28</v>
@@ -23153,76 +23153,76 @@
         <v>45311.5</v>
       </c>
       <c r="F253" t="s">
-        <v>71</v>
+        <v>33</v>
       </c>
       <c r="G253" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H253">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I253">
         <v>0</v>
       </c>
       <c r="J253" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K253">
-        <v>1.4</v>
+        <v>2.05</v>
       </c>
       <c r="L253">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M253">
-        <v>5</v>
+        <v>2.7</v>
       </c>
       <c r="N253">
-        <v>1.4</v>
+        <v>2.05</v>
       </c>
       <c r="O253">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P253">
-        <v>5</v>
+        <v>2.7</v>
       </c>
       <c r="Q253">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R253">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S253">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T253">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U253">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V253">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W253">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X253">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Y253">
         <v>-1</v>
       </c>
       <c r="Z253">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA253">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB253">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC253">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="254" spans="1:29">
@@ -23230,7 +23230,7 @@
         <v>252</v>
       </c>
       <c r="B254">
-        <v>7719604</v>
+        <v>7719594</v>
       </c>
       <c r="C254" t="s">
         <v>28</v>
@@ -23242,46 +23242,46 @@
         <v>45311.5</v>
       </c>
       <c r="F254" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="G254" t="s">
-        <v>57</v>
+        <v>78</v>
       </c>
       <c r="H254">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I254">
         <v>0</v>
       </c>
       <c r="J254" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K254">
-        <v>2.25</v>
+        <v>1.4</v>
       </c>
       <c r="L254">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M254">
-        <v>2.4</v>
+        <v>5</v>
       </c>
       <c r="N254">
-        <v>2.25</v>
+        <v>1.4</v>
       </c>
       <c r="O254">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P254">
-        <v>2.45</v>
+        <v>5</v>
       </c>
       <c r="Q254">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R254">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S254">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="T254">
         <v>3</v>
@@ -23293,19 +23293,19 @@
         <v>1.975</v>
       </c>
       <c r="W254">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X254">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Y254">
         <v>-1</v>
       </c>
       <c r="Z254">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA254">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB254">
         <v>-1</v>
@@ -23423,7 +23423,7 @@
         <v>94</v>
       </c>
       <c r="G256" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H256">
         <v>2</v>
@@ -23776,7 +23776,7 @@
         <v>45321.69791666666</v>
       </c>
       <c r="F260" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G260" t="s">
         <v>35</v>
@@ -24046,7 +24046,7 @@
         <v>95</v>
       </c>
       <c r="G263" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H263">
         <v>3</v>
@@ -24132,7 +24132,7 @@
         <v>45325.5</v>
       </c>
       <c r="F264" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G264" t="s">
         <v>29</v>
@@ -24224,7 +24224,7 @@
         <v>60</v>
       </c>
       <c r="G265" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H265">
         <v>1</v>
@@ -24399,7 +24399,7 @@
         <v>45328.69791666666</v>
       </c>
       <c r="F267" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G267" t="s">
         <v>95</v>
@@ -24577,7 +24577,7 @@
         <v>45332.5</v>
       </c>
       <c r="F269" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G269" t="s">
         <v>105</v>
@@ -24736,450 +24736,6 @@
       </c>
       <c r="AC270">
         <v>-0</v>
-      </c>
-    </row>
-    <row r="271" spans="1:29">
-      <c r="A271" s="1">
-        <v>269</v>
-      </c>
-      <c r="B271">
-        <v>7844457</v>
-      </c>
-      <c r="C271" t="s">
-        <v>28</v>
-      </c>
-      <c r="D271" t="s">
-        <v>28</v>
-      </c>
-      <c r="E271" s="2">
-        <v>45339.5</v>
-      </c>
-      <c r="F271" t="s">
-        <v>35</v>
-      </c>
-      <c r="G271" t="s">
-        <v>80</v>
-      </c>
-      <c r="K271">
-        <v>1.6</v>
-      </c>
-      <c r="L271">
-        <v>4</v>
-      </c>
-      <c r="M271">
-        <v>4.2</v>
-      </c>
-      <c r="N271">
-        <v>1.6</v>
-      </c>
-      <c r="O271">
-        <v>4</v>
-      </c>
-      <c r="P271">
-        <v>4.2</v>
-      </c>
-      <c r="Q271">
-        <v>-0.75</v>
-      </c>
-      <c r="R271">
-        <v>1.8</v>
-      </c>
-      <c r="S271">
-        <v>2</v>
-      </c>
-      <c r="T271">
-        <v>2.5</v>
-      </c>
-      <c r="U271">
-        <v>1.85</v>
-      </c>
-      <c r="V271">
-        <v>1.95</v>
-      </c>
-      <c r="W271">
-        <v>0</v>
-      </c>
-      <c r="X271">
-        <v>0</v>
-      </c>
-      <c r="Y271">
-        <v>0</v>
-      </c>
-      <c r="Z271">
-        <v>0</v>
-      </c>
-      <c r="AA271">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="272" spans="1:29">
-      <c r="A272" s="1">
-        <v>270</v>
-      </c>
-      <c r="B272">
-        <v>7844458</v>
-      </c>
-      <c r="C272" t="s">
-        <v>28</v>
-      </c>
-      <c r="D272" t="s">
-        <v>28</v>
-      </c>
-      <c r="E272" s="2">
-        <v>45339.5</v>
-      </c>
-      <c r="F272" t="s">
-        <v>86</v>
-      </c>
-      <c r="G272" t="s">
-        <v>39</v>
-      </c>
-      <c r="K272">
-        <v>3.6</v>
-      </c>
-      <c r="L272">
-        <v>3.6</v>
-      </c>
-      <c r="M272">
-        <v>1.8</v>
-      </c>
-      <c r="N272">
-        <v>4</v>
-      </c>
-      <c r="O272">
-        <v>3.5</v>
-      </c>
-      <c r="P272">
-        <v>1.7</v>
-      </c>
-      <c r="Q272">
-        <v>0.5</v>
-      </c>
-      <c r="R272">
-        <v>2.05</v>
-      </c>
-      <c r="S272">
-        <v>1.75</v>
-      </c>
-      <c r="T272">
-        <v>3</v>
-      </c>
-      <c r="U272">
-        <v>1.95</v>
-      </c>
-      <c r="V272">
-        <v>1.85</v>
-      </c>
-      <c r="W272">
-        <v>0</v>
-      </c>
-      <c r="X272">
-        <v>0</v>
-      </c>
-      <c r="Y272">
-        <v>0</v>
-      </c>
-      <c r="Z272">
-        <v>0</v>
-      </c>
-      <c r="AA272">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="273" spans="1:27">
-      <c r="A273" s="1">
-        <v>271</v>
-      </c>
-      <c r="B273">
-        <v>7844459</v>
-      </c>
-      <c r="C273" t="s">
-        <v>28</v>
-      </c>
-      <c r="D273" t="s">
-        <v>28</v>
-      </c>
-      <c r="E273" s="2">
-        <v>45339.5</v>
-      </c>
-      <c r="F273" t="s">
-        <v>45</v>
-      </c>
-      <c r="G273" t="s">
-        <v>75</v>
-      </c>
-      <c r="K273">
-        <v>1.4</v>
-      </c>
-      <c r="L273">
-        <v>4.5</v>
-      </c>
-      <c r="M273">
-        <v>5.5</v>
-      </c>
-      <c r="N273">
-        <v>1.4</v>
-      </c>
-      <c r="O273">
-        <v>4.5</v>
-      </c>
-      <c r="P273">
-        <v>5.25</v>
-      </c>
-      <c r="Q273">
-        <v>-1.25</v>
-      </c>
-      <c r="R273">
-        <v>1.9</v>
-      </c>
-      <c r="S273">
-        <v>1.9</v>
-      </c>
-      <c r="T273">
-        <v>2.75</v>
-      </c>
-      <c r="U273">
-        <v>1.9</v>
-      </c>
-      <c r="V273">
-        <v>1.9</v>
-      </c>
-      <c r="W273">
-        <v>0</v>
-      </c>
-      <c r="X273">
-        <v>0</v>
-      </c>
-      <c r="Y273">
-        <v>0</v>
-      </c>
-      <c r="Z273">
-        <v>0</v>
-      </c>
-      <c r="AA273">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="274" spans="1:27">
-      <c r="A274" s="1">
-        <v>272</v>
-      </c>
-      <c r="B274">
-        <v>7844460</v>
-      </c>
-      <c r="C274" t="s">
-        <v>28</v>
-      </c>
-      <c r="D274" t="s">
-        <v>28</v>
-      </c>
-      <c r="E274" s="2">
-        <v>45339.5</v>
-      </c>
-      <c r="F274" t="s">
-        <v>38</v>
-      </c>
-      <c r="G274" t="s">
-        <v>69</v>
-      </c>
-      <c r="K274">
-        <v>1.8</v>
-      </c>
-      <c r="L274">
-        <v>3.8</v>
-      </c>
-      <c r="M274">
-        <v>3.4</v>
-      </c>
-      <c r="N274">
-        <v>1.8</v>
-      </c>
-      <c r="O274">
-        <v>3.8</v>
-      </c>
-      <c r="P274">
-        <v>3.3</v>
-      </c>
-      <c r="Q274">
-        <v>-0.5</v>
-      </c>
-      <c r="R274">
-        <v>1.85</v>
-      </c>
-      <c r="S274">
-        <v>1.95</v>
-      </c>
-      <c r="T274">
-        <v>2.75</v>
-      </c>
-      <c r="U274">
-        <v>1.8</v>
-      </c>
-      <c r="V274">
-        <v>2</v>
-      </c>
-      <c r="W274">
-        <v>0</v>
-      </c>
-      <c r="X274">
-        <v>0</v>
-      </c>
-      <c r="Y274">
-        <v>0</v>
-      </c>
-      <c r="Z274">
-        <v>0</v>
-      </c>
-      <c r="AA274">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="275" spans="1:27">
-      <c r="A275" s="1">
-        <v>273</v>
-      </c>
-      <c r="B275">
-        <v>7844461</v>
-      </c>
-      <c r="C275" t="s">
-        <v>28</v>
-      </c>
-      <c r="D275" t="s">
-        <v>28</v>
-      </c>
-      <c r="E275" s="2">
-        <v>45339.5</v>
-      </c>
-      <c r="F275" t="s">
-        <v>34</v>
-      </c>
-      <c r="G275" t="s">
-        <v>33</v>
-      </c>
-      <c r="K275">
-        <v>1.6</v>
-      </c>
-      <c r="L275">
-        <v>4</v>
-      </c>
-      <c r="M275">
-        <v>4.2</v>
-      </c>
-      <c r="N275">
-        <v>1.75</v>
-      </c>
-      <c r="O275">
-        <v>4</v>
-      </c>
-      <c r="P275">
-        <v>3.4</v>
-      </c>
-      <c r="Q275">
-        <v>-0.5</v>
-      </c>
-      <c r="R275">
-        <v>1.8</v>
-      </c>
-      <c r="S275">
-        <v>2</v>
-      </c>
-      <c r="T275">
-        <v>2.75</v>
-      </c>
-      <c r="U275">
-        <v>1.85</v>
-      </c>
-      <c r="V275">
-        <v>1.95</v>
-      </c>
-      <c r="W275">
-        <v>0</v>
-      </c>
-      <c r="X275">
-        <v>0</v>
-      </c>
-      <c r="Y275">
-        <v>0</v>
-      </c>
-      <c r="Z275">
-        <v>0</v>
-      </c>
-      <c r="AA275">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="276" spans="1:27">
-      <c r="A276" s="1">
-        <v>274</v>
-      </c>
-      <c r="B276">
-        <v>7844462</v>
-      </c>
-      <c r="C276" t="s">
-        <v>28</v>
-      </c>
-      <c r="D276" t="s">
-        <v>28</v>
-      </c>
-      <c r="E276" s="2">
-        <v>45339.5</v>
-      </c>
-      <c r="F276" t="s">
-        <v>79</v>
-      </c>
-      <c r="G276" t="s">
-        <v>71</v>
-      </c>
-      <c r="K276">
-        <v>2.4</v>
-      </c>
-      <c r="L276">
-        <v>4</v>
-      </c>
-      <c r="M276">
-        <v>2.25</v>
-      </c>
-      <c r="N276">
-        <v>2.4</v>
-      </c>
-      <c r="O276">
-        <v>4</v>
-      </c>
-      <c r="P276">
-        <v>2.25</v>
-      </c>
-      <c r="Q276">
-        <v>0</v>
-      </c>
-      <c r="R276">
-        <v>1.975</v>
-      </c>
-      <c r="S276">
-        <v>1.825</v>
-      </c>
-      <c r="T276">
-        <v>3</v>
-      </c>
-      <c r="U276">
-        <v>1.775</v>
-      </c>
-      <c r="V276">
-        <v>2.025</v>
-      </c>
-      <c r="W276">
-        <v>0</v>
-      </c>
-      <c r="X276">
-        <v>0</v>
-      </c>
-      <c r="Y276">
-        <v>0</v>
-      </c>
-      <c r="Z276">
-        <v>0</v>
-      </c>
-      <c r="AA276">
-        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/England Northern League Division One/England Northern League Division One.xlsx
+++ b/England Northern League Division One/England Northern League Division One.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1408" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1436" uniqueCount="110">
   <si>
     <t>id</t>
   </si>
@@ -154,10 +154,10 @@
     <t>Hebburn Town</t>
   </si>
   <si>
-    <t>Tadcaster Albion</t>
+    <t>Hinckley LR</t>
   </si>
   <si>
-    <t>Hinckley LR</t>
+    <t>Tadcaster Albion</t>
   </si>
   <si>
     <t>Dunston UTS</t>
@@ -241,9 +241,6 @@
     <t>Coventry Sphinx</t>
   </si>
   <si>
-    <t>AFC Rushden  Diamonds</t>
-  </si>
-  <si>
     <t>Rugby Town</t>
   </si>
   <si>
@@ -253,13 +250,16 @@
     <t>North Ferriby</t>
   </si>
   <si>
+    <t>AFC Rushden  Diamonds</t>
+  </si>
+  <si>
     <t>Hednesford</t>
   </si>
   <si>
-    <t>Avro FC</t>
+    <t>Winterton Rangers</t>
   </si>
   <si>
-    <t>Winterton Rangers</t>
+    <t>Avro FC</t>
   </si>
   <si>
     <t>Stalybridge</t>
@@ -705,7 +705,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC277"/>
+  <dimension ref="A1:AC284"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2419,7 +2419,7 @@
         <v>29</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20">
         <v>4</v>
@@ -2849,7 +2849,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6204134</v>
+        <v>6204107</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2864,7 +2864,7 @@
         <v>46</v>
       </c>
       <c r="G25" t="s">
-        <v>52</v>
+        <v>97</v>
       </c>
       <c r="H25">
         <v>2</v>
@@ -2876,25 +2876,25 @@
         <v>108</v>
       </c>
       <c r="K25">
-        <v>4.5</v>
+        <v>1.8</v>
       </c>
       <c r="L25">
+        <v>3.4</v>
+      </c>
+      <c r="M25">
         <v>3.8</v>
       </c>
-      <c r="M25">
-        <v>1.571</v>
-      </c>
       <c r="N25">
-        <v>4.5</v>
+        <v>1.8</v>
       </c>
       <c r="O25">
+        <v>3.4</v>
+      </c>
+      <c r="P25">
         <v>3.8</v>
       </c>
-      <c r="P25">
-        <v>1.571</v>
-      </c>
       <c r="Q25">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="R25">
         <v>1.825</v>
@@ -2903,16 +2903,16 @@
         <v>1.975</v>
       </c>
       <c r="T25">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U25">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V25">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W25">
-        <v>3.5</v>
+        <v>0.8</v>
       </c>
       <c r="X25">
         <v>-1</v>
@@ -2927,10 +2927,10 @@
         <v>-1</v>
       </c>
       <c r="AB25">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AC25">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="26" spans="1:29">
@@ -2938,7 +2938,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6204107</v>
+        <v>6204105</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2950,10 +2950,10 @@
         <v>44957.69791666666</v>
       </c>
       <c r="F26" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G26" t="s">
-        <v>97</v>
+        <v>65</v>
       </c>
       <c r="H26">
         <v>2</v>
@@ -2965,43 +2965,43 @@
         <v>108</v>
       </c>
       <c r="K26">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="L26">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M26">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="N26">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="O26">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P26">
-        <v>3.8</v>
+        <v>2.9</v>
       </c>
       <c r="Q26">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R26">
+        <v>1.975</v>
+      </c>
+      <c r="S26">
         <v>1.825</v>
-      </c>
-      <c r="S26">
-        <v>1.975</v>
       </c>
       <c r="T26">
         <v>2.75</v>
       </c>
       <c r="U26">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V26">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W26">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="X26">
         <v>-1</v>
@@ -3010,13 +3010,13 @@
         <v>-1</v>
       </c>
       <c r="Z26">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA26">
         <v>-1</v>
       </c>
       <c r="AB26">
-        <v>0.4</v>
+        <v>0.4375</v>
       </c>
       <c r="AC26">
         <v>-0.5</v>
@@ -3027,7 +3027,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6204105</v>
+        <v>6204134</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -3039,10 +3039,10 @@
         <v>44957.69791666666</v>
       </c>
       <c r="F27" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="G27" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="H27">
         <v>2</v>
@@ -3054,43 +3054,43 @@
         <v>108</v>
       </c>
       <c r="K27">
-        <v>2.05</v>
+        <v>4.5</v>
       </c>
       <c r="L27">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="M27">
-        <v>3.25</v>
+        <v>1.571</v>
       </c>
       <c r="N27">
-        <v>2.2</v>
+        <v>4.5</v>
       </c>
       <c r="O27">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="P27">
-        <v>2.9</v>
+        <v>1.571</v>
       </c>
       <c r="Q27">
-        <v>-0.25</v>
+        <v>1</v>
       </c>
       <c r="R27">
+        <v>1.825</v>
+      </c>
+      <c r="S27">
         <v>1.975</v>
       </c>
-      <c r="S27">
-        <v>1.825</v>
-      </c>
       <c r="T27">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U27">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V27">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W27">
-        <v>1.2</v>
+        <v>3.5</v>
       </c>
       <c r="X27">
         <v>-1</v>
@@ -3099,16 +3099,16 @@
         <v>-1</v>
       </c>
       <c r="Z27">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AA27">
         <v>-1</v>
       </c>
       <c r="AB27">
-        <v>0.4375</v>
+        <v>0</v>
       </c>
       <c r="AC27">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -3561,7 +3561,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6236704</v>
+        <v>6236794</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3573,55 +3573,55 @@
         <v>44964.69791666666</v>
       </c>
       <c r="F33" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="G33" t="s">
-        <v>72</v>
+        <v>31</v>
       </c>
       <c r="H33">
         <v>0</v>
       </c>
       <c r="I33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J33" t="s">
         <v>109</v>
       </c>
       <c r="K33">
-        <v>3.1</v>
+        <v>2.25</v>
       </c>
       <c r="L33">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="M33">
-        <v>1.909</v>
+        <v>2.75</v>
       </c>
       <c r="N33">
-        <v>3.6</v>
+        <v>2.375</v>
       </c>
       <c r="O33">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="P33">
-        <v>1.7</v>
+        <v>2.625</v>
       </c>
       <c r="Q33">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R33">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S33">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T33">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U33">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V33">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W33">
         <v>-1</v>
@@ -3630,19 +3630,19 @@
         <v>-1</v>
       </c>
       <c r="Y33">
-        <v>0.7</v>
+        <v>1.625</v>
       </c>
       <c r="Z33">
         <v>-1</v>
       </c>
       <c r="AA33">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
       <c r="AB33">
         <v>-1</v>
       </c>
       <c r="AC33">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="34" spans="1:29">
@@ -3650,7 +3650,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>6236794</v>
+        <v>6236792</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -3662,76 +3662,76 @@
         <v>44964.69791666666</v>
       </c>
       <c r="F34" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G34" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34">
         <v>1</v>
       </c>
       <c r="J34" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K34">
-        <v>2.25</v>
+        <v>2.9</v>
       </c>
       <c r="L34">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M34">
-        <v>2.75</v>
+        <v>2.1</v>
       </c>
       <c r="N34">
-        <v>2.375</v>
+        <v>2.9</v>
       </c>
       <c r="O34">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P34">
-        <v>2.625</v>
+        <v>2.1</v>
       </c>
       <c r="Q34">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R34">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S34">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T34">
         <v>2.75</v>
       </c>
       <c r="U34">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V34">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W34">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="X34">
         <v>-1</v>
       </c>
       <c r="Y34">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z34">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA34">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB34">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AC34">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="35" spans="1:29">
@@ -3828,7 +3828,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6236792</v>
+        <v>6236704</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3840,76 +3840,76 @@
         <v>44964.69791666666</v>
       </c>
       <c r="F36" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="G36" t="s">
-        <v>30</v>
+        <v>72</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J36" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K36">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="L36">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M36">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="N36">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="O36">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P36">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
       <c r="Q36">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R36">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S36">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T36">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U36">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V36">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W36">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="X36">
         <v>-1</v>
       </c>
       <c r="Y36">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="Z36">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA36">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB36">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AC36">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="37" spans="1:29">
@@ -4021,7 +4021,7 @@
         <v>54</v>
       </c>
       <c r="G38" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H38">
         <v>1</v>
@@ -4095,7 +4095,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6253835</v>
+        <v>6253836</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -4107,76 +4107,76 @@
         <v>44968.5</v>
       </c>
       <c r="F39" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="G39" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I39">
         <v>1</v>
       </c>
       <c r="J39" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K39">
-        <v>1.8</v>
+        <v>1.727</v>
       </c>
       <c r="L39">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M39">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="N39">
-        <v>2</v>
+        <v>1.727</v>
       </c>
       <c r="O39">
+        <v>4</v>
+      </c>
+      <c r="P39">
         <v>3.5</v>
       </c>
-      <c r="P39">
-        <v>3</v>
-      </c>
       <c r="Q39">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R39">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S39">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T39">
         <v>3</v>
       </c>
       <c r="U39">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V39">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W39">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X39">
         <v>-1</v>
       </c>
       <c r="Y39">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z39">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA39">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB39">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC39">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -4184,7 +4184,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6253836</v>
+        <v>6253837</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4196,40 +4196,40 @@
         <v>44968.5</v>
       </c>
       <c r="F40" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="G40" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="H40">
+        <v>2</v>
+      </c>
+      <c r="I40">
         <v>3</v>
       </c>
-      <c r="I40">
-        <v>1</v>
-      </c>
       <c r="J40" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K40">
-        <v>1.727</v>
+        <v>2</v>
       </c>
       <c r="L40">
         <v>4</v>
       </c>
       <c r="M40">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="N40">
-        <v>1.727</v>
+        <v>2.2</v>
       </c>
       <c r="O40">
         <v>4</v>
       </c>
       <c r="P40">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="Q40">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R40">
         <v>1.775</v>
@@ -4241,28 +4241,28 @@
         <v>3</v>
       </c>
       <c r="U40">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="V40">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W40">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X40">
         <v>-1</v>
       </c>
       <c r="Y40">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z40">
+        <v>-1</v>
+      </c>
+      <c r="AA40">
+        <v>1.025</v>
+      </c>
+      <c r="AB40">
         <v>0.7749999999999999</v>
-      </c>
-      <c r="AA40">
-        <v>-1</v>
-      </c>
-      <c r="AB40">
-        <v>0.825</v>
       </c>
       <c r="AC40">
         <v>-1</v>
@@ -4273,7 +4273,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>6253837</v>
+        <v>6253838</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4285,55 +4285,55 @@
         <v>44968.5</v>
       </c>
       <c r="F41" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="G41" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J41" t="s">
         <v>109</v>
       </c>
       <c r="K41">
-        <v>2</v>
+        <v>2.8</v>
       </c>
       <c r="L41">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M41">
-        <v>2.75</v>
+        <v>2.1</v>
       </c>
       <c r="N41">
-        <v>2.2</v>
+        <v>3.1</v>
       </c>
       <c r="O41">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P41">
-        <v>2.5</v>
+        <v>1.95</v>
       </c>
       <c r="Q41">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R41">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S41">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T41">
         <v>3</v>
       </c>
       <c r="U41">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="V41">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W41">
         <v>-1</v>
@@ -4342,19 +4342,19 @@
         <v>-1</v>
       </c>
       <c r="Y41">
-        <v>1.5</v>
+        <v>0.95</v>
       </c>
       <c r="Z41">
         <v>-1</v>
       </c>
       <c r="AA41">
-        <v>1.025</v>
+        <v>1</v>
       </c>
       <c r="AB41">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC41">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -4362,7 +4362,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>6253838</v>
+        <v>6253839</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4374,76 +4374,76 @@
         <v>44968.5</v>
       </c>
       <c r="F42" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="G42" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I42">
         <v>2</v>
       </c>
       <c r="J42" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K42">
-        <v>2.8</v>
+        <v>1.444</v>
       </c>
       <c r="L42">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="M42">
-        <v>2.1</v>
+        <v>5</v>
       </c>
       <c r="N42">
-        <v>3.1</v>
+        <v>1.4</v>
       </c>
       <c r="O42">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="P42">
+        <v>5.5</v>
+      </c>
+      <c r="Q42">
+        <v>-1.25</v>
+      </c>
+      <c r="R42">
+        <v>1.85</v>
+      </c>
+      <c r="S42">
         <v>1.95</v>
       </c>
-      <c r="Q42">
-        <v>0.5</v>
-      </c>
-      <c r="R42">
-        <v>1.8</v>
-      </c>
-      <c r="S42">
-        <v>2</v>
-      </c>
       <c r="T42">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U42">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V42">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W42">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X42">
         <v>-1</v>
       </c>
       <c r="Y42">
+        <v>-1</v>
+      </c>
+      <c r="Z42">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AA42">
+        <v>-1</v>
+      </c>
+      <c r="AB42">
         <v>0.95</v>
       </c>
-      <c r="Z42">
-        <v>-1</v>
-      </c>
-      <c r="AA42">
-        <v>1</v>
-      </c>
-      <c r="AB42">
-        <v>-1</v>
-      </c>
       <c r="AC42">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="43" spans="1:29">
@@ -4451,7 +4451,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>6253839</v>
+        <v>6253835</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4463,76 +4463,76 @@
         <v>44968.5</v>
       </c>
       <c r="F43" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="G43" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="H43">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I43">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J43" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K43">
-        <v>1.444</v>
+        <v>1.8</v>
       </c>
       <c r="L43">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="M43">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="N43">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="O43">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="P43">
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="Q43">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R43">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S43">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T43">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U43">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V43">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W43">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X43">
         <v>-1</v>
       </c>
       <c r="Y43">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z43">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA43">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB43">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC43">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="44" spans="1:29">
@@ -4540,7 +4540,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6253841</v>
+        <v>6256943</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4552,76 +4552,76 @@
         <v>44968.5</v>
       </c>
       <c r="F44" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G44" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J44" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K44">
-        <v>1.8</v>
+        <v>2.6</v>
       </c>
       <c r="L44">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M44">
-        <v>3.75</v>
+        <v>2.1</v>
       </c>
       <c r="N44">
-        <v>1.8</v>
+        <v>2.6</v>
       </c>
       <c r="O44">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P44">
-        <v>3.6</v>
+        <v>2.1</v>
       </c>
       <c r="Q44">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R44">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S44">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T44">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U44">
-        <v>2.075</v>
+        <v>1.9</v>
       </c>
       <c r="V44">
-        <v>1.725</v>
+        <v>1.9</v>
       </c>
       <c r="W44">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X44">
         <v>-1</v>
       </c>
       <c r="Y44">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z44">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA44">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB44">
         <v>-1</v>
       </c>
       <c r="AC44">
-        <v>0.7250000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="45" spans="1:29">
@@ -4629,7 +4629,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6256943</v>
+        <v>6253840</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4641,40 +4641,40 @@
         <v>44968.5</v>
       </c>
       <c r="F45" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="G45" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J45" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K45">
-        <v>2.6</v>
+        <v>1.833</v>
       </c>
       <c r="L45">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M45">
-        <v>2.1</v>
+        <v>3.5</v>
       </c>
       <c r="N45">
-        <v>2.6</v>
+        <v>1.833</v>
       </c>
       <c r="O45">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P45">
-        <v>2.1</v>
+        <v>3.5</v>
       </c>
       <c r="Q45">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R45">
         <v>1.875</v>
@@ -4683,22 +4683,22 @@
         <v>1.925</v>
       </c>
       <c r="T45">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U45">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V45">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W45">
         <v>-1</v>
       </c>
       <c r="X45">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y45">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z45">
         <v>-1</v>
@@ -4710,7 +4710,7 @@
         <v>-1</v>
       </c>
       <c r="AC45">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -4718,7 +4718,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>6253840</v>
+        <v>6253841</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4730,76 +4730,76 @@
         <v>44968.5</v>
       </c>
       <c r="F46" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="G46" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H46">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I46">
         <v>1</v>
       </c>
       <c r="J46" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K46">
-        <v>1.833</v>
+        <v>1.8</v>
       </c>
       <c r="L46">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M46">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N46">
-        <v>1.833</v>
+        <v>1.8</v>
       </c>
       <c r="O46">
         <v>3.5</v>
       </c>
       <c r="P46">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q46">
         <v>-0.5</v>
       </c>
       <c r="R46">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S46">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T46">
         <v>3.5</v>
       </c>
       <c r="U46">
-        <v>1.95</v>
+        <v>2.075</v>
       </c>
       <c r="V46">
-        <v>1.85</v>
+        <v>1.725</v>
       </c>
       <c r="W46">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X46">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y46">
         <v>-1</v>
       </c>
       <c r="Z46">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA46">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB46">
         <v>-1</v>
       </c>
       <c r="AC46">
-        <v>0.8500000000000001</v>
+        <v>0.7250000000000001</v>
       </c>
     </row>
     <row r="47" spans="1:29">
@@ -5178,7 +5178,7 @@
         <v>32</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51">
         <v>3</v>
@@ -5786,7 +5786,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>6321026</v>
+        <v>6321025</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5798,76 +5798,76 @@
         <v>44982.5</v>
       </c>
       <c r="F58" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="G58" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58">
+        <v>2</v>
+      </c>
+      <c r="J58" t="s">
+        <v>109</v>
+      </c>
+      <c r="K58">
+        <v>2.15</v>
+      </c>
+      <c r="L58">
+        <v>3.5</v>
+      </c>
+      <c r="M58">
+        <v>2.75</v>
+      </c>
+      <c r="N58">
+        <v>2.15</v>
+      </c>
+      <c r="O58">
+        <v>3.5</v>
+      </c>
+      <c r="P58">
+        <v>2.8</v>
+      </c>
+      <c r="Q58">
+        <v>-0.25</v>
+      </c>
+      <c r="R58">
+        <v>1.95</v>
+      </c>
+      <c r="S58">
+        <v>1.85</v>
+      </c>
+      <c r="T58">
+        <v>2.5</v>
+      </c>
+      <c r="U58">
+        <v>1.8</v>
+      </c>
+      <c r="V58">
+        <v>2</v>
+      </c>
+      <c r="W58">
+        <v>-1</v>
+      </c>
+      <c r="X58">
+        <v>-1</v>
+      </c>
+      <c r="Y58">
+        <v>1.8</v>
+      </c>
+      <c r="Z58">
+        <v>-1</v>
+      </c>
+      <c r="AA58">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB58">
+        <v>-1</v>
+      </c>
+      <c r="AC58">
         <v>1</v>
-      </c>
-      <c r="J58" t="s">
-        <v>108</v>
-      </c>
-      <c r="K58">
-        <v>2.5</v>
-      </c>
-      <c r="L58">
-        <v>3.75</v>
-      </c>
-      <c r="M58">
-        <v>2.25</v>
-      </c>
-      <c r="N58">
-        <v>3</v>
-      </c>
-      <c r="O58">
-        <v>3.8</v>
-      </c>
-      <c r="P58">
-        <v>1.95</v>
-      </c>
-      <c r="Q58">
-        <v>0.5</v>
-      </c>
-      <c r="R58">
-        <v>1.8</v>
-      </c>
-      <c r="S58">
-        <v>2</v>
-      </c>
-      <c r="T58">
-        <v>3</v>
-      </c>
-      <c r="U58">
-        <v>1.75</v>
-      </c>
-      <c r="V58">
-        <v>1.95</v>
-      </c>
-      <c r="W58">
-        <v>2</v>
-      </c>
-      <c r="X58">
-        <v>-1</v>
-      </c>
-      <c r="Y58">
-        <v>-1</v>
-      </c>
-      <c r="Z58">
-        <v>0.8</v>
-      </c>
-      <c r="AA58">
-        <v>-1</v>
-      </c>
-      <c r="AB58">
-        <v>0</v>
-      </c>
-      <c r="AC58">
-        <v>-0</v>
       </c>
     </row>
     <row r="59" spans="1:29">
@@ -5875,7 +5875,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>6321025</v>
+        <v>6321026</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5887,76 +5887,76 @@
         <v>44982.5</v>
       </c>
       <c r="F59" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="G59" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J59" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K59">
-        <v>2.15</v>
+        <v>2.5</v>
       </c>
       <c r="L59">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M59">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="N59">
-        <v>2.15</v>
+        <v>3</v>
       </c>
       <c r="O59">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P59">
-        <v>2.8</v>
+        <v>1.95</v>
       </c>
       <c r="Q59">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R59">
+        <v>1.8</v>
+      </c>
+      <c r="S59">
+        <v>2</v>
+      </c>
+      <c r="T59">
+        <v>3</v>
+      </c>
+      <c r="U59">
+        <v>1.75</v>
+      </c>
+      <c r="V59">
         <v>1.95</v>
       </c>
-      <c r="S59">
-        <v>1.85</v>
-      </c>
-      <c r="T59">
-        <v>2.5</v>
-      </c>
-      <c r="U59">
-        <v>1.8</v>
-      </c>
-      <c r="V59">
-        <v>2</v>
-      </c>
       <c r="W59">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X59">
         <v>-1</v>
       </c>
       <c r="Y59">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z59">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA59">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB59">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC59">
-        <v>1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="60" spans="1:29">
@@ -6053,7 +6053,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>6333695</v>
+        <v>6333693</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -6065,76 +6065,76 @@
         <v>44985.69791666666</v>
       </c>
       <c r="F61" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="G61" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J61" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="K61">
-        <v>1.727</v>
+        <v>3.4</v>
       </c>
       <c r="L61">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M61">
-        <v>3.75</v>
+        <v>1.85</v>
       </c>
       <c r="N61">
+        <v>3.4</v>
+      </c>
+      <c r="O61">
+        <v>3.8</v>
+      </c>
+      <c r="P61">
         <v>1.8</v>
       </c>
-      <c r="O61">
-        <v>3.6</v>
-      </c>
-      <c r="P61">
-        <v>3.5</v>
-      </c>
       <c r="Q61">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R61">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S61">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T61">
         <v>2.5</v>
       </c>
       <c r="U61">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V61">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W61">
         <v>-1</v>
       </c>
       <c r="X61">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y61">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z61">
         <v>-1</v>
       </c>
       <c r="AA61">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AB61">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC61">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="62" spans="1:29">
@@ -6142,7 +6142,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6333694</v>
+        <v>6333695</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -6154,40 +6154,40 @@
         <v>44985.69791666666</v>
       </c>
       <c r="F62" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="G62" t="s">
-        <v>32</v>
+        <v>91</v>
       </c>
       <c r="H62">
         <v>2</v>
       </c>
       <c r="I62">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J62" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K62">
+        <v>1.727</v>
+      </c>
+      <c r="L62">
+        <v>3.75</v>
+      </c>
+      <c r="M62">
+        <v>3.75</v>
+      </c>
+      <c r="N62">
         <v>1.8</v>
       </c>
-      <c r="L62">
+      <c r="O62">
+        <v>3.6</v>
+      </c>
+      <c r="P62">
         <v>3.5</v>
       </c>
-      <c r="M62">
-        <v>3.6</v>
-      </c>
-      <c r="N62">
-        <v>2.05</v>
-      </c>
-      <c r="O62">
-        <v>3.4</v>
-      </c>
-      <c r="P62">
-        <v>3</v>
-      </c>
       <c r="Q62">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R62">
         <v>1.85</v>
@@ -6196,34 +6196,34 @@
         <v>1.95</v>
       </c>
       <c r="T62">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U62">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V62">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="W62">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X62">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y62">
         <v>-1</v>
       </c>
       <c r="Z62">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA62">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB62">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC62">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="63" spans="1:29">
@@ -6231,7 +6231,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6333693</v>
+        <v>6333694</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6243,76 +6243,76 @@
         <v>44985.69791666666</v>
       </c>
       <c r="F63" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="G63" t="s">
-        <v>101</v>
+        <v>32</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J63" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K63">
+        <v>1.8</v>
+      </c>
+      <c r="L63">
+        <v>3.5</v>
+      </c>
+      <c r="M63">
+        <v>3.6</v>
+      </c>
+      <c r="N63">
+        <v>2.05</v>
+      </c>
+      <c r="O63">
         <v>3.4</v>
       </c>
-      <c r="L63">
-        <v>3.6</v>
-      </c>
-      <c r="M63">
+      <c r="P63">
+        <v>3</v>
+      </c>
+      <c r="Q63">
+        <v>-0.25</v>
+      </c>
+      <c r="R63">
         <v>1.85</v>
       </c>
-      <c r="N63">
-        <v>3.4</v>
-      </c>
-      <c r="O63">
-        <v>3.8</v>
-      </c>
-      <c r="P63">
-        <v>1.8</v>
-      </c>
-      <c r="Q63">
-        <v>0.5</v>
-      </c>
-      <c r="R63">
-        <v>1.975</v>
-      </c>
       <c r="S63">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T63">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U63">
         <v>1.925</v>
       </c>
       <c r="V63">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="W63">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X63">
         <v>-1</v>
       </c>
       <c r="Y63">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z63">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA63">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB63">
         <v>-1</v>
       </c>
       <c r="AC63">
-        <v>0.875</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -6332,7 +6332,7 @@
         <v>44986.69791666666</v>
       </c>
       <c r="F64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G64" t="s">
         <v>102</v>
@@ -6510,7 +6510,7 @@
         <v>44989.5</v>
       </c>
       <c r="F66" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G66" t="s">
         <v>72</v>
@@ -7477,7 +7477,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6392946</v>
+        <v>6392948</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7489,76 +7489,76 @@
         <v>44999.69791666666</v>
       </c>
       <c r="F77" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="G77" t="s">
-        <v>56</v>
+        <v>90</v>
       </c>
       <c r="H77">
         <v>0</v>
       </c>
       <c r="I77">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J77" t="s">
         <v>109</v>
       </c>
       <c r="K77">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="L77">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M77">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="N77">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="O77">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P77">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="Q77">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R77">
+        <v>2</v>
+      </c>
+      <c r="S77">
         <v>1.8</v>
-      </c>
-      <c r="S77">
-        <v>2</v>
       </c>
       <c r="T77">
         <v>2.5</v>
       </c>
       <c r="U77">
+        <v>1.95</v>
+      </c>
+      <c r="V77">
+        <v>1.85</v>
+      </c>
+      <c r="W77">
+        <v>-1</v>
+      </c>
+      <c r="X77">
+        <v>-1</v>
+      </c>
+      <c r="Y77">
         <v>1.8</v>
       </c>
-      <c r="V77">
-        <v>2</v>
-      </c>
-      <c r="W77">
-        <v>-1</v>
-      </c>
-      <c r="X77">
-        <v>-1</v>
-      </c>
-      <c r="Y77">
-        <v>1.5</v>
-      </c>
       <c r="Z77">
         <v>-1</v>
       </c>
       <c r="AA77">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AB77">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC77">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -7566,7 +7566,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6392948</v>
+        <v>6392946</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7578,55 +7578,55 @@
         <v>44999.69791666666</v>
       </c>
       <c r="F78" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="G78" t="s">
-        <v>90</v>
+        <v>56</v>
       </c>
       <c r="H78">
         <v>0</v>
       </c>
       <c r="I78">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J78" t="s">
         <v>109</v>
       </c>
       <c r="K78">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="L78">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M78">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="N78">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="O78">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P78">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="Q78">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R78">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S78">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T78">
         <v>2.5</v>
       </c>
       <c r="U78">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V78">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W78">
         <v>-1</v>
@@ -7635,19 +7635,19 @@
         <v>-1</v>
       </c>
       <c r="Y78">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="Z78">
         <v>-1</v>
       </c>
       <c r="AA78">
+        <v>1</v>
+      </c>
+      <c r="AB78">
         <v>0.8</v>
       </c>
-      <c r="AB78">
-        <v>-1</v>
-      </c>
       <c r="AC78">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -7655,7 +7655,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>6410625</v>
+        <v>6410624</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7667,76 +7667,76 @@
         <v>45003.5</v>
       </c>
       <c r="F79" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G79" t="s">
-        <v>31</v>
+        <v>97</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I79">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J79" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="K79">
-        <v>2.05</v>
+        <v>1.5</v>
       </c>
       <c r="L79">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M79">
-        <v>2.875</v>
+        <v>5.25</v>
       </c>
       <c r="N79">
-        <v>2.05</v>
+        <v>1.5</v>
       </c>
       <c r="O79">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P79">
-        <v>2.875</v>
+        <v>5.25</v>
       </c>
       <c r="Q79">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R79">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S79">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T79">
         <v>3</v>
       </c>
       <c r="U79">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V79">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W79">
         <v>-1</v>
       </c>
       <c r="X79">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y79">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Z79">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA79">
-        <v>0.475</v>
+        <v>1</v>
       </c>
       <c r="AB79">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC79">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="80" spans="1:29">
@@ -7744,7 +7744,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>6410624</v>
+        <v>6410625</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7756,76 +7756,76 @@
         <v>45003.5</v>
       </c>
       <c r="F80" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G80" t="s">
-        <v>97</v>
+        <v>31</v>
       </c>
       <c r="H80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I80">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J80" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K80">
-        <v>1.5</v>
+        <v>2.05</v>
       </c>
       <c r="L80">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M80">
-        <v>5.25</v>
+        <v>2.875</v>
       </c>
       <c r="N80">
-        <v>1.5</v>
+        <v>2.05</v>
       </c>
       <c r="O80">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P80">
-        <v>5.25</v>
+        <v>2.875</v>
       </c>
       <c r="Q80">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R80">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S80">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T80">
         <v>3</v>
       </c>
       <c r="U80">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V80">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W80">
         <v>-1</v>
       </c>
       <c r="X80">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y80">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Z80">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA80">
-        <v>1</v>
+        <v>0.475</v>
       </c>
       <c r="AB80">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC80">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="81" spans="1:29">
@@ -7922,7 +7922,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6423600</v>
+        <v>6423598</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7934,76 +7934,76 @@
         <v>45006.69791666666</v>
       </c>
       <c r="F82" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G82" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I82">
         <v>2</v>
       </c>
       <c r="J82" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="K82">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="L82">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="M82">
-        <v>2.75</v>
+        <v>1.666</v>
       </c>
       <c r="N82">
-        <v>2</v>
+        <v>3.2</v>
       </c>
       <c r="O82">
         <v>4</v>
       </c>
       <c r="P82">
-        <v>2.8</v>
+        <v>1.8</v>
       </c>
       <c r="Q82">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R82">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S82">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T82">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U82">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V82">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W82">
         <v>-1</v>
       </c>
       <c r="X82">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y82">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z82">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA82">
-        <v>0.4875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB82">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC82">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="83" spans="1:29">
@@ -8011,7 +8011,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6423095</v>
+        <v>6423600</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -8023,73 +8023,73 @@
         <v>45006.69791666666</v>
       </c>
       <c r="F83" t="s">
-        <v>63</v>
+        <v>30</v>
       </c>
       <c r="G83" t="s">
-        <v>84</v>
+        <v>48</v>
       </c>
       <c r="H83">
+        <v>2</v>
+      </c>
+      <c r="I83">
+        <v>2</v>
+      </c>
+      <c r="J83" t="s">
+        <v>107</v>
+      </c>
+      <c r="K83">
+        <v>2</v>
+      </c>
+      <c r="L83">
+        <v>4</v>
+      </c>
+      <c r="M83">
+        <v>2.75</v>
+      </c>
+      <c r="N83">
+        <v>2</v>
+      </c>
+      <c r="O83">
+        <v>4</v>
+      </c>
+      <c r="P83">
+        <v>2.8</v>
+      </c>
+      <c r="Q83">
+        <v>-0.25</v>
+      </c>
+      <c r="R83">
+        <v>1.825</v>
+      </c>
+      <c r="S83">
+        <v>1.975</v>
+      </c>
+      <c r="T83">
+        <v>2.75</v>
+      </c>
+      <c r="U83">
+        <v>1.9</v>
+      </c>
+      <c r="V83">
+        <v>1.9</v>
+      </c>
+      <c r="W83">
+        <v>-1</v>
+      </c>
+      <c r="X83">
         <v>3</v>
       </c>
-      <c r="I83">
-        <v>0</v>
-      </c>
-      <c r="J83" t="s">
-        <v>108</v>
-      </c>
-      <c r="K83">
-        <v>1.571</v>
-      </c>
-      <c r="L83">
-        <v>3.75</v>
-      </c>
-      <c r="M83">
-        <v>4.75</v>
-      </c>
-      <c r="N83">
-        <v>1.6</v>
-      </c>
-      <c r="O83">
-        <v>3.5</v>
-      </c>
-      <c r="P83">
-        <v>5</v>
-      </c>
-      <c r="Q83">
-        <v>-0.75</v>
-      </c>
-      <c r="R83">
-        <v>1.775</v>
-      </c>
-      <c r="S83">
-        <v>2.025</v>
-      </c>
-      <c r="T83">
-        <v>2.25</v>
-      </c>
-      <c r="U83">
-        <v>1.85</v>
-      </c>
-      <c r="V83">
-        <v>1.95</v>
-      </c>
-      <c r="W83">
-        <v>0.6000000000000001</v>
-      </c>
-      <c r="X83">
-        <v>-1</v>
-      </c>
       <c r="Y83">
         <v>-1</v>
       </c>
       <c r="Z83">
-        <v>0.7749999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AA83">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB83">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC83">
         <v>-1</v>
@@ -8100,7 +8100,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6423598</v>
+        <v>6423095</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -8112,76 +8112,76 @@
         <v>45006.69791666666</v>
       </c>
       <c r="F84" t="s">
-        <v>32</v>
+        <v>63</v>
       </c>
       <c r="G84" t="s">
-        <v>45</v>
+        <v>84</v>
       </c>
       <c r="H84">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I84">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J84" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K84">
+        <v>1.571</v>
+      </c>
+      <c r="L84">
+        <v>3.75</v>
+      </c>
+      <c r="M84">
+        <v>4.75</v>
+      </c>
+      <c r="N84">
+        <v>1.6</v>
+      </c>
+      <c r="O84">
         <v>3.5</v>
       </c>
-      <c r="L84">
-        <v>4.333</v>
-      </c>
-      <c r="M84">
-        <v>1.666</v>
-      </c>
-      <c r="N84">
-        <v>3.2</v>
-      </c>
-      <c r="O84">
-        <v>4</v>
-      </c>
       <c r="P84">
-        <v>1.8</v>
+        <v>5</v>
       </c>
       <c r="Q84">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R84">
+        <v>1.775</v>
+      </c>
+      <c r="S84">
+        <v>2.025</v>
+      </c>
+      <c r="T84">
+        <v>2.25</v>
+      </c>
+      <c r="U84">
+        <v>1.85</v>
+      </c>
+      <c r="V84">
         <v>1.95</v>
       </c>
-      <c r="S84">
-        <v>1.85</v>
-      </c>
-      <c r="T84">
-        <v>3</v>
-      </c>
-      <c r="U84">
-        <v>1.95</v>
-      </c>
-      <c r="V84">
-        <v>1.85</v>
-      </c>
       <c r="W84">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X84">
         <v>-1</v>
       </c>
       <c r="Y84">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z84">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA84">
+        <v>-1</v>
+      </c>
+      <c r="AB84">
         <v>0.8500000000000001</v>
       </c>
-      <c r="AB84">
-        <v>0</v>
-      </c>
       <c r="AC84">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="85" spans="1:29">
@@ -10058,7 +10058,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>6498451</v>
+        <v>6498446</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -10070,58 +10070,58 @@
         <v>45024.45833333334</v>
       </c>
       <c r="F106" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="G106" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H106">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I106">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J106" t="s">
         <v>108</v>
       </c>
       <c r="K106">
-        <v>2</v>
+        <v>1.181</v>
       </c>
       <c r="L106">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="M106">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="N106">
-        <v>2</v>
+        <v>1.142</v>
       </c>
       <c r="O106">
-        <v>3.6</v>
+        <v>7</v>
       </c>
       <c r="P106">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="Q106">
-        <v>-0.25</v>
+        <v>-2.25</v>
       </c>
       <c r="R106">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S106">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T106">
         <v>3.25</v>
       </c>
       <c r="U106">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V106">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W106">
-        <v>1</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="X106">
         <v>-1</v>
@@ -10130,13 +10130,13 @@
         <v>-1</v>
       </c>
       <c r="Z106">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AA106">
         <v>-1</v>
       </c>
       <c r="AB106">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC106">
         <v>-1</v>
@@ -10147,7 +10147,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>6498445</v>
+        <v>6498444</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -10159,76 +10159,76 @@
         <v>45024.45833333334</v>
       </c>
       <c r="F107" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="G107" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J107" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K107">
-        <v>1.55</v>
+        <v>1.8</v>
       </c>
       <c r="L107">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M107">
-        <v>4.75</v>
+        <v>3.8</v>
       </c>
       <c r="N107">
-        <v>1.444</v>
+        <v>1.8</v>
       </c>
       <c r="O107">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P107">
-        <v>6.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q107">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R107">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S107">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T107">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U107">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V107">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="W107">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X107">
         <v>-1</v>
       </c>
       <c r="Y107">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z107">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA107">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB107">
         <v>-1</v>
       </c>
       <c r="AC107">
-        <v>0.8500000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="108" spans="1:29">
@@ -10236,7 +10236,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>6498444</v>
+        <v>6498445</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10248,76 +10248,76 @@
         <v>45024.45833333334</v>
       </c>
       <c r="F108" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="G108" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J108" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K108">
-        <v>1.8</v>
+        <v>1.55</v>
       </c>
       <c r="L108">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M108">
-        <v>3.8</v>
+        <v>4.75</v>
       </c>
       <c r="N108">
-        <v>1.8</v>
+        <v>1.444</v>
       </c>
       <c r="O108">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P108">
-        <v>3.75</v>
+        <v>6.5</v>
       </c>
       <c r="Q108">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R108">
+        <v>1.975</v>
+      </c>
+      <c r="S108">
+        <v>1.825</v>
+      </c>
+      <c r="T108">
+        <v>3</v>
+      </c>
+      <c r="U108">
+        <v>1.95</v>
+      </c>
+      <c r="V108">
         <v>1.85</v>
       </c>
-      <c r="S108">
-        <v>1.95</v>
-      </c>
-      <c r="T108">
-        <v>2.75</v>
-      </c>
-      <c r="U108">
-        <v>1.925</v>
-      </c>
-      <c r="V108">
-        <v>1.775</v>
-      </c>
       <c r="W108">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X108">
         <v>-1</v>
       </c>
       <c r="Y108">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z108">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA108">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB108">
         <v>-1</v>
       </c>
       <c r="AC108">
-        <v>0.7749999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10325,7 +10325,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>6498446</v>
+        <v>6498451</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10337,58 +10337,58 @@
         <v>45024.45833333334</v>
       </c>
       <c r="F109" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="G109" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H109">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I109">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J109" t="s">
         <v>108</v>
       </c>
       <c r="K109">
-        <v>1.181</v>
+        <v>2</v>
       </c>
       <c r="L109">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="M109">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="N109">
-        <v>1.142</v>
+        <v>2</v>
       </c>
       <c r="O109">
-        <v>7</v>
+        <v>3.6</v>
       </c>
       <c r="P109">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="Q109">
-        <v>-2.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R109">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S109">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T109">
         <v>3.25</v>
       </c>
       <c r="U109">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V109">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W109">
-        <v>0.1419999999999999</v>
+        <v>1</v>
       </c>
       <c r="X109">
         <v>-1</v>
@@ -10397,13 +10397,13 @@
         <v>-1</v>
       </c>
       <c r="Z109">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AA109">
         <v>-1</v>
       </c>
       <c r="AB109">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC109">
         <v>-1</v>
@@ -10414,7 +10414,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>6498441</v>
+        <v>6498375</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10426,43 +10426,43 @@
         <v>45024.45833333334</v>
       </c>
       <c r="F110" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="G110" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I110">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J110" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K110">
-        <v>2</v>
+        <v>2.9</v>
       </c>
       <c r="L110">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M110">
-        <v>3.2</v>
+        <v>2.15</v>
       </c>
       <c r="N110">
-        <v>2</v>
+        <v>2.9</v>
       </c>
       <c r="O110">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P110">
-        <v>3.25</v>
+        <v>2.15</v>
       </c>
       <c r="Q110">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R110">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="S110">
         <v>1.95</v>
@@ -10477,25 +10477,25 @@
         <v>1.775</v>
       </c>
       <c r="W110">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X110">
         <v>-1</v>
       </c>
       <c r="Y110">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z110">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA110">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB110">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AC110">
-        <v>0.7749999999999999</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="111" spans="1:29">
@@ -10503,7 +10503,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>6498375</v>
+        <v>6498376</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -10515,76 +10515,76 @@
         <v>45024.45833333334</v>
       </c>
       <c r="F111" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="G111" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H111">
+        <v>2</v>
+      </c>
+      <c r="I111">
+        <v>0</v>
+      </c>
+      <c r="J111" t="s">
+        <v>108</v>
+      </c>
+      <c r="K111">
+        <v>2.15</v>
+      </c>
+      <c r="L111">
+        <v>3.9</v>
+      </c>
+      <c r="M111">
+        <v>2.55</v>
+      </c>
+      <c r="N111">
+        <v>2.15</v>
+      </c>
+      <c r="O111">
+        <v>4</v>
+      </c>
+      <c r="P111">
+        <v>2.6</v>
+      </c>
+      <c r="Q111">
+        <v>-0.25</v>
+      </c>
+      <c r="R111">
+        <v>1.975</v>
+      </c>
+      <c r="S111">
+        <v>1.825</v>
+      </c>
+      <c r="T111">
+        <v>3</v>
+      </c>
+      <c r="U111">
+        <v>1.8</v>
+      </c>
+      <c r="V111">
+        <v>2</v>
+      </c>
+      <c r="W111">
+        <v>1.15</v>
+      </c>
+      <c r="X111">
+        <v>-1</v>
+      </c>
+      <c r="Y111">
+        <v>-1</v>
+      </c>
+      <c r="Z111">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AA111">
+        <v>-1</v>
+      </c>
+      <c r="AB111">
+        <v>-1</v>
+      </c>
+      <c r="AC111">
         <v>1</v>
-      </c>
-      <c r="I111">
-        <v>2</v>
-      </c>
-      <c r="J111" t="s">
-        <v>109</v>
-      </c>
-      <c r="K111">
-        <v>2.9</v>
-      </c>
-      <c r="L111">
-        <v>3.3</v>
-      </c>
-      <c r="M111">
-        <v>2.15</v>
-      </c>
-      <c r="N111">
-        <v>2.9</v>
-      </c>
-      <c r="O111">
-        <v>3.3</v>
-      </c>
-      <c r="P111">
-        <v>2.15</v>
-      </c>
-      <c r="Q111">
-        <v>0.25</v>
-      </c>
-      <c r="R111">
-        <v>1.85</v>
-      </c>
-      <c r="S111">
-        <v>1.95</v>
-      </c>
-      <c r="T111">
-        <v>2.75</v>
-      </c>
-      <c r="U111">
-        <v>1.925</v>
-      </c>
-      <c r="V111">
-        <v>1.775</v>
-      </c>
-      <c r="W111">
-        <v>-1</v>
-      </c>
-      <c r="X111">
-        <v>-1</v>
-      </c>
-      <c r="Y111">
-        <v>1.15</v>
-      </c>
-      <c r="Z111">
-        <v>-1</v>
-      </c>
-      <c r="AA111">
-        <v>0.95</v>
-      </c>
-      <c r="AB111">
-        <v>0.4625</v>
-      </c>
-      <c r="AC111">
-        <v>-0.5</v>
       </c>
     </row>
     <row r="112" spans="1:29">
@@ -10592,7 +10592,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>6498376</v>
+        <v>6498440</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10604,76 +10604,76 @@
         <v>45024.45833333334</v>
       </c>
       <c r="F112" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G112" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I112">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J112" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K112">
-        <v>2.15</v>
+        <v>1.909</v>
       </c>
       <c r="L112">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="M112">
-        <v>2.55</v>
+        <v>3.3</v>
       </c>
       <c r="N112">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="O112">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P112">
-        <v>2.6</v>
+        <v>3.1</v>
       </c>
       <c r="Q112">
         <v>-0.25</v>
       </c>
       <c r="R112">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S112">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T112">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U112">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="V112">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W112">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X112">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y112">
         <v>-1</v>
       </c>
       <c r="Z112">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA112">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AB112">
         <v>-1</v>
       </c>
       <c r="AC112">
-        <v>1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="113" spans="1:29">
@@ -10681,7 +10681,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>6498440</v>
+        <v>6498441</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10693,28 +10693,28 @@
         <v>45024.45833333334</v>
       </c>
       <c r="F113" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="G113" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H113">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J113" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K113">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="L113">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M113">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="N113">
         <v>2</v>
@@ -10723,46 +10723,46 @@
         <v>3.4</v>
       </c>
       <c r="P113">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="Q113">
         <v>-0.25</v>
       </c>
       <c r="R113">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S113">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T113">
         <v>2.75</v>
       </c>
       <c r="U113">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="V113">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="W113">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X113">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y113">
         <v>-1</v>
       </c>
       <c r="Z113">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="AA113">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB113">
         <v>-1</v>
       </c>
       <c r="AC113">
-        <v>0.95</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="114" spans="1:29">
@@ -10770,7 +10770,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>6498443</v>
+        <v>6498442</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10782,73 +10782,73 @@
         <v>45024.45833333334</v>
       </c>
       <c r="F114" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="G114" t="s">
-        <v>103</v>
+        <v>63</v>
       </c>
       <c r="H114">
+        <v>0</v>
+      </c>
+      <c r="I114">
         <v>4</v>
       </c>
-      <c r="I114">
-        <v>0</v>
-      </c>
       <c r="J114" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K114">
-        <v>1.125</v>
+        <v>2</v>
       </c>
       <c r="L114">
-        <v>9</v>
+        <v>3.25</v>
       </c>
       <c r="M114">
-        <v>19</v>
+        <v>3.3</v>
       </c>
       <c r="N114">
-        <v>1.142</v>
+        <v>2</v>
       </c>
       <c r="O114">
-        <v>7.5</v>
+        <v>3.25</v>
       </c>
       <c r="P114">
-        <v>17</v>
+        <v>3.3</v>
       </c>
       <c r="Q114">
-        <v>-2.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R114">
+        <v>2.05</v>
+      </c>
+      <c r="S114">
+        <v>1.75</v>
+      </c>
+      <c r="T114">
+        <v>2.5</v>
+      </c>
+      <c r="U114">
         <v>1.9</v>
       </c>
-      <c r="S114">
+      <c r="V114">
         <v>1.9</v>
       </c>
-      <c r="T114">
-        <v>3</v>
-      </c>
-      <c r="U114">
-        <v>1.95</v>
-      </c>
-      <c r="V114">
-        <v>1.85</v>
-      </c>
       <c r="W114">
-        <v>0.1419999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X114">
         <v>-1</v>
       </c>
       <c r="Y114">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z114">
+        <v>-1</v>
+      </c>
+      <c r="AA114">
+        <v>0.75</v>
+      </c>
+      <c r="AB114">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AA114">
-        <v>-1</v>
-      </c>
-      <c r="AB114">
-        <v>0.95</v>
       </c>
       <c r="AC114">
         <v>-1</v>
@@ -10859,7 +10859,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>6498442</v>
+        <v>6498443</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10871,73 +10871,73 @@
         <v>45024.45833333334</v>
       </c>
       <c r="F115" t="s">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="G115" t="s">
-        <v>63</v>
+        <v>103</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I115">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J115" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K115">
-        <v>2</v>
+        <v>1.125</v>
       </c>
       <c r="L115">
-        <v>3.25</v>
+        <v>9</v>
       </c>
       <c r="M115">
-        <v>3.3</v>
+        <v>19</v>
       </c>
       <c r="N115">
-        <v>2</v>
+        <v>1.142</v>
       </c>
       <c r="O115">
-        <v>3.25</v>
+        <v>7.5</v>
       </c>
       <c r="P115">
-        <v>3.3</v>
+        <v>17</v>
       </c>
       <c r="Q115">
-        <v>-0.5</v>
+        <v>-2.25</v>
       </c>
       <c r="R115">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S115">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="T115">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U115">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V115">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W115">
-        <v>-1</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="X115">
         <v>-1</v>
       </c>
       <c r="Y115">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z115">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA115">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AB115">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AC115">
         <v>-1</v>
@@ -11230,7 +11230,7 @@
         <v>63</v>
       </c>
       <c r="G119" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H119">
         <v>1</v>
@@ -11393,7 +11393,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>6536853</v>
+        <v>6536854</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11405,76 +11405,76 @@
         <v>45034.65625</v>
       </c>
       <c r="F121" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="G121" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J121" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K121">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="L121">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M121">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="N121">
-        <v>2.4</v>
+        <v>1.75</v>
       </c>
       <c r="O121">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P121">
-        <v>2.5</v>
+        <v>3.8</v>
       </c>
       <c r="Q121">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R121">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S121">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T121">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U121">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V121">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W121">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X121">
         <v>-1</v>
       </c>
       <c r="Y121">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z121">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA121">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB121">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC121">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="122" spans="1:29">
@@ -11482,7 +11482,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>6536854</v>
+        <v>6536853</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11494,76 +11494,76 @@
         <v>45034.65625</v>
       </c>
       <c r="F122" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="G122" t="s">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J122" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K122">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="L122">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M122">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="N122">
-        <v>1.75</v>
+        <v>2.4</v>
       </c>
       <c r="O122">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P122">
-        <v>3.8</v>
+        <v>2.5</v>
       </c>
       <c r="Q122">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R122">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S122">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T122">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U122">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V122">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W122">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X122">
         <v>-1</v>
       </c>
       <c r="Y122">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z122">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA122">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB122">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC122">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="123" spans="1:29">
@@ -12209,7 +12209,7 @@
         <v>59</v>
       </c>
       <c r="G130" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H130">
         <v>3</v>
@@ -12298,7 +12298,7 @@
         <v>38</v>
       </c>
       <c r="G131" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H131">
         <v>2</v>
@@ -12387,7 +12387,7 @@
         <v>30</v>
       </c>
       <c r="G132" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H132">
         <v>3</v>
@@ -13007,7 +13007,7 @@
         <v>45160.65625</v>
       </c>
       <c r="F139" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G139" t="s">
         <v>68</v>
@@ -13084,7 +13084,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>7100282</v>
+        <v>7100405</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -13099,53 +13099,53 @@
         <v>75</v>
       </c>
       <c r="G140" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="H140">
         <v>0</v>
       </c>
       <c r="I140">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J140" t="s">
         <v>109</v>
       </c>
       <c r="K140">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="L140">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M140">
-        <v>2.45</v>
+        <v>2.3</v>
       </c>
       <c r="N140">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="O140">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P140">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="Q140">
         <v>0</v>
       </c>
       <c r="R140">
+        <v>2</v>
+      </c>
+      <c r="S140">
+        <v>1.8</v>
+      </c>
+      <c r="T140">
+        <v>3</v>
+      </c>
+      <c r="U140">
+        <v>1.95</v>
+      </c>
+      <c r="V140">
         <v>1.85</v>
       </c>
-      <c r="S140">
-        <v>1.95</v>
-      </c>
-      <c r="T140">
-        <v>2.75</v>
-      </c>
-      <c r="U140">
-        <v>1.825</v>
-      </c>
-      <c r="V140">
-        <v>1.975</v>
-      </c>
       <c r="W140">
         <v>-1</v>
       </c>
@@ -13153,19 +13153,19 @@
         <v>-1</v>
       </c>
       <c r="Y140">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="Z140">
         <v>-1</v>
       </c>
       <c r="AA140">
+        <v>0.8</v>
+      </c>
+      <c r="AB140">
         <v>0.95</v>
       </c>
-      <c r="AB140">
-        <v>0.4125</v>
-      </c>
       <c r="AC140">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -13173,7 +13173,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>7100405</v>
+        <v>7100108</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -13188,70 +13188,70 @@
         <v>76</v>
       </c>
       <c r="G141" t="s">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I141">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J141" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K141">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="L141">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M141">
+        <v>2.6</v>
+      </c>
+      <c r="N141">
         <v>2.3</v>
       </c>
-      <c r="N141">
-        <v>2.5</v>
-      </c>
       <c r="O141">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P141">
-        <v>2.3</v>
+        <v>2.625</v>
       </c>
       <c r="Q141">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R141">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S141">
+        <v>1.725</v>
+      </c>
+      <c r="T141">
+        <v>2.75</v>
+      </c>
+      <c r="U141">
         <v>1.8</v>
       </c>
-      <c r="T141">
-        <v>3</v>
-      </c>
-      <c r="U141">
-        <v>1.95</v>
-      </c>
       <c r="V141">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W141">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X141">
         <v>-1</v>
       </c>
       <c r="Y141">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z141">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA141">
+        <v>-1</v>
+      </c>
+      <c r="AB141">
         <v>0.8</v>
-      </c>
-      <c r="AB141">
-        <v>0.95</v>
       </c>
       <c r="AC141">
         <v>-1</v>
@@ -13262,7 +13262,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>7100108</v>
+        <v>7100544</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13274,13 +13274,13 @@
         <v>45160.65625</v>
       </c>
       <c r="F142" t="s">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="G142" t="s">
-        <v>87</v>
+        <v>41</v>
       </c>
       <c r="H142">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I142">
         <v>0</v>
@@ -13289,43 +13289,43 @@
         <v>108</v>
       </c>
       <c r="K142">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="L142">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M142">
-        <v>2.6</v>
+        <v>3.25</v>
       </c>
       <c r="N142">
-        <v>2.3</v>
+        <v>1.666</v>
       </c>
       <c r="O142">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="P142">
-        <v>2.625</v>
+        <v>3.6</v>
       </c>
       <c r="Q142">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R142">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S142">
-        <v>1.725</v>
+        <v>1.925</v>
       </c>
       <c r="T142">
         <v>2.75</v>
       </c>
       <c r="U142">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V142">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W142">
-        <v>1.3</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X142">
         <v>-1</v>
@@ -13334,16 +13334,16 @@
         <v>-1</v>
       </c>
       <c r="Z142">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AA142">
         <v>-1</v>
       </c>
       <c r="AB142">
-        <v>0.8</v>
+        <v>0.45</v>
       </c>
       <c r="AC142">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -13351,7 +13351,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>7100544</v>
+        <v>7100109</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13363,76 +13363,76 @@
         <v>45160.65625</v>
       </c>
       <c r="F143" t="s">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="G143" t="s">
-        <v>41</v>
+        <v>92</v>
       </c>
       <c r="H143">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I143">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J143" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K143">
+        <v>2.2</v>
+      </c>
+      <c r="L143">
+        <v>3.6</v>
+      </c>
+      <c r="M143">
+        <v>2.6</v>
+      </c>
+      <c r="N143">
+        <v>1.95</v>
+      </c>
+      <c r="O143">
+        <v>3.75</v>
+      </c>
+      <c r="P143">
+        <v>3.1</v>
+      </c>
+      <c r="Q143">
+        <v>-0.5</v>
+      </c>
+      <c r="R143">
+        <v>2</v>
+      </c>
+      <c r="S143">
         <v>1.8</v>
-      </c>
-      <c r="L143">
-        <v>4</v>
-      </c>
-      <c r="M143">
-        <v>3.25</v>
-      </c>
-      <c r="N143">
-        <v>1.666</v>
-      </c>
-      <c r="O143">
-        <v>4.2</v>
-      </c>
-      <c r="P143">
-        <v>3.6</v>
-      </c>
-      <c r="Q143">
-        <v>-0.75</v>
-      </c>
-      <c r="R143">
-        <v>1.875</v>
-      </c>
-      <c r="S143">
-        <v>1.925</v>
       </c>
       <c r="T143">
         <v>2.75</v>
       </c>
       <c r="U143">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V143">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W143">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X143">
         <v>-1</v>
       </c>
       <c r="Y143">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z143">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA143">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB143">
-        <v>0.45</v>
+        <v>0.825</v>
       </c>
       <c r="AC143">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="144" spans="1:29">
@@ -13440,7 +13440,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>7100546</v>
+        <v>7100545</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13452,76 +13452,76 @@
         <v>45160.65625</v>
       </c>
       <c r="F144" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="G144" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H144">
         <v>1</v>
       </c>
       <c r="I144">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J144" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K144">
-        <v>1.615</v>
+        <v>1.909</v>
       </c>
       <c r="L144">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M144">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="N144">
-        <v>1.45</v>
+        <v>1.85</v>
       </c>
       <c r="O144">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="P144">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="Q144">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R144">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S144">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T144">
         <v>2.75</v>
       </c>
       <c r="U144">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V144">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W144">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X144">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y144">
         <v>-1</v>
       </c>
       <c r="Z144">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA144">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB144">
         <v>-1</v>
       </c>
       <c r="AC144">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="145" spans="1:29">
@@ -13529,7 +13529,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>7100545</v>
+        <v>7100282</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13541,76 +13541,76 @@
         <v>45160.65625</v>
       </c>
       <c r="F145" t="s">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="G145" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="H145">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I145">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J145" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K145">
-        <v>1.909</v>
+        <v>2.2</v>
       </c>
       <c r="L145">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M145">
-        <v>3.1</v>
+        <v>2.45</v>
       </c>
       <c r="N145">
+        <v>2.25</v>
+      </c>
+      <c r="O145">
+        <v>4</v>
+      </c>
+      <c r="P145">
+        <v>2.4</v>
+      </c>
+      <c r="Q145">
+        <v>0</v>
+      </c>
+      <c r="R145">
         <v>1.85</v>
       </c>
-      <c r="O145">
-        <v>3.75</v>
-      </c>
-      <c r="P145">
-        <v>3.2</v>
-      </c>
-      <c r="Q145">
-        <v>-0.5</v>
-      </c>
-      <c r="R145">
-        <v>1.925</v>
-      </c>
       <c r="S145">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T145">
         <v>2.75</v>
       </c>
       <c r="U145">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V145">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W145">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X145">
         <v>-1</v>
       </c>
       <c r="Y145">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="Z145">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA145">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB145">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AC145">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="146" spans="1:29">
@@ -13618,7 +13618,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>7100109</v>
+        <v>7100546</v>
       </c>
       <c r="C146" t="s">
         <v>28</v>
@@ -13630,76 +13630,76 @@
         <v>45160.65625</v>
       </c>
       <c r="F146" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="G146" t="s">
-        <v>92</v>
+        <v>60</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I146">
+        <v>1</v>
+      </c>
+      <c r="J146" t="s">
+        <v>107</v>
+      </c>
+      <c r="K146">
+        <v>1.615</v>
+      </c>
+      <c r="L146">
         <v>4</v>
       </c>
-      <c r="J146" t="s">
-        <v>109</v>
-      </c>
-      <c r="K146">
-        <v>2.2</v>
-      </c>
-      <c r="L146">
-        <v>3.6</v>
-      </c>
       <c r="M146">
-        <v>2.6</v>
+        <v>4</v>
       </c>
       <c r="N146">
-        <v>1.95</v>
+        <v>1.45</v>
       </c>
       <c r="O146">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="P146">
-        <v>3.1</v>
+        <v>5</v>
       </c>
       <c r="Q146">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R146">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S146">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T146">
         <v>2.75</v>
       </c>
       <c r="U146">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V146">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W146">
         <v>-1</v>
       </c>
       <c r="X146">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y146">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z146">
         <v>-1</v>
       </c>
       <c r="AA146">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AB146">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC146">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:29">
@@ -13707,7 +13707,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>7100111</v>
+        <v>7100107</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13719,76 +13719,76 @@
         <v>45160.65625</v>
       </c>
       <c r="F147" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G147" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="H147">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I147">
         <v>1</v>
       </c>
       <c r="J147" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K147">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="L147">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M147">
-        <v>2.75</v>
+        <v>2.4</v>
       </c>
       <c r="N147">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="O147">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P147">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="Q147">
         <v>0.25</v>
       </c>
       <c r="R147">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S147">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T147">
         <v>2.5</v>
       </c>
       <c r="U147">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V147">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W147">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="X147">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y147">
         <v>-1</v>
       </c>
       <c r="Z147">
-        <v>0.475</v>
+        <v>0.875</v>
       </c>
       <c r="AA147">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB147">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC147">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="148" spans="1:29">
@@ -13885,7 +13885,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>7100107</v>
+        <v>7100106</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -13897,76 +13897,76 @@
         <v>45160.65625</v>
       </c>
       <c r="F149" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G149" t="s">
-        <v>30</v>
+        <v>102</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I149">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J149" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K149">
+        <v>2.05</v>
+      </c>
+      <c r="L149">
+        <v>3.2</v>
+      </c>
+      <c r="M149">
+        <v>3.2</v>
+      </c>
+      <c r="N149">
+        <v>1.85</v>
+      </c>
+      <c r="O149">
+        <v>3.4</v>
+      </c>
+      <c r="P149">
+        <v>3.4</v>
+      </c>
+      <c r="Q149">
+        <v>-0.5</v>
+      </c>
+      <c r="R149">
+        <v>1.95</v>
+      </c>
+      <c r="S149">
+        <v>1.85</v>
+      </c>
+      <c r="T149">
+        <v>2.75</v>
+      </c>
+      <c r="U149">
+        <v>1.825</v>
+      </c>
+      <c r="V149">
+        <v>1.975</v>
+      </c>
+      <c r="W149">
+        <v>-1</v>
+      </c>
+      <c r="X149">
         <v>2.4</v>
       </c>
-      <c r="L149">
-        <v>3.6</v>
-      </c>
-      <c r="M149">
-        <v>2.4</v>
-      </c>
-      <c r="N149">
-        <v>2.9</v>
-      </c>
-      <c r="O149">
-        <v>3.6</v>
-      </c>
-      <c r="P149">
-        <v>2.1</v>
-      </c>
-      <c r="Q149">
-        <v>0.25</v>
-      </c>
-      <c r="R149">
-        <v>1.875</v>
-      </c>
-      <c r="S149">
-        <v>1.925</v>
-      </c>
-      <c r="T149">
-        <v>2.5</v>
-      </c>
-      <c r="U149">
-        <v>1.9</v>
-      </c>
-      <c r="V149">
-        <v>1.9</v>
-      </c>
-      <c r="W149">
-        <v>1.9</v>
-      </c>
-      <c r="X149">
-        <v>-1</v>
-      </c>
       <c r="Y149">
         <v>-1</v>
       </c>
       <c r="Z149">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA149">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB149">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC149">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="150" spans="1:29">
@@ -13974,7 +13974,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>7100106</v>
+        <v>7100110</v>
       </c>
       <c r="C150" t="s">
         <v>28</v>
@@ -13986,76 +13986,76 @@
         <v>45160.65625</v>
       </c>
       <c r="F150" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G150" t="s">
-        <v>102</v>
+        <v>45</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J150" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="K150">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="L150">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M150">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="N150">
-        <v>1.85</v>
+        <v>2.625</v>
       </c>
       <c r="O150">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P150">
-        <v>3.4</v>
+        <v>2.3</v>
       </c>
       <c r="Q150">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R150">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S150">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T150">
         <v>2.75</v>
       </c>
       <c r="U150">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V150">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W150">
         <v>-1</v>
       </c>
       <c r="X150">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y150">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z150">
         <v>-1</v>
       </c>
       <c r="AA150">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AB150">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC150">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="151" spans="1:29">
@@ -14063,7 +14063,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>7100110</v>
+        <v>7100111</v>
       </c>
       <c r="C151" t="s">
         <v>28</v>
@@ -14075,76 +14075,76 @@
         <v>45160.65625</v>
       </c>
       <c r="F151" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G151" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H151">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I151">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J151" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K151">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L151">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M151">
         <v>2.75</v>
       </c>
       <c r="N151">
-        <v>2.625</v>
+        <v>3.1</v>
       </c>
       <c r="O151">
         <v>3.3</v>
       </c>
       <c r="P151">
+        <v>2.05</v>
+      </c>
+      <c r="Q151">
+        <v>0.25</v>
+      </c>
+      <c r="R151">
+        <v>1.95</v>
+      </c>
+      <c r="S151">
+        <v>1.85</v>
+      </c>
+      <c r="T151">
+        <v>2.5</v>
+      </c>
+      <c r="U151">
+        <v>1.8</v>
+      </c>
+      <c r="V151">
+        <v>2</v>
+      </c>
+      <c r="W151">
+        <v>-1</v>
+      </c>
+      <c r="X151">
         <v>2.3</v>
       </c>
-      <c r="Q151">
-        <v>0</v>
-      </c>
-      <c r="R151">
-        <v>2</v>
-      </c>
-      <c r="S151">
-        <v>1.8</v>
-      </c>
-      <c r="T151">
-        <v>2.75</v>
-      </c>
-      <c r="U151">
-        <v>1.95</v>
-      </c>
-      <c r="V151">
-        <v>1.85</v>
-      </c>
-      <c r="W151">
-        <v>-1</v>
-      </c>
-      <c r="X151">
-        <v>-1</v>
-      </c>
       <c r="Y151">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z151">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AA151">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AB151">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC151">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:29">
@@ -14152,7 +14152,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>7104106</v>
+        <v>7104129</v>
       </c>
       <c r="C152" t="s">
         <v>28</v>
@@ -14164,58 +14164,58 @@
         <v>45161.65625</v>
       </c>
       <c r="F152" t="s">
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="G152" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H152">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I152">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J152" t="s">
         <v>108</v>
       </c>
       <c r="K152">
-        <v>2.375</v>
+        <v>1.533</v>
       </c>
       <c r="L152">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M152">
-        <v>2.375</v>
+        <v>4.75</v>
       </c>
       <c r="N152">
-        <v>2.6</v>
+        <v>1.45</v>
       </c>
       <c r="O152">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="P152">
-        <v>2.15</v>
+        <v>5.5</v>
       </c>
       <c r="Q152">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R152">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="S152">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T152">
         <v>3</v>
       </c>
       <c r="U152">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="V152">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W152">
-        <v>1.6</v>
+        <v>0.45</v>
       </c>
       <c r="X152">
         <v>-1</v>
@@ -14224,16 +14224,16 @@
         <v>-1</v>
       </c>
       <c r="Z152">
-        <v>0.825</v>
+        <v>0.75</v>
       </c>
       <c r="AA152">
         <v>-1</v>
       </c>
       <c r="AB152">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AC152">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="153" spans="1:29">
@@ -14241,7 +14241,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>7104131</v>
+        <v>7104130</v>
       </c>
       <c r="C153" t="s">
         <v>28</v>
@@ -14256,73 +14256,73 @@
         <v>80</v>
       </c>
       <c r="G153" t="s">
-        <v>39</v>
+        <v>90</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I153">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J153" t="s">
         <v>109</v>
       </c>
       <c r="K153">
-        <v>2.25</v>
+        <v>2.375</v>
       </c>
       <c r="L153">
+        <v>3.6</v>
+      </c>
+      <c r="M153">
+        <v>2.375</v>
+      </c>
+      <c r="N153">
+        <v>2.625</v>
+      </c>
+      <c r="O153">
         <v>3.5</v>
       </c>
-      <c r="M153">
-        <v>2.6</v>
-      </c>
-      <c r="N153">
-        <v>1.833</v>
-      </c>
-      <c r="O153">
-        <v>3.6</v>
-      </c>
       <c r="P153">
-        <v>3.5</v>
+        <v>2.2</v>
       </c>
       <c r="Q153">
+        <v>0.25</v>
+      </c>
+      <c r="R153">
+        <v>1.825</v>
+      </c>
+      <c r="S153">
+        <v>1.975</v>
+      </c>
+      <c r="T153">
+        <v>2.75</v>
+      </c>
+      <c r="U153">
+        <v>1.8</v>
+      </c>
+      <c r="V153">
+        <v>2</v>
+      </c>
+      <c r="W153">
+        <v>-1</v>
+      </c>
+      <c r="X153">
+        <v>-1</v>
+      </c>
+      <c r="Y153">
+        <v>1.2</v>
+      </c>
+      <c r="Z153">
+        <v>-1</v>
+      </c>
+      <c r="AA153">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB153">
+        <v>0.4</v>
+      </c>
+      <c r="AC153">
         <v>-0.5</v>
-      </c>
-      <c r="R153">
-        <v>1.875</v>
-      </c>
-      <c r="S153">
-        <v>1.925</v>
-      </c>
-      <c r="T153">
-        <v>2.5</v>
-      </c>
-      <c r="U153">
-        <v>1.775</v>
-      </c>
-      <c r="V153">
-        <v>1.925</v>
-      </c>
-      <c r="W153">
-        <v>-1</v>
-      </c>
-      <c r="X153">
-        <v>-1</v>
-      </c>
-      <c r="Y153">
-        <v>2.5</v>
-      </c>
-      <c r="Z153">
-        <v>-1</v>
-      </c>
-      <c r="AA153">
-        <v>0.925</v>
-      </c>
-      <c r="AB153">
-        <v>-1</v>
-      </c>
-      <c r="AC153">
-        <v>0.925</v>
       </c>
     </row>
     <row r="154" spans="1:29">
@@ -14330,7 +14330,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>7104130</v>
+        <v>7104131</v>
       </c>
       <c r="C154" t="s">
         <v>28</v>
@@ -14345,52 +14345,52 @@
         <v>81</v>
       </c>
       <c r="G154" t="s">
-        <v>90</v>
+        <v>39</v>
       </c>
       <c r="H154">
+        <v>0</v>
+      </c>
+      <c r="I154">
         <v>1</v>
-      </c>
-      <c r="I154">
-        <v>2</v>
       </c>
       <c r="J154" t="s">
         <v>109</v>
       </c>
       <c r="K154">
-        <v>2.375</v>
+        <v>2.25</v>
       </c>
       <c r="L154">
+        <v>3.5</v>
+      </c>
+      <c r="M154">
+        <v>2.6</v>
+      </c>
+      <c r="N154">
+        <v>1.833</v>
+      </c>
+      <c r="O154">
         <v>3.6</v>
       </c>
-      <c r="M154">
-        <v>2.375</v>
-      </c>
-      <c r="N154">
-        <v>2.625</v>
-      </c>
-      <c r="O154">
+      <c r="P154">
         <v>3.5</v>
       </c>
-      <c r="P154">
-        <v>2.2</v>
-      </c>
       <c r="Q154">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R154">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S154">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T154">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U154">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="V154">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W154">
         <v>-1</v>
@@ -14399,19 +14399,19 @@
         <v>-1</v>
       </c>
       <c r="Y154">
-        <v>1.2</v>
+        <v>2.5</v>
       </c>
       <c r="Z154">
         <v>-1</v>
       </c>
       <c r="AA154">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AB154">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AC154">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="155" spans="1:29">
@@ -14419,7 +14419,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>7104129</v>
+        <v>7104106</v>
       </c>
       <c r="C155" t="s">
         <v>28</v>
@@ -14431,58 +14431,58 @@
         <v>45161.65625</v>
       </c>
       <c r="F155" t="s">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="G155" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H155">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I155">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J155" t="s">
         <v>108</v>
       </c>
       <c r="K155">
-        <v>1.533</v>
+        <v>2.375</v>
       </c>
       <c r="L155">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M155">
-        <v>4.75</v>
+        <v>2.375</v>
       </c>
       <c r="N155">
-        <v>1.45</v>
+        <v>2.6</v>
       </c>
       <c r="O155">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P155">
-        <v>5.5</v>
+        <v>2.15</v>
       </c>
       <c r="Q155">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R155">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="S155">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T155">
         <v>3</v>
       </c>
       <c r="U155">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="V155">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W155">
-        <v>0.45</v>
+        <v>1.6</v>
       </c>
       <c r="X155">
         <v>-1</v>
@@ -14491,16 +14491,16 @@
         <v>-1</v>
       </c>
       <c r="Z155">
+        <v>0.825</v>
+      </c>
+      <c r="AA155">
+        <v>-1</v>
+      </c>
+      <c r="AB155">
         <v>0.75</v>
       </c>
-      <c r="AA155">
-        <v>-1</v>
-      </c>
-      <c r="AB155">
-        <v>-1</v>
-      </c>
       <c r="AC155">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="156" spans="1:29">
@@ -15143,7 +15143,7 @@
         <v>45166.45833333334</v>
       </c>
       <c r="F163" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G163" t="s">
         <v>56</v>
@@ -15235,7 +15235,7 @@
         <v>38</v>
       </c>
       <c r="G164" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="H164">
         <v>3</v>
@@ -15858,7 +15858,7 @@
         <v>54</v>
       </c>
       <c r="G171" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H171">
         <v>5</v>
@@ -16036,7 +16036,7 @@
         <v>56</v>
       </c>
       <c r="G173" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H173">
         <v>4</v>
@@ -16748,7 +16748,7 @@
         <v>37</v>
       </c>
       <c r="G181" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H181">
         <v>3</v>
@@ -17267,7 +17267,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>7350911</v>
+        <v>7350921</v>
       </c>
       <c r="C187" t="s">
         <v>28</v>
@@ -17279,76 +17279,76 @@
         <v>45216.65625</v>
       </c>
       <c r="F187" t="s">
-        <v>84</v>
+        <v>40</v>
       </c>
       <c r="G187" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="H187">
         <v>2</v>
       </c>
       <c r="I187">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J187" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K187">
-        <v>4.4</v>
+        <v>2</v>
       </c>
       <c r="L187">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="M187">
-        <v>1.55</v>
+        <v>2.75</v>
       </c>
       <c r="N187">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O187">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="P187">
-        <v>1.5</v>
+        <v>2.75</v>
       </c>
       <c r="Q187">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="R187">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S187">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T187">
         <v>2.75</v>
       </c>
       <c r="U187">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="V187">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W187">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X187">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y187">
         <v>-1</v>
       </c>
       <c r="Z187">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA187">
         <v>-1</v>
       </c>
       <c r="AB187">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AC187">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="188" spans="1:29">
@@ -17445,7 +17445,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>7350921</v>
+        <v>7350912</v>
       </c>
       <c r="C189" t="s">
         <v>28</v>
@@ -17457,58 +17457,58 @@
         <v>45216.65625</v>
       </c>
       <c r="F189" t="s">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="G189" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="H189">
         <v>2</v>
       </c>
       <c r="I189">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J189" t="s">
         <v>108</v>
       </c>
       <c r="K189">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="L189">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="M189">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="N189">
-        <v>2</v>
+        <v>2.375</v>
       </c>
       <c r="O189">
         <v>4</v>
       </c>
       <c r="P189">
-        <v>2.75</v>
+        <v>2.3</v>
       </c>
       <c r="Q189">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R189">
+        <v>1.925</v>
+      </c>
+      <c r="S189">
+        <v>1.875</v>
+      </c>
+      <c r="T189">
+        <v>3</v>
+      </c>
+      <c r="U189">
+        <v>1.95</v>
+      </c>
+      <c r="V189">
         <v>1.85</v>
       </c>
-      <c r="S189">
-        <v>1.95</v>
-      </c>
-      <c r="T189">
-        <v>2.75</v>
-      </c>
-      <c r="U189">
-        <v>1.875</v>
-      </c>
-      <c r="V189">
-        <v>1.925</v>
-      </c>
       <c r="W189">
-        <v>1</v>
+        <v>1.375</v>
       </c>
       <c r="X189">
         <v>-1</v>
@@ -17517,16 +17517,16 @@
         <v>-1</v>
       </c>
       <c r="Z189">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AA189">
         <v>-1</v>
       </c>
       <c r="AB189">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC189">
-        <v>0.925</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="190" spans="1:29">
@@ -17534,7 +17534,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>7350912</v>
+        <v>7350911</v>
       </c>
       <c r="C190" t="s">
         <v>28</v>
@@ -17546,76 +17546,76 @@
         <v>45216.65625</v>
       </c>
       <c r="F190" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="G190" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="H190">
         <v>2</v>
       </c>
       <c r="I190">
+        <v>2</v>
+      </c>
+      <c r="J190" t="s">
+        <v>107</v>
+      </c>
+      <c r="K190">
+        <v>4.4</v>
+      </c>
+      <c r="L190">
+        <v>4.2</v>
+      </c>
+      <c r="M190">
+        <v>1.55</v>
+      </c>
+      <c r="N190">
+        <v>5</v>
+      </c>
+      <c r="O190">
+        <v>4.333</v>
+      </c>
+      <c r="P190">
+        <v>1.5</v>
+      </c>
+      <c r="Q190">
         <v>1</v>
       </c>
-      <c r="J190" t="s">
-        <v>108</v>
-      </c>
-      <c r="K190">
-        <v>2.2</v>
-      </c>
-      <c r="L190">
-        <v>3.9</v>
-      </c>
-      <c r="M190">
-        <v>2.5</v>
-      </c>
-      <c r="N190">
-        <v>2.375</v>
-      </c>
-      <c r="O190">
-        <v>4</v>
-      </c>
-      <c r="P190">
-        <v>2.3</v>
-      </c>
-      <c r="Q190">
-        <v>0</v>
-      </c>
       <c r="R190">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S190">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T190">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U190">
+        <v>1.75</v>
+      </c>
+      <c r="V190">
         <v>1.95</v>
       </c>
-      <c r="V190">
-        <v>1.85</v>
-      </c>
       <c r="W190">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X190">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y190">
         <v>-1</v>
       </c>
       <c r="Z190">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="AA190">
         <v>-1</v>
       </c>
       <c r="AB190">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AC190">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="191" spans="1:29">
@@ -17638,7 +17638,7 @@
         <v>31</v>
       </c>
       <c r="G191" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H191">
         <v>1</v>
@@ -18347,7 +18347,7 @@
         <v>45237.69791666666</v>
       </c>
       <c r="F199" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G199" t="s">
         <v>89</v>
@@ -18780,7 +18780,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>7473234</v>
+        <v>7476390</v>
       </c>
       <c r="C204" t="s">
         <v>28</v>
@@ -18792,58 +18792,58 @@
         <v>45244.69791666666</v>
       </c>
       <c r="F204" t="s">
-        <v>55</v>
+        <v>82</v>
       </c>
       <c r="G204" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H204">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I204">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J204" t="s">
         <v>108</v>
       </c>
       <c r="K204">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="L204">
         <v>3.6</v>
       </c>
       <c r="M204">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="N204">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="O204">
         <v>3.6</v>
       </c>
       <c r="P204">
-        <v>2.45</v>
+        <v>3</v>
       </c>
       <c r="Q204">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R204">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S204">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T204">
         <v>2.75</v>
       </c>
       <c r="U204">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V204">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W204">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="X204">
         <v>-1</v>
@@ -18852,13 +18852,13 @@
         <v>-1</v>
       </c>
       <c r="Z204">
+        <v>0.8</v>
+      </c>
+      <c r="AA204">
+        <v>-1</v>
+      </c>
+      <c r="AB204">
         <v>0.825</v>
-      </c>
-      <c r="AA204">
-        <v>-1</v>
-      </c>
-      <c r="AB204">
-        <v>0.95</v>
       </c>
       <c r="AC204">
         <v>-1</v>
@@ -18881,7 +18881,7 @@
         <v>45244.69791666666</v>
       </c>
       <c r="F205" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G205" t="s">
         <v>50</v>
@@ -18958,7 +18958,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>7476389</v>
+        <v>7473234</v>
       </c>
       <c r="C206" t="s">
         <v>28</v>
@@ -18970,73 +18970,73 @@
         <v>45244.69791666666</v>
       </c>
       <c r="F206" t="s">
-        <v>84</v>
+        <v>55</v>
       </c>
       <c r="G206" t="s">
-        <v>89</v>
+        <v>40</v>
       </c>
       <c r="H206">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I206">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J206" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K206">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="L206">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M206">
-        <v>1.75</v>
+        <v>2.3</v>
       </c>
       <c r="N206">
-        <v>3.75</v>
+        <v>2.3</v>
       </c>
       <c r="O206">
         <v>3.6</v>
       </c>
       <c r="P206">
-        <v>1.75</v>
+        <v>2.45</v>
       </c>
       <c r="Q206">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R206">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S206">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T206">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U206">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V206">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W206">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X206">
         <v>-1</v>
       </c>
       <c r="Y206">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z206">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA206">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB206">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AC206">
         <v>-1</v>
@@ -19047,7 +19047,7 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>7476390</v>
+        <v>7476389</v>
       </c>
       <c r="C207" t="s">
         <v>28</v>
@@ -19059,73 +19059,73 @@
         <v>45244.69791666666</v>
       </c>
       <c r="F207" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G207" t="s">
-        <v>39</v>
+        <v>89</v>
       </c>
       <c r="H207">
+        <v>0</v>
+      </c>
+      <c r="I207">
+        <v>6</v>
+      </c>
+      <c r="J207" t="s">
+        <v>109</v>
+      </c>
+      <c r="K207">
         <v>4</v>
       </c>
-      <c r="I207">
-        <v>2</v>
-      </c>
-      <c r="J207" t="s">
-        <v>108</v>
-      </c>
-      <c r="K207">
-        <v>2</v>
-      </c>
       <c r="L207">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M207">
-        <v>3</v>
+        <v>1.75</v>
       </c>
       <c r="N207">
-        <v>2</v>
+        <v>3.75</v>
       </c>
       <c r="O207">
         <v>3.6</v>
       </c>
       <c r="P207">
-        <v>3</v>
+        <v>1.75</v>
       </c>
       <c r="Q207">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R207">
+        <v>2</v>
+      </c>
+      <c r="S207">
         <v>1.8</v>
       </c>
-      <c r="S207">
-        <v>2</v>
-      </c>
       <c r="T207">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U207">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V207">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W207">
+        <v>-1</v>
+      </c>
+      <c r="X207">
+        <v>-1</v>
+      </c>
+      <c r="Y207">
+        <v>0.75</v>
+      </c>
+      <c r="Z207">
+        <v>-1</v>
+      </c>
+      <c r="AA207">
+        <v>0.8</v>
+      </c>
+      <c r="AB207">
         <v>1</v>
-      </c>
-      <c r="X207">
-        <v>-1</v>
-      </c>
-      <c r="Y207">
-        <v>-1</v>
-      </c>
-      <c r="Z207">
-        <v>0.8</v>
-      </c>
-      <c r="AA207">
-        <v>-1</v>
-      </c>
-      <c r="AB207">
-        <v>0.825</v>
       </c>
       <c r="AC207">
         <v>-1</v>
@@ -19329,7 +19329,7 @@
         <v>51</v>
       </c>
       <c r="G210" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H210">
         <v>2</v>
@@ -19952,7 +19952,7 @@
         <v>84</v>
       </c>
       <c r="G217" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H217">
         <v>0</v>
@@ -20308,7 +20308,7 @@
         <v>88</v>
       </c>
       <c r="G221" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H221">
         <v>1</v>
@@ -20397,7 +20397,7 @@
         <v>56</v>
       </c>
       <c r="G222" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H222">
         <v>0</v>
@@ -20471,7 +20471,7 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>7624928</v>
+        <v>7624929</v>
       </c>
       <c r="C223" t="s">
         <v>28</v>
@@ -20483,58 +20483,58 @@
         <v>45286.41666666666</v>
       </c>
       <c r="F223" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="G223" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="H223">
+        <v>2</v>
+      </c>
+      <c r="I223">
         <v>1</v>
-      </c>
-      <c r="I223">
-        <v>0</v>
       </c>
       <c r="J223" t="s">
         <v>108</v>
       </c>
       <c r="K223">
-        <v>2.75</v>
+        <v>1.727</v>
       </c>
       <c r="L223">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="M223">
-        <v>2.25</v>
+        <v>3.5</v>
       </c>
       <c r="N223">
-        <v>2.9</v>
+        <v>1.95</v>
       </c>
       <c r="O223">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="P223">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="Q223">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R223">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S223">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T223">
         <v>2.75</v>
       </c>
       <c r="U223">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V223">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W223">
-        <v>1.9</v>
+        <v>0.95</v>
       </c>
       <c r="X223">
         <v>-1</v>
@@ -20543,16 +20543,16 @@
         <v>-1</v>
       </c>
       <c r="Z223">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AA223">
         <v>-1</v>
       </c>
       <c r="AB223">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AC223">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="224" spans="1:29">
@@ -20560,7 +20560,7 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>7624929</v>
+        <v>7624928</v>
       </c>
       <c r="C224" t="s">
         <v>28</v>
@@ -20572,58 +20572,58 @@
         <v>45286.41666666666</v>
       </c>
       <c r="F224" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="G224" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="H224">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I224">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J224" t="s">
         <v>108</v>
       </c>
       <c r="K224">
-        <v>1.727</v>
+        <v>2.75</v>
       </c>
       <c r="L224">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="M224">
-        <v>3.5</v>
+        <v>2.25</v>
       </c>
       <c r="N224">
+        <v>2.9</v>
+      </c>
+      <c r="O224">
+        <v>3.3</v>
+      </c>
+      <c r="P224">
+        <v>2.25</v>
+      </c>
+      <c r="Q224">
+        <v>0.25</v>
+      </c>
+      <c r="R224">
+        <v>1.85</v>
+      </c>
+      <c r="S224">
         <v>1.95</v>
-      </c>
-      <c r="O224">
-        <v>3.8</v>
-      </c>
-      <c r="P224">
-        <v>3</v>
-      </c>
-      <c r="Q224">
-        <v>-0.25</v>
-      </c>
-      <c r="R224">
-        <v>1.8</v>
-      </c>
-      <c r="S224">
-        <v>2</v>
       </c>
       <c r="T224">
         <v>2.75</v>
       </c>
       <c r="U224">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V224">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W224">
-        <v>0.95</v>
+        <v>1.9</v>
       </c>
       <c r="X224">
         <v>-1</v>
@@ -20632,16 +20632,16 @@
         <v>-1</v>
       </c>
       <c r="Z224">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA224">
         <v>-1</v>
       </c>
       <c r="AB224">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AC224">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="225" spans="1:29">
@@ -20842,7 +20842,7 @@
         <v>61</v>
       </c>
       <c r="G227" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H227">
         <v>2</v>
@@ -21109,7 +21109,7 @@
         <v>93</v>
       </c>
       <c r="G230" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H230">
         <v>1</v>
@@ -21198,7 +21198,7 @@
         <v>64</v>
       </c>
       <c r="G231" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="H231">
         <v>3</v>
@@ -21554,7 +21554,7 @@
         <v>59</v>
       </c>
       <c r="G235" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H235">
         <v>3</v>
@@ -21729,7 +21729,7 @@
         <v>45297.5</v>
       </c>
       <c r="F237" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="G237" t="s">
         <v>84</v>
@@ -21984,7 +21984,7 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>7675037</v>
+        <v>7674983</v>
       </c>
       <c r="C240" t="s">
         <v>28</v>
@@ -21996,76 +21996,76 @@
         <v>45300.69791666666</v>
       </c>
       <c r="F240" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="G240" t="s">
-        <v>39</v>
+        <v>87</v>
       </c>
       <c r="H240">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I240">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J240" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K240">
-        <v>2.25</v>
+        <v>1.5</v>
       </c>
       <c r="L240">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M240">
-        <v>2.6</v>
+        <v>5</v>
       </c>
       <c r="N240">
-        <v>2.375</v>
+        <v>1.6</v>
       </c>
       <c r="O240">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P240">
-        <v>2.45</v>
+        <v>4.333</v>
       </c>
       <c r="Q240">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R240">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S240">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T240">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U240">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="V240">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W240">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X240">
         <v>-1</v>
       </c>
       <c r="Y240">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Z240">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA240">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB240">
         <v>-1</v>
       </c>
       <c r="AC240">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="241" spans="1:29">
@@ -22073,7 +22073,7 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>7674973</v>
+        <v>7675037</v>
       </c>
       <c r="C241" t="s">
         <v>28</v>
@@ -22085,76 +22085,76 @@
         <v>45300.69791666666</v>
       </c>
       <c r="F241" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="G241" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H241">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I241">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J241" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K241">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="L241">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M241">
-        <v>3.4</v>
+        <v>2.6</v>
       </c>
       <c r="N241">
-        <v>1.8</v>
+        <v>2.375</v>
       </c>
       <c r="O241">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P241">
-        <v>3.4</v>
+        <v>2.45</v>
       </c>
       <c r="Q241">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R241">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S241">
+        <v>1.925</v>
+      </c>
+      <c r="T241">
+        <v>2.75</v>
+      </c>
+      <c r="U241">
+        <v>1.75</v>
+      </c>
+      <c r="V241">
         <v>1.95</v>
       </c>
-      <c r="T241">
-        <v>3</v>
-      </c>
-      <c r="U241">
-        <v>1.825</v>
-      </c>
-      <c r="V241">
-        <v>1.975</v>
-      </c>
       <c r="W241">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X241">
         <v>-1</v>
       </c>
       <c r="Y241">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z241">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA241">
+        <v>-1</v>
+      </c>
+      <c r="AB241">
+        <v>-1</v>
+      </c>
+      <c r="AC241">
         <v>0.95</v>
-      </c>
-      <c r="AB241">
-        <v>-1</v>
-      </c>
-      <c r="AC241">
-        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="242" spans="1:29">
@@ -22162,7 +22162,7 @@
         <v>240</v>
       </c>
       <c r="B242">
-        <v>7674710</v>
+        <v>7674973</v>
       </c>
       <c r="C242" t="s">
         <v>28</v>
@@ -22174,76 +22174,76 @@
         <v>45300.69791666666</v>
       </c>
       <c r="F242" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="G242" t="s">
-        <v>76</v>
+        <v>31</v>
       </c>
       <c r="H242">
+        <v>0</v>
+      </c>
+      <c r="I242">
         <v>1</v>
       </c>
-      <c r="I242">
-        <v>0</v>
-      </c>
       <c r="J242" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K242">
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
       <c r="L242">
-        <v>6.5</v>
+        <v>3.75</v>
       </c>
       <c r="M242">
-        <v>8</v>
+        <v>3.4</v>
       </c>
       <c r="N242">
-        <v>1.181</v>
+        <v>1.8</v>
       </c>
       <c r="O242">
-        <v>6.5</v>
+        <v>3.75</v>
       </c>
       <c r="P242">
-        <v>10</v>
+        <v>3.4</v>
       </c>
       <c r="Q242">
-        <v>-2.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R242">
+        <v>1.85</v>
+      </c>
+      <c r="S242">
         <v>1.95</v>
       </c>
-      <c r="S242">
-        <v>1.85</v>
-      </c>
       <c r="T242">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="U242">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V242">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="W242">
-        <v>0.181</v>
+        <v>-1</v>
       </c>
       <c r="X242">
         <v>-1</v>
       </c>
       <c r="Y242">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z242">
         <v>-1</v>
       </c>
       <c r="AA242">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AB242">
         <v>-1</v>
       </c>
       <c r="AC242">
-        <v>0.7749999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="243" spans="1:29">
@@ -22251,7 +22251,7 @@
         <v>241</v>
       </c>
       <c r="B243">
-        <v>7674983</v>
+        <v>7674710</v>
       </c>
       <c r="C243" t="s">
         <v>28</v>
@@ -22263,76 +22263,76 @@
         <v>45300.69791666666</v>
       </c>
       <c r="F243" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="G243" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="H243">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I243">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J243" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K243">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="L243">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="M243">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="N243">
-        <v>1.6</v>
+        <v>1.181</v>
       </c>
       <c r="O243">
-        <v>3.8</v>
+        <v>6.5</v>
       </c>
       <c r="P243">
-        <v>4.333</v>
+        <v>10</v>
       </c>
       <c r="Q243">
-        <v>-1</v>
+        <v>-2.25</v>
       </c>
       <c r="R243">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S243">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T243">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="U243">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V243">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="W243">
-        <v>-1</v>
+        <v>0.181</v>
       </c>
       <c r="X243">
         <v>-1</v>
       </c>
       <c r="Y243">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Z243">
         <v>-1</v>
       </c>
       <c r="AA243">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB243">
         <v>-1</v>
       </c>
       <c r="AC243">
-        <v>0.9750000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="244" spans="1:29">
@@ -22352,7 +22352,7 @@
         <v>45300.69791666666</v>
       </c>
       <c r="F244" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G244" t="s">
         <v>102</v>
@@ -22429,7 +22429,7 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>7679052</v>
+        <v>7679042</v>
       </c>
       <c r="C245" t="s">
         <v>28</v>
@@ -22441,76 +22441,76 @@
         <v>45301.69791666666</v>
       </c>
       <c r="F245" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="G245" t="s">
-        <v>89</v>
+        <v>29</v>
       </c>
       <c r="H245">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I245">
+        <v>0</v>
+      </c>
+      <c r="J245" t="s">
+        <v>108</v>
+      </c>
+      <c r="K245">
+        <v>1.571</v>
+      </c>
+      <c r="L245">
         <v>4</v>
       </c>
-      <c r="J245" t="s">
-        <v>109</v>
-      </c>
-      <c r="K245">
-        <v>2.5</v>
-      </c>
-      <c r="L245">
+      <c r="M245">
+        <v>4.333</v>
+      </c>
+      <c r="N245">
+        <v>1.65</v>
+      </c>
+      <c r="O245">
         <v>3.75</v>
       </c>
-      <c r="M245">
-        <v>2.25</v>
-      </c>
-      <c r="N245">
-        <v>2.55</v>
-      </c>
-      <c r="O245">
-        <v>3.6</v>
-      </c>
       <c r="P245">
-        <v>2.25</v>
+        <v>4.2</v>
       </c>
       <c r="Q245">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R245">
-        <v>1.725</v>
+        <v>1.85</v>
       </c>
       <c r="S245">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T245">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U245">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="V245">
         <v>1.95</v>
       </c>
       <c r="W245">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X245">
         <v>-1</v>
       </c>
       <c r="Y245">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z245">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA245">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB245">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC245">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="246" spans="1:29">
@@ -22518,7 +22518,7 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>7679042</v>
+        <v>7679052</v>
       </c>
       <c r="C246" t="s">
         <v>28</v>
@@ -22530,76 +22530,76 @@
         <v>45301.69791666666</v>
       </c>
       <c r="F246" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="G246" t="s">
-        <v>29</v>
+        <v>89</v>
       </c>
       <c r="H246">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I246">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J246" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K246">
-        <v>1.571</v>
+        <v>2.5</v>
       </c>
       <c r="L246">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M246">
-        <v>4.333</v>
+        <v>2.25</v>
       </c>
       <c r="N246">
-        <v>1.65</v>
+        <v>2.55</v>
       </c>
       <c r="O246">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P246">
-        <v>4.2</v>
+        <v>2.25</v>
       </c>
       <c r="Q246">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R246">
+        <v>1.725</v>
+      </c>
+      <c r="S246">
+        <v>1.975</v>
+      </c>
+      <c r="T246">
+        <v>3</v>
+      </c>
+      <c r="U246">
         <v>1.85</v>
-      </c>
-      <c r="S246">
-        <v>1.95</v>
-      </c>
-      <c r="T246">
-        <v>2.75</v>
-      </c>
-      <c r="U246">
-        <v>1.75</v>
       </c>
       <c r="V246">
         <v>1.95</v>
       </c>
       <c r="W246">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X246">
         <v>-1</v>
       </c>
       <c r="Y246">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z246">
+        <v>-1</v>
+      </c>
+      <c r="AA246">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB246">
         <v>0.8500000000000001</v>
       </c>
-      <c r="AA246">
-        <v>-1</v>
-      </c>
-      <c r="AB246">
-        <v>-1</v>
-      </c>
       <c r="AC246">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="247" spans="1:29">
@@ -22800,7 +22800,7 @@
         <v>92</v>
       </c>
       <c r="G249" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H249">
         <v>2</v>
@@ -23067,7 +23067,7 @@
         <v>31</v>
       </c>
       <c r="G252" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H252">
         <v>3</v>
@@ -23156,7 +23156,7 @@
         <v>71</v>
       </c>
       <c r="G253" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H253">
         <v>0</v>
@@ -23779,7 +23779,7 @@
         <v>90</v>
       </c>
       <c r="G260" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H260">
         <v>1</v>
@@ -23865,7 +23865,7 @@
         <v>45321.69791666666</v>
       </c>
       <c r="F261" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="G261" t="s">
         <v>33</v>
@@ -24313,7 +24313,7 @@
         <v>52</v>
       </c>
       <c r="G266" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H266">
         <v>1</v>
@@ -24491,7 +24491,7 @@
         <v>56</v>
       </c>
       <c r="G268" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H268">
         <v>1</v>
@@ -24565,7 +24565,7 @@
         <v>267</v>
       </c>
       <c r="B269">
-        <v>7808420</v>
+        <v>7808416</v>
       </c>
       <c r="C269" t="s">
         <v>28</v>
@@ -24577,76 +24577,76 @@
         <v>45332.5</v>
       </c>
       <c r="F269" t="s">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="G269" t="s">
-        <v>83</v>
+        <v>105</v>
       </c>
       <c r="H269">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I269">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J269" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K269">
-        <v>3.3</v>
+        <v>1.8</v>
       </c>
       <c r="L269">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="M269">
-        <v>1.727</v>
+        <v>3.25</v>
       </c>
       <c r="N269">
-        <v>3.2</v>
+        <v>1.85</v>
       </c>
       <c r="O269">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="P269">
-        <v>1.75</v>
+        <v>3.25</v>
       </c>
       <c r="Q269">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R269">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S269">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T269">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U269">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V269">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W269">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="X269">
         <v>-1</v>
       </c>
       <c r="Y269">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Z269">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA269">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB269">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AC269">
-        <v>-0</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="270" spans="1:29">
@@ -24654,7 +24654,7 @@
         <v>268</v>
       </c>
       <c r="B270">
-        <v>7808416</v>
+        <v>7808420</v>
       </c>
       <c r="C270" t="s">
         <v>28</v>
@@ -24666,76 +24666,76 @@
         <v>45332.5</v>
       </c>
       <c r="F270" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="G270" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="H270">
+        <v>3</v>
+      </c>
+      <c r="I270">
+        <v>0</v>
+      </c>
+      <c r="J270" t="s">
+        <v>108</v>
+      </c>
+      <c r="K270">
+        <v>3.3</v>
+      </c>
+      <c r="L270">
+        <v>4.333</v>
+      </c>
+      <c r="M270">
+        <v>1.727</v>
+      </c>
+      <c r="N270">
+        <v>3.2</v>
+      </c>
+      <c r="O270">
+        <v>4.333</v>
+      </c>
+      <c r="P270">
+        <v>1.75</v>
+      </c>
+      <c r="Q270">
+        <v>0.5</v>
+      </c>
+      <c r="R270">
+        <v>2</v>
+      </c>
+      <c r="S270">
+        <v>1.8</v>
+      </c>
+      <c r="T270">
+        <v>3</v>
+      </c>
+      <c r="U270">
+        <v>2</v>
+      </c>
+      <c r="V270">
+        <v>1.8</v>
+      </c>
+      <c r="W270">
+        <v>2.2</v>
+      </c>
+      <c r="X270">
+        <v>-1</v>
+      </c>
+      <c r="Y270">
+        <v>-1</v>
+      </c>
+      <c r="Z270">
         <v>1</v>
       </c>
-      <c r="I270">
-        <v>2</v>
-      </c>
-      <c r="J270" t="s">
-        <v>109</v>
-      </c>
-      <c r="K270">
-        <v>1.8</v>
-      </c>
-      <c r="L270">
-        <v>4</v>
-      </c>
-      <c r="M270">
-        <v>3.25</v>
-      </c>
-      <c r="N270">
-        <v>1.85</v>
-      </c>
-      <c r="O270">
-        <v>3.8</v>
-      </c>
-      <c r="P270">
-        <v>3.25</v>
-      </c>
-      <c r="Q270">
-        <v>-0.5</v>
-      </c>
-      <c r="R270">
-        <v>1.9</v>
-      </c>
-      <c r="S270">
-        <v>1.9</v>
-      </c>
-      <c r="T270">
-        <v>3.25</v>
-      </c>
-      <c r="U270">
-        <v>1.9</v>
-      </c>
-      <c r="V270">
-        <v>1.9</v>
-      </c>
-      <c r="W270">
-        <v>-1</v>
-      </c>
-      <c r="X270">
-        <v>-1</v>
-      </c>
-      <c r="Y270">
-        <v>2.25</v>
-      </c>
-      <c r="Z270">
-        <v>-1</v>
-      </c>
       <c r="AA270">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB270">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AC270">
-        <v>0.45</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="271" spans="1:29">
@@ -24844,10 +24844,10 @@
         <v>45339.5</v>
       </c>
       <c r="F272" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G272" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="H272">
         <v>3</v>
@@ -24936,7 +24936,7 @@
         <v>30</v>
       </c>
       <c r="G273" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H273">
         <v>2</v>
@@ -25111,7 +25111,7 @@
         <v>45339.5</v>
       </c>
       <c r="F275" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G275" t="s">
         <v>71</v>
@@ -25359,6 +25359,524 @@
       </c>
       <c r="AC277">
         <v>1.025</v>
+      </c>
+    </row>
+    <row r="278" spans="1:29">
+      <c r="A278" s="1">
+        <v>276</v>
+      </c>
+      <c r="B278">
+        <v>7875438</v>
+      </c>
+      <c r="C278" t="s">
+        <v>28</v>
+      </c>
+      <c r="D278" t="s">
+        <v>28</v>
+      </c>
+      <c r="E278" s="2">
+        <v>45346.5</v>
+      </c>
+      <c r="F278" t="s">
+        <v>78</v>
+      </c>
+      <c r="G278" t="s">
+        <v>54</v>
+      </c>
+      <c r="K278">
+        <v>2.3</v>
+      </c>
+      <c r="L278">
+        <v>3.75</v>
+      </c>
+      <c r="M278">
+        <v>2.4</v>
+      </c>
+      <c r="N278">
+        <v>2.3</v>
+      </c>
+      <c r="O278">
+        <v>3.75</v>
+      </c>
+      <c r="P278">
+        <v>2.4</v>
+      </c>
+      <c r="Q278">
+        <v>0</v>
+      </c>
+      <c r="R278">
+        <v>1.85</v>
+      </c>
+      <c r="S278">
+        <v>1.95</v>
+      </c>
+      <c r="T278">
+        <v>3</v>
+      </c>
+      <c r="U278">
+        <v>1.925</v>
+      </c>
+      <c r="V278">
+        <v>1.875</v>
+      </c>
+      <c r="W278">
+        <v>0</v>
+      </c>
+      <c r="X278">
+        <v>0</v>
+      </c>
+      <c r="Y278">
+        <v>0</v>
+      </c>
+      <c r="Z278">
+        <v>0</v>
+      </c>
+      <c r="AA278">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:29">
+      <c r="A279" s="1">
+        <v>277</v>
+      </c>
+      <c r="B279">
+        <v>7875439</v>
+      </c>
+      <c r="C279" t="s">
+        <v>28</v>
+      </c>
+      <c r="D279" t="s">
+        <v>28</v>
+      </c>
+      <c r="E279" s="2">
+        <v>45346.5</v>
+      </c>
+      <c r="F279" t="s">
+        <v>49</v>
+      </c>
+      <c r="G279" t="s">
+        <v>84</v>
+      </c>
+      <c r="K279">
+        <v>1.666</v>
+      </c>
+      <c r="L279">
+        <v>4</v>
+      </c>
+      <c r="M279">
+        <v>3.75</v>
+      </c>
+      <c r="N279">
+        <v>1.666</v>
+      </c>
+      <c r="O279">
+        <v>4</v>
+      </c>
+      <c r="P279">
+        <v>3.75</v>
+      </c>
+      <c r="Q279">
+        <v>-0.75</v>
+      </c>
+      <c r="R279">
+        <v>1.875</v>
+      </c>
+      <c r="S279">
+        <v>1.925</v>
+      </c>
+      <c r="T279">
+        <v>3.25</v>
+      </c>
+      <c r="U279">
+        <v>1.85</v>
+      </c>
+      <c r="V279">
+        <v>1.95</v>
+      </c>
+      <c r="W279">
+        <v>0</v>
+      </c>
+      <c r="X279">
+        <v>0</v>
+      </c>
+      <c r="Y279">
+        <v>0</v>
+      </c>
+      <c r="Z279">
+        <v>0</v>
+      </c>
+      <c r="AA279">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:29">
+      <c r="A280" s="1">
+        <v>278</v>
+      </c>
+      <c r="B280">
+        <v>7875440</v>
+      </c>
+      <c r="C280" t="s">
+        <v>28</v>
+      </c>
+      <c r="D280" t="s">
+        <v>28</v>
+      </c>
+      <c r="E280" s="2">
+        <v>45346.5</v>
+      </c>
+      <c r="F280" t="s">
+        <v>68</v>
+      </c>
+      <c r="G280" t="s">
+        <v>70</v>
+      </c>
+      <c r="K280">
+        <v>2.1</v>
+      </c>
+      <c r="L280">
+        <v>3.6</v>
+      </c>
+      <c r="M280">
+        <v>2.8</v>
+      </c>
+      <c r="N280">
+        <v>2.1</v>
+      </c>
+      <c r="O280">
+        <v>3.6</v>
+      </c>
+      <c r="P280">
+        <v>2.8</v>
+      </c>
+      <c r="Q280">
+        <v>-0.25</v>
+      </c>
+      <c r="R280">
+        <v>1.9</v>
+      </c>
+      <c r="S280">
+        <v>1.9</v>
+      </c>
+      <c r="T280">
+        <v>3</v>
+      </c>
+      <c r="U280">
+        <v>2</v>
+      </c>
+      <c r="V280">
+        <v>1.8</v>
+      </c>
+      <c r="W280">
+        <v>0</v>
+      </c>
+      <c r="X280">
+        <v>0</v>
+      </c>
+      <c r="Y280">
+        <v>0</v>
+      </c>
+      <c r="Z280">
+        <v>0</v>
+      </c>
+      <c r="AA280">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:29">
+      <c r="A281" s="1">
+        <v>279</v>
+      </c>
+      <c r="B281">
+        <v>7875441</v>
+      </c>
+      <c r="C281" t="s">
+        <v>28</v>
+      </c>
+      <c r="D281" t="s">
+        <v>28</v>
+      </c>
+      <c r="E281" s="2">
+        <v>45346.5</v>
+      </c>
+      <c r="F281" t="s">
+        <v>56</v>
+      </c>
+      <c r="G281" t="s">
+        <v>90</v>
+      </c>
+      <c r="K281">
+        <v>2.4</v>
+      </c>
+      <c r="L281">
+        <v>3.6</v>
+      </c>
+      <c r="M281">
+        <v>2.4</v>
+      </c>
+      <c r="N281">
+        <v>2.15</v>
+      </c>
+      <c r="O281">
+        <v>3.8</v>
+      </c>
+      <c r="P281">
+        <v>2.625</v>
+      </c>
+      <c r="Q281">
+        <v>-0.25</v>
+      </c>
+      <c r="R281">
+        <v>1.95</v>
+      </c>
+      <c r="S281">
+        <v>1.85</v>
+      </c>
+      <c r="T281">
+        <v>2.75</v>
+      </c>
+      <c r="U281">
+        <v>1.9</v>
+      </c>
+      <c r="V281">
+        <v>1.9</v>
+      </c>
+      <c r="W281">
+        <v>0</v>
+      </c>
+      <c r="X281">
+        <v>0</v>
+      </c>
+      <c r="Y281">
+        <v>0</v>
+      </c>
+      <c r="Z281">
+        <v>0</v>
+      </c>
+      <c r="AA281">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:29">
+      <c r="A282" s="1">
+        <v>280</v>
+      </c>
+      <c r="B282">
+        <v>7875442</v>
+      </c>
+      <c r="C282" t="s">
+        <v>28</v>
+      </c>
+      <c r="D282" t="s">
+        <v>28</v>
+      </c>
+      <c r="E282" s="2">
+        <v>45346.5</v>
+      </c>
+      <c r="F282" t="s">
+        <v>50</v>
+      </c>
+      <c r="G282" t="s">
+        <v>77</v>
+      </c>
+      <c r="K282">
+        <v>3.5</v>
+      </c>
+      <c r="L282">
+        <v>4</v>
+      </c>
+      <c r="M282">
+        <v>1.727</v>
+      </c>
+      <c r="N282">
+        <v>3.1</v>
+      </c>
+      <c r="O282">
+        <v>3.8</v>
+      </c>
+      <c r="P282">
+        <v>1.85</v>
+      </c>
+      <c r="Q282">
+        <v>0.5</v>
+      </c>
+      <c r="R282">
+        <v>1.875</v>
+      </c>
+      <c r="S282">
+        <v>1.925</v>
+      </c>
+      <c r="T282">
+        <v>2.75</v>
+      </c>
+      <c r="U282">
+        <v>2</v>
+      </c>
+      <c r="V282">
+        <v>1.8</v>
+      </c>
+      <c r="W282">
+        <v>0</v>
+      </c>
+      <c r="X282">
+        <v>0</v>
+      </c>
+      <c r="Y282">
+        <v>0</v>
+      </c>
+      <c r="Z282">
+        <v>0</v>
+      </c>
+      <c r="AA282">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:29">
+      <c r="A283" s="1">
+        <v>281</v>
+      </c>
+      <c r="B283">
+        <v>7875443</v>
+      </c>
+      <c r="C283" t="s">
+        <v>28</v>
+      </c>
+      <c r="D283" t="s">
+        <v>28</v>
+      </c>
+      <c r="E283" s="2">
+        <v>45346.5</v>
+      </c>
+      <c r="F283" t="s">
+        <v>29</v>
+      </c>
+      <c r="G283" t="s">
+        <v>102</v>
+      </c>
+      <c r="K283">
+        <v>3.3</v>
+      </c>
+      <c r="L283">
+        <v>3.75</v>
+      </c>
+      <c r="M283">
+        <v>1.85</v>
+      </c>
+      <c r="N283">
+        <v>3.3</v>
+      </c>
+      <c r="O283">
+        <v>3.75</v>
+      </c>
+      <c r="P283">
+        <v>1.85</v>
+      </c>
+      <c r="Q283">
+        <v>0.5</v>
+      </c>
+      <c r="R283">
+        <v>1.9</v>
+      </c>
+      <c r="S283">
+        <v>1.9</v>
+      </c>
+      <c r="T283">
+        <v>3.25</v>
+      </c>
+      <c r="U283">
+        <v>1.85</v>
+      </c>
+      <c r="V283">
+        <v>1.95</v>
+      </c>
+      <c r="W283">
+        <v>0</v>
+      </c>
+      <c r="X283">
+        <v>0</v>
+      </c>
+      <c r="Y283">
+        <v>0</v>
+      </c>
+      <c r="Z283">
+        <v>0</v>
+      </c>
+      <c r="AA283">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:29">
+      <c r="A284" s="1">
+        <v>282</v>
+      </c>
+      <c r="B284">
+        <v>7875444</v>
+      </c>
+      <c r="C284" t="s">
+        <v>28</v>
+      </c>
+      <c r="D284" t="s">
+        <v>28</v>
+      </c>
+      <c r="E284" s="2">
+        <v>45346.5</v>
+      </c>
+      <c r="F284" t="s">
+        <v>52</v>
+      </c>
+      <c r="G284" t="s">
+        <v>31</v>
+      </c>
+      <c r="K284">
+        <v>2.15</v>
+      </c>
+      <c r="L284">
+        <v>3.75</v>
+      </c>
+      <c r="M284">
+        <v>2.6</v>
+      </c>
+      <c r="N284">
+        <v>2.15</v>
+      </c>
+      <c r="O284">
+        <v>3.75</v>
+      </c>
+      <c r="P284">
+        <v>2.625</v>
+      </c>
+      <c r="Q284">
+        <v>-0.25</v>
+      </c>
+      <c r="R284">
+        <v>1.975</v>
+      </c>
+      <c r="S284">
+        <v>1.825</v>
+      </c>
+      <c r="T284">
+        <v>2.75</v>
+      </c>
+      <c r="U284">
+        <v>1.85</v>
+      </c>
+      <c r="V284">
+        <v>1.95</v>
+      </c>
+      <c r="W284">
+        <v>0</v>
+      </c>
+      <c r="X284">
+        <v>0</v>
+      </c>
+      <c r="Y284">
+        <v>0</v>
+      </c>
+      <c r="Z284">
+        <v>0</v>
+      </c>
+      <c r="AA284">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/England Northern League Division One/England Northern League Division One.xlsx
+++ b/England Northern League Division One/England Northern League Division One.xlsx
@@ -22963,7 +22963,7 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>7719604</v>
+        <v>7725153</v>
       </c>
       <c r="C251" t="s">
         <v>28</v>
@@ -22975,37 +22975,37 @@
         <v>45311.5</v>
       </c>
       <c r="F251" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="G251" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="H251">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I251">
         <v>0</v>
       </c>
       <c r="J251" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="K251">
         <v>2.25</v>
       </c>
       <c r="L251">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M251">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="N251">
         <v>2.25</v>
       </c>
       <c r="O251">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P251">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="Q251">
         <v>-0.25</v>
@@ -23020,31 +23020,31 @@
         <v>3</v>
       </c>
       <c r="U251">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="V251">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W251">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X251">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y251">
         <v>-1</v>
       </c>
       <c r="Z251">
-        <v>1.05</v>
+        <v>-0.5</v>
       </c>
       <c r="AA251">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
       <c r="AB251">
         <v>-1</v>
       </c>
       <c r="AC251">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="252" spans="1:29">
@@ -23052,7 +23052,7 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>7725153</v>
+        <v>7719604</v>
       </c>
       <c r="C252" t="s">
         <v>28</v>
@@ -23064,37 +23064,37 @@
         <v>45311.5</v>
       </c>
       <c r="F252" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="G252" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="H252">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I252">
         <v>0</v>
       </c>
       <c r="J252" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K252">
         <v>2.25</v>
       </c>
       <c r="L252">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M252">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="N252">
         <v>2.25</v>
       </c>
       <c r="O252">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P252">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="Q252">
         <v>-0.25</v>
@@ -23109,31 +23109,31 @@
         <v>3</v>
       </c>
       <c r="U252">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="V252">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W252">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X252">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y252">
         <v>-1</v>
       </c>
       <c r="Z252">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
       <c r="AA252">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
       <c r="AB252">
         <v>-1</v>
       </c>
       <c r="AC252">
-        <v>1.025</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="253" spans="1:29">
@@ -23141,7 +23141,7 @@
         <v>251</v>
       </c>
       <c r="B253">
-        <v>7719544</v>
+        <v>7719594</v>
       </c>
       <c r="C253" t="s">
         <v>28</v>
@@ -23153,76 +23153,76 @@
         <v>45311.5</v>
       </c>
       <c r="F253" t="s">
-        <v>29</v>
+        <v>72</v>
       </c>
       <c r="G253" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H253">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I253">
         <v>0</v>
       </c>
       <c r="J253" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="K253">
-        <v>2.05</v>
+        <v>1.4</v>
       </c>
       <c r="L253">
+        <v>5</v>
+      </c>
+      <c r="M253">
+        <v>5</v>
+      </c>
+      <c r="N253">
+        <v>1.4</v>
+      </c>
+      <c r="O253">
+        <v>5</v>
+      </c>
+      <c r="P253">
+        <v>5</v>
+      </c>
+      <c r="Q253">
+        <v>-1.25</v>
+      </c>
+      <c r="R253">
+        <v>1.85</v>
+      </c>
+      <c r="S253">
+        <v>1.95</v>
+      </c>
+      <c r="T253">
+        <v>3</v>
+      </c>
+      <c r="U253">
+        <v>1.825</v>
+      </c>
+      <c r="V253">
+        <v>1.975</v>
+      </c>
+      <c r="W253">
+        <v>-1</v>
+      </c>
+      <c r="X253">
         <v>4</v>
       </c>
-      <c r="M253">
-        <v>2.7</v>
-      </c>
-      <c r="N253">
-        <v>2.05</v>
-      </c>
-      <c r="O253">
-        <v>4</v>
-      </c>
-      <c r="P253">
-        <v>2.7</v>
-      </c>
-      <c r="Q253">
-        <v>-0.25</v>
-      </c>
-      <c r="R253">
-        <v>1.875</v>
-      </c>
-      <c r="S253">
-        <v>1.925</v>
-      </c>
-      <c r="T253">
-        <v>2.5</v>
-      </c>
-      <c r="U253">
-        <v>1.8</v>
-      </c>
-      <c r="V253">
-        <v>2</v>
-      </c>
-      <c r="W253">
-        <v>1.05</v>
-      </c>
-      <c r="X253">
-        <v>-1</v>
-      </c>
       <c r="Y253">
         <v>-1</v>
       </c>
       <c r="Z253">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA253">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB253">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC253">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="254" spans="1:29">
@@ -23230,7 +23230,7 @@
         <v>252</v>
       </c>
       <c r="B254">
-        <v>7719594</v>
+        <v>7719544</v>
       </c>
       <c r="C254" t="s">
         <v>28</v>
@@ -23242,76 +23242,76 @@
         <v>45311.5</v>
       </c>
       <c r="F254" t="s">
-        <v>72</v>
+        <v>29</v>
       </c>
       <c r="G254" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="H254">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I254">
         <v>0</v>
       </c>
       <c r="J254" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K254">
-        <v>1.4</v>
+        <v>2.05</v>
       </c>
       <c r="L254">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M254">
-        <v>5</v>
+        <v>2.7</v>
       </c>
       <c r="N254">
-        <v>1.4</v>
+        <v>2.05</v>
       </c>
       <c r="O254">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P254">
-        <v>5</v>
+        <v>2.7</v>
       </c>
       <c r="Q254">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R254">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S254">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T254">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U254">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V254">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W254">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X254">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Y254">
         <v>-1</v>
       </c>
       <c r="Z254">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA254">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB254">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC254">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="255" spans="1:29">

--- a/England Northern League Division One/England Northern League Division One.xlsx
+++ b/England Northern League Division One/England Northern League Division One.xlsx
@@ -109,10 +109,10 @@
     <t>Brighouse Town</t>
   </si>
   <si>
-    <t>Stocksbridge PS</t>
+    <t>Loughborough Dynamo</t>
   </si>
   <si>
-    <t>Loughborough Dynamo</t>
+    <t>Stocksbridge PS</t>
   </si>
   <si>
     <t>Widnes</t>
@@ -127,58 +127,58 @@
     <t>Coleshill Town</t>
   </si>
   <si>
+    <t>Hednesford</t>
+  </si>
+  <si>
     <t>Grantham</t>
+  </si>
+  <si>
+    <t>Leek Town</t>
+  </si>
+  <si>
+    <t>Runcorn Linnets</t>
+  </si>
+  <si>
+    <t>Dunston UTS</t>
+  </si>
+  <si>
+    <t>Mossley</t>
+  </si>
+  <si>
+    <t>Coventry Sphinx</t>
+  </si>
+  <si>
+    <t>Rugby Town</t>
+  </si>
+  <si>
+    <t>North Ferriby</t>
   </si>
   <si>
     <t>Liversedge</t>
   </si>
   <si>
-    <t>Dunston UTS</t>
+    <t>Pontefract Collieries</t>
   </si>
   <si>
     <t>AFC Rushden  Diamonds</t>
   </si>
   <si>
-    <t>Hednesford</t>
-  </si>
-  <si>
-    <t>Pontefract Collieries</t>
-  </si>
-  <si>
-    <t>North Ferriby</t>
-  </si>
-  <si>
-    <t>Runcorn Linnets</t>
-  </si>
-  <si>
-    <t>Rugby Town</t>
-  </si>
-  <si>
     <t>Hinckley LR</t>
-  </si>
-  <si>
-    <t>Coventry Sphinx</t>
   </si>
   <si>
     <t>Cambridge City</t>
   </si>
   <si>
-    <t>Mossley</t>
-  </si>
-  <si>
-    <t>Leek Town</t>
+    <t>Avro FC</t>
   </si>
   <si>
     <t>Winterton Rangers</t>
   </si>
   <si>
-    <t>Grimsby Borough</t>
-  </si>
-  <si>
     <t>Stockton Town</t>
   </si>
   <si>
-    <t>Avro FC</t>
+    <t>Grimsby Borough</t>
   </si>
   <si>
     <t>Stalybridge</t>
@@ -187,13 +187,13 @@
     <t>Shepshed Dynamo</t>
   </si>
   <si>
-    <t>Witton Albion</t>
+    <t>Gresley Rovers</t>
   </si>
   <si>
     <t>Prescot Cables</t>
   </si>
   <si>
-    <t>Gresley Rovers</t>
+    <t>Witton Albion</t>
   </si>
   <si>
     <t>Anstey Nomads</t>
@@ -205,10 +205,10 @@
     <t>Ossett United</t>
   </si>
   <si>
-    <t>1874 Northwich</t>
+    <t>Bedworth Utd</t>
   </si>
   <si>
-    <t>Bedworth Utd</t>
+    <t>1874 Northwich</t>
   </si>
   <si>
     <t>Newton Aycliffe</t>
@@ -217,10 +217,10 @@
     <t>Nantwich Town</t>
   </si>
   <si>
-    <t>Harborough Town</t>
+    <t>Sporting Khalsa</t>
   </si>
   <si>
-    <t>Sporting Khalsa</t>
+    <t>Harborough Town</t>
   </si>
   <si>
     <t>Carlton Town</t>
@@ -241,10 +241,10 @@
     <t>Quorn</t>
   </si>
   <si>
-    <t>Newcastle Town</t>
+    <t>Sutton Coldfield</t>
   </si>
   <si>
-    <t>Sutton Coldfield</t>
+    <t>Newcastle Town</t>
   </si>
   <si>
     <t>Clitheroe</t>
@@ -852,7 +852,7 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H3">
         <v>3</v>
@@ -926,7 +926,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>7067556</v>
+        <v>7067560</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -941,73 +941,73 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="H4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K4">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="L4">
         <v>3.75</v>
       </c>
       <c r="M4">
-        <v>2.55</v>
+        <v>3.4</v>
       </c>
       <c r="N4">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="O4">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P4">
-        <v>2.6</v>
+        <v>3.4</v>
       </c>
       <c r="Q4">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R4">
+        <v>1.85</v>
+      </c>
+      <c r="S4">
         <v>1.95</v>
       </c>
-      <c r="S4">
-        <v>1.75</v>
-      </c>
       <c r="T4">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U4">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V4">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W4">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X4">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y4">
         <v>-1</v>
       </c>
       <c r="Z4">
+        <v>-1</v>
+      </c>
+      <c r="AA4">
         <v>0.95</v>
       </c>
-      <c r="AA4">
-        <v>-1</v>
-      </c>
       <c r="AB4">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AC4">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -1015,7 +1015,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>7067560</v>
+        <v>7067556</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -1033,70 +1033,70 @@
         <v>46</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K5">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="L5">
         <v>3.75</v>
       </c>
       <c r="M5">
-        <v>3.4</v>
+        <v>2.55</v>
       </c>
       <c r="N5">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="O5">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P5">
-        <v>3.4</v>
+        <v>2.6</v>
       </c>
       <c r="Q5">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R5">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="S5">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="T5">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U5">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V5">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W5">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X5">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y5">
         <v>-1</v>
       </c>
       <c r="Z5">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA5">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB5">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AC5">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -1297,7 +1297,7 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -1460,7 +1460,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>7100107</v>
+        <v>7100543</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1475,70 +1475,70 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="H10">
         <v>2</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J10" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K10">
-        <v>2.4</v>
+        <v>1.909</v>
       </c>
       <c r="L10">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M10">
-        <v>2.4</v>
+        <v>3.1</v>
       </c>
       <c r="N10">
-        <v>2.9</v>
+        <v>2.3</v>
       </c>
       <c r="O10">
         <v>3.6</v>
       </c>
       <c r="P10">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="Q10">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R10">
+        <v>1.8</v>
+      </c>
+      <c r="S10">
+        <v>2</v>
+      </c>
+      <c r="T10">
+        <v>2.75</v>
+      </c>
+      <c r="U10">
         <v>1.875</v>
       </c>
-      <c r="S10">
+      <c r="V10">
         <v>1.925</v>
       </c>
-      <c r="T10">
-        <v>2.5</v>
-      </c>
-      <c r="U10">
-        <v>1.9</v>
-      </c>
-      <c r="V10">
-        <v>1.9</v>
-      </c>
       <c r="W10">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="X10">
         <v>-1</v>
       </c>
       <c r="Y10">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z10">
+        <v>-1</v>
+      </c>
+      <c r="AA10">
+        <v>1</v>
+      </c>
+      <c r="AB10">
         <v>0.875</v>
-      </c>
-      <c r="AA10">
-        <v>-1</v>
-      </c>
-      <c r="AB10">
-        <v>0.8999999999999999</v>
       </c>
       <c r="AC10">
         <v>-1</v>
@@ -1549,7 +1549,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>7100108</v>
+        <v>7100107</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1564,55 +1564,55 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="H11">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" t="s">
         <v>89</v>
       </c>
       <c r="K11">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="L11">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M11">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="N11">
-        <v>2.3</v>
+        <v>2.9</v>
       </c>
       <c r="O11">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P11">
-        <v>2.625</v>
+        <v>2.1</v>
       </c>
       <c r="Q11">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R11">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S11">
-        <v>1.725</v>
+        <v>1.925</v>
       </c>
       <c r="T11">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U11">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V11">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W11">
-        <v>1.3</v>
+        <v>1.9</v>
       </c>
       <c r="X11">
         <v>-1</v>
@@ -1621,13 +1621,13 @@
         <v>-1</v>
       </c>
       <c r="Z11">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AA11">
         <v>-1</v>
       </c>
       <c r="AB11">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC11">
         <v>-1</v>
@@ -1638,7 +1638,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>7100106</v>
+        <v>7100544</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1653,73 +1653,73 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K12">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="L12">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="M12">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="N12">
-        <v>1.85</v>
+        <v>1.666</v>
       </c>
       <c r="O12">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="P12">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="Q12">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R12">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S12">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T12">
         <v>2.75</v>
       </c>
       <c r="U12">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V12">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W12">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X12">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y12">
         <v>-1</v>
       </c>
       <c r="Z12">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA12">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB12">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AC12">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1727,7 +1727,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>7100282</v>
+        <v>7100546</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1742,73 +1742,73 @@
         <v>40</v>
       </c>
       <c r="G13" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K13">
-        <v>2.2</v>
+        <v>1.615</v>
       </c>
       <c r="L13">
         <v>4</v>
       </c>
       <c r="M13">
-        <v>2.45</v>
+        <v>4</v>
       </c>
       <c r="N13">
-        <v>2.25</v>
+        <v>1.45</v>
       </c>
       <c r="O13">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="P13">
-        <v>2.4</v>
+        <v>5</v>
       </c>
       <c r="Q13">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R13">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S13">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T13">
         <v>2.75</v>
       </c>
       <c r="U13">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V13">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W13">
         <v>-1</v>
       </c>
       <c r="X13">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y13">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Z13">
         <v>-1</v>
       </c>
       <c r="AA13">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AB13">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AC13">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:29">
@@ -1816,7 +1816,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>7100543</v>
+        <v>7100106</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1831,73 +1831,73 @@
         <v>41</v>
       </c>
       <c r="G14" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K14">
-        <v>1.909</v>
+        <v>2.05</v>
       </c>
       <c r="L14">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="M14">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="N14">
-        <v>2.3</v>
+        <v>1.85</v>
       </c>
       <c r="O14">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P14">
-        <v>2.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q14">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R14">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S14">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T14">
         <v>2.75</v>
       </c>
       <c r="U14">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V14">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W14">
         <v>-1</v>
       </c>
       <c r="X14">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y14">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z14">
         <v>-1</v>
       </c>
       <c r="AA14">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB14">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC14">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -1905,7 +1905,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>7100110</v>
+        <v>7100545</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1920,43 +1920,43 @@
         <v>42</v>
       </c>
       <c r="G15" t="s">
-        <v>83</v>
+        <v>33</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I15">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J15" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K15">
-        <v>2.25</v>
+        <v>1.909</v>
       </c>
       <c r="L15">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="M15">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="N15">
-        <v>2.625</v>
+        <v>1.85</v>
       </c>
       <c r="O15">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="P15">
-        <v>2.3</v>
+        <v>3.2</v>
       </c>
       <c r="Q15">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R15">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S15">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T15">
         <v>2.75</v>
@@ -1968,25 +1968,25 @@
         <v>1.85</v>
       </c>
       <c r="W15">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X15">
         <v>-1</v>
       </c>
       <c r="Y15">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z15">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA15">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB15">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC15">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -1994,7 +1994,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>7100109</v>
+        <v>7100393</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -2009,52 +2009,52 @@
         <v>43</v>
       </c>
       <c r="G16" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J16" t="s">
         <v>91</v>
       </c>
       <c r="K16">
-        <v>2.2</v>
+        <v>2.9</v>
       </c>
       <c r="L16">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M16">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="N16">
-        <v>1.95</v>
+        <v>2.8</v>
       </c>
       <c r="O16">
         <v>3.75</v>
       </c>
       <c r="P16">
-        <v>3.1</v>
+        <v>2.05</v>
       </c>
       <c r="Q16">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R16">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S16">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T16">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U16">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="V16">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W16">
         <v>-1</v>
@@ -2063,19 +2063,19 @@
         <v>-1</v>
       </c>
       <c r="Y16">
-        <v>2.1</v>
+        <v>1.05</v>
       </c>
       <c r="Z16">
         <v>-1</v>
       </c>
       <c r="AA16">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB16">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC16">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -2083,7 +2083,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>7100546</v>
+        <v>7100405</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -2098,73 +2098,73 @@
         <v>44</v>
       </c>
       <c r="G17" t="s">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J17" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K17">
-        <v>1.615</v>
+        <v>2.5</v>
       </c>
       <c r="L17">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M17">
-        <v>4</v>
+        <v>2.3</v>
       </c>
       <c r="N17">
-        <v>1.45</v>
+        <v>2.5</v>
       </c>
       <c r="O17">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="P17">
-        <v>5</v>
+        <v>2.3</v>
       </c>
       <c r="Q17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R17">
+        <v>2</v>
+      </c>
+      <c r="S17">
         <v>1.8</v>
       </c>
-      <c r="S17">
-        <v>2</v>
-      </c>
       <c r="T17">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U17">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V17">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W17">
         <v>-1</v>
       </c>
       <c r="X17">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y17">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z17">
         <v>-1</v>
       </c>
       <c r="AA17">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AB17">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC17">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2172,7 +2172,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>7100405</v>
+        <v>7100109</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2187,37 +2187,37 @@
         <v>45</v>
       </c>
       <c r="G18" t="s">
-        <v>34</v>
+        <v>73</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J18" t="s">
         <v>91</v>
       </c>
       <c r="K18">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="L18">
         <v>3.6</v>
       </c>
       <c r="M18">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="N18">
-        <v>2.5</v>
+        <v>1.95</v>
       </c>
       <c r="O18">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P18">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="Q18">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R18">
         <v>2</v>
@@ -2226,13 +2226,13 @@
         <v>1.8</v>
       </c>
       <c r="T18">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U18">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V18">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W18">
         <v>-1</v>
@@ -2241,7 +2241,7 @@
         <v>-1</v>
       </c>
       <c r="Y18">
-        <v>1.3</v>
+        <v>2.1</v>
       </c>
       <c r="Z18">
         <v>-1</v>
@@ -2250,7 +2250,7 @@
         <v>0.8</v>
       </c>
       <c r="AB18">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AC18">
         <v>-1</v>
@@ -2261,7 +2261,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>7100394</v>
+        <v>7100108</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2276,10 +2276,10 @@
         <v>46</v>
       </c>
       <c r="G19" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -2288,31 +2288,31 @@
         <v>89</v>
       </c>
       <c r="K19">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L19">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M19">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="N19">
-        <v>1.909</v>
+        <v>2.3</v>
       </c>
       <c r="O19">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P19">
-        <v>3.1</v>
+        <v>2.625</v>
       </c>
       <c r="Q19">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R19">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S19">
-        <v>1.85</v>
+        <v>1.725</v>
       </c>
       <c r="T19">
         <v>2.75</v>
@@ -2324,7 +2324,7 @@
         <v>2</v>
       </c>
       <c r="W19">
-        <v>0.909</v>
+        <v>1.3</v>
       </c>
       <c r="X19">
         <v>-1</v>
@@ -2333,16 +2333,16 @@
         <v>-1</v>
       </c>
       <c r="Z19">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA19">
         <v>-1</v>
       </c>
       <c r="AB19">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC19">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2350,7 +2350,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>7100393</v>
+        <v>7100110</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2365,53 +2365,53 @@
         <v>47</v>
       </c>
       <c r="G20" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J20" t="s">
         <v>91</v>
       </c>
       <c r="K20">
-        <v>2.9</v>
+        <v>2.25</v>
       </c>
       <c r="L20">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="M20">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="N20">
-        <v>2.8</v>
+        <v>2.625</v>
       </c>
       <c r="O20">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="P20">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="Q20">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R20">
+        <v>2</v>
+      </c>
+      <c r="S20">
+        <v>1.8</v>
+      </c>
+      <c r="T20">
+        <v>2.75</v>
+      </c>
+      <c r="U20">
         <v>1.95</v>
       </c>
-      <c r="S20">
+      <c r="V20">
         <v>1.85</v>
       </c>
-      <c r="T20">
-        <v>3</v>
-      </c>
-      <c r="U20">
-        <v>1.75</v>
-      </c>
-      <c r="V20">
-        <v>1.95</v>
-      </c>
       <c r="W20">
         <v>-1</v>
       </c>
@@ -2419,19 +2419,19 @@
         <v>-1</v>
       </c>
       <c r="Y20">
-        <v>1.05</v>
+        <v>1.3</v>
       </c>
       <c r="Z20">
         <v>-1</v>
       </c>
       <c r="AA20">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AB20">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC20">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2439,7 +2439,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>7100392</v>
+        <v>7100111</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2451,76 +2451,76 @@
         <v>45160.65625</v>
       </c>
       <c r="F21" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="G21" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J21" t="s">
         <v>90</v>
       </c>
       <c r="K21">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="L21">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="M21">
         <v>2.75</v>
       </c>
       <c r="N21">
-        <v>2</v>
+        <v>3.1</v>
       </c>
       <c r="O21">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="P21">
-        <v>2.75</v>
+        <v>2.05</v>
       </c>
       <c r="Q21">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R21">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S21">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T21">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U21">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V21">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W21">
         <v>-1</v>
       </c>
       <c r="X21">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="Y21">
         <v>-1</v>
       </c>
       <c r="Z21">
+        <v>0.475</v>
+      </c>
+      <c r="AA21">
         <v>-0.5</v>
       </c>
-      <c r="AA21">
-        <v>0.4875</v>
-      </c>
       <c r="AB21">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC21">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2528,7 +2528,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7100545</v>
+        <v>7100282</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2540,76 +2540,76 @@
         <v>45160.65625</v>
       </c>
       <c r="F22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G22" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J22" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K22">
-        <v>1.909</v>
+        <v>2.2</v>
       </c>
       <c r="L22">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M22">
-        <v>3.1</v>
+        <v>2.45</v>
       </c>
       <c r="N22">
+        <v>2.25</v>
+      </c>
+      <c r="O22">
+        <v>4</v>
+      </c>
+      <c r="P22">
+        <v>2.4</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22">
         <v>1.85</v>
       </c>
-      <c r="O22">
-        <v>3.75</v>
-      </c>
-      <c r="P22">
-        <v>3.2</v>
-      </c>
-      <c r="Q22">
-        <v>-0.5</v>
-      </c>
-      <c r="R22">
-        <v>1.925</v>
-      </c>
       <c r="S22">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T22">
         <v>2.75</v>
       </c>
       <c r="U22">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V22">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W22">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X22">
         <v>-1</v>
       </c>
       <c r="Y22">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="Z22">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA22">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB22">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AC22">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2617,7 +2617,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>7100544</v>
+        <v>7100394</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2629,13 +2629,13 @@
         <v>45160.65625</v>
       </c>
       <c r="F23" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G23" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="H23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -2644,43 +2644,43 @@
         <v>89</v>
       </c>
       <c r="K23">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="L23">
+        <v>3.75</v>
+      </c>
+      <c r="M23">
+        <v>2.5</v>
+      </c>
+      <c r="N23">
+        <v>1.909</v>
+      </c>
+      <c r="O23">
         <v>4</v>
       </c>
-      <c r="M23">
-        <v>3.25</v>
-      </c>
-      <c r="N23">
-        <v>1.666</v>
-      </c>
-      <c r="O23">
-        <v>4.2</v>
-      </c>
       <c r="P23">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="Q23">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R23">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S23">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T23">
         <v>2.75</v>
       </c>
       <c r="U23">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V23">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W23">
-        <v>0.6659999999999999</v>
+        <v>0.909</v>
       </c>
       <c r="X23">
         <v>-1</v>
@@ -2689,16 +2689,16 @@
         <v>-1</v>
       </c>
       <c r="Z23">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AA23">
         <v>-1</v>
       </c>
       <c r="AB23">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AC23">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2706,7 +2706,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>7100111</v>
+        <v>7100392</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2718,76 +2718,76 @@
         <v>45160.65625</v>
       </c>
       <c r="F24" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="G24" t="s">
-        <v>35</v>
+        <v>74</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J24" t="s">
         <v>90</v>
       </c>
       <c r="K24">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="L24">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="M24">
         <v>2.75</v>
       </c>
       <c r="N24">
-        <v>3.1</v>
+        <v>2</v>
       </c>
       <c r="O24">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="P24">
-        <v>2.05</v>
+        <v>2.75</v>
       </c>
       <c r="Q24">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R24">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S24">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T24">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U24">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V24">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W24">
         <v>-1</v>
       </c>
       <c r="X24">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="Y24">
         <v>-1</v>
       </c>
       <c r="Z24">
-        <v>0.475</v>
+        <v>-0.5</v>
       </c>
       <c r="AA24">
-        <v>-0.5</v>
+        <v>0.4875</v>
       </c>
       <c r="AB24">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC24">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -2795,7 +2795,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>7104130</v>
+        <v>7104131</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2810,52 +2810,52 @@
         <v>51</v>
       </c>
       <c r="G25" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
         <v>1</v>
-      </c>
-      <c r="I25">
-        <v>2</v>
       </c>
       <c r="J25" t="s">
         <v>91</v>
       </c>
       <c r="K25">
-        <v>2.375</v>
+        <v>2.25</v>
       </c>
       <c r="L25">
+        <v>3.5</v>
+      </c>
+      <c r="M25">
+        <v>2.6</v>
+      </c>
+      <c r="N25">
+        <v>1.833</v>
+      </c>
+      <c r="O25">
         <v>3.6</v>
       </c>
-      <c r="M25">
-        <v>2.375</v>
-      </c>
-      <c r="N25">
-        <v>2.625</v>
-      </c>
-      <c r="O25">
+      <c r="P25">
         <v>3.5</v>
       </c>
-      <c r="P25">
-        <v>2.2</v>
-      </c>
       <c r="Q25">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R25">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S25">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T25">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U25">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="V25">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W25">
         <v>-1</v>
@@ -2864,19 +2864,19 @@
         <v>-1</v>
       </c>
       <c r="Y25">
-        <v>1.2</v>
+        <v>2.5</v>
       </c>
       <c r="Z25">
         <v>-1</v>
       </c>
       <c r="AA25">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AB25">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AC25">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="26" spans="1:29">
@@ -2884,7 +2884,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>7104106</v>
+        <v>7104130</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2899,16 +2899,16 @@
         <v>52</v>
       </c>
       <c r="G26" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="H26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I26">
         <v>2</v>
       </c>
       <c r="J26" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K26">
         <v>2.375</v>
@@ -2920,13 +2920,13 @@
         <v>2.375</v>
       </c>
       <c r="N26">
-        <v>2.6</v>
+        <v>2.625</v>
       </c>
       <c r="O26">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P26">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="Q26">
         <v>0.25</v>
@@ -2938,34 +2938,34 @@
         <v>1.975</v>
       </c>
       <c r="T26">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U26">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="V26">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W26">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="X26">
         <v>-1</v>
       </c>
       <c r="Y26">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z26">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA26">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB26">
-        <v>0.75</v>
+        <v>0.4</v>
       </c>
       <c r="AC26">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -3062,7 +3062,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>7104131</v>
+        <v>7104106</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -3077,73 +3077,73 @@
         <v>54</v>
       </c>
       <c r="G28" t="s">
-        <v>84</v>
+        <v>30</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J28" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K28">
-        <v>2.25</v>
+        <v>2.375</v>
       </c>
       <c r="L28">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M28">
+        <v>2.375</v>
+      </c>
+      <c r="N28">
         <v>2.6</v>
       </c>
-      <c r="N28">
-        <v>1.833</v>
-      </c>
       <c r="O28">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P28">
-        <v>3.5</v>
+        <v>2.15</v>
       </c>
       <c r="Q28">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R28">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S28">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T28">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U28">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="V28">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W28">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="X28">
         <v>-1</v>
       </c>
       <c r="Y28">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z28">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA28">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB28">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AC28">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -3240,7 +3240,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>7122508</v>
+        <v>7122522</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3255,73 +3255,73 @@
         <v>31</v>
       </c>
       <c r="G30" t="s">
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="H30">
         <v>1</v>
       </c>
       <c r="I30">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J30" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K30">
-        <v>1.533</v>
+        <v>1.909</v>
       </c>
       <c r="L30">
-        <v>4.1</v>
+        <v>3.4</v>
       </c>
       <c r="M30">
-        <v>4.6</v>
+        <v>3.4</v>
       </c>
       <c r="N30">
         <v>2.25</v>
       </c>
       <c r="O30">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="P30">
-        <v>2.625</v>
+        <v>2.8</v>
       </c>
       <c r="Q30">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R30">
-        <v>1.725</v>
+        <v>2.025</v>
       </c>
       <c r="S30">
-        <v>2.075</v>
+        <v>1.775</v>
       </c>
       <c r="T30">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U30">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V30">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="W30">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X30">
         <v>-1</v>
       </c>
       <c r="Y30">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z30">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA30">
-        <v>1.075</v>
+        <v>-1</v>
       </c>
       <c r="AB30">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC30">
-        <v>-0</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3329,7 +3329,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>7122522</v>
+        <v>7122508</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3344,73 +3344,73 @@
         <v>32</v>
       </c>
       <c r="G31" t="s">
-        <v>48</v>
+        <v>85</v>
       </c>
       <c r="H31">
         <v>1</v>
       </c>
       <c r="I31">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J31" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K31">
-        <v>1.909</v>
+        <v>1.533</v>
       </c>
       <c r="L31">
-        <v>3.4</v>
+        <v>4.1</v>
       </c>
       <c r="M31">
-        <v>3.4</v>
+        <v>4.6</v>
       </c>
       <c r="N31">
         <v>2.25</v>
       </c>
       <c r="O31">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="P31">
-        <v>2.8</v>
+        <v>2.625</v>
       </c>
       <c r="Q31">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R31">
-        <v>2.025</v>
+        <v>1.725</v>
       </c>
       <c r="S31">
-        <v>1.775</v>
+        <v>2.075</v>
       </c>
       <c r="T31">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U31">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V31">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="W31">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X31">
         <v>-1</v>
       </c>
       <c r="Y31">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z31">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA31">
-        <v>-1</v>
+        <v>1.075</v>
       </c>
       <c r="AB31">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC31">
-        <v>0.7749999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -3418,7 +3418,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>7132468</v>
+        <v>7134274</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3430,73 +3430,73 @@
         <v>45166.45833333334</v>
       </c>
       <c r="F32" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="G32" t="s">
-        <v>32</v>
+        <v>61</v>
       </c>
       <c r="H32">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I32">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J32" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K32">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="L32">
         <v>3.75</v>
       </c>
       <c r="M32">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="N32">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="O32">
         <v>3.75</v>
       </c>
       <c r="P32">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
       <c r="Q32">
         <v>-0.25</v>
       </c>
       <c r="R32">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="S32">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="T32">
         <v>2.75</v>
       </c>
       <c r="U32">
+        <v>1.875</v>
+      </c>
+      <c r="V32">
+        <v>1.925</v>
+      </c>
+      <c r="W32">
+        <v>-1</v>
+      </c>
+      <c r="X32">
+        <v>-1</v>
+      </c>
+      <c r="Y32">
         <v>1.9</v>
       </c>
-      <c r="V32">
-        <v>1.9</v>
-      </c>
-      <c r="W32">
-        <v>-1</v>
-      </c>
-      <c r="X32">
-        <v>2.75</v>
-      </c>
-      <c r="Y32">
-        <v>-1</v>
-      </c>
       <c r="Z32">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA32">
-        <v>0.375</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB32">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AC32">
         <v>-1</v>
@@ -3507,7 +3507,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>7134272</v>
+        <v>7134273</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3519,76 +3519,76 @@
         <v>45166.45833333334</v>
       </c>
       <c r="F33" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="G33" t="s">
-        <v>69</v>
+        <v>35</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J33" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K33">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="L33">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M33">
-        <v>2.8</v>
+        <v>2.625</v>
       </c>
       <c r="N33">
-        <v>2.6</v>
+        <v>2.25</v>
       </c>
       <c r="O33">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P33">
-        <v>2.2</v>
+        <v>2.625</v>
       </c>
       <c r="Q33">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R33">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S33">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T33">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U33">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V33">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W33">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X33">
         <v>-1</v>
       </c>
       <c r="Y33">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z33">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA33">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB33">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AC33">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="34" spans="1:29">
@@ -3596,7 +3596,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>7132469</v>
+        <v>7134272</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -3608,76 +3608,76 @@
         <v>45166.45833333334</v>
       </c>
       <c r="F34" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="G34" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="H34">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I34">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J34" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K34">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L34">
         <v>3.6</v>
       </c>
       <c r="M34">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="N34">
-        <v>1.833</v>
+        <v>2.6</v>
       </c>
       <c r="O34">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P34">
-        <v>3.4</v>
+        <v>2.2</v>
       </c>
       <c r="Q34">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R34">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S34">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T34">
         <v>3</v>
       </c>
       <c r="U34">
+        <v>1.925</v>
+      </c>
+      <c r="V34">
         <v>1.875</v>
       </c>
-      <c r="V34">
-        <v>1.925</v>
-      </c>
       <c r="W34">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X34">
         <v>-1</v>
       </c>
       <c r="Y34">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z34">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA34">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB34">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AC34">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="35" spans="1:29">
@@ -3685,7 +3685,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>7134274</v>
+        <v>7132468</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -3697,73 +3697,73 @@
         <v>45166.45833333334</v>
       </c>
       <c r="F35" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="G35" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I35">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J35" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K35">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="L35">
         <v>3.75</v>
       </c>
       <c r="M35">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="N35">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="O35">
         <v>3.75</v>
       </c>
       <c r="P35">
-        <v>2.9</v>
+        <v>2.5</v>
       </c>
       <c r="Q35">
         <v>-0.25</v>
       </c>
       <c r="R35">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="S35">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="T35">
         <v>2.75</v>
       </c>
       <c r="U35">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V35">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W35">
         <v>-1</v>
       </c>
       <c r="X35">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y35">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z35">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA35">
-        <v>0.9750000000000001</v>
+        <v>0.375</v>
       </c>
       <c r="AB35">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC35">
         <v>-1</v>
@@ -3774,7 +3774,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>7134273</v>
+        <v>7132469</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3786,58 +3786,58 @@
         <v>45166.45833333334</v>
       </c>
       <c r="F36" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="G36" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J36" t="s">
         <v>89</v>
       </c>
       <c r="K36">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="L36">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M36">
-        <v>2.625</v>
+        <v>3</v>
       </c>
       <c r="N36">
-        <v>2.25</v>
+        <v>1.833</v>
       </c>
       <c r="O36">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P36">
-        <v>2.625</v>
+        <v>3.4</v>
       </c>
       <c r="Q36">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R36">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S36">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T36">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U36">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V36">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W36">
-        <v>1.25</v>
+        <v>0.833</v>
       </c>
       <c r="X36">
         <v>-1</v>
@@ -3846,16 +3846,16 @@
         <v>-1</v>
       </c>
       <c r="Z36">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA36">
         <v>-1</v>
       </c>
       <c r="AB36">
-        <v>0.4</v>
+        <v>0.875</v>
       </c>
       <c r="AC36">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="37" spans="1:29">
@@ -3875,10 +3875,10 @@
         <v>45171.45833333334</v>
       </c>
       <c r="F37" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G37" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="H37">
         <v>3</v>
@@ -3952,7 +3952,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>7197970</v>
+        <v>7197960</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3967,70 +3967,70 @@
         <v>57</v>
       </c>
       <c r="G38" t="s">
-        <v>41</v>
+        <v>86</v>
       </c>
       <c r="H38">
+        <v>2</v>
+      </c>
+      <c r="I38">
+        <v>2</v>
+      </c>
+      <c r="J38" t="s">
+        <v>90</v>
+      </c>
+      <c r="K38">
+        <v>2.4</v>
+      </c>
+      <c r="L38">
+        <v>3.6</v>
+      </c>
+      <c r="M38">
+        <v>2.4</v>
+      </c>
+      <c r="N38">
         <v>3</v>
       </c>
-      <c r="I38">
-        <v>2</v>
-      </c>
-      <c r="J38" t="s">
-        <v>89</v>
-      </c>
-      <c r="K38">
-        <v>2.35</v>
-      </c>
-      <c r="L38">
-        <v>3.4</v>
-      </c>
-      <c r="M38">
-        <v>2.6</v>
-      </c>
-      <c r="N38">
-        <v>2.05</v>
-      </c>
       <c r="O38">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P38">
-        <v>3.1</v>
+        <v>1.95</v>
       </c>
       <c r="Q38">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R38">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S38">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T38">
         <v>3</v>
       </c>
       <c r="U38">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V38">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="W38">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X38">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y38">
         <v>-1</v>
       </c>
       <c r="Z38">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="AA38">
         <v>-1</v>
       </c>
       <c r="AB38">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AC38">
         <v>-1</v>
@@ -4130,7 +4130,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>7197960</v>
+        <v>7197970</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4145,70 +4145,70 @@
         <v>59</v>
       </c>
       <c r="G40" t="s">
-        <v>86</v>
+        <v>37</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I40">
         <v>2</v>
       </c>
       <c r="J40" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K40">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="L40">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M40">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="N40">
-        <v>3</v>
+        <v>2.05</v>
       </c>
       <c r="O40">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P40">
-        <v>1.95</v>
+        <v>3.1</v>
       </c>
       <c r="Q40">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R40">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S40">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T40">
         <v>3</v>
       </c>
       <c r="U40">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V40">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="W40">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X40">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y40">
         <v>-1</v>
       </c>
       <c r="Z40">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AA40">
         <v>-1</v>
       </c>
       <c r="AB40">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC40">
         <v>-1</v>
@@ -4323,7 +4323,7 @@
         <v>30</v>
       </c>
       <c r="G42" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H42">
         <v>0</v>
@@ -4397,7 +4397,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>7258501</v>
+        <v>7258502</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4409,73 +4409,73 @@
         <v>45195.65625</v>
       </c>
       <c r="F43" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="G43" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I43">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J43" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K43">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="L43">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M43">
         <v>2.55</v>
       </c>
       <c r="N43">
-        <v>2.3</v>
+        <v>2.375</v>
       </c>
       <c r="O43">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P43">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="Q43">
         <v>0</v>
       </c>
       <c r="R43">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S43">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T43">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U43">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V43">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W43">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X43">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y43">
         <v>-1</v>
       </c>
       <c r="Z43">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AA43">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB43">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="AC43">
         <v>-1</v>
@@ -4486,7 +4486,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>7258502</v>
+        <v>7258501</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4498,73 +4498,73 @@
         <v>45195.65625</v>
       </c>
       <c r="F44" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="G44" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="H44">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J44" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K44">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="L44">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M44">
         <v>2.55</v>
       </c>
       <c r="N44">
-        <v>2.375</v>
+        <v>2.3</v>
       </c>
       <c r="O44">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P44">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="Q44">
         <v>0</v>
       </c>
       <c r="R44">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S44">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T44">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U44">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V44">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W44">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X44">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y44">
         <v>-1</v>
       </c>
       <c r="Z44">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AA44">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB44">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="AC44">
         <v>-1</v>
@@ -4679,7 +4679,7 @@
         <v>35</v>
       </c>
       <c r="G46" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H46">
         <v>4</v>
@@ -4768,7 +4768,7 @@
         <v>62</v>
       </c>
       <c r="G47" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H47">
         <v>0</v>
@@ -4842,7 +4842,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>7287701</v>
+        <v>7287638</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4857,73 +4857,73 @@
         <v>63</v>
       </c>
       <c r="G48" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J48" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K48">
-        <v>3</v>
+        <v>1.909</v>
       </c>
       <c r="L48">
         <v>3.25</v>
       </c>
       <c r="M48">
-        <v>2.1</v>
+        <v>3.5</v>
       </c>
       <c r="N48">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O48">
         <v>3.25</v>
       </c>
       <c r="P48">
-        <v>2.1</v>
+        <v>3.2</v>
       </c>
       <c r="Q48">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R48">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S48">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T48">
+        <v>2.75</v>
+      </c>
+      <c r="U48">
+        <v>1.925</v>
+      </c>
+      <c r="V48">
+        <v>1.875</v>
+      </c>
+      <c r="W48">
+        <v>-1</v>
+      </c>
+      <c r="X48">
         <v>2.25</v>
       </c>
-      <c r="U48">
-        <v>1.85</v>
-      </c>
-      <c r="V48">
-        <v>1.95</v>
-      </c>
-      <c r="W48">
-        <v>-1</v>
-      </c>
-      <c r="X48">
-        <v>-1</v>
-      </c>
       <c r="Y48">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z48">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA48">
-        <v>0.8999999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="AB48">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC48">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="49" spans="1:29">
@@ -4946,7 +4946,7 @@
         <v>56</v>
       </c>
       <c r="G49" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H49">
         <v>0</v>
@@ -5020,7 +5020,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>7287638</v>
+        <v>7287701</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -5035,73 +5035,73 @@
         <v>64</v>
       </c>
       <c r="G50" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I50">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J50" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K50">
-        <v>1.909</v>
+        <v>3</v>
       </c>
       <c r="L50">
         <v>3.25</v>
       </c>
       <c r="M50">
-        <v>3.5</v>
+        <v>2.1</v>
       </c>
       <c r="N50">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O50">
         <v>3.25</v>
       </c>
       <c r="P50">
-        <v>3.2</v>
+        <v>2.1</v>
       </c>
       <c r="Q50">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R50">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S50">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T50">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U50">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V50">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W50">
         <v>-1</v>
       </c>
       <c r="X50">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y50">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z50">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA50">
-        <v>0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB50">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC50">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -5302,7 +5302,7 @@
         <v>55</v>
       </c>
       <c r="G53" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="H53">
         <v>1</v>
@@ -5391,7 +5391,7 @@
         <v>66</v>
       </c>
       <c r="G54" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H54">
         <v>3</v>
@@ -5465,7 +5465,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>7319621</v>
+        <v>7319608</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5480,55 +5480,55 @@
         <v>67</v>
       </c>
       <c r="G55" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="H55">
         <v>3</v>
       </c>
       <c r="I55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J55" t="s">
         <v>89</v>
       </c>
       <c r="K55">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="L55">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="M55">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="N55">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="O55">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P55">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="Q55">
         <v>-0.25</v>
       </c>
       <c r="R55">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S55">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T55">
         <v>2.75</v>
       </c>
       <c r="U55">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V55">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W55">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="X55">
         <v>-1</v>
@@ -5537,16 +5537,16 @@
         <v>-1</v>
       </c>
       <c r="Z55">
+        <v>0.825</v>
+      </c>
+      <c r="AA55">
+        <v>-1</v>
+      </c>
+      <c r="AB55">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AA55">
-        <v>-1</v>
-      </c>
-      <c r="AB55">
-        <v>0.4</v>
-      </c>
       <c r="AC55">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="56" spans="1:29">
@@ -5554,7 +5554,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>7319608</v>
+        <v>7319621</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5569,55 +5569,55 @@
         <v>68</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H56">
         <v>3</v>
       </c>
       <c r="I56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J56" t="s">
         <v>89</v>
       </c>
       <c r="K56">
-        <v>1.95</v>
+        <v>2.2</v>
       </c>
       <c r="L56">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="M56">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="N56">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="O56">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P56">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="Q56">
         <v>-0.25</v>
       </c>
       <c r="R56">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S56">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T56">
         <v>2.75</v>
       </c>
       <c r="U56">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V56">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W56">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="X56">
         <v>-1</v>
@@ -5626,16 +5626,16 @@
         <v>-1</v>
       </c>
       <c r="Z56">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA56">
         <v>-1</v>
       </c>
       <c r="AB56">
-        <v>0.8999999999999999</v>
+        <v>0.4</v>
       </c>
       <c r="AC56">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="57" spans="1:29">
@@ -5732,7 +5732,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>7338188</v>
+        <v>7338189</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5744,76 +5744,76 @@
         <v>45213.45833333334</v>
       </c>
       <c r="F58" t="s">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="G58" t="s">
         <v>47</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I58">
         <v>2</v>
       </c>
       <c r="J58" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K58">
+        <v>2.7</v>
+      </c>
+      <c r="L58">
+        <v>3.75</v>
+      </c>
+      <c r="M58">
         <v>2.1</v>
       </c>
-      <c r="L58">
-        <v>4</v>
-      </c>
-      <c r="M58">
-        <v>2.6</v>
-      </c>
       <c r="N58">
-        <v>1.833</v>
+        <v>2.55</v>
       </c>
       <c r="O58">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P58">
-        <v>3.1</v>
+        <v>2.15</v>
       </c>
       <c r="Q58">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R58">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S58">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T58">
         <v>3</v>
       </c>
       <c r="U58">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V58">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W58">
         <v>-1</v>
       </c>
       <c r="X58">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y58">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z58">
         <v>-1</v>
       </c>
       <c r="AA58">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="AB58">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AC58">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="59" spans="1:29">
@@ -5821,7 +5821,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>7338189</v>
+        <v>7338188</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5833,76 +5833,76 @@
         <v>45213.45833333334</v>
       </c>
       <c r="F59" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="G59" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H59">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I59">
         <v>2</v>
       </c>
       <c r="J59" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K59">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="L59">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M59">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="N59">
-        <v>2.55</v>
+        <v>1.833</v>
       </c>
       <c r="O59">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="P59">
-        <v>2.15</v>
+        <v>3.1</v>
       </c>
       <c r="Q59">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R59">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S59">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T59">
         <v>3</v>
       </c>
       <c r="U59">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V59">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W59">
         <v>-1</v>
       </c>
       <c r="X59">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y59">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z59">
         <v>-1</v>
       </c>
       <c r="AA59">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AB59">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AC59">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="60" spans="1:29">
@@ -5910,7 +5910,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>7350910</v>
+        <v>7350911</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -5922,40 +5922,40 @@
         <v>45216.65625</v>
       </c>
       <c r="F60" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="G60" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60">
+        <v>2</v>
+      </c>
+      <c r="J60" t="s">
+        <v>90</v>
+      </c>
+      <c r="K60">
+        <v>4.4</v>
+      </c>
+      <c r="L60">
+        <v>4.2</v>
+      </c>
+      <c r="M60">
+        <v>1.55</v>
+      </c>
+      <c r="N60">
+        <v>5</v>
+      </c>
+      <c r="O60">
+        <v>4.333</v>
+      </c>
+      <c r="P60">
+        <v>1.5</v>
+      </c>
+      <c r="Q60">
         <v>1</v>
-      </c>
-      <c r="J60" t="s">
-        <v>91</v>
-      </c>
-      <c r="K60">
-        <v>2.25</v>
-      </c>
-      <c r="L60">
-        <v>3.75</v>
-      </c>
-      <c r="M60">
-        <v>2.5</v>
-      </c>
-      <c r="N60">
-        <v>2.5</v>
-      </c>
-      <c r="O60">
-        <v>3.75</v>
-      </c>
-      <c r="P60">
-        <v>2.25</v>
-      </c>
-      <c r="Q60">
-        <v>0</v>
       </c>
       <c r="R60">
         <v>2</v>
@@ -5967,31 +5967,31 @@
         <v>2.75</v>
       </c>
       <c r="U60">
+        <v>1.75</v>
+      </c>
+      <c r="V60">
         <v>1.95</v>
       </c>
-      <c r="V60">
-        <v>1.85</v>
-      </c>
       <c r="W60">
         <v>-1</v>
       </c>
       <c r="X60">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y60">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z60">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA60">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB60">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AC60">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="61" spans="1:29">
@@ -5999,7 +5999,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>7350911</v>
+        <v>7350912</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -6011,76 +6011,76 @@
         <v>45216.65625</v>
       </c>
       <c r="F61" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="G61" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="H61">
         <v>2</v>
       </c>
       <c r="I61">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J61" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K61">
-        <v>4.4</v>
+        <v>2.2</v>
       </c>
       <c r="L61">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="M61">
-        <v>1.55</v>
+        <v>2.5</v>
       </c>
       <c r="N61">
-        <v>5</v>
+        <v>2.375</v>
       </c>
       <c r="O61">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="P61">
-        <v>1.5</v>
+        <v>2.3</v>
       </c>
       <c r="Q61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R61">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S61">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T61">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U61">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="V61">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="W61">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X61">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y61">
         <v>-1</v>
       </c>
       <c r="Z61">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AA61">
         <v>-1</v>
       </c>
       <c r="AB61">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="AC61">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="62" spans="1:29">
@@ -6088,7 +6088,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>7350912</v>
+        <v>7350921</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -6100,58 +6100,58 @@
         <v>45216.65625</v>
       </c>
       <c r="F62" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="G62" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="H62">
         <v>2</v>
       </c>
       <c r="I62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J62" t="s">
         <v>89</v>
       </c>
       <c r="K62">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="L62">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="M62">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="N62">
-        <v>2.375</v>
+        <v>2</v>
       </c>
       <c r="O62">
         <v>4</v>
       </c>
       <c r="P62">
-        <v>2.3</v>
+        <v>2.75</v>
       </c>
       <c r="Q62">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R62">
+        <v>1.85</v>
+      </c>
+      <c r="S62">
+        <v>1.95</v>
+      </c>
+      <c r="T62">
+        <v>2.75</v>
+      </c>
+      <c r="U62">
+        <v>1.875</v>
+      </c>
+      <c r="V62">
         <v>1.925</v>
       </c>
-      <c r="S62">
-        <v>1.875</v>
-      </c>
-      <c r="T62">
-        <v>3</v>
-      </c>
-      <c r="U62">
-        <v>1.95</v>
-      </c>
-      <c r="V62">
-        <v>1.85</v>
-      </c>
       <c r="W62">
-        <v>1.375</v>
+        <v>1</v>
       </c>
       <c r="X62">
         <v>-1</v>
@@ -6160,16 +6160,16 @@
         <v>-1</v>
       </c>
       <c r="Z62">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AA62">
+        <v>-1</v>
+      </c>
+      <c r="AB62">
+        <v>-1</v>
+      </c>
+      <c r="AC62">
         <v>0.925</v>
-      </c>
-      <c r="AA62">
-        <v>-1</v>
-      </c>
-      <c r="AB62">
-        <v>0</v>
-      </c>
-      <c r="AC62">
-        <v>-0</v>
       </c>
     </row>
     <row r="63" spans="1:29">
@@ -6177,7 +6177,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>7350921</v>
+        <v>7350910</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6189,76 +6189,76 @@
         <v>45216.65625</v>
       </c>
       <c r="F63" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="G63" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J63" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K63">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="L63">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M63">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="N63">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="O63">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P63">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="Q63">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R63">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S63">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T63">
         <v>2.75</v>
       </c>
       <c r="U63">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V63">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W63">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X63">
         <v>-1</v>
       </c>
       <c r="Y63">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z63">
+        <v>-1</v>
+      </c>
+      <c r="AA63">
+        <v>0.8</v>
+      </c>
+      <c r="AB63">
+        <v>-1</v>
+      </c>
+      <c r="AC63">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AA63">
-        <v>-1</v>
-      </c>
-      <c r="AB63">
-        <v>-1</v>
-      </c>
-      <c r="AC63">
-        <v>0.925</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -6278,10 +6278,10 @@
         <v>45220.45833333334</v>
       </c>
       <c r="F64" t="s">
+        <v>54</v>
+      </c>
+      <c r="G64" t="s">
         <v>52</v>
-      </c>
-      <c r="G64" t="s">
-        <v>51</v>
       </c>
       <c r="H64">
         <v>1</v>
@@ -6459,7 +6459,7 @@
         <v>71</v>
       </c>
       <c r="G66" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H66">
         <v>1</v>
@@ -6545,7 +6545,7 @@
         <v>45227.45833333334</v>
       </c>
       <c r="F67" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G67" t="s">
         <v>62</v>
@@ -6622,7 +6622,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>7395812</v>
+        <v>7395878</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6634,76 +6634,76 @@
         <v>45227.45833333334</v>
       </c>
       <c r="F68" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G68" t="s">
-        <v>83</v>
+        <v>57</v>
       </c>
       <c r="H68">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I68">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J68" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K68">
-        <v>2</v>
+        <v>1.363</v>
       </c>
       <c r="L68">
-        <v>3.6</v>
+        <v>5.25</v>
       </c>
       <c r="M68">
-        <v>3</v>
+        <v>5.25</v>
       </c>
       <c r="N68">
-        <v>2</v>
+        <v>1.363</v>
       </c>
       <c r="O68">
-        <v>3.6</v>
+        <v>5.25</v>
       </c>
       <c r="P68">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q68">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R68">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S68">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T68">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U68">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="V68">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W68">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X68">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y68">
         <v>-1</v>
       </c>
       <c r="Z68">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA68">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB68">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC68">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -6711,7 +6711,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>7395878</v>
+        <v>7395812</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6723,76 +6723,76 @@
         <v>45227.45833333334</v>
       </c>
       <c r="F69" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G69" t="s">
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="H69">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I69">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J69" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K69">
-        <v>1.363</v>
+        <v>2</v>
       </c>
       <c r="L69">
-        <v>5.25</v>
+        <v>3.6</v>
       </c>
       <c r="M69">
-        <v>5.25</v>
+        <v>3</v>
       </c>
       <c r="N69">
-        <v>1.363</v>
+        <v>2</v>
       </c>
       <c r="O69">
-        <v>5.25</v>
+        <v>3.6</v>
       </c>
       <c r="P69">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q69">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R69">
+        <v>1.8</v>
+      </c>
+      <c r="S69">
+        <v>2</v>
+      </c>
+      <c r="T69">
+        <v>2.75</v>
+      </c>
+      <c r="U69">
+        <v>1.75</v>
+      </c>
+      <c r="V69">
         <v>1.95</v>
       </c>
-      <c r="S69">
-        <v>1.85</v>
-      </c>
-      <c r="T69">
-        <v>3.5</v>
-      </c>
-      <c r="U69">
-        <v>1.925</v>
-      </c>
-      <c r="V69">
-        <v>1.875</v>
-      </c>
       <c r="W69">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X69">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y69">
         <v>-1</v>
       </c>
       <c r="Z69">
+        <v>-0.5</v>
+      </c>
+      <c r="AA69">
+        <v>0.5</v>
+      </c>
+      <c r="AB69">
+        <v>-1</v>
+      </c>
+      <c r="AC69">
         <v>0.95</v>
-      </c>
-      <c r="AA69">
-        <v>-1</v>
-      </c>
-      <c r="AB69">
-        <v>0.925</v>
-      </c>
-      <c r="AC69">
-        <v>-1</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -6901,7 +6901,7 @@
         <v>45234.5</v>
       </c>
       <c r="F71" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G71" t="s">
         <v>81</v>
@@ -6978,7 +6978,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>7440452</v>
+        <v>7440455</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6990,70 +6990,70 @@
         <v>45237.69791666666</v>
       </c>
       <c r="F72" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="G72" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J72" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K72">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="L72">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="M72">
-        <v>2.2</v>
+        <v>4.75</v>
       </c>
       <c r="N72">
-        <v>2.8</v>
+        <v>1.5</v>
       </c>
       <c r="O72">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P72">
-        <v>1.95</v>
+        <v>4.75</v>
       </c>
       <c r="Q72">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R72">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S72">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T72">
         <v>3</v>
       </c>
       <c r="U72">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V72">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W72">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X72">
         <v>-1</v>
       </c>
       <c r="Y72">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z72">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA72">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
       <c r="AB72">
         <v>0</v>
@@ -7067,7 +7067,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>7440454</v>
+        <v>7440452</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -7079,70 +7079,70 @@
         <v>45237.69791666666</v>
       </c>
       <c r="F73" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="G73" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J73" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K73">
-        <v>1.85</v>
+        <v>2.5</v>
       </c>
       <c r="L73">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="M73">
-        <v>3.1</v>
+        <v>2.2</v>
       </c>
       <c r="N73">
-        <v>1.85</v>
+        <v>2.8</v>
       </c>
       <c r="O73">
         <v>4</v>
       </c>
       <c r="P73">
-        <v>3.1</v>
+        <v>1.95</v>
       </c>
       <c r="Q73">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R73">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S73">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T73">
         <v>3</v>
       </c>
       <c r="U73">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V73">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W73">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X73">
         <v>-1</v>
       </c>
       <c r="Y73">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z73">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA73">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB73">
         <v>0</v>
@@ -7156,7 +7156,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>7440456</v>
+        <v>7447904</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7168,40 +7168,40 @@
         <v>45237.69791666666</v>
       </c>
       <c r="F74" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="G74" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I74">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J74" t="s">
         <v>90</v>
       </c>
       <c r="K74">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="L74">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M74">
-        <v>2.5</v>
+        <v>2.15</v>
       </c>
       <c r="N74">
-        <v>2.05</v>
+        <v>3.1</v>
       </c>
       <c r="O74">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P74">
-        <v>2.8</v>
+        <v>1.85</v>
       </c>
       <c r="Q74">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R74">
         <v>1.875</v>
@@ -7210,34 +7210,34 @@
         <v>1.925</v>
       </c>
       <c r="T74">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U74">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="V74">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W74">
         <v>-1</v>
       </c>
       <c r="X74">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Y74">
         <v>-1</v>
       </c>
       <c r="Z74">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AA74">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AB74">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AC74">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7245,7 +7245,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>7440455</v>
+        <v>7440454</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7257,10 +7257,10 @@
         <v>45237.69791666666</v>
       </c>
       <c r="F75" t="s">
+        <v>67</v>
+      </c>
+      <c r="G75" t="s">
         <v>50</v>
-      </c>
-      <c r="G75" t="s">
-        <v>80</v>
       </c>
       <c r="H75">
         <v>2</v>
@@ -7272,43 +7272,43 @@
         <v>89</v>
       </c>
       <c r="K75">
-        <v>1.5</v>
+        <v>1.85</v>
       </c>
       <c r="L75">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="M75">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="N75">
-        <v>1.5</v>
+        <v>1.85</v>
       </c>
       <c r="O75">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P75">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="Q75">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R75">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S75">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T75">
         <v>3</v>
       </c>
       <c r="U75">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V75">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W75">
-        <v>0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X75">
         <v>-1</v>
@@ -7317,10 +7317,10 @@
         <v>-1</v>
       </c>
       <c r="Z75">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA75">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB75">
         <v>0</v>
@@ -7334,7 +7334,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>7447904</v>
+        <v>7440456</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7346,40 +7346,40 @@
         <v>45237.69791666666</v>
       </c>
       <c r="F76" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="G76" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="H76">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I76">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J76" t="s">
         <v>90</v>
       </c>
       <c r="K76">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
       <c r="L76">
+        <v>3.6</v>
+      </c>
+      <c r="M76">
+        <v>2.5</v>
+      </c>
+      <c r="N76">
+        <v>2.05</v>
+      </c>
+      <c r="O76">
         <v>3.75</v>
       </c>
-      <c r="M76">
-        <v>2.15</v>
-      </c>
-      <c r="N76">
-        <v>3.1</v>
-      </c>
-      <c r="O76">
-        <v>4</v>
-      </c>
       <c r="P76">
-        <v>1.85</v>
+        <v>2.8</v>
       </c>
       <c r="Q76">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R76">
         <v>1.875</v>
@@ -7388,34 +7388,34 @@
         <v>1.925</v>
       </c>
       <c r="T76">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U76">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="V76">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W76">
         <v>-1</v>
       </c>
       <c r="X76">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Y76">
         <v>-1</v>
       </c>
       <c r="Z76">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AA76">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AB76">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AC76">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7423,7 +7423,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>7473234</v>
+        <v>7476390</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7435,58 +7435,58 @@
         <v>45244.69791666666</v>
       </c>
       <c r="F77" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G77" t="s">
-        <v>50</v>
+        <v>84</v>
       </c>
       <c r="H77">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I77">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J77" t="s">
         <v>89</v>
       </c>
       <c r="K77">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="L77">
         <v>3.6</v>
       </c>
       <c r="M77">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="N77">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="O77">
         <v>3.6</v>
       </c>
       <c r="P77">
-        <v>2.45</v>
+        <v>3</v>
       </c>
       <c r="Q77">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R77">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S77">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T77">
         <v>2.75</v>
       </c>
       <c r="U77">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V77">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W77">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="X77">
         <v>-1</v>
@@ -7495,13 +7495,13 @@
         <v>-1</v>
       </c>
       <c r="Z77">
+        <v>0.8</v>
+      </c>
+      <c r="AA77">
+        <v>-1</v>
+      </c>
+      <c r="AB77">
         <v>0.825</v>
-      </c>
-      <c r="AA77">
-        <v>-1</v>
-      </c>
-      <c r="AB77">
-        <v>0.95</v>
       </c>
       <c r="AC77">
         <v>-1</v>
@@ -7512,7 +7512,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>7476390</v>
+        <v>7476389</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7524,73 +7524,73 @@
         <v>45244.69791666666</v>
       </c>
       <c r="F78" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G78" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="H78">
+        <v>0</v>
+      </c>
+      <c r="I78">
+        <v>6</v>
+      </c>
+      <c r="J78" t="s">
+        <v>91</v>
+      </c>
+      <c r="K78">
         <v>4</v>
       </c>
-      <c r="I78">
-        <v>2</v>
-      </c>
-      <c r="J78" t="s">
-        <v>89</v>
-      </c>
-      <c r="K78">
-        <v>2</v>
-      </c>
       <c r="L78">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M78">
-        <v>3</v>
+        <v>1.75</v>
       </c>
       <c r="N78">
-        <v>2</v>
+        <v>3.75</v>
       </c>
       <c r="O78">
         <v>3.6</v>
       </c>
       <c r="P78">
-        <v>3</v>
+        <v>1.75</v>
       </c>
       <c r="Q78">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R78">
+        <v>2</v>
+      </c>
+      <c r="S78">
         <v>1.8</v>
       </c>
-      <c r="S78">
-        <v>2</v>
-      </c>
       <c r="T78">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U78">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V78">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W78">
+        <v>-1</v>
+      </c>
+      <c r="X78">
+        <v>-1</v>
+      </c>
+      <c r="Y78">
+        <v>0.75</v>
+      </c>
+      <c r="Z78">
+        <v>-1</v>
+      </c>
+      <c r="AA78">
+        <v>0.8</v>
+      </c>
+      <c r="AB78">
         <v>1</v>
-      </c>
-      <c r="X78">
-        <v>-1</v>
-      </c>
-      <c r="Y78">
-        <v>-1</v>
-      </c>
-      <c r="Z78">
-        <v>0.8</v>
-      </c>
-      <c r="AA78">
-        <v>-1</v>
-      </c>
-      <c r="AB78">
-        <v>0.825</v>
       </c>
       <c r="AC78">
         <v>-1</v>
@@ -7601,7 +7601,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>7476389</v>
+        <v>7473235</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7613,73 +7613,73 @@
         <v>45244.69791666666</v>
       </c>
       <c r="F79" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="G79" t="s">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I79">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J79" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K79">
-        <v>4</v>
+        <v>1.727</v>
       </c>
       <c r="L79">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M79">
+        <v>3.75</v>
+      </c>
+      <c r="N79">
         <v>1.75</v>
       </c>
-      <c r="N79">
+      <c r="O79">
         <v>3.75</v>
       </c>
-      <c r="O79">
+      <c r="P79">
         <v>3.6</v>
       </c>
-      <c r="P79">
-        <v>1.75</v>
-      </c>
       <c r="Q79">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R79">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S79">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T79">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U79">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V79">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W79">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X79">
         <v>-1</v>
       </c>
       <c r="Y79">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z79">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA79">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB79">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC79">
         <v>-1</v>
@@ -7690,7 +7690,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>7473235</v>
+        <v>7473234</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7702,58 +7702,58 @@
         <v>45244.69791666666</v>
       </c>
       <c r="F80" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G80" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H80">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I80">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J80" t="s">
         <v>89</v>
       </c>
       <c r="K80">
-        <v>1.727</v>
+        <v>2.5</v>
       </c>
       <c r="L80">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M80">
-        <v>3.75</v>
+        <v>2.3</v>
       </c>
       <c r="N80">
-        <v>1.75</v>
+        <v>2.3</v>
       </c>
       <c r="O80">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P80">
-        <v>3.6</v>
+        <v>2.45</v>
       </c>
       <c r="Q80">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R80">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S80">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T80">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U80">
+        <v>1.95</v>
+      </c>
+      <c r="V80">
         <v>1.85</v>
       </c>
-      <c r="V80">
-        <v>1.95</v>
-      </c>
       <c r="W80">
-        <v>0.75</v>
+        <v>1.3</v>
       </c>
       <c r="X80">
         <v>-1</v>
@@ -7762,13 +7762,13 @@
         <v>-1</v>
       </c>
       <c r="Z80">
-        <v>0.7749999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AA80">
         <v>-1</v>
       </c>
       <c r="AB80">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AC80">
         <v>-1</v>
@@ -7969,10 +7969,10 @@
         <v>45258.69791666666</v>
       </c>
       <c r="F83" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="G83" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="H83">
         <v>2</v>
@@ -8325,7 +8325,7 @@
         <v>45269.5</v>
       </c>
       <c r="F87" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G87" t="s">
         <v>53</v>
@@ -8503,10 +8503,10 @@
         <v>45272.69791666666</v>
       </c>
       <c r="F89" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G89" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H89">
         <v>0</v>
@@ -8681,7 +8681,7 @@
         <v>45275.69791666666</v>
       </c>
       <c r="F91" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="G91" t="s">
         <v>82</v>
@@ -8936,7 +8936,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>7618668</v>
+        <v>7618670</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8948,76 +8948,76 @@
         <v>45283.5</v>
       </c>
       <c r="F94" t="s">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="G94" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J94" t="s">
         <v>90</v>
       </c>
       <c r="K94">
-        <v>2.1</v>
+        <v>2.75</v>
       </c>
       <c r="L94">
         <v>3.4</v>
       </c>
       <c r="M94">
-        <v>2.9</v>
+        <v>2.2</v>
       </c>
       <c r="N94">
-        <v>2.15</v>
+        <v>2.45</v>
       </c>
       <c r="O94">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P94">
-        <v>2.9</v>
+        <v>2.5</v>
       </c>
       <c r="Q94">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R94">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S94">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T94">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U94">
+        <v>1.975</v>
+      </c>
+      <c r="V94">
         <v>1.825</v>
       </c>
-      <c r="V94">
-        <v>1.975</v>
-      </c>
       <c r="W94">
         <v>-1</v>
       </c>
       <c r="X94">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="Y94">
         <v>-1</v>
       </c>
       <c r="Z94">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA94">
-        <v>0.425</v>
+        <v>-0</v>
       </c>
       <c r="AB94">
         <v>-1</v>
       </c>
       <c r="AC94">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="95" spans="1:29">
@@ -9025,7 +9025,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>7618670</v>
+        <v>7618668</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -9037,76 +9037,76 @@
         <v>45283.5</v>
       </c>
       <c r="F95" t="s">
-        <v>66</v>
+        <v>35</v>
       </c>
       <c r="G95" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="H95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J95" t="s">
         <v>90</v>
       </c>
       <c r="K95">
-        <v>2.75</v>
+        <v>2.1</v>
       </c>
       <c r="L95">
         <v>3.4</v>
       </c>
       <c r="M95">
+        <v>2.9</v>
+      </c>
+      <c r="N95">
+        <v>2.15</v>
+      </c>
+      <c r="O95">
+        <v>3.2</v>
+      </c>
+      <c r="P95">
+        <v>2.9</v>
+      </c>
+      <c r="Q95">
+        <v>-0.25</v>
+      </c>
+      <c r="R95">
+        <v>1.95</v>
+      </c>
+      <c r="S95">
+        <v>1.85</v>
+      </c>
+      <c r="T95">
+        <v>2.5</v>
+      </c>
+      <c r="U95">
+        <v>1.825</v>
+      </c>
+      <c r="V95">
+        <v>1.975</v>
+      </c>
+      <c r="W95">
+        <v>-1</v>
+      </c>
+      <c r="X95">
         <v>2.2</v>
       </c>
-      <c r="N95">
-        <v>2.45</v>
-      </c>
-      <c r="O95">
-        <v>3.3</v>
-      </c>
-      <c r="P95">
-        <v>2.5</v>
-      </c>
-      <c r="Q95">
-        <v>0</v>
-      </c>
-      <c r="R95">
-        <v>1.875</v>
-      </c>
-      <c r="S95">
-        <v>1.925</v>
-      </c>
-      <c r="T95">
-        <v>2.75</v>
-      </c>
-      <c r="U95">
-        <v>1.975</v>
-      </c>
-      <c r="V95">
-        <v>1.825</v>
-      </c>
-      <c r="W95">
-        <v>-1</v>
-      </c>
-      <c r="X95">
-        <v>2.3</v>
-      </c>
       <c r="Y95">
         <v>-1</v>
       </c>
       <c r="Z95">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA95">
-        <v>-0</v>
+        <v>0.425</v>
       </c>
       <c r="AB95">
         <v>-1</v>
       </c>
       <c r="AC95">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -9126,7 +9126,7 @@
         <v>45286.41666666666</v>
       </c>
       <c r="F96" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G96" t="s">
         <v>35</v>
@@ -9215,10 +9215,10 @@
         <v>45286.41666666666</v>
       </c>
       <c r="F97" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="G97" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H97">
         <v>2</v>
@@ -9304,7 +9304,7 @@
         <v>45287.69791666666</v>
       </c>
       <c r="F98" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G98" t="s">
         <v>34</v>
@@ -9396,7 +9396,7 @@
         <v>69</v>
       </c>
       <c r="G99" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H99">
         <v>1</v>
@@ -9485,7 +9485,7 @@
         <v>70</v>
       </c>
       <c r="G100" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H100">
         <v>2</v>
@@ -9559,7 +9559,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>7639915</v>
+        <v>7639918</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9571,49 +9571,49 @@
         <v>45290.5</v>
       </c>
       <c r="F101" t="s">
-        <v>73</v>
+        <v>32</v>
       </c>
       <c r="G101" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H101">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J101" t="s">
         <v>89</v>
       </c>
       <c r="K101">
-        <v>1.3</v>
+        <v>2.5</v>
       </c>
       <c r="L101">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="M101">
-        <v>7</v>
+        <v>2.35</v>
       </c>
       <c r="N101">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="O101">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="P101">
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="Q101">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R101">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S101">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T101">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U101">
         <v>1.95</v>
@@ -9622,7 +9622,7 @@
         <v>1.85</v>
       </c>
       <c r="W101">
-        <v>0.3999999999999999</v>
+        <v>1</v>
       </c>
       <c r="X101">
         <v>-1</v>
@@ -9631,16 +9631,16 @@
         <v>-1</v>
       </c>
       <c r="Z101">
-        <v>0.7749999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AA101">
         <v>-1</v>
       </c>
       <c r="AB101">
-        <v>0.95</v>
+        <v>0.475</v>
       </c>
       <c r="AC101">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9648,7 +9648,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>7639918</v>
+        <v>7639915</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9660,49 +9660,49 @@
         <v>45290.5</v>
       </c>
       <c r="F102" t="s">
-        <v>31</v>
+        <v>73</v>
       </c>
       <c r="G102" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J102" t="s">
         <v>89</v>
       </c>
       <c r="K102">
-        <v>2.5</v>
+        <v>1.3</v>
       </c>
       <c r="L102">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="M102">
-        <v>2.35</v>
+        <v>7</v>
       </c>
       <c r="N102">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="O102">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="P102">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="Q102">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R102">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S102">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T102">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U102">
         <v>1.95</v>
@@ -9711,7 +9711,7 @@
         <v>1.85</v>
       </c>
       <c r="W102">
-        <v>1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X102">
         <v>-1</v>
@@ -9720,16 +9720,16 @@
         <v>-1</v>
       </c>
       <c r="Z102">
-        <v>0.8</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA102">
         <v>-1</v>
       </c>
       <c r="AB102">
-        <v>0.475</v>
+        <v>0.95</v>
       </c>
       <c r="AC102">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -9752,7 +9752,7 @@
         <v>74</v>
       </c>
       <c r="G103" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H103">
         <v>1</v>
@@ -9841,7 +9841,7 @@
         <v>34</v>
       </c>
       <c r="G104" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="H104">
         <v>3</v>
@@ -9915,7 +9915,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>7649184</v>
+        <v>7649294</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9927,76 +9927,76 @@
         <v>45292.5</v>
       </c>
       <c r="F105" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="G105" t="s">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="H105">
         <v>2</v>
       </c>
       <c r="I105">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J105" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K105">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="L105">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M105">
-        <v>3.4</v>
+        <v>2.55</v>
       </c>
       <c r="N105">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="O105">
+        <v>4</v>
+      </c>
+      <c r="P105">
         <v>3.8</v>
-      </c>
-      <c r="P105">
-        <v>3.75</v>
       </c>
       <c r="Q105">
         <v>-0.75</v>
       </c>
       <c r="R105">
+        <v>1.85</v>
+      </c>
+      <c r="S105">
         <v>1.95</v>
-      </c>
-      <c r="S105">
-        <v>1.85</v>
       </c>
       <c r="T105">
         <v>2.75</v>
       </c>
       <c r="U105">
-        <v>1.75</v>
+        <v>1.775</v>
       </c>
       <c r="V105">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W105">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X105">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y105">
         <v>-1</v>
       </c>
       <c r="Z105">
+        <v>-1</v>
+      </c>
+      <c r="AA105">
         <v>0.95</v>
       </c>
-      <c r="AA105">
-        <v>-1</v>
-      </c>
       <c r="AB105">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC105">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -10004,7 +10004,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>7649195</v>
+        <v>7649124</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -10016,76 +10016,76 @@
         <v>45292.5</v>
       </c>
       <c r="F106" t="s">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="G106" t="s">
-        <v>80</v>
+        <v>46</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I106">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J106" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K106">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="L106">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M106">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="N106">
-        <v>2.4</v>
+        <v>2.55</v>
       </c>
       <c r="O106">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P106">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="Q106">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R106">
-        <v>1.9</v>
+        <v>1.725</v>
       </c>
       <c r="S106">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T106">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U106">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V106">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W106">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X106">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y106">
         <v>-1</v>
       </c>
       <c r="Z106">
-        <v>0</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA106">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB106">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC106">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="107" spans="1:29">
@@ -10093,7 +10093,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>7649294</v>
+        <v>7649295</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -10105,76 +10105,76 @@
         <v>45292.5</v>
       </c>
       <c r="F107" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="G107" t="s">
-        <v>36</v>
+        <v>86</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I107">
         <v>2</v>
       </c>
       <c r="J107" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K107">
-        <v>2.25</v>
+        <v>1.909</v>
       </c>
       <c r="L107">
         <v>3.6</v>
       </c>
       <c r="M107">
-        <v>2.55</v>
+        <v>3.2</v>
       </c>
       <c r="N107">
-        <v>1.65</v>
+        <v>1.909</v>
       </c>
       <c r="O107">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P107">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="Q107">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R107">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S107">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T107">
         <v>2.75</v>
       </c>
       <c r="U107">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="V107">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W107">
         <v>-1</v>
       </c>
       <c r="X107">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y107">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z107">
         <v>-1</v>
       </c>
       <c r="AA107">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AB107">
-        <v>0.7749999999999999</v>
+        <v>0.4125</v>
       </c>
       <c r="AC107">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="108" spans="1:29">
@@ -10182,7 +10182,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>7649295</v>
+        <v>7649184</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10194,76 +10194,76 @@
         <v>45292.5</v>
       </c>
       <c r="F108" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G108" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="H108">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I108">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J108" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K108">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="L108">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M108">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="N108">
-        <v>1.909</v>
+        <v>1.7</v>
       </c>
       <c r="O108">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P108">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="Q108">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R108">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S108">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T108">
         <v>2.75</v>
       </c>
       <c r="U108">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="V108">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W108">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X108">
         <v>-1</v>
       </c>
       <c r="Y108">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z108">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA108">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB108">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AC108">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10271,7 +10271,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>7649124</v>
+        <v>7649195</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10283,76 +10283,76 @@
         <v>45292.5</v>
       </c>
       <c r="F109" t="s">
-        <v>30</v>
+        <v>76</v>
       </c>
       <c r="G109" t="s">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="H109">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I109">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J109" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K109">
+        <v>2.4</v>
+      </c>
+      <c r="L109">
+        <v>3.5</v>
+      </c>
+      <c r="M109">
+        <v>2.4</v>
+      </c>
+      <c r="N109">
+        <v>2.4</v>
+      </c>
+      <c r="O109">
+        <v>3.5</v>
+      </c>
+      <c r="P109">
+        <v>2.4</v>
+      </c>
+      <c r="Q109">
+        <v>0</v>
+      </c>
+      <c r="R109">
+        <v>1.9</v>
+      </c>
+      <c r="S109">
+        <v>1.9</v>
+      </c>
+      <c r="T109">
+        <v>2.75</v>
+      </c>
+      <c r="U109">
+        <v>1.9</v>
+      </c>
+      <c r="V109">
+        <v>1.9</v>
+      </c>
+      <c r="W109">
+        <v>-1</v>
+      </c>
+      <c r="X109">
         <v>2.5</v>
       </c>
-      <c r="L109">
-        <v>3.75</v>
-      </c>
-      <c r="M109">
-        <v>2.25</v>
-      </c>
-      <c r="N109">
-        <v>2.55</v>
-      </c>
-      <c r="O109">
-        <v>3.75</v>
-      </c>
-      <c r="P109">
-        <v>2.25</v>
-      </c>
-      <c r="Q109">
-        <v>0.25</v>
-      </c>
-      <c r="R109">
-        <v>1.725</v>
-      </c>
-      <c r="S109">
-        <v>1.975</v>
-      </c>
-      <c r="T109">
-        <v>3.25</v>
-      </c>
-      <c r="U109">
-        <v>1.975</v>
-      </c>
-      <c r="V109">
-        <v>1.825</v>
-      </c>
-      <c r="W109">
-        <v>1.55</v>
-      </c>
-      <c r="X109">
-        <v>-1</v>
-      </c>
       <c r="Y109">
         <v>-1</v>
       </c>
       <c r="Z109">
-        <v>0.7250000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA109">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB109">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC109">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="110" spans="1:29">
@@ -10360,7 +10360,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>7667993</v>
+        <v>7661416</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10372,76 +10372,76 @@
         <v>45297.5</v>
       </c>
       <c r="F110" t="s">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="G110" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="H110">
         <v>0</v>
       </c>
       <c r="I110">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J110" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K110">
-        <v>1.666</v>
+        <v>2.4</v>
       </c>
       <c r="L110">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="M110">
-        <v>3.75</v>
+        <v>2.3</v>
       </c>
       <c r="N110">
-        <v>1.833</v>
+        <v>2.15</v>
       </c>
       <c r="O110">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P110">
-        <v>3.3</v>
+        <v>2.55</v>
       </c>
       <c r="Q110">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R110">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S110">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T110">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U110">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V110">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W110">
         <v>-1</v>
       </c>
       <c r="X110">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y110">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="Z110">
         <v>-1</v>
       </c>
       <c r="AA110">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AB110">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC110">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="111" spans="1:29">
@@ -10449,7 +10449,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>7661416</v>
+        <v>7667993</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -10461,76 +10461,76 @@
         <v>45297.5</v>
       </c>
       <c r="F111" t="s">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="G111" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="H111">
         <v>0</v>
       </c>
       <c r="I111">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J111" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K111">
-        <v>2.4</v>
+        <v>1.666</v>
       </c>
       <c r="L111">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="M111">
-        <v>2.3</v>
+        <v>3.75</v>
       </c>
       <c r="N111">
-        <v>2.15</v>
+        <v>1.833</v>
       </c>
       <c r="O111">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P111">
-        <v>2.55</v>
+        <v>3.3</v>
       </c>
       <c r="Q111">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R111">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S111">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T111">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U111">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V111">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W111">
         <v>-1</v>
       </c>
       <c r="X111">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y111">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="Z111">
         <v>-1</v>
       </c>
       <c r="AA111">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AB111">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC111">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="112" spans="1:29">
@@ -10550,10 +10550,10 @@
         <v>45298.5</v>
       </c>
       <c r="F112" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G112" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H112">
         <v>3</v>
@@ -10639,7 +10639,7 @@
         <v>45300.69791666666</v>
       </c>
       <c r="F113" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="G113" t="s">
         <v>82</v>
@@ -10716,7 +10716,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>7674710</v>
+        <v>7674973</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10728,76 +10728,76 @@
         <v>45300.69791666666</v>
       </c>
       <c r="F114" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="G114" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="H114">
+        <v>0</v>
+      </c>
+      <c r="I114">
         <v>1</v>
       </c>
-      <c r="I114">
-        <v>0</v>
-      </c>
       <c r="J114" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K114">
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
       <c r="L114">
-        <v>6.5</v>
+        <v>3.75</v>
       </c>
       <c r="M114">
-        <v>8</v>
+        <v>3.4</v>
       </c>
       <c r="N114">
-        <v>1.181</v>
+        <v>1.8</v>
       </c>
       <c r="O114">
-        <v>6.5</v>
+        <v>3.75</v>
       </c>
       <c r="P114">
-        <v>10</v>
+        <v>3.4</v>
       </c>
       <c r="Q114">
-        <v>-2.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R114">
+        <v>1.85</v>
+      </c>
+      <c r="S114">
         <v>1.95</v>
       </c>
-      <c r="S114">
-        <v>1.85</v>
-      </c>
       <c r="T114">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="U114">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V114">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="W114">
-        <v>0.181</v>
+        <v>-1</v>
       </c>
       <c r="X114">
         <v>-1</v>
       </c>
       <c r="Y114">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z114">
         <v>-1</v>
       </c>
       <c r="AA114">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AB114">
         <v>-1</v>
       </c>
       <c r="AC114">
-        <v>0.7749999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="115" spans="1:29">
@@ -10805,7 +10805,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>7675037</v>
+        <v>7674710</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10817,10 +10817,10 @@
         <v>45300.69791666666</v>
       </c>
       <c r="F115" t="s">
-        <v>57</v>
+        <v>78</v>
       </c>
       <c r="G115" t="s">
-        <v>84</v>
+        <v>44</v>
       </c>
       <c r="H115">
         <v>1</v>
@@ -10832,43 +10832,43 @@
         <v>89</v>
       </c>
       <c r="K115">
-        <v>2.25</v>
+        <v>1.2</v>
       </c>
       <c r="L115">
-        <v>3.5</v>
+        <v>6.5</v>
       </c>
       <c r="M115">
-        <v>2.6</v>
+        <v>8</v>
       </c>
       <c r="N115">
-        <v>2.375</v>
+        <v>1.181</v>
       </c>
       <c r="O115">
-        <v>3.5</v>
+        <v>6.5</v>
       </c>
       <c r="P115">
-        <v>2.45</v>
+        <v>10</v>
       </c>
       <c r="Q115">
-        <v>0</v>
+        <v>-2.25</v>
       </c>
       <c r="R115">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S115">
+        <v>1.85</v>
+      </c>
+      <c r="T115">
+        <v>3.75</v>
+      </c>
+      <c r="U115">
         <v>1.925</v>
       </c>
-      <c r="T115">
-        <v>2.75</v>
-      </c>
-      <c r="U115">
-        <v>1.75</v>
-      </c>
       <c r="V115">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="W115">
-        <v>1.375</v>
+        <v>0.181</v>
       </c>
       <c r="X115">
         <v>-1</v>
@@ -10877,16 +10877,16 @@
         <v>-1</v>
       </c>
       <c r="Z115">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA115">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB115">
         <v>-1</v>
       </c>
       <c r="AC115">
-        <v>0.95</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="116" spans="1:29">
@@ -10894,7 +10894,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>7674973</v>
+        <v>7675037</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10906,76 +10906,76 @@
         <v>45300.69791666666</v>
       </c>
       <c r="F116" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="G116" t="s">
-        <v>52</v>
+        <v>84</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J116" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K116">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="L116">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M116">
-        <v>3.4</v>
+        <v>2.6</v>
       </c>
       <c r="N116">
-        <v>1.8</v>
+        <v>2.375</v>
       </c>
       <c r="O116">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P116">
-        <v>3.4</v>
+        <v>2.45</v>
       </c>
       <c r="Q116">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R116">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S116">
+        <v>1.925</v>
+      </c>
+      <c r="T116">
+        <v>2.75</v>
+      </c>
+      <c r="U116">
+        <v>1.75</v>
+      </c>
+      <c r="V116">
         <v>1.95</v>
       </c>
-      <c r="T116">
-        <v>3</v>
-      </c>
-      <c r="U116">
-        <v>1.825</v>
-      </c>
-      <c r="V116">
-        <v>1.975</v>
-      </c>
       <c r="W116">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X116">
         <v>-1</v>
       </c>
       <c r="Y116">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z116">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA116">
+        <v>-1</v>
+      </c>
+      <c r="AB116">
+        <v>-1</v>
+      </c>
+      <c r="AC116">
         <v>0.95</v>
-      </c>
-      <c r="AB116">
-        <v>-1</v>
-      </c>
-      <c r="AC116">
-        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="117" spans="1:29">
@@ -10995,7 +10995,7 @@
         <v>45300.69791666666</v>
       </c>
       <c r="F117" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="G117" t="s">
         <v>65</v>
@@ -11173,10 +11173,10 @@
         <v>45301.69791666666</v>
       </c>
       <c r="F119" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G119" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H119">
         <v>0</v>
@@ -11250,7 +11250,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>7691322</v>
+        <v>7691318</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11262,10 +11262,10 @@
         <v>45304.5</v>
       </c>
       <c r="F120" t="s">
-        <v>35</v>
+        <v>73</v>
       </c>
       <c r="G120" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="H120">
         <v>2</v>
@@ -11277,61 +11277,61 @@
         <v>89</v>
       </c>
       <c r="K120">
+        <v>1.95</v>
+      </c>
+      <c r="L120">
+        <v>3.75</v>
+      </c>
+      <c r="M120">
+        <v>3</v>
+      </c>
+      <c r="N120">
+        <v>1.95</v>
+      </c>
+      <c r="O120">
+        <v>3.75</v>
+      </c>
+      <c r="P120">
+        <v>3</v>
+      </c>
+      <c r="Q120">
+        <v>-0.25</v>
+      </c>
+      <c r="R120">
         <v>1.75</v>
       </c>
-      <c r="L120">
-        <v>3.6</v>
-      </c>
-      <c r="M120">
-        <v>3.75</v>
-      </c>
-      <c r="N120">
-        <v>1.75</v>
-      </c>
-      <c r="O120">
-        <v>3.6</v>
-      </c>
-      <c r="P120">
-        <v>3.75</v>
-      </c>
-      <c r="Q120">
-        <v>-0.5</v>
-      </c>
-      <c r="R120">
-        <v>1.8</v>
-      </c>
       <c r="S120">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T120">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U120">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V120">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W120">
+        <v>0.95</v>
+      </c>
+      <c r="X120">
+        <v>-1</v>
+      </c>
+      <c r="Y120">
+        <v>-1</v>
+      </c>
+      <c r="Z120">
         <v>0.75</v>
       </c>
-      <c r="X120">
-        <v>-1</v>
-      </c>
-      <c r="Y120">
-        <v>-1</v>
-      </c>
-      <c r="Z120">
-        <v>0.8</v>
-      </c>
       <c r="AA120">
         <v>-1</v>
       </c>
       <c r="AB120">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AC120">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="121" spans="1:29">
@@ -11428,7 +11428,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>7691318</v>
+        <v>7691322</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11440,10 +11440,10 @@
         <v>45304.5</v>
       </c>
       <c r="F122" t="s">
-        <v>73</v>
+        <v>35</v>
       </c>
       <c r="G122" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="H122">
         <v>2</v>
@@ -11455,43 +11455,43 @@
         <v>89</v>
       </c>
       <c r="K122">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="L122">
+        <v>3.6</v>
+      </c>
+      <c r="M122">
         <v>3.75</v>
       </c>
-      <c r="M122">
-        <v>3</v>
-      </c>
       <c r="N122">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="O122">
+        <v>3.6</v>
+      </c>
+      <c r="P122">
         <v>3.75</v>
       </c>
-      <c r="P122">
-        <v>3</v>
-      </c>
       <c r="Q122">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R122">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S122">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T122">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U122">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V122">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W122">
-        <v>0.95</v>
+        <v>0.75</v>
       </c>
       <c r="X122">
         <v>-1</v>
@@ -11500,16 +11500,16 @@
         <v>-1</v>
       </c>
       <c r="Z122">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AA122">
         <v>-1</v>
       </c>
       <c r="AB122">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AC122">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="123" spans="1:29">
@@ -11621,7 +11621,7 @@
         <v>53</v>
       </c>
       <c r="G124" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="H124">
         <v>0</v>
@@ -11695,7 +11695,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>7719604</v>
+        <v>7719544</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11707,13 +11707,13 @@
         <v>45311.5</v>
       </c>
       <c r="F125" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="G125" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="H125">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I125">
         <v>0</v>
@@ -11722,43 +11722,43 @@
         <v>89</v>
       </c>
       <c r="K125">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="L125">
         <v>4</v>
       </c>
       <c r="M125">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="N125">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="O125">
         <v>4</v>
       </c>
       <c r="P125">
-        <v>2.45</v>
+        <v>2.7</v>
       </c>
       <c r="Q125">
         <v>-0.25</v>
       </c>
       <c r="R125">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="S125">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="T125">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U125">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V125">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W125">
-        <v>1.25</v>
+        <v>1.05</v>
       </c>
       <c r="X125">
         <v>-1</v>
@@ -11767,16 +11767,16 @@
         <v>-1</v>
       </c>
       <c r="Z125">
-        <v>1.05</v>
+        <v>0.875</v>
       </c>
       <c r="AA125">
         <v>-1</v>
       </c>
       <c r="AB125">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC125">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -11873,7 +11873,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>7719544</v>
+        <v>7719604</v>
       </c>
       <c r="C127" t="s">
         <v>28</v>
@@ -11885,13 +11885,13 @@
         <v>45311.5</v>
       </c>
       <c r="F127" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="G127" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="H127">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I127">
         <v>0</v>
@@ -11900,61 +11900,61 @@
         <v>89</v>
       </c>
       <c r="K127">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="L127">
         <v>4</v>
       </c>
       <c r="M127">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="N127">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="O127">
         <v>4</v>
       </c>
       <c r="P127">
-        <v>2.7</v>
+        <v>2.45</v>
       </c>
       <c r="Q127">
         <v>-0.25</v>
       </c>
       <c r="R127">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="S127">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="T127">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U127">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V127">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W127">
+        <v>1.25</v>
+      </c>
+      <c r="X127">
+        <v>-1</v>
+      </c>
+      <c r="Y127">
+        <v>-1</v>
+      </c>
+      <c r="Z127">
         <v>1.05</v>
       </c>
-      <c r="X127">
-        <v>-1</v>
-      </c>
-      <c r="Y127">
-        <v>-1</v>
-      </c>
-      <c r="Z127">
-        <v>0.875</v>
-      </c>
       <c r="AA127">
         <v>-1</v>
       </c>
       <c r="AB127">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC127">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="128" spans="1:29">
@@ -12063,10 +12063,10 @@
         <v>45314.69791666666</v>
       </c>
       <c r="F129" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G129" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H129">
         <v>0</v>
@@ -12155,7 +12155,7 @@
         <v>35</v>
       </c>
       <c r="G130" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H130">
         <v>1</v>
@@ -12241,7 +12241,7 @@
         <v>45318.5</v>
       </c>
       <c r="F131" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G131" t="s">
         <v>69</v>
@@ -12318,7 +12318,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>7761811</v>
+        <v>7761953</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12330,76 +12330,76 @@
         <v>45321.69791666666</v>
       </c>
       <c r="F132" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G132" t="s">
-        <v>79</v>
+        <v>32</v>
       </c>
       <c r="H132">
         <v>0</v>
       </c>
       <c r="I132">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J132" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K132">
-        <v>2.375</v>
+        <v>2.25</v>
       </c>
       <c r="L132">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M132">
-        <v>2.375</v>
+        <v>2.5</v>
       </c>
       <c r="N132">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="O132">
         <v>3.6</v>
       </c>
       <c r="P132">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="Q132">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R132">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S132">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T132">
         <v>2.75</v>
       </c>
       <c r="U132">
+        <v>1.75</v>
+      </c>
+      <c r="V132">
         <v>1.95</v>
       </c>
-      <c r="V132">
-        <v>1.85</v>
-      </c>
       <c r="W132">
         <v>-1</v>
       </c>
       <c r="X132">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y132">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z132">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA132">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB132">
         <v>-1</v>
       </c>
       <c r="AC132">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="133" spans="1:29">
@@ -12407,7 +12407,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>7761786</v>
+        <v>7761951</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12419,73 +12419,73 @@
         <v>45321.69791666666</v>
       </c>
       <c r="F133" t="s">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="G133" t="s">
-        <v>86</v>
+        <v>46</v>
       </c>
       <c r="H133">
+        <v>1</v>
+      </c>
+      <c r="I133">
         <v>3</v>
       </c>
-      <c r="I133">
-        <v>2</v>
-      </c>
       <c r="J133" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K133">
-        <v>2.875</v>
+        <v>1.666</v>
       </c>
       <c r="L133">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="M133">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="N133">
-        <v>2.9</v>
+        <v>1.909</v>
       </c>
       <c r="O133">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P133">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q133">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R133">
+        <v>1.975</v>
+      </c>
+      <c r="S133">
+        <v>1.825</v>
+      </c>
+      <c r="T133">
+        <v>2.5</v>
+      </c>
+      <c r="U133">
         <v>1.75</v>
       </c>
-      <c r="S133">
+      <c r="V133">
         <v>1.95</v>
       </c>
-      <c r="T133">
-        <v>2.75</v>
-      </c>
-      <c r="U133">
-        <v>1.9</v>
-      </c>
-      <c r="V133">
-        <v>1.9</v>
-      </c>
       <c r="W133">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="X133">
         <v>-1</v>
       </c>
       <c r="Y133">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z133">
+        <v>-1</v>
+      </c>
+      <c r="AA133">
+        <v>0.825</v>
+      </c>
+      <c r="AB133">
         <v>0.75</v>
-      </c>
-      <c r="AA133">
-        <v>-1</v>
-      </c>
-      <c r="AB133">
-        <v>0.8999999999999999</v>
       </c>
       <c r="AC133">
         <v>-1</v>
@@ -12496,7 +12496,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>7761953</v>
+        <v>7761786</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12508,76 +12508,76 @@
         <v>45321.69791666666</v>
       </c>
       <c r="F134" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="G134" t="s">
-        <v>31</v>
+        <v>86</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I134">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J134" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K134">
-        <v>2.25</v>
+        <v>2.875</v>
       </c>
       <c r="L134">
         <v>3.75</v>
       </c>
       <c r="M134">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="N134">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
       <c r="O134">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P134">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="Q134">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R134">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="S134">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T134">
         <v>2.75</v>
       </c>
       <c r="U134">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="V134">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W134">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="X134">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y134">
         <v>-1</v>
       </c>
       <c r="Z134">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AA134">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB134">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC134">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -12585,7 +12585,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>7761951</v>
+        <v>7761811</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12597,55 +12597,55 @@
         <v>45321.69791666666</v>
       </c>
       <c r="F135" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="G135" t="s">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="H135">
+        <v>0</v>
+      </c>
+      <c r="I135">
         <v>1</v>
-      </c>
-      <c r="I135">
-        <v>3</v>
       </c>
       <c r="J135" t="s">
         <v>91</v>
       </c>
       <c r="K135">
-        <v>1.666</v>
+        <v>2.375</v>
       </c>
       <c r="L135">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="M135">
-        <v>3.5</v>
+        <v>2.375</v>
       </c>
       <c r="N135">
-        <v>1.909</v>
+        <v>2.7</v>
       </c>
       <c r="O135">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P135">
-        <v>3</v>
+        <v>2.15</v>
       </c>
       <c r="Q135">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R135">
+        <v>1.825</v>
+      </c>
+      <c r="S135">
         <v>1.975</v>
       </c>
-      <c r="S135">
-        <v>1.825</v>
-      </c>
       <c r="T135">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U135">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="V135">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="W135">
         <v>-1</v>
@@ -12654,19 +12654,19 @@
         <v>-1</v>
       </c>
       <c r="Y135">
-        <v>2</v>
+        <v>1.15</v>
       </c>
       <c r="Z135">
         <v>-1</v>
       </c>
       <c r="AA135">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB135">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AC135">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="136" spans="1:29">
@@ -12689,7 +12689,7 @@
         <v>80</v>
       </c>
       <c r="G136" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H136">
         <v>3</v>
@@ -12775,7 +12775,7 @@
         <v>45325.5</v>
       </c>
       <c r="F137" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G137" t="s">
         <v>33</v>
@@ -12867,7 +12867,7 @@
         <v>29</v>
       </c>
       <c r="G138" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="H138">
         <v>1</v>
@@ -13134,7 +13134,7 @@
         <v>35</v>
       </c>
       <c r="G141" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H141">
         <v>1</v>
@@ -13208,7 +13208,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>7808416</v>
+        <v>7808420</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13220,76 +13220,76 @@
         <v>45332.5</v>
       </c>
       <c r="F142" t="s">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="G142" t="s">
-        <v>85</v>
+        <v>58</v>
       </c>
       <c r="H142">
+        <v>3</v>
+      </c>
+      <c r="I142">
+        <v>0</v>
+      </c>
+      <c r="J142" t="s">
+        <v>89</v>
+      </c>
+      <c r="K142">
+        <v>3.3</v>
+      </c>
+      <c r="L142">
+        <v>4.333</v>
+      </c>
+      <c r="M142">
+        <v>1.727</v>
+      </c>
+      <c r="N142">
+        <v>3.2</v>
+      </c>
+      <c r="O142">
+        <v>4.333</v>
+      </c>
+      <c r="P142">
+        <v>1.75</v>
+      </c>
+      <c r="Q142">
+        <v>0.5</v>
+      </c>
+      <c r="R142">
+        <v>2</v>
+      </c>
+      <c r="S142">
+        <v>1.8</v>
+      </c>
+      <c r="T142">
+        <v>3</v>
+      </c>
+      <c r="U142">
+        <v>2</v>
+      </c>
+      <c r="V142">
+        <v>1.8</v>
+      </c>
+      <c r="W142">
+        <v>2.2</v>
+      </c>
+      <c r="X142">
+        <v>-1</v>
+      </c>
+      <c r="Y142">
+        <v>-1</v>
+      </c>
+      <c r="Z142">
         <v>1</v>
       </c>
-      <c r="I142">
-        <v>2</v>
-      </c>
-      <c r="J142" t="s">
-        <v>91</v>
-      </c>
-      <c r="K142">
-        <v>1.8</v>
-      </c>
-      <c r="L142">
-        <v>4</v>
-      </c>
-      <c r="M142">
-        <v>3.25</v>
-      </c>
-      <c r="N142">
-        <v>1.85</v>
-      </c>
-      <c r="O142">
-        <v>3.8</v>
-      </c>
-      <c r="P142">
-        <v>3.25</v>
-      </c>
-      <c r="Q142">
-        <v>-0.5</v>
-      </c>
-      <c r="R142">
-        <v>1.9</v>
-      </c>
-      <c r="S142">
-        <v>1.9</v>
-      </c>
-      <c r="T142">
-        <v>3.25</v>
-      </c>
-      <c r="U142">
-        <v>1.9</v>
-      </c>
-      <c r="V142">
-        <v>1.9</v>
-      </c>
-      <c r="W142">
-        <v>-1</v>
-      </c>
-      <c r="X142">
-        <v>-1</v>
-      </c>
-      <c r="Y142">
-        <v>2.25</v>
-      </c>
-      <c r="Z142">
-        <v>-1</v>
-      </c>
       <c r="AA142">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB142">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AC142">
-        <v>0.45</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -13297,7 +13297,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>7808420</v>
+        <v>7808416</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13309,76 +13309,76 @@
         <v>45332.5</v>
       </c>
       <c r="F143" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="G143" t="s">
-        <v>58</v>
+        <v>85</v>
       </c>
       <c r="H143">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I143">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J143" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K143">
-        <v>3.3</v>
+        <v>1.8</v>
       </c>
       <c r="L143">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="M143">
-        <v>1.727</v>
+        <v>3.25</v>
       </c>
       <c r="N143">
-        <v>3.2</v>
+        <v>1.85</v>
       </c>
       <c r="O143">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="P143">
-        <v>1.75</v>
+        <v>3.25</v>
       </c>
       <c r="Q143">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R143">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S143">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T143">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U143">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V143">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W143">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="X143">
         <v>-1</v>
       </c>
       <c r="Y143">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Z143">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA143">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB143">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AC143">
-        <v>-0</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="144" spans="1:29">
@@ -13386,7 +13386,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>7844459</v>
+        <v>7844458</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13398,76 +13398,76 @@
         <v>45339.5</v>
       </c>
       <c r="F144" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="G144" t="s">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="H144">
+        <v>0</v>
+      </c>
+      <c r="I144">
+        <v>2</v>
+      </c>
+      <c r="J144" t="s">
+        <v>91</v>
+      </c>
+      <c r="K144">
+        <v>3.6</v>
+      </c>
+      <c r="L144">
+        <v>3.6</v>
+      </c>
+      <c r="M144">
+        <v>1.8</v>
+      </c>
+      <c r="N144">
+        <v>4.5</v>
+      </c>
+      <c r="O144">
+        <v>3.6</v>
+      </c>
+      <c r="P144">
+        <v>1.571</v>
+      </c>
+      <c r="Q144">
+        <v>1</v>
+      </c>
+      <c r="R144">
+        <v>1.75</v>
+      </c>
+      <c r="S144">
+        <v>1.95</v>
+      </c>
+      <c r="T144">
         <v>3</v>
       </c>
-      <c r="I144">
-        <v>0</v>
-      </c>
-      <c r="J144" t="s">
-        <v>89</v>
-      </c>
-      <c r="K144">
-        <v>1.4</v>
-      </c>
-      <c r="L144">
-        <v>4.5</v>
-      </c>
-      <c r="M144">
-        <v>5.5</v>
-      </c>
-      <c r="N144">
-        <v>1.4</v>
-      </c>
-      <c r="O144">
-        <v>4.5</v>
-      </c>
-      <c r="P144">
-        <v>5.25</v>
-      </c>
-      <c r="Q144">
-        <v>-1.25</v>
-      </c>
-      <c r="R144">
-        <v>1.9</v>
-      </c>
-      <c r="S144">
-        <v>1.9</v>
-      </c>
-      <c r="T144">
-        <v>2.75</v>
-      </c>
       <c r="U144">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V144">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W144">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X144">
         <v>-1</v>
       </c>
       <c r="Y144">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="Z144">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA144">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB144">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AC144">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="145" spans="1:29">
@@ -13475,7 +13475,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>7844460</v>
+        <v>7844459</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13487,58 +13487,58 @@
         <v>45339.5</v>
       </c>
       <c r="F145" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="G145" t="s">
-        <v>76</v>
+        <v>48</v>
       </c>
       <c r="H145">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I145">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J145" t="s">
         <v>89</v>
       </c>
       <c r="K145">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="L145">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="M145">
-        <v>3.4</v>
+        <v>5.5</v>
       </c>
       <c r="N145">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="O145">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="P145">
-        <v>3.3</v>
+        <v>5.25</v>
       </c>
       <c r="Q145">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R145">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S145">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T145">
         <v>2.75</v>
       </c>
       <c r="U145">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V145">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W145">
-        <v>0.8</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X145">
         <v>-1</v>
@@ -13547,16 +13547,16 @@
         <v>-1</v>
       </c>
       <c r="Z145">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA145">
         <v>-1</v>
       </c>
       <c r="AB145">
-        <v>0.8</v>
+        <v>0.45</v>
       </c>
       <c r="AC145">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="146" spans="1:29">
@@ -13564,7 +13564,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>7844461</v>
+        <v>7844460</v>
       </c>
       <c r="C146" t="s">
         <v>28</v>
@@ -13576,76 +13576,76 @@
         <v>45339.5</v>
       </c>
       <c r="F146" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="G146" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="H146">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I146">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J146" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K146">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="L146">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="M146">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="N146">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="O146">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P146">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="Q146">
         <v>-0.5</v>
       </c>
       <c r="R146">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S146">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T146">
         <v>2.75</v>
       </c>
       <c r="U146">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V146">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W146">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X146">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y146">
         <v>-1</v>
       </c>
       <c r="Z146">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA146">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB146">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC146">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="147" spans="1:29">
@@ -13653,7 +13653,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>7844462</v>
+        <v>7844461</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13665,76 +13665,76 @@
         <v>45339.5</v>
       </c>
       <c r="F147" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="G147" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I147">
         <v>1</v>
       </c>
       <c r="J147" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K147">
-        <v>2.4</v>
+        <v>1.6</v>
       </c>
       <c r="L147">
         <v>4</v>
       </c>
       <c r="M147">
-        <v>2.25</v>
+        <v>4.2</v>
       </c>
       <c r="N147">
-        <v>2.875</v>
+        <v>1.75</v>
       </c>
       <c r="O147">
         <v>4</v>
       </c>
       <c r="P147">
+        <v>3.4</v>
+      </c>
+      <c r="Q147">
+        <v>-0.5</v>
+      </c>
+      <c r="R147">
+        <v>1.8</v>
+      </c>
+      <c r="S147">
+        <v>2</v>
+      </c>
+      <c r="T147">
+        <v>2.75</v>
+      </c>
+      <c r="U147">
+        <v>1.85</v>
+      </c>
+      <c r="V147">
         <v>1.95</v>
       </c>
-      <c r="Q147">
-        <v>0.5</v>
-      </c>
-      <c r="R147">
-        <v>1.75</v>
-      </c>
-      <c r="S147">
-        <v>1.95</v>
-      </c>
-      <c r="T147">
+      <c r="W147">
+        <v>-1</v>
+      </c>
+      <c r="X147">
         <v>3</v>
       </c>
-      <c r="U147">
-        <v>1.95</v>
-      </c>
-      <c r="V147">
-        <v>1.85</v>
-      </c>
-      <c r="W147">
-        <v>-1</v>
-      </c>
-      <c r="X147">
-        <v>-1</v>
-      </c>
       <c r="Y147">
+        <v>-1</v>
+      </c>
+      <c r="Z147">
+        <v>-1</v>
+      </c>
+      <c r="AA147">
+        <v>1</v>
+      </c>
+      <c r="AB147">
+        <v>-1</v>
+      </c>
+      <c r="AC147">
         <v>0.95</v>
-      </c>
-      <c r="Z147">
-        <v>-1</v>
-      </c>
-      <c r="AA147">
-        <v>0.95</v>
-      </c>
-      <c r="AB147">
-        <v>-1</v>
-      </c>
-      <c r="AC147">
-        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="148" spans="1:29">
@@ -13742,7 +13742,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>7844457</v>
+        <v>7844462</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13754,76 +13754,76 @@
         <v>45339.5</v>
       </c>
       <c r="F148" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="G148" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148">
         <v>1</v>
       </c>
       <c r="J148" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K148">
-        <v>1.6</v>
+        <v>2.4</v>
       </c>
       <c r="L148">
         <v>4</v>
       </c>
       <c r="M148">
-        <v>4.2</v>
+        <v>2.25</v>
       </c>
       <c r="N148">
-        <v>1.6</v>
+        <v>2.875</v>
       </c>
       <c r="O148">
         <v>4</v>
       </c>
       <c r="P148">
-        <v>4.2</v>
+        <v>1.95</v>
       </c>
       <c r="Q148">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R148">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S148">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T148">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U148">
+        <v>1.95</v>
+      </c>
+      <c r="V148">
         <v>1.85</v>
       </c>
-      <c r="V148">
-        <v>1.95</v>
-      </c>
       <c r="W148">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X148">
         <v>-1</v>
       </c>
       <c r="Y148">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z148">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AA148">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AB148">
+        <v>-1</v>
+      </c>
+      <c r="AC148">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AC148">
-        <v>-1</v>
       </c>
     </row>
     <row r="149" spans="1:29">
@@ -13831,7 +13831,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>7844458</v>
+        <v>7844457</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -13843,76 +13843,76 @@
         <v>45339.5</v>
       </c>
       <c r="F149" t="s">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="G149" t="s">
-        <v>84</v>
+        <v>52</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J149" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K149">
-        <v>3.6</v>
+        <v>1.6</v>
       </c>
       <c r="L149">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M149">
+        <v>4.2</v>
+      </c>
+      <c r="N149">
+        <v>1.6</v>
+      </c>
+      <c r="O149">
+        <v>4</v>
+      </c>
+      <c r="P149">
+        <v>4.2</v>
+      </c>
+      <c r="Q149">
+        <v>-0.75</v>
+      </c>
+      <c r="R149">
         <v>1.8</v>
       </c>
-      <c r="N149">
-        <v>4.5</v>
-      </c>
-      <c r="O149">
-        <v>3.6</v>
-      </c>
-      <c r="P149">
-        <v>1.571</v>
-      </c>
-      <c r="Q149">
-        <v>1</v>
-      </c>
-      <c r="R149">
-        <v>1.75</v>
-      </c>
       <c r="S149">
+        <v>2</v>
+      </c>
+      <c r="T149">
+        <v>2.5</v>
+      </c>
+      <c r="U149">
+        <v>1.85</v>
+      </c>
+      <c r="V149">
         <v>1.95</v>
       </c>
-      <c r="T149">
-        <v>3</v>
-      </c>
-      <c r="U149">
-        <v>1.95</v>
-      </c>
-      <c r="V149">
-        <v>1.85</v>
-      </c>
       <c r="W149">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X149">
         <v>-1</v>
       </c>
       <c r="Y149">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="Z149">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AA149">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AB149">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC149">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="150" spans="1:29">
@@ -13932,10 +13932,10 @@
         <v>45342.69791666666</v>
       </c>
       <c r="F150" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G150" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H150">
         <v>1</v>

--- a/England Northern League Division One/England Northern League Division One.xlsx
+++ b/England Northern League Division One/England Northern League Division One.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="778" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="92">
   <si>
     <t>id</t>
   </si>
@@ -115,31 +115,46 @@
     <t>Stocksbridge PS</t>
   </si>
   <si>
+    <t>Widnes</t>
+  </si>
+  <si>
     <t>Corby</t>
   </si>
   <si>
     <t>Cleethorpes Town</t>
   </si>
   <si>
-    <t>Widnes</t>
-  </si>
-  <si>
     <t>Coleshill Town</t>
   </si>
   <si>
-    <t>Mossley</t>
+    <t>Leek Town</t>
+  </si>
+  <si>
+    <t>Liversedge</t>
+  </si>
+  <si>
+    <t>Rugby Town</t>
   </si>
   <si>
     <t>Pontefract Collieries</t>
   </si>
   <si>
-    <t>North Ferriby</t>
+    <t>Hednesford</t>
   </si>
   <si>
-    <t>Leek Town</t>
+    <t>Cambridge City</t>
   </si>
   <si>
-    <t>Runcorn Linnets</t>
+    <t>Coventry Sphinx</t>
+  </si>
+  <si>
+    <t>Hinckley LR</t>
+  </si>
+  <si>
+    <t>AFC Rushden  Diamonds</t>
+  </si>
+  <si>
+    <t>North Ferriby</t>
   </si>
   <si>
     <t>Grantham</t>
@@ -148,37 +163,22 @@
     <t>Dunston UTS</t>
   </si>
   <si>
-    <t>Liversedge</t>
+    <t>Runcorn Linnets</t>
   </si>
   <si>
-    <t>Coventry Sphinx</t>
+    <t>Mossley</t>
   </si>
   <si>
-    <t>Cambridge City</t>
+    <t>Grimsby Borough</t>
   </si>
   <si>
-    <t>Hinckley LR</t>
-  </si>
-  <si>
-    <t>AFC Rushden  Diamonds</t>
-  </si>
-  <si>
-    <t>Rugby Town</t>
-  </si>
-  <si>
-    <t>Hednesford</t>
-  </si>
-  <si>
-    <t>Winterton Rangers</t>
+    <t>Avro FC</t>
   </si>
   <si>
     <t>Stockton Town</t>
   </si>
   <si>
-    <t>Avro FC</t>
-  </si>
-  <si>
-    <t>Grimsby Borough</t>
+    <t>Winterton Rangers</t>
   </si>
   <si>
     <t>Stalybridge</t>
@@ -196,31 +196,31 @@
     <t>Gresley Rovers</t>
   </si>
   <si>
+    <t>Kidsgrove Ath</t>
+  </si>
+  <si>
     <t>Anstey Nomads</t>
   </si>
   <si>
-    <t>Kidsgrove Ath</t>
+    <t>1874 Northwich</t>
+  </si>
+  <si>
+    <t>Bedworth Utd</t>
   </si>
   <si>
     <t>Ossett United</t>
   </si>
   <si>
-    <t>Bedworth Utd</t>
+    <t>Newton Aycliffe</t>
   </si>
   <si>
-    <t>1874 Northwich</t>
-  </si>
-  <si>
-    <t>Newton Aycliffe</t>
+    <t>Nantwich Town</t>
   </si>
   <si>
     <t>Sporting Khalsa</t>
   </si>
   <si>
     <t>Harborough Town</t>
-  </si>
-  <si>
-    <t>Nantwich Town</t>
   </si>
   <si>
     <t>Carlton Town</t>
@@ -235,10 +235,10 @@
     <t>Trafford</t>
   </si>
   <si>
-    <t>Quorn</t>
+    <t>Belper Town</t>
   </si>
   <si>
-    <t>Belper Town</t>
+    <t>Quorn</t>
   </si>
   <si>
     <t>Newcastle Town</t>
@@ -651,7 +651,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC151"/>
+  <dimension ref="A1:AC152"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -763,7 +763,7 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H2">
         <v>3</v>
@@ -852,7 +852,7 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="H3">
         <v>3</v>
@@ -941,7 +941,7 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H4">
         <v>2</v>
@@ -1030,7 +1030,7 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H5">
         <v>3</v>
@@ -1104,7 +1104,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>7072687</v>
+        <v>7072691</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -1119,73 +1119,73 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K6">
-        <v>1.95</v>
+        <v>2.25</v>
       </c>
       <c r="L6">
         <v>3.5</v>
       </c>
       <c r="M6">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="N6">
-        <v>1.75</v>
+        <v>2.375</v>
       </c>
       <c r="O6">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P6">
-        <v>4</v>
+        <v>2.6</v>
       </c>
       <c r="Q6">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S6">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T6">
         <v>2.75</v>
       </c>
       <c r="U6">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V6">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W6">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X6">
         <v>-1</v>
       </c>
       <c r="Y6">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z6">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA6">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB6">
         <v>-1</v>
       </c>
       <c r="AC6">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1193,7 +1193,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7072686</v>
+        <v>7072687</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1208,31 +1208,31 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K7">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="L7">
+        <v>3.5</v>
+      </c>
+      <c r="M7">
+        <v>3.2</v>
+      </c>
+      <c r="N7">
+        <v>1.75</v>
+      </c>
+      <c r="O7">
         <v>3.6</v>
-      </c>
-      <c r="M7">
-        <v>2.9</v>
-      </c>
-      <c r="N7">
-        <v>1.7</v>
-      </c>
-      <c r="O7">
-        <v>3.8</v>
       </c>
       <c r="P7">
         <v>4</v>
@@ -1241,40 +1241,40 @@
         <v>-0.75</v>
       </c>
       <c r="R7">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S7">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T7">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U7">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="V7">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W7">
         <v>-1</v>
       </c>
       <c r="X7">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y7">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z7">
         <v>-1</v>
       </c>
       <c r="AA7">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB7">
         <v>-1</v>
       </c>
       <c r="AC7">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1282,7 +1282,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7072691</v>
+        <v>7072686</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1297,73 +1297,73 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K8">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="L8">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M8">
-        <v>2.6</v>
+        <v>2.9</v>
       </c>
       <c r="N8">
-        <v>2.375</v>
+        <v>1.7</v>
       </c>
       <c r="O8">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P8">
-        <v>2.6</v>
+        <v>4</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R8">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S8">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T8">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U8">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="V8">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W8">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X8">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y8">
         <v>-1</v>
       </c>
       <c r="Z8">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA8">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB8">
         <v>-1</v>
       </c>
       <c r="AC8">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1460,7 +1460,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>7100545</v>
+        <v>7100544</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1475,10 +1475,10 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>35</v>
+        <v>72</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -1487,43 +1487,43 @@
         <v>89</v>
       </c>
       <c r="K10">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="L10">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M10">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="N10">
-        <v>1.85</v>
+        <v>1.666</v>
       </c>
       <c r="O10">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="P10">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="Q10">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R10">
+        <v>1.875</v>
+      </c>
+      <c r="S10">
         <v>1.925</v>
-      </c>
-      <c r="S10">
-        <v>1.875</v>
       </c>
       <c r="T10">
         <v>2.75</v>
       </c>
       <c r="U10">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V10">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W10">
-        <v>0.8500000000000001</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X10">
         <v>-1</v>
@@ -1532,16 +1532,16 @@
         <v>-1</v>
       </c>
       <c r="Z10">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AA10">
         <v>-1</v>
       </c>
       <c r="AB10">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AC10">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1549,7 +1549,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>7100110</v>
+        <v>7100108</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1564,70 +1564,70 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I11">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K11">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L11">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M11">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="N11">
+        <v>2.3</v>
+      </c>
+      <c r="O11">
+        <v>3.4</v>
+      </c>
+      <c r="P11">
         <v>2.625</v>
       </c>
-      <c r="O11">
-        <v>3.3</v>
-      </c>
-      <c r="P11">
-        <v>2.3</v>
-      </c>
       <c r="Q11">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R11">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S11">
-        <v>1.8</v>
+        <v>1.725</v>
       </c>
       <c r="T11">
         <v>2.75</v>
       </c>
       <c r="U11">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V11">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W11">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X11">
         <v>-1</v>
       </c>
       <c r="Y11">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z11">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA11">
+        <v>-1</v>
+      </c>
+      <c r="AB11">
         <v>0.8</v>
-      </c>
-      <c r="AB11">
-        <v>0.95</v>
       </c>
       <c r="AC11">
         <v>-1</v>
@@ -1638,7 +1638,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>7100109</v>
+        <v>7100405</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1653,37 +1653,37 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J12" t="s">
         <v>91</v>
       </c>
       <c r="K12">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="L12">
         <v>3.6</v>
       </c>
       <c r="M12">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
       <c r="N12">
-        <v>1.95</v>
+        <v>2.5</v>
       </c>
       <c r="O12">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P12">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="Q12">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R12">
         <v>2</v>
@@ -1692,13 +1692,13 @@
         <v>1.8</v>
       </c>
       <c r="T12">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U12">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V12">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W12">
         <v>-1</v>
@@ -1707,7 +1707,7 @@
         <v>-1</v>
       </c>
       <c r="Y12">
-        <v>2.1</v>
+        <v>1.3</v>
       </c>
       <c r="Z12">
         <v>-1</v>
@@ -1716,7 +1716,7 @@
         <v>0.8</v>
       </c>
       <c r="AB12">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AC12">
         <v>-1</v>
@@ -1727,7 +1727,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>7100544</v>
+        <v>7100110</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1742,73 +1742,73 @@
         <v>40</v>
       </c>
       <c r="G13" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="H13">
+        <v>2</v>
+      </c>
+      <c r="I13">
         <v>3</v>
       </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
       <c r="J13" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K13">
+        <v>2.25</v>
+      </c>
+      <c r="L13">
+        <v>3.25</v>
+      </c>
+      <c r="M13">
+        <v>2.75</v>
+      </c>
+      <c r="N13">
+        <v>2.625</v>
+      </c>
+      <c r="O13">
+        <v>3.3</v>
+      </c>
+      <c r="P13">
+        <v>2.3</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>2</v>
+      </c>
+      <c r="S13">
         <v>1.8</v>
-      </c>
-      <c r="L13">
-        <v>4</v>
-      </c>
-      <c r="M13">
-        <v>3.25</v>
-      </c>
-      <c r="N13">
-        <v>1.666</v>
-      </c>
-      <c r="O13">
-        <v>4.2</v>
-      </c>
-      <c r="P13">
-        <v>3.6</v>
-      </c>
-      <c r="Q13">
-        <v>-0.75</v>
-      </c>
-      <c r="R13">
-        <v>1.875</v>
-      </c>
-      <c r="S13">
-        <v>1.925</v>
       </c>
       <c r="T13">
         <v>2.75</v>
       </c>
       <c r="U13">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V13">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W13">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X13">
         <v>-1</v>
       </c>
       <c r="Y13">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z13">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA13">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB13">
-        <v>0.45</v>
+        <v>0.95</v>
       </c>
       <c r="AC13">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="14" spans="1:29">
@@ -1816,7 +1816,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>7100546</v>
+        <v>7100111</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1828,10 +1828,10 @@
         <v>45160.65625</v>
       </c>
       <c r="F14" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="G14" t="s">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="H14">
         <v>1</v>
@@ -1843,34 +1843,34 @@
         <v>90</v>
       </c>
       <c r="K14">
-        <v>1.615</v>
+        <v>2.3</v>
       </c>
       <c r="L14">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="M14">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="N14">
-        <v>1.45</v>
+        <v>3.1</v>
       </c>
       <c r="O14">
-        <v>4.333</v>
+        <v>3.3</v>
       </c>
       <c r="P14">
-        <v>5</v>
+        <v>2.05</v>
       </c>
       <c r="Q14">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R14">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S14">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T14">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U14">
         <v>1.8</v>
@@ -1882,16 +1882,16 @@
         <v>-1</v>
       </c>
       <c r="X14">
-        <v>3.333</v>
+        <v>2.3</v>
       </c>
       <c r="Y14">
         <v>-1</v>
       </c>
       <c r="Z14">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AA14">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB14">
         <v>-1</v>
@@ -1905,7 +1905,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>7100107</v>
+        <v>7100543</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1917,73 +1917,73 @@
         <v>45160.65625</v>
       </c>
       <c r="F15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G15" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="H15">
         <v>2</v>
       </c>
       <c r="I15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J15" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K15">
-        <v>2.4</v>
+        <v>1.909</v>
       </c>
       <c r="L15">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M15">
-        <v>2.4</v>
+        <v>3.1</v>
       </c>
       <c r="N15">
-        <v>2.9</v>
+        <v>2.3</v>
       </c>
       <c r="O15">
         <v>3.6</v>
       </c>
       <c r="P15">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="Q15">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R15">
+        <v>1.8</v>
+      </c>
+      <c r="S15">
+        <v>2</v>
+      </c>
+      <c r="T15">
+        <v>2.75</v>
+      </c>
+      <c r="U15">
         <v>1.875</v>
       </c>
-      <c r="S15">
+      <c r="V15">
         <v>1.925</v>
       </c>
-      <c r="T15">
-        <v>2.5</v>
-      </c>
-      <c r="U15">
-        <v>1.9</v>
-      </c>
-      <c r="V15">
-        <v>1.9</v>
-      </c>
       <c r="W15">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="X15">
         <v>-1</v>
       </c>
       <c r="Y15">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z15">
+        <v>-1</v>
+      </c>
+      <c r="AA15">
+        <v>1</v>
+      </c>
+      <c r="AB15">
         <v>0.875</v>
-      </c>
-      <c r="AA15">
-        <v>-1</v>
-      </c>
-      <c r="AB15">
-        <v>0.8999999999999999</v>
       </c>
       <c r="AC15">
         <v>-1</v>
@@ -1994,7 +1994,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>7100106</v>
+        <v>7100392</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -2006,76 +2006,76 @@
         <v>45160.65625</v>
       </c>
       <c r="F16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G16" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J16" t="s">
         <v>90</v>
       </c>
       <c r="K16">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="M16">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="N16">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="O16">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P16">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="Q16">
+        <v>-0.25</v>
+      </c>
+      <c r="R16">
+        <v>1.825</v>
+      </c>
+      <c r="S16">
+        <v>1.975</v>
+      </c>
+      <c r="T16">
+        <v>3</v>
+      </c>
+      <c r="U16">
+        <v>1.975</v>
+      </c>
+      <c r="V16">
+        <v>1.825</v>
+      </c>
+      <c r="W16">
+        <v>-1</v>
+      </c>
+      <c r="X16">
+        <v>3</v>
+      </c>
+      <c r="Y16">
+        <v>-1</v>
+      </c>
+      <c r="Z16">
         <v>-0.5</v>
       </c>
-      <c r="R16">
-        <v>1.95</v>
-      </c>
-      <c r="S16">
-        <v>1.85</v>
-      </c>
-      <c r="T16">
-        <v>2.75</v>
-      </c>
-      <c r="U16">
-        <v>1.825</v>
-      </c>
-      <c r="V16">
-        <v>1.975</v>
-      </c>
-      <c r="W16">
-        <v>-1</v>
-      </c>
-      <c r="X16">
-        <v>2.4</v>
-      </c>
-      <c r="Y16">
-        <v>-1</v>
-      </c>
-      <c r="Z16">
-        <v>-1</v>
-      </c>
       <c r="AA16">
-        <v>0.8500000000000001</v>
+        <v>0.4875</v>
       </c>
       <c r="AB16">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC16">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -2083,7 +2083,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>7100108</v>
+        <v>7100393</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -2095,76 +2095,76 @@
         <v>45160.65625</v>
       </c>
       <c r="F17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G17" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H17">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K17">
-        <v>2.3</v>
+        <v>2.9</v>
       </c>
       <c r="L17">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M17">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="N17">
-        <v>2.3</v>
+        <v>2.8</v>
       </c>
       <c r="O17">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P17">
-        <v>2.625</v>
+        <v>2.05</v>
       </c>
       <c r="Q17">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R17">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S17">
-        <v>1.725</v>
+        <v>1.85</v>
       </c>
       <c r="T17">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U17">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="V17">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W17">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X17">
         <v>-1</v>
       </c>
       <c r="Y17">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z17">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA17">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB17">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC17">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2172,7 +2172,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>7100393</v>
+        <v>7100394</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2184,40 +2184,40 @@
         <v>45160.65625</v>
       </c>
       <c r="F18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G18" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K18">
-        <v>2.9</v>
+        <v>2.25</v>
       </c>
       <c r="L18">
         <v>3.75</v>
       </c>
       <c r="M18">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="N18">
-        <v>2.8</v>
+        <v>1.909</v>
       </c>
       <c r="O18">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P18">
-        <v>2.05</v>
+        <v>3.1</v>
       </c>
       <c r="Q18">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R18">
         <v>1.95</v>
@@ -2226,34 +2226,34 @@
         <v>1.85</v>
       </c>
       <c r="T18">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U18">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="V18">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W18">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X18">
         <v>-1</v>
       </c>
       <c r="Y18">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z18">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA18">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB18">
         <v>-1</v>
       </c>
       <c r="AC18">
-        <v>0.95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2261,7 +2261,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>7100392</v>
+        <v>7100282</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2273,76 +2273,76 @@
         <v>45160.65625</v>
       </c>
       <c r="F19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G19" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J19" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K19">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="L19">
         <v>4</v>
       </c>
       <c r="M19">
-        <v>2.75</v>
+        <v>2.45</v>
       </c>
       <c r="N19">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="O19">
         <v>4</v>
       </c>
       <c r="P19">
+        <v>2.4</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>1.85</v>
+      </c>
+      <c r="S19">
+        <v>1.95</v>
+      </c>
+      <c r="T19">
         <v>2.75</v>
       </c>
-      <c r="Q19">
-        <v>-0.25</v>
-      </c>
-      <c r="R19">
+      <c r="U19">
         <v>1.825</v>
       </c>
-      <c r="S19">
+      <c r="V19">
         <v>1.975</v>
       </c>
-      <c r="T19">
-        <v>3</v>
-      </c>
-      <c r="U19">
-        <v>1.975</v>
-      </c>
-      <c r="V19">
-        <v>1.825</v>
-      </c>
       <c r="W19">
         <v>-1</v>
       </c>
       <c r="X19">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y19">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="Z19">
+        <v>-1</v>
+      </c>
+      <c r="AA19">
+        <v>0.95</v>
+      </c>
+      <c r="AB19">
+        <v>0.4125</v>
+      </c>
+      <c r="AC19">
         <v>-0.5</v>
-      </c>
-      <c r="AA19">
-        <v>0.4875</v>
-      </c>
-      <c r="AB19">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AC19">
-        <v>-1</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2350,7 +2350,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>7100394</v>
+        <v>7100109</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2362,34 +2362,34 @@
         <v>45160.65625</v>
       </c>
       <c r="F20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G20" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J20" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K20">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L20">
+        <v>3.6</v>
+      </c>
+      <c r="M20">
+        <v>2.6</v>
+      </c>
+      <c r="N20">
+        <v>1.95</v>
+      </c>
+      <c r="O20">
         <v>3.75</v>
-      </c>
-      <c r="M20">
-        <v>2.5</v>
-      </c>
-      <c r="N20">
-        <v>1.909</v>
-      </c>
-      <c r="O20">
-        <v>4</v>
       </c>
       <c r="P20">
         <v>3.1</v>
@@ -2398,40 +2398,40 @@
         <v>-0.5</v>
       </c>
       <c r="R20">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S20">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T20">
         <v>2.75</v>
       </c>
       <c r="U20">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V20">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W20">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X20">
         <v>-1</v>
       </c>
       <c r="Y20">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z20">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA20">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB20">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC20">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2439,7 +2439,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>7100282</v>
+        <v>7100107</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2451,76 +2451,76 @@
         <v>45160.65625</v>
       </c>
       <c r="F21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G21" t="s">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K21">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="L21">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M21">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="N21">
-        <v>2.25</v>
+        <v>2.9</v>
       </c>
       <c r="O21">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P21">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="Q21">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R21">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S21">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T21">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U21">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V21">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W21">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="X21">
         <v>-1</v>
       </c>
       <c r="Y21">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Z21">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA21">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB21">
-        <v>0.4125</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC21">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2528,7 +2528,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7100111</v>
+        <v>7100106</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2540,40 +2540,40 @@
         <v>45160.65625</v>
       </c>
       <c r="F22" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="G22" t="s">
-        <v>34</v>
+        <v>83</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22" t="s">
         <v>90</v>
       </c>
       <c r="K22">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="L22">
         <v>3.2</v>
       </c>
       <c r="M22">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="N22">
-        <v>3.1</v>
+        <v>1.85</v>
       </c>
       <c r="O22">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P22">
-        <v>2.05</v>
+        <v>3.4</v>
       </c>
       <c r="Q22">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R22">
         <v>1.95</v>
@@ -2582,34 +2582,34 @@
         <v>1.85</v>
       </c>
       <c r="T22">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U22">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V22">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W22">
         <v>-1</v>
       </c>
       <c r="X22">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="Y22">
         <v>-1</v>
       </c>
       <c r="Z22">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AA22">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB22">
         <v>-1</v>
       </c>
       <c r="AC22">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2617,7 +2617,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>7100405</v>
+        <v>7100546</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2632,73 +2632,73 @@
         <v>49</v>
       </c>
       <c r="G23" t="s">
-        <v>33</v>
+        <v>75</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J23" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K23">
-        <v>2.5</v>
+        <v>1.615</v>
       </c>
       <c r="L23">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M23">
-        <v>2.3</v>
+        <v>4</v>
       </c>
       <c r="N23">
-        <v>2.5</v>
+        <v>1.45</v>
       </c>
       <c r="O23">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="P23">
-        <v>2.3</v>
+        <v>5</v>
       </c>
       <c r="Q23">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R23">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S23">
+        <v>2</v>
+      </c>
+      <c r="T23">
+        <v>2.75</v>
+      </c>
+      <c r="U23">
         <v>1.8</v>
       </c>
-      <c r="T23">
-        <v>3</v>
-      </c>
-      <c r="U23">
-        <v>1.95</v>
-      </c>
       <c r="V23">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W23">
         <v>-1</v>
       </c>
       <c r="X23">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y23">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z23">
         <v>-1</v>
       </c>
       <c r="AA23">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AB23">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC23">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2706,7 +2706,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>7100543</v>
+        <v>7100545</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2721,16 +2721,16 @@
         <v>50</v>
       </c>
       <c r="G24" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I24">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J24" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K24">
         <v>1.909</v>
@@ -2742,52 +2742,52 @@
         <v>3.1</v>
       </c>
       <c r="N24">
-        <v>2.3</v>
+        <v>1.85</v>
       </c>
       <c r="O24">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P24">
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
       <c r="Q24">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R24">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S24">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T24">
         <v>2.75</v>
       </c>
       <c r="U24">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V24">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W24">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X24">
         <v>-1</v>
       </c>
       <c r="Y24">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z24">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA24">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB24">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC24">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -2795,7 +2795,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>7104130</v>
+        <v>7104106</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2810,16 +2810,16 @@
         <v>51</v>
       </c>
       <c r="G25" t="s">
-        <v>69</v>
+        <v>30</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I25">
         <v>2</v>
       </c>
       <c r="J25" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K25">
         <v>2.375</v>
@@ -2831,13 +2831,13 @@
         <v>2.375</v>
       </c>
       <c r="N25">
-        <v>2.625</v>
+        <v>2.6</v>
       </c>
       <c r="O25">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P25">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="Q25">
         <v>0.25</v>
@@ -2849,34 +2849,34 @@
         <v>1.975</v>
       </c>
       <c r="T25">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U25">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="V25">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W25">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="X25">
         <v>-1</v>
       </c>
       <c r="Y25">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z25">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA25">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB25">
-        <v>0.4</v>
+        <v>0.75</v>
       </c>
       <c r="AC25">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="26" spans="1:29">
@@ -2884,7 +2884,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>7104129</v>
+        <v>7104131</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2899,73 +2899,73 @@
         <v>52</v>
       </c>
       <c r="G26" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K26">
-        <v>1.533</v>
+        <v>2.25</v>
       </c>
       <c r="L26">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M26">
-        <v>4.75</v>
+        <v>2.6</v>
       </c>
       <c r="N26">
-        <v>1.45</v>
+        <v>1.833</v>
       </c>
       <c r="O26">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P26">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="Q26">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R26">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="S26">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T26">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U26">
+        <v>1.775</v>
+      </c>
+      <c r="V26">
         <v>1.925</v>
       </c>
-      <c r="V26">
-        <v>1.875</v>
-      </c>
       <c r="W26">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X26">
         <v>-1</v>
       </c>
       <c r="Y26">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z26">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA26">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB26">
         <v>-1</v>
       </c>
       <c r="AC26">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -2973,7 +2973,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>7104131</v>
+        <v>7104129</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2988,73 +2988,73 @@
         <v>53</v>
       </c>
       <c r="G27" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K27">
-        <v>2.25</v>
+        <v>1.533</v>
       </c>
       <c r="L27">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M27">
-        <v>2.6</v>
+        <v>4.75</v>
       </c>
       <c r="N27">
-        <v>1.833</v>
+        <v>1.45</v>
       </c>
       <c r="O27">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P27">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="Q27">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R27">
+        <v>1.75</v>
+      </c>
+      <c r="S27">
+        <v>1.95</v>
+      </c>
+      <c r="T27">
+        <v>3</v>
+      </c>
+      <c r="U27">
+        <v>1.925</v>
+      </c>
+      <c r="V27">
         <v>1.875</v>
       </c>
-      <c r="S27">
-        <v>1.925</v>
-      </c>
-      <c r="T27">
-        <v>2.5</v>
-      </c>
-      <c r="U27">
-        <v>1.775</v>
-      </c>
-      <c r="V27">
-        <v>1.925</v>
-      </c>
       <c r="W27">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X27">
         <v>-1</v>
       </c>
       <c r="Y27">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z27">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA27">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB27">
         <v>-1</v>
       </c>
       <c r="AC27">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -3062,7 +3062,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>7104106</v>
+        <v>7104130</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -3077,16 +3077,16 @@
         <v>54</v>
       </c>
       <c r="G28" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="H28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I28">
         <v>2</v>
       </c>
       <c r="J28" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K28">
         <v>2.375</v>
@@ -3098,13 +3098,13 @@
         <v>2.375</v>
       </c>
       <c r="N28">
-        <v>2.6</v>
+        <v>2.625</v>
       </c>
       <c r="O28">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P28">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="Q28">
         <v>0.25</v>
@@ -3116,34 +3116,34 @@
         <v>1.975</v>
       </c>
       <c r="T28">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U28">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="V28">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W28">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="X28">
         <v>-1</v>
       </c>
       <c r="Y28">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z28">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA28">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB28">
-        <v>0.75</v>
+        <v>0.4</v>
       </c>
       <c r="AC28">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -3240,7 +3240,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>7122522</v>
+        <v>7122508</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3252,76 +3252,76 @@
         <v>45164.45833333334</v>
       </c>
       <c r="F30" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>85</v>
       </c>
       <c r="H30">
         <v>1</v>
       </c>
       <c r="I30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J30" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K30">
-        <v>1.909</v>
+        <v>1.533</v>
       </c>
       <c r="L30">
-        <v>3.4</v>
+        <v>4.1</v>
       </c>
       <c r="M30">
-        <v>3.4</v>
+        <v>4.6</v>
       </c>
       <c r="N30">
         <v>2.25</v>
       </c>
       <c r="O30">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="P30">
-        <v>2.8</v>
+        <v>2.625</v>
       </c>
       <c r="Q30">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R30">
-        <v>2.025</v>
+        <v>1.725</v>
       </c>
       <c r="S30">
-        <v>1.775</v>
+        <v>2.075</v>
       </c>
       <c r="T30">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U30">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V30">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="W30">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X30">
         <v>-1</v>
       </c>
       <c r="Y30">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z30">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA30">
-        <v>-1</v>
+        <v>1.075</v>
       </c>
       <c r="AB30">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC30">
-        <v>0.7749999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3329,7 +3329,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>7122508</v>
+        <v>7122522</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3341,76 +3341,76 @@
         <v>45164.45833333334</v>
       </c>
       <c r="F31" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G31" t="s">
-        <v>85</v>
+        <v>42</v>
       </c>
       <c r="H31">
         <v>1</v>
       </c>
       <c r="I31">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J31" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K31">
-        <v>1.533</v>
+        <v>1.909</v>
       </c>
       <c r="L31">
-        <v>4.1</v>
+        <v>3.4</v>
       </c>
       <c r="M31">
-        <v>4.6</v>
+        <v>3.4</v>
       </c>
       <c r="N31">
         <v>2.25</v>
       </c>
       <c r="O31">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="P31">
-        <v>2.625</v>
+        <v>2.8</v>
       </c>
       <c r="Q31">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R31">
-        <v>1.725</v>
+        <v>2.025</v>
       </c>
       <c r="S31">
-        <v>2.075</v>
+        <v>1.775</v>
       </c>
       <c r="T31">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U31">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V31">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="W31">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X31">
         <v>-1</v>
       </c>
       <c r="Y31">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z31">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA31">
-        <v>1.075</v>
+        <v>-1</v>
       </c>
       <c r="AB31">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC31">
-        <v>-0</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -3418,7 +3418,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>7132468</v>
+        <v>7132469</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3430,73 +3430,73 @@
         <v>45166.45833333334</v>
       </c>
       <c r="F32" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="G32" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="H32">
+        <v>4</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32" t="s">
+        <v>89</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>3.6</v>
+      </c>
+      <c r="M32">
         <v>3</v>
       </c>
-      <c r="I32">
-        <v>3</v>
-      </c>
-      <c r="J32" t="s">
-        <v>90</v>
-      </c>
-      <c r="K32">
-        <v>2.25</v>
-      </c>
-      <c r="L32">
-        <v>3.75</v>
-      </c>
-      <c r="M32">
-        <v>2.5</v>
-      </c>
       <c r="N32">
-        <v>2.25</v>
+        <v>1.833</v>
       </c>
       <c r="O32">
         <v>3.75</v>
       </c>
       <c r="P32">
-        <v>2.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q32">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R32">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S32">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="T32">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U32">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V32">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W32">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X32">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y32">
         <v>-1</v>
       </c>
       <c r="Z32">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA32">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
       <c r="AB32">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AC32">
         <v>-1</v>
@@ -3507,7 +3507,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>7134273</v>
+        <v>7134272</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3519,76 +3519,76 @@
         <v>45166.45833333334</v>
       </c>
       <c r="F33" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="G33" t="s">
-        <v>34</v>
+        <v>69</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J33" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K33">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="L33">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M33">
-        <v>2.625</v>
+        <v>2.8</v>
       </c>
       <c r="N33">
-        <v>2.25</v>
+        <v>2.6</v>
       </c>
       <c r="O33">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P33">
-        <v>2.625</v>
+        <v>2.2</v>
       </c>
       <c r="Q33">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R33">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S33">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T33">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U33">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V33">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W33">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X33">
         <v>-1</v>
       </c>
       <c r="Y33">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z33">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA33">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB33">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AC33">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="34" spans="1:29">
@@ -3596,7 +3596,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>7134272</v>
+        <v>7134274</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -3608,56 +3608,56 @@
         <v>45166.45833333334</v>
       </c>
       <c r="F34" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="G34" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J34" t="s">
         <v>91</v>
       </c>
       <c r="K34">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L34">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M34">
         <v>2.8</v>
       </c>
       <c r="N34">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="O34">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P34">
-        <v>2.2</v>
+        <v>2.9</v>
       </c>
       <c r="Q34">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R34">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S34">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T34">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U34">
+        <v>1.875</v>
+      </c>
+      <c r="V34">
         <v>1.925</v>
       </c>
-      <c r="V34">
-        <v>1.875</v>
-      </c>
       <c r="W34">
         <v>-1</v>
       </c>
@@ -3665,19 +3665,19 @@
         <v>-1</v>
       </c>
       <c r="Y34">
-        <v>1.2</v>
+        <v>1.9</v>
       </c>
       <c r="Z34">
         <v>-1</v>
       </c>
       <c r="AA34">
-        <v>1.025</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB34">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AC34">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="35" spans="1:29">
@@ -3685,7 +3685,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>7134274</v>
+        <v>7134273</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -3697,76 +3697,76 @@
         <v>45166.45833333334</v>
       </c>
       <c r="F35" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G35" t="s">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="H35">
         <v>2</v>
       </c>
       <c r="I35">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J35" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K35">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="L35">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M35">
-        <v>2.8</v>
+        <v>2.625</v>
       </c>
       <c r="N35">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="O35">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P35">
-        <v>2.9</v>
+        <v>2.625</v>
       </c>
       <c r="Q35">
         <v>-0.25</v>
       </c>
       <c r="R35">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S35">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T35">
         <v>2.75</v>
       </c>
       <c r="U35">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V35">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W35">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X35">
         <v>-1</v>
       </c>
       <c r="Y35">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z35">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA35">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB35">
-        <v>0.875</v>
+        <v>0.4</v>
       </c>
       <c r="AC35">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="36" spans="1:29">
@@ -3774,7 +3774,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>7132469</v>
+        <v>7132468</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3786,73 +3786,73 @@
         <v>45166.45833333334</v>
       </c>
       <c r="F36" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="G36" t="s">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="H36">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I36">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J36" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K36">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="L36">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M36">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="N36">
-        <v>1.833</v>
+        <v>2.25</v>
       </c>
       <c r="O36">
         <v>3.75</v>
       </c>
       <c r="P36">
-        <v>3.4</v>
+        <v>2.5</v>
       </c>
       <c r="Q36">
+        <v>-0.25</v>
+      </c>
+      <c r="R36">
+        <v>2.05</v>
+      </c>
+      <c r="S36">
+        <v>1.75</v>
+      </c>
+      <c r="T36">
+        <v>2.75</v>
+      </c>
+      <c r="U36">
+        <v>1.9</v>
+      </c>
+      <c r="V36">
+        <v>1.9</v>
+      </c>
+      <c r="W36">
+        <v>-1</v>
+      </c>
+      <c r="X36">
+        <v>2.75</v>
+      </c>
+      <c r="Y36">
+        <v>-1</v>
+      </c>
+      <c r="Z36">
         <v>-0.5</v>
       </c>
-      <c r="R36">
-        <v>1.9</v>
-      </c>
-      <c r="S36">
-        <v>1.9</v>
-      </c>
-      <c r="T36">
-        <v>3</v>
-      </c>
-      <c r="U36">
-        <v>1.875</v>
-      </c>
-      <c r="V36">
-        <v>1.925</v>
-      </c>
-      <c r="W36">
-        <v>0.833</v>
-      </c>
-      <c r="X36">
-        <v>-1</v>
-      </c>
-      <c r="Y36">
-        <v>-1</v>
-      </c>
-      <c r="Z36">
+      <c r="AA36">
+        <v>0.375</v>
+      </c>
+      <c r="AB36">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AA36">
-        <v>-1</v>
-      </c>
-      <c r="AB36">
-        <v>0.875</v>
       </c>
       <c r="AC36">
         <v>-1</v>
@@ -3878,7 +3878,7 @@
         <v>31</v>
       </c>
       <c r="G37" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H37">
         <v>3</v>
@@ -3967,7 +3967,7 @@
         <v>57</v>
       </c>
       <c r="G38" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="H38">
         <v>3</v>
@@ -4231,7 +4231,7 @@
         <v>45182.65625</v>
       </c>
       <c r="F41" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G41" t="s">
         <v>80</v>
@@ -4323,7 +4323,7 @@
         <v>30</v>
       </c>
       <c r="G42" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="H42">
         <v>0</v>
@@ -4397,7 +4397,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>7258501</v>
+        <v>7261755</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4412,58 +4412,58 @@
         <v>60</v>
       </c>
       <c r="G43" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H43">
         <v>2</v>
       </c>
       <c r="I43">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J43" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K43">
-        <v>2.3</v>
+        <v>1.533</v>
       </c>
       <c r="L43">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M43">
-        <v>2.55</v>
+        <v>4.75</v>
       </c>
       <c r="N43">
-        <v>2.3</v>
+        <v>1.533</v>
       </c>
       <c r="O43">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P43">
-        <v>2.6</v>
+        <v>4.75</v>
       </c>
       <c r="Q43">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R43">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S43">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T43">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U43">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V43">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W43">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X43">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y43">
         <v>-1</v>
@@ -4475,10 +4475,10 @@
         <v>-0</v>
       </c>
       <c r="AB43">
-        <v>1</v>
+        <v>0.4625</v>
       </c>
       <c r="AC43">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="44" spans="1:29">
@@ -4486,7 +4486,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>7261755</v>
+        <v>7258501</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4501,58 +4501,58 @@
         <v>61</v>
       </c>
       <c r="G44" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H44">
         <v>2</v>
       </c>
       <c r="I44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J44" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K44">
-        <v>1.533</v>
+        <v>2.3</v>
       </c>
       <c r="L44">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M44">
-        <v>4.75</v>
+        <v>2.55</v>
       </c>
       <c r="N44">
-        <v>1.533</v>
+        <v>2.3</v>
       </c>
       <c r="O44">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P44">
-        <v>4.75</v>
+        <v>2.6</v>
       </c>
       <c r="Q44">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R44">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S44">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T44">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U44">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V44">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W44">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X44">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y44">
         <v>-1</v>
@@ -4564,10 +4564,10 @@
         <v>-0</v>
       </c>
       <c r="AB44">
-        <v>0.4625</v>
+        <v>1</v>
       </c>
       <c r="AC44">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="45" spans="1:29">
@@ -4587,10 +4587,10 @@
         <v>45195.65625</v>
       </c>
       <c r="F45" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G45" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="H45">
         <v>5</v>
@@ -4676,10 +4676,10 @@
         <v>45196.65625</v>
       </c>
       <c r="F46" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G46" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="H46">
         <v>4</v>
@@ -4753,7 +4753,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>7287633</v>
+        <v>7287701</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4768,73 +4768,73 @@
         <v>62</v>
       </c>
       <c r="G47" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I47">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J47" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K47">
-        <v>2.55</v>
+        <v>3</v>
       </c>
       <c r="L47">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M47">
-        <v>2.45</v>
+        <v>2.1</v>
       </c>
       <c r="N47">
-        <v>2.55</v>
+        <v>3</v>
       </c>
       <c r="O47">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P47">
-        <v>2.45</v>
+        <v>2.1</v>
       </c>
       <c r="Q47">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R47">
+        <v>1.9</v>
+      </c>
+      <c r="S47">
+        <v>1.9</v>
+      </c>
+      <c r="T47">
+        <v>2.25</v>
+      </c>
+      <c r="U47">
+        <v>1.85</v>
+      </c>
+      <c r="V47">
         <v>1.95</v>
       </c>
-      <c r="S47">
-        <v>1.85</v>
-      </c>
-      <c r="T47">
-        <v>2.75</v>
-      </c>
-      <c r="U47">
-        <v>1.95</v>
-      </c>
-      <c r="V47">
-        <v>1.85</v>
-      </c>
       <c r="W47">
         <v>-1</v>
       </c>
       <c r="X47">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y47">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z47">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA47">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB47">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC47">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="48" spans="1:29">
@@ -4857,7 +4857,7 @@
         <v>56</v>
       </c>
       <c r="G48" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H48">
         <v>0</v>
@@ -4946,7 +4946,7 @@
         <v>63</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="H49">
         <v>0</v>
@@ -5020,7 +5020,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>7287701</v>
+        <v>7287633</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -5035,73 +5035,73 @@
         <v>64</v>
       </c>
       <c r="G50" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="H50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J50" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K50">
-        <v>3</v>
+        <v>2.55</v>
       </c>
       <c r="L50">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M50">
-        <v>2.1</v>
+        <v>2.45</v>
       </c>
       <c r="N50">
-        <v>3</v>
+        <v>2.55</v>
       </c>
       <c r="O50">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="P50">
-        <v>2.1</v>
+        <v>2.45</v>
       </c>
       <c r="Q50">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R50">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S50">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T50">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U50">
+        <v>1.95</v>
+      </c>
+      <c r="V50">
         <v>1.85</v>
       </c>
-      <c r="V50">
-        <v>1.95</v>
-      </c>
       <c r="W50">
         <v>-1</v>
       </c>
       <c r="X50">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y50">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z50">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA50">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB50">
+        <v>-1</v>
+      </c>
+      <c r="AC50">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AC50">
-        <v>-1</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -5121,10 +5121,10 @@
         <v>45203.65625</v>
       </c>
       <c r="F51" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G51" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H51">
         <v>1</v>
@@ -5302,7 +5302,7 @@
         <v>55</v>
       </c>
       <c r="G53" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H53">
         <v>1</v>
@@ -5376,7 +5376,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>7319608</v>
+        <v>7319624</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5391,7 +5391,7 @@
         <v>66</v>
       </c>
       <c r="G54" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H54">
         <v>3</v>
@@ -5403,31 +5403,31 @@
         <v>89</v>
       </c>
       <c r="K54">
-        <v>1.95</v>
+        <v>2.4</v>
       </c>
       <c r="L54">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="M54">
-        <v>2.75</v>
+        <v>2.4</v>
       </c>
       <c r="N54">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="O54">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P54">
-        <v>2.75</v>
+        <v>2.4</v>
       </c>
       <c r="Q54">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R54">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S54">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T54">
         <v>2.75</v>
@@ -5439,7 +5439,7 @@
         <v>1.9</v>
       </c>
       <c r="W54">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="X54">
         <v>-1</v>
@@ -5448,7 +5448,7 @@
         <v>-1</v>
       </c>
       <c r="Z54">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA54">
         <v>-1</v>
@@ -5465,7 +5465,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>7319621</v>
+        <v>7319608</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5480,55 +5480,55 @@
         <v>67</v>
       </c>
       <c r="G55" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="H55">
         <v>3</v>
       </c>
       <c r="I55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J55" t="s">
         <v>89</v>
       </c>
       <c r="K55">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="L55">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="M55">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="N55">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="O55">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P55">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="Q55">
         <v>-0.25</v>
       </c>
       <c r="R55">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S55">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T55">
         <v>2.75</v>
       </c>
       <c r="U55">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V55">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W55">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="X55">
         <v>-1</v>
@@ -5537,16 +5537,16 @@
         <v>-1</v>
       </c>
       <c r="Z55">
+        <v>0.825</v>
+      </c>
+      <c r="AA55">
+        <v>-1</v>
+      </c>
+      <c r="AB55">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AA55">
-        <v>-1</v>
-      </c>
-      <c r="AB55">
-        <v>0.4</v>
-      </c>
       <c r="AC55">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="56" spans="1:29">
@@ -5554,7 +5554,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>7319624</v>
+        <v>7319621</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5569,37 +5569,37 @@
         <v>68</v>
       </c>
       <c r="G56" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H56">
         <v>3</v>
       </c>
       <c r="I56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J56" t="s">
         <v>89</v>
       </c>
       <c r="K56">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="L56">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="M56">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="N56">
-        <v>2.4</v>
+        <v>2.05</v>
       </c>
       <c r="O56">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P56">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="Q56">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R56">
         <v>1.9</v>
@@ -5611,13 +5611,13 @@
         <v>2.75</v>
       </c>
       <c r="U56">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V56">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W56">
-        <v>1.4</v>
+        <v>1.05</v>
       </c>
       <c r="X56">
         <v>-1</v>
@@ -5632,10 +5632,10 @@
         <v>-1</v>
       </c>
       <c r="AB56">
-        <v>0.8999999999999999</v>
+        <v>0.4</v>
       </c>
       <c r="AC56">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="57" spans="1:29">
@@ -5643,7 +5643,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>7338188</v>
+        <v>7338187</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5655,76 +5655,76 @@
         <v>45213.45833333334</v>
       </c>
       <c r="F57" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="G57" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="H57">
         <v>2</v>
       </c>
       <c r="I57">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J57" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K57">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="L57">
+        <v>5</v>
+      </c>
+      <c r="M57">
         <v>4</v>
       </c>
-      <c r="M57">
-        <v>2.6</v>
-      </c>
       <c r="N57">
-        <v>1.833</v>
+        <v>1.5</v>
       </c>
       <c r="O57">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="P57">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="Q57">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R57">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S57">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T57">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U57">
+        <v>1.975</v>
+      </c>
+      <c r="V57">
         <v>1.825</v>
       </c>
-      <c r="V57">
-        <v>1.975</v>
-      </c>
       <c r="W57">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X57">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y57">
         <v>-1</v>
       </c>
       <c r="Z57">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA57">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB57">
+        <v>-1</v>
+      </c>
+      <c r="AC57">
         <v>0.825</v>
-      </c>
-      <c r="AC57">
-        <v>-1</v>
       </c>
     </row>
     <row r="58" spans="1:29">
@@ -5732,7 +5732,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>7338187</v>
+        <v>7338189</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5744,40 +5744,40 @@
         <v>45213.45833333334</v>
       </c>
       <c r="F58" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G58" t="s">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I58">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J58" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K58">
-        <v>1.5</v>
+        <v>2.7</v>
       </c>
       <c r="L58">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="M58">
-        <v>4</v>
+        <v>2.1</v>
       </c>
       <c r="N58">
-        <v>1.5</v>
+        <v>2.55</v>
       </c>
       <c r="O58">
-        <v>5</v>
+        <v>3.8</v>
       </c>
       <c r="P58">
-        <v>4</v>
+        <v>2.15</v>
       </c>
       <c r="Q58">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R58">
         <v>1.8</v>
@@ -5786,34 +5786,34 @@
         <v>2</v>
       </c>
       <c r="T58">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U58">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V58">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W58">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X58">
         <v>-1</v>
       </c>
       <c r="Y58">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z58">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA58">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB58">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC58">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="59" spans="1:29">
@@ -5821,7 +5821,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>7338189</v>
+        <v>7338188</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5833,76 +5833,76 @@
         <v>45213.45833333334</v>
       </c>
       <c r="F59" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="G59" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="H59">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I59">
         <v>2</v>
       </c>
       <c r="J59" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K59">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="L59">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M59">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="N59">
-        <v>2.55</v>
+        <v>1.833</v>
       </c>
       <c r="O59">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="P59">
-        <v>2.15</v>
+        <v>3.1</v>
       </c>
       <c r="Q59">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R59">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S59">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T59">
         <v>3</v>
       </c>
       <c r="U59">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V59">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W59">
         <v>-1</v>
       </c>
       <c r="X59">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y59">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z59">
         <v>-1</v>
       </c>
       <c r="AA59">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AB59">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AC59">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="60" spans="1:29">
@@ -5999,7 +5999,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>7350910</v>
+        <v>7350921</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -6011,76 +6011,76 @@
         <v>45216.65625</v>
       </c>
       <c r="F61" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="G61" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J61" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K61">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="L61">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M61">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="N61">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="O61">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P61">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="Q61">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R61">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S61">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T61">
         <v>2.75</v>
       </c>
       <c r="U61">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V61">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W61">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X61">
         <v>-1</v>
       </c>
       <c r="Y61">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z61">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA61">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB61">
         <v>-1</v>
       </c>
       <c r="AC61">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="62" spans="1:29">
@@ -6103,7 +6103,7 @@
         <v>69</v>
       </c>
       <c r="G62" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H62">
         <v>2</v>
@@ -6177,7 +6177,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>7350921</v>
+        <v>7350910</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6189,76 +6189,76 @@
         <v>45216.65625</v>
       </c>
       <c r="F63" t="s">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="G63" t="s">
         <v>68</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J63" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K63">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="L63">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M63">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="N63">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="O63">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P63">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="Q63">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R63">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S63">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T63">
         <v>2.75</v>
       </c>
       <c r="U63">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V63">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W63">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X63">
         <v>-1</v>
       </c>
       <c r="Y63">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z63">
+        <v>-1</v>
+      </c>
+      <c r="AA63">
+        <v>0.8</v>
+      </c>
+      <c r="AB63">
+        <v>-1</v>
+      </c>
+      <c r="AC63">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AA63">
-        <v>-1</v>
-      </c>
-      <c r="AB63">
-        <v>-1</v>
-      </c>
-      <c r="AC63">
-        <v>0.925</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -6278,10 +6278,10 @@
         <v>45220.45833333334</v>
       </c>
       <c r="F64" t="s">
+        <v>51</v>
+      </c>
+      <c r="G64" t="s">
         <v>54</v>
-      </c>
-      <c r="G64" t="s">
-        <v>51</v>
       </c>
       <c r="H64">
         <v>1</v>
@@ -6459,7 +6459,7 @@
         <v>71</v>
       </c>
       <c r="G66" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="H66">
         <v>1</v>
@@ -6545,7 +6545,7 @@
         <v>45227.45833333334</v>
       </c>
       <c r="F67" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G67" t="s">
         <v>82</v>
@@ -6726,7 +6726,7 @@
         <v>32</v>
       </c>
       <c r="G69" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H69">
         <v>0</v>
@@ -6815,7 +6815,7 @@
         <v>72</v>
       </c>
       <c r="G70" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H70">
         <v>2</v>
@@ -6990,10 +6990,10 @@
         <v>45237.69791666666</v>
       </c>
       <c r="F72" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G72" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H72">
         <v>1</v>
@@ -7079,7 +7079,7 @@
         <v>45237.69791666666</v>
       </c>
       <c r="F73" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G73" t="s">
         <v>71</v>
@@ -7168,7 +7168,7 @@
         <v>45237.69791666666</v>
       </c>
       <c r="F74" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G74" t="s">
         <v>80</v>
@@ -7245,7 +7245,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>7440454</v>
+        <v>7440452</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7257,70 +7257,70 @@
         <v>45237.69791666666</v>
       </c>
       <c r="F75" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="G75" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J75" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K75">
-        <v>1.85</v>
+        <v>2.5</v>
       </c>
       <c r="L75">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="M75">
-        <v>3.1</v>
+        <v>2.2</v>
       </c>
       <c r="N75">
-        <v>1.85</v>
+        <v>2.8</v>
       </c>
       <c r="O75">
         <v>4</v>
       </c>
       <c r="P75">
-        <v>3.1</v>
+        <v>1.95</v>
       </c>
       <c r="Q75">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R75">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S75">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T75">
         <v>3</v>
       </c>
       <c r="U75">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V75">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W75">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X75">
         <v>-1</v>
       </c>
       <c r="Y75">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z75">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA75">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB75">
         <v>0</v>
@@ -7334,7 +7334,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>7440452</v>
+        <v>7440454</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7346,70 +7346,70 @@
         <v>45237.69791666666</v>
       </c>
       <c r="F76" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="G76" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J76" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K76">
-        <v>2.5</v>
+        <v>1.85</v>
       </c>
       <c r="L76">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="M76">
-        <v>2.2</v>
+        <v>3.1</v>
       </c>
       <c r="N76">
-        <v>2.8</v>
+        <v>1.85</v>
       </c>
       <c r="O76">
         <v>4</v>
       </c>
       <c r="P76">
-        <v>1.95</v>
+        <v>3.1</v>
       </c>
       <c r="Q76">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R76">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S76">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T76">
         <v>3</v>
       </c>
       <c r="U76">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V76">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W76">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X76">
         <v>-1</v>
       </c>
       <c r="Y76">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z76">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA76">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB76">
         <v>0</v>
@@ -7438,7 +7438,7 @@
         <v>59</v>
       </c>
       <c r="G77" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H77">
         <v>0</v>
@@ -7512,7 +7512,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>7476390</v>
+        <v>7473235</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7524,10 +7524,10 @@
         <v>45244.69791666666</v>
       </c>
       <c r="F78" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="G78" t="s">
-        <v>84</v>
+        <v>47</v>
       </c>
       <c r="H78">
         <v>4</v>
@@ -7539,43 +7539,43 @@
         <v>89</v>
       </c>
       <c r="K78">
-        <v>2</v>
+        <v>1.727</v>
       </c>
       <c r="L78">
+        <v>3.75</v>
+      </c>
+      <c r="M78">
+        <v>3.75</v>
+      </c>
+      <c r="N78">
+        <v>1.75</v>
+      </c>
+      <c r="O78">
+        <v>3.75</v>
+      </c>
+      <c r="P78">
         <v>3.6</v>
       </c>
-      <c r="M78">
-        <v>3</v>
-      </c>
-      <c r="N78">
-        <v>2</v>
-      </c>
-      <c r="O78">
-        <v>3.6</v>
-      </c>
-      <c r="P78">
-        <v>3</v>
-      </c>
       <c r="Q78">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R78">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S78">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T78">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U78">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V78">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W78">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="X78">
         <v>-1</v>
@@ -7584,13 +7584,13 @@
         <v>-1</v>
       </c>
       <c r="Z78">
-        <v>0.8</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA78">
         <v>-1</v>
       </c>
       <c r="AB78">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC78">
         <v>-1</v>
@@ -7613,10 +7613,10 @@
         <v>45244.69791666666</v>
       </c>
       <c r="F79" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G79" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H79">
         <v>5</v>
@@ -7690,7 +7690,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>7473235</v>
+        <v>7476390</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7702,10 +7702,10 @@
         <v>45244.69791666666</v>
       </c>
       <c r="F80" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="G80" t="s">
-        <v>42</v>
+        <v>84</v>
       </c>
       <c r="H80">
         <v>4</v>
@@ -7717,43 +7717,43 @@
         <v>89</v>
       </c>
       <c r="K80">
-        <v>1.727</v>
+        <v>2</v>
       </c>
       <c r="L80">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M80">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="N80">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="O80">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P80">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="Q80">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R80">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S80">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T80">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U80">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V80">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W80">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="X80">
         <v>-1</v>
@@ -7762,13 +7762,13 @@
         <v>-1</v>
       </c>
       <c r="Z80">
-        <v>0.7749999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AA80">
         <v>-1</v>
       </c>
       <c r="AB80">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AC80">
         <v>-1</v>
@@ -7880,10 +7880,10 @@
         <v>45252.69791666666</v>
       </c>
       <c r="F82" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G82" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H82">
         <v>2</v>
@@ -7969,10 +7969,10 @@
         <v>45258.69791666666</v>
       </c>
       <c r="F83" t="s">
+        <v>40</v>
+      </c>
+      <c r="G83" t="s">
         <v>38</v>
-      </c>
-      <c r="G83" t="s">
-        <v>44</v>
       </c>
       <c r="H83">
         <v>2</v>
@@ -8150,7 +8150,7 @@
         <v>69</v>
       </c>
       <c r="G85" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H85">
         <v>1</v>
@@ -8325,10 +8325,10 @@
         <v>45269.5</v>
       </c>
       <c r="F87" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="G87" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H87">
         <v>0</v>
@@ -8491,7 +8491,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>7581047</v>
+        <v>7581048</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8503,76 +8503,76 @@
         <v>45272.69791666666</v>
       </c>
       <c r="F89" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="G89" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="H89">
         <v>0</v>
       </c>
       <c r="I89">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J89" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K89">
-        <v>6</v>
+        <v>2.25</v>
       </c>
       <c r="L89">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="M89">
-        <v>1.333</v>
+        <v>2.5</v>
       </c>
       <c r="N89">
-        <v>5</v>
+        <v>2.2</v>
       </c>
       <c r="O89">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="P89">
-        <v>1.45</v>
+        <v>2.5</v>
       </c>
       <c r="Q89">
-        <v>1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R89">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S89">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T89">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U89">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="V89">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="W89">
         <v>-1</v>
       </c>
       <c r="X89">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y89">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z89">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA89">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB89">
         <v>-1</v>
       </c>
       <c r="AC89">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8580,7 +8580,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>7581048</v>
+        <v>7581047</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8592,76 +8592,76 @@
         <v>45272.69791666666</v>
       </c>
       <c r="F90" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="G90" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="H90">
         <v>0</v>
       </c>
       <c r="I90">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J90" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K90">
-        <v>2.25</v>
+        <v>6</v>
       </c>
       <c r="L90">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="M90">
-        <v>2.5</v>
+        <v>1.333</v>
       </c>
       <c r="N90">
-        <v>2.2</v>
+        <v>5</v>
       </c>
       <c r="O90">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="P90">
-        <v>2.5</v>
+        <v>1.45</v>
       </c>
       <c r="Q90">
-        <v>-0.25</v>
+        <v>1.25</v>
       </c>
       <c r="R90">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S90">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T90">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U90">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="V90">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="W90">
         <v>-1</v>
       </c>
       <c r="X90">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y90">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z90">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA90">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB90">
         <v>-1</v>
       </c>
       <c r="AC90">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8681,7 +8681,7 @@
         <v>45275.69791666666</v>
       </c>
       <c r="F91" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G91" t="s">
         <v>83</v>
@@ -8859,7 +8859,7 @@
         <v>45282.69791666666</v>
       </c>
       <c r="F93" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G93" t="s">
         <v>29</v>
@@ -8948,10 +8948,10 @@
         <v>45283.5</v>
       </c>
       <c r="F94" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G94" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H94">
         <v>0</v>
@@ -9037,10 +9037,10 @@
         <v>45283.5</v>
       </c>
       <c r="F95" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G95" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H95">
         <v>1</v>
@@ -9126,10 +9126,10 @@
         <v>45286.41666666666</v>
       </c>
       <c r="F96" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G96" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H96">
         <v>1</v>
@@ -9215,7 +9215,7 @@
         <v>45286.41666666666</v>
       </c>
       <c r="F97" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G97" t="s">
         <v>32</v>
@@ -9304,10 +9304,10 @@
         <v>45287.69791666666</v>
       </c>
       <c r="F98" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G98" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H98">
         <v>1</v>
@@ -9396,7 +9396,7 @@
         <v>69</v>
       </c>
       <c r="G99" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="H99">
         <v>1</v>
@@ -9485,7 +9485,7 @@
         <v>70</v>
       </c>
       <c r="G100" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="H100">
         <v>2</v>
@@ -9559,7 +9559,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>7639918</v>
+        <v>7639915</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9571,49 +9571,49 @@
         <v>45290.5</v>
       </c>
       <c r="F101" t="s">
-        <v>32</v>
+        <v>73</v>
       </c>
       <c r="G101" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J101" t="s">
         <v>89</v>
       </c>
       <c r="K101">
-        <v>2.5</v>
+        <v>1.3</v>
       </c>
       <c r="L101">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="M101">
-        <v>2.35</v>
+        <v>7</v>
       </c>
       <c r="N101">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="O101">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="P101">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="Q101">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R101">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S101">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T101">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U101">
         <v>1.95</v>
@@ -9622,7 +9622,7 @@
         <v>1.85</v>
       </c>
       <c r="W101">
-        <v>1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X101">
         <v>-1</v>
@@ -9631,16 +9631,16 @@
         <v>-1</v>
       </c>
       <c r="Z101">
-        <v>0.8</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA101">
         <v>-1</v>
       </c>
       <c r="AB101">
-        <v>0.475</v>
+        <v>0.95</v>
       </c>
       <c r="AC101">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9660,10 +9660,10 @@
         <v>45290.5</v>
       </c>
       <c r="F102" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G102" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H102">
         <v>1</v>
@@ -9737,7 +9737,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>7639915</v>
+        <v>7639918</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9749,49 +9749,49 @@
         <v>45290.5</v>
       </c>
       <c r="F103" t="s">
-        <v>74</v>
+        <v>32</v>
       </c>
       <c r="G103" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="H103">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J103" t="s">
         <v>89</v>
       </c>
       <c r="K103">
-        <v>1.3</v>
+        <v>2.5</v>
       </c>
       <c r="L103">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="M103">
-        <v>7</v>
+        <v>2.35</v>
       </c>
       <c r="N103">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="O103">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="P103">
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="Q103">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R103">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S103">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T103">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U103">
         <v>1.95</v>
@@ -9800,7 +9800,7 @@
         <v>1.85</v>
       </c>
       <c r="W103">
-        <v>0.3999999999999999</v>
+        <v>1</v>
       </c>
       <c r="X103">
         <v>-1</v>
@@ -9809,16 +9809,16 @@
         <v>-1</v>
       </c>
       <c r="Z103">
-        <v>0.7749999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AA103">
         <v>-1</v>
       </c>
       <c r="AB103">
-        <v>0.95</v>
+        <v>0.475</v>
       </c>
       <c r="AC103">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9838,10 +9838,10 @@
         <v>45292.375</v>
       </c>
       <c r="F104" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G104" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H104">
         <v>3</v>
@@ -9915,7 +9915,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>7649124</v>
+        <v>7649184</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9927,58 +9927,58 @@
         <v>45292.5</v>
       </c>
       <c r="F105" t="s">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="G105" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="H105">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I105">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J105" t="s">
         <v>89</v>
       </c>
       <c r="K105">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="L105">
         <v>3.75</v>
       </c>
       <c r="M105">
-        <v>2.25</v>
+        <v>3.4</v>
       </c>
       <c r="N105">
-        <v>2.55</v>
+        <v>1.7</v>
       </c>
       <c r="O105">
+        <v>3.8</v>
+      </c>
+      <c r="P105">
         <v>3.75</v>
       </c>
-      <c r="P105">
-        <v>2.25</v>
-      </c>
       <c r="Q105">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R105">
-        <v>1.725</v>
+        <v>1.95</v>
       </c>
       <c r="S105">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T105">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U105">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="V105">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W105">
-        <v>1.55</v>
+        <v>0.7</v>
       </c>
       <c r="X105">
         <v>-1</v>
@@ -9987,16 +9987,16 @@
         <v>-1</v>
       </c>
       <c r="Z105">
-        <v>0.7250000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AA105">
         <v>-1</v>
       </c>
       <c r="AB105">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC105">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -10004,7 +10004,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>7649184</v>
+        <v>7649295</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -10016,76 +10016,76 @@
         <v>45292.5</v>
       </c>
       <c r="F106" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G106" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I106">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J106" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K106">
-        <v>1.8</v>
+        <v>1.909</v>
       </c>
       <c r="L106">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M106">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="N106">
-        <v>1.7</v>
+        <v>1.909</v>
       </c>
       <c r="O106">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P106">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="Q106">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R106">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S106">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T106">
         <v>2.75</v>
       </c>
       <c r="U106">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="V106">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W106">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X106">
         <v>-1</v>
       </c>
       <c r="Y106">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z106">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA106">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB106">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AC106">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="107" spans="1:29">
@@ -10093,7 +10093,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>7649195</v>
+        <v>7649124</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -10105,76 +10105,76 @@
         <v>45292.5</v>
       </c>
       <c r="F107" t="s">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="G107" t="s">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I107">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J107" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K107">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="L107">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M107">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="N107">
-        <v>2.4</v>
+        <v>2.55</v>
       </c>
       <c r="O107">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P107">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="Q107">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R107">
-        <v>1.9</v>
+        <v>1.725</v>
       </c>
       <c r="S107">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T107">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U107">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V107">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W107">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X107">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y107">
         <v>-1</v>
       </c>
       <c r="Z107">
-        <v>0</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA107">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB107">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC107">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="108" spans="1:29">
@@ -10182,7 +10182,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>7649294</v>
+        <v>7649195</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10194,76 +10194,76 @@
         <v>45292.5</v>
       </c>
       <c r="F108" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G108" t="s">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J108" t="s">
         <v>90</v>
       </c>
       <c r="K108">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="L108">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M108">
-        <v>2.55</v>
+        <v>2.4</v>
       </c>
       <c r="N108">
-        <v>1.65</v>
+        <v>2.4</v>
       </c>
       <c r="O108">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P108">
-        <v>3.8</v>
+        <v>2.4</v>
       </c>
       <c r="Q108">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R108">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S108">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T108">
         <v>2.75</v>
       </c>
       <c r="U108">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="V108">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W108">
         <v>-1</v>
       </c>
       <c r="X108">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="Y108">
         <v>-1</v>
       </c>
       <c r="Z108">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA108">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
       <c r="AB108">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC108">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10271,7 +10271,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>7649295</v>
+        <v>7649294</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10283,76 +10283,76 @@
         <v>45292.5</v>
       </c>
       <c r="F109" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="G109" t="s">
-        <v>86</v>
+        <v>36</v>
       </c>
       <c r="H109">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I109">
         <v>2</v>
       </c>
       <c r="J109" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K109">
-        <v>1.909</v>
+        <v>2.25</v>
       </c>
       <c r="L109">
         <v>3.6</v>
       </c>
       <c r="M109">
-        <v>3.2</v>
+        <v>2.55</v>
       </c>
       <c r="N109">
-        <v>1.909</v>
+        <v>1.65</v>
       </c>
       <c r="O109">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P109">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="Q109">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R109">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S109">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T109">
         <v>2.75</v>
       </c>
       <c r="U109">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="V109">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W109">
         <v>-1</v>
       </c>
       <c r="X109">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y109">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z109">
         <v>-1</v>
       </c>
       <c r="AA109">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AB109">
-        <v>0.4125</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC109">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="110" spans="1:29">
@@ -10375,7 +10375,7 @@
         <v>77</v>
       </c>
       <c r="G110" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H110">
         <v>0</v>
@@ -10461,7 +10461,7 @@
         <v>45297.5</v>
       </c>
       <c r="F111" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G111" t="s">
         <v>59</v>
@@ -10550,7 +10550,7 @@
         <v>45298.5</v>
       </c>
       <c r="F112" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G112" t="s">
         <v>31</v>
@@ -10639,7 +10639,7 @@
         <v>45300.69791666666</v>
       </c>
       <c r="F113" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G113" t="s">
         <v>83</v>
@@ -10716,7 +10716,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>7675037</v>
+        <v>7674710</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10728,10 +10728,10 @@
         <v>45300.69791666666</v>
       </c>
       <c r="F114" t="s">
-        <v>57</v>
+        <v>78</v>
       </c>
       <c r="G114" t="s">
-        <v>84</v>
+        <v>39</v>
       </c>
       <c r="H114">
         <v>1</v>
@@ -10743,43 +10743,43 @@
         <v>89</v>
       </c>
       <c r="K114">
-        <v>2.25</v>
+        <v>1.2</v>
       </c>
       <c r="L114">
-        <v>3.5</v>
+        <v>6.5</v>
       </c>
       <c r="M114">
-        <v>2.6</v>
+        <v>8</v>
       </c>
       <c r="N114">
-        <v>2.375</v>
+        <v>1.181</v>
       </c>
       <c r="O114">
-        <v>3.5</v>
+        <v>6.5</v>
       </c>
       <c r="P114">
-        <v>2.45</v>
+        <v>10</v>
       </c>
       <c r="Q114">
-        <v>0</v>
+        <v>-2.25</v>
       </c>
       <c r="R114">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S114">
+        <v>1.85</v>
+      </c>
+      <c r="T114">
+        <v>3.75</v>
+      </c>
+      <c r="U114">
         <v>1.925</v>
       </c>
-      <c r="T114">
-        <v>2.75</v>
-      </c>
-      <c r="U114">
-        <v>1.75</v>
-      </c>
       <c r="V114">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="W114">
-        <v>1.375</v>
+        <v>0.181</v>
       </c>
       <c r="X114">
         <v>-1</v>
@@ -10788,16 +10788,16 @@
         <v>-1</v>
       </c>
       <c r="Z114">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA114">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB114">
         <v>-1</v>
       </c>
       <c r="AC114">
-        <v>0.95</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="115" spans="1:29">
@@ -10805,7 +10805,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>7674710</v>
+        <v>7675037</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10817,10 +10817,10 @@
         <v>45300.69791666666</v>
       </c>
       <c r="F115" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="G115" t="s">
-        <v>49</v>
+        <v>84</v>
       </c>
       <c r="H115">
         <v>1</v>
@@ -10832,43 +10832,43 @@
         <v>89</v>
       </c>
       <c r="K115">
-        <v>1.2</v>
+        <v>2.25</v>
       </c>
       <c r="L115">
-        <v>6.5</v>
+        <v>3.5</v>
       </c>
       <c r="M115">
-        <v>8</v>
+        <v>2.6</v>
       </c>
       <c r="N115">
-        <v>1.181</v>
+        <v>2.375</v>
       </c>
       <c r="O115">
-        <v>6.5</v>
+        <v>3.5</v>
       </c>
       <c r="P115">
-        <v>10</v>
+        <v>2.45</v>
       </c>
       <c r="Q115">
-        <v>-2.25</v>
+        <v>0</v>
       </c>
       <c r="R115">
+        <v>1.875</v>
+      </c>
+      <c r="S115">
+        <v>1.925</v>
+      </c>
+      <c r="T115">
+        <v>2.75</v>
+      </c>
+      <c r="U115">
+        <v>1.75</v>
+      </c>
+      <c r="V115">
         <v>1.95</v>
       </c>
-      <c r="S115">
-        <v>1.85</v>
-      </c>
-      <c r="T115">
-        <v>3.75</v>
-      </c>
-      <c r="U115">
-        <v>1.925</v>
-      </c>
-      <c r="V115">
-        <v>1.775</v>
-      </c>
       <c r="W115">
-        <v>0.181</v>
+        <v>1.375</v>
       </c>
       <c r="X115">
         <v>-1</v>
@@ -10877,16 +10877,16 @@
         <v>-1</v>
       </c>
       <c r="Z115">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA115">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB115">
         <v>-1</v>
       </c>
       <c r="AC115">
-        <v>0.7749999999999999</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="116" spans="1:29">
@@ -10894,7 +10894,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>7674973</v>
+        <v>7674983</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10906,46 +10906,46 @@
         <v>45300.69791666666</v>
       </c>
       <c r="F116" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G116" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="H116">
         <v>0</v>
       </c>
       <c r="I116">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J116" t="s">
         <v>91</v>
       </c>
       <c r="K116">
+        <v>1.5</v>
+      </c>
+      <c r="L116">
+        <v>4</v>
+      </c>
+      <c r="M116">
+        <v>5</v>
+      </c>
+      <c r="N116">
+        <v>1.6</v>
+      </c>
+      <c r="O116">
+        <v>3.8</v>
+      </c>
+      <c r="P116">
+        <v>4.333</v>
+      </c>
+      <c r="Q116">
+        <v>-1</v>
+      </c>
+      <c r="R116">
+        <v>2</v>
+      </c>
+      <c r="S116">
         <v>1.8</v>
-      </c>
-      <c r="L116">
-        <v>3.75</v>
-      </c>
-      <c r="M116">
-        <v>3.4</v>
-      </c>
-      <c r="N116">
-        <v>1.8</v>
-      </c>
-      <c r="O116">
-        <v>3.75</v>
-      </c>
-      <c r="P116">
-        <v>3.4</v>
-      </c>
-      <c r="Q116">
-        <v>-0.5</v>
-      </c>
-      <c r="R116">
-        <v>1.85</v>
-      </c>
-      <c r="S116">
-        <v>1.95</v>
       </c>
       <c r="T116">
         <v>3</v>
@@ -10963,13 +10963,13 @@
         <v>-1</v>
       </c>
       <c r="Y116">
-        <v>2.4</v>
+        <v>3.333</v>
       </c>
       <c r="Z116">
         <v>-1</v>
       </c>
       <c r="AA116">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AB116">
         <v>-1</v>
@@ -10983,7 +10983,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>7674983</v>
+        <v>7674973</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10995,46 +10995,46 @@
         <v>45300.69791666666</v>
       </c>
       <c r="F117" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="G117" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="H117">
         <v>0</v>
       </c>
       <c r="I117">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J117" t="s">
         <v>91</v>
       </c>
       <c r="K117">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="L117">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M117">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="N117">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="O117">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P117">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="Q117">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R117">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S117">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T117">
         <v>3</v>
@@ -11052,13 +11052,13 @@
         <v>-1</v>
       </c>
       <c r="Y117">
-        <v>3.333</v>
+        <v>2.4</v>
       </c>
       <c r="Z117">
         <v>-1</v>
       </c>
       <c r="AA117">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AB117">
         <v>-1</v>
@@ -11087,7 +11087,7 @@
         <v>31</v>
       </c>
       <c r="G118" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H118">
         <v>0</v>
@@ -11173,10 +11173,10 @@
         <v>45301.69791666666</v>
       </c>
       <c r="F119" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G119" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H119">
         <v>2</v>
@@ -11265,7 +11265,7 @@
         <v>70</v>
       </c>
       <c r="G120" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H120">
         <v>2</v>
@@ -11339,7 +11339,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>7691318</v>
+        <v>7691322</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11351,10 +11351,10 @@
         <v>45304.5</v>
       </c>
       <c r="F121" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="G121" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H121">
         <v>2</v>
@@ -11366,43 +11366,43 @@
         <v>89</v>
       </c>
       <c r="K121">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="L121">
+        <v>3.6</v>
+      </c>
+      <c r="M121">
         <v>3.75</v>
       </c>
-      <c r="M121">
-        <v>3</v>
-      </c>
       <c r="N121">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="O121">
+        <v>3.6</v>
+      </c>
+      <c r="P121">
         <v>3.75</v>
       </c>
-      <c r="P121">
-        <v>3</v>
-      </c>
       <c r="Q121">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R121">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S121">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T121">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U121">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V121">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W121">
-        <v>0.95</v>
+        <v>0.75</v>
       </c>
       <c r="X121">
         <v>-1</v>
@@ -11411,16 +11411,16 @@
         <v>-1</v>
       </c>
       <c r="Z121">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AA121">
         <v>-1</v>
       </c>
       <c r="AB121">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AC121">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="122" spans="1:29">
@@ -11428,7 +11428,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>7691322</v>
+        <v>7691318</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11440,10 +11440,10 @@
         <v>45304.5</v>
       </c>
       <c r="F122" t="s">
-        <v>34</v>
+        <v>73</v>
       </c>
       <c r="G122" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="H122">
         <v>2</v>
@@ -11455,61 +11455,61 @@
         <v>89</v>
       </c>
       <c r="K122">
+        <v>1.95</v>
+      </c>
+      <c r="L122">
+        <v>3.75</v>
+      </c>
+      <c r="M122">
+        <v>3</v>
+      </c>
+      <c r="N122">
+        <v>1.95</v>
+      </c>
+      <c r="O122">
+        <v>3.75</v>
+      </c>
+      <c r="P122">
+        <v>3</v>
+      </c>
+      <c r="Q122">
+        <v>-0.25</v>
+      </c>
+      <c r="R122">
         <v>1.75</v>
       </c>
-      <c r="L122">
-        <v>3.6</v>
-      </c>
-      <c r="M122">
-        <v>3.75</v>
-      </c>
-      <c r="N122">
-        <v>1.75</v>
-      </c>
-      <c r="O122">
-        <v>3.6</v>
-      </c>
-      <c r="P122">
-        <v>3.75</v>
-      </c>
-      <c r="Q122">
-        <v>-0.5</v>
-      </c>
-      <c r="R122">
-        <v>1.8</v>
-      </c>
       <c r="S122">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T122">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U122">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V122">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W122">
+        <v>0.95</v>
+      </c>
+      <c r="X122">
+        <v>-1</v>
+      </c>
+      <c r="Y122">
+        <v>-1</v>
+      </c>
+      <c r="Z122">
         <v>0.75</v>
       </c>
-      <c r="X122">
-        <v>-1</v>
-      </c>
-      <c r="Y122">
-        <v>-1</v>
-      </c>
-      <c r="Z122">
-        <v>0.8</v>
-      </c>
       <c r="AA122">
         <v>-1</v>
       </c>
       <c r="AB122">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AC122">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="123" spans="1:29">
@@ -11529,7 +11529,7 @@
         <v>45307.69791666666</v>
       </c>
       <c r="F123" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G123" t="s">
         <v>88</v>
@@ -11606,7 +11606,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>7719544</v>
+        <v>7719604</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11618,13 +11618,13 @@
         <v>45311.5</v>
       </c>
       <c r="F124" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="G124" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="H124">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I124">
         <v>0</v>
@@ -11633,61 +11633,61 @@
         <v>89</v>
       </c>
       <c r="K124">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="L124">
         <v>4</v>
       </c>
       <c r="M124">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="N124">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="O124">
         <v>4</v>
       </c>
       <c r="P124">
-        <v>2.7</v>
+        <v>2.45</v>
       </c>
       <c r="Q124">
         <v>-0.25</v>
       </c>
       <c r="R124">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="S124">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="T124">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U124">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V124">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W124">
+        <v>1.25</v>
+      </c>
+      <c r="X124">
+        <v>-1</v>
+      </c>
+      <c r="Y124">
+        <v>-1</v>
+      </c>
+      <c r="Z124">
         <v>1.05</v>
       </c>
-      <c r="X124">
-        <v>-1</v>
-      </c>
-      <c r="Y124">
-        <v>-1</v>
-      </c>
-      <c r="Z124">
-        <v>0.875</v>
-      </c>
       <c r="AA124">
         <v>-1</v>
       </c>
       <c r="AB124">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC124">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11695,7 +11695,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>7719594</v>
+        <v>7719544</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11707,76 +11707,76 @@
         <v>45311.5</v>
       </c>
       <c r="F125" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G125" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I125">
         <v>0</v>
       </c>
       <c r="J125" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K125">
-        <v>1.4</v>
+        <v>2.05</v>
       </c>
       <c r="L125">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M125">
-        <v>5</v>
+        <v>2.7</v>
       </c>
       <c r="N125">
-        <v>1.4</v>
+        <v>2.05</v>
       </c>
       <c r="O125">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P125">
-        <v>5</v>
+        <v>2.7</v>
       </c>
       <c r="Q125">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R125">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S125">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T125">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U125">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V125">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W125">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X125">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Y125">
         <v>-1</v>
       </c>
       <c r="Z125">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA125">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB125">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC125">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -11784,7 +11784,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>7725153</v>
+        <v>7719594</v>
       </c>
       <c r="C126" t="s">
         <v>28</v>
@@ -11796,10 +11796,10 @@
         <v>45311.5</v>
       </c>
       <c r="F126" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="G126" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H126">
         <v>0</v>
@@ -11811,61 +11811,61 @@
         <v>90</v>
       </c>
       <c r="K126">
-        <v>2.25</v>
+        <v>1.4</v>
       </c>
       <c r="L126">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="M126">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="N126">
-        <v>2.25</v>
+        <v>1.4</v>
       </c>
       <c r="O126">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="P126">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="Q126">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R126">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S126">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="T126">
         <v>3</v>
       </c>
       <c r="U126">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="V126">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W126">
         <v>-1</v>
       </c>
       <c r="X126">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="Y126">
         <v>-1</v>
       </c>
       <c r="Z126">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA126">
-        <v>0.375</v>
+        <v>0.95</v>
       </c>
       <c r="AB126">
         <v>-1</v>
       </c>
       <c r="AC126">
-        <v>1.025</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="127" spans="1:29">
@@ -11873,7 +11873,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>7719604</v>
+        <v>7725153</v>
       </c>
       <c r="C127" t="s">
         <v>28</v>
@@ -11885,37 +11885,37 @@
         <v>45311.5</v>
       </c>
       <c r="F127" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="G127" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="H127">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I127">
         <v>0</v>
       </c>
       <c r="J127" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K127">
         <v>2.25</v>
       </c>
       <c r="L127">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M127">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="N127">
         <v>2.25</v>
       </c>
       <c r="O127">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P127">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="Q127">
         <v>-0.25</v>
@@ -11930,31 +11930,31 @@
         <v>3</v>
       </c>
       <c r="U127">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="V127">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W127">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X127">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y127">
         <v>-1</v>
       </c>
       <c r="Z127">
-        <v>1.05</v>
+        <v>-0.5</v>
       </c>
       <c r="AA127">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
       <c r="AB127">
         <v>-1</v>
       </c>
       <c r="AC127">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="128" spans="1:29">
@@ -11977,7 +11977,7 @@
         <v>31</v>
       </c>
       <c r="G128" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H128">
         <v>0</v>
@@ -12152,10 +12152,10 @@
         <v>45315.69791666666</v>
       </c>
       <c r="F130" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G130" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="H130">
         <v>1</v>
@@ -12318,7 +12318,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>7761786</v>
+        <v>7761811</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12330,76 +12330,76 @@
         <v>45321.69791666666</v>
       </c>
       <c r="F132" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="G132" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H132">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I132">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J132" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K132">
-        <v>2.875</v>
+        <v>2.375</v>
       </c>
       <c r="L132">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M132">
-        <v>2</v>
+        <v>2.375</v>
       </c>
       <c r="N132">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="O132">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P132">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="Q132">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R132">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="S132">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T132">
         <v>2.75</v>
       </c>
       <c r="U132">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V132">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W132">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="X132">
         <v>-1</v>
       </c>
       <c r="Y132">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z132">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA132">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB132">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC132">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="133" spans="1:29">
@@ -12407,7 +12407,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>7761953</v>
+        <v>7761951</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12419,49 +12419,49 @@
         <v>45321.69791666666</v>
       </c>
       <c r="F133" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="G133" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I133">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J133" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K133">
-        <v>2.25</v>
+        <v>1.666</v>
       </c>
       <c r="L133">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="M133">
+        <v>3.5</v>
+      </c>
+      <c r="N133">
+        <v>1.909</v>
+      </c>
+      <c r="O133">
+        <v>4</v>
+      </c>
+      <c r="P133">
+        <v>3</v>
+      </c>
+      <c r="Q133">
+        <v>-0.5</v>
+      </c>
+      <c r="R133">
+        <v>1.975</v>
+      </c>
+      <c r="S133">
+        <v>1.825</v>
+      </c>
+      <c r="T133">
         <v>2.5</v>
-      </c>
-      <c r="N133">
-        <v>2.5</v>
-      </c>
-      <c r="O133">
-        <v>3.6</v>
-      </c>
-      <c r="P133">
-        <v>2.3</v>
-      </c>
-      <c r="Q133">
-        <v>0</v>
-      </c>
-      <c r="R133">
-        <v>2</v>
-      </c>
-      <c r="S133">
-        <v>1.8</v>
-      </c>
-      <c r="T133">
-        <v>2.75</v>
       </c>
       <c r="U133">
         <v>1.75</v>
@@ -12473,22 +12473,22 @@
         <v>-1</v>
       </c>
       <c r="X133">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y133">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z133">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA133">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
       <c r="AB133">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AC133">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="134" spans="1:29">
@@ -12496,7 +12496,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>7761811</v>
+        <v>7761953</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12508,76 +12508,76 @@
         <v>45321.69791666666</v>
       </c>
       <c r="F134" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G134" t="s">
-        <v>79</v>
+        <v>32</v>
       </c>
       <c r="H134">
         <v>0</v>
       </c>
       <c r="I134">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J134" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K134">
-        <v>2.375</v>
+        <v>2.25</v>
       </c>
       <c r="L134">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M134">
-        <v>2.375</v>
+        <v>2.5</v>
       </c>
       <c r="N134">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="O134">
         <v>3.6</v>
       </c>
       <c r="P134">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="Q134">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R134">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S134">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T134">
         <v>2.75</v>
       </c>
       <c r="U134">
+        <v>1.75</v>
+      </c>
+      <c r="V134">
         <v>1.95</v>
       </c>
-      <c r="V134">
-        <v>1.85</v>
-      </c>
       <c r="W134">
         <v>-1</v>
       </c>
       <c r="X134">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y134">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z134">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA134">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB134">
         <v>-1</v>
       </c>
       <c r="AC134">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -12585,7 +12585,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>7761951</v>
+        <v>7761786</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12597,73 +12597,73 @@
         <v>45321.69791666666</v>
       </c>
       <c r="F135" t="s">
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="G135" t="s">
-        <v>44</v>
+        <v>86</v>
       </c>
       <c r="H135">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I135">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J135" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K135">
-        <v>1.666</v>
+        <v>2.875</v>
       </c>
       <c r="L135">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="M135">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="N135">
-        <v>1.909</v>
+        <v>2.9</v>
       </c>
       <c r="O135">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P135">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q135">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R135">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="S135">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T135">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U135">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="V135">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W135">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="X135">
         <v>-1</v>
       </c>
       <c r="Y135">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z135">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA135">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB135">
-        <v>0.75</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC135">
         <v>-1</v>
@@ -12689,7 +12689,7 @@
         <v>80</v>
       </c>
       <c r="G136" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="H136">
         <v>3</v>
@@ -12763,7 +12763,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>7779223</v>
+        <v>7779218</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12775,76 +12775,76 @@
         <v>45325.5</v>
       </c>
       <c r="F137" t="s">
-        <v>29</v>
+        <v>75</v>
       </c>
       <c r="G137" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="H137">
         <v>1</v>
       </c>
       <c r="I137">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J137" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K137">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L137">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M137">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="N137">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="O137">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P137">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="Q137">
         <v>0</v>
       </c>
       <c r="R137">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S137">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T137">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U137">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V137">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W137">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X137">
         <v>-1</v>
       </c>
       <c r="Y137">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z137">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA137">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB137">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC137">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="138" spans="1:29">
@@ -12852,7 +12852,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>7779219</v>
+        <v>7779223</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12864,76 +12864,76 @@
         <v>45325.5</v>
       </c>
       <c r="F138" t="s">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="G138" t="s">
-        <v>86</v>
+        <v>38</v>
       </c>
       <c r="H138">
         <v>1</v>
       </c>
       <c r="I138">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J138" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K138">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="L138">
         <v>4</v>
       </c>
       <c r="M138">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="N138">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="O138">
         <v>4</v>
       </c>
       <c r="P138">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="Q138">
         <v>0</v>
       </c>
       <c r="R138">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S138">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T138">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U138">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V138">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W138">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X138">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y138">
         <v>-1</v>
       </c>
       <c r="Z138">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA138">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB138">
         <v>-1</v>
       </c>
       <c r="AC138">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="139" spans="1:29">
@@ -12941,7 +12941,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>7779218</v>
+        <v>7779219</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12953,76 +12953,76 @@
         <v>45325.5</v>
       </c>
       <c r="F139" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="G139" t="s">
-        <v>35</v>
+        <v>86</v>
       </c>
       <c r="H139">
         <v>1</v>
       </c>
       <c r="I139">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J139" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K139">
+        <v>2.4</v>
+      </c>
+      <c r="L139">
+        <v>4</v>
+      </c>
+      <c r="M139">
         <v>2.25</v>
       </c>
-      <c r="L139">
-        <v>3.75</v>
-      </c>
-      <c r="M139">
-        <v>2.5</v>
-      </c>
       <c r="N139">
+        <v>2.4</v>
+      </c>
+      <c r="O139">
+        <v>4</v>
+      </c>
+      <c r="P139">
         <v>2.25</v>
       </c>
-      <c r="O139">
-        <v>3.75</v>
-      </c>
-      <c r="P139">
-        <v>2.5</v>
-      </c>
       <c r="Q139">
         <v>0</v>
       </c>
       <c r="R139">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S139">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T139">
         <v>2.75</v>
       </c>
       <c r="U139">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V139">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W139">
         <v>-1</v>
       </c>
       <c r="X139">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y139">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z139">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA139">
-        <v>1</v>
+        <v>-0</v>
       </c>
       <c r="AB139">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC139">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="140" spans="1:29">
@@ -13042,7 +13042,7 @@
         <v>45328.69791666666</v>
       </c>
       <c r="F140" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G140" t="s">
         <v>80</v>
@@ -13131,10 +13131,10 @@
         <v>45329.69791666666</v>
       </c>
       <c r="F141" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G141" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="H141">
         <v>1</v>
@@ -13208,7 +13208,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>7808416</v>
+        <v>7808420</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13220,76 +13220,76 @@
         <v>45332.5</v>
       </c>
       <c r="F142" t="s">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="G142" t="s">
-        <v>85</v>
+        <v>58</v>
       </c>
       <c r="H142">
+        <v>3</v>
+      </c>
+      <c r="I142">
+        <v>0</v>
+      </c>
+      <c r="J142" t="s">
+        <v>89</v>
+      </c>
+      <c r="K142">
+        <v>3.3</v>
+      </c>
+      <c r="L142">
+        <v>4.333</v>
+      </c>
+      <c r="M142">
+        <v>1.727</v>
+      </c>
+      <c r="N142">
+        <v>3.2</v>
+      </c>
+      <c r="O142">
+        <v>4.333</v>
+      </c>
+      <c r="P142">
+        <v>1.75</v>
+      </c>
+      <c r="Q142">
+        <v>0.5</v>
+      </c>
+      <c r="R142">
+        <v>2</v>
+      </c>
+      <c r="S142">
+        <v>1.8</v>
+      </c>
+      <c r="T142">
+        <v>3</v>
+      </c>
+      <c r="U142">
+        <v>2</v>
+      </c>
+      <c r="V142">
+        <v>1.8</v>
+      </c>
+      <c r="W142">
+        <v>2.2</v>
+      </c>
+      <c r="X142">
+        <v>-1</v>
+      </c>
+      <c r="Y142">
+        <v>-1</v>
+      </c>
+      <c r="Z142">
         <v>1</v>
       </c>
-      <c r="I142">
-        <v>2</v>
-      </c>
-      <c r="J142" t="s">
-        <v>91</v>
-      </c>
-      <c r="K142">
-        <v>1.8</v>
-      </c>
-      <c r="L142">
-        <v>4</v>
-      </c>
-      <c r="M142">
-        <v>3.25</v>
-      </c>
-      <c r="N142">
-        <v>1.85</v>
-      </c>
-      <c r="O142">
-        <v>3.8</v>
-      </c>
-      <c r="P142">
-        <v>3.25</v>
-      </c>
-      <c r="Q142">
-        <v>-0.5</v>
-      </c>
-      <c r="R142">
-        <v>1.9</v>
-      </c>
-      <c r="S142">
-        <v>1.9</v>
-      </c>
-      <c r="T142">
-        <v>3.25</v>
-      </c>
-      <c r="U142">
-        <v>1.9</v>
-      </c>
-      <c r="V142">
-        <v>1.9</v>
-      </c>
-      <c r="W142">
-        <v>-1</v>
-      </c>
-      <c r="X142">
-        <v>-1</v>
-      </c>
-      <c r="Y142">
-        <v>2.25</v>
-      </c>
-      <c r="Z142">
-        <v>-1</v>
-      </c>
       <c r="AA142">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB142">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AC142">
-        <v>0.45</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -13297,7 +13297,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>7808420</v>
+        <v>7808416</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13309,76 +13309,76 @@
         <v>45332.5</v>
       </c>
       <c r="F143" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="G143" t="s">
-        <v>58</v>
+        <v>85</v>
       </c>
       <c r="H143">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I143">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J143" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K143">
-        <v>3.3</v>
+        <v>1.8</v>
       </c>
       <c r="L143">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="M143">
-        <v>1.727</v>
+        <v>3.25</v>
       </c>
       <c r="N143">
-        <v>3.2</v>
+        <v>1.85</v>
       </c>
       <c r="O143">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="P143">
-        <v>1.75</v>
+        <v>3.25</v>
       </c>
       <c r="Q143">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R143">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S143">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T143">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U143">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V143">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W143">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="X143">
         <v>-1</v>
       </c>
       <c r="Y143">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Z143">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA143">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB143">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AC143">
-        <v>-0</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="144" spans="1:29">
@@ -13386,7 +13386,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>7844457</v>
+        <v>7844462</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13398,76 +13398,76 @@
         <v>45339.5</v>
       </c>
       <c r="F144" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="G144" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H144">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144">
         <v>1</v>
       </c>
       <c r="J144" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K144">
-        <v>1.6</v>
+        <v>2.4</v>
       </c>
       <c r="L144">
         <v>4</v>
       </c>
       <c r="M144">
-        <v>4.2</v>
+        <v>2.25</v>
       </c>
       <c r="N144">
-        <v>1.6</v>
+        <v>2.875</v>
       </c>
       <c r="O144">
         <v>4</v>
       </c>
       <c r="P144">
-        <v>4.2</v>
+        <v>1.95</v>
       </c>
       <c r="Q144">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R144">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S144">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T144">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U144">
+        <v>1.95</v>
+      </c>
+      <c r="V144">
         <v>1.85</v>
       </c>
-      <c r="V144">
-        <v>1.95</v>
-      </c>
       <c r="W144">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X144">
         <v>-1</v>
       </c>
       <c r="Y144">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z144">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AA144">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AB144">
+        <v>-1</v>
+      </c>
+      <c r="AC144">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AC144">
-        <v>-1</v>
       </c>
     </row>
     <row r="145" spans="1:29">
@@ -13475,7 +13475,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>7844458</v>
+        <v>7844457</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13487,76 +13487,76 @@
         <v>45339.5</v>
       </c>
       <c r="F145" t="s">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="G145" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J145" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K145">
-        <v>3.6</v>
+        <v>1.6</v>
       </c>
       <c r="L145">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M145">
+        <v>4.2</v>
+      </c>
+      <c r="N145">
+        <v>1.6</v>
+      </c>
+      <c r="O145">
+        <v>4</v>
+      </c>
+      <c r="P145">
+        <v>4.2</v>
+      </c>
+      <c r="Q145">
+        <v>-0.75</v>
+      </c>
+      <c r="R145">
         <v>1.8</v>
       </c>
-      <c r="N145">
-        <v>4.5</v>
-      </c>
-      <c r="O145">
-        <v>3.6</v>
-      </c>
-      <c r="P145">
-        <v>1.571</v>
-      </c>
-      <c r="Q145">
-        <v>1</v>
-      </c>
-      <c r="R145">
-        <v>1.75</v>
-      </c>
       <c r="S145">
+        <v>2</v>
+      </c>
+      <c r="T145">
+        <v>2.5</v>
+      </c>
+      <c r="U145">
+        <v>1.85</v>
+      </c>
+      <c r="V145">
         <v>1.95</v>
       </c>
-      <c r="T145">
-        <v>3</v>
-      </c>
-      <c r="U145">
-        <v>1.95</v>
-      </c>
-      <c r="V145">
-        <v>1.85</v>
-      </c>
       <c r="W145">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X145">
         <v>-1</v>
       </c>
       <c r="Y145">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="Z145">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AA145">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AB145">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC145">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="146" spans="1:29">
@@ -13564,7 +13564,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>7844459</v>
+        <v>7844458</v>
       </c>
       <c r="C146" t="s">
         <v>28</v>
@@ -13576,76 +13576,76 @@
         <v>45339.5</v>
       </c>
       <c r="F146" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="G146" t="s">
-        <v>48</v>
+        <v>84</v>
       </c>
       <c r="H146">
+        <v>0</v>
+      </c>
+      <c r="I146">
+        <v>2</v>
+      </c>
+      <c r="J146" t="s">
+        <v>91</v>
+      </c>
+      <c r="K146">
+        <v>3.6</v>
+      </c>
+      <c r="L146">
+        <v>3.6</v>
+      </c>
+      <c r="M146">
+        <v>1.8</v>
+      </c>
+      <c r="N146">
+        <v>4.5</v>
+      </c>
+      <c r="O146">
+        <v>3.6</v>
+      </c>
+      <c r="P146">
+        <v>1.571</v>
+      </c>
+      <c r="Q146">
+        <v>1</v>
+      </c>
+      <c r="R146">
+        <v>1.75</v>
+      </c>
+      <c r="S146">
+        <v>1.95</v>
+      </c>
+      <c r="T146">
         <v>3</v>
       </c>
-      <c r="I146">
-        <v>0</v>
-      </c>
-      <c r="J146" t="s">
-        <v>89</v>
-      </c>
-      <c r="K146">
-        <v>1.4</v>
-      </c>
-      <c r="L146">
-        <v>4.5</v>
-      </c>
-      <c r="M146">
-        <v>5.5</v>
-      </c>
-      <c r="N146">
-        <v>1.4</v>
-      </c>
-      <c r="O146">
-        <v>4.5</v>
-      </c>
-      <c r="P146">
-        <v>5.25</v>
-      </c>
-      <c r="Q146">
-        <v>-1.25</v>
-      </c>
-      <c r="R146">
-        <v>1.9</v>
-      </c>
-      <c r="S146">
-        <v>1.9</v>
-      </c>
-      <c r="T146">
-        <v>2.75</v>
-      </c>
       <c r="U146">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V146">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W146">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X146">
         <v>-1</v>
       </c>
       <c r="Y146">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="Z146">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA146">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB146">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AC146">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="147" spans="1:29">
@@ -13653,7 +13653,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>7844460</v>
+        <v>7844459</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13665,58 +13665,58 @@
         <v>45339.5</v>
       </c>
       <c r="F147" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="G147" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="H147">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I147">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J147" t="s">
         <v>89</v>
       </c>
       <c r="K147">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="L147">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="M147">
-        <v>3.4</v>
+        <v>5.5</v>
       </c>
       <c r="N147">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="O147">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="P147">
-        <v>3.3</v>
+        <v>5.25</v>
       </c>
       <c r="Q147">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R147">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S147">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T147">
         <v>2.75</v>
       </c>
       <c r="U147">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V147">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W147">
-        <v>0.8</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X147">
         <v>-1</v>
@@ -13725,16 +13725,16 @@
         <v>-1</v>
       </c>
       <c r="Z147">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA147">
         <v>-1</v>
       </c>
       <c r="AB147">
-        <v>0.8</v>
+        <v>0.45</v>
       </c>
       <c r="AC147">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="148" spans="1:29">
@@ -13754,10 +13754,10 @@
         <v>45339.5</v>
       </c>
       <c r="F148" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G148" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H148">
         <v>1</v>
@@ -13831,7 +13831,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>7844462</v>
+        <v>7844460</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -13843,76 +13843,76 @@
         <v>45339.5</v>
       </c>
       <c r="F149" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G149" t="s">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I149">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J149" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K149">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="L149">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="M149">
-        <v>2.25</v>
+        <v>3.4</v>
       </c>
       <c r="N149">
-        <v>2.875</v>
+        <v>1.8</v>
       </c>
       <c r="O149">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P149">
-        <v>1.95</v>
+        <v>3.3</v>
       </c>
       <c r="Q149">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R149">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="S149">
         <v>1.95</v>
       </c>
       <c r="T149">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U149">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V149">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W149">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X149">
         <v>-1</v>
       </c>
       <c r="Y149">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z149">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA149">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB149">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC149">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="150" spans="1:29">
@@ -13932,10 +13932,10 @@
         <v>45342.69791666666</v>
       </c>
       <c r="F150" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="G150" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="H150">
         <v>1</v>
@@ -14091,6 +14091,80 @@
       </c>
       <c r="AC151">
         <v>-1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:29">
+      <c r="A152" s="1">
+        <v>150</v>
+      </c>
+      <c r="B152">
+        <v>7903614</v>
+      </c>
+      <c r="C152" t="s">
+        <v>28</v>
+      </c>
+      <c r="D152" t="s">
+        <v>28</v>
+      </c>
+      <c r="E152" s="2">
+        <v>45353.5</v>
+      </c>
+      <c r="F152" t="s">
+        <v>31</v>
+      </c>
+      <c r="G152" t="s">
+        <v>74</v>
+      </c>
+      <c r="K152">
+        <v>2.25</v>
+      </c>
+      <c r="L152">
+        <v>3.75</v>
+      </c>
+      <c r="M152">
+        <v>2.5</v>
+      </c>
+      <c r="N152">
+        <v>2.25</v>
+      </c>
+      <c r="O152">
+        <v>3.75</v>
+      </c>
+      <c r="P152">
+        <v>2.5</v>
+      </c>
+      <c r="Q152">
+        <v>0</v>
+      </c>
+      <c r="R152">
+        <v>1.8</v>
+      </c>
+      <c r="S152">
+        <v>2</v>
+      </c>
+      <c r="T152">
+        <v>3</v>
+      </c>
+      <c r="U152">
+        <v>1.8</v>
+      </c>
+      <c r="V152">
+        <v>2</v>
+      </c>
+      <c r="W152">
+        <v>0</v>
+      </c>
+      <c r="X152">
+        <v>0</v>
+      </c>
+      <c r="Y152">
+        <v>0</v>
+      </c>
+      <c r="Z152">
+        <v>0</v>
+      </c>
+      <c r="AA152">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/England Northern League Division One/England Northern League Division One.xlsx
+++ b/England Northern League Division One/England Northern League Division One.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="783" uniqueCount="92">
   <si>
     <t>id</t>
   </si>
@@ -115,31 +115,34 @@
     <t>Stocksbridge PS</t>
   </si>
   <si>
-    <t>Widnes</t>
+    <t>Cleethorpes Town</t>
   </si>
   <si>
     <t>Corby</t>
   </si>
   <si>
-    <t>Cleethorpes Town</t>
+    <t>Widnes</t>
   </si>
   <si>
     <t>Coleshill Town</t>
   </si>
   <si>
-    <t>Leek Town</t>
+    <t>AFC Rushden  Diamonds</t>
+  </si>
+  <si>
+    <t>Runcorn Linnets</t>
   </si>
   <si>
     <t>Liversedge</t>
   </si>
   <si>
-    <t>Rugby Town</t>
+    <t>North Ferriby</t>
   </si>
   <si>
     <t>Pontefract Collieries</t>
   </si>
   <si>
-    <t>Hednesford</t>
+    <t>Mossley</t>
   </si>
   <si>
     <t>Cambridge City</t>
@@ -148,34 +151,31 @@
     <t>Coventry Sphinx</t>
   </si>
   <si>
-    <t>Hinckley LR</t>
+    <t>Grantham</t>
   </si>
   <si>
-    <t>AFC Rushden  Diamonds</t>
-  </si>
-  <si>
-    <t>North Ferriby</t>
-  </si>
-  <si>
-    <t>Grantham</t>
+    <t>Hednesford</t>
   </si>
   <si>
     <t>Dunston UTS</t>
   </si>
   <si>
-    <t>Runcorn Linnets</t>
+    <t>Rugby Town</t>
   </si>
   <si>
-    <t>Mossley</t>
+    <t>Leek Town</t>
+  </si>
+  <si>
+    <t>Hinckley LR</t>
   </si>
   <si>
     <t>Grimsby Borough</t>
   </si>
   <si>
-    <t>Avro FC</t>
+    <t>Stockton Town</t>
   </si>
   <si>
-    <t>Stockton Town</t>
+    <t>Avro FC</t>
   </si>
   <si>
     <t>Winterton Rangers</t>
@@ -187,13 +187,13 @@
     <t>Shepshed Dynamo</t>
   </si>
   <si>
-    <t>Witton Albion</t>
-  </si>
-  <si>
     <t>Prescot Cables</t>
   </si>
   <si>
     <t>Gresley Rovers</t>
+  </si>
+  <si>
+    <t>Witton Albion</t>
   </si>
   <si>
     <t>Kidsgrove Ath</t>
@@ -202,25 +202,25 @@
     <t>Anstey Nomads</t>
   </si>
   <si>
-    <t>1874 Northwich</t>
+    <t>Ossett United</t>
   </si>
   <si>
     <t>Bedworth Utd</t>
   </si>
   <si>
-    <t>Ossett United</t>
+    <t>1874 Northwich</t>
   </si>
   <si>
     <t>Newton Aycliffe</t>
-  </si>
-  <si>
-    <t>Nantwich Town</t>
   </si>
   <si>
     <t>Sporting Khalsa</t>
   </si>
   <si>
     <t>Harborough Town</t>
+  </si>
+  <si>
+    <t>Nantwich Town</t>
   </si>
   <si>
     <t>Carlton Town</t>
@@ -235,10 +235,10 @@
     <t>Trafford</t>
   </si>
   <si>
-    <t>Belper Town</t>
+    <t>Quorn</t>
   </si>
   <si>
-    <t>Quorn</t>
+    <t>Belper Town</t>
   </si>
   <si>
     <t>Newcastle Town</t>
@@ -763,7 +763,7 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H2">
         <v>3</v>
@@ -852,7 +852,7 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H3">
         <v>3</v>
@@ -941,7 +941,7 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="H4">
         <v>2</v>
@@ -1030,7 +1030,7 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H5">
         <v>3</v>
@@ -1104,7 +1104,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>7072691</v>
+        <v>7072686</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -1119,73 +1119,73 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K6">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="L6">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M6">
-        <v>2.6</v>
+        <v>2.9</v>
       </c>
       <c r="N6">
-        <v>2.375</v>
+        <v>1.7</v>
       </c>
       <c r="O6">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P6">
-        <v>2.6</v>
+        <v>4</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R6">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S6">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T6">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U6">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="V6">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W6">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X6">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y6">
         <v>-1</v>
       </c>
       <c r="Z6">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA6">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB6">
         <v>-1</v>
       </c>
       <c r="AC6">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1282,7 +1282,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7072686</v>
+        <v>7072691</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1297,73 +1297,73 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K8">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="L8">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M8">
-        <v>2.9</v>
+        <v>2.6</v>
       </c>
       <c r="N8">
-        <v>1.7</v>
+        <v>2.375</v>
       </c>
       <c r="O8">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P8">
-        <v>4</v>
+        <v>2.6</v>
       </c>
       <c r="Q8">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R8">
+        <v>1.8</v>
+      </c>
+      <c r="S8">
+        <v>2</v>
+      </c>
+      <c r="T8">
+        <v>2.75</v>
+      </c>
+      <c r="U8">
         <v>1.925</v>
       </c>
-      <c r="S8">
+      <c r="V8">
         <v>1.875</v>
       </c>
-      <c r="T8">
-        <v>2.5</v>
-      </c>
-      <c r="U8">
-        <v>1.75</v>
-      </c>
-      <c r="V8">
-        <v>1.95</v>
-      </c>
       <c r="W8">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X8">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y8">
         <v>-1</v>
       </c>
       <c r="Z8">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA8">
+        <v>-1</v>
+      </c>
+      <c r="AB8">
+        <v>-1</v>
+      </c>
+      <c r="AC8">
         <v>0.875</v>
-      </c>
-      <c r="AB8">
-        <v>-1</v>
-      </c>
-      <c r="AC8">
-        <v>0.95</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1460,7 +1460,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>7100544</v>
+        <v>7100282</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1475,70 +1475,70 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
         <v>3</v>
       </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
       <c r="J10" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K10">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="L10">
         <v>4</v>
       </c>
       <c r="M10">
-        <v>3.25</v>
+        <v>2.45</v>
       </c>
       <c r="N10">
-        <v>1.666</v>
+        <v>2.25</v>
       </c>
       <c r="O10">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P10">
-        <v>3.6</v>
+        <v>2.4</v>
       </c>
       <c r="Q10">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R10">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S10">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T10">
         <v>2.75</v>
       </c>
       <c r="U10">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V10">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W10">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X10">
         <v>-1</v>
       </c>
       <c r="Y10">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="Z10">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA10">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB10">
-        <v>0.45</v>
+        <v>0.4125</v>
       </c>
       <c r="AC10">
         <v>-0.5</v>
@@ -1549,7 +1549,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>7100108</v>
+        <v>7100546</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1564,43 +1564,43 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11" t="s">
+        <v>90</v>
+      </c>
+      <c r="K11">
+        <v>1.615</v>
+      </c>
+      <c r="L11">
+        <v>4</v>
+      </c>
+      <c r="M11">
+        <v>4</v>
+      </c>
+      <c r="N11">
+        <v>1.45</v>
+      </c>
+      <c r="O11">
+        <v>4.333</v>
+      </c>
+      <c r="P11">
         <v>5</v>
       </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11" t="s">
-        <v>89</v>
-      </c>
-      <c r="K11">
-        <v>2.3</v>
-      </c>
-      <c r="L11">
-        <v>3.4</v>
-      </c>
-      <c r="M11">
-        <v>2.6</v>
-      </c>
-      <c r="N11">
-        <v>2.3</v>
-      </c>
-      <c r="O11">
-        <v>3.4</v>
-      </c>
-      <c r="P11">
-        <v>2.625</v>
-      </c>
       <c r="Q11">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R11">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S11">
-        <v>1.725</v>
+        <v>2</v>
       </c>
       <c r="T11">
         <v>2.75</v>
@@ -1612,25 +1612,25 @@
         <v>2</v>
       </c>
       <c r="W11">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X11">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y11">
         <v>-1</v>
       </c>
       <c r="Z11">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA11">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB11">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC11">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1638,7 +1638,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>7100405</v>
+        <v>7100108</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1653,70 +1653,70 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I12">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J12" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K12">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="L12">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M12">
+        <v>2.6</v>
+      </c>
+      <c r="N12">
         <v>2.3</v>
       </c>
-      <c r="N12">
-        <v>2.5</v>
-      </c>
       <c r="O12">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P12">
-        <v>2.3</v>
+        <v>2.625</v>
       </c>
       <c r="Q12">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R12">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S12">
+        <v>1.725</v>
+      </c>
+      <c r="T12">
+        <v>2.75</v>
+      </c>
+      <c r="U12">
         <v>1.8</v>
       </c>
-      <c r="T12">
-        <v>3</v>
-      </c>
-      <c r="U12">
-        <v>1.95</v>
-      </c>
       <c r="V12">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W12">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X12">
         <v>-1</v>
       </c>
       <c r="Y12">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z12">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA12">
+        <v>-1</v>
+      </c>
+      <c r="AB12">
         <v>0.8</v>
-      </c>
-      <c r="AB12">
-        <v>0.95</v>
       </c>
       <c r="AC12">
         <v>-1</v>
@@ -1727,7 +1727,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>7100110</v>
+        <v>7100109</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1742,37 +1742,37 @@
         <v>40</v>
       </c>
       <c r="G13" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J13" t="s">
         <v>91</v>
       </c>
       <c r="K13">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L13">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="M13">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="N13">
-        <v>2.625</v>
+        <v>1.95</v>
       </c>
       <c r="O13">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="P13">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="Q13">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R13">
         <v>2</v>
@@ -1784,10 +1784,10 @@
         <v>2.75</v>
       </c>
       <c r="U13">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V13">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W13">
         <v>-1</v>
@@ -1796,7 +1796,7 @@
         <v>-1</v>
       </c>
       <c r="Y13">
-        <v>1.3</v>
+        <v>2.1</v>
       </c>
       <c r="Z13">
         <v>-1</v>
@@ -1805,7 +1805,7 @@
         <v>0.8</v>
       </c>
       <c r="AB13">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AC13">
         <v>-1</v>
@@ -1831,7 +1831,7 @@
         <v>29</v>
       </c>
       <c r="G14" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H14">
         <v>1</v>
@@ -1905,7 +1905,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>7100543</v>
+        <v>7100110</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1920,7 +1920,7 @@
         <v>41</v>
       </c>
       <c r="G15" t="s">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="H15">
         <v>2</v>
@@ -1932,40 +1932,40 @@
         <v>91</v>
       </c>
       <c r="K15">
-        <v>1.909</v>
+        <v>2.25</v>
       </c>
       <c r="L15">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="M15">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="N15">
+        <v>2.625</v>
+      </c>
+      <c r="O15">
+        <v>3.3</v>
+      </c>
+      <c r="P15">
         <v>2.3</v>
       </c>
-      <c r="O15">
-        <v>3.6</v>
-      </c>
-      <c r="P15">
-        <v>2.5</v>
-      </c>
       <c r="Q15">
         <v>0</v>
       </c>
       <c r="R15">
+        <v>2</v>
+      </c>
+      <c r="S15">
         <v>1.8</v>
-      </c>
-      <c r="S15">
-        <v>2</v>
       </c>
       <c r="T15">
         <v>2.75</v>
       </c>
       <c r="U15">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V15">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W15">
         <v>-1</v>
@@ -1974,16 +1974,16 @@
         <v>-1</v>
       </c>
       <c r="Y15">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="Z15">
         <v>-1</v>
       </c>
       <c r="AA15">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AB15">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AC15">
         <v>-1</v>
@@ -1994,7 +1994,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>7100392</v>
+        <v>7100545</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -2009,73 +2009,73 @@
         <v>42</v>
       </c>
       <c r="G16" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="L16">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M16">
+        <v>3.1</v>
+      </c>
+      <c r="N16">
+        <v>1.85</v>
+      </c>
+      <c r="O16">
+        <v>3.75</v>
+      </c>
+      <c r="P16">
+        <v>3.2</v>
+      </c>
+      <c r="Q16">
+        <v>-0.5</v>
+      </c>
+      <c r="R16">
+        <v>1.925</v>
+      </c>
+      <c r="S16">
+        <v>1.875</v>
+      </c>
+      <c r="T16">
         <v>2.75</v>
       </c>
-      <c r="N16">
-        <v>2</v>
-      </c>
-      <c r="O16">
-        <v>4</v>
-      </c>
-      <c r="P16">
-        <v>2.75</v>
-      </c>
-      <c r="Q16">
-        <v>-0.25</v>
-      </c>
-      <c r="R16">
-        <v>1.825</v>
-      </c>
-      <c r="S16">
-        <v>1.975</v>
-      </c>
-      <c r="T16">
-        <v>3</v>
-      </c>
       <c r="U16">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V16">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W16">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X16">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y16">
         <v>-1</v>
       </c>
       <c r="Z16">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AA16">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AB16">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC16">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -2083,7 +2083,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>7100393</v>
+        <v>7100392</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -2098,73 +2098,73 @@
         <v>43</v>
       </c>
       <c r="G17" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K17">
-        <v>2.9</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M17">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="N17">
-        <v>2.8</v>
+        <v>2</v>
       </c>
       <c r="O17">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P17">
-        <v>2.05</v>
+        <v>2.75</v>
       </c>
       <c r="Q17">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R17">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S17">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T17">
         <v>3</v>
       </c>
       <c r="U17">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="V17">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W17">
         <v>-1</v>
       </c>
       <c r="X17">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y17">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z17">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA17">
-        <v>0.8500000000000001</v>
+        <v>0.4875</v>
       </c>
       <c r="AB17">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC17">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2172,7 +2172,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>7100394</v>
+        <v>7100393</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2187,37 +2187,37 @@
         <v>44</v>
       </c>
       <c r="G18" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K18">
-        <v>2.25</v>
+        <v>2.9</v>
       </c>
       <c r="L18">
         <v>3.75</v>
       </c>
       <c r="M18">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="N18">
-        <v>1.909</v>
+        <v>2.8</v>
       </c>
       <c r="O18">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P18">
-        <v>3.1</v>
+        <v>2.05</v>
       </c>
       <c r="Q18">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R18">
         <v>1.95</v>
@@ -2226,34 +2226,34 @@
         <v>1.85</v>
       </c>
       <c r="T18">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U18">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="V18">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W18">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X18">
         <v>-1</v>
       </c>
       <c r="Y18">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z18">
+        <v>-1</v>
+      </c>
+      <c r="AA18">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB18">
+        <v>-1</v>
+      </c>
+      <c r="AC18">
         <v>0.95</v>
-      </c>
-      <c r="AA18">
-        <v>-1</v>
-      </c>
-      <c r="AB18">
-        <v>-1</v>
-      </c>
-      <c r="AC18">
-        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2261,7 +2261,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>7100282</v>
+        <v>7100107</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2276,73 +2276,73 @@
         <v>45</v>
       </c>
       <c r="G19" t="s">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K19">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="L19">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M19">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="N19">
-        <v>2.25</v>
+        <v>2.9</v>
       </c>
       <c r="O19">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P19">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="Q19">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R19">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S19">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T19">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U19">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V19">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W19">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="X19">
         <v>-1</v>
       </c>
       <c r="Y19">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Z19">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA19">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB19">
-        <v>0.4125</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC19">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2350,7 +2350,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>7100109</v>
+        <v>7100543</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2365,52 +2365,52 @@
         <v>46</v>
       </c>
       <c r="G20" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J20" t="s">
         <v>91</v>
       </c>
       <c r="K20">
-        <v>2.2</v>
+        <v>1.909</v>
       </c>
       <c r="L20">
+        <v>3.75</v>
+      </c>
+      <c r="M20">
+        <v>3.1</v>
+      </c>
+      <c r="N20">
+        <v>2.3</v>
+      </c>
+      <c r="O20">
         <v>3.6</v>
       </c>
-      <c r="M20">
-        <v>2.6</v>
-      </c>
-      <c r="N20">
-        <v>1.95</v>
-      </c>
-      <c r="O20">
-        <v>3.75</v>
-      </c>
       <c r="P20">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="Q20">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R20">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S20">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T20">
         <v>2.75</v>
       </c>
       <c r="U20">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V20">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W20">
         <v>-1</v>
@@ -2419,16 +2419,16 @@
         <v>-1</v>
       </c>
       <c r="Y20">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="Z20">
         <v>-1</v>
       </c>
       <c r="AA20">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AB20">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AC20">
         <v>-1</v>
@@ -2439,7 +2439,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>7100107</v>
+        <v>7100106</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2454,73 +2454,73 @@
         <v>47</v>
       </c>
       <c r="G21" t="s">
-        <v>32</v>
+        <v>83</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K21">
+        <v>2.05</v>
+      </c>
+      <c r="L21">
+        <v>3.2</v>
+      </c>
+      <c r="M21">
+        <v>3.2</v>
+      </c>
+      <c r="N21">
+        <v>1.85</v>
+      </c>
+      <c r="O21">
+        <v>3.4</v>
+      </c>
+      <c r="P21">
+        <v>3.4</v>
+      </c>
+      <c r="Q21">
+        <v>-0.5</v>
+      </c>
+      <c r="R21">
+        <v>1.95</v>
+      </c>
+      <c r="S21">
+        <v>1.85</v>
+      </c>
+      <c r="T21">
+        <v>2.75</v>
+      </c>
+      <c r="U21">
+        <v>1.825</v>
+      </c>
+      <c r="V21">
+        <v>1.975</v>
+      </c>
+      <c r="W21">
+        <v>-1</v>
+      </c>
+      <c r="X21">
         <v>2.4</v>
       </c>
-      <c r="L21">
-        <v>3.6</v>
-      </c>
-      <c r="M21">
-        <v>2.4</v>
-      </c>
-      <c r="N21">
-        <v>2.9</v>
-      </c>
-      <c r="O21">
-        <v>3.6</v>
-      </c>
-      <c r="P21">
-        <v>2.1</v>
-      </c>
-      <c r="Q21">
-        <v>0.25</v>
-      </c>
-      <c r="R21">
-        <v>1.875</v>
-      </c>
-      <c r="S21">
-        <v>1.925</v>
-      </c>
-      <c r="T21">
-        <v>2.5</v>
-      </c>
-      <c r="U21">
-        <v>1.9</v>
-      </c>
-      <c r="V21">
-        <v>1.9</v>
-      </c>
-      <c r="W21">
-        <v>1.9</v>
-      </c>
-      <c r="X21">
-        <v>-1</v>
-      </c>
       <c r="Y21">
         <v>-1</v>
       </c>
       <c r="Z21">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA21">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB21">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC21">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2528,7 +2528,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7100106</v>
+        <v>7100405</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2543,73 +2543,73 @@
         <v>48</v>
       </c>
       <c r="G22" t="s">
-        <v>83</v>
+        <v>34</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J22" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K22">
-        <v>2.05</v>
+        <v>2.5</v>
       </c>
       <c r="L22">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M22">
-        <v>3.2</v>
+        <v>2.3</v>
       </c>
       <c r="N22">
+        <v>2.5</v>
+      </c>
+      <c r="O22">
+        <v>3.6</v>
+      </c>
+      <c r="P22">
+        <v>2.3</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>2</v>
+      </c>
+      <c r="S22">
+        <v>1.8</v>
+      </c>
+      <c r="T22">
+        <v>3</v>
+      </c>
+      <c r="U22">
+        <v>1.95</v>
+      </c>
+      <c r="V22">
         <v>1.85</v>
       </c>
-      <c r="O22">
-        <v>3.4</v>
-      </c>
-      <c r="P22">
-        <v>3.4</v>
-      </c>
-      <c r="Q22">
-        <v>-0.5</v>
-      </c>
-      <c r="R22">
-        <v>1.95</v>
-      </c>
-      <c r="S22">
-        <v>1.85</v>
-      </c>
-      <c r="T22">
-        <v>2.75</v>
-      </c>
-      <c r="U22">
-        <v>1.825</v>
-      </c>
-      <c r="V22">
-        <v>1.975</v>
-      </c>
       <c r="W22">
         <v>-1</v>
       </c>
       <c r="X22">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y22">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z22">
         <v>-1</v>
       </c>
       <c r="AA22">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AB22">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC22">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2617,7 +2617,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>7100546</v>
+        <v>7100544</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2632,73 +2632,73 @@
         <v>49</v>
       </c>
       <c r="G23" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K23">
-        <v>1.615</v>
+        <v>1.8</v>
       </c>
       <c r="L23">
         <v>4</v>
       </c>
       <c r="M23">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="N23">
-        <v>1.45</v>
+        <v>1.666</v>
       </c>
       <c r="O23">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="P23">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="Q23">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R23">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S23">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T23">
         <v>2.75</v>
       </c>
       <c r="U23">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V23">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W23">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X23">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y23">
         <v>-1</v>
       </c>
       <c r="Z23">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA23">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB23">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AC23">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2706,7 +2706,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>7100545</v>
+        <v>7100394</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2721,10 +2721,10 @@
         <v>50</v>
       </c>
       <c r="G24" t="s">
-        <v>33</v>
+        <v>76</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -2733,43 +2733,43 @@
         <v>89</v>
       </c>
       <c r="K24">
-        <v>1.909</v>
+        <v>2.25</v>
       </c>
       <c r="L24">
         <v>3.75</v>
       </c>
       <c r="M24">
+        <v>2.5</v>
+      </c>
+      <c r="N24">
+        <v>1.909</v>
+      </c>
+      <c r="O24">
+        <v>4</v>
+      </c>
+      <c r="P24">
         <v>3.1</v>
-      </c>
-      <c r="N24">
-        <v>1.85</v>
-      </c>
-      <c r="O24">
-        <v>3.75</v>
-      </c>
-      <c r="P24">
-        <v>3.2</v>
       </c>
       <c r="Q24">
         <v>-0.5</v>
       </c>
       <c r="R24">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S24">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T24">
         <v>2.75</v>
       </c>
       <c r="U24">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V24">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W24">
-        <v>0.8500000000000001</v>
+        <v>0.909</v>
       </c>
       <c r="X24">
         <v>-1</v>
@@ -2778,7 +2778,7 @@
         <v>-1</v>
       </c>
       <c r="Z24">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AA24">
         <v>-1</v>
@@ -2787,7 +2787,7 @@
         <v>-1</v>
       </c>
       <c r="AC24">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -2884,7 +2884,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>7104131</v>
+        <v>7104129</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2899,73 +2899,73 @@
         <v>52</v>
       </c>
       <c r="G26" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K26">
-        <v>2.25</v>
+        <v>1.533</v>
       </c>
       <c r="L26">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M26">
-        <v>2.6</v>
+        <v>4.75</v>
       </c>
       <c r="N26">
-        <v>1.833</v>
+        <v>1.45</v>
       </c>
       <c r="O26">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P26">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="Q26">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R26">
+        <v>1.75</v>
+      </c>
+      <c r="S26">
+        <v>1.95</v>
+      </c>
+      <c r="T26">
+        <v>3</v>
+      </c>
+      <c r="U26">
+        <v>1.925</v>
+      </c>
+      <c r="V26">
         <v>1.875</v>
       </c>
-      <c r="S26">
-        <v>1.925</v>
-      </c>
-      <c r="T26">
-        <v>2.5</v>
-      </c>
-      <c r="U26">
-        <v>1.775</v>
-      </c>
-      <c r="V26">
-        <v>1.925</v>
-      </c>
       <c r="W26">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X26">
         <v>-1</v>
       </c>
       <c r="Y26">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z26">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA26">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB26">
         <v>-1</v>
       </c>
       <c r="AC26">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -2973,7 +2973,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>7104129</v>
+        <v>7104131</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2988,73 +2988,73 @@
         <v>53</v>
       </c>
       <c r="G27" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K27">
-        <v>1.533</v>
+        <v>2.25</v>
       </c>
       <c r="L27">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M27">
-        <v>4.75</v>
+        <v>2.6</v>
       </c>
       <c r="N27">
-        <v>1.45</v>
+        <v>1.833</v>
       </c>
       <c r="O27">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P27">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="Q27">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R27">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="S27">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T27">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U27">
+        <v>1.775</v>
+      </c>
+      <c r="V27">
         <v>1.925</v>
       </c>
-      <c r="V27">
-        <v>1.875</v>
-      </c>
       <c r="W27">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X27">
         <v>-1</v>
       </c>
       <c r="Y27">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z27">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA27">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB27">
         <v>-1</v>
       </c>
       <c r="AC27">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -3344,7 +3344,7 @@
         <v>31</v>
       </c>
       <c r="G31" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H31">
         <v>1</v>
@@ -3418,7 +3418,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>7132469</v>
+        <v>7134274</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3430,49 +3430,49 @@
         <v>45166.45833333334</v>
       </c>
       <c r="F32" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G32" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="H32">
+        <v>2</v>
+      </c>
+      <c r="I32">
         <v>4</v>
       </c>
-      <c r="I32">
-        <v>0</v>
-      </c>
       <c r="J32" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K32">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="L32">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M32">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="N32">
-        <v>1.833</v>
+        <v>2</v>
       </c>
       <c r="O32">
         <v>3.75</v>
       </c>
       <c r="P32">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="Q32">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R32">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S32">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T32">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U32">
         <v>1.875</v>
@@ -3481,19 +3481,19 @@
         <v>1.925</v>
       </c>
       <c r="W32">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X32">
         <v>-1</v>
       </c>
       <c r="Y32">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Z32">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA32">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB32">
         <v>0.875</v>
@@ -3596,7 +3596,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>7134274</v>
+        <v>7132469</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -3608,49 +3608,49 @@
         <v>45166.45833333334</v>
       </c>
       <c r="F34" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G34" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I34">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J34" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K34">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L34">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M34">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="N34">
-        <v>2</v>
+        <v>1.833</v>
       </c>
       <c r="O34">
         <v>3.75</v>
       </c>
       <c r="P34">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="Q34">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R34">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S34">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T34">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U34">
         <v>1.875</v>
@@ -3659,19 +3659,19 @@
         <v>1.925</v>
       </c>
       <c r="W34">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X34">
         <v>-1</v>
       </c>
       <c r="Y34">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z34">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA34">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB34">
         <v>0.875</v>
@@ -3685,7 +3685,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>7134273</v>
+        <v>7132468</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -3697,76 +3697,76 @@
         <v>45166.45833333334</v>
       </c>
       <c r="F35" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="G35" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J35" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K35">
         <v>2.25</v>
       </c>
       <c r="L35">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M35">
-        <v>2.625</v>
+        <v>2.5</v>
       </c>
       <c r="N35">
         <v>2.25</v>
       </c>
       <c r="O35">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P35">
-        <v>2.625</v>
+        <v>2.5</v>
       </c>
       <c r="Q35">
         <v>-0.25</v>
       </c>
       <c r="R35">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S35">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="T35">
         <v>2.75</v>
       </c>
       <c r="U35">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V35">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W35">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X35">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y35">
         <v>-1</v>
       </c>
       <c r="Z35">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA35">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
       <c r="AB35">
-        <v>0.4</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC35">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="36" spans="1:29">
@@ -3774,7 +3774,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>7132468</v>
+        <v>7134273</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3786,76 +3786,76 @@
         <v>45166.45833333334</v>
       </c>
       <c r="F36" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="G36" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H36">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I36">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J36" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K36">
         <v>2.25</v>
       </c>
       <c r="L36">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M36">
-        <v>2.5</v>
+        <v>2.625</v>
       </c>
       <c r="N36">
         <v>2.25</v>
       </c>
       <c r="O36">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P36">
-        <v>2.5</v>
+        <v>2.625</v>
       </c>
       <c r="Q36">
         <v>-0.25</v>
       </c>
       <c r="R36">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S36">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="T36">
         <v>2.75</v>
       </c>
       <c r="U36">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V36">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W36">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X36">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y36">
         <v>-1</v>
       </c>
       <c r="Z36">
+        <v>1</v>
+      </c>
+      <c r="AA36">
+        <v>-1</v>
+      </c>
+      <c r="AB36">
+        <v>0.4</v>
+      </c>
+      <c r="AC36">
         <v>-0.5</v>
-      </c>
-      <c r="AA36">
-        <v>0.375</v>
-      </c>
-      <c r="AB36">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AC36">
-        <v>-1</v>
       </c>
     </row>
     <row r="37" spans="1:29">
@@ -3878,7 +3878,7 @@
         <v>31</v>
       </c>
       <c r="G37" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="H37">
         <v>3</v>
@@ -3952,7 +3952,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>7197970</v>
+        <v>7197966</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3967,73 +3967,73 @@
         <v>57</v>
       </c>
       <c r="G38" t="s">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="H38">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I38">
         <v>2</v>
       </c>
       <c r="J38" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K38">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="L38">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M38">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="N38">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="O38">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P38">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="Q38">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R38">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S38">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T38">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U38">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V38">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W38">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X38">
         <v>-1</v>
       </c>
       <c r="Y38">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z38">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA38">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB38">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC38">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -4041,7 +4041,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>7197966</v>
+        <v>7197960</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -4056,37 +4056,37 @@
         <v>58</v>
       </c>
       <c r="G39" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39">
         <v>2</v>
       </c>
       <c r="J39" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K39">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="L39">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M39">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="N39">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="O39">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P39">
-        <v>2.5</v>
+        <v>1.95</v>
       </c>
       <c r="Q39">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R39">
         <v>1.8</v>
@@ -4095,34 +4095,34 @@
         <v>2</v>
       </c>
       <c r="T39">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U39">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V39">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="W39">
         <v>-1</v>
       </c>
       <c r="X39">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y39">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z39">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA39">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB39">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC39">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -4130,7 +4130,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>7197960</v>
+        <v>7197970</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4145,70 +4145,70 @@
         <v>59</v>
       </c>
       <c r="G40" t="s">
-        <v>86</v>
+        <v>46</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I40">
         <v>2</v>
       </c>
       <c r="J40" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K40">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="L40">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M40">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="N40">
-        <v>3</v>
+        <v>2.05</v>
       </c>
       <c r="O40">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P40">
-        <v>1.95</v>
+        <v>3.1</v>
       </c>
       <c r="Q40">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R40">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S40">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T40">
         <v>3</v>
       </c>
       <c r="U40">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V40">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="W40">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X40">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y40">
         <v>-1</v>
       </c>
       <c r="Z40">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AA40">
         <v>-1</v>
       </c>
       <c r="AB40">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC40">
         <v>-1</v>
@@ -4231,7 +4231,7 @@
         <v>45182.65625</v>
       </c>
       <c r="F41" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G41" t="s">
         <v>80</v>
@@ -4323,7 +4323,7 @@
         <v>30</v>
       </c>
       <c r="G42" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H42">
         <v>0</v>
@@ -4397,7 +4397,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>7261755</v>
+        <v>7258502</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4409,13 +4409,13 @@
         <v>45195.65625</v>
       </c>
       <c r="F43" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="G43" t="s">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I43">
         <v>1</v>
@@ -4424,43 +4424,43 @@
         <v>89</v>
       </c>
       <c r="K43">
-        <v>1.533</v>
+        <v>2.35</v>
       </c>
       <c r="L43">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M43">
-        <v>4.75</v>
+        <v>2.55</v>
       </c>
       <c r="N43">
-        <v>1.533</v>
+        <v>2.375</v>
       </c>
       <c r="O43">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P43">
-        <v>4.75</v>
+        <v>2.55</v>
       </c>
       <c r="Q43">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R43">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S43">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T43">
         <v>2.75</v>
       </c>
       <c r="U43">
+        <v>1.875</v>
+      </c>
+      <c r="V43">
         <v>1.925</v>
       </c>
-      <c r="V43">
-        <v>1.875</v>
-      </c>
       <c r="W43">
-        <v>0.5329999999999999</v>
+        <v>1.375</v>
       </c>
       <c r="X43">
         <v>-1</v>
@@ -4469,16 +4469,16 @@
         <v>-1</v>
       </c>
       <c r="Z43">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AA43">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB43">
-        <v>0.4625</v>
+        <v>0.875</v>
       </c>
       <c r="AC43">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="44" spans="1:29">
@@ -4486,7 +4486,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>7258501</v>
+        <v>7261755</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4498,61 +4498,61 @@
         <v>45195.65625</v>
       </c>
       <c r="F44" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G44" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H44">
         <v>2</v>
       </c>
       <c r="I44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J44" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K44">
-        <v>2.3</v>
+        <v>1.533</v>
       </c>
       <c r="L44">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M44">
-        <v>2.55</v>
+        <v>4.75</v>
       </c>
       <c r="N44">
-        <v>2.3</v>
+        <v>1.533</v>
       </c>
       <c r="O44">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P44">
-        <v>2.6</v>
+        <v>4.75</v>
       </c>
       <c r="Q44">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R44">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S44">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T44">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U44">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V44">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W44">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X44">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y44">
         <v>-1</v>
@@ -4564,10 +4564,10 @@
         <v>-0</v>
       </c>
       <c r="AB44">
-        <v>1</v>
+        <v>0.4625</v>
       </c>
       <c r="AC44">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="45" spans="1:29">
@@ -4575,7 +4575,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>7258502</v>
+        <v>7258501</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4587,73 +4587,73 @@
         <v>45195.65625</v>
       </c>
       <c r="F45" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="G45" t="s">
-        <v>39</v>
+        <v>78</v>
       </c>
       <c r="H45">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I45">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J45" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K45">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="L45">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M45">
         <v>2.55</v>
       </c>
       <c r="N45">
-        <v>2.375</v>
+        <v>2.3</v>
       </c>
       <c r="O45">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P45">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="Q45">
         <v>0</v>
       </c>
       <c r="R45">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S45">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T45">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U45">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V45">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W45">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X45">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y45">
         <v>-1</v>
       </c>
       <c r="Z45">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AA45">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB45">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="AC45">
         <v>-1</v>
@@ -4676,7 +4676,7 @@
         <v>45196.65625</v>
       </c>
       <c r="F46" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G46" t="s">
         <v>54</v>
@@ -4753,7 +4753,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>7287701</v>
+        <v>7287695</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4765,55 +4765,55 @@
         <v>45202.65625</v>
       </c>
       <c r="F47" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="G47" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
         <v>1</v>
-      </c>
-      <c r="I47">
-        <v>3</v>
       </c>
       <c r="J47" t="s">
         <v>91</v>
       </c>
       <c r="K47">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="L47">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M47">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="N47">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="O47">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="P47">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="Q47">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R47">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S47">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T47">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U47">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V47">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="W47">
         <v>-1</v>
@@ -4822,19 +4822,19 @@
         <v>-1</v>
       </c>
       <c r="Y47">
-        <v>1.1</v>
+        <v>1.6</v>
       </c>
       <c r="Z47">
         <v>-1</v>
       </c>
       <c r="AA47">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB47">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC47">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="48" spans="1:29">
@@ -4842,7 +4842,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>7287695</v>
+        <v>7287633</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4854,76 +4854,76 @@
         <v>45202.65625</v>
       </c>
       <c r="F48" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="G48" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="H48">
         <v>0</v>
       </c>
       <c r="I48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J48" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K48">
-        <v>2.4</v>
+        <v>2.55</v>
       </c>
       <c r="L48">
         <v>3.2</v>
       </c>
       <c r="M48">
-        <v>2.6</v>
+        <v>2.45</v>
       </c>
       <c r="N48">
-        <v>2.4</v>
+        <v>2.55</v>
       </c>
       <c r="O48">
         <v>3.2</v>
       </c>
       <c r="P48">
-        <v>2.6</v>
+        <v>2.45</v>
       </c>
       <c r="Q48">
         <v>0</v>
       </c>
       <c r="R48">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S48">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T48">
         <v>2.75</v>
       </c>
       <c r="U48">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V48">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="W48">
         <v>-1</v>
       </c>
       <c r="X48">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y48">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z48">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA48">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB48">
         <v>-1</v>
       </c>
       <c r="AC48">
-        <v>0.7749999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="49" spans="1:29">
@@ -4946,7 +4946,7 @@
         <v>63</v>
       </c>
       <c r="G49" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H49">
         <v>0</v>
@@ -5020,7 +5020,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>7287633</v>
+        <v>7287701</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -5035,73 +5035,73 @@
         <v>64</v>
       </c>
       <c r="G50" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I50">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J50" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K50">
-        <v>2.55</v>
+        <v>3</v>
       </c>
       <c r="L50">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M50">
-        <v>2.45</v>
+        <v>2.1</v>
       </c>
       <c r="N50">
-        <v>2.55</v>
+        <v>3</v>
       </c>
       <c r="O50">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P50">
-        <v>2.45</v>
+        <v>2.1</v>
       </c>
       <c r="Q50">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R50">
+        <v>1.9</v>
+      </c>
+      <c r="S50">
+        <v>1.9</v>
+      </c>
+      <c r="T50">
+        <v>2.25</v>
+      </c>
+      <c r="U50">
+        <v>1.85</v>
+      </c>
+      <c r="V50">
         <v>1.95</v>
       </c>
-      <c r="S50">
-        <v>1.85</v>
-      </c>
-      <c r="T50">
-        <v>2.75</v>
-      </c>
-      <c r="U50">
-        <v>1.95</v>
-      </c>
-      <c r="V50">
-        <v>1.85</v>
-      </c>
       <c r="W50">
         <v>-1</v>
       </c>
       <c r="X50">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y50">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z50">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA50">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB50">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC50">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -5302,7 +5302,7 @@
         <v>55</v>
       </c>
       <c r="G53" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="H53">
         <v>1</v>
@@ -5376,7 +5376,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>7319624</v>
+        <v>7319608</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5391,7 +5391,7 @@
         <v>66</v>
       </c>
       <c r="G54" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H54">
         <v>3</v>
@@ -5403,31 +5403,31 @@
         <v>89</v>
       </c>
       <c r="K54">
-        <v>2.4</v>
+        <v>1.95</v>
       </c>
       <c r="L54">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="M54">
-        <v>2.4</v>
+        <v>2.75</v>
       </c>
       <c r="N54">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="O54">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P54">
-        <v>2.4</v>
+        <v>2.75</v>
       </c>
       <c r="Q54">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R54">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S54">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T54">
         <v>2.75</v>
@@ -5439,7 +5439,7 @@
         <v>1.9</v>
       </c>
       <c r="W54">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="X54">
         <v>-1</v>
@@ -5448,7 +5448,7 @@
         <v>-1</v>
       </c>
       <c r="Z54">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AA54">
         <v>-1</v>
@@ -5465,7 +5465,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>7319608</v>
+        <v>7319621</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5480,55 +5480,55 @@
         <v>67</v>
       </c>
       <c r="G55" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="H55">
         <v>3</v>
       </c>
       <c r="I55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J55" t="s">
         <v>89</v>
       </c>
       <c r="K55">
-        <v>1.95</v>
+        <v>2.2</v>
       </c>
       <c r="L55">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="M55">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="N55">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="O55">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P55">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="Q55">
         <v>-0.25</v>
       </c>
       <c r="R55">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S55">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T55">
         <v>2.75</v>
       </c>
       <c r="U55">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V55">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W55">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="X55">
         <v>-1</v>
@@ -5537,16 +5537,16 @@
         <v>-1</v>
       </c>
       <c r="Z55">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA55">
         <v>-1</v>
       </c>
       <c r="AB55">
-        <v>0.8999999999999999</v>
+        <v>0.4</v>
       </c>
       <c r="AC55">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="56" spans="1:29">
@@ -5554,7 +5554,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>7319621</v>
+        <v>7319624</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5569,37 +5569,37 @@
         <v>68</v>
       </c>
       <c r="G56" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H56">
         <v>3</v>
       </c>
       <c r="I56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J56" t="s">
         <v>89</v>
       </c>
       <c r="K56">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="L56">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="M56">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="N56">
-        <v>2.05</v>
+        <v>2.4</v>
       </c>
       <c r="O56">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P56">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="Q56">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R56">
         <v>1.9</v>
@@ -5611,13 +5611,13 @@
         <v>2.75</v>
       </c>
       <c r="U56">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V56">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W56">
-        <v>1.05</v>
+        <v>1.4</v>
       </c>
       <c r="X56">
         <v>-1</v>
@@ -5632,10 +5632,10 @@
         <v>-1</v>
       </c>
       <c r="AB56">
-        <v>0.4</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC56">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="57" spans="1:29">
@@ -5643,7 +5643,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>7338187</v>
+        <v>7338189</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5655,40 +5655,40 @@
         <v>45213.45833333334</v>
       </c>
       <c r="F57" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G57" t="s">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I57">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J57" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K57">
-        <v>1.5</v>
+        <v>2.7</v>
       </c>
       <c r="L57">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="M57">
-        <v>4</v>
+        <v>2.1</v>
       </c>
       <c r="N57">
-        <v>1.5</v>
+        <v>2.55</v>
       </c>
       <c r="O57">
-        <v>5</v>
+        <v>3.8</v>
       </c>
       <c r="P57">
-        <v>4</v>
+        <v>2.15</v>
       </c>
       <c r="Q57">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R57">
         <v>1.8</v>
@@ -5697,34 +5697,34 @@
         <v>2</v>
       </c>
       <c r="T57">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U57">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V57">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W57">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X57">
         <v>-1</v>
       </c>
       <c r="Y57">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z57">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA57">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB57">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC57">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="58" spans="1:29">
@@ -5732,7 +5732,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>7338189</v>
+        <v>7338188</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5744,76 +5744,76 @@
         <v>45213.45833333334</v>
       </c>
       <c r="F58" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="G58" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H58">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I58">
         <v>2</v>
       </c>
       <c r="J58" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K58">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="L58">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M58">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="N58">
-        <v>2.55</v>
+        <v>1.833</v>
       </c>
       <c r="O58">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="P58">
-        <v>2.15</v>
+        <v>3.1</v>
       </c>
       <c r="Q58">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R58">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S58">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T58">
         <v>3</v>
       </c>
       <c r="U58">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V58">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W58">
         <v>-1</v>
       </c>
       <c r="X58">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y58">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z58">
         <v>-1</v>
       </c>
       <c r="AA58">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AB58">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AC58">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="59" spans="1:29">
@@ -5821,7 +5821,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>7338188</v>
+        <v>7338187</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5833,76 +5833,76 @@
         <v>45213.45833333334</v>
       </c>
       <c r="F59" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="G59" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="H59">
         <v>2</v>
       </c>
       <c r="I59">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J59" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K59">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="L59">
+        <v>5</v>
+      </c>
+      <c r="M59">
         <v>4</v>
       </c>
-      <c r="M59">
-        <v>2.6</v>
-      </c>
       <c r="N59">
-        <v>1.833</v>
+        <v>1.5</v>
       </c>
       <c r="O59">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="P59">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="Q59">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R59">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S59">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T59">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U59">
+        <v>1.975</v>
+      </c>
+      <c r="V59">
         <v>1.825</v>
       </c>
-      <c r="V59">
-        <v>1.975</v>
-      </c>
       <c r="W59">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X59">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y59">
         <v>-1</v>
       </c>
       <c r="Z59">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA59">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB59">
+        <v>-1</v>
+      </c>
+      <c r="AC59">
         <v>0.825</v>
-      </c>
-      <c r="AC59">
-        <v>-1</v>
       </c>
     </row>
     <row r="60" spans="1:29">
@@ -5910,7 +5910,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>7350911</v>
+        <v>7350910</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -5922,40 +5922,40 @@
         <v>45216.65625</v>
       </c>
       <c r="F60" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="G60" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J60" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K60">
-        <v>4.4</v>
+        <v>2.25</v>
       </c>
       <c r="L60">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="M60">
-        <v>1.55</v>
+        <v>2.5</v>
       </c>
       <c r="N60">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="O60">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="P60">
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
       <c r="Q60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R60">
         <v>2</v>
@@ -5967,31 +5967,31 @@
         <v>2.75</v>
       </c>
       <c r="U60">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="V60">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="W60">
         <v>-1</v>
       </c>
       <c r="X60">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y60">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z60">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA60">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB60">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AC60">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="61" spans="1:29">
@@ -5999,7 +5999,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>7350921</v>
+        <v>7350911</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -6011,76 +6011,76 @@
         <v>45216.65625</v>
       </c>
       <c r="F61" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="G61" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="H61">
         <v>2</v>
       </c>
       <c r="I61">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J61" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K61">
-        <v>2</v>
+        <v>4.4</v>
       </c>
       <c r="L61">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="M61">
-        <v>2.75</v>
+        <v>1.55</v>
       </c>
       <c r="N61">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O61">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="P61">
-        <v>2.75</v>
+        <v>1.5</v>
       </c>
       <c r="Q61">
-        <v>-0.25</v>
+        <v>1</v>
       </c>
       <c r="R61">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S61">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T61">
         <v>2.75</v>
       </c>
       <c r="U61">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="V61">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W61">
+        <v>-1</v>
+      </c>
+      <c r="X61">
+        <v>3.333</v>
+      </c>
+      <c r="Y61">
+        <v>-1</v>
+      </c>
+      <c r="Z61">
         <v>1</v>
       </c>
-      <c r="X61">
-        <v>-1</v>
-      </c>
-      <c r="Y61">
-        <v>-1</v>
-      </c>
-      <c r="Z61">
-        <v>0.8500000000000001</v>
-      </c>
       <c r="AA61">
         <v>-1</v>
       </c>
       <c r="AB61">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AC61">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="62" spans="1:29">
@@ -6088,7 +6088,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>7350912</v>
+        <v>7350921</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -6100,58 +6100,58 @@
         <v>45216.65625</v>
       </c>
       <c r="F62" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="G62" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="H62">
         <v>2</v>
       </c>
       <c r="I62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J62" t="s">
         <v>89</v>
       </c>
       <c r="K62">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="L62">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="M62">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="N62">
-        <v>2.375</v>
+        <v>2</v>
       </c>
       <c r="O62">
         <v>4</v>
       </c>
       <c r="P62">
-        <v>2.3</v>
+        <v>2.75</v>
       </c>
       <c r="Q62">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R62">
+        <v>1.85</v>
+      </c>
+      <c r="S62">
+        <v>1.95</v>
+      </c>
+      <c r="T62">
+        <v>2.75</v>
+      </c>
+      <c r="U62">
+        <v>1.875</v>
+      </c>
+      <c r="V62">
         <v>1.925</v>
       </c>
-      <c r="S62">
-        <v>1.875</v>
-      </c>
-      <c r="T62">
-        <v>3</v>
-      </c>
-      <c r="U62">
-        <v>1.95</v>
-      </c>
-      <c r="V62">
-        <v>1.85</v>
-      </c>
       <c r="W62">
-        <v>1.375</v>
+        <v>1</v>
       </c>
       <c r="X62">
         <v>-1</v>
@@ -6160,16 +6160,16 @@
         <v>-1</v>
       </c>
       <c r="Z62">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AA62">
+        <v>-1</v>
+      </c>
+      <c r="AB62">
+        <v>-1</v>
+      </c>
+      <c r="AC62">
         <v>0.925</v>
-      </c>
-      <c r="AA62">
-        <v>-1</v>
-      </c>
-      <c r="AB62">
-        <v>0</v>
-      </c>
-      <c r="AC62">
-        <v>-0</v>
       </c>
     </row>
     <row r="63" spans="1:29">
@@ -6177,7 +6177,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>7350910</v>
+        <v>7350912</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6189,49 +6189,49 @@
         <v>45216.65625</v>
       </c>
       <c r="F63" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="G63" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63">
         <v>1</v>
       </c>
       <c r="J63" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K63">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L63">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="M63">
         <v>2.5</v>
       </c>
       <c r="N63">
-        <v>2.5</v>
+        <v>2.375</v>
       </c>
       <c r="O63">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P63">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="Q63">
         <v>0</v>
       </c>
       <c r="R63">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S63">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T63">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U63">
         <v>1.95</v>
@@ -6240,25 +6240,25 @@
         <v>1.85</v>
       </c>
       <c r="W63">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X63">
         <v>-1</v>
       </c>
       <c r="Y63">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z63">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA63">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB63">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC63">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -6459,7 +6459,7 @@
         <v>71</v>
       </c>
       <c r="G66" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="H66">
         <v>1</v>
@@ -6533,7 +6533,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>7395812</v>
+        <v>7395879</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6545,76 +6545,76 @@
         <v>45227.45833333334</v>
       </c>
       <c r="F67" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G67" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="H67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I67">
         <v>1</v>
       </c>
       <c r="J67" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K67">
-        <v>2</v>
+        <v>1.727</v>
       </c>
       <c r="L67">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M67">
+        <v>3.75</v>
+      </c>
+      <c r="N67">
+        <v>1.7</v>
+      </c>
+      <c r="O67">
+        <v>3.75</v>
+      </c>
+      <c r="P67">
+        <v>3.8</v>
+      </c>
+      <c r="Q67">
+        <v>-0.75</v>
+      </c>
+      <c r="R67">
+        <v>1.95</v>
+      </c>
+      <c r="S67">
+        <v>1.85</v>
+      </c>
+      <c r="T67">
         <v>3</v>
       </c>
-      <c r="N67">
-        <v>2</v>
-      </c>
-      <c r="O67">
-        <v>3.6</v>
-      </c>
-      <c r="P67">
-        <v>3</v>
-      </c>
-      <c r="Q67">
-        <v>-0.25</v>
-      </c>
-      <c r="R67">
-        <v>1.8</v>
-      </c>
-      <c r="S67">
-        <v>2</v>
-      </c>
-      <c r="T67">
-        <v>2.75</v>
-      </c>
       <c r="U67">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="V67">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W67">
         <v>-1</v>
       </c>
       <c r="X67">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y67">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z67">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA67">
-        <v>0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB67">
         <v>-1</v>
       </c>
       <c r="AC67">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="68" spans="1:29">
@@ -6637,7 +6637,7 @@
         <v>31</v>
       </c>
       <c r="G68" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H68">
         <v>4</v>
@@ -6711,7 +6711,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>7395879</v>
+        <v>7395812</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6723,76 +6723,76 @@
         <v>45227.45833333334</v>
       </c>
       <c r="F69" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G69" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I69">
         <v>1</v>
       </c>
       <c r="J69" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K69">
-        <v>1.727</v>
+        <v>2</v>
       </c>
       <c r="L69">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M69">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="N69">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="O69">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P69">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="Q69">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R69">
+        <v>1.8</v>
+      </c>
+      <c r="S69">
+        <v>2</v>
+      </c>
+      <c r="T69">
+        <v>2.75</v>
+      </c>
+      <c r="U69">
+        <v>1.75</v>
+      </c>
+      <c r="V69">
         <v>1.95</v>
       </c>
-      <c r="S69">
-        <v>1.85</v>
-      </c>
-      <c r="T69">
-        <v>3</v>
-      </c>
-      <c r="U69">
-        <v>1.9</v>
-      </c>
-      <c r="V69">
-        <v>1.9</v>
-      </c>
       <c r="W69">
         <v>-1</v>
       </c>
       <c r="X69">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y69">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Z69">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA69">
-        <v>0.8500000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AB69">
         <v>-1</v>
       </c>
       <c r="AC69">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -6815,7 +6815,7 @@
         <v>72</v>
       </c>
       <c r="G70" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H70">
         <v>2</v>
@@ -6990,10 +6990,10 @@
         <v>45237.69791666666</v>
       </c>
       <c r="F72" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="G72" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H72">
         <v>1</v>
@@ -7079,7 +7079,7 @@
         <v>45237.69791666666</v>
       </c>
       <c r="F73" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G73" t="s">
         <v>71</v>
@@ -7168,7 +7168,7 @@
         <v>45237.69791666666</v>
       </c>
       <c r="F74" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="G74" t="s">
         <v>80</v>
@@ -7346,10 +7346,10 @@
         <v>45237.69791666666</v>
       </c>
       <c r="F76" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G76" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H76">
         <v>2</v>
@@ -7423,7 +7423,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>7476389</v>
+        <v>7476390</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7435,73 +7435,73 @@
         <v>45244.69791666666</v>
       </c>
       <c r="F77" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G77" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I77">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J77" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K77">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L77">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M77">
-        <v>1.75</v>
+        <v>3</v>
       </c>
       <c r="N77">
-        <v>3.75</v>
+        <v>2</v>
       </c>
       <c r="O77">
         <v>3.6</v>
       </c>
       <c r="P77">
-        <v>1.75</v>
+        <v>3</v>
       </c>
       <c r="Q77">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R77">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S77">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T77">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U77">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V77">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W77">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X77">
         <v>-1</v>
       </c>
       <c r="Y77">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z77">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA77">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB77">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="AC77">
         <v>-1</v>
@@ -7512,7 +7512,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>7473235</v>
+        <v>7476389</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7524,73 +7524,73 @@
         <v>45244.69791666666</v>
       </c>
       <c r="F78" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="G78" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="H78">
+        <v>0</v>
+      </c>
+      <c r="I78">
+        <v>6</v>
+      </c>
+      <c r="J78" t="s">
+        <v>91</v>
+      </c>
+      <c r="K78">
         <v>4</v>
       </c>
-      <c r="I78">
-        <v>2</v>
-      </c>
-      <c r="J78" t="s">
-        <v>89</v>
-      </c>
-      <c r="K78">
-        <v>1.727</v>
-      </c>
       <c r="L78">
+        <v>3.4</v>
+      </c>
+      <c r="M78">
+        <v>1.75</v>
+      </c>
+      <c r="N78">
         <v>3.75</v>
       </c>
-      <c r="M78">
-        <v>3.75</v>
-      </c>
-      <c r="N78">
+      <c r="O78">
+        <v>3.6</v>
+      </c>
+      <c r="P78">
         <v>1.75</v>
       </c>
-      <c r="O78">
-        <v>3.75</v>
-      </c>
-      <c r="P78">
-        <v>3.6</v>
-      </c>
       <c r="Q78">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R78">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S78">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T78">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U78">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V78">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W78">
+        <v>-1</v>
+      </c>
+      <c r="X78">
+        <v>-1</v>
+      </c>
+      <c r="Y78">
         <v>0.75</v>
       </c>
-      <c r="X78">
-        <v>-1</v>
-      </c>
-      <c r="Y78">
-        <v>-1</v>
-      </c>
       <c r="Z78">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA78">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB78">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AC78">
         <v>-1</v>
@@ -7601,7 +7601,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>7473234</v>
+        <v>7473235</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7613,58 +7613,58 @@
         <v>45244.69791666666</v>
       </c>
       <c r="F79" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="G79" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="H79">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I79">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J79" t="s">
         <v>89</v>
       </c>
       <c r="K79">
-        <v>2.5</v>
+        <v>1.727</v>
       </c>
       <c r="L79">
+        <v>3.75</v>
+      </c>
+      <c r="M79">
+        <v>3.75</v>
+      </c>
+      <c r="N79">
+        <v>1.75</v>
+      </c>
+      <c r="O79">
+        <v>3.75</v>
+      </c>
+      <c r="P79">
         <v>3.6</v>
       </c>
-      <c r="M79">
-        <v>2.3</v>
-      </c>
-      <c r="N79">
-        <v>2.3</v>
-      </c>
-      <c r="O79">
-        <v>3.6</v>
-      </c>
-      <c r="P79">
-        <v>2.45</v>
-      </c>
       <c r="Q79">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R79">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S79">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T79">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U79">
+        <v>1.85</v>
+      </c>
+      <c r="V79">
         <v>1.95</v>
       </c>
-      <c r="V79">
-        <v>1.85</v>
-      </c>
       <c r="W79">
-        <v>1.3</v>
+        <v>0.75</v>
       </c>
       <c r="X79">
         <v>-1</v>
@@ -7673,13 +7673,13 @@
         <v>-1</v>
       </c>
       <c r="Z79">
-        <v>0.825</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA79">
         <v>-1</v>
       </c>
       <c r="AB79">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC79">
         <v>-1</v>
@@ -7690,7 +7690,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>7476390</v>
+        <v>7473234</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7702,58 +7702,58 @@
         <v>45244.69791666666</v>
       </c>
       <c r="F80" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="G80" t="s">
-        <v>84</v>
+        <v>49</v>
       </c>
       <c r="H80">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I80">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J80" t="s">
         <v>89</v>
       </c>
       <c r="K80">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="L80">
         <v>3.6</v>
       </c>
       <c r="M80">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="N80">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="O80">
         <v>3.6</v>
       </c>
       <c r="P80">
-        <v>3</v>
+        <v>2.45</v>
       </c>
       <c r="Q80">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R80">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S80">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T80">
         <v>2.75</v>
       </c>
       <c r="U80">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V80">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W80">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="X80">
         <v>-1</v>
@@ -7762,13 +7762,13 @@
         <v>-1</v>
       </c>
       <c r="Z80">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AA80">
         <v>-1</v>
       </c>
       <c r="AB80">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AC80">
         <v>-1</v>
@@ -7883,7 +7883,7 @@
         <v>34</v>
       </c>
       <c r="G82" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H82">
         <v>2</v>
@@ -7969,10 +7969,10 @@
         <v>45258.69791666666</v>
       </c>
       <c r="F83" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G83" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H83">
         <v>2</v>
@@ -8150,7 +8150,7 @@
         <v>69</v>
       </c>
       <c r="G85" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H85">
         <v>1</v>
@@ -8313,7 +8313,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>7569472</v>
+        <v>7569473</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8325,56 +8325,56 @@
         <v>45269.5</v>
       </c>
       <c r="F87" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="G87" t="s">
-        <v>53</v>
+        <v>82</v>
       </c>
       <c r="H87">
         <v>0</v>
       </c>
       <c r="I87">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J87" t="s">
         <v>91</v>
       </c>
       <c r="K87">
-        <v>7</v>
+        <v>2.7</v>
       </c>
       <c r="L87">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="M87">
-        <v>1.333</v>
+        <v>2.1</v>
       </c>
       <c r="N87">
-        <v>7</v>
+        <v>2.7</v>
       </c>
       <c r="O87">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="P87">
-        <v>1.333</v>
+        <v>2.1</v>
       </c>
       <c r="Q87">
-        <v>1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R87">
+        <v>1.875</v>
+      </c>
+      <c r="S87">
+        <v>1.925</v>
+      </c>
+      <c r="T87">
+        <v>3</v>
+      </c>
+      <c r="U87">
         <v>1.95</v>
       </c>
-      <c r="S87">
+      <c r="V87">
         <v>1.85</v>
       </c>
-      <c r="T87">
-        <v>3.25</v>
-      </c>
-      <c r="U87">
-        <v>1.85</v>
-      </c>
-      <c r="V87">
-        <v>1.95</v>
-      </c>
       <c r="W87">
         <v>-1</v>
       </c>
@@ -8382,19 +8382,19 @@
         <v>-1</v>
       </c>
       <c r="Y87">
-        <v>0.333</v>
+        <v>1.1</v>
       </c>
       <c r="Z87">
         <v>-1</v>
       </c>
       <c r="AA87">
+        <v>0.925</v>
+      </c>
+      <c r="AB87">
+        <v>-1</v>
+      </c>
+      <c r="AC87">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AB87">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AC87">
-        <v>-1</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8402,7 +8402,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>7569473</v>
+        <v>7569472</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8414,56 +8414,56 @@
         <v>45269.5</v>
       </c>
       <c r="F88" t="s">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="G88" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="H88">
         <v>0</v>
       </c>
       <c r="I88">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J88" t="s">
         <v>91</v>
       </c>
       <c r="K88">
-        <v>2.7</v>
+        <v>7</v>
       </c>
       <c r="L88">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="M88">
-        <v>2.1</v>
+        <v>1.333</v>
       </c>
       <c r="N88">
-        <v>2.7</v>
+        <v>7</v>
       </c>
       <c r="O88">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="P88">
-        <v>2.1</v>
+        <v>1.333</v>
       </c>
       <c r="Q88">
-        <v>0.25</v>
+        <v>1.5</v>
       </c>
       <c r="R88">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S88">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T88">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U88">
+        <v>1.85</v>
+      </c>
+      <c r="V88">
         <v>1.95</v>
       </c>
-      <c r="V88">
-        <v>1.85</v>
-      </c>
       <c r="W88">
         <v>-1</v>
       </c>
@@ -8471,19 +8471,19 @@
         <v>-1</v>
       </c>
       <c r="Y88">
-        <v>1.1</v>
+        <v>0.333</v>
       </c>
       <c r="Z88">
         <v>-1</v>
       </c>
       <c r="AA88">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB88">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC88">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8503,10 +8503,10 @@
         <v>45272.69791666666</v>
       </c>
       <c r="F89" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G89" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H89">
         <v>0</v>
@@ -8592,10 +8592,10 @@
         <v>45272.69791666666</v>
       </c>
       <c r="F90" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G90" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="H90">
         <v>0</v>
@@ -8681,7 +8681,7 @@
         <v>45275.69791666666</v>
       </c>
       <c r="F91" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G91" t="s">
         <v>83</v>
@@ -8859,7 +8859,7 @@
         <v>45282.69791666666</v>
       </c>
       <c r="F93" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G93" t="s">
         <v>29</v>
@@ -8936,7 +8936,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>7618668</v>
+        <v>7618670</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8948,76 +8948,76 @@
         <v>45283.5</v>
       </c>
       <c r="F94" t="s">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="G94" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J94" t="s">
         <v>90</v>
       </c>
       <c r="K94">
-        <v>2.1</v>
+        <v>2.75</v>
       </c>
       <c r="L94">
         <v>3.4</v>
       </c>
       <c r="M94">
-        <v>2.9</v>
+        <v>2.2</v>
       </c>
       <c r="N94">
-        <v>2.15</v>
+        <v>2.45</v>
       </c>
       <c r="O94">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P94">
-        <v>2.9</v>
+        <v>2.5</v>
       </c>
       <c r="Q94">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R94">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S94">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T94">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U94">
+        <v>1.975</v>
+      </c>
+      <c r="V94">
         <v>1.825</v>
       </c>
-      <c r="V94">
-        <v>1.975</v>
-      </c>
       <c r="W94">
         <v>-1</v>
       </c>
       <c r="X94">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="Y94">
         <v>-1</v>
       </c>
       <c r="Z94">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA94">
-        <v>0.425</v>
+        <v>-0</v>
       </c>
       <c r="AB94">
         <v>-1</v>
       </c>
       <c r="AC94">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="95" spans="1:29">
@@ -9025,7 +9025,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>7618670</v>
+        <v>7618668</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -9037,76 +9037,76 @@
         <v>45283.5</v>
       </c>
       <c r="F95" t="s">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="G95" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="H95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J95" t="s">
         <v>90</v>
       </c>
       <c r="K95">
-        <v>2.75</v>
+        <v>2.1</v>
       </c>
       <c r="L95">
         <v>3.4</v>
       </c>
       <c r="M95">
+        <v>2.9</v>
+      </c>
+      <c r="N95">
+        <v>2.15</v>
+      </c>
+      <c r="O95">
+        <v>3.2</v>
+      </c>
+      <c r="P95">
+        <v>2.9</v>
+      </c>
+      <c r="Q95">
+        <v>-0.25</v>
+      </c>
+      <c r="R95">
+        <v>1.95</v>
+      </c>
+      <c r="S95">
+        <v>1.85</v>
+      </c>
+      <c r="T95">
+        <v>2.5</v>
+      </c>
+      <c r="U95">
+        <v>1.825</v>
+      </c>
+      <c r="V95">
+        <v>1.975</v>
+      </c>
+      <c r="W95">
+        <v>-1</v>
+      </c>
+      <c r="X95">
         <v>2.2</v>
       </c>
-      <c r="N95">
-        <v>2.45</v>
-      </c>
-      <c r="O95">
-        <v>3.3</v>
-      </c>
-      <c r="P95">
-        <v>2.5</v>
-      </c>
-      <c r="Q95">
-        <v>0</v>
-      </c>
-      <c r="R95">
-        <v>1.875</v>
-      </c>
-      <c r="S95">
-        <v>1.925</v>
-      </c>
-      <c r="T95">
-        <v>2.75</v>
-      </c>
-      <c r="U95">
-        <v>1.975</v>
-      </c>
-      <c r="V95">
-        <v>1.825</v>
-      </c>
-      <c r="W95">
-        <v>-1</v>
-      </c>
-      <c r="X95">
-        <v>2.3</v>
-      </c>
       <c r="Y95">
         <v>-1</v>
       </c>
       <c r="Z95">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA95">
-        <v>-0</v>
+        <v>0.425</v>
       </c>
       <c r="AB95">
         <v>-1</v>
       </c>
       <c r="AC95">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -9114,7 +9114,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>7624928</v>
+        <v>7624929</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -9126,58 +9126,58 @@
         <v>45286.41666666666</v>
       </c>
       <c r="F96" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G96" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H96">
+        <v>2</v>
+      </c>
+      <c r="I96">
         <v>1</v>
-      </c>
-      <c r="I96">
-        <v>0</v>
       </c>
       <c r="J96" t="s">
         <v>89</v>
       </c>
       <c r="K96">
-        <v>2.75</v>
+        <v>1.727</v>
       </c>
       <c r="L96">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="M96">
-        <v>2.25</v>
+        <v>3.5</v>
       </c>
       <c r="N96">
-        <v>2.9</v>
+        <v>1.95</v>
       </c>
       <c r="O96">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="P96">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="Q96">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R96">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S96">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T96">
         <v>2.75</v>
       </c>
       <c r="U96">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V96">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W96">
-        <v>1.9</v>
+        <v>0.95</v>
       </c>
       <c r="X96">
         <v>-1</v>
@@ -9186,16 +9186,16 @@
         <v>-1</v>
       </c>
       <c r="Z96">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AA96">
         <v>-1</v>
       </c>
       <c r="AB96">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AC96">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="97" spans="1:29">
@@ -9203,7 +9203,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>7624929</v>
+        <v>7624928</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9215,58 +9215,58 @@
         <v>45286.41666666666</v>
       </c>
       <c r="F97" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="G97" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J97" t="s">
         <v>89</v>
       </c>
       <c r="K97">
-        <v>1.727</v>
+        <v>2.75</v>
       </c>
       <c r="L97">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="M97">
-        <v>3.5</v>
+        <v>2.25</v>
       </c>
       <c r="N97">
+        <v>2.9</v>
+      </c>
+      <c r="O97">
+        <v>3.3</v>
+      </c>
+      <c r="P97">
+        <v>2.25</v>
+      </c>
+      <c r="Q97">
+        <v>0.25</v>
+      </c>
+      <c r="R97">
+        <v>1.85</v>
+      </c>
+      <c r="S97">
         <v>1.95</v>
-      </c>
-      <c r="O97">
-        <v>3.8</v>
-      </c>
-      <c r="P97">
-        <v>3</v>
-      </c>
-      <c r="Q97">
-        <v>-0.25</v>
-      </c>
-      <c r="R97">
-        <v>1.8</v>
-      </c>
-      <c r="S97">
-        <v>2</v>
       </c>
       <c r="T97">
         <v>2.75</v>
       </c>
       <c r="U97">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V97">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W97">
-        <v>0.95</v>
+        <v>1.9</v>
       </c>
       <c r="X97">
         <v>-1</v>
@@ -9275,16 +9275,16 @@
         <v>-1</v>
       </c>
       <c r="Z97">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA97">
         <v>-1</v>
       </c>
       <c r="AB97">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AC97">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="98" spans="1:29">
@@ -9304,7 +9304,7 @@
         <v>45287.69791666666</v>
       </c>
       <c r="F98" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G98" t="s">
         <v>34</v>
@@ -9559,7 +9559,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>7639915</v>
+        <v>7640085</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9574,46 +9574,46 @@
         <v>73</v>
       </c>
       <c r="G101" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="H101">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I101">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J101" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K101">
-        <v>1.3</v>
+        <v>2.25</v>
       </c>
       <c r="L101">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M101">
-        <v>7</v>
+        <v>2.4</v>
       </c>
       <c r="N101">
-        <v>1.4</v>
+        <v>2.15</v>
       </c>
       <c r="O101">
-        <v>4.75</v>
+        <v>3.8</v>
       </c>
       <c r="P101">
-        <v>5.5</v>
+        <v>2.55</v>
       </c>
       <c r="Q101">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R101">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S101">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T101">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U101">
         <v>1.95</v>
@@ -9622,25 +9622,25 @@
         <v>1.85</v>
       </c>
       <c r="W101">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X101">
         <v>-1</v>
       </c>
       <c r="Y101">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="Z101">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA101">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB101">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AC101">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9648,7 +9648,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>7640085</v>
+        <v>7639918</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9660,49 +9660,49 @@
         <v>45290.5</v>
       </c>
       <c r="F102" t="s">
-        <v>74</v>
+        <v>32</v>
       </c>
       <c r="G102" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="H102">
+        <v>2</v>
+      </c>
+      <c r="I102">
         <v>1</v>
       </c>
-      <c r="I102">
-        <v>2</v>
-      </c>
       <c r="J102" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K102">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="L102">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M102">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="N102">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="O102">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P102">
-        <v>2.55</v>
+        <v>3</v>
       </c>
       <c r="Q102">
         <v>-0.25</v>
       </c>
       <c r="R102">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S102">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T102">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U102">
         <v>1.95</v>
@@ -9711,25 +9711,25 @@
         <v>1.85</v>
       </c>
       <c r="W102">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X102">
         <v>-1</v>
       </c>
       <c r="Y102">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="Z102">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA102">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB102">
-        <v>0</v>
+        <v>0.475</v>
       </c>
       <c r="AC102">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -9737,7 +9737,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>7639918</v>
+        <v>7639915</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9749,49 +9749,49 @@
         <v>45290.5</v>
       </c>
       <c r="F103" t="s">
-        <v>32</v>
+        <v>74</v>
       </c>
       <c r="G103" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J103" t="s">
         <v>89</v>
       </c>
       <c r="K103">
-        <v>2.5</v>
+        <v>1.3</v>
       </c>
       <c r="L103">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="M103">
-        <v>2.35</v>
+        <v>7</v>
       </c>
       <c r="N103">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="O103">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="P103">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="Q103">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R103">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S103">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T103">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U103">
         <v>1.95</v>
@@ -9800,7 +9800,7 @@
         <v>1.85</v>
       </c>
       <c r="W103">
-        <v>1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X103">
         <v>-1</v>
@@ -9809,16 +9809,16 @@
         <v>-1</v>
       </c>
       <c r="Z103">
-        <v>0.8</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA103">
         <v>-1</v>
       </c>
       <c r="AB103">
-        <v>0.475</v>
+        <v>0.95</v>
       </c>
       <c r="AC103">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9841,7 +9841,7 @@
         <v>34</v>
       </c>
       <c r="G104" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="H104">
         <v>3</v>
@@ -9915,7 +9915,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>7649184</v>
+        <v>7649124</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9927,58 +9927,58 @@
         <v>45292.5</v>
       </c>
       <c r="F105" t="s">
-        <v>66</v>
+        <v>30</v>
       </c>
       <c r="G105" t="s">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I105">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J105" t="s">
         <v>89</v>
       </c>
       <c r="K105">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="L105">
         <v>3.75</v>
       </c>
       <c r="M105">
-        <v>3.4</v>
+        <v>2.25</v>
       </c>
       <c r="N105">
-        <v>1.7</v>
+        <v>2.55</v>
       </c>
       <c r="O105">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P105">
-        <v>3.75</v>
+        <v>2.25</v>
       </c>
       <c r="Q105">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R105">
-        <v>1.95</v>
+        <v>1.725</v>
       </c>
       <c r="S105">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T105">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U105">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="V105">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W105">
-        <v>0.7</v>
+        <v>1.55</v>
       </c>
       <c r="X105">
         <v>-1</v>
@@ -9987,16 +9987,16 @@
         <v>-1</v>
       </c>
       <c r="Z105">
-        <v>0.95</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA105">
         <v>-1</v>
       </c>
       <c r="AB105">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC105">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -10004,7 +10004,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>7649295</v>
+        <v>7649195</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -10016,76 +10016,76 @@
         <v>45292.5</v>
       </c>
       <c r="F106" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="G106" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="H106">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I106">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J106" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K106">
-        <v>1.909</v>
+        <v>2.4</v>
       </c>
       <c r="L106">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M106">
-        <v>3.2</v>
+        <v>2.4</v>
       </c>
       <c r="N106">
-        <v>1.909</v>
+        <v>2.4</v>
       </c>
       <c r="O106">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P106">
-        <v>3.2</v>
+        <v>2.4</v>
       </c>
       <c r="Q106">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R106">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S106">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T106">
         <v>2.75</v>
       </c>
       <c r="U106">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V106">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W106">
         <v>-1</v>
       </c>
       <c r="X106">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y106">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z106">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA106">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
       <c r="AB106">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AC106">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="107" spans="1:29">
@@ -10093,7 +10093,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>7649124</v>
+        <v>7649295</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -10105,76 +10105,76 @@
         <v>45292.5</v>
       </c>
       <c r="F107" t="s">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="G107" t="s">
-        <v>38</v>
+        <v>86</v>
       </c>
       <c r="H107">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I107">
         <v>2</v>
       </c>
       <c r="J107" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K107">
-        <v>2.5</v>
+        <v>1.909</v>
       </c>
       <c r="L107">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M107">
-        <v>2.25</v>
+        <v>3.2</v>
       </c>
       <c r="N107">
-        <v>2.55</v>
+        <v>1.909</v>
       </c>
       <c r="O107">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P107">
-        <v>2.25</v>
+        <v>3.2</v>
       </c>
       <c r="Q107">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R107">
-        <v>1.725</v>
+        <v>1.975</v>
       </c>
       <c r="S107">
+        <v>1.825</v>
+      </c>
+      <c r="T107">
+        <v>2.75</v>
+      </c>
+      <c r="U107">
+        <v>1.825</v>
+      </c>
+      <c r="V107">
         <v>1.975</v>
       </c>
-      <c r="T107">
-        <v>3.25</v>
-      </c>
-      <c r="U107">
-        <v>1.975</v>
-      </c>
-      <c r="V107">
-        <v>1.825</v>
-      </c>
       <c r="W107">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="X107">
         <v>-1</v>
       </c>
       <c r="Y107">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z107">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA107">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB107">
-        <v>0.9750000000000001</v>
+        <v>0.4125</v>
       </c>
       <c r="AC107">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="108" spans="1:29">
@@ -10182,7 +10182,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>7649195</v>
+        <v>7649294</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10194,76 +10194,76 @@
         <v>45292.5</v>
       </c>
       <c r="F108" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G108" t="s">
-        <v>80</v>
+        <v>36</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J108" t="s">
         <v>90</v>
       </c>
       <c r="K108">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="L108">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M108">
-        <v>2.4</v>
+        <v>2.55</v>
       </c>
       <c r="N108">
-        <v>2.4</v>
+        <v>1.65</v>
       </c>
       <c r="O108">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P108">
-        <v>2.4</v>
+        <v>3.8</v>
       </c>
       <c r="Q108">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R108">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S108">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T108">
         <v>2.75</v>
       </c>
       <c r="U108">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="V108">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W108">
         <v>-1</v>
       </c>
       <c r="X108">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="Y108">
         <v>-1</v>
       </c>
       <c r="Z108">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA108">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
       <c r="AB108">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC108">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10271,7 +10271,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>7649294</v>
+        <v>7649184</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10283,76 +10283,76 @@
         <v>45292.5</v>
       </c>
       <c r="F109" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="G109" t="s">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="H109">
         <v>2</v>
       </c>
       <c r="I109">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J109" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K109">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="L109">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M109">
-        <v>2.55</v>
+        <v>3.4</v>
       </c>
       <c r="N109">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="O109">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P109">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="Q109">
         <v>-0.75</v>
       </c>
       <c r="R109">
+        <v>1.95</v>
+      </c>
+      <c r="S109">
         <v>1.85</v>
-      </c>
-      <c r="S109">
-        <v>1.95</v>
       </c>
       <c r="T109">
         <v>2.75</v>
       </c>
       <c r="U109">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="V109">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W109">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X109">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y109">
         <v>-1</v>
       </c>
       <c r="Z109">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA109">
+        <v>-1</v>
+      </c>
+      <c r="AB109">
+        <v>-1</v>
+      </c>
+      <c r="AC109">
         <v>0.95</v>
-      </c>
-      <c r="AB109">
-        <v>0.7749999999999999</v>
-      </c>
-      <c r="AC109">
-        <v>-1</v>
       </c>
     </row>
     <row r="110" spans="1:29">
@@ -10375,7 +10375,7 @@
         <v>77</v>
       </c>
       <c r="G110" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H110">
         <v>0</v>
@@ -10461,10 +10461,10 @@
         <v>45297.5</v>
       </c>
       <c r="F111" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="G111" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H111">
         <v>0</v>
@@ -10550,7 +10550,7 @@
         <v>45298.5</v>
       </c>
       <c r="F112" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G112" t="s">
         <v>31</v>
@@ -10627,7 +10627,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>7674972</v>
+        <v>7674983</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10639,13 +10639,13 @@
         <v>45300.69791666666</v>
       </c>
       <c r="F113" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G113" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="H113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I113">
         <v>2</v>
@@ -10654,25 +10654,25 @@
         <v>91</v>
       </c>
       <c r="K113">
-        <v>2.375</v>
+        <v>1.5</v>
       </c>
       <c r="L113">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M113">
-        <v>2.375</v>
+        <v>5</v>
       </c>
       <c r="N113">
-        <v>2.2</v>
+        <v>1.6</v>
       </c>
       <c r="O113">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P113">
-        <v>2.55</v>
+        <v>4.333</v>
       </c>
       <c r="Q113">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R113">
         <v>2</v>
@@ -10696,7 +10696,7 @@
         <v>-1</v>
       </c>
       <c r="Y113">
-        <v>1.55</v>
+        <v>3.333</v>
       </c>
       <c r="Z113">
         <v>-1</v>
@@ -10705,10 +10705,10 @@
         <v>0.8</v>
       </c>
       <c r="AB113">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC113">
-        <v>-0</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="114" spans="1:29">
@@ -10716,7 +10716,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>7674710</v>
+        <v>7675037</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10728,10 +10728,10 @@
         <v>45300.69791666666</v>
       </c>
       <c r="F114" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="G114" t="s">
-        <v>39</v>
+        <v>84</v>
       </c>
       <c r="H114">
         <v>1</v>
@@ -10743,43 +10743,43 @@
         <v>89</v>
       </c>
       <c r="K114">
-        <v>1.2</v>
+        <v>2.25</v>
       </c>
       <c r="L114">
-        <v>6.5</v>
+        <v>3.5</v>
       </c>
       <c r="M114">
-        <v>8</v>
+        <v>2.6</v>
       </c>
       <c r="N114">
-        <v>1.181</v>
+        <v>2.375</v>
       </c>
       <c r="O114">
-        <v>6.5</v>
+        <v>3.5</v>
       </c>
       <c r="P114">
-        <v>10</v>
+        <v>2.45</v>
       </c>
       <c r="Q114">
-        <v>-2.25</v>
+        <v>0</v>
       </c>
       <c r="R114">
+        <v>1.875</v>
+      </c>
+      <c r="S114">
+        <v>1.925</v>
+      </c>
+      <c r="T114">
+        <v>2.75</v>
+      </c>
+      <c r="U114">
+        <v>1.75</v>
+      </c>
+      <c r="V114">
         <v>1.95</v>
       </c>
-      <c r="S114">
-        <v>1.85</v>
-      </c>
-      <c r="T114">
-        <v>3.75</v>
-      </c>
-      <c r="U114">
-        <v>1.925</v>
-      </c>
-      <c r="V114">
-        <v>1.775</v>
-      </c>
       <c r="W114">
-        <v>0.181</v>
+        <v>1.375</v>
       </c>
       <c r="X114">
         <v>-1</v>
@@ -10788,16 +10788,16 @@
         <v>-1</v>
       </c>
       <c r="Z114">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA114">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB114">
         <v>-1</v>
       </c>
       <c r="AC114">
-        <v>0.7749999999999999</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="115" spans="1:29">
@@ -10805,7 +10805,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>7675037</v>
+        <v>7674710</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10817,10 +10817,10 @@
         <v>45300.69791666666</v>
       </c>
       <c r="F115" t="s">
-        <v>57</v>
+        <v>78</v>
       </c>
       <c r="G115" t="s">
-        <v>84</v>
+        <v>48</v>
       </c>
       <c r="H115">
         <v>1</v>
@@ -10832,43 +10832,43 @@
         <v>89</v>
       </c>
       <c r="K115">
-        <v>2.25</v>
+        <v>1.2</v>
       </c>
       <c r="L115">
-        <v>3.5</v>
+        <v>6.5</v>
       </c>
       <c r="M115">
-        <v>2.6</v>
+        <v>8</v>
       </c>
       <c r="N115">
-        <v>2.375</v>
+        <v>1.181</v>
       </c>
       <c r="O115">
-        <v>3.5</v>
+        <v>6.5</v>
       </c>
       <c r="P115">
-        <v>2.45</v>
+        <v>10</v>
       </c>
       <c r="Q115">
-        <v>0</v>
+        <v>-2.25</v>
       </c>
       <c r="R115">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S115">
+        <v>1.85</v>
+      </c>
+      <c r="T115">
+        <v>3.75</v>
+      </c>
+      <c r="U115">
         <v>1.925</v>
       </c>
-      <c r="T115">
-        <v>2.75</v>
-      </c>
-      <c r="U115">
-        <v>1.75</v>
-      </c>
       <c r="V115">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="W115">
-        <v>1.375</v>
+        <v>0.181</v>
       </c>
       <c r="X115">
         <v>-1</v>
@@ -10877,16 +10877,16 @@
         <v>-1</v>
       </c>
       <c r="Z115">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA115">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB115">
         <v>-1</v>
       </c>
       <c r="AC115">
-        <v>0.95</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="116" spans="1:29">
@@ -10894,7 +10894,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>7674983</v>
+        <v>7674972</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10906,13 +10906,13 @@
         <v>45300.69791666666</v>
       </c>
       <c r="F116" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G116" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I116">
         <v>2</v>
@@ -10921,25 +10921,25 @@
         <v>91</v>
       </c>
       <c r="K116">
-        <v>1.5</v>
+        <v>2.375</v>
       </c>
       <c r="L116">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M116">
-        <v>5</v>
+        <v>2.375</v>
       </c>
       <c r="N116">
-        <v>1.6</v>
+        <v>2.2</v>
       </c>
       <c r="O116">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P116">
-        <v>4.333</v>
+        <v>2.55</v>
       </c>
       <c r="Q116">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R116">
         <v>2</v>
@@ -10963,7 +10963,7 @@
         <v>-1</v>
       </c>
       <c r="Y116">
-        <v>3.333</v>
+        <v>1.55</v>
       </c>
       <c r="Z116">
         <v>-1</v>
@@ -10972,10 +10972,10 @@
         <v>0.8</v>
       </c>
       <c r="AB116">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC116">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="117" spans="1:29">
@@ -10995,7 +10995,7 @@
         <v>45300.69791666666</v>
       </c>
       <c r="F117" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G117" t="s">
         <v>51</v>
@@ -11072,7 +11072,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>7679052</v>
+        <v>7679042</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -11084,76 +11084,76 @@
         <v>45301.69791666666</v>
       </c>
       <c r="F118" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G118" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118">
+        <v>0</v>
+      </c>
+      <c r="J118" t="s">
+        <v>89</v>
+      </c>
+      <c r="K118">
+        <v>1.571</v>
+      </c>
+      <c r="L118">
         <v>4</v>
       </c>
-      <c r="J118" t="s">
-        <v>91</v>
-      </c>
-      <c r="K118">
-        <v>2.5</v>
-      </c>
-      <c r="L118">
+      <c r="M118">
+        <v>4.333</v>
+      </c>
+      <c r="N118">
+        <v>1.65</v>
+      </c>
+      <c r="O118">
         <v>3.75</v>
       </c>
-      <c r="M118">
-        <v>2.25</v>
-      </c>
-      <c r="N118">
-        <v>2.55</v>
-      </c>
-      <c r="O118">
-        <v>3.6</v>
-      </c>
       <c r="P118">
-        <v>2.25</v>
+        <v>4.2</v>
       </c>
       <c r="Q118">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R118">
-        <v>1.725</v>
+        <v>1.85</v>
       </c>
       <c r="S118">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T118">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U118">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="V118">
         <v>1.95</v>
       </c>
       <c r="W118">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X118">
         <v>-1</v>
       </c>
       <c r="Y118">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z118">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA118">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB118">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC118">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="119" spans="1:29">
@@ -11161,7 +11161,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>7679042</v>
+        <v>7679052</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11173,76 +11173,76 @@
         <v>45301.69791666666</v>
       </c>
       <c r="F119" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G119" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J119" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K119">
-        <v>1.571</v>
+        <v>2.5</v>
       </c>
       <c r="L119">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M119">
-        <v>4.333</v>
+        <v>2.25</v>
       </c>
       <c r="N119">
-        <v>1.65</v>
+        <v>2.55</v>
       </c>
       <c r="O119">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P119">
-        <v>4.2</v>
+        <v>2.25</v>
       </c>
       <c r="Q119">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R119">
+        <v>1.725</v>
+      </c>
+      <c r="S119">
+        <v>1.975</v>
+      </c>
+      <c r="T119">
+        <v>3</v>
+      </c>
+      <c r="U119">
         <v>1.85</v>
-      </c>
-      <c r="S119">
-        <v>1.95</v>
-      </c>
-      <c r="T119">
-        <v>2.75</v>
-      </c>
-      <c r="U119">
-        <v>1.75</v>
       </c>
       <c r="V119">
         <v>1.95</v>
       </c>
       <c r="W119">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X119">
         <v>-1</v>
       </c>
       <c r="Y119">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z119">
+        <v>-1</v>
+      </c>
+      <c r="AA119">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB119">
         <v>0.8500000000000001</v>
       </c>
-      <c r="AA119">
-        <v>-1</v>
-      </c>
-      <c r="AB119">
-        <v>-1</v>
-      </c>
       <c r="AC119">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -11250,7 +11250,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>7691319</v>
+        <v>7691322</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11262,76 +11262,76 @@
         <v>45304.5</v>
       </c>
       <c r="F120" t="s">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="G120" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="H120">
         <v>2</v>
       </c>
       <c r="I120">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J120" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K120">
-        <v>4.75</v>
+        <v>1.75</v>
       </c>
       <c r="L120">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="M120">
-        <v>1.5</v>
+        <v>3.75</v>
       </c>
       <c r="N120">
-        <v>5.25</v>
+        <v>1.75</v>
       </c>
       <c r="O120">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="P120">
-        <v>1.363</v>
+        <v>3.75</v>
       </c>
       <c r="Q120">
-        <v>1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R120">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S120">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T120">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U120">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V120">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W120">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X120">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Y120">
         <v>-1</v>
       </c>
       <c r="Z120">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AA120">
         <v>-1</v>
       </c>
       <c r="AB120">
-        <v>0.95</v>
+        <v>0.4</v>
       </c>
       <c r="AC120">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="121" spans="1:29">
@@ -11339,7 +11339,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>7691322</v>
+        <v>7691318</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11351,10 +11351,10 @@
         <v>45304.5</v>
       </c>
       <c r="F121" t="s">
-        <v>35</v>
+        <v>74</v>
       </c>
       <c r="G121" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H121">
         <v>2</v>
@@ -11366,61 +11366,61 @@
         <v>89</v>
       </c>
       <c r="K121">
+        <v>1.95</v>
+      </c>
+      <c r="L121">
+        <v>3.75</v>
+      </c>
+      <c r="M121">
+        <v>3</v>
+      </c>
+      <c r="N121">
+        <v>1.95</v>
+      </c>
+      <c r="O121">
+        <v>3.75</v>
+      </c>
+      <c r="P121">
+        <v>3</v>
+      </c>
+      <c r="Q121">
+        <v>-0.25</v>
+      </c>
+      <c r="R121">
         <v>1.75</v>
       </c>
-      <c r="L121">
-        <v>3.6</v>
-      </c>
-      <c r="M121">
-        <v>3.75</v>
-      </c>
-      <c r="N121">
-        <v>1.75</v>
-      </c>
-      <c r="O121">
-        <v>3.6</v>
-      </c>
-      <c r="P121">
-        <v>3.75</v>
-      </c>
-      <c r="Q121">
-        <v>-0.5</v>
-      </c>
-      <c r="R121">
-        <v>1.8</v>
-      </c>
       <c r="S121">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T121">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U121">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V121">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W121">
+        <v>0.95</v>
+      </c>
+      <c r="X121">
+        <v>-1</v>
+      </c>
+      <c r="Y121">
+        <v>-1</v>
+      </c>
+      <c r="Z121">
         <v>0.75</v>
       </c>
-      <c r="X121">
-        <v>-1</v>
-      </c>
-      <c r="Y121">
-        <v>-1</v>
-      </c>
-      <c r="Z121">
-        <v>0.8</v>
-      </c>
       <c r="AA121">
         <v>-1</v>
       </c>
       <c r="AB121">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AC121">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="122" spans="1:29">
@@ -11428,7 +11428,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>7691318</v>
+        <v>7691319</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11440,76 +11440,76 @@
         <v>45304.5</v>
       </c>
       <c r="F122" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G122" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="H122">
         <v>2</v>
       </c>
       <c r="I122">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J122" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K122">
-        <v>1.95</v>
+        <v>4.75</v>
       </c>
       <c r="L122">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="M122">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="N122">
-        <v>1.95</v>
+        <v>5.25</v>
       </c>
       <c r="O122">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="P122">
-        <v>3</v>
+        <v>1.363</v>
       </c>
       <c r="Q122">
-        <v>-0.25</v>
+        <v>1.5</v>
       </c>
       <c r="R122">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="S122">
         <v>1.95</v>
       </c>
       <c r="T122">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U122">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V122">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W122">
+        <v>-1</v>
+      </c>
+      <c r="X122">
+        <v>4</v>
+      </c>
+      <c r="Y122">
+        <v>-1</v>
+      </c>
+      <c r="Z122">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AA122">
+        <v>-1</v>
+      </c>
+      <c r="AB122">
         <v>0.95</v>
       </c>
-      <c r="X122">
-        <v>-1</v>
-      </c>
-      <c r="Y122">
-        <v>-1</v>
-      </c>
-      <c r="Z122">
-        <v>0.75</v>
-      </c>
-      <c r="AA122">
-        <v>-1</v>
-      </c>
-      <c r="AB122">
-        <v>0</v>
-      </c>
       <c r="AC122">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="123" spans="1:29">
@@ -11529,7 +11529,7 @@
         <v>45307.69791666666</v>
       </c>
       <c r="F123" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G123" t="s">
         <v>88</v>
@@ -11606,7 +11606,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>7719604</v>
+        <v>7719544</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11618,13 +11618,13 @@
         <v>45311.5</v>
       </c>
       <c r="F124" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="G124" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="H124">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I124">
         <v>0</v>
@@ -11633,43 +11633,43 @@
         <v>89</v>
       </c>
       <c r="K124">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="L124">
         <v>4</v>
       </c>
       <c r="M124">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="N124">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="O124">
         <v>4</v>
       </c>
       <c r="P124">
-        <v>2.45</v>
+        <v>2.7</v>
       </c>
       <c r="Q124">
         <v>-0.25</v>
       </c>
       <c r="R124">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="S124">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="T124">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U124">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V124">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W124">
-        <v>1.25</v>
+        <v>1.05</v>
       </c>
       <c r="X124">
         <v>-1</v>
@@ -11678,16 +11678,16 @@
         <v>-1</v>
       </c>
       <c r="Z124">
-        <v>1.05</v>
+        <v>0.875</v>
       </c>
       <c r="AA124">
         <v>-1</v>
       </c>
       <c r="AB124">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC124">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11695,7 +11695,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>7719544</v>
+        <v>7725153</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11707,76 +11707,76 @@
         <v>45311.5</v>
       </c>
       <c r="F125" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="G125" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="H125">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I125">
         <v>0</v>
       </c>
       <c r="J125" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K125">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="L125">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M125">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="N125">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="O125">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P125">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="Q125">
         <v>-0.25</v>
       </c>
       <c r="R125">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="S125">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="T125">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U125">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="V125">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W125">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X125">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y125">
         <v>-1</v>
       </c>
       <c r="Z125">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AA125">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
       <c r="AB125">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC125">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -11784,7 +11784,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>7719594</v>
+        <v>7719604</v>
       </c>
       <c r="C126" t="s">
         <v>28</v>
@@ -11796,46 +11796,46 @@
         <v>45311.5</v>
       </c>
       <c r="F126" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="G126" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I126">
         <v>0</v>
       </c>
       <c r="J126" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K126">
-        <v>1.4</v>
+        <v>2.25</v>
       </c>
       <c r="L126">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M126">
-        <v>5</v>
+        <v>2.4</v>
       </c>
       <c r="N126">
-        <v>1.4</v>
+        <v>2.25</v>
       </c>
       <c r="O126">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P126">
-        <v>5</v>
+        <v>2.45</v>
       </c>
       <c r="Q126">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R126">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="S126">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="T126">
         <v>3</v>
@@ -11847,19 +11847,19 @@
         <v>1.975</v>
       </c>
       <c r="W126">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X126">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Y126">
         <v>-1</v>
       </c>
       <c r="Z126">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA126">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB126">
         <v>-1</v>
@@ -11873,7 +11873,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>7725153</v>
+        <v>7719594</v>
       </c>
       <c r="C127" t="s">
         <v>28</v>
@@ -11885,10 +11885,10 @@
         <v>45311.5</v>
       </c>
       <c r="F127" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="G127" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H127">
         <v>0</v>
@@ -11900,61 +11900,61 @@
         <v>90</v>
       </c>
       <c r="K127">
-        <v>2.25</v>
+        <v>1.4</v>
       </c>
       <c r="L127">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="M127">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="N127">
-        <v>2.25</v>
+        <v>1.4</v>
       </c>
       <c r="O127">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="P127">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="Q127">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R127">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S127">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="T127">
         <v>3</v>
       </c>
       <c r="U127">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="V127">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W127">
         <v>-1</v>
       </c>
       <c r="X127">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="Y127">
         <v>-1</v>
       </c>
       <c r="Z127">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA127">
-        <v>0.375</v>
+        <v>0.95</v>
       </c>
       <c r="AB127">
         <v>-1</v>
       </c>
       <c r="AC127">
-        <v>1.025</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="128" spans="1:29">
@@ -11977,7 +11977,7 @@
         <v>31</v>
       </c>
       <c r="G128" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H128">
         <v>0</v>
@@ -12152,10 +12152,10 @@
         <v>45315.69791666666</v>
       </c>
       <c r="F130" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G130" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H130">
         <v>1</v>
@@ -12318,7 +12318,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>7761811</v>
+        <v>7761786</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12330,76 +12330,76 @@
         <v>45321.69791666666</v>
       </c>
       <c r="F132" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="G132" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I132">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J132" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K132">
-        <v>2.375</v>
+        <v>2.875</v>
       </c>
       <c r="L132">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M132">
-        <v>2.375</v>
+        <v>2</v>
       </c>
       <c r="N132">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="O132">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P132">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="Q132">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R132">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="S132">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T132">
         <v>2.75</v>
       </c>
       <c r="U132">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V132">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W132">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="X132">
         <v>-1</v>
       </c>
       <c r="Y132">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z132">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA132">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB132">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC132">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="133" spans="1:29">
@@ -12422,7 +12422,7 @@
         <v>69</v>
       </c>
       <c r="G133" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H133">
         <v>1</v>
@@ -12508,7 +12508,7 @@
         <v>45321.69791666666</v>
       </c>
       <c r="F134" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G134" t="s">
         <v>32</v>
@@ -12585,7 +12585,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>7761786</v>
+        <v>7761811</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12597,76 +12597,76 @@
         <v>45321.69791666666</v>
       </c>
       <c r="F135" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="G135" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H135">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I135">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J135" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K135">
-        <v>2.875</v>
+        <v>2.375</v>
       </c>
       <c r="L135">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M135">
-        <v>2</v>
+        <v>2.375</v>
       </c>
       <c r="N135">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="O135">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P135">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="Q135">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R135">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="S135">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T135">
         <v>2.75</v>
       </c>
       <c r="U135">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V135">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W135">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="X135">
         <v>-1</v>
       </c>
       <c r="Y135">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z135">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA135">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB135">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC135">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="136" spans="1:29">
@@ -12689,7 +12689,7 @@
         <v>80</v>
       </c>
       <c r="G136" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="H136">
         <v>3</v>
@@ -12763,7 +12763,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>7779218</v>
+        <v>7779223</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12775,76 +12775,76 @@
         <v>45325.5</v>
       </c>
       <c r="F137" t="s">
-        <v>75</v>
+        <v>29</v>
       </c>
       <c r="G137" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H137">
         <v>1</v>
       </c>
       <c r="I137">
+        <v>0</v>
+      </c>
+      <c r="J137" t="s">
+        <v>89</v>
+      </c>
+      <c r="K137">
+        <v>2.3</v>
+      </c>
+      <c r="L137">
+        <v>4</v>
+      </c>
+      <c r="M137">
+        <v>2.3</v>
+      </c>
+      <c r="N137">
+        <v>2.3</v>
+      </c>
+      <c r="O137">
+        <v>4</v>
+      </c>
+      <c r="P137">
+        <v>2.3</v>
+      </c>
+      <c r="Q137">
+        <v>0</v>
+      </c>
+      <c r="R137">
+        <v>1.9</v>
+      </c>
+      <c r="S137">
+        <v>1.9</v>
+      </c>
+      <c r="T137">
         <v>3</v>
       </c>
-      <c r="J137" t="s">
-        <v>91</v>
-      </c>
-      <c r="K137">
-        <v>2.25</v>
-      </c>
-      <c r="L137">
-        <v>3.75</v>
-      </c>
-      <c r="M137">
-        <v>2.5</v>
-      </c>
-      <c r="N137">
-        <v>2.25</v>
-      </c>
-      <c r="O137">
-        <v>3.75</v>
-      </c>
-      <c r="P137">
-        <v>2.5</v>
-      </c>
-      <c r="Q137">
-        <v>0</v>
-      </c>
-      <c r="R137">
+      <c r="U137">
+        <v>2</v>
+      </c>
+      <c r="V137">
         <v>1.8</v>
       </c>
-      <c r="S137">
-        <v>2</v>
-      </c>
-      <c r="T137">
-        <v>2.75</v>
-      </c>
-      <c r="U137">
-        <v>1.95</v>
-      </c>
-      <c r="V137">
-        <v>1.85</v>
-      </c>
       <c r="W137">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X137">
         <v>-1</v>
       </c>
       <c r="Y137">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z137">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA137">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB137">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC137">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="138" spans="1:29">
@@ -12852,7 +12852,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>7779223</v>
+        <v>7779219</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12864,76 +12864,76 @@
         <v>45325.5</v>
       </c>
       <c r="F138" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="G138" t="s">
-        <v>38</v>
+        <v>86</v>
       </c>
       <c r="H138">
         <v>1</v>
       </c>
       <c r="I138">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J138" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K138">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="L138">
         <v>4</v>
       </c>
       <c r="M138">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="N138">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="O138">
         <v>4</v>
       </c>
       <c r="P138">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="Q138">
         <v>0</v>
       </c>
       <c r="R138">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S138">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T138">
+        <v>2.75</v>
+      </c>
+      <c r="U138">
+        <v>1.875</v>
+      </c>
+      <c r="V138">
+        <v>1.925</v>
+      </c>
+      <c r="W138">
+        <v>-1</v>
+      </c>
+      <c r="X138">
         <v>3</v>
       </c>
-      <c r="U138">
-        <v>2</v>
-      </c>
-      <c r="V138">
-        <v>1.8</v>
-      </c>
-      <c r="W138">
-        <v>1.3</v>
-      </c>
-      <c r="X138">
-        <v>-1</v>
-      </c>
       <c r="Y138">
         <v>-1</v>
       </c>
       <c r="Z138">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA138">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB138">
         <v>-1</v>
       </c>
       <c r="AC138">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="139" spans="1:29">
@@ -12941,7 +12941,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>7779219</v>
+        <v>7779218</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12953,76 +12953,76 @@
         <v>45325.5</v>
       </c>
       <c r="F139" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="G139" t="s">
-        <v>86</v>
+        <v>35</v>
       </c>
       <c r="H139">
         <v>1</v>
       </c>
       <c r="I139">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J139" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K139">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="L139">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M139">
+        <v>2.5</v>
+      </c>
+      <c r="N139">
         <v>2.25</v>
       </c>
-      <c r="N139">
-        <v>2.4</v>
-      </c>
       <c r="O139">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P139">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="Q139">
         <v>0</v>
       </c>
       <c r="R139">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S139">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T139">
         <v>2.75</v>
       </c>
       <c r="U139">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V139">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W139">
         <v>-1</v>
       </c>
       <c r="X139">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y139">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z139">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA139">
-        <v>-0</v>
+        <v>1</v>
       </c>
       <c r="AB139">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC139">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="140" spans="1:29">
@@ -13042,7 +13042,7 @@
         <v>45328.69791666666</v>
       </c>
       <c r="F140" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G140" t="s">
         <v>80</v>
@@ -13131,10 +13131,10 @@
         <v>45329.69791666666</v>
       </c>
       <c r="F141" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G141" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H141">
         <v>1</v>
@@ -13208,7 +13208,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>7808420</v>
+        <v>7808416</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13220,76 +13220,76 @@
         <v>45332.5</v>
       </c>
       <c r="F142" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="G142" t="s">
-        <v>58</v>
+        <v>85</v>
       </c>
       <c r="H142">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I142">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J142" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K142">
-        <v>3.3</v>
+        <v>1.8</v>
       </c>
       <c r="L142">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="M142">
-        <v>1.727</v>
+        <v>3.25</v>
       </c>
       <c r="N142">
-        <v>3.2</v>
+        <v>1.85</v>
       </c>
       <c r="O142">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="P142">
-        <v>1.75</v>
+        <v>3.25</v>
       </c>
       <c r="Q142">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R142">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S142">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T142">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U142">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V142">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W142">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="X142">
         <v>-1</v>
       </c>
       <c r="Y142">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Z142">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA142">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB142">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AC142">
-        <v>-0</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -13297,7 +13297,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>7808416</v>
+        <v>7808420</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13309,76 +13309,76 @@
         <v>45332.5</v>
       </c>
       <c r="F143" t="s">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="G143" t="s">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="H143">
+        <v>3</v>
+      </c>
+      <c r="I143">
+        <v>0</v>
+      </c>
+      <c r="J143" t="s">
+        <v>89</v>
+      </c>
+      <c r="K143">
+        <v>3.3</v>
+      </c>
+      <c r="L143">
+        <v>4.333</v>
+      </c>
+      <c r="M143">
+        <v>1.727</v>
+      </c>
+      <c r="N143">
+        <v>3.2</v>
+      </c>
+      <c r="O143">
+        <v>4.333</v>
+      </c>
+      <c r="P143">
+        <v>1.75</v>
+      </c>
+      <c r="Q143">
+        <v>0.5</v>
+      </c>
+      <c r="R143">
+        <v>2</v>
+      </c>
+      <c r="S143">
+        <v>1.8</v>
+      </c>
+      <c r="T143">
+        <v>3</v>
+      </c>
+      <c r="U143">
+        <v>2</v>
+      </c>
+      <c r="V143">
+        <v>1.8</v>
+      </c>
+      <c r="W143">
+        <v>2.2</v>
+      </c>
+      <c r="X143">
+        <v>-1</v>
+      </c>
+      <c r="Y143">
+        <v>-1</v>
+      </c>
+      <c r="Z143">
         <v>1</v>
       </c>
-      <c r="I143">
-        <v>2</v>
-      </c>
-      <c r="J143" t="s">
-        <v>91</v>
-      </c>
-      <c r="K143">
-        <v>1.8</v>
-      </c>
-      <c r="L143">
-        <v>4</v>
-      </c>
-      <c r="M143">
-        <v>3.25</v>
-      </c>
-      <c r="N143">
-        <v>1.85</v>
-      </c>
-      <c r="O143">
-        <v>3.8</v>
-      </c>
-      <c r="P143">
-        <v>3.25</v>
-      </c>
-      <c r="Q143">
-        <v>-0.5</v>
-      </c>
-      <c r="R143">
-        <v>1.9</v>
-      </c>
-      <c r="S143">
-        <v>1.9</v>
-      </c>
-      <c r="T143">
-        <v>3.25</v>
-      </c>
-      <c r="U143">
-        <v>1.9</v>
-      </c>
-      <c r="V143">
-        <v>1.9</v>
-      </c>
-      <c r="W143">
-        <v>-1</v>
-      </c>
-      <c r="X143">
-        <v>-1</v>
-      </c>
-      <c r="Y143">
-        <v>2.25</v>
-      </c>
-      <c r="Z143">
-        <v>-1</v>
-      </c>
       <c r="AA143">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB143">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AC143">
-        <v>0.45</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="144" spans="1:29">
@@ -13398,10 +13398,10 @@
         <v>45339.5</v>
       </c>
       <c r="F144" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G144" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H144">
         <v>0</v>
@@ -13475,7 +13475,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>7844457</v>
+        <v>7844461</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13487,19 +13487,19 @@
         <v>45339.5</v>
       </c>
       <c r="F145" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="G145" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="H145">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I145">
         <v>1</v>
       </c>
       <c r="J145" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K145">
         <v>1.6</v>
@@ -13511,16 +13511,16 @@
         <v>4.2</v>
       </c>
       <c r="N145">
-        <v>1.6</v>
+        <v>1.75</v>
       </c>
       <c r="O145">
         <v>4</v>
       </c>
       <c r="P145">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="Q145">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R145">
         <v>1.8</v>
@@ -13529,7 +13529,7 @@
         <v>2</v>
       </c>
       <c r="T145">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U145">
         <v>1.85</v>
@@ -13538,25 +13538,25 @@
         <v>1.95</v>
       </c>
       <c r="W145">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X145">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y145">
         <v>-1</v>
       </c>
       <c r="Z145">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AA145">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AB145">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC145">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="146" spans="1:29">
@@ -13564,7 +13564,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>7844458</v>
+        <v>7844457</v>
       </c>
       <c r="C146" t="s">
         <v>28</v>
@@ -13576,76 +13576,76 @@
         <v>45339.5</v>
       </c>
       <c r="F146" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="G146" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J146" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K146">
-        <v>3.6</v>
+        <v>1.6</v>
       </c>
       <c r="L146">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M146">
+        <v>4.2</v>
+      </c>
+      <c r="N146">
+        <v>1.6</v>
+      </c>
+      <c r="O146">
+        <v>4</v>
+      </c>
+      <c r="P146">
+        <v>4.2</v>
+      </c>
+      <c r="Q146">
+        <v>-0.75</v>
+      </c>
+      <c r="R146">
         <v>1.8</v>
       </c>
-      <c r="N146">
-        <v>4.5</v>
-      </c>
-      <c r="O146">
-        <v>3.6</v>
-      </c>
-      <c r="P146">
-        <v>1.571</v>
-      </c>
-      <c r="Q146">
-        <v>1</v>
-      </c>
-      <c r="R146">
-        <v>1.75</v>
-      </c>
       <c r="S146">
+        <v>2</v>
+      </c>
+      <c r="T146">
+        <v>2.5</v>
+      </c>
+      <c r="U146">
+        <v>1.85</v>
+      </c>
+      <c r="V146">
         <v>1.95</v>
       </c>
-      <c r="T146">
-        <v>3</v>
-      </c>
-      <c r="U146">
-        <v>1.95</v>
-      </c>
-      <c r="V146">
-        <v>1.85</v>
-      </c>
       <c r="W146">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X146">
         <v>-1</v>
       </c>
       <c r="Y146">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="Z146">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AA146">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AB146">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC146">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="147" spans="1:29">
@@ -13653,7 +13653,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>7844459</v>
+        <v>7844458</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13665,76 +13665,76 @@
         <v>45339.5</v>
       </c>
       <c r="F147" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="G147" t="s">
-        <v>45</v>
+        <v>84</v>
       </c>
       <c r="H147">
+        <v>0</v>
+      </c>
+      <c r="I147">
+        <v>2</v>
+      </c>
+      <c r="J147" t="s">
+        <v>91</v>
+      </c>
+      <c r="K147">
+        <v>3.6</v>
+      </c>
+      <c r="L147">
+        <v>3.6</v>
+      </c>
+      <c r="M147">
+        <v>1.8</v>
+      </c>
+      <c r="N147">
+        <v>4.5</v>
+      </c>
+      <c r="O147">
+        <v>3.6</v>
+      </c>
+      <c r="P147">
+        <v>1.571</v>
+      </c>
+      <c r="Q147">
+        <v>1</v>
+      </c>
+      <c r="R147">
+        <v>1.75</v>
+      </c>
+      <c r="S147">
+        <v>1.95</v>
+      </c>
+      <c r="T147">
         <v>3</v>
       </c>
-      <c r="I147">
-        <v>0</v>
-      </c>
-      <c r="J147" t="s">
-        <v>89</v>
-      </c>
-      <c r="K147">
-        <v>1.4</v>
-      </c>
-      <c r="L147">
-        <v>4.5</v>
-      </c>
-      <c r="M147">
-        <v>5.5</v>
-      </c>
-      <c r="N147">
-        <v>1.4</v>
-      </c>
-      <c r="O147">
-        <v>4.5</v>
-      </c>
-      <c r="P147">
-        <v>5.25</v>
-      </c>
-      <c r="Q147">
-        <v>-1.25</v>
-      </c>
-      <c r="R147">
-        <v>1.9</v>
-      </c>
-      <c r="S147">
-        <v>1.9</v>
-      </c>
-      <c r="T147">
-        <v>2.75</v>
-      </c>
       <c r="U147">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V147">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W147">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X147">
         <v>-1</v>
       </c>
       <c r="Y147">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="Z147">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA147">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB147">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AC147">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="148" spans="1:29">
@@ -13742,7 +13742,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>7844461</v>
+        <v>7844459</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13754,76 +13754,76 @@
         <v>45339.5</v>
       </c>
       <c r="F148" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G148" t="s">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="H148">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I148">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J148" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K148">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="L148">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M148">
-        <v>4.2</v>
+        <v>5.5</v>
       </c>
       <c r="N148">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="O148">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="P148">
-        <v>3.4</v>
+        <v>5.25</v>
       </c>
       <c r="Q148">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R148">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S148">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T148">
         <v>2.75</v>
       </c>
       <c r="U148">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V148">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W148">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X148">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y148">
         <v>-1</v>
       </c>
       <c r="Z148">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA148">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB148">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AC148">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="149" spans="1:29">
@@ -13932,10 +13932,10 @@
         <v>45342.69791666666</v>
       </c>
       <c r="F150" t="s">
+        <v>45</v>
+      </c>
+      <c r="G150" t="s">
         <v>47</v>
-      </c>
-      <c r="G150" t="s">
-        <v>48</v>
       </c>
       <c r="H150">
         <v>1</v>
@@ -14113,7 +14113,16 @@
         <v>31</v>
       </c>
       <c r="G152" t="s">
-        <v>74</v>
+        <v>73</v>
+      </c>
+      <c r="H152">
+        <v>2</v>
+      </c>
+      <c r="I152">
+        <v>3</v>
+      </c>
+      <c r="J152" t="s">
+        <v>91</v>
       </c>
       <c r="K152">
         <v>2.25</v>
@@ -14152,19 +14161,25 @@
         <v>2</v>
       </c>
       <c r="W152">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X152">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y152">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="Z152">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA152">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AB152">
+        <v>0.8</v>
+      </c>
+      <c r="AC152">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/England Northern League Division One/England Northern League Division One.xlsx
+++ b/England Northern League Division One/England Northern League Division One.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="783" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="92">
   <si>
     <t>id</t>
   </si>
@@ -115,10 +115,10 @@
     <t>Stocksbridge PS</t>
   </si>
   <si>
-    <t>Cleethorpes Town</t>
+    <t>Corby</t>
   </si>
   <si>
-    <t>Corby</t>
+    <t>Cleethorpes Town</t>
   </si>
   <si>
     <t>Widnes</t>
@@ -127,58 +127,58 @@
     <t>Coleshill Town</t>
   </si>
   <si>
+    <t>Grantham</t>
+  </si>
+  <si>
+    <t>Dunston UTS</t>
+  </si>
+  <si>
+    <t>Leek Town</t>
+  </si>
+  <si>
+    <t>North Ferriby</t>
+  </si>
+  <si>
     <t>AFC Rushden  Diamonds</t>
   </si>
   <si>
     <t>Runcorn Linnets</t>
   </si>
   <si>
-    <t>Liversedge</t>
-  </si>
-  <si>
-    <t>North Ferriby</t>
+    <t>Cambridge City</t>
   </si>
   <si>
     <t>Pontefract Collieries</t>
   </si>
   <si>
-    <t>Mossley</t>
+    <t>Liversedge</t>
   </si>
   <si>
-    <t>Cambridge City</t>
+    <t>Hinckley LR</t>
+  </si>
+  <si>
+    <t>Rugby Town</t>
+  </si>
+  <si>
+    <t>Hednesford</t>
+  </si>
+  <si>
+    <t>Mossley</t>
   </si>
   <si>
     <t>Coventry Sphinx</t>
   </si>
   <si>
-    <t>Grantham</t>
+    <t>Stockton Town</t>
   </si>
   <si>
-    <t>Hednesford</t>
-  </si>
-  <si>
-    <t>Dunston UTS</t>
-  </si>
-  <si>
-    <t>Rugby Town</t>
-  </si>
-  <si>
-    <t>Leek Town</t>
-  </si>
-  <si>
-    <t>Hinckley LR</t>
+    <t>Winterton Rangers</t>
   </si>
   <si>
     <t>Grimsby Borough</t>
   </si>
   <si>
-    <t>Stockton Town</t>
-  </si>
-  <si>
     <t>Avro FC</t>
-  </si>
-  <si>
-    <t>Winterton Rangers</t>
   </si>
   <si>
     <t>Stalybridge</t>
@@ -190,10 +190,10 @@
     <t>Prescot Cables</t>
   </si>
   <si>
-    <t>Gresley Rovers</t>
+    <t>Witton Albion</t>
   </si>
   <si>
-    <t>Witton Albion</t>
+    <t>Gresley Rovers</t>
   </si>
   <si>
     <t>Kidsgrove Ath</t>
@@ -205,22 +205,22 @@
     <t>Ossett United</t>
   </si>
   <si>
-    <t>Bedworth Utd</t>
+    <t>1874 Northwich</t>
   </si>
   <si>
-    <t>1874 Northwich</t>
+    <t>Bedworth Utd</t>
   </si>
   <si>
     <t>Newton Aycliffe</t>
   </si>
   <si>
-    <t>Sporting Khalsa</t>
+    <t>Nantwich Town</t>
   </si>
   <si>
     <t>Harborough Town</t>
   </si>
   <si>
-    <t>Nantwich Town</t>
+    <t>Sporting Khalsa</t>
   </si>
   <si>
     <t>Carlton Town</t>
@@ -235,10 +235,10 @@
     <t>Trafford</t>
   </si>
   <si>
-    <t>Quorn</t>
+    <t>Belper Town</t>
   </si>
   <si>
-    <t>Belper Town</t>
+    <t>Quorn</t>
   </si>
   <si>
     <t>Newcastle Town</t>
@@ -259,13 +259,16 @@
     <t>Hanley Town</t>
   </si>
   <si>
+    <t>Vauxhall Motors</t>
+  </si>
+  <si>
     <t>Lye Town</t>
   </si>
   <si>
-    <t>Hebburn Town</t>
+    <t>Consett</t>
   </si>
   <si>
-    <t>Consett</t>
+    <t>Hebburn Town</t>
   </si>
   <si>
     <t>City of Liverpool FC</t>
@@ -275,9 +278,6 @@
   </si>
   <si>
     <t>Boldmere St Michaels</t>
-  </si>
-  <si>
-    <t>Vauxhall Motors</t>
   </si>
   <si>
     <t>Chasetown</t>
@@ -651,7 +651,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC152"/>
+  <dimension ref="A1:AC158"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -941,7 +941,7 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="H4">
         <v>2</v>
@@ -1030,7 +1030,7 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H5">
         <v>3</v>
@@ -1104,7 +1104,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>7072686</v>
+        <v>7072687</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -1119,31 +1119,31 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K6">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="L6">
+        <v>3.5</v>
+      </c>
+      <c r="M6">
+        <v>3.2</v>
+      </c>
+      <c r="N6">
+        <v>1.75</v>
+      </c>
+      <c r="O6">
         <v>3.6</v>
-      </c>
-      <c r="M6">
-        <v>2.9</v>
-      </c>
-      <c r="N6">
-        <v>1.7</v>
-      </c>
-      <c r="O6">
-        <v>3.8</v>
       </c>
       <c r="P6">
         <v>4</v>
@@ -1152,40 +1152,40 @@
         <v>-0.75</v>
       </c>
       <c r="R6">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S6">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T6">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U6">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="V6">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W6">
         <v>-1</v>
       </c>
       <c r="X6">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y6">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z6">
         <v>-1</v>
       </c>
       <c r="AA6">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB6">
         <v>-1</v>
       </c>
       <c r="AC6">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1193,7 +1193,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7072687</v>
+        <v>7072686</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1208,31 +1208,31 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7">
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K7">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="L7">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M7">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="N7">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="O7">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P7">
         <v>4</v>
@@ -1241,40 +1241,40 @@
         <v>-0.75</v>
       </c>
       <c r="R7">
+        <v>1.925</v>
+      </c>
+      <c r="S7">
+        <v>1.875</v>
+      </c>
+      <c r="T7">
+        <v>2.5</v>
+      </c>
+      <c r="U7">
+        <v>1.75</v>
+      </c>
+      <c r="V7">
         <v>1.95</v>
       </c>
-      <c r="S7">
-        <v>1.85</v>
-      </c>
-      <c r="T7">
-        <v>2.75</v>
-      </c>
-      <c r="U7">
-        <v>1.9</v>
-      </c>
-      <c r="V7">
-        <v>1.9</v>
-      </c>
       <c r="W7">
         <v>-1</v>
       </c>
       <c r="X7">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y7">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z7">
         <v>-1</v>
       </c>
       <c r="AA7">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AB7">
         <v>-1</v>
       </c>
       <c r="AC7">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1386,7 +1386,7 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H9">
         <v>3</v>
@@ -1460,7 +1460,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>7100282</v>
+        <v>7100107</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1475,73 +1475,73 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K10">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="L10">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M10">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="N10">
-        <v>2.25</v>
+        <v>2.9</v>
       </c>
       <c r="O10">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P10">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="Q10">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R10">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S10">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T10">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U10">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V10">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W10">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="X10">
         <v>-1</v>
       </c>
       <c r="Y10">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Z10">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA10">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB10">
-        <v>0.4125</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC10">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1549,7 +1549,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>7100546</v>
+        <v>7100106</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1564,58 +1564,58 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="s">
         <v>90</v>
       </c>
       <c r="K11">
-        <v>1.615</v>
+        <v>2.05</v>
       </c>
       <c r="L11">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="M11">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="N11">
-        <v>1.45</v>
+        <v>1.85</v>
       </c>
       <c r="O11">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="P11">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="Q11">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R11">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S11">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T11">
         <v>2.75</v>
       </c>
       <c r="U11">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V11">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W11">
         <v>-1</v>
       </c>
       <c r="X11">
-        <v>3.333</v>
+        <v>2.4</v>
       </c>
       <c r="Y11">
         <v>-1</v>
@@ -1624,13 +1624,13 @@
         <v>-1</v>
       </c>
       <c r="AA11">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB11">
         <v>-1</v>
       </c>
       <c r="AC11">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1638,7 +1638,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>7100108</v>
+        <v>7100544</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1653,10 +1653,10 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="H12">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -1665,43 +1665,43 @@
         <v>89</v>
       </c>
       <c r="K12">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="L12">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M12">
-        <v>2.6</v>
+        <v>3.25</v>
       </c>
       <c r="N12">
-        <v>2.3</v>
+        <v>1.666</v>
       </c>
       <c r="O12">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="P12">
-        <v>2.625</v>
+        <v>3.6</v>
       </c>
       <c r="Q12">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R12">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S12">
-        <v>1.725</v>
+        <v>1.925</v>
       </c>
       <c r="T12">
         <v>2.75</v>
       </c>
       <c r="U12">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V12">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W12">
-        <v>1.3</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X12">
         <v>-1</v>
@@ -1710,16 +1710,16 @@
         <v>-1</v>
       </c>
       <c r="Z12">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AA12">
         <v>-1</v>
       </c>
       <c r="AB12">
-        <v>0.8</v>
+        <v>0.45</v>
       </c>
       <c r="AC12">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1742,7 +1742,7 @@
         <v>40</v>
       </c>
       <c r="G13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1831,7 +1831,7 @@
         <v>29</v>
       </c>
       <c r="G14" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H14">
         <v>1</v>
@@ -1905,7 +1905,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>7100110</v>
+        <v>7100282</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1920,10 +1920,10 @@
         <v>41</v>
       </c>
       <c r="G15" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15">
         <v>3</v>
@@ -1932,40 +1932,40 @@
         <v>91</v>
       </c>
       <c r="K15">
+        <v>2.2</v>
+      </c>
+      <c r="L15">
+        <v>4</v>
+      </c>
+      <c r="M15">
+        <v>2.45</v>
+      </c>
+      <c r="N15">
         <v>2.25</v>
       </c>
-      <c r="L15">
-        <v>3.25</v>
-      </c>
-      <c r="M15">
-        <v>2.75</v>
-      </c>
-      <c r="N15">
-        <v>2.625</v>
-      </c>
       <c r="O15">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="P15">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
       <c r="R15">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S15">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T15">
         <v>2.75</v>
       </c>
       <c r="U15">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V15">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W15">
         <v>-1</v>
@@ -1974,19 +1974,19 @@
         <v>-1</v>
       </c>
       <c r="Y15">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="Z15">
         <v>-1</v>
       </c>
       <c r="AA15">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AB15">
-        <v>0.95</v>
+        <v>0.4125</v>
       </c>
       <c r="AC15">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -1994,7 +1994,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>7100545</v>
+        <v>7100546</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -2009,73 +2009,73 @@
         <v>42</v>
       </c>
       <c r="G16" t="s">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="H16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K16">
-        <v>1.909</v>
+        <v>1.615</v>
       </c>
       <c r="L16">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M16">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="N16">
-        <v>1.85</v>
+        <v>1.45</v>
       </c>
       <c r="O16">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="P16">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="Q16">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R16">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S16">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T16">
         <v>2.75</v>
       </c>
       <c r="U16">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V16">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W16">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X16">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y16">
         <v>-1</v>
       </c>
       <c r="Z16">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA16">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB16">
         <v>-1</v>
       </c>
       <c r="AC16">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -2098,7 +2098,7 @@
         <v>43</v>
       </c>
       <c r="G17" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H17">
         <v>2</v>
@@ -2172,7 +2172,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>7100393</v>
+        <v>7100110</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2187,53 +2187,53 @@
         <v>44</v>
       </c>
       <c r="G18" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J18" t="s">
         <v>91</v>
       </c>
       <c r="K18">
-        <v>2.9</v>
+        <v>2.25</v>
       </c>
       <c r="L18">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="M18">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="N18">
-        <v>2.8</v>
+        <v>2.625</v>
       </c>
       <c r="O18">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="P18">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="Q18">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R18">
+        <v>2</v>
+      </c>
+      <c r="S18">
+        <v>1.8</v>
+      </c>
+      <c r="T18">
+        <v>2.75</v>
+      </c>
+      <c r="U18">
         <v>1.95</v>
       </c>
-      <c r="S18">
+      <c r="V18">
         <v>1.85</v>
       </c>
-      <c r="T18">
-        <v>3</v>
-      </c>
-      <c r="U18">
-        <v>1.75</v>
-      </c>
-      <c r="V18">
-        <v>1.95</v>
-      </c>
       <c r="W18">
         <v>-1</v>
       </c>
@@ -2241,19 +2241,19 @@
         <v>-1</v>
       </c>
       <c r="Y18">
-        <v>1.05</v>
+        <v>1.3</v>
       </c>
       <c r="Z18">
         <v>-1</v>
       </c>
       <c r="AA18">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AB18">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC18">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2261,7 +2261,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>7100107</v>
+        <v>7100108</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2276,55 +2276,55 @@
         <v>45</v>
       </c>
       <c r="G19" t="s">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19" t="s">
         <v>89</v>
       </c>
       <c r="K19">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="L19">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M19">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="N19">
-        <v>2.9</v>
+        <v>2.3</v>
       </c>
       <c r="O19">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P19">
-        <v>2.1</v>
+        <v>2.625</v>
       </c>
       <c r="Q19">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R19">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S19">
-        <v>1.925</v>
+        <v>1.725</v>
       </c>
       <c r="T19">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U19">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V19">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W19">
-        <v>1.9</v>
+        <v>1.3</v>
       </c>
       <c r="X19">
         <v>-1</v>
@@ -2333,13 +2333,13 @@
         <v>-1</v>
       </c>
       <c r="Z19">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA19">
         <v>-1</v>
       </c>
       <c r="AB19">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AC19">
         <v>-1</v>
@@ -2350,7 +2350,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>7100543</v>
+        <v>7100394</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2365,73 +2365,73 @@
         <v>46</v>
       </c>
       <c r="G20" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="H20">
         <v>2</v>
       </c>
       <c r="I20">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J20" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K20">
-        <v>1.909</v>
+        <v>2.25</v>
       </c>
       <c r="L20">
         <v>3.75</v>
       </c>
       <c r="M20">
+        <v>2.5</v>
+      </c>
+      <c r="N20">
+        <v>1.909</v>
+      </c>
+      <c r="O20">
+        <v>4</v>
+      </c>
+      <c r="P20">
         <v>3.1</v>
       </c>
-      <c r="N20">
-        <v>2.3</v>
-      </c>
-      <c r="O20">
-        <v>3.6</v>
-      </c>
-      <c r="P20">
-        <v>2.5</v>
-      </c>
       <c r="Q20">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R20">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S20">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T20">
         <v>2.75</v>
       </c>
       <c r="U20">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V20">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W20">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X20">
         <v>-1</v>
       </c>
       <c r="Y20">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z20">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA20">
+        <v>-1</v>
+      </c>
+      <c r="AB20">
+        <v>-1</v>
+      </c>
+      <c r="AC20">
         <v>1</v>
-      </c>
-      <c r="AB20">
-        <v>0.875</v>
-      </c>
-      <c r="AC20">
-        <v>-1</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2439,7 +2439,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>7100106</v>
+        <v>7100405</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2454,73 +2454,73 @@
         <v>47</v>
       </c>
       <c r="G21" t="s">
-        <v>83</v>
+        <v>33</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
+        <v>6</v>
+      </c>
+      <c r="J21" t="s">
+        <v>91</v>
+      </c>
+      <c r="K21">
+        <v>2.5</v>
+      </c>
+      <c r="L21">
+        <v>3.6</v>
+      </c>
+      <c r="M21">
+        <v>2.3</v>
+      </c>
+      <c r="N21">
+        <v>2.5</v>
+      </c>
+      <c r="O21">
+        <v>3.6</v>
+      </c>
+      <c r="P21">
+        <v>2.3</v>
+      </c>
+      <c r="Q21">
         <v>0</v>
       </c>
-      <c r="J21" t="s">
-        <v>90</v>
-      </c>
-      <c r="K21">
-        <v>2.05</v>
-      </c>
-      <c r="L21">
-        <v>3.2</v>
-      </c>
-      <c r="M21">
-        <v>3.2</v>
-      </c>
-      <c r="N21">
+      <c r="R21">
+        <v>2</v>
+      </c>
+      <c r="S21">
+        <v>1.8</v>
+      </c>
+      <c r="T21">
+        <v>3</v>
+      </c>
+      <c r="U21">
+        <v>1.95</v>
+      </c>
+      <c r="V21">
         <v>1.85</v>
       </c>
-      <c r="O21">
-        <v>3.4</v>
-      </c>
-      <c r="P21">
-        <v>3.4</v>
-      </c>
-      <c r="Q21">
-        <v>-0.5</v>
-      </c>
-      <c r="R21">
-        <v>1.95</v>
-      </c>
-      <c r="S21">
-        <v>1.85</v>
-      </c>
-      <c r="T21">
-        <v>2.75</v>
-      </c>
-      <c r="U21">
-        <v>1.825</v>
-      </c>
-      <c r="V21">
-        <v>1.975</v>
-      </c>
       <c r="W21">
         <v>-1</v>
       </c>
       <c r="X21">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y21">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z21">
         <v>-1</v>
       </c>
       <c r="AA21">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AB21">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC21">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2528,7 +2528,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7100405</v>
+        <v>7100543</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2543,52 +2543,52 @@
         <v>48</v>
       </c>
       <c r="G22" t="s">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J22" t="s">
         <v>91</v>
       </c>
       <c r="K22">
-        <v>2.5</v>
+        <v>1.909</v>
       </c>
       <c r="L22">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M22">
+        <v>3.1</v>
+      </c>
+      <c r="N22">
         <v>2.3</v>
-      </c>
-      <c r="N22">
-        <v>2.5</v>
       </c>
       <c r="O22">
         <v>3.6</v>
       </c>
       <c r="P22">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
       <c r="R22">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S22">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T22">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U22">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V22">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W22">
         <v>-1</v>
@@ -2597,16 +2597,16 @@
         <v>-1</v>
       </c>
       <c r="Y22">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="Z22">
         <v>-1</v>
       </c>
       <c r="AA22">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AB22">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AC22">
         <v>-1</v>
@@ -2617,7 +2617,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>7100544</v>
+        <v>7100545</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2632,10 +2632,10 @@
         <v>49</v>
       </c>
       <c r="G23" t="s">
-        <v>72</v>
+        <v>35</v>
       </c>
       <c r="H23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -2644,43 +2644,43 @@
         <v>89</v>
       </c>
       <c r="K23">
-        <v>1.8</v>
+        <v>1.909</v>
       </c>
       <c r="L23">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M23">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="N23">
-        <v>1.666</v>
+        <v>1.85</v>
       </c>
       <c r="O23">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="P23">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="Q23">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R23">
+        <v>1.925</v>
+      </c>
+      <c r="S23">
         <v>1.875</v>
-      </c>
-      <c r="S23">
-        <v>1.925</v>
       </c>
       <c r="T23">
         <v>2.75</v>
       </c>
       <c r="U23">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V23">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W23">
-        <v>0.6659999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X23">
         <v>-1</v>
@@ -2689,16 +2689,16 @@
         <v>-1</v>
       </c>
       <c r="Z23">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="AA23">
         <v>-1</v>
       </c>
       <c r="AB23">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AC23">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2706,7 +2706,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>7100394</v>
+        <v>7100393</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2721,37 +2721,37 @@
         <v>50</v>
       </c>
       <c r="G24" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K24">
-        <v>2.25</v>
+        <v>2.9</v>
       </c>
       <c r="L24">
         <v>3.75</v>
       </c>
       <c r="M24">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="N24">
-        <v>1.909</v>
+        <v>2.8</v>
       </c>
       <c r="O24">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P24">
-        <v>3.1</v>
+        <v>2.05</v>
       </c>
       <c r="Q24">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R24">
         <v>1.95</v>
@@ -2760,34 +2760,34 @@
         <v>1.85</v>
       </c>
       <c r="T24">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U24">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="V24">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W24">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X24">
         <v>-1</v>
       </c>
       <c r="Y24">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z24">
+        <v>-1</v>
+      </c>
+      <c r="AA24">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB24">
+        <v>-1</v>
+      </c>
+      <c r="AC24">
         <v>0.95</v>
-      </c>
-      <c r="AA24">
-        <v>-1</v>
-      </c>
-      <c r="AB24">
-        <v>-1</v>
-      </c>
-      <c r="AC24">
-        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -2795,7 +2795,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>7104106</v>
+        <v>7104129</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2810,55 +2810,55 @@
         <v>51</v>
       </c>
       <c r="G25" t="s">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="H25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I25">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J25" t="s">
         <v>89</v>
       </c>
       <c r="K25">
-        <v>2.375</v>
+        <v>1.533</v>
       </c>
       <c r="L25">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M25">
-        <v>2.375</v>
+        <v>4.75</v>
       </c>
       <c r="N25">
-        <v>2.6</v>
+        <v>1.45</v>
       </c>
       <c r="O25">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="P25">
-        <v>2.15</v>
+        <v>5.5</v>
       </c>
       <c r="Q25">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R25">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="S25">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T25">
         <v>3</v>
       </c>
       <c r="U25">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="V25">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W25">
-        <v>1.6</v>
+        <v>0.45</v>
       </c>
       <c r="X25">
         <v>-1</v>
@@ -2867,16 +2867,16 @@
         <v>-1</v>
       </c>
       <c r="Z25">
-        <v>0.825</v>
+        <v>0.75</v>
       </c>
       <c r="AA25">
         <v>-1</v>
       </c>
       <c r="AB25">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AC25">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="26" spans="1:29">
@@ -2884,7 +2884,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>7104129</v>
+        <v>7104130</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2899,73 +2899,73 @@
         <v>52</v>
       </c>
       <c r="G26" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I26">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J26" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K26">
-        <v>1.533</v>
+        <v>2.375</v>
       </c>
       <c r="L26">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M26">
-        <v>4.75</v>
+        <v>2.375</v>
       </c>
       <c r="N26">
-        <v>1.45</v>
+        <v>2.625</v>
       </c>
       <c r="O26">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="P26">
-        <v>5.5</v>
+        <v>2.2</v>
       </c>
       <c r="Q26">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R26">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="S26">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T26">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U26">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V26">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W26">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X26">
         <v>-1</v>
       </c>
       <c r="Y26">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z26">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA26">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB26">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AC26">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -2973,7 +2973,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>7104131</v>
+        <v>7104106</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2988,73 +2988,73 @@
         <v>53</v>
       </c>
       <c r="G27" t="s">
-        <v>84</v>
+        <v>30</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J27" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K27">
-        <v>2.25</v>
+        <v>2.375</v>
       </c>
       <c r="L27">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M27">
+        <v>2.375</v>
+      </c>
+      <c r="N27">
         <v>2.6</v>
       </c>
-      <c r="N27">
-        <v>1.833</v>
-      </c>
       <c r="O27">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P27">
-        <v>3.5</v>
+        <v>2.15</v>
       </c>
       <c r="Q27">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R27">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S27">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T27">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U27">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="V27">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W27">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="X27">
         <v>-1</v>
       </c>
       <c r="Y27">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z27">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA27">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB27">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AC27">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -3062,7 +3062,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>7104130</v>
+        <v>7104131</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -3077,52 +3077,52 @@
         <v>54</v>
       </c>
       <c r="G28" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
         <v>1</v>
-      </c>
-      <c r="I28">
-        <v>2</v>
       </c>
       <c r="J28" t="s">
         <v>91</v>
       </c>
       <c r="K28">
-        <v>2.375</v>
+        <v>2.25</v>
       </c>
       <c r="L28">
+        <v>3.5</v>
+      </c>
+      <c r="M28">
+        <v>2.6</v>
+      </c>
+      <c r="N28">
+        <v>1.833</v>
+      </c>
+      <c r="O28">
         <v>3.6</v>
       </c>
-      <c r="M28">
-        <v>2.375</v>
-      </c>
-      <c r="N28">
-        <v>2.625</v>
-      </c>
-      <c r="O28">
+      <c r="P28">
         <v>3.5</v>
       </c>
-      <c r="P28">
-        <v>2.2</v>
-      </c>
       <c r="Q28">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R28">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S28">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T28">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U28">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="V28">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W28">
         <v>-1</v>
@@ -3131,19 +3131,19 @@
         <v>-1</v>
       </c>
       <c r="Y28">
-        <v>1.2</v>
+        <v>2.5</v>
       </c>
       <c r="Z28">
         <v>-1</v>
       </c>
       <c r="AA28">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AB28">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AC28">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -3240,7 +3240,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>7122508</v>
+        <v>7122522</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3252,76 +3252,76 @@
         <v>45164.45833333334</v>
       </c>
       <c r="F30" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G30" t="s">
-        <v>85</v>
+        <v>43</v>
       </c>
       <c r="H30">
         <v>1</v>
       </c>
       <c r="I30">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J30" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K30">
-        <v>1.533</v>
+        <v>1.909</v>
       </c>
       <c r="L30">
-        <v>4.1</v>
+        <v>3.4</v>
       </c>
       <c r="M30">
-        <v>4.6</v>
+        <v>3.4</v>
       </c>
       <c r="N30">
         <v>2.25</v>
       </c>
       <c r="O30">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="P30">
-        <v>2.625</v>
+        <v>2.8</v>
       </c>
       <c r="Q30">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R30">
-        <v>1.725</v>
+        <v>2.025</v>
       </c>
       <c r="S30">
-        <v>2.075</v>
+        <v>1.775</v>
       </c>
       <c r="T30">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U30">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V30">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="W30">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X30">
         <v>-1</v>
       </c>
       <c r="Y30">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z30">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA30">
-        <v>1.075</v>
+        <v>-1</v>
       </c>
       <c r="AB30">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC30">
-        <v>-0</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3329,7 +3329,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>7122522</v>
+        <v>7122508</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3341,76 +3341,76 @@
         <v>45164.45833333334</v>
       </c>
       <c r="F31" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G31" t="s">
-        <v>43</v>
+        <v>86</v>
       </c>
       <c r="H31">
         <v>1</v>
       </c>
       <c r="I31">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J31" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K31">
-        <v>1.909</v>
+        <v>1.533</v>
       </c>
       <c r="L31">
-        <v>3.4</v>
+        <v>4.1</v>
       </c>
       <c r="M31">
-        <v>3.4</v>
+        <v>4.6</v>
       </c>
       <c r="N31">
         <v>2.25</v>
       </c>
       <c r="O31">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="P31">
-        <v>2.8</v>
+        <v>2.625</v>
       </c>
       <c r="Q31">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R31">
-        <v>2.025</v>
+        <v>1.725</v>
       </c>
       <c r="S31">
-        <v>1.775</v>
+        <v>2.075</v>
       </c>
       <c r="T31">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U31">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V31">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="W31">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X31">
         <v>-1</v>
       </c>
       <c r="Y31">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z31">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA31">
-        <v>-1</v>
+        <v>1.075</v>
       </c>
       <c r="AB31">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC31">
-        <v>0.7749999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -3418,7 +3418,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>7134274</v>
+        <v>7134273</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3430,76 +3430,76 @@
         <v>45166.45833333334</v>
       </c>
       <c r="F32" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="G32" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="H32">
         <v>2</v>
       </c>
       <c r="I32">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J32" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K32">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="L32">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M32">
-        <v>2.8</v>
+        <v>2.625</v>
       </c>
       <c r="N32">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="O32">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P32">
-        <v>2.9</v>
+        <v>2.625</v>
       </c>
       <c r="Q32">
         <v>-0.25</v>
       </c>
       <c r="R32">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S32">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T32">
         <v>2.75</v>
       </c>
       <c r="U32">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V32">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W32">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X32">
         <v>-1</v>
       </c>
       <c r="Y32">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z32">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA32">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB32">
-        <v>0.875</v>
+        <v>0.4</v>
       </c>
       <c r="AC32">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -3519,7 +3519,7 @@
         <v>45166.45833333334</v>
       </c>
       <c r="F33" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G33" t="s">
         <v>69</v>
@@ -3608,7 +3608,7 @@
         <v>45166.45833333334</v>
       </c>
       <c r="F34" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G34" t="s">
         <v>62</v>
@@ -3774,7 +3774,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>7134273</v>
+        <v>7134274</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3786,76 +3786,76 @@
         <v>45166.45833333334</v>
       </c>
       <c r="F36" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G36" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="H36">
         <v>2</v>
       </c>
       <c r="I36">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J36" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K36">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="L36">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M36">
-        <v>2.625</v>
+        <v>2.8</v>
       </c>
       <c r="N36">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="O36">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P36">
-        <v>2.625</v>
+        <v>2.9</v>
       </c>
       <c r="Q36">
         <v>-0.25</v>
       </c>
       <c r="R36">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S36">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T36">
         <v>2.75</v>
       </c>
       <c r="U36">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V36">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W36">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X36">
         <v>-1</v>
       </c>
       <c r="Y36">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Z36">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA36">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB36">
-        <v>0.4</v>
+        <v>0.875</v>
       </c>
       <c r="AC36">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="37" spans="1:29">
@@ -3878,7 +3878,7 @@
         <v>31</v>
       </c>
       <c r="G37" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H37">
         <v>3</v>
@@ -4041,7 +4041,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>7197960</v>
+        <v>7197970</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -4056,70 +4056,70 @@
         <v>58</v>
       </c>
       <c r="G39" t="s">
-        <v>86</v>
+        <v>48</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I39">
         <v>2</v>
       </c>
       <c r="J39" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K39">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="L39">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M39">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="N39">
-        <v>3</v>
+        <v>2.05</v>
       </c>
       <c r="O39">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P39">
-        <v>1.95</v>
+        <v>3.1</v>
       </c>
       <c r="Q39">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R39">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S39">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T39">
         <v>3</v>
       </c>
       <c r="U39">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V39">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="W39">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X39">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y39">
         <v>-1</v>
       </c>
       <c r="Z39">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AA39">
         <v>-1</v>
       </c>
       <c r="AB39">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC39">
         <v>-1</v>
@@ -4130,7 +4130,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>7197970</v>
+        <v>7197960</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4145,70 +4145,70 @@
         <v>59</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="H40">
+        <v>2</v>
+      </c>
+      <c r="I40">
+        <v>2</v>
+      </c>
+      <c r="J40" t="s">
+        <v>90</v>
+      </c>
+      <c r="K40">
+        <v>2.4</v>
+      </c>
+      <c r="L40">
+        <v>3.6</v>
+      </c>
+      <c r="M40">
+        <v>2.4</v>
+      </c>
+      <c r="N40">
         <v>3</v>
       </c>
-      <c r="I40">
-        <v>2</v>
-      </c>
-      <c r="J40" t="s">
-        <v>89</v>
-      </c>
-      <c r="K40">
-        <v>2.35</v>
-      </c>
-      <c r="L40">
-        <v>3.4</v>
-      </c>
-      <c r="M40">
-        <v>2.6</v>
-      </c>
-      <c r="N40">
-        <v>2.05</v>
-      </c>
       <c r="O40">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P40">
-        <v>3.1</v>
+        <v>1.95</v>
       </c>
       <c r="Q40">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R40">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S40">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T40">
         <v>3</v>
       </c>
       <c r="U40">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V40">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="W40">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X40">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y40">
         <v>-1</v>
       </c>
       <c r="Z40">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="AA40">
         <v>-1</v>
       </c>
       <c r="AB40">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AC40">
         <v>-1</v>
@@ -4323,7 +4323,7 @@
         <v>30</v>
       </c>
       <c r="G42" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="H42">
         <v>0</v>
@@ -4397,7 +4397,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>7258502</v>
+        <v>7261755</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4409,13 +4409,13 @@
         <v>45195.65625</v>
       </c>
       <c r="F43" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="G43" t="s">
-        <v>48</v>
+        <v>81</v>
       </c>
       <c r="H43">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I43">
         <v>1</v>
@@ -4424,43 +4424,43 @@
         <v>89</v>
       </c>
       <c r="K43">
-        <v>2.35</v>
+        <v>1.533</v>
       </c>
       <c r="L43">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M43">
-        <v>2.55</v>
+        <v>4.75</v>
       </c>
       <c r="N43">
-        <v>2.375</v>
+        <v>1.533</v>
       </c>
       <c r="O43">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P43">
-        <v>2.55</v>
+        <v>4.75</v>
       </c>
       <c r="Q43">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R43">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S43">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T43">
         <v>2.75</v>
       </c>
       <c r="U43">
+        <v>1.925</v>
+      </c>
+      <c r="V43">
         <v>1.875</v>
       </c>
-      <c r="V43">
-        <v>1.925</v>
-      </c>
       <c r="W43">
-        <v>1.375</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X43">
         <v>-1</v>
@@ -4469,16 +4469,16 @@
         <v>-1</v>
       </c>
       <c r="Z43">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AA43">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB43">
-        <v>0.875</v>
+        <v>0.4625</v>
       </c>
       <c r="AC43">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="44" spans="1:29">
@@ -4486,7 +4486,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>7261755</v>
+        <v>7258502</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4498,13 +4498,13 @@
         <v>45195.65625</v>
       </c>
       <c r="F44" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="G44" t="s">
-        <v>87</v>
+        <v>47</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I44">
         <v>1</v>
@@ -4513,43 +4513,43 @@
         <v>89</v>
       </c>
       <c r="K44">
-        <v>1.533</v>
+        <v>2.35</v>
       </c>
       <c r="L44">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M44">
-        <v>4.75</v>
+        <v>2.55</v>
       </c>
       <c r="N44">
-        <v>1.533</v>
+        <v>2.375</v>
       </c>
       <c r="O44">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P44">
-        <v>4.75</v>
+        <v>2.55</v>
       </c>
       <c r="Q44">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R44">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S44">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T44">
         <v>2.75</v>
       </c>
       <c r="U44">
+        <v>1.875</v>
+      </c>
+      <c r="V44">
         <v>1.925</v>
       </c>
-      <c r="V44">
-        <v>1.875</v>
-      </c>
       <c r="W44">
-        <v>0.5329999999999999</v>
+        <v>1.375</v>
       </c>
       <c r="X44">
         <v>-1</v>
@@ -4558,16 +4558,16 @@
         <v>-1</v>
       </c>
       <c r="Z44">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AA44">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB44">
-        <v>0.4625</v>
+        <v>0.875</v>
       </c>
       <c r="AC44">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="45" spans="1:29">
@@ -4676,10 +4676,10 @@
         <v>45196.65625</v>
       </c>
       <c r="F46" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G46" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H46">
         <v>4</v>
@@ -4753,7 +4753,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>7287695</v>
+        <v>7287633</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4765,76 +4765,76 @@
         <v>45202.65625</v>
       </c>
       <c r="F47" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="G47" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="H47">
         <v>0</v>
       </c>
       <c r="I47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J47" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K47">
-        <v>2.4</v>
+        <v>2.55</v>
       </c>
       <c r="L47">
         <v>3.2</v>
       </c>
       <c r="M47">
-        <v>2.6</v>
+        <v>2.45</v>
       </c>
       <c r="N47">
-        <v>2.4</v>
+        <v>2.55</v>
       </c>
       <c r="O47">
         <v>3.2</v>
       </c>
       <c r="P47">
-        <v>2.6</v>
+        <v>2.45</v>
       </c>
       <c r="Q47">
         <v>0</v>
       </c>
       <c r="R47">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S47">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T47">
         <v>2.75</v>
       </c>
       <c r="U47">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V47">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="W47">
         <v>-1</v>
       </c>
       <c r="X47">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y47">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z47">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA47">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB47">
         <v>-1</v>
       </c>
       <c r="AC47">
-        <v>0.7749999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="48" spans="1:29">
@@ -4842,7 +4842,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>7287633</v>
+        <v>7287701</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4854,76 +4854,76 @@
         <v>45202.65625</v>
       </c>
       <c r="F48" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G48" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I48">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J48" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K48">
-        <v>2.55</v>
+        <v>3</v>
       </c>
       <c r="L48">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M48">
-        <v>2.45</v>
+        <v>2.1</v>
       </c>
       <c r="N48">
-        <v>2.55</v>
+        <v>3</v>
       </c>
       <c r="O48">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P48">
-        <v>2.45</v>
+        <v>2.1</v>
       </c>
       <c r="Q48">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R48">
+        <v>1.9</v>
+      </c>
+      <c r="S48">
+        <v>1.9</v>
+      </c>
+      <c r="T48">
+        <v>2.25</v>
+      </c>
+      <c r="U48">
+        <v>1.85</v>
+      </c>
+      <c r="V48">
         <v>1.95</v>
       </c>
-      <c r="S48">
-        <v>1.85</v>
-      </c>
-      <c r="T48">
-        <v>2.75</v>
-      </c>
-      <c r="U48">
-        <v>1.95</v>
-      </c>
-      <c r="V48">
-        <v>1.85</v>
-      </c>
       <c r="W48">
         <v>-1</v>
       </c>
       <c r="X48">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y48">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z48">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA48">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB48">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC48">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="49" spans="1:29">
@@ -4943,7 +4943,7 @@
         <v>45202.65625</v>
       </c>
       <c r="F49" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G49" t="s">
         <v>43</v>
@@ -5020,7 +5020,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>7287701</v>
+        <v>7287695</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -5032,55 +5032,55 @@
         <v>45202.65625</v>
       </c>
       <c r="F50" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="G50" t="s">
-        <v>42</v>
+        <v>67</v>
       </c>
       <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50">
         <v>1</v>
-      </c>
-      <c r="I50">
-        <v>3</v>
       </c>
       <c r="J50" t="s">
         <v>91</v>
       </c>
       <c r="K50">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="L50">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M50">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="N50">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="O50">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="P50">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="Q50">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R50">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S50">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T50">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U50">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V50">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="W50">
         <v>-1</v>
@@ -5089,19 +5089,19 @@
         <v>-1</v>
       </c>
       <c r="Y50">
-        <v>1.1</v>
+        <v>1.6</v>
       </c>
       <c r="Z50">
         <v>-1</v>
       </c>
       <c r="AA50">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB50">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC50">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -5121,7 +5121,7 @@
         <v>45203.65625</v>
       </c>
       <c r="F51" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G51" t="s">
         <v>61</v>
@@ -5213,7 +5213,7 @@
         <v>65</v>
       </c>
       <c r="G52" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H52">
         <v>2</v>
@@ -5302,7 +5302,7 @@
         <v>55</v>
       </c>
       <c r="G53" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="H53">
         <v>1</v>
@@ -5376,7 +5376,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>7319608</v>
+        <v>7319624</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5391,7 +5391,7 @@
         <v>66</v>
       </c>
       <c r="G54" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="H54">
         <v>3</v>
@@ -5403,31 +5403,31 @@
         <v>89</v>
       </c>
       <c r="K54">
-        <v>1.95</v>
+        <v>2.4</v>
       </c>
       <c r="L54">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="M54">
-        <v>2.75</v>
+        <v>2.4</v>
       </c>
       <c r="N54">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="O54">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P54">
-        <v>2.75</v>
+        <v>2.4</v>
       </c>
       <c r="Q54">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R54">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S54">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T54">
         <v>2.75</v>
@@ -5439,7 +5439,7 @@
         <v>1.9</v>
       </c>
       <c r="W54">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="X54">
         <v>-1</v>
@@ -5448,7 +5448,7 @@
         <v>-1</v>
       </c>
       <c r="Z54">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA54">
         <v>-1</v>
@@ -5554,7 +5554,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>7319624</v>
+        <v>7319608</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5569,7 +5569,7 @@
         <v>68</v>
       </c>
       <c r="G56" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="H56">
         <v>3</v>
@@ -5581,31 +5581,31 @@
         <v>89</v>
       </c>
       <c r="K56">
-        <v>2.4</v>
+        <v>1.95</v>
       </c>
       <c r="L56">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="M56">
-        <v>2.4</v>
+        <v>2.75</v>
       </c>
       <c r="N56">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="O56">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P56">
-        <v>2.4</v>
+        <v>2.75</v>
       </c>
       <c r="Q56">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R56">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S56">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T56">
         <v>2.75</v>
@@ -5617,7 +5617,7 @@
         <v>1.9</v>
       </c>
       <c r="W56">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="X56">
         <v>-1</v>
@@ -5626,7 +5626,7 @@
         <v>-1</v>
       </c>
       <c r="Z56">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AA56">
         <v>-1</v>
@@ -5658,7 +5658,7 @@
         <v>29</v>
       </c>
       <c r="G57" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H57">
         <v>1</v>
@@ -5747,7 +5747,7 @@
         <v>56</v>
       </c>
       <c r="G58" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="H58">
         <v>2</v>
@@ -5833,7 +5833,7 @@
         <v>45213.45833333334</v>
       </c>
       <c r="F59" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G59" t="s">
         <v>65</v>
@@ -5910,7 +5910,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>7350910</v>
+        <v>7350912</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -5922,49 +5922,49 @@
         <v>45216.65625</v>
       </c>
       <c r="F60" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="G60" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60">
         <v>1</v>
       </c>
       <c r="J60" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K60">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L60">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="M60">
         <v>2.5</v>
       </c>
       <c r="N60">
-        <v>2.5</v>
+        <v>2.375</v>
       </c>
       <c r="O60">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P60">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="Q60">
         <v>0</v>
       </c>
       <c r="R60">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S60">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T60">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U60">
         <v>1.95</v>
@@ -5973,25 +5973,25 @@
         <v>1.85</v>
       </c>
       <c r="W60">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X60">
         <v>-1</v>
       </c>
       <c r="Y60">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z60">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA60">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB60">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC60">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="61" spans="1:29">
@@ -6011,7 +6011,7 @@
         <v>45216.65625</v>
       </c>
       <c r="F61" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G61" t="s">
         <v>78</v>
@@ -6088,7 +6088,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>7350921</v>
+        <v>7350910</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -6100,76 +6100,76 @@
         <v>45216.65625</v>
       </c>
       <c r="F62" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="G62" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62">
+        <v>1</v>
+      </c>
+      <c r="J62" t="s">
+        <v>91</v>
+      </c>
+      <c r="K62">
+        <v>2.25</v>
+      </c>
+      <c r="L62">
+        <v>3.75</v>
+      </c>
+      <c r="M62">
+        <v>2.5</v>
+      </c>
+      <c r="N62">
+        <v>2.5</v>
+      </c>
+      <c r="O62">
+        <v>3.75</v>
+      </c>
+      <c r="P62">
+        <v>2.25</v>
+      </c>
+      <c r="Q62">
         <v>0</v>
       </c>
-      <c r="J62" t="s">
-        <v>89</v>
-      </c>
-      <c r="K62">
-        <v>2</v>
-      </c>
-      <c r="L62">
-        <v>4</v>
-      </c>
-      <c r="M62">
-        <v>2.75</v>
-      </c>
-      <c r="N62">
-        <v>2</v>
-      </c>
-      <c r="O62">
-        <v>4</v>
-      </c>
-      <c r="P62">
-        <v>2.75</v>
-      </c>
-      <c r="Q62">
-        <v>-0.25</v>
-      </c>
       <c r="R62">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S62">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T62">
         <v>2.75</v>
       </c>
       <c r="U62">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V62">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W62">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X62">
         <v>-1</v>
       </c>
       <c r="Y62">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z62">
+        <v>-1</v>
+      </c>
+      <c r="AA62">
+        <v>0.8</v>
+      </c>
+      <c r="AB62">
+        <v>-1</v>
+      </c>
+      <c r="AC62">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AA62">
-        <v>-1</v>
-      </c>
-      <c r="AB62">
-        <v>-1</v>
-      </c>
-      <c r="AC62">
-        <v>0.925</v>
       </c>
     </row>
     <row r="63" spans="1:29">
@@ -6177,7 +6177,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>7350912</v>
+        <v>7350921</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6189,58 +6189,58 @@
         <v>45216.65625</v>
       </c>
       <c r="F63" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="G63" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="H63">
         <v>2</v>
       </c>
       <c r="I63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J63" t="s">
         <v>89</v>
       </c>
       <c r="K63">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="L63">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="M63">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="N63">
-        <v>2.375</v>
+        <v>2</v>
       </c>
       <c r="O63">
         <v>4</v>
       </c>
       <c r="P63">
-        <v>2.3</v>
+        <v>2.75</v>
       </c>
       <c r="Q63">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R63">
+        <v>1.85</v>
+      </c>
+      <c r="S63">
+        <v>1.95</v>
+      </c>
+      <c r="T63">
+        <v>2.75</v>
+      </c>
+      <c r="U63">
+        <v>1.875</v>
+      </c>
+      <c r="V63">
         <v>1.925</v>
       </c>
-      <c r="S63">
-        <v>1.875</v>
-      </c>
-      <c r="T63">
-        <v>3</v>
-      </c>
-      <c r="U63">
-        <v>1.95</v>
-      </c>
-      <c r="V63">
-        <v>1.85</v>
-      </c>
       <c r="W63">
-        <v>1.375</v>
+        <v>1</v>
       </c>
       <c r="X63">
         <v>-1</v>
@@ -6249,16 +6249,16 @@
         <v>-1</v>
       </c>
       <c r="Z63">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AA63">
+        <v>-1</v>
+      </c>
+      <c r="AB63">
+        <v>-1</v>
+      </c>
+      <c r="AC63">
         <v>0.925</v>
-      </c>
-      <c r="AA63">
-        <v>-1</v>
-      </c>
-      <c r="AB63">
-        <v>0</v>
-      </c>
-      <c r="AC63">
-        <v>-0</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -6278,10 +6278,10 @@
         <v>45220.45833333334</v>
       </c>
       <c r="F64" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G64" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H64">
         <v>1</v>
@@ -6459,7 +6459,7 @@
         <v>71</v>
       </c>
       <c r="G66" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H66">
         <v>1</v>
@@ -6622,7 +6622,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>7395878</v>
+        <v>7395812</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6634,76 +6634,76 @@
         <v>45227.45833333334</v>
       </c>
       <c r="F68" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G68" t="s">
-        <v>58</v>
+        <v>84</v>
       </c>
       <c r="H68">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I68">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J68" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K68">
-        <v>1.363</v>
+        <v>2</v>
       </c>
       <c r="L68">
-        <v>5.25</v>
+        <v>3.6</v>
       </c>
       <c r="M68">
-        <v>5.25</v>
+        <v>3</v>
       </c>
       <c r="N68">
-        <v>1.363</v>
+        <v>2</v>
       </c>
       <c r="O68">
-        <v>5.25</v>
+        <v>3.6</v>
       </c>
       <c r="P68">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q68">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R68">
+        <v>1.8</v>
+      </c>
+      <c r="S68">
+        <v>2</v>
+      </c>
+      <c r="T68">
+        <v>2.75</v>
+      </c>
+      <c r="U68">
+        <v>1.75</v>
+      </c>
+      <c r="V68">
         <v>1.95</v>
       </c>
-      <c r="S68">
-        <v>1.85</v>
-      </c>
-      <c r="T68">
-        <v>3.5</v>
-      </c>
-      <c r="U68">
-        <v>1.925</v>
-      </c>
-      <c r="V68">
-        <v>1.875</v>
-      </c>
       <c r="W68">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X68">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y68">
         <v>-1</v>
       </c>
       <c r="Z68">
+        <v>-0.5</v>
+      </c>
+      <c r="AA68">
+        <v>0.5</v>
+      </c>
+      <c r="AB68">
+        <v>-1</v>
+      </c>
+      <c r="AC68">
         <v>0.95</v>
-      </c>
-      <c r="AA68">
-        <v>-1</v>
-      </c>
-      <c r="AB68">
-        <v>0.925</v>
-      </c>
-      <c r="AC68">
-        <v>-1</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -6711,7 +6711,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>7395812</v>
+        <v>7395878</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6723,76 +6723,76 @@
         <v>45227.45833333334</v>
       </c>
       <c r="F69" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G69" t="s">
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="H69">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I69">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J69" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K69">
-        <v>2</v>
+        <v>1.363</v>
       </c>
       <c r="L69">
-        <v>3.6</v>
+        <v>5.25</v>
       </c>
       <c r="M69">
-        <v>3</v>
+        <v>5.25</v>
       </c>
       <c r="N69">
-        <v>2</v>
+        <v>1.363</v>
       </c>
       <c r="O69">
-        <v>3.6</v>
+        <v>5.25</v>
       </c>
       <c r="P69">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q69">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R69">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S69">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T69">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U69">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="V69">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W69">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X69">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y69">
         <v>-1</v>
       </c>
       <c r="Z69">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA69">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB69">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC69">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -6815,7 +6815,7 @@
         <v>72</v>
       </c>
       <c r="G70" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H70">
         <v>2</v>
@@ -6904,7 +6904,7 @@
         <v>31</v>
       </c>
       <c r="G71" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H71">
         <v>0</v>
@@ -6978,7 +6978,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>7447904</v>
+        <v>7440452</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6990,76 +6990,76 @@
         <v>45237.69791666666</v>
       </c>
       <c r="F72" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="G72" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="H72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J72" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K72">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="L72">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="M72">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="N72">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="O72">
         <v>4</v>
       </c>
       <c r="P72">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="Q72">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R72">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S72">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T72">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U72">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V72">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W72">
         <v>-1</v>
       </c>
       <c r="X72">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y72">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z72">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA72">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB72">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC72">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="73" spans="1:29">
@@ -7067,7 +7067,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>7440456</v>
+        <v>7447904</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -7079,40 +7079,40 @@
         <v>45237.69791666666</v>
       </c>
       <c r="F73" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="G73" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I73">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J73" t="s">
         <v>90</v>
       </c>
       <c r="K73">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="L73">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M73">
-        <v>2.5</v>
+        <v>2.15</v>
       </c>
       <c r="N73">
-        <v>2.05</v>
+        <v>3.1</v>
       </c>
       <c r="O73">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P73">
-        <v>2.8</v>
+        <v>1.85</v>
       </c>
       <c r="Q73">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R73">
         <v>1.875</v>
@@ -7121,34 +7121,34 @@
         <v>1.925</v>
       </c>
       <c r="T73">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U73">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="V73">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W73">
         <v>-1</v>
       </c>
       <c r="X73">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Y73">
         <v>-1</v>
       </c>
       <c r="Z73">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AA73">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AB73">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AC73">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="74" spans="1:29">
@@ -7156,7 +7156,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>7440455</v>
+        <v>7440456</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7168,76 +7168,76 @@
         <v>45237.69791666666</v>
       </c>
       <c r="F74" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="G74" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="H74">
         <v>2</v>
       </c>
       <c r="I74">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J74" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K74">
-        <v>1.5</v>
+        <v>2.3</v>
       </c>
       <c r="L74">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="M74">
-        <v>4.75</v>
+        <v>2.5</v>
       </c>
       <c r="N74">
-        <v>1.5</v>
+        <v>2.05</v>
       </c>
       <c r="O74">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="P74">
-        <v>4.75</v>
+        <v>2.8</v>
       </c>
       <c r="Q74">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R74">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S74">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T74">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U74">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="V74">
         <v>1.95</v>
       </c>
       <c r="W74">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X74">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y74">
         <v>-1</v>
       </c>
       <c r="Z74">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA74">
-        <v>-0</v>
+        <v>0.4625</v>
       </c>
       <c r="AB74">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AC74">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7245,7 +7245,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>7440452</v>
+        <v>7440455</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7257,70 +7257,70 @@
         <v>45237.69791666666</v>
       </c>
       <c r="F75" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="G75" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J75" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K75">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="L75">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="M75">
-        <v>2.2</v>
+        <v>4.75</v>
       </c>
       <c r="N75">
-        <v>2.8</v>
+        <v>1.5</v>
       </c>
       <c r="O75">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P75">
-        <v>1.95</v>
+        <v>4.75</v>
       </c>
       <c r="Q75">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R75">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S75">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T75">
         <v>3</v>
       </c>
       <c r="U75">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V75">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W75">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X75">
         <v>-1</v>
       </c>
       <c r="Y75">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z75">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA75">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
       <c r="AB75">
         <v>0</v>
@@ -7346,7 +7346,7 @@
         <v>45237.69791666666</v>
       </c>
       <c r="F76" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G76" t="s">
         <v>43</v>
@@ -7423,7 +7423,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>7476390</v>
+        <v>7473235</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7435,10 +7435,10 @@
         <v>45244.69791666666</v>
       </c>
       <c r="F77" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="G77" t="s">
-        <v>84</v>
+        <v>37</v>
       </c>
       <c r="H77">
         <v>4</v>
@@ -7450,43 +7450,43 @@
         <v>89</v>
       </c>
       <c r="K77">
-        <v>2</v>
+        <v>1.727</v>
       </c>
       <c r="L77">
+        <v>3.75</v>
+      </c>
+      <c r="M77">
+        <v>3.75</v>
+      </c>
+      <c r="N77">
+        <v>1.75</v>
+      </c>
+      <c r="O77">
+        <v>3.75</v>
+      </c>
+      <c r="P77">
         <v>3.6</v>
       </c>
-      <c r="M77">
-        <v>3</v>
-      </c>
-      <c r="N77">
-        <v>2</v>
-      </c>
-      <c r="O77">
-        <v>3.6</v>
-      </c>
-      <c r="P77">
-        <v>3</v>
-      </c>
       <c r="Q77">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R77">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S77">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T77">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U77">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V77">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W77">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="X77">
         <v>-1</v>
@@ -7495,13 +7495,13 @@
         <v>-1</v>
       </c>
       <c r="Z77">
-        <v>0.8</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA77">
         <v>-1</v>
       </c>
       <c r="AB77">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC77">
         <v>-1</v>
@@ -7512,7 +7512,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>7476389</v>
+        <v>7473234</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7524,73 +7524,73 @@
         <v>45244.69791666666</v>
       </c>
       <c r="F78" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="G78" t="s">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="H78">
+        <v>5</v>
+      </c>
+      <c r="I78">
         <v>0</v>
       </c>
-      <c r="I78">
-        <v>6</v>
-      </c>
       <c r="J78" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K78">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="L78">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M78">
-        <v>1.75</v>
+        <v>2.3</v>
       </c>
       <c r="N78">
-        <v>3.75</v>
+        <v>2.3</v>
       </c>
       <c r="O78">
         <v>3.6</v>
       </c>
       <c r="P78">
-        <v>1.75</v>
+        <v>2.45</v>
       </c>
       <c r="Q78">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R78">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S78">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T78">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U78">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V78">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W78">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X78">
         <v>-1</v>
       </c>
       <c r="Y78">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z78">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA78">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB78">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AC78">
         <v>-1</v>
@@ -7601,7 +7601,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>7473235</v>
+        <v>7476390</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7613,10 +7613,10 @@
         <v>45244.69791666666</v>
       </c>
       <c r="F79" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="G79" t="s">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="H79">
         <v>4</v>
@@ -7628,43 +7628,43 @@
         <v>89</v>
       </c>
       <c r="K79">
-        <v>1.727</v>
+        <v>2</v>
       </c>
       <c r="L79">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M79">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="N79">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="O79">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P79">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="Q79">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R79">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S79">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T79">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U79">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V79">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W79">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="X79">
         <v>-1</v>
@@ -7673,13 +7673,13 @@
         <v>-1</v>
       </c>
       <c r="Z79">
-        <v>0.7749999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AA79">
         <v>-1</v>
       </c>
       <c r="AB79">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AC79">
         <v>-1</v>
@@ -7690,7 +7690,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>7473234</v>
+        <v>7476389</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7702,73 +7702,73 @@
         <v>45244.69791666666</v>
       </c>
       <c r="F80" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="G80" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="H80">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I80">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J80" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K80">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="L80">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M80">
-        <v>2.3</v>
+        <v>1.75</v>
       </c>
       <c r="N80">
-        <v>2.3</v>
+        <v>3.75</v>
       </c>
       <c r="O80">
         <v>3.6</v>
       </c>
       <c r="P80">
-        <v>2.45</v>
+        <v>1.75</v>
       </c>
       <c r="Q80">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R80">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S80">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T80">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U80">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V80">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W80">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X80">
         <v>-1</v>
       </c>
       <c r="Y80">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z80">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA80">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB80">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AC80">
         <v>-1</v>
@@ -7880,10 +7880,10 @@
         <v>45252.69791666666</v>
       </c>
       <c r="F82" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G82" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H82">
         <v>2</v>
@@ -7969,10 +7969,10 @@
         <v>45258.69791666666</v>
       </c>
       <c r="F83" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G83" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H83">
         <v>2</v>
@@ -8061,7 +8061,7 @@
         <v>56</v>
       </c>
       <c r="G84" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H84">
         <v>0</v>
@@ -8150,7 +8150,7 @@
         <v>69</v>
       </c>
       <c r="G85" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H85">
         <v>1</v>
@@ -8313,7 +8313,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>7569473</v>
+        <v>7569472</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8325,56 +8325,56 @@
         <v>45269.5</v>
       </c>
       <c r="F87" t="s">
-        <v>70</v>
+        <v>37</v>
       </c>
       <c r="G87" t="s">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="H87">
         <v>0</v>
       </c>
       <c r="I87">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J87" t="s">
         <v>91</v>
       </c>
       <c r="K87">
-        <v>2.7</v>
+        <v>7</v>
       </c>
       <c r="L87">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="M87">
-        <v>2.1</v>
+        <v>1.333</v>
       </c>
       <c r="N87">
-        <v>2.7</v>
+        <v>7</v>
       </c>
       <c r="O87">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="P87">
-        <v>2.1</v>
+        <v>1.333</v>
       </c>
       <c r="Q87">
-        <v>0.25</v>
+        <v>1.5</v>
       </c>
       <c r="R87">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S87">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T87">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U87">
+        <v>1.85</v>
+      </c>
+      <c r="V87">
         <v>1.95</v>
       </c>
-      <c r="V87">
-        <v>1.85</v>
-      </c>
       <c r="W87">
         <v>-1</v>
       </c>
@@ -8382,19 +8382,19 @@
         <v>-1</v>
       </c>
       <c r="Y87">
-        <v>1.1</v>
+        <v>0.333</v>
       </c>
       <c r="Z87">
         <v>-1</v>
       </c>
       <c r="AA87">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB87">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC87">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8402,7 +8402,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>7569472</v>
+        <v>7569473</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8414,56 +8414,56 @@
         <v>45269.5</v>
       </c>
       <c r="F88" t="s">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="G88" t="s">
-        <v>52</v>
+        <v>84</v>
       </c>
       <c r="H88">
         <v>0</v>
       </c>
       <c r="I88">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J88" t="s">
         <v>91</v>
       </c>
       <c r="K88">
-        <v>7</v>
+        <v>2.7</v>
       </c>
       <c r="L88">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="M88">
-        <v>1.333</v>
+        <v>2.1</v>
       </c>
       <c r="N88">
-        <v>7</v>
+        <v>2.7</v>
       </c>
       <c r="O88">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="P88">
-        <v>1.333</v>
+        <v>2.1</v>
       </c>
       <c r="Q88">
-        <v>1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R88">
+        <v>1.875</v>
+      </c>
+      <c r="S88">
+        <v>1.925</v>
+      </c>
+      <c r="T88">
+        <v>3</v>
+      </c>
+      <c r="U88">
         <v>1.95</v>
       </c>
-      <c r="S88">
+      <c r="V88">
         <v>1.85</v>
       </c>
-      <c r="T88">
-        <v>3.25</v>
-      </c>
-      <c r="U88">
-        <v>1.85</v>
-      </c>
-      <c r="V88">
-        <v>1.95</v>
-      </c>
       <c r="W88">
         <v>-1</v>
       </c>
@@ -8471,19 +8471,19 @@
         <v>-1</v>
       </c>
       <c r="Y88">
-        <v>0.333</v>
+        <v>1.1</v>
       </c>
       <c r="Z88">
         <v>-1</v>
       </c>
       <c r="AA88">
+        <v>0.925</v>
+      </c>
+      <c r="AB88">
+        <v>-1</v>
+      </c>
+      <c r="AC88">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AB88">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AC88">
-        <v>-1</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8503,7 +8503,7 @@
         <v>45272.69791666666</v>
       </c>
       <c r="F89" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G89" t="s">
         <v>35</v>
@@ -8592,10 +8592,10 @@
         <v>45272.69791666666</v>
       </c>
       <c r="F90" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G90" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="H90">
         <v>0</v>
@@ -8681,7 +8681,7 @@
         <v>45275.69791666666</v>
       </c>
       <c r="F91" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G91" t="s">
         <v>83</v>
@@ -8936,7 +8936,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>7618670</v>
+        <v>7618668</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8948,76 +8948,76 @@
         <v>45283.5</v>
       </c>
       <c r="F94" t="s">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="G94" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="H94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J94" t="s">
         <v>90</v>
       </c>
       <c r="K94">
-        <v>2.75</v>
+        <v>2.1</v>
       </c>
       <c r="L94">
         <v>3.4</v>
       </c>
       <c r="M94">
+        <v>2.9</v>
+      </c>
+      <c r="N94">
+        <v>2.15</v>
+      </c>
+      <c r="O94">
+        <v>3.2</v>
+      </c>
+      <c r="P94">
+        <v>2.9</v>
+      </c>
+      <c r="Q94">
+        <v>-0.25</v>
+      </c>
+      <c r="R94">
+        <v>1.95</v>
+      </c>
+      <c r="S94">
+        <v>1.85</v>
+      </c>
+      <c r="T94">
+        <v>2.5</v>
+      </c>
+      <c r="U94">
+        <v>1.825</v>
+      </c>
+      <c r="V94">
+        <v>1.975</v>
+      </c>
+      <c r="W94">
+        <v>-1</v>
+      </c>
+      <c r="X94">
         <v>2.2</v>
       </c>
-      <c r="N94">
-        <v>2.45</v>
-      </c>
-      <c r="O94">
-        <v>3.3</v>
-      </c>
-      <c r="P94">
-        <v>2.5</v>
-      </c>
-      <c r="Q94">
-        <v>0</v>
-      </c>
-      <c r="R94">
-        <v>1.875</v>
-      </c>
-      <c r="S94">
-        <v>1.925</v>
-      </c>
-      <c r="T94">
-        <v>2.75</v>
-      </c>
-      <c r="U94">
-        <v>1.975</v>
-      </c>
-      <c r="V94">
-        <v>1.825</v>
-      </c>
-      <c r="W94">
-        <v>-1</v>
-      </c>
-      <c r="X94">
-        <v>2.3</v>
-      </c>
       <c r="Y94">
         <v>-1</v>
       </c>
       <c r="Z94">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA94">
-        <v>-0</v>
+        <v>0.425</v>
       </c>
       <c r="AB94">
         <v>-1</v>
       </c>
       <c r="AC94">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="95" spans="1:29">
@@ -9025,7 +9025,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>7618668</v>
+        <v>7618670</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -9037,76 +9037,76 @@
         <v>45283.5</v>
       </c>
       <c r="F95" t="s">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="G95" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J95" t="s">
         <v>90</v>
       </c>
       <c r="K95">
-        <v>2.1</v>
+        <v>2.75</v>
       </c>
       <c r="L95">
         <v>3.4</v>
       </c>
       <c r="M95">
-        <v>2.9</v>
+        <v>2.2</v>
       </c>
       <c r="N95">
-        <v>2.15</v>
+        <v>2.45</v>
       </c>
       <c r="O95">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P95">
-        <v>2.9</v>
+        <v>2.5</v>
       </c>
       <c r="Q95">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R95">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S95">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T95">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U95">
+        <v>1.975</v>
+      </c>
+      <c r="V95">
         <v>1.825</v>
       </c>
-      <c r="V95">
-        <v>1.975</v>
-      </c>
       <c r="W95">
         <v>-1</v>
       </c>
       <c r="X95">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="Y95">
         <v>-1</v>
       </c>
       <c r="Z95">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA95">
-        <v>0.425</v>
+        <v>-0</v>
       </c>
       <c r="AB95">
         <v>-1</v>
       </c>
       <c r="AC95">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -9126,7 +9126,7 @@
         <v>45286.41666666666</v>
       </c>
       <c r="F96" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G96" t="s">
         <v>32</v>
@@ -9215,10 +9215,10 @@
         <v>45286.41666666666</v>
       </c>
       <c r="F97" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G97" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H97">
         <v>1</v>
@@ -9307,7 +9307,7 @@
         <v>43</v>
       </c>
       <c r="G98" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H98">
         <v>1</v>
@@ -9396,7 +9396,7 @@
         <v>69</v>
       </c>
       <c r="G99" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H99">
         <v>1</v>
@@ -9485,7 +9485,7 @@
         <v>70</v>
       </c>
       <c r="G100" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H100">
         <v>2</v>
@@ -9559,7 +9559,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>7640085</v>
+        <v>7639915</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9574,46 +9574,46 @@
         <v>73</v>
       </c>
       <c r="G101" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="H101">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I101">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J101" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K101">
-        <v>2.25</v>
+        <v>1.3</v>
       </c>
       <c r="L101">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M101">
-        <v>2.4</v>
+        <v>7</v>
       </c>
       <c r="N101">
-        <v>2.15</v>
+        <v>1.4</v>
       </c>
       <c r="O101">
-        <v>3.8</v>
+        <v>4.75</v>
       </c>
       <c r="P101">
-        <v>2.55</v>
+        <v>5.5</v>
       </c>
       <c r="Q101">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R101">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S101">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T101">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U101">
         <v>1.95</v>
@@ -9622,25 +9622,25 @@
         <v>1.85</v>
       </c>
       <c r="W101">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X101">
         <v>-1</v>
       </c>
       <c r="Y101">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="Z101">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA101">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB101">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AC101">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9648,7 +9648,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>7639918</v>
+        <v>7640085</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9660,49 +9660,49 @@
         <v>45290.5</v>
       </c>
       <c r="F102" t="s">
-        <v>32</v>
+        <v>74</v>
       </c>
       <c r="G102" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I102">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J102" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K102">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="L102">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M102">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="N102">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="O102">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P102">
-        <v>3</v>
+        <v>2.55</v>
       </c>
       <c r="Q102">
         <v>-0.25</v>
       </c>
       <c r="R102">
+        <v>2</v>
+      </c>
+      <c r="S102">
         <v>1.8</v>
       </c>
-      <c r="S102">
-        <v>2</v>
-      </c>
       <c r="T102">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U102">
         <v>1.95</v>
@@ -9711,25 +9711,25 @@
         <v>1.85</v>
       </c>
       <c r="W102">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X102">
         <v>-1</v>
       </c>
       <c r="Y102">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="Z102">
+        <v>-1</v>
+      </c>
+      <c r="AA102">
         <v>0.8</v>
       </c>
-      <c r="AA102">
-        <v>-1</v>
-      </c>
       <c r="AB102">
-        <v>0.475</v>
+        <v>0</v>
       </c>
       <c r="AC102">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -9737,7 +9737,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>7639915</v>
+        <v>7639918</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9749,49 +9749,49 @@
         <v>45290.5</v>
       </c>
       <c r="F103" t="s">
-        <v>74</v>
+        <v>32</v>
       </c>
       <c r="G103" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="H103">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J103" t="s">
         <v>89</v>
       </c>
       <c r="K103">
-        <v>1.3</v>
+        <v>2.5</v>
       </c>
       <c r="L103">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="M103">
-        <v>7</v>
+        <v>2.35</v>
       </c>
       <c r="N103">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="O103">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="P103">
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="Q103">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R103">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S103">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T103">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U103">
         <v>1.95</v>
@@ -9800,7 +9800,7 @@
         <v>1.85</v>
       </c>
       <c r="W103">
-        <v>0.3999999999999999</v>
+        <v>1</v>
       </c>
       <c r="X103">
         <v>-1</v>
@@ -9809,16 +9809,16 @@
         <v>-1</v>
       </c>
       <c r="Z103">
-        <v>0.7749999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AA103">
         <v>-1</v>
       </c>
       <c r="AB103">
-        <v>0.95</v>
+        <v>0.475</v>
       </c>
       <c r="AC103">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9838,10 +9838,10 @@
         <v>45292.375</v>
       </c>
       <c r="F104" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G104" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H104">
         <v>3</v>
@@ -9915,7 +9915,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>7649124</v>
+        <v>7649184</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9927,58 +9927,58 @@
         <v>45292.5</v>
       </c>
       <c r="F105" t="s">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="G105" t="s">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="H105">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I105">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J105" t="s">
         <v>89</v>
       </c>
       <c r="K105">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="L105">
         <v>3.75</v>
       </c>
       <c r="M105">
-        <v>2.25</v>
+        <v>3.4</v>
       </c>
       <c r="N105">
-        <v>2.55</v>
+        <v>1.7</v>
       </c>
       <c r="O105">
+        <v>3.8</v>
+      </c>
+      <c r="P105">
         <v>3.75</v>
       </c>
-      <c r="P105">
-        <v>2.25</v>
-      </c>
       <c r="Q105">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R105">
-        <v>1.725</v>
+        <v>1.95</v>
       </c>
       <c r="S105">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T105">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U105">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="V105">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W105">
-        <v>1.55</v>
+        <v>0.7</v>
       </c>
       <c r="X105">
         <v>-1</v>
@@ -9987,16 +9987,16 @@
         <v>-1</v>
       </c>
       <c r="Z105">
-        <v>0.7250000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AA105">
         <v>-1</v>
       </c>
       <c r="AB105">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC105">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -10004,7 +10004,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>7649195</v>
+        <v>7649124</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -10016,76 +10016,76 @@
         <v>45292.5</v>
       </c>
       <c r="F106" t="s">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="G106" t="s">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I106">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J106" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K106">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="L106">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M106">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="N106">
-        <v>2.4</v>
+        <v>2.55</v>
       </c>
       <c r="O106">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P106">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="Q106">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R106">
-        <v>1.9</v>
+        <v>1.725</v>
       </c>
       <c r="S106">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T106">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U106">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V106">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W106">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X106">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y106">
         <v>-1</v>
       </c>
       <c r="Z106">
-        <v>0</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA106">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB106">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC106">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="107" spans="1:29">
@@ -10093,7 +10093,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>7649295</v>
+        <v>7649195</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -10105,76 +10105,76 @@
         <v>45292.5</v>
       </c>
       <c r="F107" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="G107" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="H107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I107">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J107" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K107">
-        <v>1.909</v>
+        <v>2.4</v>
       </c>
       <c r="L107">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M107">
-        <v>3.2</v>
+        <v>2.4</v>
       </c>
       <c r="N107">
-        <v>1.909</v>
+        <v>2.4</v>
       </c>
       <c r="O107">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P107">
-        <v>3.2</v>
+        <v>2.4</v>
       </c>
       <c r="Q107">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R107">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S107">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T107">
         <v>2.75</v>
       </c>
       <c r="U107">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V107">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W107">
         <v>-1</v>
       </c>
       <c r="X107">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y107">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z107">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA107">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
       <c r="AB107">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AC107">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="108" spans="1:29">
@@ -10182,7 +10182,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>7649294</v>
+        <v>7649295</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10194,76 +10194,76 @@
         <v>45292.5</v>
       </c>
       <c r="F108" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="G108" t="s">
-        <v>36</v>
+        <v>87</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I108">
         <v>2</v>
       </c>
       <c r="J108" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K108">
-        <v>2.25</v>
+        <v>1.909</v>
       </c>
       <c r="L108">
         <v>3.6</v>
       </c>
       <c r="M108">
-        <v>2.55</v>
+        <v>3.2</v>
       </c>
       <c r="N108">
-        <v>1.65</v>
+        <v>1.909</v>
       </c>
       <c r="O108">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P108">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="Q108">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R108">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S108">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T108">
         <v>2.75</v>
       </c>
       <c r="U108">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="V108">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W108">
         <v>-1</v>
       </c>
       <c r="X108">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y108">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z108">
         <v>-1</v>
       </c>
       <c r="AA108">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AB108">
-        <v>0.7749999999999999</v>
+        <v>0.4125</v>
       </c>
       <c r="AC108">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10271,7 +10271,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>7649184</v>
+        <v>7649294</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10283,76 +10283,76 @@
         <v>45292.5</v>
       </c>
       <c r="F109" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="G109" t="s">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="H109">
         <v>2</v>
       </c>
       <c r="I109">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J109" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K109">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="L109">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M109">
-        <v>3.4</v>
+        <v>2.55</v>
       </c>
       <c r="N109">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="O109">
+        <v>4</v>
+      </c>
+      <c r="P109">
         <v>3.8</v>
-      </c>
-      <c r="P109">
-        <v>3.75</v>
       </c>
       <c r="Q109">
         <v>-0.75</v>
       </c>
       <c r="R109">
+        <v>1.85</v>
+      </c>
+      <c r="S109">
         <v>1.95</v>
-      </c>
-      <c r="S109">
-        <v>1.85</v>
       </c>
       <c r="T109">
         <v>2.75</v>
       </c>
       <c r="U109">
-        <v>1.75</v>
+        <v>1.775</v>
       </c>
       <c r="V109">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W109">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X109">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y109">
         <v>-1</v>
       </c>
       <c r="Z109">
+        <v>-1</v>
+      </c>
+      <c r="AA109">
         <v>0.95</v>
       </c>
-      <c r="AA109">
-        <v>-1</v>
-      </c>
       <c r="AB109">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC109">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="110" spans="1:29">
@@ -10360,7 +10360,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>7667993</v>
+        <v>7661416</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10372,76 +10372,76 @@
         <v>45297.5</v>
       </c>
       <c r="F110" t="s">
-        <v>77</v>
+        <v>41</v>
       </c>
       <c r="G110" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="H110">
         <v>0</v>
       </c>
       <c r="I110">
+        <v>3</v>
+      </c>
+      <c r="J110" t="s">
+        <v>91</v>
+      </c>
+      <c r="K110">
+        <v>2.4</v>
+      </c>
+      <c r="L110">
+        <v>3.8</v>
+      </c>
+      <c r="M110">
+        <v>2.3</v>
+      </c>
+      <c r="N110">
+        <v>2.15</v>
+      </c>
+      <c r="O110">
+        <v>3.8</v>
+      </c>
+      <c r="P110">
+        <v>2.55</v>
+      </c>
+      <c r="Q110">
+        <v>-0.25</v>
+      </c>
+      <c r="R110">
+        <v>2</v>
+      </c>
+      <c r="S110">
+        <v>1.8</v>
+      </c>
+      <c r="T110">
+        <v>3</v>
+      </c>
+      <c r="U110">
+        <v>1.85</v>
+      </c>
+      <c r="V110">
+        <v>1.95</v>
+      </c>
+      <c r="W110">
+        <v>-1</v>
+      </c>
+      <c r="X110">
+        <v>-1</v>
+      </c>
+      <c r="Y110">
+        <v>1.55</v>
+      </c>
+      <c r="Z110">
+        <v>-1</v>
+      </c>
+      <c r="AA110">
+        <v>0.8</v>
+      </c>
+      <c r="AB110">
         <v>0</v>
       </c>
-      <c r="J110" t="s">
-        <v>90</v>
-      </c>
-      <c r="K110">
-        <v>1.666</v>
-      </c>
-      <c r="L110">
-        <v>4</v>
-      </c>
-      <c r="M110">
-        <v>3.75</v>
-      </c>
-      <c r="N110">
-        <v>1.833</v>
-      </c>
-      <c r="O110">
-        <v>3.75</v>
-      </c>
-      <c r="P110">
-        <v>3.3</v>
-      </c>
-      <c r="Q110">
-        <v>-0.5</v>
-      </c>
-      <c r="R110">
-        <v>1.875</v>
-      </c>
-      <c r="S110">
-        <v>1.925</v>
-      </c>
-      <c r="T110">
-        <v>2.75</v>
-      </c>
-      <c r="U110">
-        <v>1.9</v>
-      </c>
-      <c r="V110">
-        <v>1.9</v>
-      </c>
-      <c r="W110">
-        <v>-1</v>
-      </c>
-      <c r="X110">
-        <v>2.75</v>
-      </c>
-      <c r="Y110">
-        <v>-1</v>
-      </c>
-      <c r="Z110">
-        <v>-1</v>
-      </c>
-      <c r="AA110">
-        <v>0.925</v>
-      </c>
-      <c r="AB110">
-        <v>-1</v>
-      </c>
       <c r="AC110">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="111" spans="1:29">
@@ -10449,7 +10449,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>7661416</v>
+        <v>7667993</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -10461,76 +10461,76 @@
         <v>45297.5</v>
       </c>
       <c r="F111" t="s">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="G111" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="H111">
         <v>0</v>
       </c>
       <c r="I111">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J111" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K111">
-        <v>2.4</v>
+        <v>1.666</v>
       </c>
       <c r="L111">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="M111">
-        <v>2.3</v>
+        <v>3.75</v>
       </c>
       <c r="N111">
-        <v>2.15</v>
+        <v>1.833</v>
       </c>
       <c r="O111">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P111">
-        <v>2.55</v>
+        <v>3.3</v>
       </c>
       <c r="Q111">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R111">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S111">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T111">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U111">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V111">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W111">
         <v>-1</v>
       </c>
       <c r="X111">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y111">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="Z111">
         <v>-1</v>
       </c>
       <c r="AA111">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AB111">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC111">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="112" spans="1:29">
@@ -10627,7 +10627,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>7674983</v>
+        <v>7674972</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10639,13 +10639,13 @@
         <v>45300.69791666666</v>
       </c>
       <c r="F113" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G113" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I113">
         <v>2</v>
@@ -10654,25 +10654,25 @@
         <v>91</v>
       </c>
       <c r="K113">
-        <v>1.5</v>
+        <v>2.375</v>
       </c>
       <c r="L113">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M113">
-        <v>5</v>
+        <v>2.375</v>
       </c>
       <c r="N113">
-        <v>1.6</v>
+        <v>2.2</v>
       </c>
       <c r="O113">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P113">
-        <v>4.333</v>
+        <v>2.55</v>
       </c>
       <c r="Q113">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R113">
         <v>2</v>
@@ -10696,7 +10696,7 @@
         <v>-1</v>
       </c>
       <c r="Y113">
-        <v>3.333</v>
+        <v>1.55</v>
       </c>
       <c r="Z113">
         <v>-1</v>
@@ -10705,10 +10705,10 @@
         <v>0.8</v>
       </c>
       <c r="AB113">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC113">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="114" spans="1:29">
@@ -10716,7 +10716,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>7675037</v>
+        <v>7674710</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10728,10 +10728,10 @@
         <v>45300.69791666666</v>
       </c>
       <c r="F114" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="G114" t="s">
-        <v>84</v>
+        <v>47</v>
       </c>
       <c r="H114">
         <v>1</v>
@@ -10743,43 +10743,43 @@
         <v>89</v>
       </c>
       <c r="K114">
-        <v>2.25</v>
+        <v>1.2</v>
       </c>
       <c r="L114">
-        <v>3.5</v>
+        <v>6.5</v>
       </c>
       <c r="M114">
-        <v>2.6</v>
+        <v>8</v>
       </c>
       <c r="N114">
-        <v>2.375</v>
+        <v>1.181</v>
       </c>
       <c r="O114">
-        <v>3.5</v>
+        <v>6.5</v>
       </c>
       <c r="P114">
-        <v>2.45</v>
+        <v>10</v>
       </c>
       <c r="Q114">
-        <v>0</v>
+        <v>-2.25</v>
       </c>
       <c r="R114">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S114">
+        <v>1.85</v>
+      </c>
+      <c r="T114">
+        <v>3.75</v>
+      </c>
+      <c r="U114">
         <v>1.925</v>
       </c>
-      <c r="T114">
-        <v>2.75</v>
-      </c>
-      <c r="U114">
-        <v>1.75</v>
-      </c>
       <c r="V114">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="W114">
-        <v>1.375</v>
+        <v>0.181</v>
       </c>
       <c r="X114">
         <v>-1</v>
@@ -10788,16 +10788,16 @@
         <v>-1</v>
       </c>
       <c r="Z114">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA114">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB114">
         <v>-1</v>
       </c>
       <c r="AC114">
-        <v>0.95</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="115" spans="1:29">
@@ -10805,7 +10805,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>7674710</v>
+        <v>7674973</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10817,76 +10817,76 @@
         <v>45300.69791666666</v>
       </c>
       <c r="F115" t="s">
-        <v>78</v>
+        <v>40</v>
       </c>
       <c r="G115" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="H115">
+        <v>0</v>
+      </c>
+      <c r="I115">
         <v>1</v>
       </c>
-      <c r="I115">
-        <v>0</v>
-      </c>
       <c r="J115" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K115">
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
       <c r="L115">
-        <v>6.5</v>
+        <v>3.75</v>
       </c>
       <c r="M115">
-        <v>8</v>
+        <v>3.4</v>
       </c>
       <c r="N115">
-        <v>1.181</v>
+        <v>1.8</v>
       </c>
       <c r="O115">
-        <v>6.5</v>
+        <v>3.75</v>
       </c>
       <c r="P115">
-        <v>10</v>
+        <v>3.4</v>
       </c>
       <c r="Q115">
-        <v>-2.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R115">
+        <v>1.85</v>
+      </c>
+      <c r="S115">
         <v>1.95</v>
       </c>
-      <c r="S115">
-        <v>1.85</v>
-      </c>
       <c r="T115">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="U115">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V115">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="W115">
-        <v>0.181</v>
+        <v>-1</v>
       </c>
       <c r="X115">
         <v>-1</v>
       </c>
       <c r="Y115">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z115">
         <v>-1</v>
       </c>
       <c r="AA115">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AB115">
         <v>-1</v>
       </c>
       <c r="AC115">
-        <v>0.7749999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="116" spans="1:29">
@@ -10894,7 +10894,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>7674972</v>
+        <v>7674983</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10906,13 +10906,13 @@
         <v>45300.69791666666</v>
       </c>
       <c r="F116" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="G116" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="H116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I116">
         <v>2</v>
@@ -10921,25 +10921,25 @@
         <v>91</v>
       </c>
       <c r="K116">
-        <v>2.375</v>
+        <v>1.5</v>
       </c>
       <c r="L116">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M116">
-        <v>2.375</v>
+        <v>5</v>
       </c>
       <c r="N116">
-        <v>2.2</v>
+        <v>1.6</v>
       </c>
       <c r="O116">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P116">
-        <v>2.55</v>
+        <v>4.333</v>
       </c>
       <c r="Q116">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R116">
         <v>2</v>
@@ -10963,7 +10963,7 @@
         <v>-1</v>
       </c>
       <c r="Y116">
-        <v>1.55</v>
+        <v>3.333</v>
       </c>
       <c r="Z116">
         <v>-1</v>
@@ -10972,10 +10972,10 @@
         <v>0.8</v>
       </c>
       <c r="AB116">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC116">
-        <v>-0</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="117" spans="1:29">
@@ -10983,7 +10983,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>7674973</v>
+        <v>7675037</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10995,76 +10995,76 @@
         <v>45300.69791666666</v>
       </c>
       <c r="F117" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="G117" t="s">
-        <v>51</v>
+        <v>85</v>
       </c>
       <c r="H117">
+        <v>1</v>
+      </c>
+      <c r="I117">
         <v>0</v>
       </c>
-      <c r="I117">
-        <v>1</v>
-      </c>
       <c r="J117" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K117">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="L117">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M117">
-        <v>3.4</v>
+        <v>2.6</v>
       </c>
       <c r="N117">
-        <v>1.8</v>
+        <v>2.375</v>
       </c>
       <c r="O117">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P117">
-        <v>3.4</v>
+        <v>2.45</v>
       </c>
       <c r="Q117">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R117">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S117">
+        <v>1.925</v>
+      </c>
+      <c r="T117">
+        <v>2.75</v>
+      </c>
+      <c r="U117">
+        <v>1.75</v>
+      </c>
+      <c r="V117">
         <v>1.95</v>
       </c>
-      <c r="T117">
-        <v>3</v>
-      </c>
-      <c r="U117">
-        <v>1.825</v>
-      </c>
-      <c r="V117">
-        <v>1.975</v>
-      </c>
       <c r="W117">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X117">
         <v>-1</v>
       </c>
       <c r="Y117">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z117">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA117">
+        <v>-1</v>
+      </c>
+      <c r="AB117">
+        <v>-1</v>
+      </c>
+      <c r="AC117">
         <v>0.95</v>
-      </c>
-      <c r="AB117">
-        <v>-1</v>
-      </c>
-      <c r="AC117">
-        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="118" spans="1:29">
@@ -11084,7 +11084,7 @@
         <v>45301.69791666666</v>
       </c>
       <c r="F118" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G118" t="s">
         <v>62</v>
@@ -11250,7 +11250,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>7691322</v>
+        <v>7691319</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11262,76 +11262,76 @@
         <v>45304.5</v>
       </c>
       <c r="F120" t="s">
-        <v>33</v>
+        <v>70</v>
       </c>
       <c r="G120" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="H120">
         <v>2</v>
       </c>
       <c r="I120">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J120" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K120">
-        <v>1.75</v>
+        <v>4.75</v>
       </c>
       <c r="L120">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="M120">
-        <v>3.75</v>
+        <v>1.5</v>
       </c>
       <c r="N120">
-        <v>1.75</v>
+        <v>5.25</v>
       </c>
       <c r="O120">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="P120">
-        <v>3.75</v>
+        <v>1.363</v>
       </c>
       <c r="Q120">
-        <v>-0.5</v>
+        <v>1.5</v>
       </c>
       <c r="R120">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S120">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T120">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U120">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V120">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W120">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X120">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Y120">
         <v>-1</v>
       </c>
       <c r="Z120">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA120">
         <v>-1</v>
       </c>
       <c r="AB120">
-        <v>0.4</v>
+        <v>0.95</v>
       </c>
       <c r="AC120">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="121" spans="1:29">
@@ -11351,7 +11351,7 @@
         <v>45304.5</v>
       </c>
       <c r="F121" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G121" t="s">
         <v>40</v>
@@ -11428,7 +11428,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>7691319</v>
+        <v>7691322</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11440,76 +11440,76 @@
         <v>45304.5</v>
       </c>
       <c r="F122" t="s">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="G122" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="H122">
         <v>2</v>
       </c>
       <c r="I122">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J122" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K122">
-        <v>4.75</v>
+        <v>1.75</v>
       </c>
       <c r="L122">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="M122">
-        <v>1.5</v>
+        <v>3.75</v>
       </c>
       <c r="N122">
-        <v>5.25</v>
+        <v>1.75</v>
       </c>
       <c r="O122">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="P122">
-        <v>1.363</v>
+        <v>3.75</v>
       </c>
       <c r="Q122">
-        <v>1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R122">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S122">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T122">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U122">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V122">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W122">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X122">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Y122">
         <v>-1</v>
       </c>
       <c r="Z122">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AA122">
         <v>-1</v>
       </c>
       <c r="AB122">
-        <v>0.95</v>
+        <v>0.4</v>
       </c>
       <c r="AC122">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="123" spans="1:29">
@@ -11529,7 +11529,7 @@
         <v>45307.69791666666</v>
       </c>
       <c r="F123" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G123" t="s">
         <v>88</v>
@@ -11606,7 +11606,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>7719544</v>
+        <v>7725153</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11618,76 +11618,76 @@
         <v>45311.5</v>
       </c>
       <c r="F124" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="G124" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H124">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I124">
         <v>0</v>
       </c>
       <c r="J124" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K124">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="L124">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M124">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="N124">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="O124">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P124">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="Q124">
         <v>-0.25</v>
       </c>
       <c r="R124">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="S124">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="T124">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U124">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="V124">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W124">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X124">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y124">
         <v>-1</v>
       </c>
       <c r="Z124">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AA124">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
       <c r="AB124">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC124">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11695,7 +11695,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>7725153</v>
+        <v>7719604</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11707,37 +11707,37 @@
         <v>45311.5</v>
       </c>
       <c r="F125" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="G125" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I125">
         <v>0</v>
       </c>
       <c r="J125" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K125">
         <v>2.25</v>
       </c>
       <c r="L125">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M125">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="N125">
         <v>2.25</v>
       </c>
       <c r="O125">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P125">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="Q125">
         <v>-0.25</v>
@@ -11752,31 +11752,31 @@
         <v>3</v>
       </c>
       <c r="U125">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="V125">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W125">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X125">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y125">
         <v>-1</v>
       </c>
       <c r="Z125">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
       <c r="AA125">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
       <c r="AB125">
         <v>-1</v>
       </c>
       <c r="AC125">
-        <v>1.025</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -11784,7 +11784,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>7719604</v>
+        <v>7719544</v>
       </c>
       <c r="C126" t="s">
         <v>28</v>
@@ -11796,13 +11796,13 @@
         <v>45311.5</v>
       </c>
       <c r="F126" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="G126" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="H126">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I126">
         <v>0</v>
@@ -11811,43 +11811,43 @@
         <v>89</v>
       </c>
       <c r="K126">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="L126">
         <v>4</v>
       </c>
       <c r="M126">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="N126">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="O126">
         <v>4</v>
       </c>
       <c r="P126">
-        <v>2.45</v>
+        <v>2.7</v>
       </c>
       <c r="Q126">
         <v>-0.25</v>
       </c>
       <c r="R126">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="S126">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="T126">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U126">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V126">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W126">
-        <v>1.25</v>
+        <v>1.05</v>
       </c>
       <c r="X126">
         <v>-1</v>
@@ -11856,16 +11856,16 @@
         <v>-1</v>
       </c>
       <c r="Z126">
-        <v>1.05</v>
+        <v>0.875</v>
       </c>
       <c r="AA126">
         <v>-1</v>
       </c>
       <c r="AB126">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC126">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="127" spans="1:29">
@@ -11885,10 +11885,10 @@
         <v>45311.5</v>
       </c>
       <c r="F127" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G127" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H127">
         <v>0</v>
@@ -11962,7 +11962,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>7732016</v>
+        <v>7732017</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11974,49 +11974,49 @@
         <v>45314.69791666666</v>
       </c>
       <c r="F128" t="s">
-        <v>31</v>
+        <v>79</v>
       </c>
       <c r="G128" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J128" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K128">
-        <v>2.15</v>
+        <v>1.666</v>
       </c>
       <c r="L128">
+        <v>4</v>
+      </c>
+      <c r="M128">
         <v>3.75</v>
       </c>
-      <c r="M128">
-        <v>2.6</v>
-      </c>
       <c r="N128">
-        <v>2.1</v>
+        <v>1.65</v>
       </c>
       <c r="O128">
         <v>3.75</v>
       </c>
       <c r="P128">
-        <v>2.625</v>
+        <v>4.2</v>
       </c>
       <c r="Q128">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R128">
+        <v>1.85</v>
+      </c>
+      <c r="S128">
         <v>1.95</v>
       </c>
-      <c r="S128">
-        <v>1.85</v>
-      </c>
       <c r="T128">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U128">
         <v>1.75</v>
@@ -12025,25 +12025,25 @@
         <v>1.95</v>
       </c>
       <c r="W128">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X128">
         <v>-1</v>
       </c>
       <c r="Y128">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z128">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AA128">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB128">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
       <c r="AC128">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="129" spans="1:29">
@@ -12051,7 +12051,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>7732017</v>
+        <v>7732016</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -12063,49 +12063,49 @@
         <v>45314.69791666666</v>
       </c>
       <c r="F129" t="s">
-        <v>79</v>
+        <v>31</v>
       </c>
       <c r="G129" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J129" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K129">
-        <v>1.666</v>
+        <v>2.15</v>
       </c>
       <c r="L129">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M129">
-        <v>3.75</v>
+        <v>2.6</v>
       </c>
       <c r="N129">
-        <v>1.65</v>
+        <v>2.1</v>
       </c>
       <c r="O129">
         <v>3.75</v>
       </c>
       <c r="P129">
-        <v>4.2</v>
+        <v>2.625</v>
       </c>
       <c r="Q129">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R129">
+        <v>1.95</v>
+      </c>
+      <c r="S129">
         <v>1.85</v>
       </c>
-      <c r="S129">
-        <v>1.95</v>
-      </c>
       <c r="T129">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U129">
         <v>1.75</v>
@@ -12114,25 +12114,25 @@
         <v>1.95</v>
       </c>
       <c r="W129">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X129">
         <v>-1</v>
       </c>
       <c r="Y129">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z129">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AA129">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB129">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
       <c r="AC129">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="130" spans="1:29">
@@ -12152,10 +12152,10 @@
         <v>45315.69791666666</v>
       </c>
       <c r="F130" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G130" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="H130">
         <v>1</v>
@@ -12318,7 +12318,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>7761786</v>
+        <v>7761811</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12330,76 +12330,76 @@
         <v>45321.69791666666</v>
       </c>
       <c r="F132" t="s">
-        <v>37</v>
+        <v>64</v>
       </c>
       <c r="G132" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H132">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I132">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J132" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K132">
-        <v>2.875</v>
+        <v>2.375</v>
       </c>
       <c r="L132">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M132">
-        <v>2</v>
+        <v>2.375</v>
       </c>
       <c r="N132">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="O132">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P132">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="Q132">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R132">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="S132">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T132">
         <v>2.75</v>
       </c>
       <c r="U132">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V132">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W132">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="X132">
         <v>-1</v>
       </c>
       <c r="Y132">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z132">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA132">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB132">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC132">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="133" spans="1:29">
@@ -12422,7 +12422,7 @@
         <v>69</v>
       </c>
       <c r="G133" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H133">
         <v>1</v>
@@ -12585,7 +12585,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>7761811</v>
+        <v>7761786</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12597,76 +12597,76 @@
         <v>45321.69791666666</v>
       </c>
       <c r="F135" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="G135" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I135">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J135" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K135">
-        <v>2.375</v>
+        <v>2.875</v>
       </c>
       <c r="L135">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M135">
-        <v>2.375</v>
+        <v>2</v>
       </c>
       <c r="N135">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="O135">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P135">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="Q135">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R135">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="S135">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T135">
         <v>2.75</v>
       </c>
       <c r="U135">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V135">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W135">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="X135">
         <v>-1</v>
       </c>
       <c r="Y135">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z135">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA135">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB135">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC135">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="136" spans="1:29">
@@ -12689,7 +12689,7 @@
         <v>80</v>
       </c>
       <c r="G136" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H136">
         <v>3</v>
@@ -12778,7 +12778,7 @@
         <v>29</v>
       </c>
       <c r="G137" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H137">
         <v>1</v>
@@ -12867,7 +12867,7 @@
         <v>56</v>
       </c>
       <c r="G138" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H138">
         <v>1</v>
@@ -13042,7 +13042,7 @@
         <v>45328.69791666666</v>
       </c>
       <c r="F140" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G140" t="s">
         <v>80</v>
@@ -13131,7 +13131,7 @@
         <v>45329.69791666666</v>
       </c>
       <c r="F141" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G141" t="s">
         <v>40</v>
@@ -13220,10 +13220,10 @@
         <v>45332.5</v>
       </c>
       <c r="F142" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G142" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H142">
         <v>1</v>
@@ -13386,7 +13386,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>7844462</v>
+        <v>7844461</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13398,76 +13398,76 @@
         <v>45339.5</v>
       </c>
       <c r="F144" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="G144" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I144">
         <v>1</v>
       </c>
       <c r="J144" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K144">
-        <v>2.4</v>
+        <v>1.6</v>
       </c>
       <c r="L144">
         <v>4</v>
       </c>
       <c r="M144">
-        <v>2.25</v>
+        <v>4.2</v>
       </c>
       <c r="N144">
-        <v>2.875</v>
+        <v>1.75</v>
       </c>
       <c r="O144">
         <v>4</v>
       </c>
       <c r="P144">
+        <v>3.4</v>
+      </c>
+      <c r="Q144">
+        <v>-0.5</v>
+      </c>
+      <c r="R144">
+        <v>1.8</v>
+      </c>
+      <c r="S144">
+        <v>2</v>
+      </c>
+      <c r="T144">
+        <v>2.75</v>
+      </c>
+      <c r="U144">
+        <v>1.85</v>
+      </c>
+      <c r="V144">
         <v>1.95</v>
       </c>
-      <c r="Q144">
-        <v>0.5</v>
-      </c>
-      <c r="R144">
-        <v>1.75</v>
-      </c>
-      <c r="S144">
-        <v>1.95</v>
-      </c>
-      <c r="T144">
+      <c r="W144">
+        <v>-1</v>
+      </c>
+      <c r="X144">
         <v>3</v>
       </c>
-      <c r="U144">
-        <v>1.95</v>
-      </c>
-      <c r="V144">
-        <v>1.85</v>
-      </c>
-      <c r="W144">
-        <v>-1</v>
-      </c>
-      <c r="X144">
-        <v>-1</v>
-      </c>
       <c r="Y144">
+        <v>-1</v>
+      </c>
+      <c r="Z144">
+        <v>-1</v>
+      </c>
+      <c r="AA144">
+        <v>1</v>
+      </c>
+      <c r="AB144">
+        <v>-1</v>
+      </c>
+      <c r="AC144">
         <v>0.95</v>
-      </c>
-      <c r="Z144">
-        <v>-1</v>
-      </c>
-      <c r="AA144">
-        <v>0.95</v>
-      </c>
-      <c r="AB144">
-        <v>-1</v>
-      </c>
-      <c r="AC144">
-        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="145" spans="1:29">
@@ -13475,7 +13475,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>7844461</v>
+        <v>7844460</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13487,76 +13487,76 @@
         <v>45339.5</v>
       </c>
       <c r="F145" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="G145" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="H145">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I145">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J145" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K145">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="L145">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="M145">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="N145">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="O145">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P145">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="Q145">
         <v>-0.5</v>
       </c>
       <c r="R145">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S145">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T145">
         <v>2.75</v>
       </c>
       <c r="U145">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V145">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W145">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X145">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y145">
         <v>-1</v>
       </c>
       <c r="Z145">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA145">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB145">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC145">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="146" spans="1:29">
@@ -13579,7 +13579,7 @@
         <v>32</v>
       </c>
       <c r="G146" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H146">
         <v>2</v>
@@ -13665,10 +13665,10 @@
         <v>45339.5</v>
       </c>
       <c r="F147" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G147" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H147">
         <v>0</v>
@@ -13754,10 +13754,10 @@
         <v>45339.5</v>
       </c>
       <c r="F148" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="G148" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H148">
         <v>3</v>
@@ -13831,7 +13831,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>7844460</v>
+        <v>7844462</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -13843,76 +13843,76 @@
         <v>45339.5</v>
       </c>
       <c r="F149" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G149" t="s">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="H149">
+        <v>0</v>
+      </c>
+      <c r="I149">
+        <v>1</v>
+      </c>
+      <c r="J149" t="s">
+        <v>91</v>
+      </c>
+      <c r="K149">
+        <v>2.4</v>
+      </c>
+      <c r="L149">
         <v>4</v>
       </c>
-      <c r="I149">
-        <v>2</v>
-      </c>
-      <c r="J149" t="s">
-        <v>89</v>
-      </c>
-      <c r="K149">
-        <v>1.8</v>
-      </c>
-      <c r="L149">
-        <v>3.8</v>
-      </c>
       <c r="M149">
-        <v>3.4</v>
+        <v>2.25</v>
       </c>
       <c r="N149">
-        <v>1.8</v>
+        <v>2.875</v>
       </c>
       <c r="O149">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P149">
-        <v>3.3</v>
+        <v>1.95</v>
       </c>
       <c r="Q149">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R149">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="S149">
         <v>1.95</v>
       </c>
       <c r="T149">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U149">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V149">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W149">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X149">
         <v>-1</v>
       </c>
       <c r="Y149">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z149">
+        <v>-1</v>
+      </c>
+      <c r="AA149">
+        <v>0.95</v>
+      </c>
+      <c r="AB149">
+        <v>-1</v>
+      </c>
+      <c r="AC149">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AA149">
-        <v>-1</v>
-      </c>
-      <c r="AB149">
-        <v>0.8</v>
-      </c>
-      <c r="AC149">
-        <v>-1</v>
       </c>
     </row>
     <row r="150" spans="1:29">
@@ -13932,10 +13932,10 @@
         <v>45342.69791666666</v>
       </c>
       <c r="F150" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="G150" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="H150">
         <v>1</v>
@@ -14113,7 +14113,7 @@
         <v>31</v>
       </c>
       <c r="G152" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H152">
         <v>2</v>
@@ -14179,6 +14179,540 @@
         <v>0.8</v>
       </c>
       <c r="AC152">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:29">
+      <c r="A153" s="1">
+        <v>151</v>
+      </c>
+      <c r="B153">
+        <v>7915179</v>
+      </c>
+      <c r="C153" t="s">
+        <v>28</v>
+      </c>
+      <c r="D153" t="s">
+        <v>28</v>
+      </c>
+      <c r="E153" s="2">
+        <v>45356.69791666666</v>
+      </c>
+      <c r="F153" t="s">
+        <v>81</v>
+      </c>
+      <c r="G153" t="s">
+        <v>54</v>
+      </c>
+      <c r="H153">
+        <v>1</v>
+      </c>
+      <c r="I153">
+        <v>3</v>
+      </c>
+      <c r="J153" t="s">
+        <v>91</v>
+      </c>
+      <c r="K153">
+        <v>2.25</v>
+      </c>
+      <c r="L153">
+        <v>4.5</v>
+      </c>
+      <c r="M153">
+        <v>2.25</v>
+      </c>
+      <c r="N153">
+        <v>2.25</v>
+      </c>
+      <c r="O153">
+        <v>4.5</v>
+      </c>
+      <c r="P153">
+        <v>2.25</v>
+      </c>
+      <c r="Q153">
+        <v>0</v>
+      </c>
+      <c r="R153">
+        <v>1.9</v>
+      </c>
+      <c r="S153">
+        <v>1.9</v>
+      </c>
+      <c r="T153">
+        <v>3</v>
+      </c>
+      <c r="U153">
+        <v>1.825</v>
+      </c>
+      <c r="V153">
+        <v>1.975</v>
+      </c>
+      <c r="W153">
+        <v>-1</v>
+      </c>
+      <c r="X153">
+        <v>-1</v>
+      </c>
+      <c r="Y153">
+        <v>1.25</v>
+      </c>
+      <c r="Z153">
+        <v>-1</v>
+      </c>
+      <c r="AA153">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB153">
+        <v>0.825</v>
+      </c>
+      <c r="AC153">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:29">
+      <c r="A154" s="1">
+        <v>152</v>
+      </c>
+      <c r="B154">
+        <v>7915176</v>
+      </c>
+      <c r="C154" t="s">
+        <v>28</v>
+      </c>
+      <c r="D154" t="s">
+        <v>28</v>
+      </c>
+      <c r="E154" s="2">
+        <v>45356.69791666666</v>
+      </c>
+      <c r="F154" t="s">
+        <v>44</v>
+      </c>
+      <c r="G154" t="s">
+        <v>86</v>
+      </c>
+      <c r="H154">
+        <v>3</v>
+      </c>
+      <c r="I154">
+        <v>3</v>
+      </c>
+      <c r="J154" t="s">
+        <v>90</v>
+      </c>
+      <c r="K154">
+        <v>1.615</v>
+      </c>
+      <c r="L154">
+        <v>4.333</v>
+      </c>
+      <c r="M154">
+        <v>3.75</v>
+      </c>
+      <c r="N154">
+        <v>1.615</v>
+      </c>
+      <c r="O154">
+        <v>4.333</v>
+      </c>
+      <c r="P154">
+        <v>3.75</v>
+      </c>
+      <c r="Q154">
+        <v>-0.75</v>
+      </c>
+      <c r="R154">
+        <v>1.8</v>
+      </c>
+      <c r="S154">
+        <v>2</v>
+      </c>
+      <c r="T154">
+        <v>3.25</v>
+      </c>
+      <c r="U154">
+        <v>1.85</v>
+      </c>
+      <c r="V154">
+        <v>1.95</v>
+      </c>
+      <c r="W154">
+        <v>-1</v>
+      </c>
+      <c r="X154">
+        <v>3.333</v>
+      </c>
+      <c r="Y154">
+        <v>-1</v>
+      </c>
+      <c r="Z154">
+        <v>-1</v>
+      </c>
+      <c r="AA154">
+        <v>1</v>
+      </c>
+      <c r="AB154">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AC154">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:29">
+      <c r="A155" s="1">
+        <v>153</v>
+      </c>
+      <c r="B155">
+        <v>7915177</v>
+      </c>
+      <c r="C155" t="s">
+        <v>28</v>
+      </c>
+      <c r="D155" t="s">
+        <v>28</v>
+      </c>
+      <c r="E155" s="2">
+        <v>45356.69791666666</v>
+      </c>
+      <c r="F155" t="s">
+        <v>29</v>
+      </c>
+      <c r="G155" t="s">
+        <v>53</v>
+      </c>
+      <c r="H155">
+        <v>3</v>
+      </c>
+      <c r="I155">
+        <v>2</v>
+      </c>
+      <c r="J155" t="s">
+        <v>89</v>
+      </c>
+      <c r="K155">
+        <v>1.8</v>
+      </c>
+      <c r="L155">
+        <v>4.5</v>
+      </c>
+      <c r="M155">
+        <v>3</v>
+      </c>
+      <c r="N155">
+        <v>1.85</v>
+      </c>
+      <c r="O155">
+        <v>4.5</v>
+      </c>
+      <c r="P155">
+        <v>2.875</v>
+      </c>
+      <c r="Q155">
+        <v>-0.5</v>
+      </c>
+      <c r="R155">
+        <v>1.925</v>
+      </c>
+      <c r="S155">
+        <v>1.875</v>
+      </c>
+      <c r="T155">
+        <v>3</v>
+      </c>
+      <c r="U155">
+        <v>1.975</v>
+      </c>
+      <c r="V155">
+        <v>1.825</v>
+      </c>
+      <c r="W155">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="X155">
+        <v>-1</v>
+      </c>
+      <c r="Y155">
+        <v>-1</v>
+      </c>
+      <c r="Z155">
+        <v>0.925</v>
+      </c>
+      <c r="AA155">
+        <v>-1</v>
+      </c>
+      <c r="AB155">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AC155">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:29">
+      <c r="A156" s="1">
+        <v>154</v>
+      </c>
+      <c r="B156">
+        <v>7915178</v>
+      </c>
+      <c r="C156" t="s">
+        <v>28</v>
+      </c>
+      <c r="D156" t="s">
+        <v>28</v>
+      </c>
+      <c r="E156" s="2">
+        <v>45356.69791666666</v>
+      </c>
+      <c r="F156" t="s">
+        <v>80</v>
+      </c>
+      <c r="G156" t="s">
+        <v>85</v>
+      </c>
+      <c r="H156">
+        <v>0</v>
+      </c>
+      <c r="I156">
+        <v>0</v>
+      </c>
+      <c r="J156" t="s">
+        <v>90</v>
+      </c>
+      <c r="K156">
+        <v>2.6</v>
+      </c>
+      <c r="L156">
+        <v>4</v>
+      </c>
+      <c r="M156">
+        <v>2.1</v>
+      </c>
+      <c r="N156">
+        <v>2.5</v>
+      </c>
+      <c r="O156">
+        <v>4.2</v>
+      </c>
+      <c r="P156">
+        <v>2.1</v>
+      </c>
+      <c r="Q156">
+        <v>0.25</v>
+      </c>
+      <c r="R156">
+        <v>1.825</v>
+      </c>
+      <c r="S156">
+        <v>1.975</v>
+      </c>
+      <c r="T156">
+        <v>3</v>
+      </c>
+      <c r="U156">
+        <v>1.9</v>
+      </c>
+      <c r="V156">
+        <v>1.9</v>
+      </c>
+      <c r="W156">
+        <v>-1</v>
+      </c>
+      <c r="X156">
+        <v>3.2</v>
+      </c>
+      <c r="Y156">
+        <v>-1</v>
+      </c>
+      <c r="Z156">
+        <v>0.4125</v>
+      </c>
+      <c r="AA156">
+        <v>-0.5</v>
+      </c>
+      <c r="AB156">
+        <v>-1</v>
+      </c>
+      <c r="AC156">
+        <v>0.8999999999999999</v>
+      </c>
+    </row>
+    <row r="157" spans="1:29">
+      <c r="A157" s="1">
+        <v>155</v>
+      </c>
+      <c r="B157">
+        <v>7915228</v>
+      </c>
+      <c r="C157" t="s">
+        <v>28</v>
+      </c>
+      <c r="D157" t="s">
+        <v>28</v>
+      </c>
+      <c r="E157" s="2">
+        <v>45356.69791666666</v>
+      </c>
+      <c r="F157" t="s">
+        <v>50</v>
+      </c>
+      <c r="G157" t="s">
+        <v>31</v>
+      </c>
+      <c r="H157">
+        <v>2</v>
+      </c>
+      <c r="I157">
+        <v>2</v>
+      </c>
+      <c r="J157" t="s">
+        <v>90</v>
+      </c>
+      <c r="K157">
+        <v>3.75</v>
+      </c>
+      <c r="L157">
+        <v>4.75</v>
+      </c>
+      <c r="M157">
+        <v>1.571</v>
+      </c>
+      <c r="N157">
+        <v>3.4</v>
+      </c>
+      <c r="O157">
+        <v>4.5</v>
+      </c>
+      <c r="P157">
+        <v>1.666</v>
+      </c>
+      <c r="Q157">
+        <v>0.75</v>
+      </c>
+      <c r="R157">
+        <v>1.9</v>
+      </c>
+      <c r="S157">
+        <v>1.9</v>
+      </c>
+      <c r="T157">
+        <v>3</v>
+      </c>
+      <c r="U157">
+        <v>1.95</v>
+      </c>
+      <c r="V157">
+        <v>1.85</v>
+      </c>
+      <c r="W157">
+        <v>-1</v>
+      </c>
+      <c r="X157">
+        <v>3.5</v>
+      </c>
+      <c r="Y157">
+        <v>-1</v>
+      </c>
+      <c r="Z157">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AA157">
+        <v>-1</v>
+      </c>
+      <c r="AB157">
+        <v>0.95</v>
+      </c>
+      <c r="AC157">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:29">
+      <c r="A158" s="1">
+        <v>156</v>
+      </c>
+      <c r="B158">
+        <v>7915227</v>
+      </c>
+      <c r="C158" t="s">
+        <v>28</v>
+      </c>
+      <c r="D158" t="s">
+        <v>28</v>
+      </c>
+      <c r="E158" s="2">
+        <v>45356.69791666666</v>
+      </c>
+      <c r="F158" t="s">
+        <v>41</v>
+      </c>
+      <c r="G158" t="s">
+        <v>74</v>
+      </c>
+      <c r="H158">
+        <v>0</v>
+      </c>
+      <c r="I158">
+        <v>5</v>
+      </c>
+      <c r="J158" t="s">
+        <v>91</v>
+      </c>
+      <c r="K158">
+        <v>3</v>
+      </c>
+      <c r="L158">
+        <v>4.5</v>
+      </c>
+      <c r="M158">
+        <v>1.8</v>
+      </c>
+      <c r="N158">
+        <v>3</v>
+      </c>
+      <c r="O158">
+        <v>4.5</v>
+      </c>
+      <c r="P158">
+        <v>1.8</v>
+      </c>
+      <c r="Q158">
+        <v>0.5</v>
+      </c>
+      <c r="R158">
+        <v>1.95</v>
+      </c>
+      <c r="S158">
+        <v>1.85</v>
+      </c>
+      <c r="T158">
+        <v>3.25</v>
+      </c>
+      <c r="U158">
+        <v>1.85</v>
+      </c>
+      <c r="V158">
+        <v>1.95</v>
+      </c>
+      <c r="W158">
+        <v>-1</v>
+      </c>
+      <c r="X158">
+        <v>-1</v>
+      </c>
+      <c r="Y158">
+        <v>0.8</v>
+      </c>
+      <c r="Z158">
+        <v>-1</v>
+      </c>
+      <c r="AA158">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB158">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AC158">
         <v>-1</v>
       </c>
     </row>

--- a/England Northern League Division One/England Northern League Division One.xlsx
+++ b/England Northern League Division One/England Northern League Division One.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="817" uniqueCount="92">
   <si>
     <t>id</t>
   </si>
@@ -127,13 +127,13 @@
     <t>Coleshill Town</t>
   </si>
   <si>
+    <t>Dunston UTS</t>
+  </si>
+  <si>
     <t>Grantham</t>
   </si>
   <si>
-    <t>Dunston UTS</t>
-  </si>
-  <si>
-    <t>Leek Town</t>
+    <t>Liversedge</t>
   </si>
   <si>
     <t>North Ferriby</t>
@@ -142,40 +142,40 @@
     <t>AFC Rushden  Diamonds</t>
   </si>
   <si>
-    <t>Runcorn Linnets</t>
-  </si>
-  <si>
     <t>Cambridge City</t>
   </si>
   <si>
-    <t>Pontefract Collieries</t>
+    <t>Rugby Town</t>
   </si>
   <si>
-    <t>Liversedge</t>
+    <t>Coventry Sphinx</t>
+  </si>
+  <si>
+    <t>Mossley</t>
+  </si>
+  <si>
+    <t>Leek Town</t>
+  </si>
+  <si>
+    <t>Hednesford</t>
+  </si>
+  <si>
+    <t>Runcorn Linnets</t>
   </si>
   <si>
     <t>Hinckley LR</t>
   </si>
   <si>
-    <t>Rugby Town</t>
-  </si>
-  <si>
-    <t>Hednesford</t>
-  </si>
-  <si>
-    <t>Mossley</t>
-  </si>
-  <si>
-    <t>Coventry Sphinx</t>
-  </si>
-  <si>
-    <t>Stockton Town</t>
+    <t>Pontefract Collieries</t>
   </si>
   <si>
     <t>Winterton Rangers</t>
   </si>
   <si>
     <t>Grimsby Borough</t>
+  </si>
+  <si>
+    <t>Stockton Town</t>
   </si>
   <si>
     <t>Avro FC</t>
@@ -187,13 +187,13 @@
     <t>Shepshed Dynamo</t>
   </si>
   <si>
-    <t>Prescot Cables</t>
+    <t>Gresley Rovers</t>
   </si>
   <si>
     <t>Witton Albion</t>
   </si>
   <si>
-    <t>Gresley Rovers</t>
+    <t>Prescot Cables</t>
   </si>
   <si>
     <t>Kidsgrove Ath</t>
@@ -202,25 +202,25 @@
     <t>Anstey Nomads</t>
   </si>
   <si>
+    <t>Bedworth Utd</t>
+  </si>
+  <si>
     <t>Ossett United</t>
   </si>
   <si>
     <t>1874 Northwich</t>
   </si>
   <si>
-    <t>Bedworth Utd</t>
-  </si>
-  <si>
     <t>Newton Aycliffe</t>
   </si>
   <si>
-    <t>Nantwich Town</t>
+    <t>Sporting Khalsa</t>
   </si>
   <si>
     <t>Harborough Town</t>
   </si>
   <si>
-    <t>Sporting Khalsa</t>
+    <t>Nantwich Town</t>
   </si>
   <si>
     <t>Carlton Town</t>
@@ -235,10 +235,10 @@
     <t>Trafford</t>
   </si>
   <si>
-    <t>Belper Town</t>
+    <t>Quorn</t>
   </si>
   <si>
-    <t>Quorn</t>
+    <t>Belper Town</t>
   </si>
   <si>
     <t>Newcastle Town</t>
@@ -651,7 +651,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC158"/>
+  <dimension ref="A1:AC159"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -763,7 +763,7 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H2">
         <v>3</v>
@@ -941,7 +941,7 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H4">
         <v>2</v>
@@ -1030,7 +1030,7 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H5">
         <v>3</v>
@@ -1208,7 +1208,7 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H7">
         <v>1</v>
@@ -1460,7 +1460,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>7100107</v>
+        <v>7100111</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1472,76 +1472,76 @@
         <v>45160.65625</v>
       </c>
       <c r="F10" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G10" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10">
         <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K10">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="L10">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M10">
-        <v>2.4</v>
+        <v>2.75</v>
       </c>
       <c r="N10">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="O10">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P10">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="Q10">
         <v>0.25</v>
       </c>
       <c r="R10">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S10">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T10">
         <v>2.5</v>
       </c>
       <c r="U10">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V10">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W10">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="X10">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y10">
         <v>-1</v>
       </c>
       <c r="Z10">
-        <v>0.875</v>
+        <v>0.475</v>
       </c>
       <c r="AA10">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB10">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC10">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1561,7 +1561,7 @@
         <v>45160.65625</v>
       </c>
       <c r="F11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G11" t="s">
         <v>83</v>
@@ -1638,7 +1638,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>7100544</v>
+        <v>7100107</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1650,40 +1650,40 @@
         <v>45160.65625</v>
       </c>
       <c r="F12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G12" t="s">
-        <v>72</v>
+        <v>32</v>
       </c>
       <c r="H12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" t="s">
         <v>89</v>
       </c>
       <c r="K12">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="L12">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M12">
-        <v>3.25</v>
+        <v>2.4</v>
       </c>
       <c r="N12">
-        <v>1.666</v>
+        <v>2.9</v>
       </c>
       <c r="O12">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P12">
-        <v>3.6</v>
+        <v>2.1</v>
       </c>
       <c r="Q12">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R12">
         <v>1.875</v>
@@ -1692,7 +1692,7 @@
         <v>1.925</v>
       </c>
       <c r="T12">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U12">
         <v>1.9</v>
@@ -1701,7 +1701,7 @@
         <v>1.9</v>
       </c>
       <c r="W12">
-        <v>0.6659999999999999</v>
+        <v>1.9</v>
       </c>
       <c r="X12">
         <v>-1</v>
@@ -1716,10 +1716,10 @@
         <v>-1</v>
       </c>
       <c r="AB12">
-        <v>0.45</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC12">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1727,7 +1727,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>7100109</v>
+        <v>7100108</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1739,73 +1739,73 @@
         <v>45160.65625</v>
       </c>
       <c r="F13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G13" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I13">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J13" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K13">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="L13">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M13">
         <v>2.6</v>
       </c>
       <c r="N13">
-        <v>1.95</v>
+        <v>2.3</v>
       </c>
       <c r="O13">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P13">
-        <v>3.1</v>
+        <v>2.625</v>
       </c>
       <c r="Q13">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R13">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S13">
-        <v>1.8</v>
+        <v>1.725</v>
       </c>
       <c r="T13">
         <v>2.75</v>
       </c>
       <c r="U13">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V13">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W13">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X13">
         <v>-1</v>
       </c>
       <c r="Y13">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z13">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA13">
+        <v>-1</v>
+      </c>
+      <c r="AB13">
         <v>0.8</v>
-      </c>
-      <c r="AB13">
-        <v>0.825</v>
       </c>
       <c r="AC13">
         <v>-1</v>
@@ -1816,7 +1816,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>7100111</v>
+        <v>7100109</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1828,76 +1828,76 @@
         <v>45160.65625</v>
       </c>
       <c r="F14" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G14" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J14" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K14">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="L14">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M14">
+        <v>2.6</v>
+      </c>
+      <c r="N14">
+        <v>1.95</v>
+      </c>
+      <c r="O14">
+        <v>3.75</v>
+      </c>
+      <c r="P14">
+        <v>3.1</v>
+      </c>
+      <c r="Q14">
+        <v>-0.5</v>
+      </c>
+      <c r="R14">
+        <v>2</v>
+      </c>
+      <c r="S14">
+        <v>1.8</v>
+      </c>
+      <c r="T14">
         <v>2.75</v>
       </c>
-      <c r="N14">
-        <v>3.1</v>
-      </c>
-      <c r="O14">
-        <v>3.3</v>
-      </c>
-      <c r="P14">
-        <v>2.05</v>
-      </c>
-      <c r="Q14">
-        <v>0.25</v>
-      </c>
-      <c r="R14">
-        <v>1.95</v>
-      </c>
-      <c r="S14">
-        <v>1.85</v>
-      </c>
-      <c r="T14">
-        <v>2.5</v>
-      </c>
       <c r="U14">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V14">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W14">
         <v>-1</v>
       </c>
       <c r="X14">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y14">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z14">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AA14">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AB14">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC14">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -1920,7 +1920,7 @@
         <v>41</v>
       </c>
       <c r="G15" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1994,7 +1994,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>7100546</v>
+        <v>7100392</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -2009,73 +2009,73 @@
         <v>42</v>
       </c>
       <c r="G16" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J16" t="s">
         <v>90</v>
       </c>
       <c r="K16">
-        <v>1.615</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>4</v>
       </c>
       <c r="M16">
+        <v>2.75</v>
+      </c>
+      <c r="N16">
+        <v>2</v>
+      </c>
+      <c r="O16">
         <v>4</v>
       </c>
-      <c r="N16">
-        <v>1.45</v>
-      </c>
-      <c r="O16">
-        <v>4.333</v>
-      </c>
       <c r="P16">
-        <v>5</v>
+        <v>2.75</v>
       </c>
       <c r="Q16">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R16">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S16">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T16">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U16">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V16">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W16">
         <v>-1</v>
       </c>
       <c r="X16">
-        <v>3.333</v>
+        <v>3</v>
       </c>
       <c r="Y16">
         <v>-1</v>
       </c>
       <c r="Z16">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA16">
-        <v>1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB16">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC16">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -2083,7 +2083,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>7100392</v>
+        <v>7100405</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -2098,70 +2098,70 @@
         <v>43</v>
       </c>
       <c r="G17" t="s">
-        <v>74</v>
+        <v>33</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J17" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="L17">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M17">
-        <v>2.75</v>
+        <v>2.3</v>
       </c>
       <c r="N17">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="O17">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P17">
-        <v>2.75</v>
+        <v>2.3</v>
       </c>
       <c r="Q17">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R17">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S17">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T17">
         <v>3</v>
       </c>
       <c r="U17">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V17">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W17">
         <v>-1</v>
       </c>
       <c r="X17">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y17">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z17">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA17">
-        <v>0.4875</v>
+        <v>0.8</v>
       </c>
       <c r="AB17">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AC17">
         <v>-1</v>
@@ -2172,7 +2172,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>7100110</v>
+        <v>7100393</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2187,53 +2187,53 @@
         <v>44</v>
       </c>
       <c r="G18" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J18" t="s">
         <v>91</v>
       </c>
       <c r="K18">
-        <v>2.25</v>
+        <v>2.9</v>
       </c>
       <c r="L18">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="M18">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="N18">
-        <v>2.625</v>
+        <v>2.8</v>
       </c>
       <c r="O18">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="P18">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="Q18">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R18">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S18">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T18">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U18">
+        <v>1.75</v>
+      </c>
+      <c r="V18">
         <v>1.95</v>
       </c>
-      <c r="V18">
-        <v>1.85</v>
-      </c>
       <c r="W18">
         <v>-1</v>
       </c>
@@ -2241,19 +2241,19 @@
         <v>-1</v>
       </c>
       <c r="Y18">
-        <v>1.3</v>
+        <v>1.05</v>
       </c>
       <c r="Z18">
         <v>-1</v>
       </c>
       <c r="AA18">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB18">
+        <v>-1</v>
+      </c>
+      <c r="AC18">
         <v>0.95</v>
-      </c>
-      <c r="AC18">
-        <v>-1</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2261,7 +2261,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>7100108</v>
+        <v>7100545</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2276,10 +2276,10 @@
         <v>45</v>
       </c>
       <c r="G19" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="H19">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -2288,43 +2288,43 @@
         <v>89</v>
       </c>
       <c r="K19">
-        <v>2.3</v>
+        <v>1.909</v>
       </c>
       <c r="L19">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M19">
-        <v>2.6</v>
+        <v>3.1</v>
       </c>
       <c r="N19">
-        <v>2.3</v>
+        <v>1.85</v>
       </c>
       <c r="O19">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P19">
-        <v>2.625</v>
+        <v>3.2</v>
       </c>
       <c r="Q19">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R19">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S19">
-        <v>1.725</v>
+        <v>1.875</v>
       </c>
       <c r="T19">
         <v>2.75</v>
       </c>
       <c r="U19">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V19">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W19">
-        <v>1.3</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X19">
         <v>-1</v>
@@ -2333,16 +2333,16 @@
         <v>-1</v>
       </c>
       <c r="Z19">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AA19">
         <v>-1</v>
       </c>
       <c r="AB19">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC19">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2350,7 +2350,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>7100394</v>
+        <v>7100544</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2365,10 +2365,10 @@
         <v>46</v>
       </c>
       <c r="G20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -2377,43 +2377,43 @@
         <v>89</v>
       </c>
       <c r="K20">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="L20">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M20">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="N20">
-        <v>1.909</v>
+        <v>1.666</v>
       </c>
       <c r="O20">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P20">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="Q20">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R20">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S20">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T20">
         <v>2.75</v>
       </c>
       <c r="U20">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V20">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W20">
-        <v>0.909</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X20">
         <v>-1</v>
@@ -2422,16 +2422,16 @@
         <v>-1</v>
       </c>
       <c r="Z20">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AA20">
         <v>-1</v>
       </c>
       <c r="AB20">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AC20">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2439,7 +2439,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>7100405</v>
+        <v>7100543</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2454,52 +2454,52 @@
         <v>47</v>
       </c>
       <c r="G21" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J21" t="s">
         <v>91</v>
       </c>
       <c r="K21">
-        <v>2.5</v>
+        <v>1.909</v>
       </c>
       <c r="L21">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M21">
+        <v>3.1</v>
+      </c>
+      <c r="N21">
         <v>2.3</v>
-      </c>
-      <c r="N21">
-        <v>2.5</v>
       </c>
       <c r="O21">
         <v>3.6</v>
       </c>
       <c r="P21">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="Q21">
         <v>0</v>
       </c>
       <c r="R21">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S21">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T21">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U21">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V21">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W21">
         <v>-1</v>
@@ -2508,16 +2508,16 @@
         <v>-1</v>
       </c>
       <c r="Y21">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="Z21">
         <v>-1</v>
       </c>
       <c r="AA21">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AB21">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AC21">
         <v>-1</v>
@@ -2528,7 +2528,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7100543</v>
+        <v>7100546</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2543,37 +2543,37 @@
         <v>48</v>
       </c>
       <c r="G22" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J22" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K22">
-        <v>1.909</v>
+        <v>1.615</v>
       </c>
       <c r="L22">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M22">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="N22">
-        <v>2.3</v>
+        <v>1.45</v>
       </c>
       <c r="O22">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="P22">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="Q22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R22">
         <v>1.8</v>
@@ -2585,19 +2585,19 @@
         <v>2.75</v>
       </c>
       <c r="U22">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V22">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W22">
         <v>-1</v>
       </c>
       <c r="X22">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y22">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z22">
         <v>-1</v>
@@ -2606,10 +2606,10 @@
         <v>1</v>
       </c>
       <c r="AB22">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC22">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2617,7 +2617,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>7100545</v>
+        <v>7100394</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2632,10 +2632,10 @@
         <v>49</v>
       </c>
       <c r="G23" t="s">
-        <v>35</v>
+        <v>76</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -2644,43 +2644,43 @@
         <v>89</v>
       </c>
       <c r="K23">
-        <v>1.909</v>
+        <v>2.25</v>
       </c>
       <c r="L23">
         <v>3.75</v>
       </c>
       <c r="M23">
+        <v>2.5</v>
+      </c>
+      <c r="N23">
+        <v>1.909</v>
+      </c>
+      <c r="O23">
+        <v>4</v>
+      </c>
+      <c r="P23">
         <v>3.1</v>
-      </c>
-      <c r="N23">
-        <v>1.85</v>
-      </c>
-      <c r="O23">
-        <v>3.75</v>
-      </c>
-      <c r="P23">
-        <v>3.2</v>
       </c>
       <c r="Q23">
         <v>-0.5</v>
       </c>
       <c r="R23">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S23">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T23">
         <v>2.75</v>
       </c>
       <c r="U23">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V23">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W23">
-        <v>0.8500000000000001</v>
+        <v>0.909</v>
       </c>
       <c r="X23">
         <v>-1</v>
@@ -2689,7 +2689,7 @@
         <v>-1</v>
       </c>
       <c r="Z23">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AA23">
         <v>-1</v>
@@ -2698,7 +2698,7 @@
         <v>-1</v>
       </c>
       <c r="AC23">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2706,7 +2706,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>7100393</v>
+        <v>7100110</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2721,53 +2721,53 @@
         <v>50</v>
       </c>
       <c r="G24" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J24" t="s">
         <v>91</v>
       </c>
       <c r="K24">
-        <v>2.9</v>
+        <v>2.25</v>
       </c>
       <c r="L24">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="M24">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="N24">
-        <v>2.8</v>
+        <v>2.625</v>
       </c>
       <c r="O24">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="P24">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="Q24">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R24">
+        <v>2</v>
+      </c>
+      <c r="S24">
+        <v>1.8</v>
+      </c>
+      <c r="T24">
+        <v>2.75</v>
+      </c>
+      <c r="U24">
         <v>1.95</v>
       </c>
-      <c r="S24">
+      <c r="V24">
         <v>1.85</v>
       </c>
-      <c r="T24">
-        <v>3</v>
-      </c>
-      <c r="U24">
-        <v>1.75</v>
-      </c>
-      <c r="V24">
-        <v>1.95</v>
-      </c>
       <c r="W24">
         <v>-1</v>
       </c>
@@ -2775,19 +2775,19 @@
         <v>-1</v>
       </c>
       <c r="Y24">
-        <v>1.05</v>
+        <v>1.3</v>
       </c>
       <c r="Z24">
         <v>-1</v>
       </c>
       <c r="AA24">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AB24">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC24">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -2795,7 +2795,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>7104129</v>
+        <v>7104130</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2810,73 +2810,73 @@
         <v>51</v>
       </c>
       <c r="G25" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J25" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K25">
-        <v>1.533</v>
+        <v>2.375</v>
       </c>
       <c r="L25">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M25">
-        <v>4.75</v>
+        <v>2.375</v>
       </c>
       <c r="N25">
-        <v>1.45</v>
+        <v>2.625</v>
       </c>
       <c r="O25">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="P25">
-        <v>5.5</v>
+        <v>2.2</v>
       </c>
       <c r="Q25">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R25">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="S25">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T25">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U25">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V25">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W25">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X25">
         <v>-1</v>
       </c>
       <c r="Y25">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z25">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA25">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB25">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AC25">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="26" spans="1:29">
@@ -2884,7 +2884,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>7104130</v>
+        <v>7104106</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2899,16 +2899,16 @@
         <v>52</v>
       </c>
       <c r="G26" t="s">
-        <v>69</v>
+        <v>30</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I26">
         <v>2</v>
       </c>
       <c r="J26" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K26">
         <v>2.375</v>
@@ -2920,13 +2920,13 @@
         <v>2.375</v>
       </c>
       <c r="N26">
-        <v>2.625</v>
+        <v>2.6</v>
       </c>
       <c r="O26">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P26">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="Q26">
         <v>0.25</v>
@@ -2938,34 +2938,34 @@
         <v>1.975</v>
       </c>
       <c r="T26">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U26">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="V26">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W26">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="X26">
         <v>-1</v>
       </c>
       <c r="Y26">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z26">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA26">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB26">
-        <v>0.4</v>
+        <v>0.75</v>
       </c>
       <c r="AC26">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -2973,7 +2973,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>7104106</v>
+        <v>7104129</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2988,55 +2988,55 @@
         <v>53</v>
       </c>
       <c r="G27" t="s">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="H27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I27">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J27" t="s">
         <v>89</v>
       </c>
       <c r="K27">
-        <v>2.375</v>
+        <v>1.533</v>
       </c>
       <c r="L27">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M27">
-        <v>2.375</v>
+        <v>4.75</v>
       </c>
       <c r="N27">
-        <v>2.6</v>
+        <v>1.45</v>
       </c>
       <c r="O27">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="P27">
-        <v>2.15</v>
+        <v>5.5</v>
       </c>
       <c r="Q27">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R27">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="S27">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T27">
         <v>3</v>
       </c>
       <c r="U27">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="V27">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W27">
-        <v>1.6</v>
+        <v>0.45</v>
       </c>
       <c r="X27">
         <v>-1</v>
@@ -3045,16 +3045,16 @@
         <v>-1</v>
       </c>
       <c r="Z27">
-        <v>0.825</v>
+        <v>0.75</v>
       </c>
       <c r="AA27">
         <v>-1</v>
       </c>
       <c r="AB27">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AC27">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -3240,7 +3240,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>7122522</v>
+        <v>7122508</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3252,76 +3252,76 @@
         <v>45164.45833333334</v>
       </c>
       <c r="F30" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G30" t="s">
-        <v>43</v>
+        <v>86</v>
       </c>
       <c r="H30">
         <v>1</v>
       </c>
       <c r="I30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J30" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K30">
-        <v>1.909</v>
+        <v>1.533</v>
       </c>
       <c r="L30">
-        <v>3.4</v>
+        <v>4.1</v>
       </c>
       <c r="M30">
-        <v>3.4</v>
+        <v>4.6</v>
       </c>
       <c r="N30">
         <v>2.25</v>
       </c>
       <c r="O30">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="P30">
-        <v>2.8</v>
+        <v>2.625</v>
       </c>
       <c r="Q30">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R30">
-        <v>2.025</v>
+        <v>1.725</v>
       </c>
       <c r="S30">
-        <v>1.775</v>
+        <v>2.075</v>
       </c>
       <c r="T30">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U30">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V30">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="W30">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X30">
         <v>-1</v>
       </c>
       <c r="Y30">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z30">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA30">
-        <v>-1</v>
+        <v>1.075</v>
       </c>
       <c r="AB30">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC30">
-        <v>0.7749999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3329,7 +3329,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>7122508</v>
+        <v>7122522</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3341,76 +3341,76 @@
         <v>45164.45833333334</v>
       </c>
       <c r="F31" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G31" t="s">
-        <v>86</v>
+        <v>42</v>
       </c>
       <c r="H31">
         <v>1</v>
       </c>
       <c r="I31">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J31" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K31">
-        <v>1.533</v>
+        <v>1.909</v>
       </c>
       <c r="L31">
-        <v>4.1</v>
+        <v>3.4</v>
       </c>
       <c r="M31">
-        <v>4.6</v>
+        <v>3.4</v>
       </c>
       <c r="N31">
         <v>2.25</v>
       </c>
       <c r="O31">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="P31">
-        <v>2.625</v>
+        <v>2.8</v>
       </c>
       <c r="Q31">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R31">
-        <v>1.725</v>
+        <v>2.025</v>
       </c>
       <c r="S31">
-        <v>2.075</v>
+        <v>1.775</v>
       </c>
       <c r="T31">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U31">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V31">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="W31">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X31">
         <v>-1</v>
       </c>
       <c r="Y31">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z31">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA31">
-        <v>1.075</v>
+        <v>-1</v>
       </c>
       <c r="AB31">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC31">
-        <v>-0</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -3507,7 +3507,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>7134272</v>
+        <v>7134274</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3519,56 +3519,56 @@
         <v>45166.45833333334</v>
       </c>
       <c r="F33" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="G33" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J33" t="s">
         <v>91</v>
       </c>
       <c r="K33">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L33">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M33">
         <v>2.8</v>
       </c>
       <c r="N33">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="O33">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P33">
-        <v>2.2</v>
+        <v>2.9</v>
       </c>
       <c r="Q33">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R33">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S33">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T33">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U33">
+        <v>1.875</v>
+      </c>
+      <c r="V33">
         <v>1.925</v>
       </c>
-      <c r="V33">
-        <v>1.875</v>
-      </c>
       <c r="W33">
         <v>-1</v>
       </c>
@@ -3576,19 +3576,19 @@
         <v>-1</v>
       </c>
       <c r="Y33">
-        <v>1.2</v>
+        <v>1.9</v>
       </c>
       <c r="Z33">
         <v>-1</v>
       </c>
       <c r="AA33">
-        <v>1.025</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB33">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AC33">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="34" spans="1:29">
@@ -3596,7 +3596,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>7132469</v>
+        <v>7134272</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -3608,76 +3608,76 @@
         <v>45166.45833333334</v>
       </c>
       <c r="F34" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="G34" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="H34">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I34">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J34" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K34">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L34">
         <v>3.6</v>
       </c>
       <c r="M34">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="N34">
-        <v>1.833</v>
+        <v>2.6</v>
       </c>
       <c r="O34">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P34">
-        <v>3.4</v>
+        <v>2.2</v>
       </c>
       <c r="Q34">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R34">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S34">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T34">
         <v>3</v>
       </c>
       <c r="U34">
+        <v>1.925</v>
+      </c>
+      <c r="V34">
         <v>1.875</v>
       </c>
-      <c r="V34">
-        <v>1.925</v>
-      </c>
       <c r="W34">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X34">
         <v>-1</v>
       </c>
       <c r="Y34">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z34">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA34">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB34">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AC34">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="35" spans="1:29">
@@ -3685,7 +3685,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>7132468</v>
+        <v>7132469</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -3697,73 +3697,73 @@
         <v>45166.45833333334</v>
       </c>
       <c r="F35" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="G35" t="s">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="H35">
+        <v>4</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35" t="s">
+        <v>89</v>
+      </c>
+      <c r="K35">
+        <v>2</v>
+      </c>
+      <c r="L35">
+        <v>3.6</v>
+      </c>
+      <c r="M35">
         <v>3</v>
       </c>
-      <c r="I35">
-        <v>3</v>
-      </c>
-      <c r="J35" t="s">
-        <v>90</v>
-      </c>
-      <c r="K35">
-        <v>2.25</v>
-      </c>
-      <c r="L35">
-        <v>3.75</v>
-      </c>
-      <c r="M35">
-        <v>2.5</v>
-      </c>
       <c r="N35">
-        <v>2.25</v>
+        <v>1.833</v>
       </c>
       <c r="O35">
         <v>3.75</v>
       </c>
       <c r="P35">
-        <v>2.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q35">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R35">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S35">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="T35">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U35">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V35">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W35">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X35">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y35">
         <v>-1</v>
       </c>
       <c r="Z35">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA35">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
       <c r="AB35">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AC35">
         <v>-1</v>
@@ -3774,7 +3774,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>7134274</v>
+        <v>7132468</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3786,73 +3786,73 @@
         <v>45166.45833333334</v>
       </c>
       <c r="F36" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="G36" t="s">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I36">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J36" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K36">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="L36">
         <v>3.75</v>
       </c>
       <c r="M36">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="N36">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="O36">
         <v>3.75</v>
       </c>
       <c r="P36">
-        <v>2.9</v>
+        <v>2.5</v>
       </c>
       <c r="Q36">
         <v>-0.25</v>
       </c>
       <c r="R36">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="S36">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="T36">
         <v>2.75</v>
       </c>
       <c r="U36">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V36">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W36">
         <v>-1</v>
       </c>
       <c r="X36">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y36">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z36">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA36">
-        <v>0.9750000000000001</v>
+        <v>0.375</v>
       </c>
       <c r="AB36">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC36">
         <v>-1</v>
@@ -3952,7 +3952,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>7197966</v>
+        <v>7197960</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3967,37 +3967,37 @@
         <v>57</v>
       </c>
       <c r="G38" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38">
         <v>2</v>
       </c>
       <c r="J38" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K38">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="L38">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M38">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="N38">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="O38">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P38">
-        <v>2.5</v>
+        <v>1.95</v>
       </c>
       <c r="Q38">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R38">
         <v>1.8</v>
@@ -4006,34 +4006,34 @@
         <v>2</v>
       </c>
       <c r="T38">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U38">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V38">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="W38">
         <v>-1</v>
       </c>
       <c r="X38">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y38">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z38">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA38">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB38">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC38">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -4056,7 +4056,7 @@
         <v>58</v>
       </c>
       <c r="G39" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H39">
         <v>3</v>
@@ -4130,7 +4130,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>7197960</v>
+        <v>7197966</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4145,37 +4145,37 @@
         <v>59</v>
       </c>
       <c r="G40" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40">
         <v>2</v>
       </c>
       <c r="J40" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K40">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="L40">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M40">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="N40">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="O40">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P40">
-        <v>1.95</v>
+        <v>2.5</v>
       </c>
       <c r="Q40">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R40">
         <v>1.8</v>
@@ -4184,34 +4184,34 @@
         <v>2</v>
       </c>
       <c r="T40">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U40">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V40">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="W40">
         <v>-1</v>
       </c>
       <c r="X40">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y40">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z40">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA40">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB40">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC40">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4323,7 +4323,7 @@
         <v>30</v>
       </c>
       <c r="G42" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H42">
         <v>0</v>
@@ -4498,10 +4498,10 @@
         <v>45195.65625</v>
       </c>
       <c r="F44" t="s">
+        <v>42</v>
+      </c>
+      <c r="G44" t="s">
         <v>43</v>
-      </c>
-      <c r="G44" t="s">
-        <v>47</v>
       </c>
       <c r="H44">
         <v>5</v>
@@ -4679,7 +4679,7 @@
         <v>34</v>
       </c>
       <c r="G46" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H46">
         <v>4</v>
@@ -4753,7 +4753,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>7287633</v>
+        <v>7287638</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4768,7 +4768,7 @@
         <v>62</v>
       </c>
       <c r="G47" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="H47">
         <v>0</v>
@@ -4780,61 +4780,61 @@
         <v>90</v>
       </c>
       <c r="K47">
-        <v>2.55</v>
+        <v>1.909</v>
       </c>
       <c r="L47">
+        <v>3.25</v>
+      </c>
+      <c r="M47">
+        <v>3.5</v>
+      </c>
+      <c r="N47">
+        <v>2</v>
+      </c>
+      <c r="O47">
+        <v>3.25</v>
+      </c>
+      <c r="P47">
         <v>3.2</v>
       </c>
-      <c r="M47">
-        <v>2.45</v>
-      </c>
-      <c r="N47">
-        <v>2.55</v>
-      </c>
-      <c r="O47">
-        <v>3.2</v>
-      </c>
-      <c r="P47">
-        <v>2.45</v>
-      </c>
       <c r="Q47">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R47">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S47">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T47">
         <v>2.75</v>
       </c>
       <c r="U47">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V47">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W47">
         <v>-1</v>
       </c>
       <c r="X47">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="Y47">
         <v>-1</v>
       </c>
       <c r="Z47">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA47">
-        <v>-0</v>
+        <v>0.5</v>
       </c>
       <c r="AB47">
         <v>-1</v>
       </c>
       <c r="AC47">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="48" spans="1:29">
@@ -4842,7 +4842,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>7287701</v>
+        <v>7287633</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4857,73 +4857,73 @@
         <v>63</v>
       </c>
       <c r="G48" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="H48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J48" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K48">
-        <v>3</v>
+        <v>2.55</v>
       </c>
       <c r="L48">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M48">
-        <v>2.1</v>
+        <v>2.45</v>
       </c>
       <c r="N48">
-        <v>3</v>
+        <v>2.55</v>
       </c>
       <c r="O48">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="P48">
-        <v>2.1</v>
+        <v>2.45</v>
       </c>
       <c r="Q48">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R48">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S48">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T48">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U48">
+        <v>1.95</v>
+      </c>
+      <c r="V48">
         <v>1.85</v>
       </c>
-      <c r="V48">
-        <v>1.95</v>
-      </c>
       <c r="W48">
         <v>-1</v>
       </c>
       <c r="X48">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y48">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z48">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA48">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB48">
+        <v>-1</v>
+      </c>
+      <c r="AC48">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AC48">
-        <v>-1</v>
       </c>
     </row>
     <row r="49" spans="1:29">
@@ -4931,7 +4931,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>7287638</v>
+        <v>7287701</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
@@ -4946,73 +4946,73 @@
         <v>64</v>
       </c>
       <c r="G49" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I49">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J49" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K49">
-        <v>1.909</v>
+        <v>3</v>
       </c>
       <c r="L49">
         <v>3.25</v>
       </c>
       <c r="M49">
-        <v>3.5</v>
+        <v>2.1</v>
       </c>
       <c r="N49">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O49">
         <v>3.25</v>
       </c>
       <c r="P49">
-        <v>3.2</v>
+        <v>2.1</v>
       </c>
       <c r="Q49">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R49">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S49">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T49">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U49">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V49">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W49">
         <v>-1</v>
       </c>
       <c r="X49">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y49">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z49">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA49">
-        <v>0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB49">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC49">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="50" spans="1:29">
@@ -5302,7 +5302,7 @@
         <v>55</v>
       </c>
       <c r="G53" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="H53">
         <v>1</v>
@@ -5376,7 +5376,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>7319624</v>
+        <v>7319608</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5391,7 +5391,7 @@
         <v>66</v>
       </c>
       <c r="G54" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="H54">
         <v>3</v>
@@ -5403,31 +5403,31 @@
         <v>89</v>
       </c>
       <c r="K54">
-        <v>2.4</v>
+        <v>1.95</v>
       </c>
       <c r="L54">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="M54">
-        <v>2.4</v>
+        <v>2.75</v>
       </c>
       <c r="N54">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="O54">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P54">
-        <v>2.4</v>
+        <v>2.75</v>
       </c>
       <c r="Q54">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R54">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S54">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T54">
         <v>2.75</v>
@@ -5439,7 +5439,7 @@
         <v>1.9</v>
       </c>
       <c r="W54">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="X54">
         <v>-1</v>
@@ -5448,7 +5448,7 @@
         <v>-1</v>
       </c>
       <c r="Z54">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AA54">
         <v>-1</v>
@@ -5554,7 +5554,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>7319608</v>
+        <v>7319624</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5569,7 +5569,7 @@
         <v>68</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H56">
         <v>3</v>
@@ -5581,31 +5581,31 @@
         <v>89</v>
       </c>
       <c r="K56">
-        <v>1.95</v>
+        <v>2.4</v>
       </c>
       <c r="L56">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="M56">
-        <v>2.75</v>
+        <v>2.4</v>
       </c>
       <c r="N56">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="O56">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P56">
-        <v>2.75</v>
+        <v>2.4</v>
       </c>
       <c r="Q56">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R56">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S56">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T56">
         <v>2.75</v>
@@ -5617,7 +5617,7 @@
         <v>1.9</v>
       </c>
       <c r="W56">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="X56">
         <v>-1</v>
@@ -5626,7 +5626,7 @@
         <v>-1</v>
       </c>
       <c r="Z56">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA56">
         <v>-1</v>
@@ -5643,7 +5643,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>7338189</v>
+        <v>7338187</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5655,40 +5655,40 @@
         <v>45213.45833333334</v>
       </c>
       <c r="F57" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G57" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="H57">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I57">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J57" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K57">
-        <v>2.7</v>
+        <v>1.5</v>
       </c>
       <c r="L57">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="M57">
-        <v>2.1</v>
+        <v>4</v>
       </c>
       <c r="N57">
-        <v>2.55</v>
+        <v>1.5</v>
       </c>
       <c r="O57">
-        <v>3.8</v>
+        <v>5</v>
       </c>
       <c r="P57">
-        <v>2.15</v>
+        <v>4</v>
       </c>
       <c r="Q57">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R57">
         <v>1.8</v>
@@ -5697,34 +5697,34 @@
         <v>2</v>
       </c>
       <c r="T57">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U57">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V57">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W57">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X57">
         <v>-1</v>
       </c>
       <c r="Y57">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z57">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA57">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB57">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC57">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="58" spans="1:29">
@@ -5747,7 +5747,7 @@
         <v>56</v>
       </c>
       <c r="G58" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="H58">
         <v>2</v>
@@ -5821,7 +5821,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>7338187</v>
+        <v>7338189</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5833,40 +5833,40 @@
         <v>45213.45833333334</v>
       </c>
       <c r="F59" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G59" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I59">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J59" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K59">
-        <v>1.5</v>
+        <v>2.7</v>
       </c>
       <c r="L59">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="M59">
-        <v>4</v>
+        <v>2.1</v>
       </c>
       <c r="N59">
-        <v>1.5</v>
+        <v>2.55</v>
       </c>
       <c r="O59">
-        <v>5</v>
+        <v>3.8</v>
       </c>
       <c r="P59">
-        <v>4</v>
+        <v>2.15</v>
       </c>
       <c r="Q59">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R59">
         <v>1.8</v>
@@ -5875,34 +5875,34 @@
         <v>2</v>
       </c>
       <c r="T59">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U59">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V59">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W59">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X59">
         <v>-1</v>
       </c>
       <c r="Y59">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z59">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA59">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB59">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC59">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="60" spans="1:29">
@@ -5910,7 +5910,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>7350912</v>
+        <v>7350910</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -5922,49 +5922,49 @@
         <v>45216.65625</v>
       </c>
       <c r="F60" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="G60" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60">
         <v>1</v>
       </c>
       <c r="J60" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K60">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L60">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="M60">
         <v>2.5</v>
       </c>
       <c r="N60">
-        <v>2.375</v>
+        <v>2.5</v>
       </c>
       <c r="O60">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P60">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="Q60">
         <v>0</v>
       </c>
       <c r="R60">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S60">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T60">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U60">
         <v>1.95</v>
@@ -5973,25 +5973,25 @@
         <v>1.85</v>
       </c>
       <c r="W60">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X60">
         <v>-1</v>
       </c>
       <c r="Y60">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z60">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA60">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB60">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC60">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="61" spans="1:29">
@@ -5999,7 +5999,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>7350911</v>
+        <v>7350912</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -6011,76 +6011,76 @@
         <v>45216.65625</v>
       </c>
       <c r="F61" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="G61" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H61">
         <v>2</v>
       </c>
       <c r="I61">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J61" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K61">
-        <v>4.4</v>
+        <v>2.2</v>
       </c>
       <c r="L61">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="M61">
-        <v>1.55</v>
+        <v>2.5</v>
       </c>
       <c r="N61">
-        <v>5</v>
+        <v>2.375</v>
       </c>
       <c r="O61">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="P61">
-        <v>1.5</v>
+        <v>2.3</v>
       </c>
       <c r="Q61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R61">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S61">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T61">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U61">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="V61">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="W61">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X61">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y61">
         <v>-1</v>
       </c>
       <c r="Z61">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AA61">
         <v>-1</v>
       </c>
       <c r="AB61">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="AC61">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="62" spans="1:29">
@@ -6088,7 +6088,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>7350910</v>
+        <v>7350911</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -6100,40 +6100,40 @@
         <v>45216.65625</v>
       </c>
       <c r="F62" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="G62" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62">
+        <v>2</v>
+      </c>
+      <c r="J62" t="s">
+        <v>90</v>
+      </c>
+      <c r="K62">
+        <v>4.4</v>
+      </c>
+      <c r="L62">
+        <v>4.2</v>
+      </c>
+      <c r="M62">
+        <v>1.55</v>
+      </c>
+      <c r="N62">
+        <v>5</v>
+      </c>
+      <c r="O62">
+        <v>4.333</v>
+      </c>
+      <c r="P62">
+        <v>1.5</v>
+      </c>
+      <c r="Q62">
         <v>1</v>
-      </c>
-      <c r="J62" t="s">
-        <v>91</v>
-      </c>
-      <c r="K62">
-        <v>2.25</v>
-      </c>
-      <c r="L62">
-        <v>3.75</v>
-      </c>
-      <c r="M62">
-        <v>2.5</v>
-      </c>
-      <c r="N62">
-        <v>2.5</v>
-      </c>
-      <c r="O62">
-        <v>3.75</v>
-      </c>
-      <c r="P62">
-        <v>2.25</v>
-      </c>
-      <c r="Q62">
-        <v>0</v>
       </c>
       <c r="R62">
         <v>2</v>
@@ -6145,31 +6145,31 @@
         <v>2.75</v>
       </c>
       <c r="U62">
+        <v>1.75</v>
+      </c>
+      <c r="V62">
         <v>1.95</v>
       </c>
-      <c r="V62">
-        <v>1.85</v>
-      </c>
       <c r="W62">
         <v>-1</v>
       </c>
       <c r="X62">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y62">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z62">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA62">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB62">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AC62">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="63" spans="1:29">
@@ -6189,10 +6189,10 @@
         <v>45216.65625</v>
       </c>
       <c r="F63" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="G63" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H63">
         <v>2</v>
@@ -6278,10 +6278,10 @@
         <v>45220.45833333334</v>
       </c>
       <c r="F64" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G64" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H64">
         <v>1</v>
@@ -6459,7 +6459,7 @@
         <v>71</v>
       </c>
       <c r="G66" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="H66">
         <v>1</v>
@@ -6548,7 +6548,7 @@
         <v>32</v>
       </c>
       <c r="G67" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H67">
         <v>0</v>
@@ -6622,7 +6622,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>7395812</v>
+        <v>7395878</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6634,76 +6634,76 @@
         <v>45227.45833333334</v>
       </c>
       <c r="F68" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G68" t="s">
-        <v>84</v>
+        <v>57</v>
       </c>
       <c r="H68">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I68">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J68" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K68">
-        <v>2</v>
+        <v>1.363</v>
       </c>
       <c r="L68">
-        <v>3.6</v>
+        <v>5.25</v>
       </c>
       <c r="M68">
-        <v>3</v>
+        <v>5.25</v>
       </c>
       <c r="N68">
-        <v>2</v>
+        <v>1.363</v>
       </c>
       <c r="O68">
-        <v>3.6</v>
+        <v>5.25</v>
       </c>
       <c r="P68">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q68">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R68">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S68">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T68">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U68">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="V68">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W68">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X68">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y68">
         <v>-1</v>
       </c>
       <c r="Z68">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA68">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB68">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC68">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -6711,7 +6711,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>7395878</v>
+        <v>7395812</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6723,76 +6723,76 @@
         <v>45227.45833333334</v>
       </c>
       <c r="F69" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G69" t="s">
-        <v>59</v>
+        <v>84</v>
       </c>
       <c r="H69">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I69">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J69" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K69">
-        <v>1.363</v>
+        <v>2</v>
       </c>
       <c r="L69">
-        <v>5.25</v>
+        <v>3.6</v>
       </c>
       <c r="M69">
-        <v>5.25</v>
+        <v>3</v>
       </c>
       <c r="N69">
-        <v>1.363</v>
+        <v>2</v>
       </c>
       <c r="O69">
-        <v>5.25</v>
+        <v>3.6</v>
       </c>
       <c r="P69">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q69">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R69">
+        <v>1.8</v>
+      </c>
+      <c r="S69">
+        <v>2</v>
+      </c>
+      <c r="T69">
+        <v>2.75</v>
+      </c>
+      <c r="U69">
+        <v>1.75</v>
+      </c>
+      <c r="V69">
         <v>1.95</v>
       </c>
-      <c r="S69">
-        <v>1.85</v>
-      </c>
-      <c r="T69">
-        <v>3.5</v>
-      </c>
-      <c r="U69">
-        <v>1.925</v>
-      </c>
-      <c r="V69">
-        <v>1.875</v>
-      </c>
       <c r="W69">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X69">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y69">
         <v>-1</v>
       </c>
       <c r="Z69">
+        <v>-0.5</v>
+      </c>
+      <c r="AA69">
+        <v>0.5</v>
+      </c>
+      <c r="AB69">
+        <v>-1</v>
+      </c>
+      <c r="AC69">
         <v>0.95</v>
-      </c>
-      <c r="AA69">
-        <v>-1</v>
-      </c>
-      <c r="AB69">
-        <v>0.925</v>
-      </c>
-      <c r="AC69">
-        <v>-1</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -6815,7 +6815,7 @@
         <v>72</v>
       </c>
       <c r="G70" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H70">
         <v>2</v>
@@ -6978,7 +6978,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>7440452</v>
+        <v>7447904</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6990,76 +6990,76 @@
         <v>45237.69791666666</v>
       </c>
       <c r="F72" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="G72" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I72">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J72" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K72">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="L72">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="M72">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="N72">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="O72">
         <v>4</v>
       </c>
       <c r="P72">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="Q72">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R72">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S72">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T72">
+        <v>2.5</v>
+      </c>
+      <c r="U72">
+        <v>1.825</v>
+      </c>
+      <c r="V72">
+        <v>1.975</v>
+      </c>
+      <c r="W72">
+        <v>-1</v>
+      </c>
+      <c r="X72">
         <v>3</v>
       </c>
-      <c r="U72">
-        <v>1.8</v>
-      </c>
-      <c r="V72">
-        <v>2</v>
-      </c>
-      <c r="W72">
-        <v>-1</v>
-      </c>
-      <c r="X72">
-        <v>-1</v>
-      </c>
       <c r="Y72">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z72">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA72">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB72">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC72">
-        <v>-0</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="73" spans="1:29">
@@ -7067,7 +7067,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>7447904</v>
+        <v>7440456</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -7079,40 +7079,40 @@
         <v>45237.69791666666</v>
       </c>
       <c r="F73" t="s">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="G73" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="H73">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I73">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J73" t="s">
         <v>90</v>
       </c>
       <c r="K73">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
       <c r="L73">
+        <v>3.6</v>
+      </c>
+      <c r="M73">
+        <v>2.5</v>
+      </c>
+      <c r="N73">
+        <v>2.05</v>
+      </c>
+      <c r="O73">
         <v>3.75</v>
       </c>
-      <c r="M73">
-        <v>2.15</v>
-      </c>
-      <c r="N73">
-        <v>3.1</v>
-      </c>
-      <c r="O73">
-        <v>4</v>
-      </c>
       <c r="P73">
-        <v>1.85</v>
+        <v>2.8</v>
       </c>
       <c r="Q73">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R73">
         <v>1.875</v>
@@ -7121,34 +7121,34 @@
         <v>1.925</v>
       </c>
       <c r="T73">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U73">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="V73">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W73">
         <v>-1</v>
       </c>
       <c r="X73">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Y73">
         <v>-1</v>
       </c>
       <c r="Z73">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AA73">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AB73">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AC73">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="74" spans="1:29">
@@ -7156,7 +7156,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>7440456</v>
+        <v>7440452</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7168,76 +7168,76 @@
         <v>45237.69791666666</v>
       </c>
       <c r="F74" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="G74" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J74" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K74">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="L74">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M74">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="N74">
-        <v>2.05</v>
+        <v>2.8</v>
       </c>
       <c r="O74">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P74">
-        <v>2.8</v>
+        <v>1.95</v>
       </c>
       <c r="Q74">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R74">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S74">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T74">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U74">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="V74">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W74">
         <v>-1</v>
       </c>
       <c r="X74">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y74">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z74">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA74">
-        <v>0.4625</v>
+        <v>0.8</v>
       </c>
       <c r="AB74">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="AC74">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7245,7 +7245,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>7440455</v>
+        <v>7440454</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7257,10 +7257,10 @@
         <v>45237.69791666666</v>
       </c>
       <c r="F75" t="s">
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="G75" t="s">
-        <v>80</v>
+        <v>42</v>
       </c>
       <c r="H75">
         <v>2</v>
@@ -7272,43 +7272,43 @@
         <v>89</v>
       </c>
       <c r="K75">
-        <v>1.5</v>
+        <v>1.85</v>
       </c>
       <c r="L75">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="M75">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="N75">
-        <v>1.5</v>
+        <v>1.85</v>
       </c>
       <c r="O75">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P75">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="Q75">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R75">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S75">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T75">
         <v>3</v>
       </c>
       <c r="U75">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V75">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W75">
-        <v>0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X75">
         <v>-1</v>
@@ -7317,10 +7317,10 @@
         <v>-1</v>
       </c>
       <c r="Z75">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA75">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB75">
         <v>0</v>
@@ -7334,7 +7334,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>7440454</v>
+        <v>7440455</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7346,10 +7346,10 @@
         <v>45237.69791666666</v>
       </c>
       <c r="F76" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="G76" t="s">
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="H76">
         <v>2</v>
@@ -7361,43 +7361,43 @@
         <v>89</v>
       </c>
       <c r="K76">
-        <v>1.85</v>
+        <v>1.5</v>
       </c>
       <c r="L76">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="M76">
-        <v>3.1</v>
+        <v>4.75</v>
       </c>
       <c r="N76">
-        <v>1.85</v>
+        <v>1.5</v>
       </c>
       <c r="O76">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P76">
-        <v>3.1</v>
+        <v>4.75</v>
       </c>
       <c r="Q76">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R76">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S76">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T76">
         <v>3</v>
       </c>
       <c r="U76">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V76">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W76">
-        <v>0.8500000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="X76">
         <v>-1</v>
@@ -7406,10 +7406,10 @@
         <v>-1</v>
       </c>
       <c r="Z76">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA76">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB76">
         <v>0</v>
@@ -7423,7 +7423,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>7473235</v>
+        <v>7476390</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7435,10 +7435,10 @@
         <v>45244.69791666666</v>
       </c>
       <c r="F77" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="G77" t="s">
-        <v>37</v>
+        <v>85</v>
       </c>
       <c r="H77">
         <v>4</v>
@@ -7450,43 +7450,43 @@
         <v>89</v>
       </c>
       <c r="K77">
-        <v>1.727</v>
+        <v>2</v>
       </c>
       <c r="L77">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M77">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="N77">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="O77">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P77">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="Q77">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R77">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S77">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T77">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U77">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V77">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W77">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="X77">
         <v>-1</v>
@@ -7495,13 +7495,13 @@
         <v>-1</v>
       </c>
       <c r="Z77">
-        <v>0.7749999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AA77">
         <v>-1</v>
       </c>
       <c r="AB77">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AC77">
         <v>-1</v>
@@ -7524,10 +7524,10 @@
         <v>45244.69791666666</v>
       </c>
       <c r="F78" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G78" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="H78">
         <v>5</v>
@@ -7601,7 +7601,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>7476390</v>
+        <v>7476389</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7613,73 +7613,73 @@
         <v>45244.69791666666</v>
       </c>
       <c r="F79" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G79" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>6</v>
+      </c>
+      <c r="J79" t="s">
+        <v>91</v>
+      </c>
+      <c r="K79">
         <v>4</v>
       </c>
-      <c r="I79">
-        <v>2</v>
-      </c>
-      <c r="J79" t="s">
-        <v>89</v>
-      </c>
-      <c r="K79">
-        <v>2</v>
-      </c>
       <c r="L79">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M79">
-        <v>3</v>
+        <v>1.75</v>
       </c>
       <c r="N79">
-        <v>2</v>
+        <v>3.75</v>
       </c>
       <c r="O79">
         <v>3.6</v>
       </c>
       <c r="P79">
-        <v>3</v>
+        <v>1.75</v>
       </c>
       <c r="Q79">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R79">
+        <v>2</v>
+      </c>
+      <c r="S79">
         <v>1.8</v>
       </c>
-      <c r="S79">
-        <v>2</v>
-      </c>
       <c r="T79">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U79">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V79">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W79">
+        <v>-1</v>
+      </c>
+      <c r="X79">
+        <v>-1</v>
+      </c>
+      <c r="Y79">
+        <v>0.75</v>
+      </c>
+      <c r="Z79">
+        <v>-1</v>
+      </c>
+      <c r="AA79">
+        <v>0.8</v>
+      </c>
+      <c r="AB79">
         <v>1</v>
-      </c>
-      <c r="X79">
-        <v>-1</v>
-      </c>
-      <c r="Y79">
-        <v>-1</v>
-      </c>
-      <c r="Z79">
-        <v>0.8</v>
-      </c>
-      <c r="AA79">
-        <v>-1</v>
-      </c>
-      <c r="AB79">
-        <v>0.825</v>
       </c>
       <c r="AC79">
         <v>-1</v>
@@ -7690,7 +7690,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>7476389</v>
+        <v>7473235</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7702,73 +7702,73 @@
         <v>45244.69791666666</v>
       </c>
       <c r="F80" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="G80" t="s">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I80">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J80" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K80">
-        <v>4</v>
+        <v>1.727</v>
       </c>
       <c r="L80">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M80">
+        <v>3.75</v>
+      </c>
+      <c r="N80">
         <v>1.75</v>
       </c>
-      <c r="N80">
+      <c r="O80">
         <v>3.75</v>
       </c>
-      <c r="O80">
+      <c r="P80">
         <v>3.6</v>
       </c>
-      <c r="P80">
-        <v>1.75</v>
-      </c>
       <c r="Q80">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R80">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S80">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T80">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U80">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V80">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W80">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X80">
         <v>-1</v>
       </c>
       <c r="Y80">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z80">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA80">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB80">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC80">
         <v>-1</v>
@@ -7883,7 +7883,7 @@
         <v>33</v>
       </c>
       <c r="G82" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H82">
         <v>2</v>
@@ -7969,10 +7969,10 @@
         <v>45258.69791666666</v>
       </c>
       <c r="F83" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="G83" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H83">
         <v>2</v>
@@ -8313,7 +8313,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>7569472</v>
+        <v>7569473</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8325,56 +8325,56 @@
         <v>45269.5</v>
       </c>
       <c r="F87" t="s">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="G87" t="s">
-        <v>51</v>
+        <v>84</v>
       </c>
       <c r="H87">
         <v>0</v>
       </c>
       <c r="I87">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J87" t="s">
         <v>91</v>
       </c>
       <c r="K87">
-        <v>7</v>
+        <v>2.7</v>
       </c>
       <c r="L87">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="M87">
-        <v>1.333</v>
+        <v>2.1</v>
       </c>
       <c r="N87">
-        <v>7</v>
+        <v>2.7</v>
       </c>
       <c r="O87">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="P87">
-        <v>1.333</v>
+        <v>2.1</v>
       </c>
       <c r="Q87">
-        <v>1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R87">
+        <v>1.875</v>
+      </c>
+      <c r="S87">
+        <v>1.925</v>
+      </c>
+      <c r="T87">
+        <v>3</v>
+      </c>
+      <c r="U87">
         <v>1.95</v>
       </c>
-      <c r="S87">
+      <c r="V87">
         <v>1.85</v>
       </c>
-      <c r="T87">
-        <v>3.25</v>
-      </c>
-      <c r="U87">
-        <v>1.85</v>
-      </c>
-      <c r="V87">
-        <v>1.95</v>
-      </c>
       <c r="W87">
         <v>-1</v>
       </c>
@@ -8382,19 +8382,19 @@
         <v>-1</v>
       </c>
       <c r="Y87">
-        <v>0.333</v>
+        <v>1.1</v>
       </c>
       <c r="Z87">
         <v>-1</v>
       </c>
       <c r="AA87">
+        <v>0.925</v>
+      </c>
+      <c r="AB87">
+        <v>-1</v>
+      </c>
+      <c r="AC87">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AB87">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AC87">
-        <v>-1</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8402,7 +8402,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>7569473</v>
+        <v>7569472</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8414,56 +8414,56 @@
         <v>45269.5</v>
       </c>
       <c r="F88" t="s">
-        <v>70</v>
+        <v>38</v>
       </c>
       <c r="G88" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="H88">
         <v>0</v>
       </c>
       <c r="I88">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J88" t="s">
         <v>91</v>
       </c>
       <c r="K88">
-        <v>2.7</v>
+        <v>7</v>
       </c>
       <c r="L88">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="M88">
-        <v>2.1</v>
+        <v>1.333</v>
       </c>
       <c r="N88">
-        <v>2.7</v>
+        <v>7</v>
       </c>
       <c r="O88">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="P88">
-        <v>2.1</v>
+        <v>1.333</v>
       </c>
       <c r="Q88">
-        <v>0.25</v>
+        <v>1.5</v>
       </c>
       <c r="R88">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S88">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T88">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U88">
+        <v>1.85</v>
+      </c>
+      <c r="V88">
         <v>1.95</v>
       </c>
-      <c r="V88">
-        <v>1.85</v>
-      </c>
       <c r="W88">
         <v>-1</v>
       </c>
@@ -8471,19 +8471,19 @@
         <v>-1</v>
       </c>
       <c r="Y88">
-        <v>1.1</v>
+        <v>0.333</v>
       </c>
       <c r="Z88">
         <v>-1</v>
       </c>
       <c r="AA88">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB88">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC88">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8491,7 +8491,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>7581048</v>
+        <v>7581047</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8503,76 +8503,76 @@
         <v>45272.69791666666</v>
       </c>
       <c r="F89" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="G89" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="H89">
         <v>0</v>
       </c>
       <c r="I89">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J89" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K89">
-        <v>2.25</v>
+        <v>6</v>
       </c>
       <c r="L89">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="M89">
-        <v>2.5</v>
+        <v>1.333</v>
       </c>
       <c r="N89">
-        <v>2.2</v>
+        <v>5</v>
       </c>
       <c r="O89">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="P89">
-        <v>2.5</v>
+        <v>1.45</v>
       </c>
       <c r="Q89">
-        <v>-0.25</v>
+        <v>1.25</v>
       </c>
       <c r="R89">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S89">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T89">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U89">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="V89">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="W89">
         <v>-1</v>
       </c>
       <c r="X89">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y89">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z89">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA89">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB89">
         <v>-1</v>
       </c>
       <c r="AC89">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8580,7 +8580,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>7581047</v>
+        <v>7581048</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8592,76 +8592,76 @@
         <v>45272.69791666666</v>
       </c>
       <c r="F90" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="G90" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="H90">
         <v>0</v>
       </c>
       <c r="I90">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J90" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K90">
-        <v>6</v>
+        <v>2.25</v>
       </c>
       <c r="L90">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="M90">
-        <v>1.333</v>
+        <v>2.5</v>
       </c>
       <c r="N90">
-        <v>5</v>
+        <v>2.2</v>
       </c>
       <c r="O90">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="P90">
-        <v>1.45</v>
+        <v>2.5</v>
       </c>
       <c r="Q90">
-        <v>1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R90">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S90">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T90">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U90">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="V90">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="W90">
         <v>-1</v>
       </c>
       <c r="X90">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y90">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z90">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA90">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB90">
         <v>-1</v>
       </c>
       <c r="AC90">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8681,7 +8681,7 @@
         <v>45275.69791666666</v>
       </c>
       <c r="F91" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="G91" t="s">
         <v>83</v>
@@ -8859,7 +8859,7 @@
         <v>45282.69791666666</v>
       </c>
       <c r="F93" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G93" t="s">
         <v>29</v>
@@ -8936,7 +8936,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>7618668</v>
+        <v>7618670</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8948,76 +8948,76 @@
         <v>45283.5</v>
       </c>
       <c r="F94" t="s">
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="G94" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J94" t="s">
         <v>90</v>
       </c>
       <c r="K94">
-        <v>2.1</v>
+        <v>2.75</v>
       </c>
       <c r="L94">
         <v>3.4</v>
       </c>
       <c r="M94">
-        <v>2.9</v>
+        <v>2.2</v>
       </c>
       <c r="N94">
-        <v>2.15</v>
+        <v>2.45</v>
       </c>
       <c r="O94">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P94">
-        <v>2.9</v>
+        <v>2.5</v>
       </c>
       <c r="Q94">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R94">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S94">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T94">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U94">
+        <v>1.975</v>
+      </c>
+      <c r="V94">
         <v>1.825</v>
       </c>
-      <c r="V94">
-        <v>1.975</v>
-      </c>
       <c r="W94">
         <v>-1</v>
       </c>
       <c r="X94">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="Y94">
         <v>-1</v>
       </c>
       <c r="Z94">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA94">
-        <v>0.425</v>
+        <v>-0</v>
       </c>
       <c r="AB94">
         <v>-1</v>
       </c>
       <c r="AC94">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="95" spans="1:29">
@@ -9025,7 +9025,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>7618670</v>
+        <v>7618668</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -9037,76 +9037,76 @@
         <v>45283.5</v>
       </c>
       <c r="F95" t="s">
-        <v>66</v>
+        <v>34</v>
       </c>
       <c r="G95" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="H95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J95" t="s">
         <v>90</v>
       </c>
       <c r="K95">
-        <v>2.75</v>
+        <v>2.1</v>
       </c>
       <c r="L95">
         <v>3.4</v>
       </c>
       <c r="M95">
+        <v>2.9</v>
+      </c>
+      <c r="N95">
+        <v>2.15</v>
+      </c>
+      <c r="O95">
+        <v>3.2</v>
+      </c>
+      <c r="P95">
+        <v>2.9</v>
+      </c>
+      <c r="Q95">
+        <v>-0.25</v>
+      </c>
+      <c r="R95">
+        <v>1.95</v>
+      </c>
+      <c r="S95">
+        <v>1.85</v>
+      </c>
+      <c r="T95">
+        <v>2.5</v>
+      </c>
+      <c r="U95">
+        <v>1.825</v>
+      </c>
+      <c r="V95">
+        <v>1.975</v>
+      </c>
+      <c r="W95">
+        <v>-1</v>
+      </c>
+      <c r="X95">
         <v>2.2</v>
       </c>
-      <c r="N95">
-        <v>2.45</v>
-      </c>
-      <c r="O95">
-        <v>3.3</v>
-      </c>
-      <c r="P95">
-        <v>2.5</v>
-      </c>
-      <c r="Q95">
-        <v>0</v>
-      </c>
-      <c r="R95">
-        <v>1.875</v>
-      </c>
-      <c r="S95">
-        <v>1.925</v>
-      </c>
-      <c r="T95">
-        <v>2.75</v>
-      </c>
-      <c r="U95">
-        <v>1.975</v>
-      </c>
-      <c r="V95">
-        <v>1.825</v>
-      </c>
-      <c r="W95">
-        <v>-1</v>
-      </c>
-      <c r="X95">
-        <v>2.3</v>
-      </c>
       <c r="Y95">
         <v>-1</v>
       </c>
       <c r="Z95">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA95">
-        <v>-0</v>
+        <v>0.425</v>
       </c>
       <c r="AB95">
         <v>-1</v>
       </c>
       <c r="AC95">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -9126,7 +9126,7 @@
         <v>45286.41666666666</v>
       </c>
       <c r="F96" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="G96" t="s">
         <v>32</v>
@@ -9215,7 +9215,7 @@
         <v>45286.41666666666</v>
       </c>
       <c r="F97" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G97" t="s">
         <v>34</v>
@@ -9304,7 +9304,7 @@
         <v>45287.69791666666</v>
       </c>
       <c r="F98" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G98" t="s">
         <v>33</v>
@@ -9396,7 +9396,7 @@
         <v>69</v>
       </c>
       <c r="G99" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H99">
         <v>1</v>
@@ -9485,7 +9485,7 @@
         <v>70</v>
       </c>
       <c r="G100" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H100">
         <v>2</v>
@@ -9559,7 +9559,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>7639915</v>
+        <v>7640085</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9574,46 +9574,46 @@
         <v>73</v>
       </c>
       <c r="G101" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="H101">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I101">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J101" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K101">
-        <v>1.3</v>
+        <v>2.25</v>
       </c>
       <c r="L101">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M101">
-        <v>7</v>
+        <v>2.4</v>
       </c>
       <c r="N101">
-        <v>1.4</v>
+        <v>2.15</v>
       </c>
       <c r="O101">
-        <v>4.75</v>
+        <v>3.8</v>
       </c>
       <c r="P101">
-        <v>5.5</v>
+        <v>2.55</v>
       </c>
       <c r="Q101">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R101">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S101">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T101">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U101">
         <v>1.95</v>
@@ -9622,25 +9622,25 @@
         <v>1.85</v>
       </c>
       <c r="W101">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X101">
         <v>-1</v>
       </c>
       <c r="Y101">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="Z101">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA101">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB101">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AC101">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9648,7 +9648,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>7640085</v>
+        <v>7639915</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9663,46 +9663,46 @@
         <v>74</v>
       </c>
       <c r="G102" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H102">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I102">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J102" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K102">
-        <v>2.25</v>
+        <v>1.3</v>
       </c>
       <c r="L102">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M102">
-        <v>2.4</v>
+        <v>7</v>
       </c>
       <c r="N102">
-        <v>2.15</v>
+        <v>1.4</v>
       </c>
       <c r="O102">
-        <v>3.8</v>
+        <v>4.75</v>
       </c>
       <c r="P102">
-        <v>2.55</v>
+        <v>5.5</v>
       </c>
       <c r="Q102">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R102">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S102">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T102">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U102">
         <v>1.95</v>
@@ -9711,25 +9711,25 @@
         <v>1.85</v>
       </c>
       <c r="W102">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X102">
         <v>-1</v>
       </c>
       <c r="Y102">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="Z102">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA102">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB102">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AC102">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -9915,7 +9915,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>7649184</v>
+        <v>7649124</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9927,58 +9927,58 @@
         <v>45292.5</v>
       </c>
       <c r="F105" t="s">
-        <v>66</v>
+        <v>30</v>
       </c>
       <c r="G105" t="s">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I105">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J105" t="s">
         <v>89</v>
       </c>
       <c r="K105">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="L105">
         <v>3.75</v>
       </c>
       <c r="M105">
-        <v>3.4</v>
+        <v>2.25</v>
       </c>
       <c r="N105">
-        <v>1.7</v>
+        <v>2.55</v>
       </c>
       <c r="O105">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P105">
-        <v>3.75</v>
+        <v>2.25</v>
       </c>
       <c r="Q105">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R105">
-        <v>1.95</v>
+        <v>1.725</v>
       </c>
       <c r="S105">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T105">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U105">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="V105">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W105">
-        <v>0.7</v>
+        <v>1.55</v>
       </c>
       <c r="X105">
         <v>-1</v>
@@ -9987,16 +9987,16 @@
         <v>-1</v>
       </c>
       <c r="Z105">
-        <v>0.95</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA105">
         <v>-1</v>
       </c>
       <c r="AB105">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC105">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -10004,7 +10004,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>7649124</v>
+        <v>7649195</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -10016,76 +10016,76 @@
         <v>45292.5</v>
       </c>
       <c r="F106" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="G106" t="s">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="H106">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I106">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J106" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K106">
+        <v>2.4</v>
+      </c>
+      <c r="L106">
+        <v>3.5</v>
+      </c>
+      <c r="M106">
+        <v>2.4</v>
+      </c>
+      <c r="N106">
+        <v>2.4</v>
+      </c>
+      <c r="O106">
+        <v>3.5</v>
+      </c>
+      <c r="P106">
+        <v>2.4</v>
+      </c>
+      <c r="Q106">
+        <v>0</v>
+      </c>
+      <c r="R106">
+        <v>1.9</v>
+      </c>
+      <c r="S106">
+        <v>1.9</v>
+      </c>
+      <c r="T106">
+        <v>2.75</v>
+      </c>
+      <c r="U106">
+        <v>1.9</v>
+      </c>
+      <c r="V106">
+        <v>1.9</v>
+      </c>
+      <c r="W106">
+        <v>-1</v>
+      </c>
+      <c r="X106">
         <v>2.5</v>
       </c>
-      <c r="L106">
-        <v>3.75</v>
-      </c>
-      <c r="M106">
-        <v>2.25</v>
-      </c>
-      <c r="N106">
-        <v>2.55</v>
-      </c>
-      <c r="O106">
-        <v>3.75</v>
-      </c>
-      <c r="P106">
-        <v>2.25</v>
-      </c>
-      <c r="Q106">
-        <v>0.25</v>
-      </c>
-      <c r="R106">
-        <v>1.725</v>
-      </c>
-      <c r="S106">
-        <v>1.975</v>
-      </c>
-      <c r="T106">
-        <v>3.25</v>
-      </c>
-      <c r="U106">
-        <v>1.975</v>
-      </c>
-      <c r="V106">
-        <v>1.825</v>
-      </c>
-      <c r="W106">
-        <v>1.55</v>
-      </c>
-      <c r="X106">
-        <v>-1</v>
-      </c>
       <c r="Y106">
         <v>-1</v>
       </c>
       <c r="Z106">
-        <v>0.7250000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA106">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB106">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC106">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="107" spans="1:29">
@@ -10093,7 +10093,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>7649195</v>
+        <v>7649184</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -10105,76 +10105,76 @@
         <v>45292.5</v>
       </c>
       <c r="F107" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="G107" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107">
         <v>0</v>
       </c>
       <c r="J107" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K107">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="L107">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M107">
-        <v>2.4</v>
+        <v>3.4</v>
       </c>
       <c r="N107">
-        <v>2.4</v>
+        <v>1.7</v>
       </c>
       <c r="O107">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P107">
-        <v>2.4</v>
+        <v>3.75</v>
       </c>
       <c r="Q107">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R107">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S107">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T107">
         <v>2.75</v>
       </c>
       <c r="U107">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="V107">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W107">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X107">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y107">
         <v>-1</v>
       </c>
       <c r="Z107">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA107">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB107">
         <v>-1</v>
       </c>
       <c r="AC107">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="108" spans="1:29">
@@ -10182,7 +10182,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>7649295</v>
+        <v>7649294</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10194,76 +10194,76 @@
         <v>45292.5</v>
       </c>
       <c r="F108" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="G108" t="s">
-        <v>87</v>
+        <v>36</v>
       </c>
       <c r="H108">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I108">
         <v>2</v>
       </c>
       <c r="J108" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K108">
-        <v>1.909</v>
+        <v>2.25</v>
       </c>
       <c r="L108">
         <v>3.6</v>
       </c>
       <c r="M108">
-        <v>3.2</v>
+        <v>2.55</v>
       </c>
       <c r="N108">
-        <v>1.909</v>
+        <v>1.65</v>
       </c>
       <c r="O108">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P108">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="Q108">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R108">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S108">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T108">
         <v>2.75</v>
       </c>
       <c r="U108">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="V108">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W108">
         <v>-1</v>
       </c>
       <c r="X108">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y108">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z108">
         <v>-1</v>
       </c>
       <c r="AA108">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AB108">
-        <v>0.4125</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC108">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10271,7 +10271,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>7649294</v>
+        <v>7649295</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10283,76 +10283,76 @@
         <v>45292.5</v>
       </c>
       <c r="F109" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="G109" t="s">
-        <v>36</v>
+        <v>87</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I109">
         <v>2</v>
       </c>
       <c r="J109" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K109">
-        <v>2.25</v>
+        <v>1.909</v>
       </c>
       <c r="L109">
         <v>3.6</v>
       </c>
       <c r="M109">
-        <v>2.55</v>
+        <v>3.2</v>
       </c>
       <c r="N109">
-        <v>1.65</v>
+        <v>1.909</v>
       </c>
       <c r="O109">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P109">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="Q109">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R109">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S109">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T109">
         <v>2.75</v>
       </c>
       <c r="U109">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="V109">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W109">
         <v>-1</v>
       </c>
       <c r="X109">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y109">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z109">
         <v>-1</v>
       </c>
       <c r="AA109">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AB109">
-        <v>0.7749999999999999</v>
+        <v>0.4125</v>
       </c>
       <c r="AC109">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="110" spans="1:29">
@@ -10375,7 +10375,7 @@
         <v>41</v>
       </c>
       <c r="G110" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H110">
         <v>0</v>
@@ -10464,7 +10464,7 @@
         <v>77</v>
       </c>
       <c r="G111" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H111">
         <v>0</v>
@@ -10550,7 +10550,7 @@
         <v>45298.5</v>
       </c>
       <c r="F112" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G112" t="s">
         <v>31</v>
@@ -10627,7 +10627,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>7674972</v>
+        <v>7675037</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10639,76 +10639,76 @@
         <v>45300.69791666666</v>
       </c>
       <c r="F113" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="G113" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="H113">
         <v>1</v>
       </c>
       <c r="I113">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J113" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K113">
+        <v>2.25</v>
+      </c>
+      <c r="L113">
+        <v>3.5</v>
+      </c>
+      <c r="M113">
+        <v>2.6</v>
+      </c>
+      <c r="N113">
         <v>2.375</v>
       </c>
-      <c r="L113">
-        <v>3.6</v>
-      </c>
-      <c r="M113">
-        <v>2.375</v>
-      </c>
-      <c r="N113">
-        <v>2.2</v>
-      </c>
       <c r="O113">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P113">
-        <v>2.55</v>
+        <v>2.45</v>
       </c>
       <c r="Q113">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R113">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S113">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T113">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U113">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="V113">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W113">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X113">
         <v>-1</v>
       </c>
       <c r="Y113">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="Z113">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA113">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB113">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC113">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="114" spans="1:29">
@@ -10716,7 +10716,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>7674710</v>
+        <v>7674983</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10728,76 +10728,76 @@
         <v>45300.69791666666</v>
       </c>
       <c r="F114" t="s">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="G114" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="H114">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I114">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J114" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K114">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="L114">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="M114">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="N114">
-        <v>1.181</v>
+        <v>1.6</v>
       </c>
       <c r="O114">
-        <v>6.5</v>
+        <v>3.8</v>
       </c>
       <c r="P114">
-        <v>10</v>
+        <v>4.333</v>
       </c>
       <c r="Q114">
-        <v>-2.25</v>
+        <v>-1</v>
       </c>
       <c r="R114">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S114">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T114">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="U114">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V114">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="W114">
-        <v>0.181</v>
+        <v>-1</v>
       </c>
       <c r="X114">
         <v>-1</v>
       </c>
       <c r="Y114">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Z114">
         <v>-1</v>
       </c>
       <c r="AA114">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AB114">
         <v>-1</v>
       </c>
       <c r="AC114">
-        <v>0.7749999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="115" spans="1:29">
@@ -10820,7 +10820,7 @@
         <v>40</v>
       </c>
       <c r="G115" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H115">
         <v>0</v>
@@ -10894,7 +10894,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>7674983</v>
+        <v>7674972</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10906,13 +10906,13 @@
         <v>45300.69791666666</v>
       </c>
       <c r="F116" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G116" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I116">
         <v>2</v>
@@ -10921,25 +10921,25 @@
         <v>91</v>
       </c>
       <c r="K116">
-        <v>1.5</v>
+        <v>2.375</v>
       </c>
       <c r="L116">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M116">
-        <v>5</v>
+        <v>2.375</v>
       </c>
       <c r="N116">
-        <v>1.6</v>
+        <v>2.2</v>
       </c>
       <c r="O116">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P116">
-        <v>4.333</v>
+        <v>2.55</v>
       </c>
       <c r="Q116">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R116">
         <v>2</v>
@@ -10963,7 +10963,7 @@
         <v>-1</v>
       </c>
       <c r="Y116">
-        <v>3.333</v>
+        <v>1.55</v>
       </c>
       <c r="Z116">
         <v>-1</v>
@@ -10972,10 +10972,10 @@
         <v>0.8</v>
       </c>
       <c r="AB116">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC116">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="117" spans="1:29">
@@ -10983,7 +10983,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>7675037</v>
+        <v>7674710</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10995,10 +10995,10 @@
         <v>45300.69791666666</v>
       </c>
       <c r="F117" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="G117" t="s">
-        <v>85</v>
+        <v>43</v>
       </c>
       <c r="H117">
         <v>1</v>
@@ -11010,43 +11010,43 @@
         <v>89</v>
       </c>
       <c r="K117">
-        <v>2.25</v>
+        <v>1.2</v>
       </c>
       <c r="L117">
-        <v>3.5</v>
+        <v>6.5</v>
       </c>
       <c r="M117">
-        <v>2.6</v>
+        <v>8</v>
       </c>
       <c r="N117">
-        <v>2.375</v>
+        <v>1.181</v>
       </c>
       <c r="O117">
-        <v>3.5</v>
+        <v>6.5</v>
       </c>
       <c r="P117">
-        <v>2.45</v>
+        <v>10</v>
       </c>
       <c r="Q117">
-        <v>0</v>
+        <v>-2.25</v>
       </c>
       <c r="R117">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S117">
+        <v>1.85</v>
+      </c>
+      <c r="T117">
+        <v>3.75</v>
+      </c>
+      <c r="U117">
         <v>1.925</v>
       </c>
-      <c r="T117">
-        <v>2.75</v>
-      </c>
-      <c r="U117">
-        <v>1.75</v>
-      </c>
       <c r="V117">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="W117">
-        <v>1.375</v>
+        <v>0.181</v>
       </c>
       <c r="X117">
         <v>-1</v>
@@ -11055,16 +11055,16 @@
         <v>-1</v>
       </c>
       <c r="Z117">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA117">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB117">
         <v>-1</v>
       </c>
       <c r="AC117">
-        <v>0.95</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="118" spans="1:29">
@@ -11072,7 +11072,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>7679042</v>
+        <v>7679052</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -11084,76 +11084,76 @@
         <v>45301.69791666666</v>
       </c>
       <c r="F118" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G118" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J118" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K118">
-        <v>1.571</v>
+        <v>2.5</v>
       </c>
       <c r="L118">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M118">
-        <v>4.333</v>
+        <v>2.25</v>
       </c>
       <c r="N118">
-        <v>1.65</v>
+        <v>2.55</v>
       </c>
       <c r="O118">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P118">
-        <v>4.2</v>
+        <v>2.25</v>
       </c>
       <c r="Q118">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R118">
+        <v>1.725</v>
+      </c>
+      <c r="S118">
+        <v>1.975</v>
+      </c>
+      <c r="T118">
+        <v>3</v>
+      </c>
+      <c r="U118">
         <v>1.85</v>
-      </c>
-      <c r="S118">
-        <v>1.95</v>
-      </c>
-      <c r="T118">
-        <v>2.75</v>
-      </c>
-      <c r="U118">
-        <v>1.75</v>
       </c>
       <c r="V118">
         <v>1.95</v>
       </c>
       <c r="W118">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X118">
         <v>-1</v>
       </c>
       <c r="Y118">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z118">
+        <v>-1</v>
+      </c>
+      <c r="AA118">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB118">
         <v>0.8500000000000001</v>
       </c>
-      <c r="AA118">
-        <v>-1</v>
-      </c>
-      <c r="AB118">
-        <v>-1</v>
-      </c>
       <c r="AC118">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="119" spans="1:29">
@@ -11161,7 +11161,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>7679052</v>
+        <v>7679042</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11173,76 +11173,76 @@
         <v>45301.69791666666</v>
       </c>
       <c r="F119" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G119" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119">
+        <v>0</v>
+      </c>
+      <c r="J119" t="s">
+        <v>89</v>
+      </c>
+      <c r="K119">
+        <v>1.571</v>
+      </c>
+      <c r="L119">
         <v>4</v>
       </c>
-      <c r="J119" t="s">
-        <v>91</v>
-      </c>
-      <c r="K119">
-        <v>2.5</v>
-      </c>
-      <c r="L119">
+      <c r="M119">
+        <v>4.333</v>
+      </c>
+      <c r="N119">
+        <v>1.65</v>
+      </c>
+      <c r="O119">
         <v>3.75</v>
       </c>
-      <c r="M119">
-        <v>2.25</v>
-      </c>
-      <c r="N119">
-        <v>2.55</v>
-      </c>
-      <c r="O119">
-        <v>3.6</v>
-      </c>
       <c r="P119">
-        <v>2.25</v>
+        <v>4.2</v>
       </c>
       <c r="Q119">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R119">
-        <v>1.725</v>
+        <v>1.85</v>
       </c>
       <c r="S119">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T119">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U119">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="V119">
         <v>1.95</v>
       </c>
       <c r="W119">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X119">
         <v>-1</v>
       </c>
       <c r="Y119">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z119">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA119">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB119">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC119">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -11250,7 +11250,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>7691319</v>
+        <v>7691322</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11262,76 +11262,76 @@
         <v>45304.5</v>
       </c>
       <c r="F120" t="s">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="G120" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="H120">
         <v>2</v>
       </c>
       <c r="I120">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J120" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K120">
-        <v>4.75</v>
+        <v>1.75</v>
       </c>
       <c r="L120">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="M120">
-        <v>1.5</v>
+        <v>3.75</v>
       </c>
       <c r="N120">
-        <v>5.25</v>
+        <v>1.75</v>
       </c>
       <c r="O120">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="P120">
-        <v>1.363</v>
+        <v>3.75</v>
       </c>
       <c r="Q120">
-        <v>1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R120">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S120">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T120">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U120">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V120">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W120">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X120">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Y120">
         <v>-1</v>
       </c>
       <c r="Z120">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AA120">
         <v>-1</v>
       </c>
       <c r="AB120">
-        <v>0.95</v>
+        <v>0.4</v>
       </c>
       <c r="AC120">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="121" spans="1:29">
@@ -11339,7 +11339,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>7691318</v>
+        <v>7691319</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11351,76 +11351,76 @@
         <v>45304.5</v>
       </c>
       <c r="F121" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G121" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="H121">
         <v>2</v>
       </c>
       <c r="I121">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J121" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K121">
-        <v>1.95</v>
+        <v>4.75</v>
       </c>
       <c r="L121">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="M121">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="N121">
-        <v>1.95</v>
+        <v>5.25</v>
       </c>
       <c r="O121">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="P121">
-        <v>3</v>
+        <v>1.363</v>
       </c>
       <c r="Q121">
-        <v>-0.25</v>
+        <v>1.5</v>
       </c>
       <c r="R121">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="S121">
         <v>1.95</v>
       </c>
       <c r="T121">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U121">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V121">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W121">
+        <v>-1</v>
+      </c>
+      <c r="X121">
+        <v>4</v>
+      </c>
+      <c r="Y121">
+        <v>-1</v>
+      </c>
+      <c r="Z121">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AA121">
+        <v>-1</v>
+      </c>
+      <c r="AB121">
         <v>0.95</v>
       </c>
-      <c r="X121">
-        <v>-1</v>
-      </c>
-      <c r="Y121">
-        <v>-1</v>
-      </c>
-      <c r="Z121">
-        <v>0.75</v>
-      </c>
-      <c r="AA121">
-        <v>-1</v>
-      </c>
-      <c r="AB121">
-        <v>0</v>
-      </c>
       <c r="AC121">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="122" spans="1:29">
@@ -11428,7 +11428,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>7691322</v>
+        <v>7691318</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11440,10 +11440,10 @@
         <v>45304.5</v>
       </c>
       <c r="F122" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="G122" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H122">
         <v>2</v>
@@ -11455,61 +11455,61 @@
         <v>89</v>
       </c>
       <c r="K122">
+        <v>1.95</v>
+      </c>
+      <c r="L122">
+        <v>3.75</v>
+      </c>
+      <c r="M122">
+        <v>3</v>
+      </c>
+      <c r="N122">
+        <v>1.95</v>
+      </c>
+      <c r="O122">
+        <v>3.75</v>
+      </c>
+      <c r="P122">
+        <v>3</v>
+      </c>
+      <c r="Q122">
+        <v>-0.25</v>
+      </c>
+      <c r="R122">
         <v>1.75</v>
       </c>
-      <c r="L122">
-        <v>3.6</v>
-      </c>
-      <c r="M122">
-        <v>3.75</v>
-      </c>
-      <c r="N122">
-        <v>1.75</v>
-      </c>
-      <c r="O122">
-        <v>3.6</v>
-      </c>
-      <c r="P122">
-        <v>3.75</v>
-      </c>
-      <c r="Q122">
-        <v>-0.5</v>
-      </c>
-      <c r="R122">
-        <v>1.8</v>
-      </c>
       <c r="S122">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T122">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U122">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V122">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W122">
+        <v>0.95</v>
+      </c>
+      <c r="X122">
+        <v>-1</v>
+      </c>
+      <c r="Y122">
+        <v>-1</v>
+      </c>
+      <c r="Z122">
         <v>0.75</v>
       </c>
-      <c r="X122">
-        <v>-1</v>
-      </c>
-      <c r="Y122">
-        <v>-1</v>
-      </c>
-      <c r="Z122">
-        <v>0.8</v>
-      </c>
       <c r="AA122">
         <v>-1</v>
       </c>
       <c r="AB122">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AC122">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="123" spans="1:29">
@@ -11529,7 +11529,7 @@
         <v>45307.69791666666</v>
       </c>
       <c r="F123" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G123" t="s">
         <v>88</v>
@@ -11606,7 +11606,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>7725153</v>
+        <v>7719544</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11618,76 +11618,76 @@
         <v>45311.5</v>
       </c>
       <c r="F124" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="G124" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I124">
         <v>0</v>
       </c>
       <c r="J124" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K124">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="L124">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M124">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="N124">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="O124">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P124">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="Q124">
         <v>-0.25</v>
       </c>
       <c r="R124">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="S124">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="T124">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U124">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="V124">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W124">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X124">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y124">
         <v>-1</v>
       </c>
       <c r="Z124">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AA124">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
       <c r="AB124">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC124">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11695,7 +11695,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>7719604</v>
+        <v>7725153</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11707,37 +11707,37 @@
         <v>45311.5</v>
       </c>
       <c r="F125" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="G125" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="H125">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I125">
         <v>0</v>
       </c>
       <c r="J125" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K125">
         <v>2.25</v>
       </c>
       <c r="L125">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M125">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="N125">
         <v>2.25</v>
       </c>
       <c r="O125">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P125">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="Q125">
         <v>-0.25</v>
@@ -11752,31 +11752,31 @@
         <v>3</v>
       </c>
       <c r="U125">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="V125">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W125">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X125">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y125">
         <v>-1</v>
       </c>
       <c r="Z125">
-        <v>1.05</v>
+        <v>-0.5</v>
       </c>
       <c r="AA125">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
       <c r="AB125">
         <v>-1</v>
       </c>
       <c r="AC125">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -11784,7 +11784,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>7719544</v>
+        <v>7719604</v>
       </c>
       <c r="C126" t="s">
         <v>28</v>
@@ -11796,13 +11796,13 @@
         <v>45311.5</v>
       </c>
       <c r="F126" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="G126" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="H126">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I126">
         <v>0</v>
@@ -11811,61 +11811,61 @@
         <v>89</v>
       </c>
       <c r="K126">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="L126">
         <v>4</v>
       </c>
       <c r="M126">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="N126">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="O126">
         <v>4</v>
       </c>
       <c r="P126">
-        <v>2.7</v>
+        <v>2.45</v>
       </c>
       <c r="Q126">
         <v>-0.25</v>
       </c>
       <c r="R126">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="S126">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="T126">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U126">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V126">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W126">
+        <v>1.25</v>
+      </c>
+      <c r="X126">
+        <v>-1</v>
+      </c>
+      <c r="Y126">
+        <v>-1</v>
+      </c>
+      <c r="Z126">
         <v>1.05</v>
       </c>
-      <c r="X126">
-        <v>-1</v>
-      </c>
-      <c r="Y126">
-        <v>-1</v>
-      </c>
-      <c r="Z126">
-        <v>0.875</v>
-      </c>
       <c r="AA126">
         <v>-1</v>
       </c>
       <c r="AB126">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC126">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="127" spans="1:29">
@@ -11885,10 +11885,10 @@
         <v>45311.5</v>
       </c>
       <c r="F127" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G127" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H127">
         <v>0</v>
@@ -12066,7 +12066,7 @@
         <v>31</v>
       </c>
       <c r="G129" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H129">
         <v>0</v>
@@ -12155,7 +12155,7 @@
         <v>34</v>
       </c>
       <c r="G130" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H130">
         <v>1</v>
@@ -12318,7 +12318,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>7761811</v>
+        <v>7761953</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12330,76 +12330,76 @@
         <v>45321.69791666666</v>
       </c>
       <c r="F132" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G132" t="s">
-        <v>79</v>
+        <v>32</v>
       </c>
       <c r="H132">
         <v>0</v>
       </c>
       <c r="I132">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J132" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K132">
-        <v>2.375</v>
+        <v>2.25</v>
       </c>
       <c r="L132">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M132">
-        <v>2.375</v>
+        <v>2.5</v>
       </c>
       <c r="N132">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="O132">
         <v>3.6</v>
       </c>
       <c r="P132">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="Q132">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R132">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S132">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T132">
         <v>2.75</v>
       </c>
       <c r="U132">
+        <v>1.75</v>
+      </c>
+      <c r="V132">
         <v>1.95</v>
       </c>
-      <c r="V132">
-        <v>1.85</v>
-      </c>
       <c r="W132">
         <v>-1</v>
       </c>
       <c r="X132">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y132">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z132">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA132">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB132">
         <v>-1</v>
       </c>
       <c r="AC132">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="133" spans="1:29">
@@ -12422,7 +12422,7 @@
         <v>69</v>
       </c>
       <c r="G133" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H133">
         <v>1</v>
@@ -12496,7 +12496,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>7761953</v>
+        <v>7761811</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12511,73 +12511,73 @@
         <v>62</v>
       </c>
       <c r="G134" t="s">
-        <v>32</v>
+        <v>79</v>
       </c>
       <c r="H134">
         <v>0</v>
       </c>
       <c r="I134">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J134" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K134">
-        <v>2.25</v>
+        <v>2.375</v>
       </c>
       <c r="L134">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M134">
-        <v>2.5</v>
+        <v>2.375</v>
       </c>
       <c r="N134">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="O134">
         <v>3.6</v>
       </c>
       <c r="P134">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="Q134">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R134">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S134">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T134">
         <v>2.75</v>
       </c>
       <c r="U134">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="V134">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="W134">
         <v>-1</v>
       </c>
       <c r="X134">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y134">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z134">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA134">
-        <v>-0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB134">
         <v>-1</v>
       </c>
       <c r="AC134">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -12689,7 +12689,7 @@
         <v>80</v>
       </c>
       <c r="G136" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H136">
         <v>3</v>
@@ -12778,7 +12778,7 @@
         <v>29</v>
       </c>
       <c r="G137" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H137">
         <v>1</v>
@@ -13042,7 +13042,7 @@
         <v>45328.69791666666</v>
       </c>
       <c r="F140" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G140" t="s">
         <v>80</v>
@@ -13220,7 +13220,7 @@
         <v>45332.5</v>
       </c>
       <c r="F142" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G142" t="s">
         <v>86</v>
@@ -13312,7 +13312,7 @@
         <v>75</v>
       </c>
       <c r="G143" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H143">
         <v>3</v>
@@ -13386,7 +13386,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>7844461</v>
+        <v>7844462</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13398,76 +13398,76 @@
         <v>45339.5</v>
       </c>
       <c r="F144" t="s">
+        <v>40</v>
+      </c>
+      <c r="G144" t="s">
         <v>53</v>
       </c>
-      <c r="G144" t="s">
-        <v>62</v>
-      </c>
       <c r="H144">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I144">
         <v>1</v>
       </c>
       <c r="J144" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K144">
-        <v>1.6</v>
+        <v>2.4</v>
       </c>
       <c r="L144">
         <v>4</v>
       </c>
       <c r="M144">
-        <v>4.2</v>
+        <v>2.25</v>
       </c>
       <c r="N144">
-        <v>1.75</v>
+        <v>2.875</v>
       </c>
       <c r="O144">
         <v>4</v>
       </c>
       <c r="P144">
-        <v>3.4</v>
+        <v>1.95</v>
       </c>
       <c r="Q144">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R144">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S144">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T144">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U144">
+        <v>1.95</v>
+      </c>
+      <c r="V144">
         <v>1.85</v>
       </c>
-      <c r="V144">
-        <v>1.95</v>
-      </c>
       <c r="W144">
         <v>-1</v>
       </c>
       <c r="X144">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y144">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z144">
         <v>-1</v>
       </c>
       <c r="AA144">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AB144">
         <v>-1</v>
       </c>
       <c r="AC144">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="145" spans="1:29">
@@ -13475,7 +13475,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>7844460</v>
+        <v>7844458</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13487,76 +13487,76 @@
         <v>45339.5</v>
       </c>
       <c r="F145" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="G145" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="H145">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I145">
         <v>2</v>
       </c>
       <c r="J145" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K145">
+        <v>3.6</v>
+      </c>
+      <c r="L145">
+        <v>3.6</v>
+      </c>
+      <c r="M145">
         <v>1.8</v>
       </c>
-      <c r="L145">
-        <v>3.8</v>
-      </c>
-      <c r="M145">
-        <v>3.4</v>
-      </c>
       <c r="N145">
-        <v>1.8</v>
+        <v>4.5</v>
       </c>
       <c r="O145">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P145">
-        <v>3.3</v>
+        <v>1.571</v>
       </c>
       <c r="Q145">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="R145">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="S145">
         <v>1.95</v>
       </c>
       <c r="T145">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U145">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V145">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W145">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X145">
         <v>-1</v>
       </c>
       <c r="Y145">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="Z145">
+        <v>-1</v>
+      </c>
+      <c r="AA145">
+        <v>0.95</v>
+      </c>
+      <c r="AB145">
+        <v>-1</v>
+      </c>
+      <c r="AC145">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AA145">
-        <v>-1</v>
-      </c>
-      <c r="AB145">
-        <v>0.8</v>
-      </c>
-      <c r="AC145">
-        <v>-1</v>
       </c>
     </row>
     <row r="146" spans="1:29">
@@ -13564,7 +13564,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>7844457</v>
+        <v>7844461</v>
       </c>
       <c r="C146" t="s">
         <v>28</v>
@@ -13576,19 +13576,19 @@
         <v>45339.5</v>
       </c>
       <c r="F146" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="G146" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="H146">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I146">
         <v>1</v>
       </c>
       <c r="J146" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K146">
         <v>1.6</v>
@@ -13600,16 +13600,16 @@
         <v>4.2</v>
       </c>
       <c r="N146">
-        <v>1.6</v>
+        <v>1.75</v>
       </c>
       <c r="O146">
         <v>4</v>
       </c>
       <c r="P146">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="Q146">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R146">
         <v>1.8</v>
@@ -13618,7 +13618,7 @@
         <v>2</v>
       </c>
       <c r="T146">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U146">
         <v>1.85</v>
@@ -13627,25 +13627,25 @@
         <v>1.95</v>
       </c>
       <c r="W146">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X146">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y146">
         <v>-1</v>
       </c>
       <c r="Z146">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AA146">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AB146">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC146">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="147" spans="1:29">
@@ -13653,7 +13653,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>7844458</v>
+        <v>7844460</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13665,76 +13665,76 @@
         <v>45339.5</v>
       </c>
       <c r="F147" t="s">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="G147" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I147">
         <v>2</v>
       </c>
       <c r="J147" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K147">
-        <v>3.6</v>
+        <v>1.8</v>
       </c>
       <c r="L147">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M147">
+        <v>3.4</v>
+      </c>
+      <c r="N147">
         <v>1.8</v>
       </c>
-      <c r="N147">
-        <v>4.5</v>
-      </c>
       <c r="O147">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P147">
-        <v>1.571</v>
+        <v>3.3</v>
       </c>
       <c r="Q147">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="R147">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="S147">
         <v>1.95</v>
       </c>
       <c r="T147">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U147">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V147">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W147">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X147">
         <v>-1</v>
       </c>
       <c r="Y147">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="Z147">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA147">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB147">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC147">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="148" spans="1:29">
@@ -13742,7 +13742,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>7844459</v>
+        <v>7844457</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13754,58 +13754,58 @@
         <v>45339.5</v>
       </c>
       <c r="F148" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="G148" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="H148">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I148">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J148" t="s">
         <v>89</v>
       </c>
       <c r="K148">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="L148">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="M148">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="N148">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="O148">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="P148">
-        <v>5.25</v>
+        <v>4.2</v>
       </c>
       <c r="Q148">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R148">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S148">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T148">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U148">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V148">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W148">
-        <v>0.3999999999999999</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X148">
         <v>-1</v>
@@ -13814,16 +13814,16 @@
         <v>-1</v>
       </c>
       <c r="Z148">
-        <v>0.8999999999999999</v>
+        <v>0.4</v>
       </c>
       <c r="AA148">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB148">
-        <v>0.45</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC148">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="149" spans="1:29">
@@ -13831,7 +13831,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>7844462</v>
+        <v>7844459</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -13843,76 +13843,76 @@
         <v>45339.5</v>
       </c>
       <c r="F149" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G149" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I149">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J149" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K149">
-        <v>2.4</v>
+        <v>1.4</v>
       </c>
       <c r="L149">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M149">
-        <v>2.25</v>
+        <v>5.5</v>
       </c>
       <c r="N149">
-        <v>2.875</v>
+        <v>1.4</v>
       </c>
       <c r="O149">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="P149">
-        <v>1.95</v>
+        <v>5.25</v>
       </c>
       <c r="Q149">
-        <v>0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R149">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="S149">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T149">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U149">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V149">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W149">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X149">
         <v>-1</v>
       </c>
       <c r="Y149">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z149">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA149">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB149">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AC149">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="150" spans="1:29">
@@ -13932,10 +13932,10 @@
         <v>45342.69791666666</v>
       </c>
       <c r="F150" t="s">
+        <v>38</v>
+      </c>
+      <c r="G150" t="s">
         <v>37</v>
-      </c>
-      <c r="G150" t="s">
-        <v>38</v>
       </c>
       <c r="H150">
         <v>1</v>
@@ -14113,7 +14113,7 @@
         <v>31</v>
       </c>
       <c r="G152" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H152">
         <v>2</v>
@@ -14187,7 +14187,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>7915179</v>
+        <v>7915228</v>
       </c>
       <c r="C153" t="s">
         <v>28</v>
@@ -14199,40 +14199,40 @@
         <v>45356.69791666666</v>
       </c>
       <c r="F153" t="s">
-        <v>81</v>
+        <v>44</v>
       </c>
       <c r="G153" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="H153">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I153">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J153" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K153">
-        <v>2.25</v>
+        <v>3.75</v>
       </c>
       <c r="L153">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="M153">
-        <v>2.25</v>
+        <v>1.571</v>
       </c>
       <c r="N153">
-        <v>2.25</v>
+        <v>3.4</v>
       </c>
       <c r="O153">
         <v>4.5</v>
       </c>
       <c r="P153">
-        <v>2.25</v>
+        <v>1.666</v>
       </c>
       <c r="Q153">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R153">
         <v>1.9</v>
@@ -14244,28 +14244,28 @@
         <v>3</v>
       </c>
       <c r="U153">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V153">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W153">
         <v>-1</v>
       </c>
       <c r="X153">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y153">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z153">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA153">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB153">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AC153">
         <v>-1</v>
@@ -14288,7 +14288,7 @@
         <v>45356.69791666666</v>
       </c>
       <c r="F154" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="G154" t="s">
         <v>86</v>
@@ -14365,7 +14365,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>7915177</v>
+        <v>7915178</v>
       </c>
       <c r="C155" t="s">
         <v>28</v>
@@ -14377,76 +14377,76 @@
         <v>45356.69791666666</v>
       </c>
       <c r="F155" t="s">
-        <v>29</v>
+        <v>80</v>
       </c>
       <c r="G155" t="s">
-        <v>53</v>
+        <v>85</v>
       </c>
       <c r="H155">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I155">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J155" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K155">
-        <v>1.8</v>
+        <v>2.6</v>
       </c>
       <c r="L155">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="M155">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="N155">
-        <v>1.85</v>
+        <v>2.5</v>
       </c>
       <c r="O155">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="P155">
-        <v>2.875</v>
+        <v>2.1</v>
       </c>
       <c r="Q155">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R155">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S155">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T155">
         <v>3</v>
       </c>
       <c r="U155">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V155">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W155">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X155">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y155">
         <v>-1</v>
       </c>
       <c r="Z155">
-        <v>0.925</v>
+        <v>0.4125</v>
       </c>
       <c r="AA155">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB155">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC155">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="156" spans="1:29">
@@ -14454,7 +14454,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>7915178</v>
+        <v>7915177</v>
       </c>
       <c r="C156" t="s">
         <v>28</v>
@@ -14466,76 +14466,76 @@
         <v>45356.69791666666</v>
       </c>
       <c r="F156" t="s">
-        <v>80</v>
+        <v>29</v>
       </c>
       <c r="G156" t="s">
-        <v>85</v>
+        <v>52</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I156">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J156" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K156">
-        <v>2.6</v>
+        <v>1.8</v>
       </c>
       <c r="L156">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M156">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="N156">
-        <v>2.5</v>
+        <v>1.85</v>
       </c>
       <c r="O156">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="P156">
-        <v>2.1</v>
+        <v>2.875</v>
       </c>
       <c r="Q156">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R156">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S156">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T156">
         <v>3</v>
       </c>
       <c r="U156">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V156">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W156">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X156">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y156">
         <v>-1</v>
       </c>
       <c r="Z156">
-        <v>0.4125</v>
+        <v>0.925</v>
       </c>
       <c r="AA156">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB156">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC156">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="157" spans="1:29">
@@ -14543,7 +14543,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>7915228</v>
+        <v>7915227</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14555,73 +14555,73 @@
         <v>45356.69791666666</v>
       </c>
       <c r="F157" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G157" t="s">
-        <v>31</v>
+        <v>73</v>
       </c>
       <c r="H157">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I157">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J157" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K157">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="L157">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="M157">
-        <v>1.571</v>
+        <v>1.8</v>
       </c>
       <c r="N157">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="O157">
         <v>4.5</v>
       </c>
       <c r="P157">
-        <v>1.666</v>
+        <v>1.8</v>
       </c>
       <c r="Q157">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R157">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S157">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T157">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U157">
+        <v>1.85</v>
+      </c>
+      <c r="V157">
         <v>1.95</v>
       </c>
-      <c r="V157">
-        <v>1.85</v>
-      </c>
       <c r="W157">
         <v>-1</v>
       </c>
       <c r="X157">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y157">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z157">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA157">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB157">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC157">
         <v>-1</v>
@@ -14632,7 +14632,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>7915227</v>
+        <v>7915179</v>
       </c>
       <c r="C158" t="s">
         <v>28</v>
@@ -14644,55 +14644,55 @@
         <v>45356.69791666666</v>
       </c>
       <c r="F158" t="s">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="G158" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I158">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J158" t="s">
         <v>91</v>
       </c>
       <c r="K158">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="L158">
         <v>4.5</v>
       </c>
       <c r="M158">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="N158">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="O158">
         <v>4.5</v>
       </c>
       <c r="P158">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="Q158">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R158">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S158">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T158">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U158">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V158">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W158">
         <v>-1</v>
@@ -14701,19 +14701,93 @@
         <v>-1</v>
       </c>
       <c r="Y158">
-        <v>0.8</v>
+        <v>1.25</v>
       </c>
       <c r="Z158">
         <v>-1</v>
       </c>
       <c r="AA158">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB158">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AC158">
         <v>-1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:29">
+      <c r="A159" s="1">
+        <v>157</v>
+      </c>
+      <c r="B159">
+        <v>7934622</v>
+      </c>
+      <c r="C159" t="s">
+        <v>28</v>
+      </c>
+      <c r="D159" t="s">
+        <v>28</v>
+      </c>
+      <c r="E159" s="2">
+        <v>45360.5</v>
+      </c>
+      <c r="F159" t="s">
+        <v>56</v>
+      </c>
+      <c r="G159" t="s">
+        <v>76</v>
+      </c>
+      <c r="K159">
+        <v>2.1</v>
+      </c>
+      <c r="L159">
+        <v>3.5</v>
+      </c>
+      <c r="M159">
+        <v>2.875</v>
+      </c>
+      <c r="N159">
+        <v>2.1</v>
+      </c>
+      <c r="O159">
+        <v>3.5</v>
+      </c>
+      <c r="P159">
+        <v>2.875</v>
+      </c>
+      <c r="Q159">
+        <v>-0.25</v>
+      </c>
+      <c r="R159">
+        <v>1.9</v>
+      </c>
+      <c r="S159">
+        <v>1.9</v>
+      </c>
+      <c r="T159">
+        <v>2.75</v>
+      </c>
+      <c r="U159">
+        <v>1.775</v>
+      </c>
+      <c r="V159">
+        <v>2.025</v>
+      </c>
+      <c r="W159">
+        <v>0</v>
+      </c>
+      <c r="X159">
+        <v>0</v>
+      </c>
+      <c r="Y159">
+        <v>0</v>
+      </c>
+      <c r="Z159">
+        <v>0</v>
+      </c>
+      <c r="AA159">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/England Northern League Division One/England Northern League Division One.xlsx
+++ b/England Northern League Division One/England Northern League Division One.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="92">
   <si>
     <t>id</t>
   </si>
@@ -115,58 +115,58 @@
     <t>Loughborough Dynamo</t>
   </si>
   <si>
-    <t>Widnes</t>
-  </si>
-  <si>
     <t>Corby</t>
   </si>
   <si>
     <t>Cleethorpes Town</t>
   </si>
   <si>
+    <t>Widnes</t>
+  </si>
+  <si>
     <t>Coleshill Town</t>
+  </si>
+  <si>
+    <t>Runcorn Linnets</t>
+  </si>
+  <si>
+    <t>Leek Town</t>
+  </si>
+  <si>
+    <t>Rugby Town</t>
+  </si>
+  <si>
+    <t>Hednesford</t>
   </si>
   <si>
     <t>AFC Rushden  Diamonds</t>
   </si>
   <si>
-    <t>Runcorn Linnets</t>
+    <t>Coventry Sphinx</t>
   </si>
   <si>
-    <t>Cambridge City</t>
+    <t>Dunston UTS</t>
+  </si>
+  <si>
+    <t>North Ferriby</t>
+  </si>
+  <si>
+    <t>Liversedge</t>
+  </si>
+  <si>
+    <t>Grantham</t>
   </si>
   <si>
     <t>Mossley</t>
   </si>
   <si>
-    <t>Coventry Sphinx</t>
-  </si>
-  <si>
     <t>Hinckley LR</t>
-  </si>
-  <si>
-    <t>Dunston UTS</t>
-  </si>
-  <si>
-    <t>Hednesford</t>
-  </si>
-  <si>
-    <t>Grantham</t>
-  </si>
-  <si>
-    <t>Liversedge</t>
   </si>
   <si>
     <t>Pontefract Collieries</t>
   </si>
   <si>
-    <t>Rugby Town</t>
-  </si>
-  <si>
-    <t>North Ferriby</t>
-  </si>
-  <si>
-    <t>Leek Town</t>
+    <t>Cambridge City</t>
   </si>
   <si>
     <t>Stockton Town</t>
@@ -175,10 +175,10 @@
     <t>Avro FC</t>
   </si>
   <si>
-    <t>Grimsby Borough</t>
+    <t>Winterton Rangers</t>
   </si>
   <si>
-    <t>Winterton Rangers</t>
+    <t>Grimsby Borough</t>
   </si>
   <si>
     <t>Stalybridge</t>
@@ -187,22 +187,19 @@
     <t>Shepshed Dynamo</t>
   </si>
   <si>
-    <t>Witton Albion</t>
+    <t>Gresley Rovers</t>
   </si>
   <si>
     <t>Prescot Cables</t>
   </si>
   <si>
-    <t>Gresley Rovers</t>
-  </si>
-  <si>
-    <t>Anstey Nomads</t>
+    <t>Witton Albion</t>
   </si>
   <si>
     <t>Kidsgrove Ath</t>
   </si>
   <si>
-    <t>Ossett United</t>
+    <t>Anstey Nomads</t>
   </si>
   <si>
     <t>1874 Northwich</t>
@@ -211,16 +208,19 @@
     <t>Bedworth Utd</t>
   </si>
   <si>
+    <t>Ossett United</t>
+  </si>
+  <si>
     <t>Newton Aycliffe</t>
   </si>
   <si>
-    <t>Sporting Khalsa</t>
+    <t>Nantwich Town</t>
   </si>
   <si>
     <t>Harborough Town</t>
   </si>
   <si>
-    <t>Nantwich Town</t>
+    <t>Sporting Khalsa</t>
   </si>
   <si>
     <t>Carlton Town</t>
@@ -651,7 +651,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC159"/>
+  <dimension ref="A1:AC161"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -763,7 +763,7 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H2">
         <v>3</v>
@@ -852,7 +852,7 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="H3">
         <v>3</v>
@@ -941,7 +941,7 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H4">
         <v>3</v>
@@ -1030,7 +1030,7 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="H5">
         <v>2</v>
@@ -1104,7 +1104,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>7072691</v>
+        <v>7072687</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -1119,73 +1119,73 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K6">
-        <v>2.25</v>
+        <v>1.95</v>
       </c>
       <c r="L6">
         <v>3.5</v>
       </c>
       <c r="M6">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="N6">
-        <v>2.375</v>
+        <v>1.75</v>
       </c>
       <c r="O6">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P6">
-        <v>2.6</v>
+        <v>4</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R6">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S6">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T6">
         <v>2.75</v>
       </c>
       <c r="U6">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V6">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W6">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X6">
         <v>-1</v>
       </c>
       <c r="Y6">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z6">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA6">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB6">
         <v>-1</v>
       </c>
       <c r="AC6">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1193,7 +1193,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7072687</v>
+        <v>7072686</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1208,31 +1208,31 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7">
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K7">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="L7">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M7">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="N7">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="O7">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P7">
         <v>4</v>
@@ -1241,40 +1241,40 @@
         <v>-0.75</v>
       </c>
       <c r="R7">
+        <v>1.925</v>
+      </c>
+      <c r="S7">
+        <v>1.875</v>
+      </c>
+      <c r="T7">
+        <v>2.5</v>
+      </c>
+      <c r="U7">
+        <v>1.75</v>
+      </c>
+      <c r="V7">
         <v>1.95</v>
       </c>
-      <c r="S7">
-        <v>1.85</v>
-      </c>
-      <c r="T7">
-        <v>2.75</v>
-      </c>
-      <c r="U7">
-        <v>1.9</v>
-      </c>
-      <c r="V7">
-        <v>1.9</v>
-      </c>
       <c r="W7">
         <v>-1</v>
       </c>
       <c r="X7">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y7">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z7">
         <v>-1</v>
       </c>
       <c r="AA7">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AB7">
         <v>-1</v>
       </c>
       <c r="AC7">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1282,7 +1282,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7072686</v>
+        <v>7072691</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1297,73 +1297,73 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>71</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K8">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="L8">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M8">
-        <v>2.9</v>
+        <v>2.6</v>
       </c>
       <c r="N8">
-        <v>1.7</v>
+        <v>2.375</v>
       </c>
       <c r="O8">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P8">
-        <v>4</v>
+        <v>2.6</v>
       </c>
       <c r="Q8">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R8">
+        <v>1.8</v>
+      </c>
+      <c r="S8">
+        <v>2</v>
+      </c>
+      <c r="T8">
+        <v>2.75</v>
+      </c>
+      <c r="U8">
         <v>1.925</v>
       </c>
-      <c r="S8">
+      <c r="V8">
         <v>1.875</v>
       </c>
-      <c r="T8">
-        <v>2.5</v>
-      </c>
-      <c r="U8">
-        <v>1.75</v>
-      </c>
-      <c r="V8">
-        <v>1.95</v>
-      </c>
       <c r="W8">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X8">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y8">
         <v>-1</v>
       </c>
       <c r="Z8">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA8">
+        <v>-1</v>
+      </c>
+      <c r="AB8">
+        <v>-1</v>
+      </c>
+      <c r="AC8">
         <v>0.875</v>
-      </c>
-      <c r="AB8">
-        <v>-1</v>
-      </c>
-      <c r="AC8">
-        <v>0.95</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1460,7 +1460,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>7100282</v>
+        <v>7100546</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1475,73 +1475,73 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K10">
-        <v>2.2</v>
+        <v>1.615</v>
       </c>
       <c r="L10">
         <v>4</v>
       </c>
       <c r="M10">
-        <v>2.45</v>
+        <v>4</v>
       </c>
       <c r="N10">
-        <v>2.25</v>
+        <v>1.45</v>
       </c>
       <c r="O10">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="P10">
-        <v>2.4</v>
+        <v>5</v>
       </c>
       <c r="Q10">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R10">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S10">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T10">
         <v>2.75</v>
       </c>
       <c r="U10">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V10">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W10">
         <v>-1</v>
       </c>
       <c r="X10">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y10">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Z10">
         <v>-1</v>
       </c>
       <c r="AA10">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AB10">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AC10">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1549,7 +1549,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>7100111</v>
+        <v>7100544</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1561,76 +1561,76 @@
         <v>45160.65625</v>
       </c>
       <c r="F11" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>35</v>
+        <v>72</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K11">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="L11">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="M11">
+        <v>3.25</v>
+      </c>
+      <c r="N11">
+        <v>1.666</v>
+      </c>
+      <c r="O11">
+        <v>4.2</v>
+      </c>
+      <c r="P11">
+        <v>3.6</v>
+      </c>
+      <c r="Q11">
+        <v>-0.75</v>
+      </c>
+      <c r="R11">
+        <v>1.875</v>
+      </c>
+      <c r="S11">
+        <v>1.925</v>
+      </c>
+      <c r="T11">
         <v>2.75</v>
       </c>
-      <c r="N11">
-        <v>3.1</v>
-      </c>
-      <c r="O11">
-        <v>3.3</v>
-      </c>
-      <c r="P11">
-        <v>2.05</v>
-      </c>
-      <c r="Q11">
-        <v>0.25</v>
-      </c>
-      <c r="R11">
-        <v>1.95</v>
-      </c>
-      <c r="S11">
-        <v>1.85</v>
-      </c>
-      <c r="T11">
-        <v>2.5</v>
-      </c>
       <c r="U11">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V11">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W11">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X11">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y11">
         <v>-1</v>
       </c>
       <c r="Z11">
-        <v>0.475</v>
+        <v>0.875</v>
       </c>
       <c r="AA11">
+        <v>-1</v>
+      </c>
+      <c r="AB11">
+        <v>0.45</v>
+      </c>
+      <c r="AC11">
         <v>-0.5</v>
-      </c>
-      <c r="AB11">
-        <v>-1</v>
-      </c>
-      <c r="AC11">
-        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1638,7 +1638,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>7100546</v>
+        <v>7100405</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1650,76 +1650,76 @@
         <v>45160.65625</v>
       </c>
       <c r="F12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>76</v>
+        <v>33</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J12" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K12">
-        <v>1.615</v>
+        <v>2.5</v>
       </c>
       <c r="L12">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M12">
-        <v>4</v>
+        <v>2.3</v>
       </c>
       <c r="N12">
-        <v>1.45</v>
+        <v>2.5</v>
       </c>
       <c r="O12">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="P12">
-        <v>5</v>
+        <v>2.3</v>
       </c>
       <c r="Q12">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R12">
+        <v>2</v>
+      </c>
+      <c r="S12">
         <v>1.8</v>
       </c>
-      <c r="S12">
-        <v>2</v>
-      </c>
       <c r="T12">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U12">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V12">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W12">
         <v>-1</v>
       </c>
       <c r="X12">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y12">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z12">
         <v>-1</v>
       </c>
       <c r="AA12">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AB12">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC12">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1727,7 +1727,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>7100392</v>
+        <v>7100543</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1739,73 +1739,73 @@
         <v>45160.65625</v>
       </c>
       <c r="F13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G13" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="H13">
         <v>2</v>
       </c>
       <c r="I13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J13" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="L13">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M13">
+        <v>3.1</v>
+      </c>
+      <c r="N13">
+        <v>2.3</v>
+      </c>
+      <c r="O13">
+        <v>3.6</v>
+      </c>
+      <c r="P13">
+        <v>2.5</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>1.8</v>
+      </c>
+      <c r="S13">
+        <v>2</v>
+      </c>
+      <c r="T13">
         <v>2.75</v>
       </c>
-      <c r="N13">
-        <v>2</v>
-      </c>
-      <c r="O13">
-        <v>4</v>
-      </c>
-      <c r="P13">
-        <v>2.75</v>
-      </c>
-      <c r="Q13">
-        <v>-0.25</v>
-      </c>
-      <c r="R13">
-        <v>1.825</v>
-      </c>
-      <c r="S13">
-        <v>1.975</v>
-      </c>
-      <c r="T13">
-        <v>3</v>
-      </c>
       <c r="U13">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V13">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W13">
         <v>-1</v>
       </c>
       <c r="X13">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y13">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z13">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA13">
-        <v>0.4875</v>
+        <v>1</v>
       </c>
       <c r="AB13">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AC13">
         <v>-1</v>
@@ -1816,7 +1816,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>7100545</v>
+        <v>7100282</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1828,76 +1828,76 @@
         <v>45160.65625</v>
       </c>
       <c r="F14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G14" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14">
+        <v>3</v>
+      </c>
+      <c r="J14" t="s">
+        <v>91</v>
+      </c>
+      <c r="K14">
+        <v>2.2</v>
+      </c>
+      <c r="L14">
+        <v>4</v>
+      </c>
+      <c r="M14">
+        <v>2.45</v>
+      </c>
+      <c r="N14">
+        <v>2.25</v>
+      </c>
+      <c r="O14">
+        <v>4</v>
+      </c>
+      <c r="P14">
+        <v>2.4</v>
+      </c>
+      <c r="Q14">
         <v>0</v>
       </c>
-      <c r="J14" t="s">
-        <v>89</v>
-      </c>
-      <c r="K14">
-        <v>1.909</v>
-      </c>
-      <c r="L14">
-        <v>3.75</v>
-      </c>
-      <c r="M14">
-        <v>3.1</v>
-      </c>
-      <c r="N14">
+      <c r="R14">
         <v>1.85</v>
       </c>
-      <c r="O14">
-        <v>3.75</v>
-      </c>
-      <c r="P14">
-        <v>3.2</v>
-      </c>
-      <c r="Q14">
-        <v>-0.5</v>
-      </c>
-      <c r="R14">
-        <v>1.925</v>
-      </c>
       <c r="S14">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T14">
         <v>2.75</v>
       </c>
       <c r="U14">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V14">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W14">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X14">
         <v>-1</v>
       </c>
       <c r="Y14">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="Z14">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA14">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB14">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AC14">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -1905,7 +1905,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>7100393</v>
+        <v>7100111</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1917,34 +1917,34 @@
         <v>45160.65625</v>
       </c>
       <c r="F15" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="G15" t="s">
-        <v>66</v>
+        <v>34</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15">
         <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K15">
-        <v>2.9</v>
+        <v>2.3</v>
       </c>
       <c r="L15">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="M15">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="N15">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="O15">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="P15">
         <v>2.05</v>
@@ -1959,34 +1959,34 @@
         <v>1.85</v>
       </c>
       <c r="T15">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U15">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="V15">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W15">
         <v>-1</v>
       </c>
       <c r="X15">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y15">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z15">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AA15">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB15">
         <v>-1</v>
       </c>
       <c r="AC15">
-        <v>0.95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -1994,7 +1994,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>7100394</v>
+        <v>7100393</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -2009,37 +2009,37 @@
         <v>42</v>
       </c>
       <c r="G16" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K16">
-        <v>2.25</v>
+        <v>2.9</v>
       </c>
       <c r="L16">
         <v>3.75</v>
       </c>
       <c r="M16">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="N16">
-        <v>1.909</v>
+        <v>2.8</v>
       </c>
       <c r="O16">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P16">
-        <v>3.1</v>
+        <v>2.05</v>
       </c>
       <c r="Q16">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R16">
         <v>1.95</v>
@@ -2048,34 +2048,34 @@
         <v>1.85</v>
       </c>
       <c r="T16">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U16">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="V16">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W16">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X16">
         <v>-1</v>
       </c>
       <c r="Y16">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z16">
+        <v>-1</v>
+      </c>
+      <c r="AA16">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB16">
+        <v>-1</v>
+      </c>
+      <c r="AC16">
         <v>0.95</v>
-      </c>
-      <c r="AA16">
-        <v>-1</v>
-      </c>
-      <c r="AB16">
-        <v>-1</v>
-      </c>
-      <c r="AC16">
-        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -2172,7 +2172,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>7100543</v>
+        <v>7100109</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2187,52 +2187,52 @@
         <v>44</v>
       </c>
       <c r="G18" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J18" t="s">
         <v>91</v>
       </c>
       <c r="K18">
-        <v>1.909</v>
+        <v>2.2</v>
       </c>
       <c r="L18">
+        <v>3.6</v>
+      </c>
+      <c r="M18">
+        <v>2.6</v>
+      </c>
+      <c r="N18">
+        <v>1.95</v>
+      </c>
+      <c r="O18">
         <v>3.75</v>
       </c>
-      <c r="M18">
+      <c r="P18">
         <v>3.1</v>
       </c>
-      <c r="N18">
-        <v>2.3</v>
-      </c>
-      <c r="O18">
-        <v>3.6</v>
-      </c>
-      <c r="P18">
-        <v>2.5</v>
-      </c>
       <c r="Q18">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R18">
+        <v>2</v>
+      </c>
+      <c r="S18">
         <v>1.8</v>
-      </c>
-      <c r="S18">
-        <v>2</v>
       </c>
       <c r="T18">
         <v>2.75</v>
       </c>
       <c r="U18">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V18">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W18">
         <v>-1</v>
@@ -2241,16 +2241,16 @@
         <v>-1</v>
       </c>
       <c r="Y18">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="Z18">
         <v>-1</v>
       </c>
       <c r="AA18">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AB18">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AC18">
         <v>-1</v>
@@ -2261,7 +2261,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>7100107</v>
+        <v>7100108</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2276,55 +2276,55 @@
         <v>45</v>
       </c>
       <c r="G19" t="s">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19" t="s">
         <v>89</v>
       </c>
       <c r="K19">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="L19">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M19">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="N19">
-        <v>2.9</v>
+        <v>2.3</v>
       </c>
       <c r="O19">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P19">
-        <v>2.1</v>
+        <v>2.625</v>
       </c>
       <c r="Q19">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R19">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S19">
-        <v>1.925</v>
+        <v>1.725</v>
       </c>
       <c r="T19">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U19">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V19">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W19">
-        <v>1.9</v>
+        <v>1.3</v>
       </c>
       <c r="X19">
         <v>-1</v>
@@ -2333,13 +2333,13 @@
         <v>-1</v>
       </c>
       <c r="Z19">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA19">
         <v>-1</v>
       </c>
       <c r="AB19">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AC19">
         <v>-1</v>
@@ -2350,7 +2350,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>7100108</v>
+        <v>7100107</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2365,55 +2365,55 @@
         <v>46</v>
       </c>
       <c r="G20" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="H20">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" t="s">
         <v>89</v>
       </c>
       <c r="K20">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="L20">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M20">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="N20">
-        <v>2.3</v>
+        <v>2.9</v>
       </c>
       <c r="O20">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P20">
-        <v>2.625</v>
+        <v>2.1</v>
       </c>
       <c r="Q20">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R20">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S20">
-        <v>1.725</v>
+        <v>1.925</v>
       </c>
       <c r="T20">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U20">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V20">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W20">
-        <v>1.3</v>
+        <v>1.9</v>
       </c>
       <c r="X20">
         <v>-1</v>
@@ -2422,13 +2422,13 @@
         <v>-1</v>
       </c>
       <c r="Z20">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AA20">
         <v>-1</v>
       </c>
       <c r="AB20">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC20">
         <v>-1</v>
@@ -2439,7 +2439,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>7100110</v>
+        <v>7100545</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2454,43 +2454,43 @@
         <v>47</v>
       </c>
       <c r="G21" t="s">
-        <v>84</v>
+        <v>35</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I21">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J21" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K21">
-        <v>2.25</v>
+        <v>1.909</v>
       </c>
       <c r="L21">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="M21">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="N21">
-        <v>2.625</v>
+        <v>1.85</v>
       </c>
       <c r="O21">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="P21">
-        <v>2.3</v>
+        <v>3.2</v>
       </c>
       <c r="Q21">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R21">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S21">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T21">
         <v>2.75</v>
@@ -2502,25 +2502,25 @@
         <v>1.85</v>
       </c>
       <c r="W21">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X21">
         <v>-1</v>
       </c>
       <c r="Y21">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z21">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA21">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB21">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC21">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2528,7 +2528,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7100405</v>
+        <v>7100394</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2543,73 +2543,73 @@
         <v>48</v>
       </c>
       <c r="G22" t="s">
-        <v>34</v>
+        <v>75</v>
       </c>
       <c r="H22">
+        <v>2</v>
+      </c>
+      <c r="I22">
         <v>0</v>
       </c>
-      <c r="I22">
-        <v>6</v>
-      </c>
       <c r="J22" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K22">
+        <v>2.25</v>
+      </c>
+      <c r="L22">
+        <v>3.75</v>
+      </c>
+      <c r="M22">
         <v>2.5</v>
       </c>
-      <c r="L22">
-        <v>3.6</v>
-      </c>
-      <c r="M22">
-        <v>2.3</v>
-      </c>
       <c r="N22">
-        <v>2.5</v>
+        <v>1.909</v>
       </c>
       <c r="O22">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P22">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="Q22">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R22">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S22">
+        <v>1.85</v>
+      </c>
+      <c r="T22">
+        <v>2.75</v>
+      </c>
+      <c r="U22">
         <v>1.8</v>
       </c>
-      <c r="T22">
-        <v>3</v>
-      </c>
-      <c r="U22">
-        <v>1.95</v>
-      </c>
       <c r="V22">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W22">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X22">
         <v>-1</v>
       </c>
       <c r="Y22">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z22">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA22">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB22">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC22">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2617,7 +2617,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>7100109</v>
+        <v>7100110</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2632,37 +2632,37 @@
         <v>49</v>
       </c>
       <c r="G23" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J23" t="s">
         <v>91</v>
       </c>
       <c r="K23">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L23">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="M23">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="N23">
-        <v>1.95</v>
+        <v>2.625</v>
       </c>
       <c r="O23">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="P23">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="Q23">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R23">
         <v>2</v>
@@ -2674,10 +2674,10 @@
         <v>2.75</v>
       </c>
       <c r="U23">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V23">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W23">
         <v>-1</v>
@@ -2686,7 +2686,7 @@
         <v>-1</v>
       </c>
       <c r="Y23">
-        <v>2.1</v>
+        <v>1.3</v>
       </c>
       <c r="Z23">
         <v>-1</v>
@@ -2695,7 +2695,7 @@
         <v>0.8</v>
       </c>
       <c r="AB23">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AC23">
         <v>-1</v>
@@ -2706,7 +2706,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>7100544</v>
+        <v>7100392</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2721,73 +2721,73 @@
         <v>50</v>
       </c>
       <c r="G24" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J24" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K24">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="L24">
         <v>4</v>
       </c>
       <c r="M24">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="N24">
-        <v>1.666</v>
+        <v>2</v>
       </c>
       <c r="O24">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P24">
-        <v>3.6</v>
+        <v>2.75</v>
       </c>
       <c r="Q24">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R24">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S24">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T24">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U24">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V24">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W24">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X24">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y24">
         <v>-1</v>
       </c>
       <c r="Z24">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AA24">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB24">
-        <v>0.45</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC24">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -2973,7 +2973,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>7104106</v>
+        <v>7104130</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2988,16 +2988,16 @@
         <v>53</v>
       </c>
       <c r="G27" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="H27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I27">
         <v>2</v>
       </c>
       <c r="J27" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K27">
         <v>2.375</v>
@@ -3009,13 +3009,13 @@
         <v>2.375</v>
       </c>
       <c r="N27">
-        <v>2.6</v>
+        <v>2.625</v>
       </c>
       <c r="O27">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P27">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="Q27">
         <v>0.25</v>
@@ -3027,34 +3027,34 @@
         <v>1.975</v>
       </c>
       <c r="T27">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U27">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="V27">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W27">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="X27">
         <v>-1</v>
       </c>
       <c r="Y27">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z27">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA27">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB27">
-        <v>0.75</v>
+        <v>0.4</v>
       </c>
       <c r="AC27">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -3062,7 +3062,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>7104130</v>
+        <v>7104106</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -3077,16 +3077,16 @@
         <v>54</v>
       </c>
       <c r="G28" t="s">
-        <v>69</v>
+        <v>30</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I28">
         <v>2</v>
       </c>
       <c r="J28" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K28">
         <v>2.375</v>
@@ -3098,13 +3098,13 @@
         <v>2.375</v>
       </c>
       <c r="N28">
-        <v>2.625</v>
+        <v>2.6</v>
       </c>
       <c r="O28">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P28">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="Q28">
         <v>0.25</v>
@@ -3116,34 +3116,34 @@
         <v>1.975</v>
       </c>
       <c r="T28">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U28">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="V28">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W28">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="X28">
         <v>-1</v>
       </c>
       <c r="Y28">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z28">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA28">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB28">
-        <v>0.4</v>
+        <v>0.75</v>
       </c>
       <c r="AC28">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -3240,7 +3240,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>7122508</v>
+        <v>7122522</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3252,76 +3252,76 @@
         <v>45164.45833333334</v>
       </c>
       <c r="F30" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G30" t="s">
-        <v>86</v>
+        <v>50</v>
       </c>
       <c r="H30">
         <v>1</v>
       </c>
       <c r="I30">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J30" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K30">
-        <v>1.533</v>
+        <v>1.909</v>
       </c>
       <c r="L30">
-        <v>4.1</v>
+        <v>3.4</v>
       </c>
       <c r="M30">
-        <v>4.6</v>
+        <v>3.4</v>
       </c>
       <c r="N30">
         <v>2.25</v>
       </c>
       <c r="O30">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="P30">
-        <v>2.625</v>
+        <v>2.8</v>
       </c>
       <c r="Q30">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R30">
-        <v>1.725</v>
+        <v>2.025</v>
       </c>
       <c r="S30">
-        <v>2.075</v>
+        <v>1.775</v>
       </c>
       <c r="T30">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U30">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V30">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="W30">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X30">
         <v>-1</v>
       </c>
       <c r="Y30">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z30">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA30">
-        <v>1.075</v>
+        <v>-1</v>
       </c>
       <c r="AB30">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC30">
-        <v>-0</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3329,7 +3329,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>7122522</v>
+        <v>7122508</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3341,76 +3341,76 @@
         <v>45164.45833333334</v>
       </c>
       <c r="F31" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G31" t="s">
-        <v>39</v>
+        <v>86</v>
       </c>
       <c r="H31">
         <v>1</v>
       </c>
       <c r="I31">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J31" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K31">
-        <v>1.909</v>
+        <v>1.533</v>
       </c>
       <c r="L31">
-        <v>3.4</v>
+        <v>4.1</v>
       </c>
       <c r="M31">
-        <v>3.4</v>
+        <v>4.6</v>
       </c>
       <c r="N31">
         <v>2.25</v>
       </c>
       <c r="O31">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="P31">
-        <v>2.8</v>
+        <v>2.625</v>
       </c>
       <c r="Q31">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R31">
-        <v>2.025</v>
+        <v>1.725</v>
       </c>
       <c r="S31">
-        <v>1.775</v>
+        <v>2.075</v>
       </c>
       <c r="T31">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U31">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V31">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="W31">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X31">
         <v>-1</v>
       </c>
       <c r="Y31">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z31">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA31">
-        <v>-1</v>
+        <v>1.075</v>
       </c>
       <c r="AB31">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC31">
-        <v>0.7749999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -3418,7 +3418,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>7132468</v>
+        <v>7134274</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3430,73 +3430,73 @@
         <v>45166.45833333334</v>
       </c>
       <c r="F32" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="G32" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="H32">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I32">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J32" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K32">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="L32">
         <v>3.75</v>
       </c>
       <c r="M32">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="N32">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="O32">
         <v>3.75</v>
       </c>
       <c r="P32">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
       <c r="Q32">
         <v>-0.25</v>
       </c>
       <c r="R32">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="S32">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="T32">
         <v>2.75</v>
       </c>
       <c r="U32">
+        <v>1.875</v>
+      </c>
+      <c r="V32">
+        <v>1.925</v>
+      </c>
+      <c r="W32">
+        <v>-1</v>
+      </c>
+      <c r="X32">
+        <v>-1</v>
+      </c>
+      <c r="Y32">
         <v>1.9</v>
       </c>
-      <c r="V32">
-        <v>1.9</v>
-      </c>
-      <c r="W32">
-        <v>-1</v>
-      </c>
-      <c r="X32">
-        <v>2.75</v>
-      </c>
-      <c r="Y32">
-        <v>-1</v>
-      </c>
       <c r="Z32">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA32">
-        <v>0.375</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB32">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AC32">
         <v>-1</v>
@@ -3507,7 +3507,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>7132469</v>
+        <v>7134273</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3519,76 +3519,76 @@
         <v>45166.45833333334</v>
       </c>
       <c r="F33" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G33" t="s">
-        <v>62</v>
+        <v>34</v>
       </c>
       <c r="H33">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J33" t="s">
         <v>89</v>
       </c>
       <c r="K33">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="L33">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M33">
-        <v>3</v>
+        <v>2.625</v>
       </c>
       <c r="N33">
-        <v>1.833</v>
+        <v>2.25</v>
       </c>
       <c r="O33">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P33">
-        <v>3.4</v>
+        <v>2.625</v>
       </c>
       <c r="Q33">
+        <v>-0.25</v>
+      </c>
+      <c r="R33">
+        <v>2</v>
+      </c>
+      <c r="S33">
+        <v>1.8</v>
+      </c>
+      <c r="T33">
+        <v>2.75</v>
+      </c>
+      <c r="U33">
+        <v>1.8</v>
+      </c>
+      <c r="V33">
+        <v>2</v>
+      </c>
+      <c r="W33">
+        <v>1.25</v>
+      </c>
+      <c r="X33">
+        <v>-1</v>
+      </c>
+      <c r="Y33">
+        <v>-1</v>
+      </c>
+      <c r="Z33">
+        <v>1</v>
+      </c>
+      <c r="AA33">
+        <v>-1</v>
+      </c>
+      <c r="AB33">
+        <v>0.4</v>
+      </c>
+      <c r="AC33">
         <v>-0.5</v>
-      </c>
-      <c r="R33">
-        <v>1.9</v>
-      </c>
-      <c r="S33">
-        <v>1.9</v>
-      </c>
-      <c r="T33">
-        <v>3</v>
-      </c>
-      <c r="U33">
-        <v>1.875</v>
-      </c>
-      <c r="V33">
-        <v>1.925</v>
-      </c>
-      <c r="W33">
-        <v>0.833</v>
-      </c>
-      <c r="X33">
-        <v>-1</v>
-      </c>
-      <c r="Y33">
-        <v>-1</v>
-      </c>
-      <c r="Z33">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AA33">
-        <v>-1</v>
-      </c>
-      <c r="AB33">
-        <v>0.875</v>
-      </c>
-      <c r="AC33">
-        <v>-1</v>
       </c>
     </row>
     <row r="34" spans="1:29">
@@ -3608,7 +3608,7 @@
         <v>45166.45833333334</v>
       </c>
       <c r="F34" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G34" t="s">
         <v>69</v>
@@ -3685,7 +3685,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>7134274</v>
+        <v>7132469</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -3697,49 +3697,49 @@
         <v>45166.45833333334</v>
       </c>
       <c r="F35" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G35" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I35">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J35" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K35">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L35">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M35">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="N35">
-        <v>2</v>
+        <v>1.833</v>
       </c>
       <c r="O35">
         <v>3.75</v>
       </c>
       <c r="P35">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="Q35">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R35">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S35">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T35">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U35">
         <v>1.875</v>
@@ -3748,19 +3748,19 @@
         <v>1.925</v>
       </c>
       <c r="W35">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X35">
         <v>-1</v>
       </c>
       <c r="Y35">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z35">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA35">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB35">
         <v>0.875</v>
@@ -3774,7 +3774,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>7134273</v>
+        <v>7132468</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3786,76 +3786,76 @@
         <v>45166.45833333334</v>
       </c>
       <c r="F36" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="G36" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J36" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K36">
         <v>2.25</v>
       </c>
       <c r="L36">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M36">
-        <v>2.625</v>
+        <v>2.5</v>
       </c>
       <c r="N36">
         <v>2.25</v>
       </c>
       <c r="O36">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P36">
-        <v>2.625</v>
+        <v>2.5</v>
       </c>
       <c r="Q36">
         <v>-0.25</v>
       </c>
       <c r="R36">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S36">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="T36">
         <v>2.75</v>
       </c>
       <c r="U36">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V36">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W36">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X36">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y36">
         <v>-1</v>
       </c>
       <c r="Z36">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA36">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
       <c r="AB36">
-        <v>0.4</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC36">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="37" spans="1:29">
@@ -3878,7 +3878,7 @@
         <v>32</v>
       </c>
       <c r="G37" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H37">
         <v>3</v>
@@ -3952,7 +3952,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>7197970</v>
+        <v>7197960</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3967,70 +3967,70 @@
         <v>57</v>
       </c>
       <c r="G38" t="s">
-        <v>44</v>
+        <v>87</v>
       </c>
       <c r="H38">
+        <v>2</v>
+      </c>
+      <c r="I38">
+        <v>2</v>
+      </c>
+      <c r="J38" t="s">
+        <v>90</v>
+      </c>
+      <c r="K38">
+        <v>2.4</v>
+      </c>
+      <c r="L38">
+        <v>3.6</v>
+      </c>
+      <c r="M38">
+        <v>2.4</v>
+      </c>
+      <c r="N38">
         <v>3</v>
       </c>
-      <c r="I38">
-        <v>2</v>
-      </c>
-      <c r="J38" t="s">
-        <v>89</v>
-      </c>
-      <c r="K38">
-        <v>2.35</v>
-      </c>
-      <c r="L38">
-        <v>3.4</v>
-      </c>
-      <c r="M38">
-        <v>2.6</v>
-      </c>
-      <c r="N38">
-        <v>2.05</v>
-      </c>
       <c r="O38">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P38">
-        <v>3.1</v>
+        <v>1.95</v>
       </c>
       <c r="Q38">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R38">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S38">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T38">
         <v>3</v>
       </c>
       <c r="U38">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V38">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="W38">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X38">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y38">
         <v>-1</v>
       </c>
       <c r="Z38">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="AA38">
         <v>-1</v>
       </c>
       <c r="AB38">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AC38">
         <v>-1</v>
@@ -4130,7 +4130,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>7197960</v>
+        <v>7197970</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4145,70 +4145,70 @@
         <v>59</v>
       </c>
       <c r="G40" t="s">
-        <v>87</v>
+        <v>40</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I40">
         <v>2</v>
       </c>
       <c r="J40" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K40">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="L40">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M40">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="N40">
-        <v>3</v>
+        <v>2.05</v>
       </c>
       <c r="O40">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P40">
-        <v>1.95</v>
+        <v>3.1</v>
       </c>
       <c r="Q40">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R40">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S40">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T40">
         <v>3</v>
       </c>
       <c r="U40">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V40">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="W40">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X40">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y40">
         <v>-1</v>
       </c>
       <c r="Z40">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AA40">
         <v>-1</v>
       </c>
       <c r="AB40">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC40">
         <v>-1</v>
@@ -4231,7 +4231,7 @@
         <v>45182.65625</v>
       </c>
       <c r="F41" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G41" t="s">
         <v>80</v>
@@ -4397,7 +4397,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>7258502</v>
+        <v>7261755</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4409,13 +4409,13 @@
         <v>45195.65625</v>
       </c>
       <c r="F43" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="G43" t="s">
-        <v>48</v>
+        <v>81</v>
       </c>
       <c r="H43">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I43">
         <v>1</v>
@@ -4424,43 +4424,43 @@
         <v>89</v>
       </c>
       <c r="K43">
-        <v>2.35</v>
+        <v>1.533</v>
       </c>
       <c r="L43">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M43">
-        <v>2.55</v>
+        <v>4.75</v>
       </c>
       <c r="N43">
-        <v>2.375</v>
+        <v>1.533</v>
       </c>
       <c r="O43">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P43">
-        <v>2.55</v>
+        <v>4.75</v>
       </c>
       <c r="Q43">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R43">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S43">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T43">
         <v>2.75</v>
       </c>
       <c r="U43">
+        <v>1.925</v>
+      </c>
+      <c r="V43">
         <v>1.875</v>
       </c>
-      <c r="V43">
-        <v>1.925</v>
-      </c>
       <c r="W43">
-        <v>1.375</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X43">
         <v>-1</v>
@@ -4469,16 +4469,16 @@
         <v>-1</v>
       </c>
       <c r="Z43">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AA43">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB43">
-        <v>0.875</v>
+        <v>0.4625</v>
       </c>
       <c r="AC43">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="44" spans="1:29">
@@ -4486,7 +4486,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>7258501</v>
+        <v>7258502</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4498,73 +4498,73 @@
         <v>45195.65625</v>
       </c>
       <c r="F44" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="G44" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J44" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K44">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="L44">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M44">
         <v>2.55</v>
       </c>
       <c r="N44">
-        <v>2.3</v>
+        <v>2.375</v>
       </c>
       <c r="O44">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P44">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="Q44">
         <v>0</v>
       </c>
       <c r="R44">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S44">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T44">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U44">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V44">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W44">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X44">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y44">
         <v>-1</v>
       </c>
       <c r="Z44">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AA44">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB44">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="AC44">
         <v>-1</v>
@@ -4575,7 +4575,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>7261755</v>
+        <v>7258501</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4590,58 +4590,58 @@
         <v>61</v>
       </c>
       <c r="G45" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H45">
         <v>2</v>
       </c>
       <c r="I45">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J45" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K45">
-        <v>1.533</v>
+        <v>2.3</v>
       </c>
       <c r="L45">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M45">
-        <v>4.75</v>
+        <v>2.55</v>
       </c>
       <c r="N45">
-        <v>1.533</v>
+        <v>2.3</v>
       </c>
       <c r="O45">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P45">
-        <v>4.75</v>
+        <v>2.6</v>
       </c>
       <c r="Q45">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R45">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S45">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T45">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U45">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V45">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W45">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X45">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y45">
         <v>-1</v>
@@ -4653,10 +4653,10 @@
         <v>-0</v>
       </c>
       <c r="AB45">
-        <v>0.4625</v>
+        <v>1</v>
       </c>
       <c r="AC45">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -4676,10 +4676,10 @@
         <v>45196.65625</v>
       </c>
       <c r="F46" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G46" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H46">
         <v>4</v>
@@ -4753,7 +4753,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>7287633</v>
+        <v>7287701</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4768,73 +4768,73 @@
         <v>62</v>
       </c>
       <c r="G47" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I47">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J47" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K47">
-        <v>2.55</v>
+        <v>3</v>
       </c>
       <c r="L47">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M47">
-        <v>2.45</v>
+        <v>2.1</v>
       </c>
       <c r="N47">
-        <v>2.55</v>
+        <v>3</v>
       </c>
       <c r="O47">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P47">
-        <v>2.45</v>
+        <v>2.1</v>
       </c>
       <c r="Q47">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R47">
+        <v>1.9</v>
+      </c>
+      <c r="S47">
+        <v>1.9</v>
+      </c>
+      <c r="T47">
+        <v>2.25</v>
+      </c>
+      <c r="U47">
+        <v>1.85</v>
+      </c>
+      <c r="V47">
         <v>1.95</v>
       </c>
-      <c r="S47">
-        <v>1.85</v>
-      </c>
-      <c r="T47">
-        <v>2.75</v>
-      </c>
-      <c r="U47">
-        <v>1.95</v>
-      </c>
-      <c r="V47">
-        <v>1.85</v>
-      </c>
       <c r="W47">
         <v>-1</v>
       </c>
       <c r="X47">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y47">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z47">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA47">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB47">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC47">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="48" spans="1:29">
@@ -4931,7 +4931,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>7287701</v>
+        <v>7287638</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
@@ -4946,73 +4946,73 @@
         <v>63</v>
       </c>
       <c r="G49" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J49" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K49">
-        <v>3</v>
+        <v>1.909</v>
       </c>
       <c r="L49">
         <v>3.25</v>
       </c>
       <c r="M49">
-        <v>2.1</v>
+        <v>3.5</v>
       </c>
       <c r="N49">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O49">
         <v>3.25</v>
       </c>
       <c r="P49">
-        <v>2.1</v>
+        <v>3.2</v>
       </c>
       <c r="Q49">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R49">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S49">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T49">
+        <v>2.75</v>
+      </c>
+      <c r="U49">
+        <v>1.925</v>
+      </c>
+      <c r="V49">
+        <v>1.875</v>
+      </c>
+      <c r="W49">
+        <v>-1</v>
+      </c>
+      <c r="X49">
         <v>2.25</v>
       </c>
-      <c r="U49">
-        <v>1.85</v>
-      </c>
-      <c r="V49">
-        <v>1.95</v>
-      </c>
-      <c r="W49">
-        <v>-1</v>
-      </c>
-      <c r="X49">
-        <v>-1</v>
-      </c>
       <c r="Y49">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z49">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA49">
-        <v>0.8999999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="AB49">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC49">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="50" spans="1:29">
@@ -5020,7 +5020,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>7287638</v>
+        <v>7287633</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -5035,7 +5035,7 @@
         <v>64</v>
       </c>
       <c r="G50" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="H50">
         <v>0</v>
@@ -5047,61 +5047,61 @@
         <v>90</v>
       </c>
       <c r="K50">
-        <v>1.909</v>
+        <v>2.55</v>
       </c>
       <c r="L50">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M50">
-        <v>3.5</v>
+        <v>2.45</v>
       </c>
       <c r="N50">
-        <v>2</v>
+        <v>2.55</v>
       </c>
       <c r="O50">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="P50">
-        <v>3.2</v>
+        <v>2.45</v>
       </c>
       <c r="Q50">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R50">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S50">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T50">
         <v>2.75</v>
       </c>
       <c r="U50">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V50">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W50">
         <v>-1</v>
       </c>
       <c r="X50">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="Y50">
         <v>-1</v>
       </c>
       <c r="Z50">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA50">
-        <v>0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB50">
         <v>-1</v>
       </c>
       <c r="AC50">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -5121,10 +5121,10 @@
         <v>45203.65625</v>
       </c>
       <c r="F51" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G51" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H51">
         <v>1</v>
@@ -5302,7 +5302,7 @@
         <v>55</v>
       </c>
       <c r="G53" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="H53">
         <v>1</v>
@@ -5376,7 +5376,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>7319608</v>
+        <v>7319624</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5391,7 +5391,7 @@
         <v>66</v>
       </c>
       <c r="G54" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H54">
         <v>3</v>
@@ -5403,31 +5403,31 @@
         <v>89</v>
       </c>
       <c r="K54">
-        <v>1.95</v>
+        <v>2.4</v>
       </c>
       <c r="L54">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="M54">
-        <v>2.75</v>
+        <v>2.4</v>
       </c>
       <c r="N54">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="O54">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P54">
-        <v>2.75</v>
+        <v>2.4</v>
       </c>
       <c r="Q54">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R54">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S54">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T54">
         <v>2.75</v>
@@ -5439,7 +5439,7 @@
         <v>1.9</v>
       </c>
       <c r="W54">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="X54">
         <v>-1</v>
@@ -5448,7 +5448,7 @@
         <v>-1</v>
       </c>
       <c r="Z54">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA54">
         <v>-1</v>
@@ -5554,7 +5554,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>7319624</v>
+        <v>7319608</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5569,7 +5569,7 @@
         <v>68</v>
       </c>
       <c r="G56" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="H56">
         <v>3</v>
@@ -5581,31 +5581,31 @@
         <v>89</v>
       </c>
       <c r="K56">
-        <v>2.4</v>
+        <v>1.95</v>
       </c>
       <c r="L56">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="M56">
-        <v>2.4</v>
+        <v>2.75</v>
       </c>
       <c r="N56">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="O56">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P56">
-        <v>2.4</v>
+        <v>2.75</v>
       </c>
       <c r="Q56">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R56">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S56">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T56">
         <v>2.75</v>
@@ -5617,7 +5617,7 @@
         <v>1.9</v>
       </c>
       <c r="W56">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="X56">
         <v>-1</v>
@@ -5626,7 +5626,7 @@
         <v>-1</v>
       </c>
       <c r="Z56">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AA56">
         <v>-1</v>
@@ -5643,7 +5643,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>7338188</v>
+        <v>7338187</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5655,76 +5655,76 @@
         <v>45213.45833333334</v>
       </c>
       <c r="F57" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="G57" t="s">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="H57">
         <v>2</v>
       </c>
       <c r="I57">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J57" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K57">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="L57">
+        <v>5</v>
+      </c>
+      <c r="M57">
         <v>4</v>
       </c>
-      <c r="M57">
-        <v>2.6</v>
-      </c>
       <c r="N57">
-        <v>1.833</v>
+        <v>1.5</v>
       </c>
       <c r="O57">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="P57">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="Q57">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R57">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S57">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T57">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U57">
+        <v>1.975</v>
+      </c>
+      <c r="V57">
         <v>1.825</v>
       </c>
-      <c r="V57">
-        <v>1.975</v>
-      </c>
       <c r="W57">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X57">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y57">
         <v>-1</v>
       </c>
       <c r="Z57">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA57">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB57">
+        <v>-1</v>
+      </c>
+      <c r="AC57">
         <v>0.825</v>
-      </c>
-      <c r="AC57">
-        <v>-1</v>
       </c>
     </row>
     <row r="58" spans="1:29">
@@ -5732,7 +5732,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>7338187</v>
+        <v>7338188</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5744,76 +5744,76 @@
         <v>45213.45833333334</v>
       </c>
       <c r="F58" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="G58" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="H58">
         <v>2</v>
       </c>
       <c r="I58">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J58" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K58">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="L58">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M58">
-        <v>4</v>
+        <v>2.6</v>
       </c>
       <c r="N58">
-        <v>1.5</v>
+        <v>1.833</v>
       </c>
       <c r="O58">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="P58">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="Q58">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R58">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S58">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T58">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U58">
+        <v>1.825</v>
+      </c>
+      <c r="V58">
         <v>1.975</v>
       </c>
-      <c r="V58">
-        <v>1.825</v>
-      </c>
       <c r="W58">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X58">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y58">
         <v>-1</v>
       </c>
       <c r="Z58">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA58">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB58">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC58">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="59" spans="1:29">
@@ -5836,7 +5836,7 @@
         <v>29</v>
       </c>
       <c r="G59" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H59">
         <v>1</v>
@@ -5910,7 +5910,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>7350910</v>
+        <v>7350912</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -5922,49 +5922,49 @@
         <v>45216.65625</v>
       </c>
       <c r="F60" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="G60" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60">
         <v>1</v>
       </c>
       <c r="J60" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K60">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L60">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="M60">
         <v>2.5</v>
       </c>
       <c r="N60">
-        <v>2.5</v>
+        <v>2.375</v>
       </c>
       <c r="O60">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P60">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="Q60">
         <v>0</v>
       </c>
       <c r="R60">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S60">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T60">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U60">
         <v>1.95</v>
@@ -5973,25 +5973,25 @@
         <v>1.85</v>
       </c>
       <c r="W60">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X60">
         <v>-1</v>
       </c>
       <c r="Y60">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z60">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA60">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB60">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC60">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="61" spans="1:29">
@@ -5999,7 +5999,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>7350911</v>
+        <v>7350910</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -6011,40 +6011,40 @@
         <v>45216.65625</v>
       </c>
       <c r="F61" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="G61" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J61" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K61">
-        <v>4.4</v>
+        <v>2.25</v>
       </c>
       <c r="L61">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="M61">
-        <v>1.55</v>
+        <v>2.5</v>
       </c>
       <c r="N61">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="O61">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="P61">
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
       <c r="Q61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R61">
         <v>2</v>
@@ -6056,31 +6056,31 @@
         <v>2.75</v>
       </c>
       <c r="U61">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="V61">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="W61">
         <v>-1</v>
       </c>
       <c r="X61">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y61">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z61">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA61">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB61">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AC61">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="62" spans="1:29">
@@ -6088,7 +6088,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>7350912</v>
+        <v>7350921</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -6100,58 +6100,58 @@
         <v>45216.65625</v>
       </c>
       <c r="F62" t="s">
-        <v>69</v>
+        <v>38</v>
       </c>
       <c r="G62" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="H62">
         <v>2</v>
       </c>
       <c r="I62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J62" t="s">
         <v>89</v>
       </c>
       <c r="K62">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="L62">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="M62">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="N62">
-        <v>2.375</v>
+        <v>2</v>
       </c>
       <c r="O62">
         <v>4</v>
       </c>
       <c r="P62">
-        <v>2.3</v>
+        <v>2.75</v>
       </c>
       <c r="Q62">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R62">
+        <v>1.85</v>
+      </c>
+      <c r="S62">
+        <v>1.95</v>
+      </c>
+      <c r="T62">
+        <v>2.75</v>
+      </c>
+      <c r="U62">
+        <v>1.875</v>
+      </c>
+      <c r="V62">
         <v>1.925</v>
       </c>
-      <c r="S62">
-        <v>1.875</v>
-      </c>
-      <c r="T62">
-        <v>3</v>
-      </c>
-      <c r="U62">
-        <v>1.95</v>
-      </c>
-      <c r="V62">
-        <v>1.85</v>
-      </c>
       <c r="W62">
-        <v>1.375</v>
+        <v>1</v>
       </c>
       <c r="X62">
         <v>-1</v>
@@ -6160,16 +6160,16 @@
         <v>-1</v>
       </c>
       <c r="Z62">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AA62">
+        <v>-1</v>
+      </c>
+      <c r="AB62">
+        <v>-1</v>
+      </c>
+      <c r="AC62">
         <v>0.925</v>
-      </c>
-      <c r="AA62">
-        <v>-1</v>
-      </c>
-      <c r="AB62">
-        <v>0</v>
-      </c>
-      <c r="AC62">
-        <v>-0</v>
       </c>
     </row>
     <row r="63" spans="1:29">
@@ -6177,7 +6177,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>7350921</v>
+        <v>7350911</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6189,76 +6189,76 @@
         <v>45216.65625</v>
       </c>
       <c r="F63" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="G63" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="H63">
         <v>2</v>
       </c>
       <c r="I63">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J63" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K63">
-        <v>2</v>
+        <v>4.4</v>
       </c>
       <c r="L63">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="M63">
-        <v>2.75</v>
+        <v>1.55</v>
       </c>
       <c r="N63">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O63">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="P63">
-        <v>2.75</v>
+        <v>1.5</v>
       </c>
       <c r="Q63">
-        <v>-0.25</v>
+        <v>1</v>
       </c>
       <c r="R63">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S63">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T63">
         <v>2.75</v>
       </c>
       <c r="U63">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="V63">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W63">
+        <v>-1</v>
+      </c>
+      <c r="X63">
+        <v>3.333</v>
+      </c>
+      <c r="Y63">
+        <v>-1</v>
+      </c>
+      <c r="Z63">
         <v>1</v>
       </c>
-      <c r="X63">
-        <v>-1</v>
-      </c>
-      <c r="Y63">
-        <v>-1</v>
-      </c>
-      <c r="Z63">
-        <v>0.8500000000000001</v>
-      </c>
       <c r="AA63">
         <v>-1</v>
       </c>
       <c r="AB63">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AC63">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -6278,10 +6278,10 @@
         <v>45220.45833333334</v>
       </c>
       <c r="F64" t="s">
+        <v>54</v>
+      </c>
+      <c r="G64" t="s">
         <v>53</v>
-      </c>
-      <c r="G64" t="s">
-        <v>54</v>
       </c>
       <c r="H64">
         <v>1</v>
@@ -6459,7 +6459,7 @@
         <v>71</v>
       </c>
       <c r="G66" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H66">
         <v>1</v>
@@ -6545,7 +6545,7 @@
         <v>45227.45833333334</v>
       </c>
       <c r="F67" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G67" t="s">
         <v>84</v>
@@ -6637,7 +6637,7 @@
         <v>31</v>
       </c>
       <c r="G68" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H68">
         <v>0</v>
@@ -6726,7 +6726,7 @@
         <v>32</v>
       </c>
       <c r="G69" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H69">
         <v>4</v>
@@ -6815,7 +6815,7 @@
         <v>72</v>
       </c>
       <c r="G70" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H70">
         <v>2</v>
@@ -6993,7 +6993,7 @@
         <v>56</v>
       </c>
       <c r="G72" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H72">
         <v>0</v>
@@ -7067,7 +7067,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>7440454</v>
+        <v>7447904</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -7079,76 +7079,76 @@
         <v>45237.69791666666</v>
       </c>
       <c r="F73" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="G73" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I73">
         <v>1</v>
       </c>
       <c r="J73" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K73">
-        <v>1.85</v>
+        <v>2.6</v>
       </c>
       <c r="L73">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M73">
+        <v>2.15</v>
+      </c>
+      <c r="N73">
         <v>3.1</v>
-      </c>
-      <c r="N73">
-        <v>1.85</v>
       </c>
       <c r="O73">
         <v>4</v>
       </c>
       <c r="P73">
-        <v>3.1</v>
+        <v>1.85</v>
       </c>
       <c r="Q73">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R73">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S73">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T73">
+        <v>2.5</v>
+      </c>
+      <c r="U73">
+        <v>1.825</v>
+      </c>
+      <c r="V73">
+        <v>1.975</v>
+      </c>
+      <c r="W73">
+        <v>-1</v>
+      </c>
+      <c r="X73">
         <v>3</v>
       </c>
-      <c r="U73">
-        <v>1.875</v>
-      </c>
-      <c r="V73">
-        <v>1.925</v>
-      </c>
-      <c r="W73">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="X73">
-        <v>-1</v>
-      </c>
       <c r="Y73">
         <v>-1</v>
       </c>
       <c r="Z73">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AA73">
         <v>-1</v>
       </c>
       <c r="AB73">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC73">
-        <v>-0</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="74" spans="1:29">
@@ -7156,7 +7156,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>7440455</v>
+        <v>7440456</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7168,76 +7168,76 @@
         <v>45237.69791666666</v>
       </c>
       <c r="F74" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="G74" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="H74">
         <v>2</v>
       </c>
       <c r="I74">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J74" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K74">
-        <v>1.5</v>
+        <v>2.3</v>
       </c>
       <c r="L74">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="M74">
-        <v>4.75</v>
+        <v>2.5</v>
       </c>
       <c r="N74">
-        <v>1.5</v>
+        <v>2.05</v>
       </c>
       <c r="O74">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="P74">
-        <v>4.75</v>
+        <v>2.8</v>
       </c>
       <c r="Q74">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R74">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S74">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T74">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U74">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="V74">
         <v>1.95</v>
       </c>
       <c r="W74">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X74">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y74">
         <v>-1</v>
       </c>
       <c r="Z74">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA74">
-        <v>-0</v>
+        <v>0.4625</v>
       </c>
       <c r="AB74">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AC74">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7245,7 +7245,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>7440456</v>
+        <v>7440455</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7257,76 +7257,76 @@
         <v>45237.69791666666</v>
       </c>
       <c r="F75" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="G75" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="H75">
         <v>2</v>
       </c>
       <c r="I75">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J75" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K75">
-        <v>2.3</v>
+        <v>1.5</v>
       </c>
       <c r="L75">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="M75">
-        <v>2.5</v>
+        <v>4.75</v>
       </c>
       <c r="N75">
-        <v>2.05</v>
+        <v>1.5</v>
       </c>
       <c r="O75">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="P75">
-        <v>2.8</v>
+        <v>4.75</v>
       </c>
       <c r="Q75">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R75">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S75">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T75">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U75">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="V75">
         <v>1.95</v>
       </c>
       <c r="W75">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X75">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y75">
         <v>-1</v>
       </c>
       <c r="Z75">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA75">
-        <v>0.4625</v>
+        <v>-0</v>
       </c>
       <c r="AB75">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="AC75">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7334,7 +7334,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>7447904</v>
+        <v>7440454</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7346,76 +7346,76 @@
         <v>45237.69791666666</v>
       </c>
       <c r="F76" t="s">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="G76" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="H76">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I76">
         <v>1</v>
       </c>
       <c r="J76" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K76">
-        <v>2.6</v>
+        <v>1.85</v>
       </c>
       <c r="L76">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M76">
-        <v>2.15</v>
+        <v>3.1</v>
       </c>
       <c r="N76">
-        <v>3.1</v>
+        <v>1.85</v>
       </c>
       <c r="O76">
         <v>4</v>
       </c>
       <c r="P76">
-        <v>1.85</v>
+        <v>3.1</v>
       </c>
       <c r="Q76">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R76">
+        <v>1.9</v>
+      </c>
+      <c r="S76">
+        <v>1.9</v>
+      </c>
+      <c r="T76">
+        <v>3</v>
+      </c>
+      <c r="U76">
         <v>1.875</v>
       </c>
-      <c r="S76">
+      <c r="V76">
         <v>1.925</v>
       </c>
-      <c r="T76">
-        <v>2.5</v>
-      </c>
-      <c r="U76">
-        <v>1.825</v>
-      </c>
-      <c r="V76">
-        <v>1.975</v>
-      </c>
       <c r="W76">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X76">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y76">
         <v>-1</v>
       </c>
       <c r="Z76">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA76">
         <v>-1</v>
       </c>
       <c r="AB76">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC76">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7423,7 +7423,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>7473234</v>
+        <v>7476390</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7435,58 +7435,58 @@
         <v>45244.69791666666</v>
       </c>
       <c r="F77" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="G77" t="s">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="H77">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I77">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J77" t="s">
         <v>89</v>
       </c>
       <c r="K77">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="L77">
         <v>3.6</v>
       </c>
       <c r="M77">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="N77">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="O77">
         <v>3.6</v>
       </c>
       <c r="P77">
-        <v>2.45</v>
+        <v>3</v>
       </c>
       <c r="Q77">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R77">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S77">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T77">
         <v>2.75</v>
       </c>
       <c r="U77">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V77">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W77">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="X77">
         <v>-1</v>
@@ -7495,13 +7495,13 @@
         <v>-1</v>
       </c>
       <c r="Z77">
+        <v>0.8</v>
+      </c>
+      <c r="AA77">
+        <v>-1</v>
+      </c>
+      <c r="AB77">
         <v>0.825</v>
-      </c>
-      <c r="AA77">
-        <v>-1</v>
-      </c>
-      <c r="AB77">
-        <v>0.95</v>
       </c>
       <c r="AC77">
         <v>-1</v>
@@ -7512,7 +7512,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>7476389</v>
+        <v>7473235</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7524,73 +7524,73 @@
         <v>45244.69791666666</v>
       </c>
       <c r="F78" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="G78" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I78">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J78" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K78">
-        <v>4</v>
+        <v>1.727</v>
       </c>
       <c r="L78">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M78">
+        <v>3.75</v>
+      </c>
+      <c r="N78">
         <v>1.75</v>
       </c>
-      <c r="N78">
+      <c r="O78">
         <v>3.75</v>
       </c>
-      <c r="O78">
+      <c r="P78">
         <v>3.6</v>
       </c>
-      <c r="P78">
-        <v>1.75</v>
-      </c>
       <c r="Q78">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R78">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S78">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T78">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U78">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V78">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W78">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X78">
         <v>-1</v>
       </c>
       <c r="Y78">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z78">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA78">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB78">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC78">
         <v>-1</v>
@@ -7601,7 +7601,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>7473235</v>
+        <v>7473234</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7613,58 +7613,58 @@
         <v>45244.69791666666</v>
       </c>
       <c r="F79" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="G79" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="H79">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I79">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J79" t="s">
         <v>89</v>
       </c>
       <c r="K79">
-        <v>1.727</v>
+        <v>2.5</v>
       </c>
       <c r="L79">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M79">
-        <v>3.75</v>
+        <v>2.3</v>
       </c>
       <c r="N79">
-        <v>1.75</v>
+        <v>2.3</v>
       </c>
       <c r="O79">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P79">
-        <v>3.6</v>
+        <v>2.45</v>
       </c>
       <c r="Q79">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R79">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S79">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T79">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U79">
+        <v>1.95</v>
+      </c>
+      <c r="V79">
         <v>1.85</v>
       </c>
-      <c r="V79">
-        <v>1.95</v>
-      </c>
       <c r="W79">
-        <v>0.75</v>
+        <v>1.3</v>
       </c>
       <c r="X79">
         <v>-1</v>
@@ -7673,13 +7673,13 @@
         <v>-1</v>
       </c>
       <c r="Z79">
-        <v>0.7749999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AA79">
         <v>-1</v>
       </c>
       <c r="AB79">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AC79">
         <v>-1</v>
@@ -7690,7 +7690,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>7476390</v>
+        <v>7476389</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7702,73 +7702,73 @@
         <v>45244.69791666666</v>
       </c>
       <c r="F80" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G80" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="H80">
+        <v>0</v>
+      </c>
+      <c r="I80">
+        <v>6</v>
+      </c>
+      <c r="J80" t="s">
+        <v>91</v>
+      </c>
+      <c r="K80">
         <v>4</v>
       </c>
-      <c r="I80">
-        <v>2</v>
-      </c>
-      <c r="J80" t="s">
-        <v>89</v>
-      </c>
-      <c r="K80">
-        <v>2</v>
-      </c>
       <c r="L80">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M80">
-        <v>3</v>
+        <v>1.75</v>
       </c>
       <c r="N80">
-        <v>2</v>
+        <v>3.75</v>
       </c>
       <c r="O80">
         <v>3.6</v>
       </c>
       <c r="P80">
-        <v>3</v>
+        <v>1.75</v>
       </c>
       <c r="Q80">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R80">
+        <v>2</v>
+      </c>
+      <c r="S80">
         <v>1.8</v>
       </c>
-      <c r="S80">
-        <v>2</v>
-      </c>
       <c r="T80">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U80">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V80">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W80">
+        <v>-1</v>
+      </c>
+      <c r="X80">
+        <v>-1</v>
+      </c>
+      <c r="Y80">
+        <v>0.75</v>
+      </c>
+      <c r="Z80">
+        <v>-1</v>
+      </c>
+      <c r="AA80">
+        <v>0.8</v>
+      </c>
+      <c r="AB80">
         <v>1</v>
-      </c>
-      <c r="X80">
-        <v>-1</v>
-      </c>
-      <c r="Y80">
-        <v>-1</v>
-      </c>
-      <c r="Z80">
-        <v>0.8</v>
-      </c>
-      <c r="AA80">
-        <v>-1</v>
-      </c>
-      <c r="AB80">
-        <v>0.825</v>
       </c>
       <c r="AC80">
         <v>-1</v>
@@ -7880,7 +7880,7 @@
         <v>45252.69791666666</v>
       </c>
       <c r="F82" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G82" t="s">
         <v>73</v>
@@ -7969,10 +7969,10 @@
         <v>45258.69791666666</v>
       </c>
       <c r="F83" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G83" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H83">
         <v>2</v>
@@ -8150,7 +8150,7 @@
         <v>69</v>
       </c>
       <c r="G85" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H85">
         <v>1</v>
@@ -8414,7 +8414,7 @@
         <v>45269.5</v>
       </c>
       <c r="F88" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G88" t="s">
         <v>51</v>
@@ -8491,7 +8491,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>7581047</v>
+        <v>7581048</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8503,76 +8503,76 @@
         <v>45272.69791666666</v>
       </c>
       <c r="F89" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="G89" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="H89">
         <v>0</v>
       </c>
       <c r="I89">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J89" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K89">
-        <v>6</v>
+        <v>2.25</v>
       </c>
       <c r="L89">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="M89">
-        <v>1.333</v>
+        <v>2.5</v>
       </c>
       <c r="N89">
-        <v>5</v>
+        <v>2.2</v>
       </c>
       <c r="O89">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="P89">
-        <v>1.45</v>
+        <v>2.5</v>
       </c>
       <c r="Q89">
-        <v>1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R89">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S89">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T89">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U89">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="V89">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="W89">
         <v>-1</v>
       </c>
       <c r="X89">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y89">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z89">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA89">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB89">
         <v>-1</v>
       </c>
       <c r="AC89">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8580,7 +8580,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>7581048</v>
+        <v>7581047</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8592,76 +8592,76 @@
         <v>45272.69791666666</v>
       </c>
       <c r="F90" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="G90" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="H90">
         <v>0</v>
       </c>
       <c r="I90">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J90" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K90">
-        <v>2.25</v>
+        <v>6</v>
       </c>
       <c r="L90">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="M90">
-        <v>2.5</v>
+        <v>1.333</v>
       </c>
       <c r="N90">
-        <v>2.2</v>
+        <v>5</v>
       </c>
       <c r="O90">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="P90">
-        <v>2.5</v>
+        <v>1.45</v>
       </c>
       <c r="Q90">
-        <v>-0.25</v>
+        <v>1.25</v>
       </c>
       <c r="R90">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S90">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T90">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U90">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="V90">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="W90">
         <v>-1</v>
       </c>
       <c r="X90">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y90">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z90">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA90">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB90">
         <v>-1</v>
       </c>
       <c r="AC90">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8681,7 +8681,7 @@
         <v>45275.69791666666</v>
       </c>
       <c r="F91" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G91" t="s">
         <v>83</v>
@@ -8859,7 +8859,7 @@
         <v>45282.69791666666</v>
       </c>
       <c r="F93" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G93" t="s">
         <v>29</v>
@@ -8948,7 +8948,7 @@
         <v>45283.5</v>
       </c>
       <c r="F94" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G94" t="s">
         <v>52</v>
@@ -9037,10 +9037,10 @@
         <v>45283.5</v>
       </c>
       <c r="F95" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G95" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H95">
         <v>0</v>
@@ -9114,7 +9114,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>7624928</v>
+        <v>7624929</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -9126,58 +9126,58 @@
         <v>45286.41666666666</v>
       </c>
       <c r="F96" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="G96" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H96">
+        <v>2</v>
+      </c>
+      <c r="I96">
         <v>1</v>
-      </c>
-      <c r="I96">
-        <v>0</v>
       </c>
       <c r="J96" t="s">
         <v>89</v>
       </c>
       <c r="K96">
-        <v>2.75</v>
+        <v>1.727</v>
       </c>
       <c r="L96">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="M96">
-        <v>2.25</v>
+        <v>3.5</v>
       </c>
       <c r="N96">
-        <v>2.9</v>
+        <v>1.95</v>
       </c>
       <c r="O96">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="P96">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="Q96">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R96">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S96">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T96">
         <v>2.75</v>
       </c>
       <c r="U96">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V96">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W96">
-        <v>1.9</v>
+        <v>0.95</v>
       </c>
       <c r="X96">
         <v>-1</v>
@@ -9186,16 +9186,16 @@
         <v>-1</v>
       </c>
       <c r="Z96">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AA96">
         <v>-1</v>
       </c>
       <c r="AB96">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AC96">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="97" spans="1:29">
@@ -9203,7 +9203,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>7624929</v>
+        <v>7624928</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9215,58 +9215,58 @@
         <v>45286.41666666666</v>
       </c>
       <c r="F97" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="G97" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J97" t="s">
         <v>89</v>
       </c>
       <c r="K97">
-        <v>1.727</v>
+        <v>2.75</v>
       </c>
       <c r="L97">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="M97">
-        <v>3.5</v>
+        <v>2.25</v>
       </c>
       <c r="N97">
+        <v>2.9</v>
+      </c>
+      <c r="O97">
+        <v>3.3</v>
+      </c>
+      <c r="P97">
+        <v>2.25</v>
+      </c>
+      <c r="Q97">
+        <v>0.25</v>
+      </c>
+      <c r="R97">
+        <v>1.85</v>
+      </c>
+      <c r="S97">
         <v>1.95</v>
-      </c>
-      <c r="O97">
-        <v>3.8</v>
-      </c>
-      <c r="P97">
-        <v>3</v>
-      </c>
-      <c r="Q97">
-        <v>-0.25</v>
-      </c>
-      <c r="R97">
-        <v>1.8</v>
-      </c>
-      <c r="S97">
-        <v>2</v>
       </c>
       <c r="T97">
         <v>2.75</v>
       </c>
       <c r="U97">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V97">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W97">
-        <v>0.95</v>
+        <v>1.9</v>
       </c>
       <c r="X97">
         <v>-1</v>
@@ -9275,16 +9275,16 @@
         <v>-1</v>
       </c>
       <c r="Z97">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA97">
         <v>-1</v>
       </c>
       <c r="AB97">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AC97">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="98" spans="1:29">
@@ -9304,10 +9304,10 @@
         <v>45287.69791666666</v>
       </c>
       <c r="F98" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="G98" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H98">
         <v>1</v>
@@ -9396,7 +9396,7 @@
         <v>69</v>
       </c>
       <c r="G99" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H99">
         <v>1</v>
@@ -9485,7 +9485,7 @@
         <v>70</v>
       </c>
       <c r="G100" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H100">
         <v>2</v>
@@ -9574,7 +9574,7 @@
         <v>73</v>
       </c>
       <c r="G101" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="H101">
         <v>1</v>
@@ -9648,7 +9648,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>7639915</v>
+        <v>7639918</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9660,49 +9660,49 @@
         <v>45290.5</v>
       </c>
       <c r="F102" t="s">
-        <v>74</v>
+        <v>31</v>
       </c>
       <c r="G102" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="H102">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J102" t="s">
         <v>89</v>
       </c>
       <c r="K102">
-        <v>1.3</v>
+        <v>2.5</v>
       </c>
       <c r="L102">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="M102">
-        <v>7</v>
+        <v>2.35</v>
       </c>
       <c r="N102">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="O102">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="P102">
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="Q102">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R102">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S102">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T102">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U102">
         <v>1.95</v>
@@ -9711,7 +9711,7 @@
         <v>1.85</v>
       </c>
       <c r="W102">
-        <v>0.3999999999999999</v>
+        <v>1</v>
       </c>
       <c r="X102">
         <v>-1</v>
@@ -9720,16 +9720,16 @@
         <v>-1</v>
       </c>
       <c r="Z102">
-        <v>0.7749999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AA102">
         <v>-1</v>
       </c>
       <c r="AB102">
-        <v>0.95</v>
+        <v>0.475</v>
       </c>
       <c r="AC102">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -9737,7 +9737,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>7639918</v>
+        <v>7639915</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9749,49 +9749,49 @@
         <v>45290.5</v>
       </c>
       <c r="F103" t="s">
-        <v>31</v>
+        <v>74</v>
       </c>
       <c r="G103" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J103" t="s">
         <v>89</v>
       </c>
       <c r="K103">
-        <v>2.5</v>
+        <v>1.3</v>
       </c>
       <c r="L103">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="M103">
-        <v>2.35</v>
+        <v>7</v>
       </c>
       <c r="N103">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="O103">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="P103">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="Q103">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R103">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S103">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T103">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U103">
         <v>1.95</v>
@@ -9800,7 +9800,7 @@
         <v>1.85</v>
       </c>
       <c r="W103">
-        <v>1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X103">
         <v>-1</v>
@@ -9809,16 +9809,16 @@
         <v>-1</v>
       </c>
       <c r="Z103">
-        <v>0.8</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA103">
         <v>-1</v>
       </c>
       <c r="AB103">
-        <v>0.475</v>
+        <v>0.95</v>
       </c>
       <c r="AC103">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9838,10 +9838,10 @@
         <v>45292.375</v>
       </c>
       <c r="F104" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G104" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H104">
         <v>3</v>
@@ -10004,7 +10004,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>7649295</v>
+        <v>7649184</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -10019,73 +10019,73 @@
         <v>66</v>
       </c>
       <c r="G106" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="H106">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I106">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J106" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K106">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="L106">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M106">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="N106">
-        <v>1.909</v>
+        <v>1.7</v>
       </c>
       <c r="O106">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P106">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="Q106">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R106">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S106">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T106">
         <v>2.75</v>
       </c>
       <c r="U106">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="V106">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W106">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X106">
         <v>-1</v>
       </c>
       <c r="Y106">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z106">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA106">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB106">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AC106">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="107" spans="1:29">
@@ -10093,7 +10093,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>7649195</v>
+        <v>7649124</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -10105,76 +10105,76 @@
         <v>45292.5</v>
       </c>
       <c r="F107" t="s">
-        <v>76</v>
+        <v>30</v>
       </c>
       <c r="G107" t="s">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I107">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J107" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K107">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="L107">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M107">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="N107">
-        <v>2.4</v>
+        <v>2.55</v>
       </c>
       <c r="O107">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P107">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="Q107">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R107">
-        <v>1.9</v>
+        <v>1.725</v>
       </c>
       <c r="S107">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T107">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U107">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V107">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W107">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X107">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y107">
         <v>-1</v>
       </c>
       <c r="Z107">
-        <v>0</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA107">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB107">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC107">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="108" spans="1:29">
@@ -10182,7 +10182,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>7649184</v>
+        <v>7649195</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10194,76 +10194,76 @@
         <v>45292.5</v>
       </c>
       <c r="F108" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="G108" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108">
         <v>0</v>
       </c>
       <c r="J108" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K108">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="L108">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M108">
-        <v>3.4</v>
+        <v>2.4</v>
       </c>
       <c r="N108">
-        <v>1.7</v>
+        <v>2.4</v>
       </c>
       <c r="O108">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P108">
-        <v>3.75</v>
+        <v>2.4</v>
       </c>
       <c r="Q108">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R108">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S108">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T108">
         <v>2.75</v>
       </c>
       <c r="U108">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="V108">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W108">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X108">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y108">
         <v>-1</v>
       </c>
       <c r="Z108">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AA108">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB108">
         <v>-1</v>
       </c>
       <c r="AC108">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10271,7 +10271,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>7649124</v>
+        <v>7649295</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10283,76 +10283,76 @@
         <v>45292.5</v>
       </c>
       <c r="F109" t="s">
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="G109" t="s">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="H109">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I109">
         <v>2</v>
       </c>
       <c r="J109" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K109">
-        <v>2.5</v>
+        <v>1.909</v>
       </c>
       <c r="L109">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M109">
-        <v>2.25</v>
+        <v>3.2</v>
       </c>
       <c r="N109">
-        <v>2.55</v>
+        <v>1.909</v>
       </c>
       <c r="O109">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P109">
-        <v>2.25</v>
+        <v>3.2</v>
       </c>
       <c r="Q109">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R109">
-        <v>1.725</v>
+        <v>1.975</v>
       </c>
       <c r="S109">
+        <v>1.825</v>
+      </c>
+      <c r="T109">
+        <v>2.75</v>
+      </c>
+      <c r="U109">
+        <v>1.825</v>
+      </c>
+      <c r="V109">
         <v>1.975</v>
       </c>
-      <c r="T109">
-        <v>3.25</v>
-      </c>
-      <c r="U109">
-        <v>1.975</v>
-      </c>
-      <c r="V109">
-        <v>1.825</v>
-      </c>
       <c r="W109">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="X109">
         <v>-1</v>
       </c>
       <c r="Y109">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z109">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA109">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB109">
-        <v>0.9750000000000001</v>
+        <v>0.4125</v>
       </c>
       <c r="AC109">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="110" spans="1:29">
@@ -10360,7 +10360,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>7667993</v>
+        <v>7661416</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10372,76 +10372,76 @@
         <v>45297.5</v>
       </c>
       <c r="F110" t="s">
-        <v>77</v>
+        <v>41</v>
       </c>
       <c r="G110" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="H110">
         <v>0</v>
       </c>
       <c r="I110">
+        <v>3</v>
+      </c>
+      <c r="J110" t="s">
+        <v>91</v>
+      </c>
+      <c r="K110">
+        <v>2.4</v>
+      </c>
+      <c r="L110">
+        <v>3.8</v>
+      </c>
+      <c r="M110">
+        <v>2.3</v>
+      </c>
+      <c r="N110">
+        <v>2.15</v>
+      </c>
+      <c r="O110">
+        <v>3.8</v>
+      </c>
+      <c r="P110">
+        <v>2.55</v>
+      </c>
+      <c r="Q110">
+        <v>-0.25</v>
+      </c>
+      <c r="R110">
+        <v>2</v>
+      </c>
+      <c r="S110">
+        <v>1.8</v>
+      </c>
+      <c r="T110">
+        <v>3</v>
+      </c>
+      <c r="U110">
+        <v>1.85</v>
+      </c>
+      <c r="V110">
+        <v>1.95</v>
+      </c>
+      <c r="W110">
+        <v>-1</v>
+      </c>
+      <c r="X110">
+        <v>-1</v>
+      </c>
+      <c r="Y110">
+        <v>1.55</v>
+      </c>
+      <c r="Z110">
+        <v>-1</v>
+      </c>
+      <c r="AA110">
+        <v>0.8</v>
+      </c>
+      <c r="AB110">
         <v>0</v>
       </c>
-      <c r="J110" t="s">
-        <v>90</v>
-      </c>
-      <c r="K110">
-        <v>1.666</v>
-      </c>
-      <c r="L110">
-        <v>4</v>
-      </c>
-      <c r="M110">
-        <v>3.75</v>
-      </c>
-      <c r="N110">
-        <v>1.833</v>
-      </c>
-      <c r="O110">
-        <v>3.75</v>
-      </c>
-      <c r="P110">
-        <v>3.3</v>
-      </c>
-      <c r="Q110">
-        <v>-0.5</v>
-      </c>
-      <c r="R110">
-        <v>1.875</v>
-      </c>
-      <c r="S110">
-        <v>1.925</v>
-      </c>
-      <c r="T110">
-        <v>2.75</v>
-      </c>
-      <c r="U110">
-        <v>1.9</v>
-      </c>
-      <c r="V110">
-        <v>1.9</v>
-      </c>
-      <c r="W110">
-        <v>-1</v>
-      </c>
-      <c r="X110">
-        <v>2.75</v>
-      </c>
-      <c r="Y110">
-        <v>-1</v>
-      </c>
-      <c r="Z110">
-        <v>-1</v>
-      </c>
-      <c r="AA110">
-        <v>0.925</v>
-      </c>
-      <c r="AB110">
-        <v>-1</v>
-      </c>
       <c r="AC110">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="111" spans="1:29">
@@ -10449,7 +10449,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>7661416</v>
+        <v>7667993</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -10461,76 +10461,76 @@
         <v>45297.5</v>
       </c>
       <c r="F111" t="s">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="G111" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="H111">
         <v>0</v>
       </c>
       <c r="I111">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J111" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K111">
-        <v>2.4</v>
+        <v>1.666</v>
       </c>
       <c r="L111">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="M111">
-        <v>2.3</v>
+        <v>3.75</v>
       </c>
       <c r="N111">
-        <v>2.15</v>
+        <v>1.833</v>
       </c>
       <c r="O111">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P111">
-        <v>2.55</v>
+        <v>3.3</v>
       </c>
       <c r="Q111">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R111">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S111">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T111">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U111">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V111">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W111">
         <v>-1</v>
       </c>
       <c r="X111">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y111">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="Z111">
         <v>-1</v>
       </c>
       <c r="AA111">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AB111">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC111">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="112" spans="1:29">
@@ -10550,7 +10550,7 @@
         <v>45298.5</v>
       </c>
       <c r="F112" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="G112" t="s">
         <v>32</v>
@@ -10627,7 +10627,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>7675037</v>
+        <v>7674710</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10639,10 +10639,10 @@
         <v>45300.69791666666</v>
       </c>
       <c r="F113" t="s">
-        <v>57</v>
+        <v>78</v>
       </c>
       <c r="G113" t="s">
-        <v>85</v>
+        <v>39</v>
       </c>
       <c r="H113">
         <v>1</v>
@@ -10654,43 +10654,43 @@
         <v>89</v>
       </c>
       <c r="K113">
-        <v>2.25</v>
+        <v>1.2</v>
       </c>
       <c r="L113">
-        <v>3.5</v>
+        <v>6.5</v>
       </c>
       <c r="M113">
-        <v>2.6</v>
+        <v>8</v>
       </c>
       <c r="N113">
-        <v>2.375</v>
+        <v>1.181</v>
       </c>
       <c r="O113">
-        <v>3.5</v>
+        <v>6.5</v>
       </c>
       <c r="P113">
-        <v>2.45</v>
+        <v>10</v>
       </c>
       <c r="Q113">
-        <v>0</v>
+        <v>-2.25</v>
       </c>
       <c r="R113">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S113">
+        <v>1.85</v>
+      </c>
+      <c r="T113">
+        <v>3.75</v>
+      </c>
+      <c r="U113">
         <v>1.925</v>
       </c>
-      <c r="T113">
-        <v>2.75</v>
-      </c>
-      <c r="U113">
-        <v>1.75</v>
-      </c>
       <c r="V113">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="W113">
-        <v>1.375</v>
+        <v>0.181</v>
       </c>
       <c r="X113">
         <v>-1</v>
@@ -10699,16 +10699,16 @@
         <v>-1</v>
       </c>
       <c r="Z113">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA113">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB113">
         <v>-1</v>
       </c>
       <c r="AC113">
-        <v>0.95</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="114" spans="1:29">
@@ -10716,7 +10716,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>7674710</v>
+        <v>7674972</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10728,76 +10728,76 @@
         <v>45300.69791666666</v>
       </c>
       <c r="F114" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="G114" t="s">
-        <v>48</v>
+        <v>83</v>
       </c>
       <c r="H114">
         <v>1</v>
       </c>
       <c r="I114">
+        <v>2</v>
+      </c>
+      <c r="J114" t="s">
+        <v>91</v>
+      </c>
+      <c r="K114">
+        <v>2.375</v>
+      </c>
+      <c r="L114">
+        <v>3.6</v>
+      </c>
+      <c r="M114">
+        <v>2.375</v>
+      </c>
+      <c r="N114">
+        <v>2.2</v>
+      </c>
+      <c r="O114">
+        <v>3.6</v>
+      </c>
+      <c r="P114">
+        <v>2.55</v>
+      </c>
+      <c r="Q114">
+        <v>-0.25</v>
+      </c>
+      <c r="R114">
+        <v>2</v>
+      </c>
+      <c r="S114">
+        <v>1.8</v>
+      </c>
+      <c r="T114">
+        <v>3</v>
+      </c>
+      <c r="U114">
+        <v>1.825</v>
+      </c>
+      <c r="V114">
+        <v>1.975</v>
+      </c>
+      <c r="W114">
+        <v>-1</v>
+      </c>
+      <c r="X114">
+        <v>-1</v>
+      </c>
+      <c r="Y114">
+        <v>1.55</v>
+      </c>
+      <c r="Z114">
+        <v>-1</v>
+      </c>
+      <c r="AA114">
+        <v>0.8</v>
+      </c>
+      <c r="AB114">
         <v>0</v>
       </c>
-      <c r="J114" t="s">
-        <v>89</v>
-      </c>
-      <c r="K114">
-        <v>1.2</v>
-      </c>
-      <c r="L114">
-        <v>6.5</v>
-      </c>
-      <c r="M114">
-        <v>8</v>
-      </c>
-      <c r="N114">
-        <v>1.181</v>
-      </c>
-      <c r="O114">
-        <v>6.5</v>
-      </c>
-      <c r="P114">
-        <v>10</v>
-      </c>
-      <c r="Q114">
-        <v>-2.25</v>
-      </c>
-      <c r="R114">
-        <v>1.95</v>
-      </c>
-      <c r="S114">
-        <v>1.85</v>
-      </c>
-      <c r="T114">
-        <v>3.75</v>
-      </c>
-      <c r="U114">
-        <v>1.925</v>
-      </c>
-      <c r="V114">
-        <v>1.775</v>
-      </c>
-      <c r="W114">
-        <v>0.181</v>
-      </c>
-      <c r="X114">
-        <v>-1</v>
-      </c>
-      <c r="Y114">
-        <v>-1</v>
-      </c>
-      <c r="Z114">
-        <v>-1</v>
-      </c>
-      <c r="AA114">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AB114">
-        <v>-1</v>
-      </c>
       <c r="AC114">
-        <v>0.7749999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="115" spans="1:29">
@@ -10805,7 +10805,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>7674972</v>
+        <v>7674973</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10817,46 +10817,46 @@
         <v>45300.69791666666</v>
       </c>
       <c r="F115" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G115" t="s">
-        <v>83</v>
+        <v>54</v>
       </c>
       <c r="H115">
+        <v>0</v>
+      </c>
+      <c r="I115">
         <v>1</v>
-      </c>
-      <c r="I115">
-        <v>2</v>
       </c>
       <c r="J115" t="s">
         <v>91</v>
       </c>
       <c r="K115">
-        <v>2.375</v>
+        <v>1.8</v>
       </c>
       <c r="L115">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M115">
-        <v>2.375</v>
+        <v>3.4</v>
       </c>
       <c r="N115">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="O115">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P115">
-        <v>2.55</v>
+        <v>3.4</v>
       </c>
       <c r="Q115">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R115">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S115">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T115">
         <v>3</v>
@@ -10874,19 +10874,19 @@
         <v>-1</v>
       </c>
       <c r="Y115">
-        <v>1.55</v>
+        <v>2.4</v>
       </c>
       <c r="Z115">
         <v>-1</v>
       </c>
       <c r="AA115">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AB115">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC115">
-        <v>-0</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="116" spans="1:29">
@@ -10894,7 +10894,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>7674973</v>
+        <v>7675037</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10906,76 +10906,76 @@
         <v>45300.69791666666</v>
       </c>
       <c r="F116" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="G116" t="s">
-        <v>53</v>
+        <v>85</v>
       </c>
       <c r="H116">
+        <v>1</v>
+      </c>
+      <c r="I116">
         <v>0</v>
       </c>
-      <c r="I116">
-        <v>1</v>
-      </c>
       <c r="J116" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K116">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="L116">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M116">
-        <v>3.4</v>
+        <v>2.6</v>
       </c>
       <c r="N116">
-        <v>1.8</v>
+        <v>2.375</v>
       </c>
       <c r="O116">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P116">
-        <v>3.4</v>
+        <v>2.45</v>
       </c>
       <c r="Q116">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R116">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S116">
+        <v>1.925</v>
+      </c>
+      <c r="T116">
+        <v>2.75</v>
+      </c>
+      <c r="U116">
+        <v>1.75</v>
+      </c>
+      <c r="V116">
         <v>1.95</v>
       </c>
-      <c r="T116">
-        <v>3</v>
-      </c>
-      <c r="U116">
-        <v>1.825</v>
-      </c>
-      <c r="V116">
-        <v>1.975</v>
-      </c>
       <c r="W116">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X116">
         <v>-1</v>
       </c>
       <c r="Y116">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z116">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA116">
+        <v>-1</v>
+      </c>
+      <c r="AB116">
+        <v>-1</v>
+      </c>
+      <c r="AC116">
         <v>0.95</v>
-      </c>
-      <c r="AB116">
-        <v>-1</v>
-      </c>
-      <c r="AC116">
-        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="117" spans="1:29">
@@ -10995,7 +10995,7 @@
         <v>45300.69791666666</v>
       </c>
       <c r="F117" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G117" t="s">
         <v>65</v>
@@ -11072,7 +11072,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>7679042</v>
+        <v>7679052</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -11084,76 +11084,76 @@
         <v>45301.69791666666</v>
       </c>
       <c r="F118" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G118" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J118" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K118">
-        <v>1.571</v>
+        <v>2.5</v>
       </c>
       <c r="L118">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M118">
-        <v>4.333</v>
+        <v>2.25</v>
       </c>
       <c r="N118">
-        <v>1.65</v>
+        <v>2.55</v>
       </c>
       <c r="O118">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P118">
-        <v>4.2</v>
+        <v>2.25</v>
       </c>
       <c r="Q118">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R118">
+        <v>1.725</v>
+      </c>
+      <c r="S118">
+        <v>1.975</v>
+      </c>
+      <c r="T118">
+        <v>3</v>
+      </c>
+      <c r="U118">
         <v>1.85</v>
-      </c>
-      <c r="S118">
-        <v>1.95</v>
-      </c>
-      <c r="T118">
-        <v>2.75</v>
-      </c>
-      <c r="U118">
-        <v>1.75</v>
       </c>
       <c r="V118">
         <v>1.95</v>
       </c>
       <c r="W118">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X118">
         <v>-1</v>
       </c>
       <c r="Y118">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z118">
+        <v>-1</v>
+      </c>
+      <c r="AA118">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB118">
         <v>0.8500000000000001</v>
       </c>
-      <c r="AA118">
-        <v>-1</v>
-      </c>
-      <c r="AB118">
-        <v>-1</v>
-      </c>
       <c r="AC118">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="119" spans="1:29">
@@ -11161,7 +11161,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>7679052</v>
+        <v>7679042</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11173,76 +11173,76 @@
         <v>45301.69791666666</v>
       </c>
       <c r="F119" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G119" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="H119">
+        <v>2</v>
+      </c>
+      <c r="I119">
         <v>0</v>
       </c>
-      <c r="I119">
+      <c r="J119" t="s">
+        <v>89</v>
+      </c>
+      <c r="K119">
+        <v>1.571</v>
+      </c>
+      <c r="L119">
         <v>4</v>
       </c>
-      <c r="J119" t="s">
-        <v>91</v>
-      </c>
-      <c r="K119">
-        <v>2.5</v>
-      </c>
-      <c r="L119">
+      <c r="M119">
+        <v>4.333</v>
+      </c>
+      <c r="N119">
+        <v>1.65</v>
+      </c>
+      <c r="O119">
         <v>3.75</v>
       </c>
-      <c r="M119">
-        <v>2.25</v>
-      </c>
-      <c r="N119">
-        <v>2.55</v>
-      </c>
-      <c r="O119">
-        <v>3.6</v>
-      </c>
       <c r="P119">
-        <v>2.25</v>
+        <v>4.2</v>
       </c>
       <c r="Q119">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R119">
-        <v>1.725</v>
+        <v>1.85</v>
       </c>
       <c r="S119">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T119">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U119">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="V119">
         <v>1.95</v>
       </c>
       <c r="W119">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X119">
         <v>-1</v>
       </c>
       <c r="Y119">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z119">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA119">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB119">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC119">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -11250,7 +11250,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>7691322</v>
+        <v>7691318</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11262,10 +11262,10 @@
         <v>45304.5</v>
       </c>
       <c r="F120" t="s">
-        <v>35</v>
+        <v>74</v>
       </c>
       <c r="G120" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="H120">
         <v>2</v>
@@ -11277,61 +11277,61 @@
         <v>89</v>
       </c>
       <c r="K120">
+        <v>1.95</v>
+      </c>
+      <c r="L120">
+        <v>3.75</v>
+      </c>
+      <c r="M120">
+        <v>3</v>
+      </c>
+      <c r="N120">
+        <v>1.95</v>
+      </c>
+      <c r="O120">
+        <v>3.75</v>
+      </c>
+      <c r="P120">
+        <v>3</v>
+      </c>
+      <c r="Q120">
+        <v>-0.25</v>
+      </c>
+      <c r="R120">
         <v>1.75</v>
       </c>
-      <c r="L120">
-        <v>3.6</v>
-      </c>
-      <c r="M120">
-        <v>3.75</v>
-      </c>
-      <c r="N120">
-        <v>1.75</v>
-      </c>
-      <c r="O120">
-        <v>3.6</v>
-      </c>
-      <c r="P120">
-        <v>3.75</v>
-      </c>
-      <c r="Q120">
-        <v>-0.5</v>
-      </c>
-      <c r="R120">
-        <v>1.8</v>
-      </c>
       <c r="S120">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T120">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U120">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V120">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W120">
+        <v>0.95</v>
+      </c>
+      <c r="X120">
+        <v>-1</v>
+      </c>
+      <c r="Y120">
+        <v>-1</v>
+      </c>
+      <c r="Z120">
         <v>0.75</v>
       </c>
-      <c r="X120">
-        <v>-1</v>
-      </c>
-      <c r="Y120">
-        <v>-1</v>
-      </c>
-      <c r="Z120">
-        <v>0.8</v>
-      </c>
       <c r="AA120">
         <v>-1</v>
       </c>
       <c r="AB120">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AC120">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="121" spans="1:29">
@@ -11428,7 +11428,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>7691318</v>
+        <v>7691322</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11440,10 +11440,10 @@
         <v>45304.5</v>
       </c>
       <c r="F122" t="s">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="G122" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="H122">
         <v>2</v>
@@ -11455,43 +11455,43 @@
         <v>89</v>
       </c>
       <c r="K122">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="L122">
+        <v>3.6</v>
+      </c>
+      <c r="M122">
         <v>3.75</v>
       </c>
-      <c r="M122">
-        <v>3</v>
-      </c>
       <c r="N122">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="O122">
+        <v>3.6</v>
+      </c>
+      <c r="P122">
         <v>3.75</v>
       </c>
-      <c r="P122">
-        <v>3</v>
-      </c>
       <c r="Q122">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R122">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S122">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T122">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U122">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V122">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W122">
-        <v>0.95</v>
+        <v>0.75</v>
       </c>
       <c r="X122">
         <v>-1</v>
@@ -11500,16 +11500,16 @@
         <v>-1</v>
       </c>
       <c r="Z122">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AA122">
         <v>-1</v>
       </c>
       <c r="AB122">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AC122">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="123" spans="1:29">
@@ -11529,7 +11529,7 @@
         <v>45307.69791666666</v>
       </c>
       <c r="F123" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G123" t="s">
         <v>88</v>
@@ -11606,7 +11606,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>7719594</v>
+        <v>7725153</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11618,10 +11618,10 @@
         <v>45311.5</v>
       </c>
       <c r="F124" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="G124" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="H124">
         <v>0</v>
@@ -11633,61 +11633,61 @@
         <v>90</v>
       </c>
       <c r="K124">
-        <v>1.4</v>
+        <v>2.25</v>
       </c>
       <c r="L124">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="M124">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="N124">
-        <v>1.4</v>
+        <v>2.25</v>
       </c>
       <c r="O124">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="P124">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="Q124">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R124">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="S124">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="T124">
         <v>3</v>
       </c>
       <c r="U124">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="V124">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W124">
         <v>-1</v>
       </c>
       <c r="X124">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="Y124">
         <v>-1</v>
       </c>
       <c r="Z124">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA124">
-        <v>0.95</v>
+        <v>0.375</v>
       </c>
       <c r="AB124">
         <v>-1</v>
       </c>
       <c r="AC124">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11695,7 +11695,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>7719544</v>
+        <v>7719604</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11707,13 +11707,13 @@
         <v>45311.5</v>
       </c>
       <c r="F125" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="G125" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="H125">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I125">
         <v>0</v>
@@ -11722,61 +11722,61 @@
         <v>89</v>
       </c>
       <c r="K125">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="L125">
         <v>4</v>
       </c>
       <c r="M125">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="N125">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="O125">
         <v>4</v>
       </c>
       <c r="P125">
-        <v>2.7</v>
+        <v>2.45</v>
       </c>
       <c r="Q125">
         <v>-0.25</v>
       </c>
       <c r="R125">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="S125">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="T125">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U125">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V125">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W125">
+        <v>1.25</v>
+      </c>
+      <c r="X125">
+        <v>-1</v>
+      </c>
+      <c r="Y125">
+        <v>-1</v>
+      </c>
+      <c r="Z125">
         <v>1.05</v>
       </c>
-      <c r="X125">
-        <v>-1</v>
-      </c>
-      <c r="Y125">
-        <v>-1</v>
-      </c>
-      <c r="Z125">
-        <v>0.875</v>
-      </c>
       <c r="AA125">
         <v>-1</v>
       </c>
       <c r="AB125">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC125">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -11784,7 +11784,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>7719604</v>
+        <v>7719544</v>
       </c>
       <c r="C126" t="s">
         <v>28</v>
@@ -11796,13 +11796,13 @@
         <v>45311.5</v>
       </c>
       <c r="F126" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="G126" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="H126">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I126">
         <v>0</v>
@@ -11811,43 +11811,43 @@
         <v>89</v>
       </c>
       <c r="K126">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="L126">
         <v>4</v>
       </c>
       <c r="M126">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="N126">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="O126">
         <v>4</v>
       </c>
       <c r="P126">
-        <v>2.45</v>
+        <v>2.7</v>
       </c>
       <c r="Q126">
         <v>-0.25</v>
       </c>
       <c r="R126">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="S126">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="T126">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U126">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V126">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W126">
-        <v>1.25</v>
+        <v>1.05</v>
       </c>
       <c r="X126">
         <v>-1</v>
@@ -11856,16 +11856,16 @@
         <v>-1</v>
       </c>
       <c r="Z126">
-        <v>1.05</v>
+        <v>0.875</v>
       </c>
       <c r="AA126">
         <v>-1</v>
       </c>
       <c r="AB126">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC126">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="127" spans="1:29">
@@ -11873,7 +11873,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>7725153</v>
+        <v>7719594</v>
       </c>
       <c r="C127" t="s">
         <v>28</v>
@@ -11885,10 +11885,10 @@
         <v>45311.5</v>
       </c>
       <c r="F127" t="s">
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="G127" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="H127">
         <v>0</v>
@@ -11900,61 +11900,61 @@
         <v>90</v>
       </c>
       <c r="K127">
-        <v>2.25</v>
+        <v>1.4</v>
       </c>
       <c r="L127">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="M127">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="N127">
-        <v>2.25</v>
+        <v>1.4</v>
       </c>
       <c r="O127">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="P127">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="Q127">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R127">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S127">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="T127">
         <v>3</v>
       </c>
       <c r="U127">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="V127">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W127">
         <v>-1</v>
       </c>
       <c r="X127">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="Y127">
         <v>-1</v>
       </c>
       <c r="Z127">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA127">
-        <v>0.375</v>
+        <v>0.95</v>
       </c>
       <c r="AB127">
         <v>-1</v>
       </c>
       <c r="AC127">
-        <v>1.025</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="128" spans="1:29">
@@ -11977,7 +11977,7 @@
         <v>32</v>
       </c>
       <c r="G128" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H128">
         <v>0</v>
@@ -12152,7 +12152,7 @@
         <v>45315.69791666666</v>
       </c>
       <c r="F130" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G130" t="s">
         <v>43</v>
@@ -12330,7 +12330,7 @@
         <v>45321.69791666666</v>
       </c>
       <c r="F132" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G132" t="s">
         <v>87</v>
@@ -12419,7 +12419,7 @@
         <v>45321.69791666666</v>
       </c>
       <c r="F133" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G133" t="s">
         <v>79</v>
@@ -12511,7 +12511,7 @@
         <v>69</v>
       </c>
       <c r="G134" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H134">
         <v>1</v>
@@ -12597,7 +12597,7 @@
         <v>45321.69791666666</v>
       </c>
       <c r="F135" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G135" t="s">
         <v>31</v>
@@ -12689,7 +12689,7 @@
         <v>80</v>
       </c>
       <c r="G136" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H136">
         <v>3</v>
@@ -12867,7 +12867,7 @@
         <v>29</v>
       </c>
       <c r="G138" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H138">
         <v>1</v>
@@ -12956,7 +12956,7 @@
         <v>76</v>
       </c>
       <c r="G139" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H139">
         <v>1</v>
@@ -13042,7 +13042,7 @@
         <v>45328.69791666666</v>
       </c>
       <c r="F140" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G140" t="s">
         <v>80</v>
@@ -13131,10 +13131,10 @@
         <v>45329.69791666666</v>
       </c>
       <c r="F141" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G141" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="H141">
         <v>1</v>
@@ -13309,7 +13309,7 @@
         <v>45332.5</v>
       </c>
       <c r="F143" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G143" t="s">
         <v>86</v>
@@ -13386,7 +13386,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>7844462</v>
+        <v>7844458</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13398,40 +13398,40 @@
         <v>45339.5</v>
       </c>
       <c r="F144" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="G144" t="s">
-        <v>51</v>
+        <v>85</v>
       </c>
       <c r="H144">
         <v>0</v>
       </c>
       <c r="I144">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J144" t="s">
         <v>91</v>
       </c>
       <c r="K144">
-        <v>2.4</v>
+        <v>3.6</v>
       </c>
       <c r="L144">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M144">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="N144">
-        <v>2.875</v>
+        <v>4.5</v>
       </c>
       <c r="O144">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P144">
-        <v>1.95</v>
+        <v>1.571</v>
       </c>
       <c r="Q144">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="R144">
         <v>1.75</v>
@@ -13455,7 +13455,7 @@
         <v>-1</v>
       </c>
       <c r="Y144">
-        <v>0.95</v>
+        <v>0.571</v>
       </c>
       <c r="Z144">
         <v>-1</v>
@@ -13475,7 +13475,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>7844458</v>
+        <v>7844457</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13487,76 +13487,76 @@
         <v>45339.5</v>
       </c>
       <c r="F145" t="s">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="G145" t="s">
-        <v>85</v>
+        <v>53</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J145" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K145">
-        <v>3.6</v>
+        <v>1.6</v>
       </c>
       <c r="L145">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M145">
+        <v>4.2</v>
+      </c>
+      <c r="N145">
+        <v>1.6</v>
+      </c>
+      <c r="O145">
+        <v>4</v>
+      </c>
+      <c r="P145">
+        <v>4.2</v>
+      </c>
+      <c r="Q145">
+        <v>-0.75</v>
+      </c>
+      <c r="R145">
         <v>1.8</v>
       </c>
-      <c r="N145">
-        <v>4.5</v>
-      </c>
-      <c r="O145">
-        <v>3.6</v>
-      </c>
-      <c r="P145">
-        <v>1.571</v>
-      </c>
-      <c r="Q145">
-        <v>1</v>
-      </c>
-      <c r="R145">
-        <v>1.75</v>
-      </c>
       <c r="S145">
+        <v>2</v>
+      </c>
+      <c r="T145">
+        <v>2.5</v>
+      </c>
+      <c r="U145">
+        <v>1.85</v>
+      </c>
+      <c r="V145">
         <v>1.95</v>
       </c>
-      <c r="T145">
-        <v>3</v>
-      </c>
-      <c r="U145">
-        <v>1.95</v>
-      </c>
-      <c r="V145">
-        <v>1.85</v>
-      </c>
       <c r="W145">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X145">
         <v>-1</v>
       </c>
       <c r="Y145">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="Z145">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AA145">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AB145">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC145">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="146" spans="1:29">
@@ -13564,7 +13564,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>7844457</v>
+        <v>7844459</v>
       </c>
       <c r="C146" t="s">
         <v>28</v>
@@ -13576,58 +13576,58 @@
         <v>45339.5</v>
       </c>
       <c r="F146" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="G146" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="H146">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I146">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J146" t="s">
         <v>89</v>
       </c>
       <c r="K146">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="L146">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M146">
-        <v>4.2</v>
+        <v>5.5</v>
       </c>
       <c r="N146">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="O146">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="P146">
-        <v>4.2</v>
+        <v>5.25</v>
       </c>
       <c r="Q146">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R146">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S146">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T146">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U146">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V146">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W146">
-        <v>0.6000000000000001</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X146">
         <v>-1</v>
@@ -13636,16 +13636,16 @@
         <v>-1</v>
       </c>
       <c r="Z146">
-        <v>0.4</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA146">
+        <v>-1</v>
+      </c>
+      <c r="AB146">
+        <v>0.45</v>
+      </c>
+      <c r="AC146">
         <v>-0.5</v>
-      </c>
-      <c r="AB146">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AC146">
-        <v>-1</v>
       </c>
     </row>
     <row r="147" spans="1:29">
@@ -13653,7 +13653,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>7844459</v>
+        <v>7844462</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13665,76 +13665,76 @@
         <v>45339.5</v>
       </c>
       <c r="F147" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G147" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="H147">
+        <v>0</v>
+      </c>
+      <c r="I147">
+        <v>1</v>
+      </c>
+      <c r="J147" t="s">
+        <v>91</v>
+      </c>
+      <c r="K147">
+        <v>2.4</v>
+      </c>
+      <c r="L147">
+        <v>4</v>
+      </c>
+      <c r="M147">
+        <v>2.25</v>
+      </c>
+      <c r="N147">
+        <v>2.875</v>
+      </c>
+      <c r="O147">
+        <v>4</v>
+      </c>
+      <c r="P147">
+        <v>1.95</v>
+      </c>
+      <c r="Q147">
+        <v>0.5</v>
+      </c>
+      <c r="R147">
+        <v>1.75</v>
+      </c>
+      <c r="S147">
+        <v>1.95</v>
+      </c>
+      <c r="T147">
         <v>3</v>
       </c>
-      <c r="I147">
-        <v>0</v>
-      </c>
-      <c r="J147" t="s">
-        <v>89</v>
-      </c>
-      <c r="K147">
-        <v>1.4</v>
-      </c>
-      <c r="L147">
-        <v>4.5</v>
-      </c>
-      <c r="M147">
-        <v>5.5</v>
-      </c>
-      <c r="N147">
-        <v>1.4</v>
-      </c>
-      <c r="O147">
-        <v>4.5</v>
-      </c>
-      <c r="P147">
-        <v>5.25</v>
-      </c>
-      <c r="Q147">
-        <v>-1.25</v>
-      </c>
-      <c r="R147">
-        <v>1.9</v>
-      </c>
-      <c r="S147">
-        <v>1.9</v>
-      </c>
-      <c r="T147">
-        <v>2.75</v>
-      </c>
       <c r="U147">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V147">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W147">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X147">
         <v>-1</v>
       </c>
       <c r="Y147">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z147">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA147">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB147">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AC147">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="148" spans="1:29">
@@ -13742,7 +13742,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>7844460</v>
+        <v>7844461</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13754,76 +13754,76 @@
         <v>45339.5</v>
       </c>
       <c r="F148" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="G148" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="H148">
+        <v>1</v>
+      </c>
+      <c r="I148">
+        <v>1</v>
+      </c>
+      <c r="J148" t="s">
+        <v>90</v>
+      </c>
+      <c r="K148">
+        <v>1.6</v>
+      </c>
+      <c r="L148">
         <v>4</v>
       </c>
-      <c r="I148">
-        <v>2</v>
-      </c>
-      <c r="J148" t="s">
-        <v>89</v>
-      </c>
-      <c r="K148">
-        <v>1.8</v>
-      </c>
-      <c r="L148">
-        <v>3.8</v>
-      </c>
       <c r="M148">
+        <v>4.2</v>
+      </c>
+      <c r="N148">
+        <v>1.75</v>
+      </c>
+      <c r="O148">
+        <v>4</v>
+      </c>
+      <c r="P148">
         <v>3.4</v>
-      </c>
-      <c r="N148">
-        <v>1.8</v>
-      </c>
-      <c r="O148">
-        <v>3.8</v>
-      </c>
-      <c r="P148">
-        <v>3.3</v>
       </c>
       <c r="Q148">
         <v>-0.5</v>
       </c>
       <c r="R148">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S148">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T148">
         <v>2.75</v>
       </c>
       <c r="U148">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V148">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W148">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X148">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y148">
         <v>-1</v>
       </c>
       <c r="Z148">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA148">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB148">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC148">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="149" spans="1:29">
@@ -13831,7 +13831,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>7844461</v>
+        <v>7844460</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -13843,76 +13843,76 @@
         <v>45339.5</v>
       </c>
       <c r="F149" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="G149" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="H149">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I149">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J149" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K149">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="L149">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="M149">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="N149">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="O149">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P149">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="Q149">
         <v>-0.5</v>
       </c>
       <c r="R149">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S149">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T149">
         <v>2.75</v>
       </c>
       <c r="U149">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V149">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W149">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X149">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y149">
         <v>-1</v>
       </c>
       <c r="Z149">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA149">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB149">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC149">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="150" spans="1:29">
@@ -13932,7 +13932,7 @@
         <v>45342.69791666666</v>
       </c>
       <c r="F150" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G150" t="s">
         <v>43</v>
@@ -14187,7 +14187,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>7915176</v>
+        <v>7915228</v>
       </c>
       <c r="C153" t="s">
         <v>28</v>
@@ -14199,73 +14199,73 @@
         <v>45356.69791666666</v>
       </c>
       <c r="F153" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G153" t="s">
-        <v>86</v>
+        <v>32</v>
       </c>
       <c r="H153">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I153">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J153" t="s">
         <v>90</v>
       </c>
       <c r="K153">
-        <v>1.615</v>
+        <v>3.75</v>
       </c>
       <c r="L153">
-        <v>4.333</v>
+        <v>4.75</v>
       </c>
       <c r="M153">
-        <v>3.75</v>
+        <v>1.571</v>
       </c>
       <c r="N153">
-        <v>1.615</v>
+        <v>3.4</v>
       </c>
       <c r="O153">
-        <v>4.333</v>
+        <v>4.5</v>
       </c>
       <c r="P153">
-        <v>3.75</v>
+        <v>1.666</v>
       </c>
       <c r="Q153">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="R153">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S153">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T153">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U153">
+        <v>1.95</v>
+      </c>
+      <c r="V153">
         <v>1.85</v>
       </c>
-      <c r="V153">
-        <v>1.95</v>
-      </c>
       <c r="W153">
         <v>-1</v>
       </c>
       <c r="X153">
-        <v>3.333</v>
+        <v>3.5</v>
       </c>
       <c r="Y153">
         <v>-1</v>
       </c>
       <c r="Z153">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA153">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB153">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AC153">
         <v>-1</v>
@@ -14276,7 +14276,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>7915177</v>
+        <v>7915179</v>
       </c>
       <c r="C154" t="s">
         <v>28</v>
@@ -14288,73 +14288,73 @@
         <v>45356.69791666666</v>
       </c>
       <c r="F154" t="s">
-        <v>29</v>
+        <v>81</v>
       </c>
       <c r="G154" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H154">
+        <v>1</v>
+      </c>
+      <c r="I154">
         <v>3</v>
       </c>
-      <c r="I154">
-        <v>2</v>
-      </c>
       <c r="J154" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K154">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="L154">
         <v>4.5</v>
       </c>
       <c r="M154">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="N154">
-        <v>1.85</v>
+        <v>2.25</v>
       </c>
       <c r="O154">
         <v>4.5</v>
       </c>
       <c r="P154">
-        <v>2.875</v>
+        <v>2.25</v>
       </c>
       <c r="Q154">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R154">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S154">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T154">
         <v>3</v>
       </c>
       <c r="U154">
+        <v>1.825</v>
+      </c>
+      <c r="V154">
         <v>1.975</v>
       </c>
-      <c r="V154">
-        <v>1.825</v>
-      </c>
       <c r="W154">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X154">
         <v>-1</v>
       </c>
       <c r="Y154">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z154">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA154">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB154">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AC154">
         <v>-1</v>
@@ -14454,7 +14454,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>7915179</v>
+        <v>7915227</v>
       </c>
       <c r="C156" t="s">
         <v>28</v>
@@ -14466,55 +14466,55 @@
         <v>45356.69791666666</v>
       </c>
       <c r="F156" t="s">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="G156" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="H156">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I156">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J156" t="s">
         <v>91</v>
       </c>
       <c r="K156">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="L156">
         <v>4.5</v>
       </c>
       <c r="M156">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="N156">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="O156">
         <v>4.5</v>
       </c>
       <c r="P156">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="Q156">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R156">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S156">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T156">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U156">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V156">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W156">
         <v>-1</v>
@@ -14523,16 +14523,16 @@
         <v>-1</v>
       </c>
       <c r="Y156">
-        <v>1.25</v>
+        <v>0.8</v>
       </c>
       <c r="Z156">
         <v>-1</v>
       </c>
       <c r="AA156">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB156">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC156">
         <v>-1</v>
@@ -14543,7 +14543,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>7915227</v>
+        <v>7915176</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14555,46 +14555,46 @@
         <v>45356.69791666666</v>
       </c>
       <c r="F157" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="G157" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I157">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J157" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K157">
-        <v>3</v>
+        <v>1.615</v>
       </c>
       <c r="L157">
-        <v>4.5</v>
+        <v>4.333</v>
       </c>
       <c r="M157">
+        <v>3.75</v>
+      </c>
+      <c r="N157">
+        <v>1.615</v>
+      </c>
+      <c r="O157">
+        <v>4.333</v>
+      </c>
+      <c r="P157">
+        <v>3.75</v>
+      </c>
+      <c r="Q157">
+        <v>-0.75</v>
+      </c>
+      <c r="R157">
         <v>1.8</v>
       </c>
-      <c r="N157">
-        <v>3</v>
-      </c>
-      <c r="O157">
-        <v>4.5</v>
-      </c>
-      <c r="P157">
-        <v>1.8</v>
-      </c>
-      <c r="Q157">
-        <v>0.5</v>
-      </c>
-      <c r="R157">
-        <v>1.95</v>
-      </c>
       <c r="S157">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T157">
         <v>3.25</v>
@@ -14609,16 +14609,16 @@
         <v>-1</v>
       </c>
       <c r="X157">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y157">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z157">
         <v>-1</v>
       </c>
       <c r="AA157">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AB157">
         <v>0.8500000000000001</v>
@@ -14632,7 +14632,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>7915228</v>
+        <v>7915177</v>
       </c>
       <c r="C158" t="s">
         <v>28</v>
@@ -14644,73 +14644,73 @@
         <v>45356.69791666666</v>
       </c>
       <c r="F158" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="G158" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="H158">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I158">
         <v>2</v>
       </c>
       <c r="J158" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K158">
-        <v>3.75</v>
+        <v>1.8</v>
       </c>
       <c r="L158">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="M158">
-        <v>1.571</v>
+        <v>3</v>
       </c>
       <c r="N158">
-        <v>3.4</v>
+        <v>1.85</v>
       </c>
       <c r="O158">
         <v>4.5</v>
       </c>
       <c r="P158">
-        <v>1.666</v>
+        <v>2.875</v>
       </c>
       <c r="Q158">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R158">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S158">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T158">
         <v>3</v>
       </c>
       <c r="U158">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V158">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W158">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X158">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y158">
         <v>-1</v>
       </c>
       <c r="Z158">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AA158">
         <v>-1</v>
       </c>
       <c r="AB158">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC158">
         <v>-1</v>
@@ -14803,6 +14803,184 @@
       </c>
       <c r="AC159">
         <v>0.95</v>
+      </c>
+    </row>
+    <row r="160" spans="1:29">
+      <c r="A160" s="1">
+        <v>158</v>
+      </c>
+      <c r="B160">
+        <v>7965118</v>
+      </c>
+      <c r="C160" t="s">
+        <v>28</v>
+      </c>
+      <c r="D160" t="s">
+        <v>28</v>
+      </c>
+      <c r="E160" s="2">
+        <v>45367.5</v>
+      </c>
+      <c r="F160" t="s">
+        <v>56</v>
+      </c>
+      <c r="G160" t="s">
+        <v>48</v>
+      </c>
+      <c r="H160">
+        <v>1</v>
+      </c>
+      <c r="I160">
+        <v>2</v>
+      </c>
+      <c r="J160" t="s">
+        <v>91</v>
+      </c>
+      <c r="K160">
+        <v>2.5</v>
+      </c>
+      <c r="L160">
+        <v>4</v>
+      </c>
+      <c r="M160">
+        <v>2.15</v>
+      </c>
+      <c r="N160">
+        <v>2.55</v>
+      </c>
+      <c r="O160">
+        <v>4</v>
+      </c>
+      <c r="P160">
+        <v>2.1</v>
+      </c>
+      <c r="Q160">
+        <v>0.25</v>
+      </c>
+      <c r="R160">
+        <v>1.825</v>
+      </c>
+      <c r="S160">
+        <v>1.975</v>
+      </c>
+      <c r="T160">
+        <v>2.75</v>
+      </c>
+      <c r="U160">
+        <v>1.825</v>
+      </c>
+      <c r="V160">
+        <v>1.975</v>
+      </c>
+      <c r="W160">
+        <v>-1</v>
+      </c>
+      <c r="X160">
+        <v>-1</v>
+      </c>
+      <c r="Y160">
+        <v>1.1</v>
+      </c>
+      <c r="Z160">
+        <v>-1</v>
+      </c>
+      <c r="AA160">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB160">
+        <v>0.4125</v>
+      </c>
+      <c r="AC160">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="161" spans="1:29">
+      <c r="A161" s="1">
+        <v>159</v>
+      </c>
+      <c r="B161">
+        <v>7965119</v>
+      </c>
+      <c r="C161" t="s">
+        <v>28</v>
+      </c>
+      <c r="D161" t="s">
+        <v>28</v>
+      </c>
+      <c r="E161" s="2">
+        <v>45367.5</v>
+      </c>
+      <c r="F161" t="s">
+        <v>49</v>
+      </c>
+      <c r="G161" t="s">
+        <v>44</v>
+      </c>
+      <c r="H161">
+        <v>4</v>
+      </c>
+      <c r="I161">
+        <v>1</v>
+      </c>
+      <c r="J161" t="s">
+        <v>89</v>
+      </c>
+      <c r="K161">
+        <v>2.1</v>
+      </c>
+      <c r="L161">
+        <v>4</v>
+      </c>
+      <c r="M161">
+        <v>2.6</v>
+      </c>
+      <c r="N161">
+        <v>1.85</v>
+      </c>
+      <c r="O161">
+        <v>4.2</v>
+      </c>
+      <c r="P161">
+        <v>3</v>
+      </c>
+      <c r="Q161">
+        <v>-0.5</v>
+      </c>
+      <c r="R161">
+        <v>1.9</v>
+      </c>
+      <c r="S161">
+        <v>1.9</v>
+      </c>
+      <c r="T161">
+        <v>3</v>
+      </c>
+      <c r="U161">
+        <v>1.95</v>
+      </c>
+      <c r="V161">
+        <v>1.85</v>
+      </c>
+      <c r="W161">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="X161">
+        <v>-1</v>
+      </c>
+      <c r="Y161">
+        <v>-1</v>
+      </c>
+      <c r="Z161">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AA161">
+        <v>-1</v>
+      </c>
+      <c r="AB161">
+        <v>0.95</v>
+      </c>
+      <c r="AC161">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/England Northern League Division One/England Northern League Division One.xlsx
+++ b/England Northern League Division One/England Northern League Division One.xlsx
@@ -139,6 +139,9 @@
     <t>North Ferriby</t>
   </si>
   <si>
+    <t>Grantham</t>
+  </si>
+  <si>
     <t>Liversedge</t>
   </si>
   <si>
@@ -146,6 +149,9 @@
   </si>
   <si>
     <t>AFC Rushden  Diamonds</t>
+  </si>
+  <si>
+    <t>Dunston UTS</t>
   </si>
   <si>
     <t>Rugby Town</t>
@@ -163,13 +169,7 @@
     <t>Mossley</t>
   </si>
   <si>
-    <t>Grantham</t>
-  </si>
-  <si>
-    <t>Dunston UTS</t>
-  </si>
-  <si>
-    <t>Avro FC</t>
+    <t>Winterton Rangers</t>
   </si>
   <si>
     <t>Stockton Town</t>
@@ -178,7 +178,7 @@
     <t>Grimsby Borough</t>
   </si>
   <si>
-    <t>Winterton Rangers</t>
+    <t>Avro FC</t>
   </si>
   <si>
     <t>Stalybridge</t>
@@ -190,16 +190,16 @@
     <t>Prescot Cables</t>
   </si>
   <si>
+    <t>Witton Albion</t>
+  </si>
+  <si>
     <t>Gresley Rovers</t>
   </si>
   <si>
-    <t>Witton Albion</t>
+    <t>Anstey Nomads</t>
   </si>
   <si>
     <t>Kidsgrove Ath</t>
-  </si>
-  <si>
-    <t>Anstey Nomads</t>
   </si>
   <si>
     <t>Ossett United</t>
@@ -214,13 +214,13 @@
     <t>Newton Aycliffe</t>
   </si>
   <si>
-    <t>Sporting Khalsa</t>
+    <t>Nantwich Town</t>
   </si>
   <si>
     <t>Harborough Town</t>
   </si>
   <si>
-    <t>Nantwich Town</t>
+    <t>Sporting Khalsa</t>
   </si>
   <si>
     <t>Carlton Town</t>
@@ -241,10 +241,10 @@
     <t>Quorn</t>
   </si>
   <si>
-    <t>Sutton Coldfield</t>
+    <t>Newcastle Town</t>
   </si>
   <si>
-    <t>Newcastle Town</t>
+    <t>Sutton Coldfield</t>
   </si>
   <si>
     <t>Clitheroe</t>
@@ -941,7 +941,7 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H4">
         <v>3</v>
@@ -1297,7 +1297,7 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -1475,7 +1475,7 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H10">
         <v>2</v>
@@ -1564,7 +1564,7 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1816,7 +1816,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>7100111</v>
+        <v>7100107</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1828,76 +1828,76 @@
         <v>45160.65625</v>
       </c>
       <c r="F14" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="G14" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I14">
         <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K14">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="L14">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M14">
-        <v>2.75</v>
+        <v>2.4</v>
       </c>
       <c r="N14">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="O14">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P14">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="Q14">
         <v>0.25</v>
       </c>
       <c r="R14">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S14">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T14">
         <v>2.5</v>
       </c>
       <c r="U14">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V14">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W14">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="X14">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y14">
         <v>-1</v>
       </c>
       <c r="Z14">
-        <v>0.475</v>
+        <v>0.875</v>
       </c>
       <c r="AA14">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB14">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC14">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -1917,7 +1917,7 @@
         <v>45160.65625</v>
       </c>
       <c r="F15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G15" t="s">
         <v>65</v>
@@ -1994,7 +1994,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>7100392</v>
+        <v>7100111</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -2006,76 +2006,76 @@
         <v>45160.65625</v>
       </c>
       <c r="F16" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="G16" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J16" t="s">
         <v>90</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="L16">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="M16">
         <v>2.75</v>
       </c>
       <c r="N16">
-        <v>2</v>
+        <v>3.1</v>
       </c>
       <c r="O16">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="P16">
-        <v>2.75</v>
+        <v>2.05</v>
       </c>
       <c r="Q16">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R16">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S16">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T16">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U16">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V16">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W16">
         <v>-1</v>
       </c>
       <c r="X16">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="Y16">
         <v>-1</v>
       </c>
       <c r="Z16">
+        <v>0.475</v>
+      </c>
+      <c r="AA16">
         <v>-0.5</v>
       </c>
-      <c r="AA16">
-        <v>0.4875</v>
-      </c>
       <c r="AB16">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC16">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -2083,7 +2083,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>7100282</v>
+        <v>7100392</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -2098,73 +2098,73 @@
         <v>43</v>
       </c>
       <c r="G17" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K17">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="L17">
         <v>4</v>
       </c>
       <c r="M17">
-        <v>2.45</v>
+        <v>2.75</v>
       </c>
       <c r="N17">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="O17">
         <v>4</v>
       </c>
       <c r="P17">
-        <v>2.4</v>
+        <v>2.75</v>
       </c>
       <c r="Q17">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R17">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S17">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T17">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U17">
+        <v>1.975</v>
+      </c>
+      <c r="V17">
         <v>1.825</v>
       </c>
-      <c r="V17">
-        <v>1.975</v>
-      </c>
       <c r="W17">
         <v>-1</v>
       </c>
       <c r="X17">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y17">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Z17">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA17">
-        <v>0.95</v>
+        <v>0.4875</v>
       </c>
       <c r="AB17">
-        <v>0.4125</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC17">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2172,7 +2172,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>7100405</v>
+        <v>7100282</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2187,52 +2187,52 @@
         <v>44</v>
       </c>
       <c r="G18" t="s">
-        <v>34</v>
+        <v>63</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J18" t="s">
         <v>91</v>
       </c>
       <c r="K18">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="L18">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M18">
-        <v>2.3</v>
+        <v>2.45</v>
       </c>
       <c r="N18">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="O18">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P18">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
       <c r="R18">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S18">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T18">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U18">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V18">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W18">
         <v>-1</v>
@@ -2241,19 +2241,19 @@
         <v>-1</v>
       </c>
       <c r="Y18">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="Z18">
         <v>-1</v>
       </c>
       <c r="AA18">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AB18">
-        <v>0.95</v>
+        <v>0.4125</v>
       </c>
       <c r="AC18">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2261,7 +2261,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>7100546</v>
+        <v>7100106</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2276,58 +2276,58 @@
         <v>45</v>
       </c>
       <c r="G19" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19" t="s">
         <v>90</v>
       </c>
       <c r="K19">
-        <v>1.615</v>
+        <v>2.05</v>
       </c>
       <c r="L19">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="M19">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="N19">
-        <v>1.45</v>
+        <v>1.85</v>
       </c>
       <c r="O19">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="P19">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="Q19">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R19">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S19">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T19">
         <v>2.75</v>
       </c>
       <c r="U19">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V19">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W19">
         <v>-1</v>
       </c>
       <c r="X19">
-        <v>3.333</v>
+        <v>2.4</v>
       </c>
       <c r="Y19">
         <v>-1</v>
@@ -2336,13 +2336,13 @@
         <v>-1</v>
       </c>
       <c r="AA19">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB19">
         <v>-1</v>
       </c>
       <c r="AC19">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2350,7 +2350,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>7100543</v>
+        <v>7100405</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2365,52 +2365,52 @@
         <v>46</v>
       </c>
       <c r="G20" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J20" t="s">
         <v>91</v>
       </c>
       <c r="K20">
-        <v>1.909</v>
+        <v>2.5</v>
       </c>
       <c r="L20">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M20">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="N20">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="O20">
         <v>3.6</v>
       </c>
       <c r="P20">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
       <c r="R20">
+        <v>2</v>
+      </c>
+      <c r="S20">
         <v>1.8</v>
       </c>
-      <c r="S20">
-        <v>2</v>
-      </c>
       <c r="T20">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U20">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V20">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W20">
         <v>-1</v>
@@ -2419,16 +2419,16 @@
         <v>-1</v>
       </c>
       <c r="Y20">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="Z20">
         <v>-1</v>
       </c>
       <c r="AA20">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AB20">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AC20">
         <v>-1</v>
@@ -2439,7 +2439,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>7100544</v>
+        <v>7100546</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2454,73 +2454,73 @@
         <v>47</v>
       </c>
       <c r="G21" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="H21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K21">
-        <v>1.8</v>
+        <v>1.615</v>
       </c>
       <c r="L21">
         <v>4</v>
       </c>
       <c r="M21">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="N21">
-        <v>1.666</v>
+        <v>1.45</v>
       </c>
       <c r="O21">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="P21">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="Q21">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R21">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S21">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T21">
         <v>2.75</v>
       </c>
       <c r="U21">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V21">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W21">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X21">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y21">
         <v>-1</v>
       </c>
       <c r="Z21">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA21">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB21">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AC21">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2528,7 +2528,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7100545</v>
+        <v>7100543</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2543,16 +2543,16 @@
         <v>48</v>
       </c>
       <c r="G22" t="s">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J22" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K22">
         <v>1.909</v>
@@ -2564,52 +2564,52 @@
         <v>3.1</v>
       </c>
       <c r="N22">
-        <v>1.85</v>
+        <v>2.3</v>
       </c>
       <c r="O22">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P22">
-        <v>3.2</v>
+        <v>2.5</v>
       </c>
       <c r="Q22">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R22">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S22">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T22">
         <v>2.75</v>
       </c>
       <c r="U22">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V22">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W22">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X22">
         <v>-1</v>
       </c>
       <c r="Y22">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z22">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA22">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB22">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC22">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2617,7 +2617,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>7100107</v>
+        <v>7100544</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2632,37 +2632,37 @@
         <v>49</v>
       </c>
       <c r="G23" t="s">
-        <v>31</v>
+        <v>72</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" t="s">
         <v>89</v>
       </c>
       <c r="K23">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="L23">
+        <v>4</v>
+      </c>
+      <c r="M23">
+        <v>3.25</v>
+      </c>
+      <c r="N23">
+        <v>1.666</v>
+      </c>
+      <c r="O23">
+        <v>4.2</v>
+      </c>
+      <c r="P23">
         <v>3.6</v>
       </c>
-      <c r="M23">
-        <v>2.4</v>
-      </c>
-      <c r="N23">
-        <v>2.9</v>
-      </c>
-      <c r="O23">
-        <v>3.6</v>
-      </c>
-      <c r="P23">
-        <v>2.1</v>
-      </c>
       <c r="Q23">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R23">
         <v>1.875</v>
@@ -2671,7 +2671,7 @@
         <v>1.925</v>
       </c>
       <c r="T23">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U23">
         <v>1.9</v>
@@ -2680,7 +2680,7 @@
         <v>1.9</v>
       </c>
       <c r="W23">
-        <v>1.9</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X23">
         <v>-1</v>
@@ -2695,10 +2695,10 @@
         <v>-1</v>
       </c>
       <c r="AB23">
-        <v>0.8999999999999999</v>
+        <v>0.45</v>
       </c>
       <c r="AC23">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2706,7 +2706,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>7100106</v>
+        <v>7100545</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2721,73 +2721,73 @@
         <v>50</v>
       </c>
       <c r="G24" t="s">
-        <v>84</v>
+        <v>33</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K24">
-        <v>2.05</v>
+        <v>1.909</v>
       </c>
       <c r="L24">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="M24">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="N24">
         <v>1.85</v>
       </c>
       <c r="O24">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P24">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="Q24">
         <v>-0.5</v>
       </c>
       <c r="R24">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S24">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T24">
         <v>2.75</v>
       </c>
       <c r="U24">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V24">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W24">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X24">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y24">
         <v>-1</v>
       </c>
       <c r="Z24">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA24">
+        <v>-1</v>
+      </c>
+      <c r="AB24">
+        <v>-1</v>
+      </c>
+      <c r="AC24">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AB24">
-        <v>-1</v>
-      </c>
-      <c r="AC24">
-        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -2795,7 +2795,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>7104131</v>
+        <v>7104130</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2810,73 +2810,73 @@
         <v>51</v>
       </c>
       <c r="G25" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J25" t="s">
         <v>91</v>
       </c>
       <c r="K25">
-        <v>2.25</v>
+        <v>2.375</v>
       </c>
       <c r="L25">
+        <v>3.6</v>
+      </c>
+      <c r="M25">
+        <v>2.375</v>
+      </c>
+      <c r="N25">
+        <v>2.625</v>
+      </c>
+      <c r="O25">
         <v>3.5</v>
       </c>
-      <c r="M25">
-        <v>2.6</v>
-      </c>
-      <c r="N25">
-        <v>1.833</v>
-      </c>
-      <c r="O25">
-        <v>3.6</v>
-      </c>
       <c r="P25">
-        <v>3.5</v>
+        <v>2.2</v>
       </c>
       <c r="Q25">
+        <v>0.25</v>
+      </c>
+      <c r="R25">
+        <v>1.825</v>
+      </c>
+      <c r="S25">
+        <v>1.975</v>
+      </c>
+      <c r="T25">
+        <v>2.75</v>
+      </c>
+      <c r="U25">
+        <v>1.8</v>
+      </c>
+      <c r="V25">
+        <v>2</v>
+      </c>
+      <c r="W25">
+        <v>-1</v>
+      </c>
+      <c r="X25">
+        <v>-1</v>
+      </c>
+      <c r="Y25">
+        <v>1.2</v>
+      </c>
+      <c r="Z25">
+        <v>-1</v>
+      </c>
+      <c r="AA25">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB25">
+        <v>0.4</v>
+      </c>
+      <c r="AC25">
         <v>-0.5</v>
-      </c>
-      <c r="R25">
-        <v>1.875</v>
-      </c>
-      <c r="S25">
-        <v>1.925</v>
-      </c>
-      <c r="T25">
-        <v>2.5</v>
-      </c>
-      <c r="U25">
-        <v>1.775</v>
-      </c>
-      <c r="V25">
-        <v>1.925</v>
-      </c>
-      <c r="W25">
-        <v>-1</v>
-      </c>
-      <c r="X25">
-        <v>-1</v>
-      </c>
-      <c r="Y25">
-        <v>2.5</v>
-      </c>
-      <c r="Z25">
-        <v>-1</v>
-      </c>
-      <c r="AA25">
-        <v>0.925</v>
-      </c>
-      <c r="AB25">
-        <v>-1</v>
-      </c>
-      <c r="AC25">
-        <v>0.925</v>
       </c>
     </row>
     <row r="26" spans="1:29">
@@ -3062,7 +3062,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>7104130</v>
+        <v>7104131</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -3077,52 +3077,52 @@
         <v>54</v>
       </c>
       <c r="G28" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
         <v>1</v>
-      </c>
-      <c r="I28">
-        <v>2</v>
       </c>
       <c r="J28" t="s">
         <v>91</v>
       </c>
       <c r="K28">
-        <v>2.375</v>
+        <v>2.25</v>
       </c>
       <c r="L28">
+        <v>3.5</v>
+      </c>
+      <c r="M28">
+        <v>2.6</v>
+      </c>
+      <c r="N28">
+        <v>1.833</v>
+      </c>
+      <c r="O28">
         <v>3.6</v>
       </c>
-      <c r="M28">
-        <v>2.375</v>
-      </c>
-      <c r="N28">
-        <v>2.625</v>
-      </c>
-      <c r="O28">
+      <c r="P28">
         <v>3.5</v>
       </c>
-      <c r="P28">
-        <v>2.2</v>
-      </c>
       <c r="Q28">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R28">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S28">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T28">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U28">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="V28">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W28">
         <v>-1</v>
@@ -3131,19 +3131,19 @@
         <v>-1</v>
       </c>
       <c r="Y28">
-        <v>1.2</v>
+        <v>2.5</v>
       </c>
       <c r="Z28">
         <v>-1</v>
       </c>
       <c r="AA28">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AB28">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AC28">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -3255,7 +3255,7 @@
         <v>32</v>
       </c>
       <c r="G30" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H30">
         <v>1</v>
@@ -3430,10 +3430,10 @@
         <v>45166.45833333334</v>
       </c>
       <c r="F32" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G32" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H32">
         <v>2</v>
@@ -3878,7 +3878,7 @@
         <v>32</v>
       </c>
       <c r="G37" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H37">
         <v>3</v>
@@ -4041,7 +4041,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>7197960</v>
+        <v>7197970</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -4056,70 +4056,70 @@
         <v>58</v>
       </c>
       <c r="G39" t="s">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I39">
         <v>2</v>
       </c>
       <c r="J39" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K39">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="L39">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M39">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="N39">
-        <v>3</v>
+        <v>2.05</v>
       </c>
       <c r="O39">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P39">
-        <v>1.95</v>
+        <v>3.1</v>
       </c>
       <c r="Q39">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R39">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S39">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T39">
         <v>3</v>
       </c>
       <c r="U39">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V39">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="W39">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X39">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y39">
         <v>-1</v>
       </c>
       <c r="Z39">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AA39">
         <v>-1</v>
       </c>
       <c r="AB39">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC39">
         <v>-1</v>
@@ -4130,7 +4130,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>7197970</v>
+        <v>7197960</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4145,70 +4145,70 @@
         <v>59</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="H40">
+        <v>2</v>
+      </c>
+      <c r="I40">
+        <v>2</v>
+      </c>
+      <c r="J40" t="s">
+        <v>90</v>
+      </c>
+      <c r="K40">
+        <v>2.4</v>
+      </c>
+      <c r="L40">
+        <v>3.6</v>
+      </c>
+      <c r="M40">
+        <v>2.4</v>
+      </c>
+      <c r="N40">
         <v>3</v>
       </c>
-      <c r="I40">
-        <v>2</v>
-      </c>
-      <c r="J40" t="s">
-        <v>89</v>
-      </c>
-      <c r="K40">
-        <v>2.35</v>
-      </c>
-      <c r="L40">
-        <v>3.4</v>
-      </c>
-      <c r="M40">
-        <v>2.6</v>
-      </c>
-      <c r="N40">
-        <v>2.05</v>
-      </c>
       <c r="O40">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P40">
-        <v>3.1</v>
+        <v>1.95</v>
       </c>
       <c r="Q40">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R40">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S40">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T40">
         <v>3</v>
       </c>
       <c r="U40">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V40">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="W40">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X40">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y40">
         <v>-1</v>
       </c>
       <c r="Z40">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="AA40">
         <v>-1</v>
       </c>
       <c r="AB40">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AC40">
         <v>-1</v>
@@ -4323,7 +4323,7 @@
         <v>30</v>
       </c>
       <c r="G42" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="H42">
         <v>0</v>
@@ -4397,7 +4397,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>7261755</v>
+        <v>7258501</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4412,58 +4412,58 @@
         <v>60</v>
       </c>
       <c r="G43" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H43">
         <v>2</v>
       </c>
       <c r="I43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J43" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K43">
-        <v>1.533</v>
+        <v>2.3</v>
       </c>
       <c r="L43">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M43">
-        <v>4.75</v>
+        <v>2.55</v>
       </c>
       <c r="N43">
-        <v>1.533</v>
+        <v>2.3</v>
       </c>
       <c r="O43">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P43">
-        <v>4.75</v>
+        <v>2.6</v>
       </c>
       <c r="Q43">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R43">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S43">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T43">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U43">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V43">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W43">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X43">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y43">
         <v>-1</v>
@@ -4475,10 +4475,10 @@
         <v>-0</v>
       </c>
       <c r="AB43">
-        <v>0.4625</v>
+        <v>1</v>
       </c>
       <c r="AC43">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="44" spans="1:29">
@@ -4486,7 +4486,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>7258501</v>
+        <v>7261755</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4501,58 +4501,58 @@
         <v>61</v>
       </c>
       <c r="G44" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="H44">
         <v>2</v>
       </c>
       <c r="I44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J44" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K44">
-        <v>2.3</v>
+        <v>1.533</v>
       </c>
       <c r="L44">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M44">
-        <v>2.55</v>
+        <v>4.75</v>
       </c>
       <c r="N44">
-        <v>2.3</v>
+        <v>1.533</v>
       </c>
       <c r="O44">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P44">
-        <v>2.6</v>
+        <v>4.75</v>
       </c>
       <c r="Q44">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R44">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S44">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T44">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U44">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V44">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W44">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X44">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y44">
         <v>-1</v>
@@ -4564,10 +4564,10 @@
         <v>-0</v>
       </c>
       <c r="AB44">
-        <v>1</v>
+        <v>0.4625</v>
       </c>
       <c r="AC44">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="45" spans="1:29">
@@ -4587,10 +4587,10 @@
         <v>45195.65625</v>
       </c>
       <c r="F45" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G45" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H45">
         <v>5</v>
@@ -4679,7 +4679,7 @@
         <v>35</v>
       </c>
       <c r="G46" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="H46">
         <v>4</v>
@@ -4768,7 +4768,7 @@
         <v>62</v>
       </c>
       <c r="G47" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="H47">
         <v>0</v>
@@ -4857,7 +4857,7 @@
         <v>63</v>
       </c>
       <c r="G48" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H48">
         <v>0</v>
@@ -5035,7 +5035,7 @@
         <v>64</v>
       </c>
       <c r="G50" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H50">
         <v>1</v>
@@ -5124,7 +5124,7 @@
         <v>34</v>
       </c>
       <c r="G51" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H51">
         <v>1</v>
@@ -5302,7 +5302,7 @@
         <v>55</v>
       </c>
       <c r="G53" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H53">
         <v>1</v>
@@ -5376,7 +5376,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>7319608</v>
+        <v>7319624</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5391,7 +5391,7 @@
         <v>66</v>
       </c>
       <c r="G54" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="H54">
         <v>3</v>
@@ -5403,31 +5403,31 @@
         <v>89</v>
       </c>
       <c r="K54">
-        <v>1.95</v>
+        <v>2.4</v>
       </c>
       <c r="L54">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="M54">
-        <v>2.75</v>
+        <v>2.4</v>
       </c>
       <c r="N54">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="O54">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P54">
-        <v>2.75</v>
+        <v>2.4</v>
       </c>
       <c r="Q54">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R54">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S54">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T54">
         <v>2.75</v>
@@ -5439,7 +5439,7 @@
         <v>1.9</v>
       </c>
       <c r="W54">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="X54">
         <v>-1</v>
@@ -5448,7 +5448,7 @@
         <v>-1</v>
       </c>
       <c r="Z54">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA54">
         <v>-1</v>
@@ -5554,7 +5554,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>7319624</v>
+        <v>7319608</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5569,7 +5569,7 @@
         <v>68</v>
       </c>
       <c r="G56" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="H56">
         <v>3</v>
@@ -5581,31 +5581,31 @@
         <v>89</v>
       </c>
       <c r="K56">
-        <v>2.4</v>
+        <v>1.95</v>
       </c>
       <c r="L56">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="M56">
-        <v>2.4</v>
+        <v>2.75</v>
       </c>
       <c r="N56">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="O56">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P56">
-        <v>2.4</v>
+        <v>2.75</v>
       </c>
       <c r="Q56">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R56">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S56">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T56">
         <v>2.75</v>
@@ -5617,7 +5617,7 @@
         <v>1.9</v>
       </c>
       <c r="W56">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="X56">
         <v>-1</v>
@@ -5626,7 +5626,7 @@
         <v>-1</v>
       </c>
       <c r="Z56">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AA56">
         <v>-1</v>
@@ -5643,7 +5643,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>7338188</v>
+        <v>7338189</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5655,76 +5655,76 @@
         <v>45213.45833333334</v>
       </c>
       <c r="F57" t="s">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="G57" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I57">
         <v>2</v>
       </c>
       <c r="J57" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K57">
+        <v>2.7</v>
+      </c>
+      <c r="L57">
+        <v>3.75</v>
+      </c>
+      <c r="M57">
         <v>2.1</v>
       </c>
-      <c r="L57">
-        <v>4</v>
-      </c>
-      <c r="M57">
-        <v>2.6</v>
-      </c>
       <c r="N57">
-        <v>1.833</v>
+        <v>2.55</v>
       </c>
       <c r="O57">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P57">
-        <v>3.1</v>
+        <v>2.15</v>
       </c>
       <c r="Q57">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R57">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S57">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T57">
         <v>3</v>
       </c>
       <c r="U57">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V57">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W57">
         <v>-1</v>
       </c>
       <c r="X57">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y57">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z57">
         <v>-1</v>
       </c>
       <c r="AA57">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="AB57">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AC57">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="58" spans="1:29">
@@ -5732,7 +5732,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>7338187</v>
+        <v>7338188</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5744,76 +5744,76 @@
         <v>45213.45833333334</v>
       </c>
       <c r="F58" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="G58" t="s">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="H58">
         <v>2</v>
       </c>
       <c r="I58">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J58" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K58">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="L58">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M58">
-        <v>4</v>
+        <v>2.6</v>
       </c>
       <c r="N58">
-        <v>1.5</v>
+        <v>1.833</v>
       </c>
       <c r="O58">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="P58">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="Q58">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R58">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S58">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T58">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U58">
+        <v>1.825</v>
+      </c>
+      <c r="V58">
         <v>1.975</v>
       </c>
-      <c r="V58">
-        <v>1.825</v>
-      </c>
       <c r="W58">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X58">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y58">
         <v>-1</v>
       </c>
       <c r="Z58">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA58">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB58">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC58">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="59" spans="1:29">
@@ -5821,7 +5821,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>7338189</v>
+        <v>7338187</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5833,40 +5833,40 @@
         <v>45213.45833333334</v>
       </c>
       <c r="F59" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G59" t="s">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="H59">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I59">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J59" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K59">
-        <v>2.7</v>
+        <v>1.5</v>
       </c>
       <c r="L59">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="M59">
-        <v>2.1</v>
+        <v>4</v>
       </c>
       <c r="N59">
-        <v>2.55</v>
+        <v>1.5</v>
       </c>
       <c r="O59">
-        <v>3.8</v>
+        <v>5</v>
       </c>
       <c r="P59">
-        <v>2.15</v>
+        <v>4</v>
       </c>
       <c r="Q59">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R59">
         <v>1.8</v>
@@ -5875,34 +5875,34 @@
         <v>2</v>
       </c>
       <c r="T59">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U59">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V59">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W59">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X59">
         <v>-1</v>
       </c>
       <c r="Y59">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z59">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA59">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB59">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC59">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="60" spans="1:29">
@@ -5922,10 +5922,10 @@
         <v>45216.65625</v>
       </c>
       <c r="F60" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G60" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H60">
         <v>2</v>
@@ -5999,7 +5999,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>7350912</v>
+        <v>7350911</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -6011,76 +6011,76 @@
         <v>45216.65625</v>
       </c>
       <c r="F61" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="G61" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="H61">
         <v>2</v>
       </c>
       <c r="I61">
+        <v>2</v>
+      </c>
+      <c r="J61" t="s">
+        <v>90</v>
+      </c>
+      <c r="K61">
+        <v>4.4</v>
+      </c>
+      <c r="L61">
+        <v>4.2</v>
+      </c>
+      <c r="M61">
+        <v>1.55</v>
+      </c>
+      <c r="N61">
+        <v>5</v>
+      </c>
+      <c r="O61">
+        <v>4.333</v>
+      </c>
+      <c r="P61">
+        <v>1.5</v>
+      </c>
+      <c r="Q61">
         <v>1</v>
       </c>
-      <c r="J61" t="s">
-        <v>89</v>
-      </c>
-      <c r="K61">
-        <v>2.2</v>
-      </c>
-      <c r="L61">
-        <v>3.9</v>
-      </c>
-      <c r="M61">
-        <v>2.5</v>
-      </c>
-      <c r="N61">
-        <v>2.375</v>
-      </c>
-      <c r="O61">
-        <v>4</v>
-      </c>
-      <c r="P61">
-        <v>2.3</v>
-      </c>
-      <c r="Q61">
-        <v>0</v>
-      </c>
       <c r="R61">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S61">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T61">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U61">
+        <v>1.75</v>
+      </c>
+      <c r="V61">
         <v>1.95</v>
       </c>
-      <c r="V61">
-        <v>1.85</v>
-      </c>
       <c r="W61">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X61">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y61">
         <v>-1</v>
       </c>
       <c r="Z61">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="AA61">
         <v>-1</v>
       </c>
       <c r="AB61">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AC61">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="62" spans="1:29">
@@ -6177,7 +6177,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>7350911</v>
+        <v>7350912</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6189,76 +6189,76 @@
         <v>45216.65625</v>
       </c>
       <c r="F63" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="G63" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="H63">
         <v>2</v>
       </c>
       <c r="I63">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J63" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K63">
-        <v>4.4</v>
+        <v>2.2</v>
       </c>
       <c r="L63">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="M63">
-        <v>1.55</v>
+        <v>2.5</v>
       </c>
       <c r="N63">
-        <v>5</v>
+        <v>2.375</v>
       </c>
       <c r="O63">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="P63">
-        <v>1.5</v>
+        <v>2.3</v>
       </c>
       <c r="Q63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R63">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S63">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T63">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U63">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="V63">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="W63">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X63">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y63">
         <v>-1</v>
       </c>
       <c r="Z63">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AA63">
         <v>-1</v>
       </c>
       <c r="AB63">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="AC63">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -6281,7 +6281,7 @@
         <v>53</v>
       </c>
       <c r="G64" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="H64">
         <v>1</v>
@@ -6459,7 +6459,7 @@
         <v>71</v>
       </c>
       <c r="G66" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H66">
         <v>1</v>
@@ -6637,7 +6637,7 @@
         <v>32</v>
       </c>
       <c r="G68" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H68">
         <v>4</v>
@@ -6815,7 +6815,7 @@
         <v>72</v>
       </c>
       <c r="G70" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H70">
         <v>2</v>
@@ -6978,7 +6978,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>7440452</v>
+        <v>7440455</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6990,70 +6990,70 @@
         <v>45237.69791666666</v>
       </c>
       <c r="F72" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="G72" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J72" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K72">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="L72">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="M72">
-        <v>2.2</v>
+        <v>4.75</v>
       </c>
       <c r="N72">
-        <v>2.8</v>
+        <v>1.5</v>
       </c>
       <c r="O72">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P72">
-        <v>1.95</v>
+        <v>4.75</v>
       </c>
       <c r="Q72">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R72">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S72">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T72">
         <v>3</v>
       </c>
       <c r="U72">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V72">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W72">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X72">
         <v>-1</v>
       </c>
       <c r="Y72">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z72">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA72">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
       <c r="AB72">
         <v>0</v>
@@ -7067,7 +7067,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>7440455</v>
+        <v>7440454</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -7079,10 +7079,10 @@
         <v>45237.69791666666</v>
       </c>
       <c r="F73" t="s">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="G73" t="s">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="H73">
         <v>2</v>
@@ -7094,43 +7094,43 @@
         <v>89</v>
       </c>
       <c r="K73">
-        <v>1.5</v>
+        <v>1.85</v>
       </c>
       <c r="L73">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="M73">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="N73">
-        <v>1.5</v>
+        <v>1.85</v>
       </c>
       <c r="O73">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P73">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="Q73">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R73">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S73">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T73">
         <v>3</v>
       </c>
       <c r="U73">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V73">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W73">
-        <v>0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X73">
         <v>-1</v>
@@ -7139,10 +7139,10 @@
         <v>-1</v>
       </c>
       <c r="Z73">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA73">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB73">
         <v>0</v>
@@ -7156,7 +7156,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>7440454</v>
+        <v>7440452</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7168,70 +7168,70 @@
         <v>45237.69791666666</v>
       </c>
       <c r="F74" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="G74" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J74" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K74">
-        <v>1.85</v>
+        <v>2.5</v>
       </c>
       <c r="L74">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="M74">
-        <v>3.1</v>
+        <v>2.2</v>
       </c>
       <c r="N74">
-        <v>1.85</v>
+        <v>2.8</v>
       </c>
       <c r="O74">
         <v>4</v>
       </c>
       <c r="P74">
-        <v>3.1</v>
+        <v>1.95</v>
       </c>
       <c r="Q74">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R74">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S74">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T74">
         <v>3</v>
       </c>
       <c r="U74">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V74">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W74">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X74">
         <v>-1</v>
       </c>
       <c r="Y74">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z74">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA74">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB74">
         <v>0</v>
@@ -7245,7 +7245,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>7447904</v>
+        <v>7440456</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7257,40 +7257,40 @@
         <v>45237.69791666666</v>
       </c>
       <c r="F75" t="s">
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="G75" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="H75">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I75">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J75" t="s">
         <v>90</v>
       </c>
       <c r="K75">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
       <c r="L75">
+        <v>3.6</v>
+      </c>
+      <c r="M75">
+        <v>2.5</v>
+      </c>
+      <c r="N75">
+        <v>2.05</v>
+      </c>
+      <c r="O75">
         <v>3.75</v>
       </c>
-      <c r="M75">
-        <v>2.15</v>
-      </c>
-      <c r="N75">
-        <v>3.1</v>
-      </c>
-      <c r="O75">
-        <v>4</v>
-      </c>
       <c r="P75">
-        <v>1.85</v>
+        <v>2.8</v>
       </c>
       <c r="Q75">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R75">
         <v>1.875</v>
@@ -7299,34 +7299,34 @@
         <v>1.925</v>
       </c>
       <c r="T75">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U75">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="V75">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W75">
         <v>-1</v>
       </c>
       <c r="X75">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Y75">
         <v>-1</v>
       </c>
       <c r="Z75">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AA75">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AB75">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AC75">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7334,7 +7334,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>7440456</v>
+        <v>7447904</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7346,40 +7346,40 @@
         <v>45237.69791666666</v>
       </c>
       <c r="F76" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="G76" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I76">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J76" t="s">
         <v>90</v>
       </c>
       <c r="K76">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="L76">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M76">
-        <v>2.5</v>
+        <v>2.15</v>
       </c>
       <c r="N76">
-        <v>2.05</v>
+        <v>3.1</v>
       </c>
       <c r="O76">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P76">
-        <v>2.8</v>
+        <v>1.85</v>
       </c>
       <c r="Q76">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R76">
         <v>1.875</v>
@@ -7388,34 +7388,34 @@
         <v>1.925</v>
       </c>
       <c r="T76">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U76">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="V76">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W76">
         <v>-1</v>
       </c>
       <c r="X76">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Y76">
         <v>-1</v>
       </c>
       <c r="Z76">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AA76">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AB76">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AC76">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7524,7 +7524,7 @@
         <v>45244.69791666666</v>
       </c>
       <c r="F78" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G78" t="s">
         <v>67</v>
@@ -7601,7 +7601,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>7473235</v>
+        <v>7473234</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7613,58 +7613,58 @@
         <v>45244.69791666666</v>
       </c>
       <c r="F79" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="G79" t="s">
         <v>49</v>
       </c>
       <c r="H79">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I79">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J79" t="s">
         <v>89</v>
       </c>
       <c r="K79">
-        <v>1.727</v>
+        <v>2.5</v>
       </c>
       <c r="L79">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M79">
-        <v>3.75</v>
+        <v>2.3</v>
       </c>
       <c r="N79">
-        <v>1.75</v>
+        <v>2.3</v>
       </c>
       <c r="O79">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P79">
-        <v>3.6</v>
+        <v>2.45</v>
       </c>
       <c r="Q79">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R79">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S79">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T79">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U79">
+        <v>1.95</v>
+      </c>
+      <c r="V79">
         <v>1.85</v>
       </c>
-      <c r="V79">
-        <v>1.95</v>
-      </c>
       <c r="W79">
-        <v>0.75</v>
+        <v>1.3</v>
       </c>
       <c r="X79">
         <v>-1</v>
@@ -7673,13 +7673,13 @@
         <v>-1</v>
       </c>
       <c r="Z79">
-        <v>0.7749999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AA79">
         <v>-1</v>
       </c>
       <c r="AB79">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AC79">
         <v>-1</v>
@@ -7690,7 +7690,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>7473234</v>
+        <v>7473235</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7702,58 +7702,58 @@
         <v>45244.69791666666</v>
       </c>
       <c r="F80" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G80" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="H80">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I80">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J80" t="s">
         <v>89</v>
       </c>
       <c r="K80">
-        <v>2.5</v>
+        <v>1.727</v>
       </c>
       <c r="L80">
+        <v>3.75</v>
+      </c>
+      <c r="M80">
+        <v>3.75</v>
+      </c>
+      <c r="N80">
+        <v>1.75</v>
+      </c>
+      <c r="O80">
+        <v>3.75</v>
+      </c>
+      <c r="P80">
         <v>3.6</v>
       </c>
-      <c r="M80">
-        <v>2.3</v>
-      </c>
-      <c r="N80">
-        <v>2.3</v>
-      </c>
-      <c r="O80">
-        <v>3.6</v>
-      </c>
-      <c r="P80">
-        <v>2.45</v>
-      </c>
       <c r="Q80">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R80">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S80">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T80">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U80">
+        <v>1.85</v>
+      </c>
+      <c r="V80">
         <v>1.95</v>
       </c>
-      <c r="V80">
-        <v>1.85</v>
-      </c>
       <c r="W80">
-        <v>1.3</v>
+        <v>0.75</v>
       </c>
       <c r="X80">
         <v>-1</v>
@@ -7762,13 +7762,13 @@
         <v>-1</v>
       </c>
       <c r="Z80">
-        <v>0.825</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA80">
         <v>-1</v>
       </c>
       <c r="AB80">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC80">
         <v>-1</v>
@@ -7972,7 +7972,7 @@
         <v>39</v>
       </c>
       <c r="G83" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H83">
         <v>2</v>
@@ -8325,7 +8325,7 @@
         <v>45269.5</v>
       </c>
       <c r="F87" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G87" t="s">
         <v>52</v>
@@ -8503,7 +8503,7 @@
         <v>45272.69791666666</v>
       </c>
       <c r="F89" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G89" t="s">
         <v>33</v>
@@ -8592,7 +8592,7 @@
         <v>45272.69791666666</v>
       </c>
       <c r="F90" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G90" t="s">
         <v>37</v>
@@ -8951,7 +8951,7 @@
         <v>35</v>
       </c>
       <c r="G94" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H94">
         <v>0</v>
@@ -9037,10 +9037,10 @@
         <v>45283.5</v>
       </c>
       <c r="F95" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G95" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="H95">
         <v>1</v>
@@ -9304,7 +9304,7 @@
         <v>45287.69791666666</v>
       </c>
       <c r="F98" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G98" t="s">
         <v>34</v>
@@ -9485,7 +9485,7 @@
         <v>70</v>
       </c>
       <c r="G100" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="H100">
         <v>2</v>
@@ -9574,7 +9574,7 @@
         <v>73</v>
       </c>
       <c r="G101" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="H101">
         <v>5</v>
@@ -9841,7 +9841,7 @@
         <v>34</v>
       </c>
       <c r="G104" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H104">
         <v>3</v>
@@ -9927,7 +9927,7 @@
         <v>45292.5</v>
       </c>
       <c r="F105" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G105" t="s">
         <v>87</v>
@@ -10004,7 +10004,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>7649294</v>
+        <v>7649124</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -10016,73 +10016,73 @@
         <v>45292.5</v>
       </c>
       <c r="F106" t="s">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="G106" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I106">
         <v>2</v>
       </c>
       <c r="J106" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K106">
+        <v>2.5</v>
+      </c>
+      <c r="L106">
+        <v>3.75</v>
+      </c>
+      <c r="M106">
         <v>2.25</v>
       </c>
-      <c r="L106">
-        <v>3.6</v>
-      </c>
-      <c r="M106">
+      <c r="N106">
         <v>2.55</v>
       </c>
-      <c r="N106">
-        <v>1.65</v>
-      </c>
       <c r="O106">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P106">
-        <v>3.8</v>
+        <v>2.25</v>
       </c>
       <c r="Q106">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R106">
-        <v>1.85</v>
+        <v>1.725</v>
       </c>
       <c r="S106">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T106">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U106">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="V106">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="W106">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X106">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y106">
         <v>-1</v>
       </c>
       <c r="Z106">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA106">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB106">
-        <v>0.7749999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC106">
         <v>-1</v>
@@ -10093,7 +10093,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>7649124</v>
+        <v>7649184</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -10105,58 +10105,58 @@
         <v>45292.5</v>
       </c>
       <c r="F107" t="s">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="G107" t="s">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="H107">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I107">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J107" t="s">
         <v>89</v>
       </c>
       <c r="K107">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="L107">
         <v>3.75</v>
       </c>
       <c r="M107">
-        <v>2.25</v>
+        <v>3.4</v>
       </c>
       <c r="N107">
-        <v>2.55</v>
+        <v>1.7</v>
       </c>
       <c r="O107">
+        <v>3.8</v>
+      </c>
+      <c r="P107">
         <v>3.75</v>
       </c>
-      <c r="P107">
-        <v>2.25</v>
-      </c>
       <c r="Q107">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R107">
-        <v>1.725</v>
+        <v>1.95</v>
       </c>
       <c r="S107">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T107">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U107">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="V107">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W107">
-        <v>1.55</v>
+        <v>0.7</v>
       </c>
       <c r="X107">
         <v>-1</v>
@@ -10165,16 +10165,16 @@
         <v>-1</v>
       </c>
       <c r="Z107">
-        <v>0.7250000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AA107">
         <v>-1</v>
       </c>
       <c r="AB107">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC107">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="108" spans="1:29">
@@ -10182,7 +10182,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>7649184</v>
+        <v>7649195</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10194,76 +10194,76 @@
         <v>45292.5</v>
       </c>
       <c r="F108" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="G108" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108">
         <v>0</v>
       </c>
       <c r="J108" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K108">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="L108">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M108">
-        <v>3.4</v>
+        <v>2.4</v>
       </c>
       <c r="N108">
-        <v>1.7</v>
+        <v>2.4</v>
       </c>
       <c r="O108">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P108">
-        <v>3.75</v>
+        <v>2.4</v>
       </c>
       <c r="Q108">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R108">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S108">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T108">
         <v>2.75</v>
       </c>
       <c r="U108">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="V108">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W108">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X108">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y108">
         <v>-1</v>
       </c>
       <c r="Z108">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AA108">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB108">
         <v>-1</v>
       </c>
       <c r="AC108">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10271,7 +10271,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>7649195</v>
+        <v>7649294</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10286,73 +10286,73 @@
         <v>76</v>
       </c>
       <c r="G109" t="s">
-        <v>80</v>
+        <v>36</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J109" t="s">
         <v>90</v>
       </c>
       <c r="K109">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="L109">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M109">
-        <v>2.4</v>
+        <v>2.55</v>
       </c>
       <c r="N109">
-        <v>2.4</v>
+        <v>1.65</v>
       </c>
       <c r="O109">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P109">
-        <v>2.4</v>
+        <v>3.8</v>
       </c>
       <c r="Q109">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R109">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S109">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T109">
         <v>2.75</v>
       </c>
       <c r="U109">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="V109">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W109">
         <v>-1</v>
       </c>
       <c r="X109">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="Y109">
         <v>-1</v>
       </c>
       <c r="Z109">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA109">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
       <c r="AB109">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC109">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="110" spans="1:29">
@@ -10375,7 +10375,7 @@
         <v>77</v>
       </c>
       <c r="G110" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H110">
         <v>0</v>
@@ -10461,10 +10461,10 @@
         <v>45297.5</v>
       </c>
       <c r="F111" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G111" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H111">
         <v>0</v>
@@ -10550,7 +10550,7 @@
         <v>45298.5</v>
       </c>
       <c r="F112" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G112" t="s">
         <v>32</v>
@@ -10639,7 +10639,7 @@
         <v>45300.69791666666</v>
       </c>
       <c r="F113" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G113" t="s">
         <v>85</v>
@@ -10906,7 +10906,7 @@
         <v>45300.69791666666</v>
       </c>
       <c r="F116" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G116" t="s">
         <v>84</v>
@@ -10998,7 +10998,7 @@
         <v>78</v>
       </c>
       <c r="G117" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H117">
         <v>1</v>
@@ -11529,7 +11529,7 @@
         <v>45307.69791666666</v>
       </c>
       <c r="F123" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G123" t="s">
         <v>88</v>
@@ -11606,7 +11606,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>7719594</v>
+        <v>7719544</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11618,76 +11618,76 @@
         <v>45311.5</v>
       </c>
       <c r="F124" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G124" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I124">
         <v>0</v>
       </c>
       <c r="J124" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K124">
-        <v>1.4</v>
+        <v>2.05</v>
       </c>
       <c r="L124">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M124">
-        <v>5</v>
+        <v>2.7</v>
       </c>
       <c r="N124">
-        <v>1.4</v>
+        <v>2.05</v>
       </c>
       <c r="O124">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P124">
-        <v>5</v>
+        <v>2.7</v>
       </c>
       <c r="Q124">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R124">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S124">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T124">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U124">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V124">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W124">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X124">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Y124">
         <v>-1</v>
       </c>
       <c r="Z124">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA124">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB124">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC124">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11695,7 +11695,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>7719544</v>
+        <v>7719594</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11707,76 +11707,76 @@
         <v>45311.5</v>
       </c>
       <c r="F125" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G125" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H125">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I125">
         <v>0</v>
       </c>
       <c r="J125" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K125">
-        <v>2.05</v>
+        <v>1.4</v>
       </c>
       <c r="L125">
+        <v>5</v>
+      </c>
+      <c r="M125">
+        <v>5</v>
+      </c>
+      <c r="N125">
+        <v>1.4</v>
+      </c>
+      <c r="O125">
+        <v>5</v>
+      </c>
+      <c r="P125">
+        <v>5</v>
+      </c>
+      <c r="Q125">
+        <v>-1.25</v>
+      </c>
+      <c r="R125">
+        <v>1.85</v>
+      </c>
+      <c r="S125">
+        <v>1.95</v>
+      </c>
+      <c r="T125">
+        <v>3</v>
+      </c>
+      <c r="U125">
+        <v>1.825</v>
+      </c>
+      <c r="V125">
+        <v>1.975</v>
+      </c>
+      <c r="W125">
+        <v>-1</v>
+      </c>
+      <c r="X125">
         <v>4</v>
       </c>
-      <c r="M125">
-        <v>2.7</v>
-      </c>
-      <c r="N125">
-        <v>2.05</v>
-      </c>
-      <c r="O125">
-        <v>4</v>
-      </c>
-      <c r="P125">
-        <v>2.7</v>
-      </c>
-      <c r="Q125">
-        <v>-0.25</v>
-      </c>
-      <c r="R125">
-        <v>1.875</v>
-      </c>
-      <c r="S125">
-        <v>1.925</v>
-      </c>
-      <c r="T125">
-        <v>2.5</v>
-      </c>
-      <c r="U125">
-        <v>1.8</v>
-      </c>
-      <c r="V125">
-        <v>2</v>
-      </c>
-      <c r="W125">
-        <v>1.05</v>
-      </c>
-      <c r="X125">
-        <v>-1</v>
-      </c>
       <c r="Y125">
         <v>-1</v>
       </c>
       <c r="Z125">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA125">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB125">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC125">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -11796,10 +11796,10 @@
         <v>45311.5</v>
       </c>
       <c r="F126" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G126" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H126">
         <v>1</v>
@@ -11977,7 +11977,7 @@
         <v>32</v>
       </c>
       <c r="G128" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H128">
         <v>0</v>
@@ -12155,7 +12155,7 @@
         <v>35</v>
       </c>
       <c r="G130" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="H130">
         <v>1</v>
@@ -12330,7 +12330,7 @@
         <v>45321.69791666666</v>
       </c>
       <c r="F132" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G132" t="s">
         <v>87</v>
@@ -12511,7 +12511,7 @@
         <v>69</v>
       </c>
       <c r="G134" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H134">
         <v>1</v>
@@ -12689,7 +12689,7 @@
         <v>80</v>
       </c>
       <c r="G136" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H136">
         <v>3</v>
@@ -12763,7 +12763,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>7779218</v>
+        <v>7779219</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12775,76 +12775,76 @@
         <v>45325.5</v>
       </c>
       <c r="F137" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="G137" t="s">
-        <v>33</v>
+        <v>87</v>
       </c>
       <c r="H137">
         <v>1</v>
       </c>
       <c r="I137">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J137" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K137">
+        <v>2.4</v>
+      </c>
+      <c r="L137">
+        <v>4</v>
+      </c>
+      <c r="M137">
         <v>2.25</v>
       </c>
-      <c r="L137">
-        <v>3.75</v>
-      </c>
-      <c r="M137">
-        <v>2.5</v>
-      </c>
       <c r="N137">
+        <v>2.4</v>
+      </c>
+      <c r="O137">
+        <v>4</v>
+      </c>
+      <c r="P137">
         <v>2.25</v>
-      </c>
-      <c r="O137">
-        <v>3.75</v>
-      </c>
-      <c r="P137">
-        <v>2.5</v>
       </c>
       <c r="Q137">
         <v>0</v>
       </c>
       <c r="R137">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S137">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T137">
         <v>2.75</v>
       </c>
       <c r="U137">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V137">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W137">
         <v>-1</v>
       </c>
       <c r="X137">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y137">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z137">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA137">
-        <v>1</v>
+        <v>-0</v>
       </c>
       <c r="AB137">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC137">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="138" spans="1:29">
@@ -12852,7 +12852,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>7779219</v>
+        <v>7779223</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12864,76 +12864,76 @@
         <v>45325.5</v>
       </c>
       <c r="F138" t="s">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="G138" t="s">
-        <v>87</v>
+        <v>42</v>
       </c>
       <c r="H138">
         <v>1</v>
       </c>
       <c r="I138">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J138" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K138">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="L138">
         <v>4</v>
       </c>
       <c r="M138">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="N138">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="O138">
         <v>4</v>
       </c>
       <c r="P138">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="Q138">
         <v>0</v>
       </c>
       <c r="R138">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S138">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T138">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U138">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V138">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W138">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X138">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y138">
         <v>-1</v>
       </c>
       <c r="Z138">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA138">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB138">
         <v>-1</v>
       </c>
       <c r="AC138">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="139" spans="1:29">
@@ -12941,7 +12941,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>7779223</v>
+        <v>7779218</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12953,76 +12953,76 @@
         <v>45325.5</v>
       </c>
       <c r="F139" t="s">
-        <v>29</v>
+        <v>75</v>
       </c>
       <c r="G139" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="H139">
         <v>1</v>
       </c>
       <c r="I139">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J139" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K139">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L139">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M139">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="N139">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="O139">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P139">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="Q139">
         <v>0</v>
       </c>
       <c r="R139">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S139">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T139">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U139">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V139">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W139">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X139">
         <v>-1</v>
       </c>
       <c r="Y139">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z139">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA139">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB139">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC139">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="140" spans="1:29">
@@ -13042,7 +13042,7 @@
         <v>45328.69791666666</v>
       </c>
       <c r="F140" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G140" t="s">
         <v>80</v>
@@ -13220,7 +13220,7 @@
         <v>45332.5</v>
       </c>
       <c r="F142" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G142" t="s">
         <v>57</v>
@@ -13490,7 +13490,7 @@
         <v>37</v>
       </c>
       <c r="G145" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H145">
         <v>3</v>
@@ -13579,7 +13579,7 @@
         <v>31</v>
       </c>
       <c r="G146" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="H146">
         <v>2</v>
@@ -13668,7 +13668,7 @@
         <v>32</v>
       </c>
       <c r="G147" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H147">
         <v>4</v>
@@ -13932,10 +13932,10 @@
         <v>45342.69791666666</v>
       </c>
       <c r="F150" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G150" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="H150">
         <v>1</v>
@@ -14380,7 +14380,7 @@
         <v>81</v>
       </c>
       <c r="G155" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="H155">
         <v>1</v>
@@ -14466,7 +14466,7 @@
         <v>45356.69791666666</v>
       </c>
       <c r="F156" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G156" t="s">
         <v>74</v>
@@ -14736,7 +14736,7 @@
         <v>56</v>
       </c>
       <c r="G159" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H159">
         <v>0</v>
@@ -15089,10 +15089,10 @@
         <v>45370.69791666666</v>
       </c>
       <c r="F163" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G163" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="H163">
         <v>2</v>
@@ -15178,7 +15178,7 @@
         <v>45370.69791666666</v>
       </c>
       <c r="F164" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G164" t="s">
         <v>81</v>
@@ -15270,7 +15270,7 @@
         <v>37</v>
       </c>
       <c r="G165" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H165">
         <v>0</v>
@@ -15359,7 +15359,7 @@
         <v>29</v>
       </c>
       <c r="G166" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="H166">
         <v>4</v>
@@ -15712,7 +15712,7 @@
         <v>45374.5</v>
       </c>
       <c r="F170" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G170" t="s">
         <v>71</v>
@@ -15878,7 +15878,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>8010142</v>
+        <v>8010866</v>
       </c>
       <c r="C172" t="s">
         <v>28</v>
@@ -15890,40 +15890,40 @@
         <v>45377.69791666666</v>
       </c>
       <c r="F172" t="s">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="G172" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="H172">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I172">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J172" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K172">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="L172">
         <v>4</v>
       </c>
       <c r="M172">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="N172">
-        <v>1.909</v>
+        <v>1.7</v>
       </c>
       <c r="O172">
         <v>4</v>
       </c>
       <c r="P172">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="Q172">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R172">
         <v>1.95</v>
@@ -15932,31 +15932,31 @@
         <v>1.85</v>
       </c>
       <c r="T172">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U172">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V172">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W172">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X172">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y172">
         <v>-1</v>
       </c>
       <c r="Z172">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA172">
+        <v>-1</v>
+      </c>
+      <c r="AB172">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AB172">
-        <v>0.825</v>
       </c>
       <c r="AC172">
         <v>-1</v>
@@ -15967,7 +15967,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>8010865</v>
+        <v>8010864</v>
       </c>
       <c r="C173" t="s">
         <v>28</v>
@@ -15979,58 +15979,58 @@
         <v>45377.69791666666</v>
       </c>
       <c r="F173" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G173" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="H173">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I173">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J173" t="s">
         <v>89</v>
       </c>
       <c r="K173">
-        <v>1.727</v>
+        <v>2.45</v>
       </c>
       <c r="L173">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="M173">
-        <v>3.5</v>
+        <v>2.1</v>
       </c>
       <c r="N173">
-        <v>1.666</v>
+        <v>2.75</v>
       </c>
       <c r="O173">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="P173">
-        <v>3.75</v>
+        <v>1.85</v>
       </c>
       <c r="Q173">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R173">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S173">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T173">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U173">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V173">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W173">
-        <v>0.6659999999999999</v>
+        <v>1.75</v>
       </c>
       <c r="X173">
         <v>-1</v>
@@ -16039,16 +16039,16 @@
         <v>-1</v>
       </c>
       <c r="Z173">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA173">
         <v>-1</v>
       </c>
       <c r="AB173">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC173">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="174" spans="1:29">
@@ -16056,7 +16056,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>8010864</v>
+        <v>8010145</v>
       </c>
       <c r="C174" t="s">
         <v>28</v>
@@ -16068,76 +16068,76 @@
         <v>45377.69791666666</v>
       </c>
       <c r="F174" t="s">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="G174" t="s">
-        <v>42</v>
+        <v>67</v>
       </c>
       <c r="H174">
+        <v>1</v>
+      </c>
+      <c r="I174">
+        <v>2</v>
+      </c>
+      <c r="J174" t="s">
+        <v>91</v>
+      </c>
+      <c r="K174">
         <v>4</v>
       </c>
-      <c r="I174">
-        <v>1</v>
-      </c>
-      <c r="J174" t="s">
-        <v>89</v>
-      </c>
-      <c r="K174">
-        <v>2.45</v>
-      </c>
       <c r="L174">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="M174">
-        <v>2.1</v>
+        <v>1.6</v>
       </c>
       <c r="N174">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="O174">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="P174">
-        <v>1.85</v>
+        <v>1.6</v>
       </c>
       <c r="Q174">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R174">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S174">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T174">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U174">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="V174">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W174">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="X174">
         <v>-1</v>
       </c>
       <c r="Y174">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="Z174">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA174">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AB174">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC174">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="175" spans="1:29">
@@ -16145,7 +16145,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>8010145</v>
+        <v>8010143</v>
       </c>
       <c r="C175" t="s">
         <v>28</v>
@@ -16157,70 +16157,70 @@
         <v>45377.69791666666</v>
       </c>
       <c r="F175" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="G175" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H175">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I175">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J175" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K175">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="L175">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="M175">
-        <v>1.6</v>
+        <v>1.833</v>
       </c>
       <c r="N175">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="O175">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="P175">
-        <v>1.6</v>
+        <v>1.909</v>
       </c>
       <c r="Q175">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R175">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S175">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T175">
         <v>3</v>
       </c>
       <c r="U175">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="V175">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W175">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="X175">
         <v>-1</v>
       </c>
       <c r="Y175">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z175">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA175">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AB175">
         <v>0</v>
@@ -16234,7 +16234,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>8010143</v>
+        <v>8010142</v>
       </c>
       <c r="C176" t="s">
         <v>28</v>
@@ -16246,76 +16246,76 @@
         <v>45377.69791666666</v>
       </c>
       <c r="F176" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G176" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="H176">
+        <v>2</v>
+      </c>
+      <c r="I176">
+        <v>2</v>
+      </c>
+      <c r="J176" t="s">
+        <v>90</v>
+      </c>
+      <c r="K176">
+        <v>1.909</v>
+      </c>
+      <c r="L176">
+        <v>4</v>
+      </c>
+      <c r="M176">
         <v>3</v>
       </c>
-      <c r="I176">
-        <v>0</v>
-      </c>
-      <c r="J176" t="s">
-        <v>89</v>
-      </c>
-      <c r="K176">
-        <v>3.75</v>
-      </c>
-      <c r="L176">
-        <v>3.4</v>
-      </c>
-      <c r="M176">
-        <v>1.833</v>
-      </c>
       <c r="N176">
-        <v>3.5</v>
+        <v>1.909</v>
       </c>
       <c r="O176">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P176">
-        <v>1.909</v>
+        <v>3</v>
       </c>
       <c r="Q176">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R176">
+        <v>1.95</v>
+      </c>
+      <c r="S176">
         <v>1.85</v>
       </c>
-      <c r="S176">
-        <v>1.95</v>
-      </c>
       <c r="T176">
+        <v>3.25</v>
+      </c>
+      <c r="U176">
+        <v>1.825</v>
+      </c>
+      <c r="V176">
+        <v>1.975</v>
+      </c>
+      <c r="W176">
+        <v>-1</v>
+      </c>
+      <c r="X176">
         <v>3</v>
       </c>
-      <c r="U176">
-        <v>1.85</v>
-      </c>
-      <c r="V176">
-        <v>1.95</v>
-      </c>
-      <c r="W176">
-        <v>2.5</v>
-      </c>
-      <c r="X176">
-        <v>-1</v>
-      </c>
       <c r="Y176">
         <v>-1</v>
       </c>
       <c r="Z176">
+        <v>-1</v>
+      </c>
+      <c r="AA176">
         <v>0.8500000000000001</v>
       </c>
-      <c r="AA176">
-        <v>-1</v>
-      </c>
       <c r="AB176">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AC176">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="177" spans="1:29">
@@ -16323,7 +16323,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>8010866</v>
+        <v>8010865</v>
       </c>
       <c r="C177" t="s">
         <v>28</v>
@@ -16335,13 +16335,13 @@
         <v>45377.69791666666</v>
       </c>
       <c r="F177" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="G177" t="s">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="H177">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I177">
         <v>0</v>
@@ -16350,43 +16350,43 @@
         <v>89</v>
       </c>
       <c r="K177">
-        <v>1.8</v>
+        <v>1.727</v>
       </c>
       <c r="L177">
         <v>4</v>
       </c>
       <c r="M177">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="N177">
-        <v>1.7</v>
+        <v>1.666</v>
       </c>
       <c r="O177">
         <v>4</v>
       </c>
       <c r="P177">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="Q177">
         <v>-0.75</v>
       </c>
       <c r="R177">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S177">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T177">
         <v>3</v>
       </c>
       <c r="U177">
+        <v>1.95</v>
+      </c>
+      <c r="V177">
         <v>1.85</v>
       </c>
-      <c r="V177">
-        <v>1.95</v>
-      </c>
       <c r="W177">
-        <v>0.7</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X177">
         <v>-1</v>
@@ -16395,16 +16395,16 @@
         <v>-1</v>
       </c>
       <c r="Z177">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AA177">
         <v>-1</v>
       </c>
       <c r="AB177">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC177">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="178" spans="1:29">

--- a/England Northern League Division One/England Northern League Division One.xlsx
+++ b/England Northern League Division One/England Northern League Division One.xlsx
@@ -142,9 +142,6 @@
     <t>Grantham</t>
   </si>
   <si>
-    <t>Liversedge</t>
-  </si>
-  <si>
     <t>Cambridge City</t>
   </si>
   <si>
@@ -154,31 +151,34 @@
     <t>Dunston UTS</t>
   </si>
   <si>
-    <t>Rugby Town</t>
+    <t>Mossley</t>
+  </si>
+  <si>
+    <t>Leek Town</t>
+  </si>
+  <si>
+    <t>Liversedge</t>
   </si>
   <si>
     <t>Runcorn Linnets</t>
   </si>
   <si>
-    <t>Hednesford</t>
+    <t>Rugby Town</t>
   </si>
   <si>
-    <t>Leek Town</t>
-  </si>
-  <si>
-    <t>Mossley</t>
-  </si>
-  <si>
-    <t>Winterton Rangers</t>
-  </si>
-  <si>
-    <t>Stockton Town</t>
+    <t>Hednesford</t>
   </si>
   <si>
     <t>Grimsby Borough</t>
   </si>
   <si>
     <t>Avro FC</t>
+  </si>
+  <si>
+    <t>Stockton Town</t>
+  </si>
+  <si>
+    <t>Winterton Rangers</t>
   </si>
   <si>
     <t>Stalybridge</t>
@@ -196,10 +196,10 @@
     <t>Gresley Rovers</t>
   </si>
   <si>
-    <t>Anstey Nomads</t>
+    <t>Kidsgrove Ath</t>
   </si>
   <si>
-    <t>Kidsgrove Ath</t>
+    <t>Anstey Nomads</t>
   </si>
   <si>
     <t>Ossett United</t>
@@ -214,13 +214,13 @@
     <t>Newton Aycliffe</t>
   </si>
   <si>
-    <t>Nantwich Town</t>
+    <t>Sporting Khalsa</t>
   </si>
   <si>
     <t>Harborough Town</t>
   </si>
   <si>
-    <t>Sporting Khalsa</t>
+    <t>Nantwich Town</t>
   </si>
   <si>
     <t>Carlton Town</t>
@@ -941,7 +941,7 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="H4">
         <v>3</v>
@@ -1564,7 +1564,7 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1905,7 +1905,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>7100108</v>
+        <v>7100111</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1917,49 +1917,49 @@
         <v>45160.65625</v>
       </c>
       <c r="F15" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="G15" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="H15">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K15">
         <v>2.3</v>
       </c>
       <c r="L15">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M15">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="N15">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="O15">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P15">
-        <v>2.625</v>
+        <v>2.05</v>
       </c>
       <c r="Q15">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R15">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S15">
-        <v>1.725</v>
+        <v>1.85</v>
       </c>
       <c r="T15">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U15">
         <v>1.8</v>
@@ -1968,25 +1968,25 @@
         <v>2</v>
       </c>
       <c r="W15">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X15">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y15">
         <v>-1</v>
       </c>
       <c r="Z15">
-        <v>0.9750000000000001</v>
+        <v>0.475</v>
       </c>
       <c r="AA15">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB15">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC15">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -1994,7 +1994,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>7100111</v>
+        <v>7100392</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -2006,76 +2006,76 @@
         <v>45160.65625</v>
       </c>
       <c r="F16" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="G16" t="s">
-        <v>35</v>
+        <v>74</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J16" t="s">
         <v>90</v>
       </c>
       <c r="K16">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="M16">
         <v>2.75</v>
       </c>
       <c r="N16">
-        <v>3.1</v>
+        <v>2</v>
       </c>
       <c r="O16">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="P16">
-        <v>2.05</v>
+        <v>2.75</v>
       </c>
       <c r="Q16">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R16">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S16">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T16">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U16">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V16">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W16">
         <v>-1</v>
       </c>
       <c r="X16">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="Y16">
         <v>-1</v>
       </c>
       <c r="Z16">
-        <v>0.475</v>
+        <v>-0.5</v>
       </c>
       <c r="AA16">
-        <v>-0.5</v>
+        <v>0.4875</v>
       </c>
       <c r="AB16">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC16">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -2083,7 +2083,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>7100392</v>
+        <v>7100282</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -2098,73 +2098,73 @@
         <v>43</v>
       </c>
       <c r="G17" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J17" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="L17">
         <v>4</v>
       </c>
       <c r="M17">
-        <v>2.75</v>
+        <v>2.45</v>
       </c>
       <c r="N17">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="O17">
         <v>4</v>
       </c>
       <c r="P17">
+        <v>2.4</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>1.85</v>
+      </c>
+      <c r="S17">
+        <v>1.95</v>
+      </c>
+      <c r="T17">
         <v>2.75</v>
       </c>
-      <c r="Q17">
-        <v>-0.25</v>
-      </c>
-      <c r="R17">
+      <c r="U17">
         <v>1.825</v>
       </c>
-      <c r="S17">
+      <c r="V17">
         <v>1.975</v>
       </c>
-      <c r="T17">
-        <v>3</v>
-      </c>
-      <c r="U17">
-        <v>1.975</v>
-      </c>
-      <c r="V17">
-        <v>1.825</v>
-      </c>
       <c r="W17">
         <v>-1</v>
       </c>
       <c r="X17">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y17">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="Z17">
+        <v>-1</v>
+      </c>
+      <c r="AA17">
+        <v>0.95</v>
+      </c>
+      <c r="AB17">
+        <v>0.4125</v>
+      </c>
+      <c r="AC17">
         <v>-0.5</v>
-      </c>
-      <c r="AA17">
-        <v>0.4875</v>
-      </c>
-      <c r="AB17">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AC17">
-        <v>-1</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2172,7 +2172,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>7100282</v>
+        <v>7100106</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2187,43 +2187,43 @@
         <v>44</v>
       </c>
       <c r="G18" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K18">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="L18">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="M18">
-        <v>2.45</v>
+        <v>3.2</v>
       </c>
       <c r="N18">
-        <v>2.25</v>
+        <v>1.85</v>
       </c>
       <c r="O18">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P18">
-        <v>2.4</v>
+        <v>3.4</v>
       </c>
       <c r="Q18">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R18">
+        <v>1.95</v>
+      </c>
+      <c r="S18">
         <v>1.85</v>
-      </c>
-      <c r="S18">
-        <v>1.95</v>
       </c>
       <c r="T18">
         <v>2.75</v>
@@ -2238,22 +2238,22 @@
         <v>-1</v>
       </c>
       <c r="X18">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y18">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Z18">
         <v>-1</v>
       </c>
       <c r="AA18">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB18">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AC18">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2261,7 +2261,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>7100106</v>
+        <v>7100545</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2276,73 +2276,73 @@
         <v>45</v>
       </c>
       <c r="G19" t="s">
-        <v>84</v>
+        <v>33</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K19">
-        <v>2.05</v>
+        <v>1.909</v>
       </c>
       <c r="L19">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="M19">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="N19">
         <v>1.85</v>
       </c>
       <c r="O19">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P19">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="Q19">
         <v>-0.5</v>
       </c>
       <c r="R19">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S19">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T19">
         <v>2.75</v>
       </c>
       <c r="U19">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V19">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W19">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X19">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y19">
         <v>-1</v>
       </c>
       <c r="Z19">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA19">
+        <v>-1</v>
+      </c>
+      <c r="AB19">
+        <v>-1</v>
+      </c>
+      <c r="AC19">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AB19">
-        <v>-1</v>
-      </c>
-      <c r="AC19">
-        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2350,7 +2350,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>7100405</v>
+        <v>7100544</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2365,73 +2365,73 @@
         <v>46</v>
       </c>
       <c r="G20" t="s">
-        <v>34</v>
+        <v>72</v>
       </c>
       <c r="H20">
+        <v>3</v>
+      </c>
+      <c r="I20">
         <v>0</v>
       </c>
-      <c r="I20">
-        <v>6</v>
-      </c>
       <c r="J20" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K20">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="L20">
+        <v>4</v>
+      </c>
+      <c r="M20">
+        <v>3.25</v>
+      </c>
+      <c r="N20">
+        <v>1.666</v>
+      </c>
+      <c r="O20">
+        <v>4.2</v>
+      </c>
+      <c r="P20">
         <v>3.6</v>
       </c>
-      <c r="M20">
-        <v>2.3</v>
-      </c>
-      <c r="N20">
-        <v>2.5</v>
-      </c>
-      <c r="O20">
-        <v>3.6</v>
-      </c>
-      <c r="P20">
-        <v>2.3</v>
-      </c>
       <c r="Q20">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R20">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S20">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T20">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U20">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V20">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W20">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X20">
         <v>-1</v>
       </c>
       <c r="Y20">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z20">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA20">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB20">
-        <v>0.95</v>
+        <v>0.45</v>
       </c>
       <c r="AC20">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2439,7 +2439,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>7100546</v>
+        <v>7100108</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2454,43 +2454,43 @@
         <v>47</v>
       </c>
       <c r="G21" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K21">
-        <v>1.615</v>
+        <v>2.3</v>
       </c>
       <c r="L21">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M21">
-        <v>4</v>
+        <v>2.6</v>
       </c>
       <c r="N21">
-        <v>1.45</v>
+        <v>2.3</v>
       </c>
       <c r="O21">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="P21">
-        <v>5</v>
+        <v>2.625</v>
       </c>
       <c r="Q21">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R21">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S21">
-        <v>2</v>
+        <v>1.725</v>
       </c>
       <c r="T21">
         <v>2.75</v>
@@ -2502,25 +2502,25 @@
         <v>2</v>
       </c>
       <c r="W21">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X21">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y21">
         <v>-1</v>
       </c>
       <c r="Z21">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA21">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB21">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC21">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2528,7 +2528,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7100543</v>
+        <v>7100546</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2543,37 +2543,37 @@
         <v>48</v>
       </c>
       <c r="G22" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J22" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K22">
-        <v>1.909</v>
+        <v>1.615</v>
       </c>
       <c r="L22">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M22">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="N22">
-        <v>2.3</v>
+        <v>1.45</v>
       </c>
       <c r="O22">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="P22">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="Q22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R22">
         <v>1.8</v>
@@ -2585,19 +2585,19 @@
         <v>2.75</v>
       </c>
       <c r="U22">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V22">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W22">
         <v>-1</v>
       </c>
       <c r="X22">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y22">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z22">
         <v>-1</v>
@@ -2606,10 +2606,10 @@
         <v>1</v>
       </c>
       <c r="AB22">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC22">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2617,7 +2617,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>7100544</v>
+        <v>7100405</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2632,73 +2632,73 @@
         <v>49</v>
       </c>
       <c r="G23" t="s">
-        <v>72</v>
+        <v>34</v>
       </c>
       <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>6</v>
+      </c>
+      <c r="J23" t="s">
+        <v>91</v>
+      </c>
+      <c r="K23">
+        <v>2.5</v>
+      </c>
+      <c r="L23">
+        <v>3.6</v>
+      </c>
+      <c r="M23">
+        <v>2.3</v>
+      </c>
+      <c r="N23">
+        <v>2.5</v>
+      </c>
+      <c r="O23">
+        <v>3.6</v>
+      </c>
+      <c r="P23">
+        <v>2.3</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>2</v>
+      </c>
+      <c r="S23">
+        <v>1.8</v>
+      </c>
+      <c r="T23">
         <v>3</v>
       </c>
-      <c r="I23">
-        <v>0</v>
-      </c>
-      <c r="J23" t="s">
-        <v>89</v>
-      </c>
-      <c r="K23">
-        <v>1.8</v>
-      </c>
-      <c r="L23">
-        <v>4</v>
-      </c>
-      <c r="M23">
-        <v>3.25</v>
-      </c>
-      <c r="N23">
-        <v>1.666</v>
-      </c>
-      <c r="O23">
-        <v>4.2</v>
-      </c>
-      <c r="P23">
-        <v>3.6</v>
-      </c>
-      <c r="Q23">
-        <v>-0.75</v>
-      </c>
-      <c r="R23">
-        <v>1.875</v>
-      </c>
-      <c r="S23">
-        <v>1.925</v>
-      </c>
-      <c r="T23">
-        <v>2.75</v>
-      </c>
       <c r="U23">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V23">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W23">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X23">
         <v>-1</v>
       </c>
       <c r="Y23">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z23">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA23">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB23">
-        <v>0.45</v>
+        <v>0.95</v>
       </c>
       <c r="AC23">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2706,7 +2706,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>7100545</v>
+        <v>7100543</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2721,16 +2721,16 @@
         <v>50</v>
       </c>
       <c r="G24" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J24" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K24">
         <v>1.909</v>
@@ -2742,52 +2742,52 @@
         <v>3.1</v>
       </c>
       <c r="N24">
-        <v>1.85</v>
+        <v>2.3</v>
       </c>
       <c r="O24">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P24">
-        <v>3.2</v>
+        <v>2.5</v>
       </c>
       <c r="Q24">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R24">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S24">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T24">
         <v>2.75</v>
       </c>
       <c r="U24">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V24">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W24">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X24">
         <v>-1</v>
       </c>
       <c r="Y24">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z24">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA24">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB24">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC24">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -2795,7 +2795,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>7104130</v>
+        <v>7104106</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2810,16 +2810,16 @@
         <v>51</v>
       </c>
       <c r="G25" t="s">
-        <v>69</v>
+        <v>30</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I25">
         <v>2</v>
       </c>
       <c r="J25" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K25">
         <v>2.375</v>
@@ -2831,13 +2831,13 @@
         <v>2.375</v>
       </c>
       <c r="N25">
-        <v>2.625</v>
+        <v>2.6</v>
       </c>
       <c r="O25">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P25">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="Q25">
         <v>0.25</v>
@@ -2849,34 +2849,34 @@
         <v>1.975</v>
       </c>
       <c r="T25">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U25">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="V25">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W25">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="X25">
         <v>-1</v>
       </c>
       <c r="Y25">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z25">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA25">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB25">
-        <v>0.4</v>
+        <v>0.75</v>
       </c>
       <c r="AC25">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="26" spans="1:29">
@@ -2884,7 +2884,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>7104129</v>
+        <v>7104131</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2899,73 +2899,73 @@
         <v>52</v>
       </c>
       <c r="G26" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K26">
-        <v>1.533</v>
+        <v>2.25</v>
       </c>
       <c r="L26">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M26">
-        <v>4.75</v>
+        <v>2.6</v>
       </c>
       <c r="N26">
-        <v>1.45</v>
+        <v>1.833</v>
       </c>
       <c r="O26">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P26">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="Q26">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R26">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="S26">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T26">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U26">
+        <v>1.775</v>
+      </c>
+      <c r="V26">
         <v>1.925</v>
       </c>
-      <c r="V26">
-        <v>1.875</v>
-      </c>
       <c r="W26">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X26">
         <v>-1</v>
       </c>
       <c r="Y26">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z26">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA26">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB26">
         <v>-1</v>
       </c>
       <c r="AC26">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -2973,7 +2973,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>7104106</v>
+        <v>7104129</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2988,55 +2988,55 @@
         <v>53</v>
       </c>
       <c r="G27" t="s">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="H27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I27">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J27" t="s">
         <v>89</v>
       </c>
       <c r="K27">
-        <v>2.375</v>
+        <v>1.533</v>
       </c>
       <c r="L27">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M27">
-        <v>2.375</v>
+        <v>4.75</v>
       </c>
       <c r="N27">
-        <v>2.6</v>
+        <v>1.45</v>
       </c>
       <c r="O27">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="P27">
-        <v>2.15</v>
+        <v>5.5</v>
       </c>
       <c r="Q27">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R27">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="S27">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T27">
         <v>3</v>
       </c>
       <c r="U27">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="V27">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W27">
-        <v>1.6</v>
+        <v>0.45</v>
       </c>
       <c r="X27">
         <v>-1</v>
@@ -3045,16 +3045,16 @@
         <v>-1</v>
       </c>
       <c r="Z27">
-        <v>0.825</v>
+        <v>0.75</v>
       </c>
       <c r="AA27">
         <v>-1</v>
       </c>
       <c r="AB27">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AC27">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -3062,7 +3062,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>7104131</v>
+        <v>7104130</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -3077,73 +3077,73 @@
         <v>54</v>
       </c>
       <c r="G28" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J28" t="s">
         <v>91</v>
       </c>
       <c r="K28">
-        <v>2.25</v>
+        <v>2.375</v>
       </c>
       <c r="L28">
+        <v>3.6</v>
+      </c>
+      <c r="M28">
+        <v>2.375</v>
+      </c>
+      <c r="N28">
+        <v>2.625</v>
+      </c>
+      <c r="O28">
         <v>3.5</v>
       </c>
-      <c r="M28">
-        <v>2.6</v>
-      </c>
-      <c r="N28">
-        <v>1.833</v>
-      </c>
-      <c r="O28">
-        <v>3.6</v>
-      </c>
       <c r="P28">
-        <v>3.5</v>
+        <v>2.2</v>
       </c>
       <c r="Q28">
+        <v>0.25</v>
+      </c>
+      <c r="R28">
+        <v>1.825</v>
+      </c>
+      <c r="S28">
+        <v>1.975</v>
+      </c>
+      <c r="T28">
+        <v>2.75</v>
+      </c>
+      <c r="U28">
+        <v>1.8</v>
+      </c>
+      <c r="V28">
+        <v>2</v>
+      </c>
+      <c r="W28">
+        <v>-1</v>
+      </c>
+      <c r="X28">
+        <v>-1</v>
+      </c>
+      <c r="Y28">
+        <v>1.2</v>
+      </c>
+      <c r="Z28">
+        <v>-1</v>
+      </c>
+      <c r="AA28">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB28">
+        <v>0.4</v>
+      </c>
+      <c r="AC28">
         <v>-0.5</v>
-      </c>
-      <c r="R28">
-        <v>1.875</v>
-      </c>
-      <c r="S28">
-        <v>1.925</v>
-      </c>
-      <c r="T28">
-        <v>2.5</v>
-      </c>
-      <c r="U28">
-        <v>1.775</v>
-      </c>
-      <c r="V28">
-        <v>1.925</v>
-      </c>
-      <c r="W28">
-        <v>-1</v>
-      </c>
-      <c r="X28">
-        <v>-1</v>
-      </c>
-      <c r="Y28">
-        <v>2.5</v>
-      </c>
-      <c r="Z28">
-        <v>-1</v>
-      </c>
-      <c r="AA28">
-        <v>0.925</v>
-      </c>
-      <c r="AB28">
-        <v>-1</v>
-      </c>
-      <c r="AC28">
-        <v>0.925</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -3255,7 +3255,7 @@
         <v>32</v>
       </c>
       <c r="G30" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H30">
         <v>1</v>
@@ -3430,10 +3430,10 @@
         <v>45166.45833333334</v>
       </c>
       <c r="F32" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G32" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H32">
         <v>2</v>
@@ -3697,7 +3697,7 @@
         <v>45166.45833333334</v>
       </c>
       <c r="F35" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G35" t="s">
         <v>69</v>
@@ -3878,7 +3878,7 @@
         <v>32</v>
       </c>
       <c r="G37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H37">
         <v>3</v>
@@ -4056,7 +4056,7 @@
         <v>58</v>
       </c>
       <c r="G39" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H39">
         <v>3</v>
@@ -4323,7 +4323,7 @@
         <v>30</v>
       </c>
       <c r="G42" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H42">
         <v>0</v>
@@ -4397,7 +4397,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>7258501</v>
+        <v>7261755</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4412,58 +4412,58 @@
         <v>60</v>
       </c>
       <c r="G43" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="H43">
         <v>2</v>
       </c>
       <c r="I43">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J43" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K43">
-        <v>2.3</v>
+        <v>1.533</v>
       </c>
       <c r="L43">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M43">
-        <v>2.55</v>
+        <v>4.75</v>
       </c>
       <c r="N43">
-        <v>2.3</v>
+        <v>1.533</v>
       </c>
       <c r="O43">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P43">
-        <v>2.6</v>
+        <v>4.75</v>
       </c>
       <c r="Q43">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R43">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S43">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T43">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U43">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V43">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W43">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X43">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y43">
         <v>-1</v>
@@ -4475,10 +4475,10 @@
         <v>-0</v>
       </c>
       <c r="AB43">
-        <v>1</v>
+        <v>0.4625</v>
       </c>
       <c r="AC43">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="44" spans="1:29">
@@ -4486,7 +4486,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>7261755</v>
+        <v>7258501</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4501,58 +4501,58 @@
         <v>61</v>
       </c>
       <c r="G44" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H44">
         <v>2</v>
       </c>
       <c r="I44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J44" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K44">
-        <v>1.533</v>
+        <v>2.3</v>
       </c>
       <c r="L44">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M44">
-        <v>4.75</v>
+        <v>2.55</v>
       </c>
       <c r="N44">
-        <v>1.533</v>
+        <v>2.3</v>
       </c>
       <c r="O44">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P44">
-        <v>4.75</v>
+        <v>2.6</v>
       </c>
       <c r="Q44">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R44">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S44">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T44">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U44">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V44">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W44">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X44">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y44">
         <v>-1</v>
@@ -4564,10 +4564,10 @@
         <v>-0</v>
       </c>
       <c r="AB44">
-        <v>0.4625</v>
+        <v>1</v>
       </c>
       <c r="AC44">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="45" spans="1:29">
@@ -4587,10 +4587,10 @@
         <v>45195.65625</v>
       </c>
       <c r="F45" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H45">
         <v>5</v>
@@ -4679,7 +4679,7 @@
         <v>35</v>
       </c>
       <c r="G46" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="H46">
         <v>4</v>
@@ -4857,7 +4857,7 @@
         <v>63</v>
       </c>
       <c r="G48" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H48">
         <v>0</v>
@@ -5035,7 +5035,7 @@
         <v>64</v>
       </c>
       <c r="G50" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="H50">
         <v>1</v>
@@ -5124,7 +5124,7 @@
         <v>34</v>
       </c>
       <c r="G51" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H51">
         <v>1</v>
@@ -5302,7 +5302,7 @@
         <v>55</v>
       </c>
       <c r="G53" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H53">
         <v>1</v>
@@ -5376,7 +5376,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>7319624</v>
+        <v>7319608</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5391,7 +5391,7 @@
         <v>66</v>
       </c>
       <c r="G54" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="H54">
         <v>3</v>
@@ -5403,31 +5403,31 @@
         <v>89</v>
       </c>
       <c r="K54">
-        <v>2.4</v>
+        <v>1.95</v>
       </c>
       <c r="L54">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="M54">
-        <v>2.4</v>
+        <v>2.75</v>
       </c>
       <c r="N54">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="O54">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P54">
-        <v>2.4</v>
+        <v>2.75</v>
       </c>
       <c r="Q54">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R54">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S54">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T54">
         <v>2.75</v>
@@ -5439,7 +5439,7 @@
         <v>1.9</v>
       </c>
       <c r="W54">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="X54">
         <v>-1</v>
@@ -5448,7 +5448,7 @@
         <v>-1</v>
       </c>
       <c r="Z54">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AA54">
         <v>-1</v>
@@ -5554,7 +5554,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>7319608</v>
+        <v>7319624</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5569,7 +5569,7 @@
         <v>68</v>
       </c>
       <c r="G56" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="H56">
         <v>3</v>
@@ -5581,31 +5581,31 @@
         <v>89</v>
       </c>
       <c r="K56">
-        <v>1.95</v>
+        <v>2.4</v>
       </c>
       <c r="L56">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="M56">
-        <v>2.75</v>
+        <v>2.4</v>
       </c>
       <c r="N56">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="O56">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P56">
-        <v>2.75</v>
+        <v>2.4</v>
       </c>
       <c r="Q56">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R56">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S56">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T56">
         <v>2.75</v>
@@ -5617,7 +5617,7 @@
         <v>1.9</v>
       </c>
       <c r="W56">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="X56">
         <v>-1</v>
@@ -5626,7 +5626,7 @@
         <v>-1</v>
       </c>
       <c r="Z56">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA56">
         <v>-1</v>
@@ -5643,7 +5643,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>7338189</v>
+        <v>7338188</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5655,76 +5655,76 @@
         <v>45213.45833333334</v>
       </c>
       <c r="F57" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="G57" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H57">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I57">
         <v>2</v>
       </c>
       <c r="J57" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K57">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="L57">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M57">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="N57">
-        <v>2.55</v>
+        <v>1.833</v>
       </c>
       <c r="O57">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="P57">
-        <v>2.15</v>
+        <v>3.1</v>
       </c>
       <c r="Q57">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R57">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S57">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T57">
         <v>3</v>
       </c>
       <c r="U57">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V57">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W57">
         <v>-1</v>
       </c>
       <c r="X57">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y57">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z57">
         <v>-1</v>
       </c>
       <c r="AA57">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AB57">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AC57">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="58" spans="1:29">
@@ -5732,7 +5732,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>7338188</v>
+        <v>7338187</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5744,76 +5744,76 @@
         <v>45213.45833333334</v>
       </c>
       <c r="F58" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="G58" t="s">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="H58">
         <v>2</v>
       </c>
       <c r="I58">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J58" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K58">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="L58">
+        <v>5</v>
+      </c>
+      <c r="M58">
         <v>4</v>
       </c>
-      <c r="M58">
-        <v>2.6</v>
-      </c>
       <c r="N58">
-        <v>1.833</v>
+        <v>1.5</v>
       </c>
       <c r="O58">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="P58">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="Q58">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R58">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S58">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T58">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U58">
+        <v>1.975</v>
+      </c>
+      <c r="V58">
         <v>1.825</v>
       </c>
-      <c r="V58">
-        <v>1.975</v>
-      </c>
       <c r="W58">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X58">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y58">
         <v>-1</v>
       </c>
       <c r="Z58">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA58">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB58">
+        <v>-1</v>
+      </c>
+      <c r="AC58">
         <v>0.825</v>
-      </c>
-      <c r="AC58">
-        <v>-1</v>
       </c>
     </row>
     <row r="59" spans="1:29">
@@ -5821,7 +5821,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>7338187</v>
+        <v>7338189</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5833,40 +5833,40 @@
         <v>45213.45833333334</v>
       </c>
       <c r="F59" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G59" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I59">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J59" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K59">
-        <v>1.5</v>
+        <v>2.7</v>
       </c>
       <c r="L59">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="M59">
-        <v>4</v>
+        <v>2.1</v>
       </c>
       <c r="N59">
-        <v>1.5</v>
+        <v>2.55</v>
       </c>
       <c r="O59">
-        <v>5</v>
+        <v>3.8</v>
       </c>
       <c r="P59">
-        <v>4</v>
+        <v>2.15</v>
       </c>
       <c r="Q59">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R59">
         <v>1.8</v>
@@ -5875,34 +5875,34 @@
         <v>2</v>
       </c>
       <c r="T59">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U59">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V59">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W59">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X59">
         <v>-1</v>
       </c>
       <c r="Y59">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z59">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA59">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB59">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC59">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="60" spans="1:29">
@@ -5922,10 +5922,10 @@
         <v>45216.65625</v>
       </c>
       <c r="F60" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G60" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H60">
         <v>2</v>
@@ -5999,7 +5999,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>7350911</v>
+        <v>7350912</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -6011,76 +6011,76 @@
         <v>45216.65625</v>
       </c>
       <c r="F61" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="G61" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="H61">
         <v>2</v>
       </c>
       <c r="I61">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J61" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K61">
-        <v>4.4</v>
+        <v>2.2</v>
       </c>
       <c r="L61">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="M61">
-        <v>1.55</v>
+        <v>2.5</v>
       </c>
       <c r="N61">
-        <v>5</v>
+        <v>2.375</v>
       </c>
       <c r="O61">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="P61">
-        <v>1.5</v>
+        <v>2.3</v>
       </c>
       <c r="Q61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R61">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S61">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T61">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U61">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="V61">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="W61">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X61">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y61">
         <v>-1</v>
       </c>
       <c r="Z61">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AA61">
         <v>-1</v>
       </c>
       <c r="AB61">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="AC61">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="62" spans="1:29">
@@ -6177,7 +6177,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>7350912</v>
+        <v>7350911</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6189,76 +6189,76 @@
         <v>45216.65625</v>
       </c>
       <c r="F63" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="G63" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="H63">
         <v>2</v>
       </c>
       <c r="I63">
+        <v>2</v>
+      </c>
+      <c r="J63" t="s">
+        <v>90</v>
+      </c>
+      <c r="K63">
+        <v>4.4</v>
+      </c>
+      <c r="L63">
+        <v>4.2</v>
+      </c>
+      <c r="M63">
+        <v>1.55</v>
+      </c>
+      <c r="N63">
+        <v>5</v>
+      </c>
+      <c r="O63">
+        <v>4.333</v>
+      </c>
+      <c r="P63">
+        <v>1.5</v>
+      </c>
+      <c r="Q63">
         <v>1</v>
       </c>
-      <c r="J63" t="s">
-        <v>89</v>
-      </c>
-      <c r="K63">
-        <v>2.2</v>
-      </c>
-      <c r="L63">
-        <v>3.9</v>
-      </c>
-      <c r="M63">
-        <v>2.5</v>
-      </c>
-      <c r="N63">
-        <v>2.375</v>
-      </c>
-      <c r="O63">
-        <v>4</v>
-      </c>
-      <c r="P63">
-        <v>2.3</v>
-      </c>
-      <c r="Q63">
-        <v>0</v>
-      </c>
       <c r="R63">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S63">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T63">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U63">
+        <v>1.75</v>
+      </c>
+      <c r="V63">
         <v>1.95</v>
       </c>
-      <c r="V63">
-        <v>1.85</v>
-      </c>
       <c r="W63">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X63">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y63">
         <v>-1</v>
       </c>
       <c r="Z63">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="AA63">
         <v>-1</v>
       </c>
       <c r="AB63">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AC63">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -6278,10 +6278,10 @@
         <v>45220.45833333334</v>
       </c>
       <c r="F64" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G64" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="H64">
         <v>1</v>
@@ -6459,7 +6459,7 @@
         <v>71</v>
       </c>
       <c r="G66" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H66">
         <v>1</v>
@@ -6815,7 +6815,7 @@
         <v>72</v>
       </c>
       <c r="G70" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H70">
         <v>2</v>
@@ -6978,7 +6978,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>7440455</v>
+        <v>7440456</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6990,76 +6990,76 @@
         <v>45237.69791666666</v>
       </c>
       <c r="F72" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="G72" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="H72">
         <v>2</v>
       </c>
       <c r="I72">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J72" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K72">
-        <v>1.5</v>
+        <v>2.3</v>
       </c>
       <c r="L72">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="M72">
-        <v>4.75</v>
+        <v>2.5</v>
       </c>
       <c r="N72">
-        <v>1.5</v>
+        <v>2.05</v>
       </c>
       <c r="O72">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="P72">
-        <v>4.75</v>
+        <v>2.8</v>
       </c>
       <c r="Q72">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R72">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S72">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T72">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U72">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="V72">
         <v>1.95</v>
       </c>
       <c r="W72">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X72">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y72">
         <v>-1</v>
       </c>
       <c r="Z72">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA72">
-        <v>-0</v>
+        <v>0.4625</v>
       </c>
       <c r="AB72">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AC72">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="73" spans="1:29">
@@ -7067,7 +7067,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>7440454</v>
+        <v>7440452</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -7079,70 +7079,70 @@
         <v>45237.69791666666</v>
       </c>
       <c r="F73" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="G73" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J73" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K73">
-        <v>1.85</v>
+        <v>2.5</v>
       </c>
       <c r="L73">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="M73">
-        <v>3.1</v>
+        <v>2.2</v>
       </c>
       <c r="N73">
-        <v>1.85</v>
+        <v>2.8</v>
       </c>
       <c r="O73">
         <v>4</v>
       </c>
       <c r="P73">
-        <v>3.1</v>
+        <v>1.95</v>
       </c>
       <c r="Q73">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R73">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S73">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T73">
         <v>3</v>
       </c>
       <c r="U73">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V73">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W73">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X73">
         <v>-1</v>
       </c>
       <c r="Y73">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z73">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA73">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB73">
         <v>0</v>
@@ -7156,7 +7156,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>7440452</v>
+        <v>7440455</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7168,70 +7168,70 @@
         <v>45237.69791666666</v>
       </c>
       <c r="F74" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="G74" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J74" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K74">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="L74">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="M74">
-        <v>2.2</v>
+        <v>4.75</v>
       </c>
       <c r="N74">
-        <v>2.8</v>
+        <v>1.5</v>
       </c>
       <c r="O74">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P74">
-        <v>1.95</v>
+        <v>4.75</v>
       </c>
       <c r="Q74">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R74">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S74">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T74">
         <v>3</v>
       </c>
       <c r="U74">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V74">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W74">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X74">
         <v>-1</v>
       </c>
       <c r="Y74">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z74">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA74">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
       <c r="AB74">
         <v>0</v>
@@ -7245,7 +7245,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>7440456</v>
+        <v>7440454</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7260,73 +7260,73 @@
         <v>66</v>
       </c>
       <c r="G75" t="s">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="H75">
         <v>2</v>
       </c>
       <c r="I75">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J75" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K75">
-        <v>2.3</v>
+        <v>1.85</v>
       </c>
       <c r="L75">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M75">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="N75">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="O75">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P75">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="Q75">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R75">
+        <v>1.9</v>
+      </c>
+      <c r="S75">
+        <v>1.9</v>
+      </c>
+      <c r="T75">
+        <v>3</v>
+      </c>
+      <c r="U75">
         <v>1.875</v>
       </c>
-      <c r="S75">
+      <c r="V75">
         <v>1.925</v>
       </c>
-      <c r="T75">
-        <v>2.75</v>
-      </c>
-      <c r="U75">
-        <v>1.75</v>
-      </c>
-      <c r="V75">
-        <v>1.95</v>
-      </c>
       <c r="W75">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X75">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y75">
         <v>-1</v>
       </c>
       <c r="Z75">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA75">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AB75">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="AC75">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7613,10 +7613,10 @@
         <v>45244.69791666666</v>
       </c>
       <c r="F79" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G79" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H79">
         <v>5</v>
@@ -7972,7 +7972,7 @@
         <v>39</v>
       </c>
       <c r="G83" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="H83">
         <v>2</v>
@@ -8328,7 +8328,7 @@
         <v>41</v>
       </c>
       <c r="G87" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H87">
         <v>0</v>
@@ -8503,7 +8503,7 @@
         <v>45272.69791666666</v>
       </c>
       <c r="F89" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G89" t="s">
         <v>33</v>
@@ -8951,7 +8951,7 @@
         <v>35</v>
       </c>
       <c r="G94" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="H94">
         <v>0</v>
@@ -9037,10 +9037,10 @@
         <v>45283.5</v>
       </c>
       <c r="F95" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G95" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H95">
         <v>1</v>
@@ -9126,7 +9126,7 @@
         <v>45286.41666666666</v>
       </c>
       <c r="F96" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G96" t="s">
         <v>35</v>
@@ -9304,7 +9304,7 @@
         <v>45287.69791666666</v>
       </c>
       <c r="F98" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G98" t="s">
         <v>34</v>
@@ -9396,7 +9396,7 @@
         <v>69</v>
       </c>
       <c r="G99" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H99">
         <v>1</v>
@@ -9485,7 +9485,7 @@
         <v>70</v>
       </c>
       <c r="G100" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="H100">
         <v>2</v>
@@ -9648,7 +9648,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>7640085</v>
+        <v>7639918</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9660,49 +9660,49 @@
         <v>45290.5</v>
       </c>
       <c r="F102" t="s">
-        <v>74</v>
+        <v>31</v>
       </c>
       <c r="G102" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H102">
+        <v>2</v>
+      </c>
+      <c r="I102">
         <v>1</v>
       </c>
-      <c r="I102">
-        <v>2</v>
-      </c>
       <c r="J102" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K102">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="L102">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M102">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="N102">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="O102">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P102">
-        <v>2.55</v>
+        <v>3</v>
       </c>
       <c r="Q102">
         <v>-0.25</v>
       </c>
       <c r="R102">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S102">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T102">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U102">
         <v>1.95</v>
@@ -9711,25 +9711,25 @@
         <v>1.85</v>
       </c>
       <c r="W102">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X102">
         <v>-1</v>
       </c>
       <c r="Y102">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="Z102">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA102">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB102">
-        <v>0</v>
+        <v>0.475</v>
       </c>
       <c r="AC102">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -9737,7 +9737,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>7639918</v>
+        <v>7640085</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9749,49 +9749,49 @@
         <v>45290.5</v>
       </c>
       <c r="F103" t="s">
-        <v>31</v>
+        <v>74</v>
       </c>
       <c r="G103" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I103">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J103" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K103">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="L103">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M103">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="N103">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="O103">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P103">
-        <v>3</v>
+        <v>2.55</v>
       </c>
       <c r="Q103">
         <v>-0.25</v>
       </c>
       <c r="R103">
+        <v>2</v>
+      </c>
+      <c r="S103">
         <v>1.8</v>
       </c>
-      <c r="S103">
-        <v>2</v>
-      </c>
       <c r="T103">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U103">
         <v>1.95</v>
@@ -9800,25 +9800,25 @@
         <v>1.85</v>
       </c>
       <c r="W103">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X103">
         <v>-1</v>
       </c>
       <c r="Y103">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="Z103">
+        <v>-1</v>
+      </c>
+      <c r="AA103">
         <v>0.8</v>
       </c>
-      <c r="AA103">
-        <v>-1</v>
-      </c>
       <c r="AB103">
-        <v>0.475</v>
+        <v>0</v>
       </c>
       <c r="AC103">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9841,7 +9841,7 @@
         <v>34</v>
       </c>
       <c r="G104" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H104">
         <v>3</v>
@@ -9927,7 +9927,7 @@
         <v>45292.5</v>
       </c>
       <c r="F105" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G105" t="s">
         <v>87</v>
@@ -10004,7 +10004,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>7649124</v>
+        <v>7649195</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -10016,76 +10016,76 @@
         <v>45292.5</v>
       </c>
       <c r="F106" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="G106" t="s">
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="H106">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I106">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J106" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K106">
+        <v>2.4</v>
+      </c>
+      <c r="L106">
+        <v>3.5</v>
+      </c>
+      <c r="M106">
+        <v>2.4</v>
+      </c>
+      <c r="N106">
+        <v>2.4</v>
+      </c>
+      <c r="O106">
+        <v>3.5</v>
+      </c>
+      <c r="P106">
+        <v>2.4</v>
+      </c>
+      <c r="Q106">
+        <v>0</v>
+      </c>
+      <c r="R106">
+        <v>1.9</v>
+      </c>
+      <c r="S106">
+        <v>1.9</v>
+      </c>
+      <c r="T106">
+        <v>2.75</v>
+      </c>
+      <c r="U106">
+        <v>1.9</v>
+      </c>
+      <c r="V106">
+        <v>1.9</v>
+      </c>
+      <c r="W106">
+        <v>-1</v>
+      </c>
+      <c r="X106">
         <v>2.5</v>
       </c>
-      <c r="L106">
-        <v>3.75</v>
-      </c>
-      <c r="M106">
-        <v>2.25</v>
-      </c>
-      <c r="N106">
-        <v>2.55</v>
-      </c>
-      <c r="O106">
-        <v>3.75</v>
-      </c>
-      <c r="P106">
-        <v>2.25</v>
-      </c>
-      <c r="Q106">
-        <v>0.25</v>
-      </c>
-      <c r="R106">
-        <v>1.725</v>
-      </c>
-      <c r="S106">
-        <v>1.975</v>
-      </c>
-      <c r="T106">
-        <v>3.25</v>
-      </c>
-      <c r="U106">
-        <v>1.975</v>
-      </c>
-      <c r="V106">
-        <v>1.825</v>
-      </c>
-      <c r="W106">
-        <v>1.55</v>
-      </c>
-      <c r="X106">
-        <v>-1</v>
-      </c>
       <c r="Y106">
         <v>-1</v>
       </c>
       <c r="Z106">
-        <v>0.7250000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA106">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB106">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC106">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="107" spans="1:29">
@@ -10093,7 +10093,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>7649184</v>
+        <v>7649124</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -10105,58 +10105,58 @@
         <v>45292.5</v>
       </c>
       <c r="F107" t="s">
-        <v>66</v>
+        <v>30</v>
       </c>
       <c r="G107" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I107">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J107" t="s">
         <v>89</v>
       </c>
       <c r="K107">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="L107">
         <v>3.75</v>
       </c>
       <c r="M107">
-        <v>3.4</v>
+        <v>2.25</v>
       </c>
       <c r="N107">
-        <v>1.7</v>
+        <v>2.55</v>
       </c>
       <c r="O107">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P107">
-        <v>3.75</v>
+        <v>2.25</v>
       </c>
       <c r="Q107">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R107">
-        <v>1.95</v>
+        <v>1.725</v>
       </c>
       <c r="S107">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T107">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U107">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="V107">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W107">
-        <v>0.7</v>
+        <v>1.55</v>
       </c>
       <c r="X107">
         <v>-1</v>
@@ -10165,16 +10165,16 @@
         <v>-1</v>
       </c>
       <c r="Z107">
-        <v>0.95</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA107">
         <v>-1</v>
       </c>
       <c r="AB107">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC107">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="108" spans="1:29">
@@ -10182,7 +10182,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>7649195</v>
+        <v>7649184</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10194,76 +10194,76 @@
         <v>45292.5</v>
       </c>
       <c r="F108" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="G108" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108">
         <v>0</v>
       </c>
       <c r="J108" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K108">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="L108">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M108">
-        <v>2.4</v>
+        <v>3.4</v>
       </c>
       <c r="N108">
-        <v>2.4</v>
+        <v>1.7</v>
       </c>
       <c r="O108">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P108">
-        <v>2.4</v>
+        <v>3.75</v>
       </c>
       <c r="Q108">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R108">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S108">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T108">
         <v>2.75</v>
       </c>
       <c r="U108">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="V108">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W108">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X108">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y108">
         <v>-1</v>
       </c>
       <c r="Z108">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA108">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB108">
         <v>-1</v>
       </c>
       <c r="AC108">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10375,7 +10375,7 @@
         <v>77</v>
       </c>
       <c r="G110" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H110">
         <v>0</v>
@@ -10461,7 +10461,7 @@
         <v>45297.5</v>
       </c>
       <c r="F111" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G111" t="s">
         <v>59</v>
@@ -10550,7 +10550,7 @@
         <v>45298.5</v>
       </c>
       <c r="F112" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G112" t="s">
         <v>32</v>
@@ -10820,7 +10820,7 @@
         <v>40</v>
       </c>
       <c r="G115" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H115">
         <v>0</v>
@@ -10906,7 +10906,7 @@
         <v>45300.69791666666</v>
       </c>
       <c r="F116" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="G116" t="s">
         <v>84</v>
@@ -10998,7 +10998,7 @@
         <v>78</v>
       </c>
       <c r="G117" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H117">
         <v>1</v>
@@ -11250,7 +11250,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>7691318</v>
+        <v>7691319</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11262,76 +11262,76 @@
         <v>45304.5</v>
       </c>
       <c r="F120" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G120" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="H120">
         <v>2</v>
       </c>
       <c r="I120">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J120" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K120">
-        <v>1.95</v>
+        <v>4.75</v>
       </c>
       <c r="L120">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="M120">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="N120">
-        <v>1.95</v>
+        <v>5.25</v>
       </c>
       <c r="O120">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="P120">
-        <v>3</v>
+        <v>1.363</v>
       </c>
       <c r="Q120">
-        <v>-0.25</v>
+        <v>1.5</v>
       </c>
       <c r="R120">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="S120">
         <v>1.95</v>
       </c>
       <c r="T120">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U120">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V120">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W120">
+        <v>-1</v>
+      </c>
+      <c r="X120">
+        <v>4</v>
+      </c>
+      <c r="Y120">
+        <v>-1</v>
+      </c>
+      <c r="Z120">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AA120">
+        <v>-1</v>
+      </c>
+      <c r="AB120">
         <v>0.95</v>
       </c>
-      <c r="X120">
-        <v>-1</v>
-      </c>
-      <c r="Y120">
-        <v>-1</v>
-      </c>
-      <c r="Z120">
-        <v>0.75</v>
-      </c>
-      <c r="AA120">
-        <v>-1</v>
-      </c>
-      <c r="AB120">
-        <v>0</v>
-      </c>
       <c r="AC120">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="121" spans="1:29">
@@ -11428,7 +11428,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>7691319</v>
+        <v>7691318</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11440,76 +11440,76 @@
         <v>45304.5</v>
       </c>
       <c r="F122" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="G122" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="H122">
         <v>2</v>
       </c>
       <c r="I122">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J122" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K122">
-        <v>4.75</v>
+        <v>1.95</v>
       </c>
       <c r="L122">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="M122">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="N122">
-        <v>5.25</v>
+        <v>1.95</v>
       </c>
       <c r="O122">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="P122">
-        <v>1.363</v>
+        <v>3</v>
       </c>
       <c r="Q122">
-        <v>1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R122">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="S122">
         <v>1.95</v>
       </c>
       <c r="T122">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U122">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V122">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W122">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X122">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Y122">
         <v>-1</v>
       </c>
       <c r="Z122">
-        <v>0.8500000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="AA122">
         <v>-1</v>
       </c>
       <c r="AB122">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AC122">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="123" spans="1:29">
@@ -11529,7 +11529,7 @@
         <v>45307.69791666666</v>
       </c>
       <c r="F123" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G123" t="s">
         <v>88</v>
@@ -11606,7 +11606,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>7719544</v>
+        <v>7719594</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11621,73 +11621,73 @@
         <v>53</v>
       </c>
       <c r="G124" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="H124">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I124">
         <v>0</v>
       </c>
       <c r="J124" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K124">
-        <v>2.05</v>
+        <v>1.4</v>
       </c>
       <c r="L124">
+        <v>5</v>
+      </c>
+      <c r="M124">
+        <v>5</v>
+      </c>
+      <c r="N124">
+        <v>1.4</v>
+      </c>
+      <c r="O124">
+        <v>5</v>
+      </c>
+      <c r="P124">
+        <v>5</v>
+      </c>
+      <c r="Q124">
+        <v>-1.25</v>
+      </c>
+      <c r="R124">
+        <v>1.85</v>
+      </c>
+      <c r="S124">
+        <v>1.95</v>
+      </c>
+      <c r="T124">
+        <v>3</v>
+      </c>
+      <c r="U124">
+        <v>1.825</v>
+      </c>
+      <c r="V124">
+        <v>1.975</v>
+      </c>
+      <c r="W124">
+        <v>-1</v>
+      </c>
+      <c r="X124">
         <v>4</v>
       </c>
-      <c r="M124">
-        <v>2.7</v>
-      </c>
-      <c r="N124">
-        <v>2.05</v>
-      </c>
-      <c r="O124">
-        <v>4</v>
-      </c>
-      <c r="P124">
-        <v>2.7</v>
-      </c>
-      <c r="Q124">
-        <v>-0.25</v>
-      </c>
-      <c r="R124">
-        <v>1.875</v>
-      </c>
-      <c r="S124">
-        <v>1.925</v>
-      </c>
-      <c r="T124">
-        <v>2.5</v>
-      </c>
-      <c r="U124">
-        <v>1.8</v>
-      </c>
-      <c r="V124">
-        <v>2</v>
-      </c>
-      <c r="W124">
-        <v>1.05</v>
-      </c>
-      <c r="X124">
-        <v>-1</v>
-      </c>
       <c r="Y124">
         <v>-1</v>
       </c>
       <c r="Z124">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA124">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB124">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC124">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11695,7 +11695,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>7719594</v>
+        <v>7719544</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11707,76 +11707,76 @@
         <v>45311.5</v>
       </c>
       <c r="F125" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G125" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I125">
         <v>0</v>
       </c>
       <c r="J125" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K125">
-        <v>1.4</v>
+        <v>2.05</v>
       </c>
       <c r="L125">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M125">
-        <v>5</v>
+        <v>2.7</v>
       </c>
       <c r="N125">
-        <v>1.4</v>
+        <v>2.05</v>
       </c>
       <c r="O125">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P125">
-        <v>5</v>
+        <v>2.7</v>
       </c>
       <c r="Q125">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R125">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S125">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T125">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U125">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V125">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W125">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X125">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Y125">
         <v>-1</v>
       </c>
       <c r="Z125">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA125">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB125">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC125">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -11796,7 +11796,7 @@
         <v>45311.5</v>
       </c>
       <c r="F126" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G126" t="s">
         <v>58</v>
@@ -11977,7 +11977,7 @@
         <v>32</v>
       </c>
       <c r="G128" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H128">
         <v>0</v>
@@ -12155,7 +12155,7 @@
         <v>35</v>
       </c>
       <c r="G130" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H130">
         <v>1</v>
@@ -12330,7 +12330,7 @@
         <v>45321.69791666666</v>
       </c>
       <c r="F132" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G132" t="s">
         <v>87</v>
@@ -12511,7 +12511,7 @@
         <v>69</v>
       </c>
       <c r="G134" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="H134">
         <v>1</v>
@@ -12689,7 +12689,7 @@
         <v>80</v>
       </c>
       <c r="G136" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H136">
         <v>3</v>
@@ -12763,7 +12763,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>7779219</v>
+        <v>7779218</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12775,76 +12775,76 @@
         <v>45325.5</v>
       </c>
       <c r="F137" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="G137" t="s">
-        <v>87</v>
+        <v>33</v>
       </c>
       <c r="H137">
         <v>1</v>
       </c>
       <c r="I137">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J137" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K137">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="L137">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M137">
+        <v>2.5</v>
+      </c>
+      <c r="N137">
         <v>2.25</v>
       </c>
-      <c r="N137">
-        <v>2.4</v>
-      </c>
       <c r="O137">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P137">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="Q137">
         <v>0</v>
       </c>
       <c r="R137">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S137">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T137">
         <v>2.75</v>
       </c>
       <c r="U137">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V137">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W137">
         <v>-1</v>
       </c>
       <c r="X137">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y137">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z137">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA137">
-        <v>-0</v>
+        <v>1</v>
       </c>
       <c r="AB137">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC137">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="138" spans="1:29">
@@ -12852,7 +12852,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>7779223</v>
+        <v>7779219</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12864,76 +12864,76 @@
         <v>45325.5</v>
       </c>
       <c r="F138" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="G138" t="s">
-        <v>42</v>
+        <v>87</v>
       </c>
       <c r="H138">
         <v>1</v>
       </c>
       <c r="I138">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J138" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K138">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="L138">
         <v>4</v>
       </c>
       <c r="M138">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="N138">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="O138">
         <v>4</v>
       </c>
       <c r="P138">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="Q138">
         <v>0</v>
       </c>
       <c r="R138">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S138">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T138">
+        <v>2.75</v>
+      </c>
+      <c r="U138">
+        <v>1.875</v>
+      </c>
+      <c r="V138">
+        <v>1.925</v>
+      </c>
+      <c r="W138">
+        <v>-1</v>
+      </c>
+      <c r="X138">
         <v>3</v>
       </c>
-      <c r="U138">
-        <v>2</v>
-      </c>
-      <c r="V138">
-        <v>1.8</v>
-      </c>
-      <c r="W138">
-        <v>1.3</v>
-      </c>
-      <c r="X138">
-        <v>-1</v>
-      </c>
       <c r="Y138">
         <v>-1</v>
       </c>
       <c r="Z138">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA138">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB138">
         <v>-1</v>
       </c>
       <c r="AC138">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="139" spans="1:29">
@@ -12941,7 +12941,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>7779218</v>
+        <v>7779223</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12953,76 +12953,76 @@
         <v>45325.5</v>
       </c>
       <c r="F139" t="s">
-        <v>75</v>
+        <v>29</v>
       </c>
       <c r="G139" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="H139">
         <v>1</v>
       </c>
       <c r="I139">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J139" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K139">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L139">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M139">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="N139">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="O139">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P139">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="Q139">
         <v>0</v>
       </c>
       <c r="R139">
+        <v>1.9</v>
+      </c>
+      <c r="S139">
+        <v>1.9</v>
+      </c>
+      <c r="T139">
+        <v>3</v>
+      </c>
+      <c r="U139">
+        <v>2</v>
+      </c>
+      <c r="V139">
         <v>1.8</v>
       </c>
-      <c r="S139">
-        <v>2</v>
-      </c>
-      <c r="T139">
-        <v>2.75</v>
-      </c>
-      <c r="U139">
-        <v>1.95</v>
-      </c>
-      <c r="V139">
-        <v>1.85</v>
-      </c>
       <c r="W139">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X139">
         <v>-1</v>
       </c>
       <c r="Y139">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z139">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA139">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB139">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC139">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="140" spans="1:29">
@@ -13042,7 +13042,7 @@
         <v>45328.69791666666</v>
       </c>
       <c r="F140" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G140" t="s">
         <v>80</v>
@@ -13309,7 +13309,7 @@
         <v>45332.5</v>
       </c>
       <c r="F143" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G143" t="s">
         <v>86</v>
@@ -13490,7 +13490,7 @@
         <v>37</v>
       </c>
       <c r="G145" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H145">
         <v>3</v>
@@ -13579,7 +13579,7 @@
         <v>31</v>
       </c>
       <c r="G146" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="H146">
         <v>2</v>
@@ -13757,7 +13757,7 @@
         <v>40</v>
       </c>
       <c r="G148" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H148">
         <v>0</v>
@@ -13843,7 +13843,7 @@
         <v>45339.5</v>
       </c>
       <c r="F149" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G149" t="s">
         <v>62</v>
@@ -13935,7 +13935,7 @@
         <v>41</v>
       </c>
       <c r="G150" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H150">
         <v>1</v>
@@ -14187,7 +14187,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>7915178</v>
+        <v>7915176</v>
       </c>
       <c r="C153" t="s">
         <v>28</v>
@@ -14199,76 +14199,76 @@
         <v>45356.69791666666</v>
       </c>
       <c r="F153" t="s">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="G153" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I153">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J153" t="s">
         <v>90</v>
       </c>
       <c r="K153">
-        <v>2.6</v>
+        <v>1.615</v>
       </c>
       <c r="L153">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="M153">
-        <v>2.1</v>
+        <v>3.75</v>
       </c>
       <c r="N153">
-        <v>2.5</v>
+        <v>1.615</v>
       </c>
       <c r="O153">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="P153">
-        <v>2.1</v>
+        <v>3.75</v>
       </c>
       <c r="Q153">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R153">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S153">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T153">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U153">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V153">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W153">
         <v>-1</v>
       </c>
       <c r="X153">
-        <v>3.2</v>
+        <v>3.333</v>
       </c>
       <c r="Y153">
         <v>-1</v>
       </c>
       <c r="Z153">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AA153">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AB153">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC153">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="154" spans="1:29">
@@ -14276,7 +14276,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>7915176</v>
+        <v>7915178</v>
       </c>
       <c r="C154" t="s">
         <v>28</v>
@@ -14288,76 +14288,76 @@
         <v>45356.69791666666</v>
       </c>
       <c r="F154" t="s">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="G154" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H154">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I154">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J154" t="s">
         <v>90</v>
       </c>
       <c r="K154">
-        <v>1.615</v>
+        <v>2.6</v>
       </c>
       <c r="L154">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="M154">
-        <v>3.75</v>
+        <v>2.1</v>
       </c>
       <c r="N154">
-        <v>1.615</v>
+        <v>2.5</v>
       </c>
       <c r="O154">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="P154">
-        <v>3.75</v>
+        <v>2.1</v>
       </c>
       <c r="Q154">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R154">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S154">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T154">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U154">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V154">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W154">
         <v>-1</v>
       </c>
       <c r="X154">
-        <v>3.333</v>
+        <v>3.2</v>
       </c>
       <c r="Y154">
         <v>-1</v>
       </c>
       <c r="Z154">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AA154">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB154">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC154">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="155" spans="1:29">
@@ -14365,7 +14365,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>7915179</v>
+        <v>7915227</v>
       </c>
       <c r="C155" t="s">
         <v>28</v>
@@ -14377,55 +14377,55 @@
         <v>45356.69791666666</v>
       </c>
       <c r="F155" t="s">
-        <v>81</v>
+        <v>43</v>
       </c>
       <c r="G155" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="H155">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I155">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J155" t="s">
         <v>91</v>
       </c>
       <c r="K155">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="L155">
         <v>4.5</v>
       </c>
       <c r="M155">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="N155">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="O155">
         <v>4.5</v>
       </c>
       <c r="P155">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="Q155">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R155">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S155">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T155">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U155">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V155">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W155">
         <v>-1</v>
@@ -14434,16 +14434,16 @@
         <v>-1</v>
       </c>
       <c r="Y155">
-        <v>1.25</v>
+        <v>0.8</v>
       </c>
       <c r="Z155">
         <v>-1</v>
       </c>
       <c r="AA155">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB155">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC155">
         <v>-1</v>
@@ -14454,7 +14454,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>7915227</v>
+        <v>7915228</v>
       </c>
       <c r="C156" t="s">
         <v>28</v>
@@ -14466,73 +14466,73 @@
         <v>45356.69791666666</v>
       </c>
       <c r="F156" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G156" t="s">
-        <v>74</v>
+        <v>32</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J156" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K156">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="L156">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="M156">
-        <v>1.8</v>
+        <v>1.571</v>
       </c>
       <c r="N156">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="O156">
         <v>4.5</v>
       </c>
       <c r="P156">
-        <v>1.8</v>
+        <v>1.666</v>
       </c>
       <c r="Q156">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R156">
+        <v>1.9</v>
+      </c>
+      <c r="S156">
+        <v>1.9</v>
+      </c>
+      <c r="T156">
+        <v>3</v>
+      </c>
+      <c r="U156">
         <v>1.95</v>
       </c>
-      <c r="S156">
+      <c r="V156">
         <v>1.85</v>
       </c>
-      <c r="T156">
-        <v>3.25</v>
-      </c>
-      <c r="U156">
-        <v>1.85</v>
-      </c>
-      <c r="V156">
-        <v>1.95</v>
-      </c>
       <c r="W156">
         <v>-1</v>
       </c>
       <c r="X156">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y156">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z156">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA156">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB156">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AC156">
         <v>-1</v>
@@ -14543,7 +14543,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>7915228</v>
+        <v>7915179</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14555,40 +14555,40 @@
         <v>45356.69791666666</v>
       </c>
       <c r="F157" t="s">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="G157" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="H157">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I157">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J157" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K157">
-        <v>3.75</v>
+        <v>2.25</v>
       </c>
       <c r="L157">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="M157">
-        <v>1.571</v>
+        <v>2.25</v>
       </c>
       <c r="N157">
-        <v>3.4</v>
+        <v>2.25</v>
       </c>
       <c r="O157">
         <v>4.5</v>
       </c>
       <c r="P157">
-        <v>1.666</v>
+        <v>2.25</v>
       </c>
       <c r="Q157">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R157">
         <v>1.9</v>
@@ -14600,28 +14600,28 @@
         <v>3</v>
       </c>
       <c r="U157">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V157">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W157">
         <v>-1</v>
       </c>
       <c r="X157">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y157">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z157">
+        <v>-1</v>
+      </c>
+      <c r="AA157">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AA157">
-        <v>-1</v>
-      </c>
       <c r="AB157">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AC157">
         <v>-1</v>
@@ -14647,7 +14647,7 @@
         <v>29</v>
       </c>
       <c r="G158" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H158">
         <v>3</v>
@@ -15089,10 +15089,10 @@
         <v>45370.69791666666</v>
       </c>
       <c r="F163" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G163" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H163">
         <v>2</v>
@@ -15178,7 +15178,7 @@
         <v>45370.69791666666</v>
       </c>
       <c r="F164" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G164" t="s">
         <v>81</v>
@@ -15270,7 +15270,7 @@
         <v>37</v>
       </c>
       <c r="G165" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H165">
         <v>0</v>
@@ -15359,7 +15359,7 @@
         <v>29</v>
       </c>
       <c r="G166" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="H166">
         <v>4</v>
@@ -15626,7 +15626,7 @@
         <v>35</v>
       </c>
       <c r="G169" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H169">
         <v>0</v>
@@ -15712,7 +15712,7 @@
         <v>45374.5</v>
       </c>
       <c r="F170" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G170" t="s">
         <v>71</v>
@@ -15878,7 +15878,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>8010866</v>
+        <v>8010142</v>
       </c>
       <c r="C172" t="s">
         <v>28</v>
@@ -15890,40 +15890,40 @@
         <v>45377.69791666666</v>
       </c>
       <c r="F172" t="s">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="G172" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="H172">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I172">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J172" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K172">
-        <v>1.8</v>
+        <v>1.909</v>
       </c>
       <c r="L172">
         <v>4</v>
       </c>
       <c r="M172">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="N172">
-        <v>1.7</v>
+        <v>1.909</v>
       </c>
       <c r="O172">
         <v>4</v>
       </c>
       <c r="P172">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="Q172">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R172">
         <v>1.95</v>
@@ -15932,31 +15932,31 @@
         <v>1.85</v>
       </c>
       <c r="T172">
+        <v>3.25</v>
+      </c>
+      <c r="U172">
+        <v>1.825</v>
+      </c>
+      <c r="V172">
+        <v>1.975</v>
+      </c>
+      <c r="W172">
+        <v>-1</v>
+      </c>
+      <c r="X172">
         <v>3</v>
       </c>
-      <c r="U172">
-        <v>1.85</v>
-      </c>
-      <c r="V172">
-        <v>1.95</v>
-      </c>
-      <c r="W172">
-        <v>0.7</v>
-      </c>
-      <c r="X172">
-        <v>-1</v>
-      </c>
       <c r="Y172">
         <v>-1</v>
       </c>
       <c r="Z172">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA172">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB172">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AC172">
         <v>-1</v>
@@ -15967,7 +15967,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>8010864</v>
+        <v>8010865</v>
       </c>
       <c r="C173" t="s">
         <v>28</v>
@@ -15979,58 +15979,58 @@
         <v>45377.69791666666</v>
       </c>
       <c r="F173" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G173" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="H173">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I173">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J173" t="s">
         <v>89</v>
       </c>
       <c r="K173">
-        <v>2.45</v>
+        <v>1.727</v>
       </c>
       <c r="L173">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="M173">
-        <v>2.1</v>
+        <v>3.5</v>
       </c>
       <c r="N173">
-        <v>2.75</v>
+        <v>1.666</v>
       </c>
       <c r="O173">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="P173">
+        <v>3.75</v>
+      </c>
+      <c r="Q173">
+        <v>-0.75</v>
+      </c>
+      <c r="R173">
+        <v>1.875</v>
+      </c>
+      <c r="S173">
+        <v>1.925</v>
+      </c>
+      <c r="T173">
+        <v>3</v>
+      </c>
+      <c r="U173">
+        <v>1.95</v>
+      </c>
+      <c r="V173">
         <v>1.85</v>
       </c>
-      <c r="Q173">
-        <v>0.5</v>
-      </c>
-      <c r="R173">
-        <v>1.85</v>
-      </c>
-      <c r="S173">
-        <v>1.95</v>
-      </c>
-      <c r="T173">
-        <v>3.25</v>
-      </c>
-      <c r="U173">
-        <v>1.9</v>
-      </c>
-      <c r="V173">
-        <v>1.9</v>
-      </c>
       <c r="W173">
-        <v>1.75</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X173">
         <v>-1</v>
@@ -16039,16 +16039,16 @@
         <v>-1</v>
       </c>
       <c r="Z173">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AA173">
         <v>-1</v>
       </c>
       <c r="AB173">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC173">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="174" spans="1:29">
@@ -16056,7 +16056,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>8010145</v>
+        <v>8010864</v>
       </c>
       <c r="C174" t="s">
         <v>28</v>
@@ -16068,76 +16068,76 @@
         <v>45377.69791666666</v>
       </c>
       <c r="F174" t="s">
-        <v>79</v>
+        <v>43</v>
       </c>
       <c r="G174" t="s">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="H174">
+        <v>4</v>
+      </c>
+      <c r="I174">
         <v>1</v>
       </c>
-      <c r="I174">
-        <v>2</v>
-      </c>
       <c r="J174" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K174">
-        <v>4</v>
+        <v>2.45</v>
       </c>
       <c r="L174">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="M174">
-        <v>1.6</v>
+        <v>2.1</v>
       </c>
       <c r="N174">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="O174">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="P174">
-        <v>1.6</v>
+        <v>1.85</v>
       </c>
       <c r="Q174">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R174">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S174">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T174">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U174">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="V174">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W174">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="X174">
         <v>-1</v>
       </c>
       <c r="Y174">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z174">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA174">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AB174">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC174">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="175" spans="1:29">
@@ -16145,7 +16145,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>8010143</v>
+        <v>8010145</v>
       </c>
       <c r="C175" t="s">
         <v>28</v>
@@ -16157,70 +16157,70 @@
         <v>45377.69791666666</v>
       </c>
       <c r="F175" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="G175" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H175">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I175">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J175" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K175">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="L175">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="M175">
-        <v>1.833</v>
+        <v>1.6</v>
       </c>
       <c r="N175">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="O175">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="P175">
-        <v>1.909</v>
+        <v>1.6</v>
       </c>
       <c r="Q175">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R175">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S175">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T175">
         <v>3</v>
       </c>
       <c r="U175">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="V175">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W175">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="X175">
         <v>-1</v>
       </c>
       <c r="Y175">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="Z175">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA175">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AB175">
         <v>0</v>
@@ -16234,7 +16234,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>8010142</v>
+        <v>8010143</v>
       </c>
       <c r="C176" t="s">
         <v>28</v>
@@ -16246,76 +16246,76 @@
         <v>45377.69791666666</v>
       </c>
       <c r="F176" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G176" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="H176">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I176">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J176" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K176">
+        <v>3.75</v>
+      </c>
+      <c r="L176">
+        <v>3.4</v>
+      </c>
+      <c r="M176">
+        <v>1.833</v>
+      </c>
+      <c r="N176">
+        <v>3.5</v>
+      </c>
+      <c r="O176">
+        <v>3.4</v>
+      </c>
+      <c r="P176">
         <v>1.909</v>
       </c>
-      <c r="L176">
-        <v>4</v>
-      </c>
-      <c r="M176">
+      <c r="Q176">
+        <v>0.5</v>
+      </c>
+      <c r="R176">
+        <v>1.85</v>
+      </c>
+      <c r="S176">
+        <v>1.95</v>
+      </c>
+      <c r="T176">
         <v>3</v>
       </c>
-      <c r="N176">
-        <v>1.909</v>
-      </c>
-      <c r="O176">
-        <v>4</v>
-      </c>
-      <c r="P176">
-        <v>3</v>
-      </c>
-      <c r="Q176">
-        <v>-0.5</v>
-      </c>
-      <c r="R176">
+      <c r="U176">
+        <v>1.85</v>
+      </c>
+      <c r="V176">
         <v>1.95</v>
       </c>
-      <c r="S176">
-        <v>1.85</v>
-      </c>
-      <c r="T176">
-        <v>3.25</v>
-      </c>
-      <c r="U176">
-        <v>1.825</v>
-      </c>
-      <c r="V176">
-        <v>1.975</v>
-      </c>
       <c r="W176">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="X176">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y176">
         <v>-1</v>
       </c>
       <c r="Z176">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA176">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB176">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AC176">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="177" spans="1:29">
@@ -16323,7 +16323,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>8010865</v>
+        <v>8010866</v>
       </c>
       <c r="C177" t="s">
         <v>28</v>
@@ -16335,13 +16335,13 @@
         <v>45377.69791666666</v>
       </c>
       <c r="F177" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="G177" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="H177">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I177">
         <v>0</v>
@@ -16350,43 +16350,43 @@
         <v>89</v>
       </c>
       <c r="K177">
-        <v>1.727</v>
+        <v>1.8</v>
       </c>
       <c r="L177">
         <v>4</v>
       </c>
       <c r="M177">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="N177">
-        <v>1.666</v>
+        <v>1.7</v>
       </c>
       <c r="O177">
         <v>4</v>
       </c>
       <c r="P177">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="Q177">
         <v>-0.75</v>
       </c>
       <c r="R177">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S177">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T177">
         <v>3</v>
       </c>
       <c r="U177">
+        <v>1.85</v>
+      </c>
+      <c r="V177">
         <v>1.95</v>
       </c>
-      <c r="V177">
-        <v>1.85</v>
-      </c>
       <c r="W177">
-        <v>0.6659999999999999</v>
+        <v>0.7</v>
       </c>
       <c r="X177">
         <v>-1</v>
@@ -16395,16 +16395,16 @@
         <v>-1</v>
       </c>
       <c r="Z177">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AA177">
         <v>-1</v>
       </c>
       <c r="AB177">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC177">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="178" spans="1:29">

--- a/England Northern League Division One/England Northern League Division One.xlsx
+++ b/England Northern League Division One/England Northern League Division One.xlsx
@@ -235,16 +235,16 @@
     <t>Trafford</t>
   </si>
   <si>
+    <t>Belper Town</t>
+  </si>
+  <si>
     <t>Quorn</t>
   </si>
   <si>
-    <t>Belper Town</t>
+    <t>Sutton Coldfield</t>
   </si>
   <si>
     <t>Newcastle Town</t>
-  </si>
-  <si>
-    <t>Sutton Coldfield</t>
   </si>
   <si>
     <t>Clitheroe</t>
@@ -1475,7 +1475,7 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H10">
         <v>2</v>
@@ -1920,7 +1920,7 @@
         <v>42</v>
       </c>
       <c r="G15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -2454,7 +2454,7 @@
         <v>47</v>
       </c>
       <c r="G21" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H21">
         <v>2</v>
@@ -2632,7 +2632,7 @@
         <v>49</v>
       </c>
       <c r="G23" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H23">
         <v>1</v>
@@ -5925,7 +5925,7 @@
         <v>69</v>
       </c>
       <c r="G60" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H60">
         <v>2</v>
@@ -7883,7 +7883,7 @@
         <v>33</v>
       </c>
       <c r="G82" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H82">
         <v>2</v>
@@ -9559,7 +9559,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>7639918</v>
+        <v>7639915</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9571,49 +9571,49 @@
         <v>45290.5</v>
       </c>
       <c r="F101" t="s">
-        <v>31</v>
+        <v>73</v>
       </c>
       <c r="G101" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J101" t="s">
         <v>89</v>
       </c>
       <c r="K101">
-        <v>2.5</v>
+        <v>1.3</v>
       </c>
       <c r="L101">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="M101">
-        <v>2.35</v>
+        <v>7</v>
       </c>
       <c r="N101">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="O101">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="P101">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="Q101">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R101">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S101">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T101">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U101">
         <v>1.95</v>
@@ -9622,7 +9622,7 @@
         <v>1.85</v>
       </c>
       <c r="W101">
-        <v>1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X101">
         <v>-1</v>
@@ -9631,16 +9631,16 @@
         <v>-1</v>
       </c>
       <c r="Z101">
-        <v>0.8</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA101">
         <v>-1</v>
       </c>
       <c r="AB101">
-        <v>0.475</v>
+        <v>0.95</v>
       </c>
       <c r="AC101">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9648,7 +9648,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>7640085</v>
+        <v>7639918</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9660,49 +9660,49 @@
         <v>45290.5</v>
       </c>
       <c r="F102" t="s">
-        <v>73</v>
+        <v>31</v>
       </c>
       <c r="G102" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H102">
+        <v>2</v>
+      </c>
+      <c r="I102">
         <v>1</v>
       </c>
-      <c r="I102">
-        <v>2</v>
-      </c>
       <c r="J102" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K102">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="L102">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M102">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="N102">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="O102">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P102">
-        <v>2.55</v>
+        <v>3</v>
       </c>
       <c r="Q102">
         <v>-0.25</v>
       </c>
       <c r="R102">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S102">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T102">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U102">
         <v>1.95</v>
@@ -9711,25 +9711,25 @@
         <v>1.85</v>
       </c>
       <c r="W102">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X102">
         <v>-1</v>
       </c>
       <c r="Y102">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="Z102">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA102">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB102">
-        <v>0</v>
+        <v>0.475</v>
       </c>
       <c r="AC102">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -9737,7 +9737,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>7639915</v>
+        <v>7640085</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9752,46 +9752,46 @@
         <v>74</v>
       </c>
       <c r="G103" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H103">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I103">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J103" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K103">
-        <v>1.3</v>
+        <v>2.25</v>
       </c>
       <c r="L103">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M103">
-        <v>7</v>
+        <v>2.4</v>
       </c>
       <c r="N103">
-        <v>1.4</v>
+        <v>2.15</v>
       </c>
       <c r="O103">
-        <v>4.75</v>
+        <v>3.8</v>
       </c>
       <c r="P103">
-        <v>5.5</v>
+        <v>2.55</v>
       </c>
       <c r="Q103">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R103">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S103">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T103">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U103">
         <v>1.95</v>
@@ -9800,25 +9800,25 @@
         <v>1.85</v>
       </c>
       <c r="W103">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X103">
         <v>-1</v>
       </c>
       <c r="Y103">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="Z103">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA103">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB103">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AC103">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9915,7 +9915,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>7649195</v>
+        <v>7649294</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9930,73 +9930,73 @@
         <v>75</v>
       </c>
       <c r="G105" t="s">
-        <v>80</v>
+        <v>36</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J105" t="s">
         <v>90</v>
       </c>
       <c r="K105">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="L105">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M105">
-        <v>2.4</v>
+        <v>2.55</v>
       </c>
       <c r="N105">
-        <v>2.4</v>
+        <v>1.65</v>
       </c>
       <c r="O105">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P105">
-        <v>2.4</v>
+        <v>3.8</v>
       </c>
       <c r="Q105">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R105">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S105">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T105">
         <v>2.75</v>
       </c>
       <c r="U105">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="V105">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W105">
         <v>-1</v>
       </c>
       <c r="X105">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="Y105">
         <v>-1</v>
       </c>
       <c r="Z105">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA105">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
       <c r="AB105">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC105">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -10004,7 +10004,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>7649184</v>
+        <v>7649195</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -10016,76 +10016,76 @@
         <v>45292.5</v>
       </c>
       <c r="F106" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="G106" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106">
         <v>0</v>
       </c>
       <c r="J106" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K106">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="L106">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M106">
-        <v>3.4</v>
+        <v>2.4</v>
       </c>
       <c r="N106">
-        <v>1.7</v>
+        <v>2.4</v>
       </c>
       <c r="O106">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P106">
-        <v>3.75</v>
+        <v>2.4</v>
       </c>
       <c r="Q106">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R106">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S106">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T106">
         <v>2.75</v>
       </c>
       <c r="U106">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="V106">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W106">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X106">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y106">
         <v>-1</v>
       </c>
       <c r="Z106">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AA106">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB106">
         <v>-1</v>
       </c>
       <c r="AC106">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="107" spans="1:29">
@@ -10093,7 +10093,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>7649124</v>
+        <v>7649184</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -10105,58 +10105,58 @@
         <v>45292.5</v>
       </c>
       <c r="F107" t="s">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="G107" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="H107">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I107">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J107" t="s">
         <v>89</v>
       </c>
       <c r="K107">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="L107">
         <v>3.75</v>
       </c>
       <c r="M107">
-        <v>2.25</v>
+        <v>3.4</v>
       </c>
       <c r="N107">
-        <v>2.55</v>
+        <v>1.7</v>
       </c>
       <c r="O107">
+        <v>3.8</v>
+      </c>
+      <c r="P107">
         <v>3.75</v>
       </c>
-      <c r="P107">
-        <v>2.25</v>
-      </c>
       <c r="Q107">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R107">
-        <v>1.725</v>
+        <v>1.95</v>
       </c>
       <c r="S107">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T107">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U107">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="V107">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W107">
-        <v>1.55</v>
+        <v>0.7</v>
       </c>
       <c r="X107">
         <v>-1</v>
@@ -10165,16 +10165,16 @@
         <v>-1</v>
       </c>
       <c r="Z107">
-        <v>0.7250000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AA107">
         <v>-1</v>
       </c>
       <c r="AB107">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC107">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="108" spans="1:29">
@@ -10182,7 +10182,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>7649294</v>
+        <v>7649124</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10194,73 +10194,73 @@
         <v>45292.5</v>
       </c>
       <c r="F108" t="s">
-        <v>76</v>
+        <v>30</v>
       </c>
       <c r="G108" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I108">
         <v>2</v>
       </c>
       <c r="J108" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K108">
+        <v>2.5</v>
+      </c>
+      <c r="L108">
+        <v>3.75</v>
+      </c>
+      <c r="M108">
         <v>2.25</v>
       </c>
-      <c r="L108">
-        <v>3.6</v>
-      </c>
-      <c r="M108">
+      <c r="N108">
         <v>2.55</v>
       </c>
-      <c r="N108">
-        <v>1.65</v>
-      </c>
       <c r="O108">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P108">
-        <v>3.8</v>
+        <v>2.25</v>
       </c>
       <c r="Q108">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R108">
-        <v>1.85</v>
+        <v>1.725</v>
       </c>
       <c r="S108">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T108">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U108">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="V108">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="W108">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X108">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y108">
         <v>-1</v>
       </c>
       <c r="Z108">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA108">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB108">
-        <v>0.7749999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC108">
         <v>-1</v>
@@ -10360,7 +10360,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>7661416</v>
+        <v>7667993</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10372,76 +10372,76 @@
         <v>45297.5</v>
       </c>
       <c r="F110" t="s">
-        <v>50</v>
+        <v>77</v>
       </c>
       <c r="G110" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="H110">
         <v>0</v>
       </c>
       <c r="I110">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J110" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K110">
-        <v>2.4</v>
+        <v>1.666</v>
       </c>
       <c r="L110">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="M110">
-        <v>2.3</v>
+        <v>3.75</v>
       </c>
       <c r="N110">
-        <v>2.15</v>
+        <v>1.833</v>
       </c>
       <c r="O110">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P110">
-        <v>2.55</v>
+        <v>3.3</v>
       </c>
       <c r="Q110">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R110">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S110">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T110">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U110">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V110">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W110">
         <v>-1</v>
       </c>
       <c r="X110">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y110">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="Z110">
         <v>-1</v>
       </c>
       <c r="AA110">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AB110">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC110">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="111" spans="1:29">
@@ -10449,7 +10449,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>7667993</v>
+        <v>7661416</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -10461,76 +10461,76 @@
         <v>45297.5</v>
       </c>
       <c r="F111" t="s">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="G111" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="H111">
         <v>0</v>
       </c>
       <c r="I111">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J111" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K111">
-        <v>1.666</v>
+        <v>2.4</v>
       </c>
       <c r="L111">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="M111">
-        <v>3.75</v>
+        <v>2.3</v>
       </c>
       <c r="N111">
-        <v>1.833</v>
+        <v>2.15</v>
       </c>
       <c r="O111">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P111">
-        <v>3.3</v>
+        <v>2.55</v>
       </c>
       <c r="Q111">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R111">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S111">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T111">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U111">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V111">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W111">
         <v>-1</v>
       </c>
       <c r="X111">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y111">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="Z111">
         <v>-1</v>
       </c>
       <c r="AA111">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AB111">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC111">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="112" spans="1:29">
@@ -10894,7 +10894,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>7675037</v>
+        <v>7674983</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10906,76 +10906,76 @@
         <v>45300.69791666666</v>
       </c>
       <c r="F116" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="G116" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="H116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I116">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J116" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K116">
-        <v>2.25</v>
+        <v>1.5</v>
       </c>
       <c r="L116">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M116">
-        <v>2.6</v>
+        <v>5</v>
       </c>
       <c r="N116">
-        <v>2.375</v>
+        <v>1.6</v>
       </c>
       <c r="O116">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P116">
-        <v>2.45</v>
+        <v>4.333</v>
       </c>
       <c r="Q116">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R116">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S116">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T116">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U116">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="V116">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W116">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X116">
         <v>-1</v>
       </c>
       <c r="Y116">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Z116">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA116">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB116">
         <v>-1</v>
       </c>
       <c r="AC116">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="117" spans="1:29">
@@ -10983,7 +10983,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>7674983</v>
+        <v>7675037</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10995,76 +10995,76 @@
         <v>45300.69791666666</v>
       </c>
       <c r="F117" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="G117" t="s">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I117">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J117" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K117">
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
       <c r="L117">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M117">
-        <v>5</v>
+        <v>2.6</v>
       </c>
       <c r="N117">
-        <v>1.6</v>
+        <v>2.375</v>
       </c>
       <c r="O117">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P117">
-        <v>4.333</v>
+        <v>2.45</v>
       </c>
       <c r="Q117">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R117">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S117">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T117">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U117">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="V117">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W117">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X117">
         <v>-1</v>
       </c>
       <c r="Y117">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Z117">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA117">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB117">
         <v>-1</v>
       </c>
       <c r="AC117">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="118" spans="1:29">
@@ -11072,7 +11072,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>7679052</v>
+        <v>7679042</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -11084,76 +11084,76 @@
         <v>45301.69791666666</v>
       </c>
       <c r="F118" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G118" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118">
+        <v>0</v>
+      </c>
+      <c r="J118" t="s">
+        <v>89</v>
+      </c>
+      <c r="K118">
+        <v>1.571</v>
+      </c>
+      <c r="L118">
         <v>4</v>
       </c>
-      <c r="J118" t="s">
-        <v>91</v>
-      </c>
-      <c r="K118">
-        <v>2.5</v>
-      </c>
-      <c r="L118">
+      <c r="M118">
+        <v>4.333</v>
+      </c>
+      <c r="N118">
+        <v>1.65</v>
+      </c>
+      <c r="O118">
         <v>3.75</v>
       </c>
-      <c r="M118">
-        <v>2.25</v>
-      </c>
-      <c r="N118">
-        <v>2.55</v>
-      </c>
-      <c r="O118">
-        <v>3.6</v>
-      </c>
       <c r="P118">
-        <v>2.25</v>
+        <v>4.2</v>
       </c>
       <c r="Q118">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R118">
-        <v>1.725</v>
+        <v>1.85</v>
       </c>
       <c r="S118">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T118">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U118">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="V118">
         <v>1.95</v>
       </c>
       <c r="W118">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X118">
         <v>-1</v>
       </c>
       <c r="Y118">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z118">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA118">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB118">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC118">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="119" spans="1:29">
@@ -11161,7 +11161,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>7679042</v>
+        <v>7679052</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11173,76 +11173,76 @@
         <v>45301.69791666666</v>
       </c>
       <c r="F119" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G119" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J119" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K119">
-        <v>1.571</v>
+        <v>2.5</v>
       </c>
       <c r="L119">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M119">
-        <v>4.333</v>
+        <v>2.25</v>
       </c>
       <c r="N119">
-        <v>1.65</v>
+        <v>2.55</v>
       </c>
       <c r="O119">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P119">
-        <v>4.2</v>
+        <v>2.25</v>
       </c>
       <c r="Q119">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R119">
+        <v>1.725</v>
+      </c>
+      <c r="S119">
+        <v>1.975</v>
+      </c>
+      <c r="T119">
+        <v>3</v>
+      </c>
+      <c r="U119">
         <v>1.85</v>
-      </c>
-      <c r="S119">
-        <v>1.95</v>
-      </c>
-      <c r="T119">
-        <v>2.75</v>
-      </c>
-      <c r="U119">
-        <v>1.75</v>
       </c>
       <c r="V119">
         <v>1.95</v>
       </c>
       <c r="W119">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X119">
         <v>-1</v>
       </c>
       <c r="Y119">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z119">
+        <v>-1</v>
+      </c>
+      <c r="AA119">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB119">
         <v>0.8500000000000001</v>
       </c>
-      <c r="AA119">
-        <v>-1</v>
-      </c>
-      <c r="AB119">
-        <v>-1</v>
-      </c>
       <c r="AC119">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -11440,7 +11440,7 @@
         <v>45304.5</v>
       </c>
       <c r="F122" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G122" t="s">
         <v>42</v>
@@ -11606,7 +11606,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>7725153</v>
+        <v>7719604</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11618,37 +11618,37 @@
         <v>45311.5</v>
       </c>
       <c r="F124" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="G124" t="s">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I124">
         <v>0</v>
       </c>
       <c r="J124" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K124">
         <v>2.25</v>
       </c>
       <c r="L124">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M124">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="N124">
         <v>2.25</v>
       </c>
       <c r="O124">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P124">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="Q124">
         <v>-0.25</v>
@@ -11663,31 +11663,31 @@
         <v>3</v>
       </c>
       <c r="U124">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="V124">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W124">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X124">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y124">
         <v>-1</v>
       </c>
       <c r="Z124">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
       <c r="AA124">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
       <c r="AB124">
         <v>-1</v>
       </c>
       <c r="AC124">
-        <v>1.025</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11695,7 +11695,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>7719604</v>
+        <v>7719594</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11707,46 +11707,46 @@
         <v>45311.5</v>
       </c>
       <c r="F125" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="G125" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="H125">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I125">
         <v>0</v>
       </c>
       <c r="J125" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K125">
-        <v>2.25</v>
+        <v>1.4</v>
       </c>
       <c r="L125">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M125">
-        <v>2.4</v>
+        <v>5</v>
       </c>
       <c r="N125">
-        <v>2.25</v>
+        <v>1.4</v>
       </c>
       <c r="O125">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P125">
-        <v>2.45</v>
+        <v>5</v>
       </c>
       <c r="Q125">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R125">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S125">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="T125">
         <v>3</v>
@@ -11758,19 +11758,19 @@
         <v>1.975</v>
       </c>
       <c r="W125">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X125">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Y125">
         <v>-1</v>
       </c>
       <c r="Z125">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA125">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB125">
         <v>-1</v>
@@ -11784,7 +11784,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>7719594</v>
+        <v>7719544</v>
       </c>
       <c r="C126" t="s">
         <v>28</v>
@@ -11796,76 +11796,76 @@
         <v>45311.5</v>
       </c>
       <c r="F126" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G126" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I126">
         <v>0</v>
       </c>
       <c r="J126" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K126">
-        <v>1.4</v>
+        <v>2.05</v>
       </c>
       <c r="L126">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M126">
-        <v>5</v>
+        <v>2.7</v>
       </c>
       <c r="N126">
-        <v>1.4</v>
+        <v>2.05</v>
       </c>
       <c r="O126">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P126">
-        <v>5</v>
+        <v>2.7</v>
       </c>
       <c r="Q126">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R126">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S126">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T126">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U126">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V126">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W126">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X126">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Y126">
         <v>-1</v>
       </c>
       <c r="Z126">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA126">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB126">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC126">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="127" spans="1:29">
@@ -11873,7 +11873,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>7719544</v>
+        <v>7725153</v>
       </c>
       <c r="C127" t="s">
         <v>28</v>
@@ -11885,76 +11885,76 @@
         <v>45311.5</v>
       </c>
       <c r="F127" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="G127" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="H127">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I127">
         <v>0</v>
       </c>
       <c r="J127" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K127">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="L127">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M127">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="N127">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="O127">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P127">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="Q127">
         <v>-0.25</v>
       </c>
       <c r="R127">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="S127">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="T127">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U127">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="V127">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W127">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X127">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y127">
         <v>-1</v>
       </c>
       <c r="Z127">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AA127">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
       <c r="AB127">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC127">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="128" spans="1:29">
@@ -12407,7 +12407,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>7761811</v>
+        <v>7761786</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12419,76 +12419,76 @@
         <v>45321.69791666666</v>
       </c>
       <c r="F133" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="G133" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I133">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J133" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K133">
-        <v>2.375</v>
+        <v>2.875</v>
       </c>
       <c r="L133">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M133">
-        <v>2.375</v>
+        <v>2</v>
       </c>
       <c r="N133">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="O133">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P133">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="Q133">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R133">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="S133">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T133">
         <v>2.75</v>
       </c>
       <c r="U133">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V133">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W133">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="X133">
         <v>-1</v>
       </c>
       <c r="Y133">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z133">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA133">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB133">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC133">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="134" spans="1:29">
@@ -12496,7 +12496,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>7761786</v>
+        <v>7761811</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12508,76 +12508,76 @@
         <v>45321.69791666666</v>
       </c>
       <c r="F134" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="G134" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H134">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I134">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J134" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K134">
-        <v>2.875</v>
+        <v>2.375</v>
       </c>
       <c r="L134">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M134">
-        <v>2</v>
+        <v>2.375</v>
       </c>
       <c r="N134">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="O134">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P134">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="Q134">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R134">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="S134">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T134">
         <v>2.75</v>
       </c>
       <c r="U134">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V134">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W134">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="X134">
         <v>-1</v>
       </c>
       <c r="Y134">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z134">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA134">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB134">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC134">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -12953,7 +12953,7 @@
         <v>45325.5</v>
       </c>
       <c r="F139" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G139" t="s">
         <v>35</v>
@@ -13220,7 +13220,7 @@
         <v>45332.5</v>
       </c>
       <c r="F142" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G142" t="s">
         <v>57</v>
@@ -13475,7 +13475,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>7844461</v>
+        <v>7844460</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13487,76 +13487,76 @@
         <v>45339.5</v>
       </c>
       <c r="F145" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="G145" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="H145">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I145">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J145" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K145">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="L145">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="M145">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="N145">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="O145">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P145">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="Q145">
         <v>-0.5</v>
       </c>
       <c r="R145">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S145">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T145">
         <v>2.75</v>
       </c>
       <c r="U145">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V145">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W145">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X145">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y145">
         <v>-1</v>
       </c>
       <c r="Z145">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA145">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB145">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC145">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="146" spans="1:29">
@@ -13564,7 +13564,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>7844460</v>
+        <v>7844459</v>
       </c>
       <c r="C146" t="s">
         <v>28</v>
@@ -13576,58 +13576,58 @@
         <v>45339.5</v>
       </c>
       <c r="F146" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G146" t="s">
-        <v>76</v>
+        <v>50</v>
       </c>
       <c r="H146">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I146">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J146" t="s">
         <v>89</v>
       </c>
       <c r="K146">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="L146">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="M146">
-        <v>3.4</v>
+        <v>5.5</v>
       </c>
       <c r="N146">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="O146">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="P146">
-        <v>3.3</v>
+        <v>5.25</v>
       </c>
       <c r="Q146">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R146">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S146">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T146">
         <v>2.75</v>
       </c>
       <c r="U146">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V146">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W146">
-        <v>0.8</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X146">
         <v>-1</v>
@@ -13636,16 +13636,16 @@
         <v>-1</v>
       </c>
       <c r="Z146">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA146">
         <v>-1</v>
       </c>
       <c r="AB146">
-        <v>0.8</v>
+        <v>0.45</v>
       </c>
       <c r="AC146">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="147" spans="1:29">
@@ -13653,7 +13653,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>7844459</v>
+        <v>7844458</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13665,76 +13665,76 @@
         <v>45339.5</v>
       </c>
       <c r="F147" t="s">
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="G147" t="s">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="H147">
+        <v>0</v>
+      </c>
+      <c r="I147">
+        <v>2</v>
+      </c>
+      <c r="J147" t="s">
+        <v>91</v>
+      </c>
+      <c r="K147">
+        <v>3.6</v>
+      </c>
+      <c r="L147">
+        <v>3.6</v>
+      </c>
+      <c r="M147">
+        <v>1.8</v>
+      </c>
+      <c r="N147">
+        <v>4.5</v>
+      </c>
+      <c r="O147">
+        <v>3.6</v>
+      </c>
+      <c r="P147">
+        <v>1.571</v>
+      </c>
+      <c r="Q147">
+        <v>1</v>
+      </c>
+      <c r="R147">
+        <v>1.75</v>
+      </c>
+      <c r="S147">
+        <v>1.95</v>
+      </c>
+      <c r="T147">
         <v>3</v>
       </c>
-      <c r="I147">
-        <v>0</v>
-      </c>
-      <c r="J147" t="s">
-        <v>89</v>
-      </c>
-      <c r="K147">
-        <v>1.4</v>
-      </c>
-      <c r="L147">
-        <v>4.5</v>
-      </c>
-      <c r="M147">
-        <v>5.5</v>
-      </c>
-      <c r="N147">
-        <v>1.4</v>
-      </c>
-      <c r="O147">
-        <v>4.5</v>
-      </c>
-      <c r="P147">
-        <v>5.25</v>
-      </c>
-      <c r="Q147">
-        <v>-1.25</v>
-      </c>
-      <c r="R147">
-        <v>1.9</v>
-      </c>
-      <c r="S147">
-        <v>1.9</v>
-      </c>
-      <c r="T147">
-        <v>2.75</v>
-      </c>
       <c r="U147">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V147">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W147">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X147">
         <v>-1</v>
       </c>
       <c r="Y147">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="Z147">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA147">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB147">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AC147">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="148" spans="1:29">
@@ -13742,7 +13742,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>7844458</v>
+        <v>7844461</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13754,76 +13754,76 @@
         <v>45339.5</v>
       </c>
       <c r="F148" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="G148" t="s">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I148">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J148" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K148">
-        <v>3.6</v>
+        <v>1.6</v>
       </c>
       <c r="L148">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M148">
+        <v>4.2</v>
+      </c>
+      <c r="N148">
+        <v>1.75</v>
+      </c>
+      <c r="O148">
+        <v>4</v>
+      </c>
+      <c r="P148">
+        <v>3.4</v>
+      </c>
+      <c r="Q148">
+        <v>-0.5</v>
+      </c>
+      <c r="R148">
         <v>1.8</v>
       </c>
-      <c r="N148">
-        <v>4.5</v>
-      </c>
-      <c r="O148">
-        <v>3.6</v>
-      </c>
-      <c r="P148">
-        <v>1.571</v>
-      </c>
-      <c r="Q148">
+      <c r="S148">
+        <v>2</v>
+      </c>
+      <c r="T148">
+        <v>2.75</v>
+      </c>
+      <c r="U148">
+        <v>1.85</v>
+      </c>
+      <c r="V148">
+        <v>1.95</v>
+      </c>
+      <c r="W148">
+        <v>-1</v>
+      </c>
+      <c r="X148">
+        <v>3</v>
+      </c>
+      <c r="Y148">
+        <v>-1</v>
+      </c>
+      <c r="Z148">
+        <v>-1</v>
+      </c>
+      <c r="AA148">
         <v>1</v>
       </c>
-      <c r="R148">
-        <v>1.75</v>
-      </c>
-      <c r="S148">
-        <v>1.95</v>
-      </c>
-      <c r="T148">
-        <v>3</v>
-      </c>
-      <c r="U148">
-        <v>1.95</v>
-      </c>
-      <c r="V148">
-        <v>1.85</v>
-      </c>
-      <c r="W148">
-        <v>-1</v>
-      </c>
-      <c r="X148">
-        <v>-1</v>
-      </c>
-      <c r="Y148">
-        <v>0.571</v>
-      </c>
-      <c r="Z148">
-        <v>-1</v>
-      </c>
-      <c r="AA148">
+      <c r="AB148">
+        <v>-1</v>
+      </c>
+      <c r="AC148">
         <v>0.95</v>
-      </c>
-      <c r="AB148">
-        <v>-1</v>
-      </c>
-      <c r="AC148">
-        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="149" spans="1:29">
@@ -14113,7 +14113,7 @@
         <v>32</v>
       </c>
       <c r="G152" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H152">
         <v>2</v>
@@ -14187,7 +14187,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>7915227</v>
+        <v>7915228</v>
       </c>
       <c r="C153" t="s">
         <v>28</v>
@@ -14199,73 +14199,73 @@
         <v>45356.69791666666</v>
       </c>
       <c r="F153" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G153" t="s">
-        <v>73</v>
+        <v>32</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J153" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K153">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="L153">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="M153">
-        <v>1.8</v>
+        <v>1.571</v>
       </c>
       <c r="N153">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="O153">
         <v>4.5</v>
       </c>
       <c r="P153">
-        <v>1.8</v>
+        <v>1.666</v>
       </c>
       <c r="Q153">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R153">
+        <v>1.9</v>
+      </c>
+      <c r="S153">
+        <v>1.9</v>
+      </c>
+      <c r="T153">
+        <v>3</v>
+      </c>
+      <c r="U153">
         <v>1.95</v>
       </c>
-      <c r="S153">
+      <c r="V153">
         <v>1.85</v>
       </c>
-      <c r="T153">
-        <v>3.25</v>
-      </c>
-      <c r="U153">
-        <v>1.85</v>
-      </c>
-      <c r="V153">
-        <v>1.95</v>
-      </c>
       <c r="W153">
         <v>-1</v>
       </c>
       <c r="X153">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y153">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z153">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA153">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB153">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AC153">
         <v>-1</v>
@@ -14276,7 +14276,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>7915228</v>
+        <v>7915227</v>
       </c>
       <c r="C154" t="s">
         <v>28</v>
@@ -14288,73 +14288,73 @@
         <v>45356.69791666666</v>
       </c>
       <c r="F154" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G154" t="s">
-        <v>32</v>
+        <v>74</v>
       </c>
       <c r="H154">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I154">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J154" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K154">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="L154">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="M154">
-        <v>1.571</v>
+        <v>1.8</v>
       </c>
       <c r="N154">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="O154">
         <v>4.5</v>
       </c>
       <c r="P154">
-        <v>1.666</v>
+        <v>1.8</v>
       </c>
       <c r="Q154">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R154">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S154">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T154">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U154">
+        <v>1.85</v>
+      </c>
+      <c r="V154">
         <v>1.95</v>
       </c>
-      <c r="V154">
-        <v>1.85</v>
-      </c>
       <c r="W154">
         <v>-1</v>
       </c>
       <c r="X154">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y154">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z154">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA154">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB154">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC154">
         <v>-1</v>
@@ -14736,7 +14736,7 @@
         <v>56</v>
       </c>
       <c r="G159" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H159">
         <v>0</v>
@@ -15166,7 +15166,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>7976965</v>
+        <v>7976756</v>
       </c>
       <c r="C164" t="s">
         <v>28</v>
@@ -15178,73 +15178,73 @@
         <v>45370.69791666666</v>
       </c>
       <c r="F164" t="s">
-        <v>79</v>
+        <v>29</v>
       </c>
       <c r="G164" t="s">
-        <v>87</v>
+        <v>52</v>
       </c>
       <c r="H164">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I164">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J164" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K164">
-        <v>1.8</v>
+        <v>1.571</v>
       </c>
       <c r="L164">
         <v>4</v>
       </c>
       <c r="M164">
-        <v>3.25</v>
+        <v>4.333</v>
       </c>
       <c r="N164">
+        <v>1.571</v>
+      </c>
+      <c r="O164">
+        <v>3.8</v>
+      </c>
+      <c r="P164">
+        <v>4.5</v>
+      </c>
+      <c r="Q164">
+        <v>-1</v>
+      </c>
+      <c r="R164">
+        <v>1.975</v>
+      </c>
+      <c r="S164">
+        <v>1.825</v>
+      </c>
+      <c r="T164">
+        <v>2.75</v>
+      </c>
+      <c r="U164">
         <v>1.8</v>
       </c>
-      <c r="O164">
-        <v>4</v>
-      </c>
-      <c r="P164">
-        <v>3.25</v>
-      </c>
-      <c r="Q164">
-        <v>-0.5</v>
-      </c>
-      <c r="R164">
-        <v>1.85</v>
-      </c>
-      <c r="S164">
-        <v>1.95</v>
-      </c>
-      <c r="T164">
-        <v>3</v>
-      </c>
-      <c r="U164">
-        <v>1.875</v>
-      </c>
       <c r="V164">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W164">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X164">
         <v>-1</v>
       </c>
       <c r="Y164">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Z164">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA164">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB164">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
       <c r="AC164">
         <v>-1</v>
@@ -15255,7 +15255,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>7976756</v>
+        <v>7976965</v>
       </c>
       <c r="C165" t="s">
         <v>28</v>
@@ -15267,73 +15267,73 @@
         <v>45370.69791666666</v>
       </c>
       <c r="F165" t="s">
-        <v>29</v>
+        <v>79</v>
       </c>
       <c r="G165" t="s">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="H165">
+        <v>3</v>
+      </c>
+      <c r="I165">
         <v>4</v>
       </c>
-      <c r="I165">
-        <v>0</v>
-      </c>
       <c r="J165" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K165">
-        <v>1.571</v>
+        <v>1.8</v>
       </c>
       <c r="L165">
         <v>4</v>
       </c>
       <c r="M165">
-        <v>4.333</v>
+        <v>3.25</v>
       </c>
       <c r="N165">
-        <v>1.571</v>
+        <v>1.8</v>
       </c>
       <c r="O165">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P165">
-        <v>4.5</v>
+        <v>3.25</v>
       </c>
       <c r="Q165">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R165">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S165">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T165">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U165">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V165">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W165">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X165">
         <v>-1</v>
       </c>
       <c r="Y165">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Z165">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA165">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB165">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
       <c r="AC165">
         <v>-1</v>
@@ -15878,7 +15878,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>8010865</v>
+        <v>8010145</v>
       </c>
       <c r="C172" t="s">
         <v>28</v>
@@ -15890,70 +15890,70 @@
         <v>45377.69791666666</v>
       </c>
       <c r="F172" t="s">
-        <v>41</v>
+        <v>79</v>
       </c>
       <c r="G172" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="H172">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I172">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J172" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K172">
-        <v>1.727</v>
+        <v>4</v>
       </c>
       <c r="L172">
+        <v>4.2</v>
+      </c>
+      <c r="M172">
+        <v>1.6</v>
+      </c>
+      <c r="N172">
         <v>4</v>
       </c>
-      <c r="M172">
-        <v>3.5</v>
-      </c>
-      <c r="N172">
-        <v>1.666</v>
-      </c>
       <c r="O172">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P172">
-        <v>3.75</v>
+        <v>1.6</v>
       </c>
       <c r="Q172">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="R172">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S172">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="T172">
         <v>3</v>
       </c>
       <c r="U172">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="V172">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W172">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X172">
         <v>-1</v>
       </c>
       <c r="Y172">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="Z172">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AA172">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AB172">
         <v>0</v>
@@ -15967,7 +15967,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>8010145</v>
+        <v>8010143</v>
       </c>
       <c r="C173" t="s">
         <v>28</v>
@@ -15979,70 +15979,70 @@
         <v>45377.69791666666</v>
       </c>
       <c r="F173" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="G173" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H173">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I173">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J173" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K173">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="L173">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="M173">
-        <v>1.6</v>
+        <v>1.833</v>
       </c>
       <c r="N173">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="O173">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="P173">
-        <v>1.6</v>
+        <v>1.909</v>
       </c>
       <c r="Q173">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R173">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S173">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T173">
         <v>3</v>
       </c>
       <c r="U173">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="V173">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W173">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="X173">
         <v>-1</v>
       </c>
       <c r="Y173">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z173">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA173">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AB173">
         <v>0</v>
@@ -16056,7 +16056,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>8010143</v>
+        <v>8010864</v>
       </c>
       <c r="C174" t="s">
         <v>28</v>
@@ -16068,37 +16068,37 @@
         <v>45377.69791666666</v>
       </c>
       <c r="F174" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="G174" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="H174">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I174">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J174" t="s">
         <v>89</v>
       </c>
       <c r="K174">
-        <v>3.75</v>
+        <v>2.45</v>
       </c>
       <c r="L174">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="M174">
-        <v>1.833</v>
+        <v>2.1</v>
       </c>
       <c r="N174">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="O174">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="P174">
-        <v>1.909</v>
+        <v>1.85</v>
       </c>
       <c r="Q174">
         <v>0.5</v>
@@ -16110,16 +16110,16 @@
         <v>1.95</v>
       </c>
       <c r="T174">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U174">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V174">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W174">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="X174">
         <v>-1</v>
@@ -16134,10 +16134,10 @@
         <v>-1</v>
       </c>
       <c r="AB174">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC174">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="175" spans="1:29">
@@ -16145,7 +16145,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>8010864</v>
+        <v>8010865</v>
       </c>
       <c r="C175" t="s">
         <v>28</v>
@@ -16157,58 +16157,58 @@
         <v>45377.69791666666</v>
       </c>
       <c r="F175" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G175" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="H175">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I175">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J175" t="s">
         <v>89</v>
       </c>
       <c r="K175">
-        <v>2.45</v>
+        <v>1.727</v>
       </c>
       <c r="L175">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="M175">
-        <v>2.1</v>
+        <v>3.5</v>
       </c>
       <c r="N175">
-        <v>2.75</v>
+        <v>1.666</v>
       </c>
       <c r="O175">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="P175">
+        <v>3.75</v>
+      </c>
+      <c r="Q175">
+        <v>-0.75</v>
+      </c>
+      <c r="R175">
+        <v>1.875</v>
+      </c>
+      <c r="S175">
+        <v>1.925</v>
+      </c>
+      <c r="T175">
+        <v>3</v>
+      </c>
+      <c r="U175">
+        <v>1.95</v>
+      </c>
+      <c r="V175">
         <v>1.85</v>
       </c>
-      <c r="Q175">
-        <v>0.5</v>
-      </c>
-      <c r="R175">
-        <v>1.85</v>
-      </c>
-      <c r="S175">
-        <v>1.95</v>
-      </c>
-      <c r="T175">
-        <v>3.25</v>
-      </c>
-      <c r="U175">
-        <v>1.9</v>
-      </c>
-      <c r="V175">
-        <v>1.9</v>
-      </c>
       <c r="W175">
-        <v>1.75</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X175">
         <v>-1</v>
@@ -16217,16 +16217,16 @@
         <v>-1</v>
       </c>
       <c r="Z175">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AA175">
         <v>-1</v>
       </c>
       <c r="AB175">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC175">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="176" spans="1:29">
@@ -16338,7 +16338,7 @@
         <v>60</v>
       </c>
       <c r="G177" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H177">
         <v>2</v>
@@ -16857,7 +16857,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>8027459</v>
+        <v>8027516</v>
       </c>
       <c r="C183" t="s">
         <v>28</v>
@@ -16869,70 +16869,70 @@
         <v>45381.5</v>
       </c>
       <c r="F183" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G183" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="H183">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I183">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J183" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K183">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="L183">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="M183">
-        <v>1.5</v>
+        <v>1.909</v>
       </c>
       <c r="N183">
-        <v>5.25</v>
+        <v>3.1</v>
       </c>
       <c r="O183">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="P183">
-        <v>1.4</v>
+        <v>1.909</v>
       </c>
       <c r="Q183">
-        <v>1.25</v>
+        <v>0.5</v>
       </c>
       <c r="R183">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S183">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T183">
         <v>3</v>
       </c>
       <c r="U183">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V183">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W183">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="X183">
         <v>-1</v>
       </c>
       <c r="Y183">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z183">
-        <v>0.45</v>
+        <v>0.825</v>
       </c>
       <c r="AA183">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB183">
         <v>0</v>
@@ -17035,7 +17035,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>8027516</v>
+        <v>8027459</v>
       </c>
       <c r="C185" t="s">
         <v>28</v>
@@ -17047,70 +17047,70 @@
         <v>45381.5</v>
       </c>
       <c r="F185" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G185" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="H185">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I185">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J185" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K185">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="L185">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="M185">
-        <v>1.909</v>
+        <v>1.5</v>
       </c>
       <c r="N185">
-        <v>3.1</v>
+        <v>5.25</v>
       </c>
       <c r="O185">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="P185">
-        <v>1.909</v>
+        <v>1.4</v>
       </c>
       <c r="Q185">
-        <v>0.5</v>
+        <v>1.25</v>
       </c>
       <c r="R185">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S185">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T185">
         <v>3</v>
       </c>
       <c r="U185">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V185">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W185">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="X185">
         <v>-1</v>
       </c>
       <c r="Y185">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Z185">
-        <v>0.825</v>
+        <v>0.45</v>
       </c>
       <c r="AA185">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB185">
         <v>0</v>
@@ -17225,7 +17225,7 @@
         <v>45383.45833333334</v>
       </c>
       <c r="F187" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G187" t="s">
         <v>87</v>

--- a/England Northern League Division One/England Northern League Division One.xlsx
+++ b/England Northern League Division One/England Northern League Division One.xlsx
@@ -235,16 +235,16 @@
     <t>Trafford</t>
   </si>
   <si>
+    <t>Quorn</t>
+  </si>
+  <si>
     <t>Belper Town</t>
   </si>
   <si>
-    <t>Quorn</t>
+    <t>Newcastle Town</t>
   </si>
   <si>
     <t>Sutton Coldfield</t>
-  </si>
-  <si>
-    <t>Newcastle Town</t>
   </si>
   <si>
     <t>Clitheroe</t>
@@ -1475,7 +1475,7 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H10">
         <v>2</v>
@@ -1920,7 +1920,7 @@
         <v>42</v>
       </c>
       <c r="G15" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -2454,7 +2454,7 @@
         <v>47</v>
       </c>
       <c r="G21" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H21">
         <v>2</v>
@@ -2632,7 +2632,7 @@
         <v>49</v>
       </c>
       <c r="G23" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H23">
         <v>1</v>
@@ -5925,7 +5925,7 @@
         <v>69</v>
       </c>
       <c r="G60" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H60">
         <v>2</v>
@@ -7883,7 +7883,7 @@
         <v>33</v>
       </c>
       <c r="G82" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H82">
         <v>2</v>
@@ -9559,7 +9559,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>7639915</v>
+        <v>7639918</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9571,49 +9571,49 @@
         <v>45290.5</v>
       </c>
       <c r="F101" t="s">
-        <v>73</v>
+        <v>31</v>
       </c>
       <c r="G101" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H101">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J101" t="s">
         <v>89</v>
       </c>
       <c r="K101">
-        <v>1.3</v>
+        <v>2.5</v>
       </c>
       <c r="L101">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="M101">
-        <v>7</v>
+        <v>2.35</v>
       </c>
       <c r="N101">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="O101">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="P101">
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="Q101">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R101">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S101">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T101">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U101">
         <v>1.95</v>
@@ -9622,7 +9622,7 @@
         <v>1.85</v>
       </c>
       <c r="W101">
-        <v>0.3999999999999999</v>
+        <v>1</v>
       </c>
       <c r="X101">
         <v>-1</v>
@@ -9631,16 +9631,16 @@
         <v>-1</v>
       </c>
       <c r="Z101">
-        <v>0.7749999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AA101">
         <v>-1</v>
       </c>
       <c r="AB101">
-        <v>0.95</v>
+        <v>0.475</v>
       </c>
       <c r="AC101">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9648,7 +9648,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>7639918</v>
+        <v>7640085</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9660,49 +9660,49 @@
         <v>45290.5</v>
       </c>
       <c r="F102" t="s">
-        <v>31</v>
+        <v>73</v>
       </c>
       <c r="G102" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I102">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J102" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K102">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="L102">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M102">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="N102">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="O102">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P102">
-        <v>3</v>
+        <v>2.55</v>
       </c>
       <c r="Q102">
         <v>-0.25</v>
       </c>
       <c r="R102">
+        <v>2</v>
+      </c>
+      <c r="S102">
         <v>1.8</v>
       </c>
-      <c r="S102">
-        <v>2</v>
-      </c>
       <c r="T102">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U102">
         <v>1.95</v>
@@ -9711,25 +9711,25 @@
         <v>1.85</v>
       </c>
       <c r="W102">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X102">
         <v>-1</v>
       </c>
       <c r="Y102">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="Z102">
+        <v>-1</v>
+      </c>
+      <c r="AA102">
         <v>0.8</v>
       </c>
-      <c r="AA102">
-        <v>-1</v>
-      </c>
       <c r="AB102">
-        <v>0.475</v>
+        <v>0</v>
       </c>
       <c r="AC102">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -9737,7 +9737,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>7640085</v>
+        <v>7639915</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9752,46 +9752,46 @@
         <v>74</v>
       </c>
       <c r="G103" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H103">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I103">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J103" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K103">
-        <v>2.25</v>
+        <v>1.3</v>
       </c>
       <c r="L103">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M103">
-        <v>2.4</v>
+        <v>7</v>
       </c>
       <c r="N103">
-        <v>2.15</v>
+        <v>1.4</v>
       </c>
       <c r="O103">
-        <v>3.8</v>
+        <v>4.75</v>
       </c>
       <c r="P103">
-        <v>2.55</v>
+        <v>5.5</v>
       </c>
       <c r="Q103">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R103">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S103">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T103">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U103">
         <v>1.95</v>
@@ -9800,25 +9800,25 @@
         <v>1.85</v>
       </c>
       <c r="W103">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X103">
         <v>-1</v>
       </c>
       <c r="Y103">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="Z103">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA103">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB103">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AC103">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9915,7 +9915,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>7649294</v>
+        <v>7649195</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9930,73 +9930,73 @@
         <v>75</v>
       </c>
       <c r="G105" t="s">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J105" t="s">
         <v>90</v>
       </c>
       <c r="K105">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="L105">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M105">
-        <v>2.55</v>
+        <v>2.4</v>
       </c>
       <c r="N105">
-        <v>1.65</v>
+        <v>2.4</v>
       </c>
       <c r="O105">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P105">
-        <v>3.8</v>
+        <v>2.4</v>
       </c>
       <c r="Q105">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R105">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S105">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T105">
         <v>2.75</v>
       </c>
       <c r="U105">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="V105">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W105">
         <v>-1</v>
       </c>
       <c r="X105">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="Y105">
         <v>-1</v>
       </c>
       <c r="Z105">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA105">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
       <c r="AB105">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC105">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -10004,7 +10004,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>7649195</v>
+        <v>7649184</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -10016,76 +10016,76 @@
         <v>45292.5</v>
       </c>
       <c r="F106" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="G106" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106">
         <v>0</v>
       </c>
       <c r="J106" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K106">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="L106">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M106">
-        <v>2.4</v>
+        <v>3.4</v>
       </c>
       <c r="N106">
-        <v>2.4</v>
+        <v>1.7</v>
       </c>
       <c r="O106">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P106">
-        <v>2.4</v>
+        <v>3.75</v>
       </c>
       <c r="Q106">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R106">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S106">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T106">
         <v>2.75</v>
       </c>
       <c r="U106">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="V106">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W106">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X106">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y106">
         <v>-1</v>
       </c>
       <c r="Z106">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA106">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB106">
         <v>-1</v>
       </c>
       <c r="AC106">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="107" spans="1:29">
@@ -10093,7 +10093,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>7649184</v>
+        <v>7649124</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -10105,58 +10105,58 @@
         <v>45292.5</v>
       </c>
       <c r="F107" t="s">
-        <v>66</v>
+        <v>30</v>
       </c>
       <c r="G107" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I107">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J107" t="s">
         <v>89</v>
       </c>
       <c r="K107">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="L107">
         <v>3.75</v>
       </c>
       <c r="M107">
-        <v>3.4</v>
+        <v>2.25</v>
       </c>
       <c r="N107">
-        <v>1.7</v>
+        <v>2.55</v>
       </c>
       <c r="O107">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P107">
-        <v>3.75</v>
+        <v>2.25</v>
       </c>
       <c r="Q107">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R107">
-        <v>1.95</v>
+        <v>1.725</v>
       </c>
       <c r="S107">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T107">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U107">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="V107">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W107">
-        <v>0.7</v>
+        <v>1.55</v>
       </c>
       <c r="X107">
         <v>-1</v>
@@ -10165,16 +10165,16 @@
         <v>-1</v>
       </c>
       <c r="Z107">
-        <v>0.95</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA107">
         <v>-1</v>
       </c>
       <c r="AB107">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC107">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="108" spans="1:29">
@@ -10182,7 +10182,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>7649124</v>
+        <v>7649294</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10194,73 +10194,73 @@
         <v>45292.5</v>
       </c>
       <c r="F108" t="s">
-        <v>30</v>
+        <v>76</v>
       </c>
       <c r="G108" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H108">
+        <v>2</v>
+      </c>
+      <c r="I108">
+        <v>2</v>
+      </c>
+      <c r="J108" t="s">
+        <v>90</v>
+      </c>
+      <c r="K108">
+        <v>2.25</v>
+      </c>
+      <c r="L108">
+        <v>3.6</v>
+      </c>
+      <c r="M108">
+        <v>2.55</v>
+      </c>
+      <c r="N108">
+        <v>1.65</v>
+      </c>
+      <c r="O108">
+        <v>4</v>
+      </c>
+      <c r="P108">
+        <v>3.8</v>
+      </c>
+      <c r="Q108">
+        <v>-0.75</v>
+      </c>
+      <c r="R108">
+        <v>1.85</v>
+      </c>
+      <c r="S108">
+        <v>1.95</v>
+      </c>
+      <c r="T108">
+        <v>2.75</v>
+      </c>
+      <c r="U108">
+        <v>1.775</v>
+      </c>
+      <c r="V108">
+        <v>2.025</v>
+      </c>
+      <c r="W108">
+        <v>-1</v>
+      </c>
+      <c r="X108">
         <v>3</v>
       </c>
-      <c r="I108">
-        <v>2</v>
-      </c>
-      <c r="J108" t="s">
-        <v>89</v>
-      </c>
-      <c r="K108">
-        <v>2.5</v>
-      </c>
-      <c r="L108">
-        <v>3.75</v>
-      </c>
-      <c r="M108">
-        <v>2.25</v>
-      </c>
-      <c r="N108">
-        <v>2.55</v>
-      </c>
-      <c r="O108">
-        <v>3.75</v>
-      </c>
-      <c r="P108">
-        <v>2.25</v>
-      </c>
-      <c r="Q108">
-        <v>0.25</v>
-      </c>
-      <c r="R108">
-        <v>1.725</v>
-      </c>
-      <c r="S108">
-        <v>1.975</v>
-      </c>
-      <c r="T108">
-        <v>3.25</v>
-      </c>
-      <c r="U108">
-        <v>1.975</v>
-      </c>
-      <c r="V108">
-        <v>1.825</v>
-      </c>
-      <c r="W108">
-        <v>1.55</v>
-      </c>
-      <c r="X108">
-        <v>-1</v>
-      </c>
       <c r="Y108">
         <v>-1</v>
       </c>
       <c r="Z108">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA108">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB108">
-        <v>0.9750000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC108">
         <v>-1</v>
@@ -10360,7 +10360,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>7667993</v>
+        <v>7661416</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10372,76 +10372,76 @@
         <v>45297.5</v>
       </c>
       <c r="F110" t="s">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="G110" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="H110">
         <v>0</v>
       </c>
       <c r="I110">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J110" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K110">
-        <v>1.666</v>
+        <v>2.4</v>
       </c>
       <c r="L110">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="M110">
-        <v>3.75</v>
+        <v>2.3</v>
       </c>
       <c r="N110">
-        <v>1.833</v>
+        <v>2.15</v>
       </c>
       <c r="O110">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P110">
-        <v>3.3</v>
+        <v>2.55</v>
       </c>
       <c r="Q110">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R110">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S110">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T110">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U110">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V110">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W110">
         <v>-1</v>
       </c>
       <c r="X110">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y110">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="Z110">
         <v>-1</v>
       </c>
       <c r="AA110">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AB110">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC110">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="111" spans="1:29">
@@ -10449,7 +10449,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>7661416</v>
+        <v>7667993</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -10461,76 +10461,76 @@
         <v>45297.5</v>
       </c>
       <c r="F111" t="s">
-        <v>50</v>
+        <v>77</v>
       </c>
       <c r="G111" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="H111">
         <v>0</v>
       </c>
       <c r="I111">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J111" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K111">
-        <v>2.4</v>
+        <v>1.666</v>
       </c>
       <c r="L111">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="M111">
-        <v>2.3</v>
+        <v>3.75</v>
       </c>
       <c r="N111">
-        <v>2.15</v>
+        <v>1.833</v>
       </c>
       <c r="O111">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P111">
-        <v>2.55</v>
+        <v>3.3</v>
       </c>
       <c r="Q111">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R111">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S111">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T111">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U111">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V111">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W111">
         <v>-1</v>
       </c>
       <c r="X111">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y111">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="Z111">
         <v>-1</v>
       </c>
       <c r="AA111">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AB111">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC111">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="112" spans="1:29">
@@ -10894,7 +10894,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>7674983</v>
+        <v>7675037</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10906,76 +10906,76 @@
         <v>45300.69791666666</v>
       </c>
       <c r="F116" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="G116" t="s">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I116">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J116" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K116">
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
       <c r="L116">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M116">
-        <v>5</v>
+        <v>2.6</v>
       </c>
       <c r="N116">
-        <v>1.6</v>
+        <v>2.375</v>
       </c>
       <c r="O116">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P116">
-        <v>4.333</v>
+        <v>2.45</v>
       </c>
       <c r="Q116">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R116">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S116">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T116">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U116">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="V116">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W116">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X116">
         <v>-1</v>
       </c>
       <c r="Y116">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Z116">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA116">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB116">
         <v>-1</v>
       </c>
       <c r="AC116">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="117" spans="1:29">
@@ -10983,7 +10983,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>7675037</v>
+        <v>7674983</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10995,76 +10995,76 @@
         <v>45300.69791666666</v>
       </c>
       <c r="F117" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="G117" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="H117">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I117">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J117" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K117">
-        <v>2.25</v>
+        <v>1.5</v>
       </c>
       <c r="L117">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M117">
-        <v>2.6</v>
+        <v>5</v>
       </c>
       <c r="N117">
-        <v>2.375</v>
+        <v>1.6</v>
       </c>
       <c r="O117">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P117">
-        <v>2.45</v>
+        <v>4.333</v>
       </c>
       <c r="Q117">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R117">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S117">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T117">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U117">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="V117">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W117">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X117">
         <v>-1</v>
       </c>
       <c r="Y117">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Z117">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA117">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB117">
         <v>-1</v>
       </c>
       <c r="AC117">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="118" spans="1:29">
@@ -11072,7 +11072,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>7679042</v>
+        <v>7679052</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -11084,76 +11084,76 @@
         <v>45301.69791666666</v>
       </c>
       <c r="F118" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G118" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J118" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K118">
-        <v>1.571</v>
+        <v>2.5</v>
       </c>
       <c r="L118">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M118">
-        <v>4.333</v>
+        <v>2.25</v>
       </c>
       <c r="N118">
-        <v>1.65</v>
+        <v>2.55</v>
       </c>
       <c r="O118">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P118">
-        <v>4.2</v>
+        <v>2.25</v>
       </c>
       <c r="Q118">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R118">
+        <v>1.725</v>
+      </c>
+      <c r="S118">
+        <v>1.975</v>
+      </c>
+      <c r="T118">
+        <v>3</v>
+      </c>
+      <c r="U118">
         <v>1.85</v>
-      </c>
-      <c r="S118">
-        <v>1.95</v>
-      </c>
-      <c r="T118">
-        <v>2.75</v>
-      </c>
-      <c r="U118">
-        <v>1.75</v>
       </c>
       <c r="V118">
         <v>1.95</v>
       </c>
       <c r="W118">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X118">
         <v>-1</v>
       </c>
       <c r="Y118">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z118">
+        <v>-1</v>
+      </c>
+      <c r="AA118">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB118">
         <v>0.8500000000000001</v>
       </c>
-      <c r="AA118">
-        <v>-1</v>
-      </c>
-      <c r="AB118">
-        <v>-1</v>
-      </c>
       <c r="AC118">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="119" spans="1:29">
@@ -11161,7 +11161,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>7679052</v>
+        <v>7679042</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11173,76 +11173,76 @@
         <v>45301.69791666666</v>
       </c>
       <c r="F119" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G119" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119">
+        <v>0</v>
+      </c>
+      <c r="J119" t="s">
+        <v>89</v>
+      </c>
+      <c r="K119">
+        <v>1.571</v>
+      </c>
+      <c r="L119">
         <v>4</v>
       </c>
-      <c r="J119" t="s">
-        <v>91</v>
-      </c>
-      <c r="K119">
-        <v>2.5</v>
-      </c>
-      <c r="L119">
+      <c r="M119">
+        <v>4.333</v>
+      </c>
+      <c r="N119">
+        <v>1.65</v>
+      </c>
+      <c r="O119">
         <v>3.75</v>
       </c>
-      <c r="M119">
-        <v>2.25</v>
-      </c>
-      <c r="N119">
-        <v>2.55</v>
-      </c>
-      <c r="O119">
-        <v>3.6</v>
-      </c>
       <c r="P119">
-        <v>2.25</v>
+        <v>4.2</v>
       </c>
       <c r="Q119">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R119">
-        <v>1.725</v>
+        <v>1.85</v>
       </c>
       <c r="S119">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T119">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U119">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="V119">
         <v>1.95</v>
       </c>
       <c r="W119">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X119">
         <v>-1</v>
       </c>
       <c r="Y119">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z119">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA119">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB119">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC119">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -11440,7 +11440,7 @@
         <v>45304.5</v>
       </c>
       <c r="F122" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G122" t="s">
         <v>42</v>
@@ -11606,7 +11606,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>7719604</v>
+        <v>7725153</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11618,37 +11618,37 @@
         <v>45311.5</v>
       </c>
       <c r="F124" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="G124" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="H124">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I124">
         <v>0</v>
       </c>
       <c r="J124" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K124">
         <v>2.25</v>
       </c>
       <c r="L124">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M124">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="N124">
         <v>2.25</v>
       </c>
       <c r="O124">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P124">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="Q124">
         <v>-0.25</v>
@@ -11663,31 +11663,31 @@
         <v>3</v>
       </c>
       <c r="U124">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="V124">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W124">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X124">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y124">
         <v>-1</v>
       </c>
       <c r="Z124">
-        <v>1.05</v>
+        <v>-0.5</v>
       </c>
       <c r="AA124">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
       <c r="AB124">
         <v>-1</v>
       </c>
       <c r="AC124">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11695,7 +11695,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>7719594</v>
+        <v>7719604</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11707,46 +11707,46 @@
         <v>45311.5</v>
       </c>
       <c r="F125" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="G125" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I125">
         <v>0</v>
       </c>
       <c r="J125" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K125">
-        <v>1.4</v>
+        <v>2.25</v>
       </c>
       <c r="L125">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M125">
-        <v>5</v>
+        <v>2.4</v>
       </c>
       <c r="N125">
-        <v>1.4</v>
+        <v>2.25</v>
       </c>
       <c r="O125">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P125">
-        <v>5</v>
+        <v>2.45</v>
       </c>
       <c r="Q125">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R125">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="S125">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="T125">
         <v>3</v>
@@ -11758,19 +11758,19 @@
         <v>1.975</v>
       </c>
       <c r="W125">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X125">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Y125">
         <v>-1</v>
       </c>
       <c r="Z125">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA125">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB125">
         <v>-1</v>
@@ -11784,7 +11784,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>7719544</v>
+        <v>7719594</v>
       </c>
       <c r="C126" t="s">
         <v>28</v>
@@ -11796,76 +11796,76 @@
         <v>45311.5</v>
       </c>
       <c r="F126" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G126" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H126">
+        <v>0</v>
+      </c>
+      <c r="I126">
+        <v>0</v>
+      </c>
+      <c r="J126" t="s">
+        <v>90</v>
+      </c>
+      <c r="K126">
+        <v>1.4</v>
+      </c>
+      <c r="L126">
+        <v>5</v>
+      </c>
+      <c r="M126">
+        <v>5</v>
+      </c>
+      <c r="N126">
+        <v>1.4</v>
+      </c>
+      <c r="O126">
+        <v>5</v>
+      </c>
+      <c r="P126">
+        <v>5</v>
+      </c>
+      <c r="Q126">
+        <v>-1.25</v>
+      </c>
+      <c r="R126">
+        <v>1.85</v>
+      </c>
+      <c r="S126">
+        <v>1.95</v>
+      </c>
+      <c r="T126">
         <v>3</v>
       </c>
-      <c r="I126">
-        <v>0</v>
-      </c>
-      <c r="J126" t="s">
-        <v>89</v>
-      </c>
-      <c r="K126">
-        <v>2.05</v>
-      </c>
-      <c r="L126">
+      <c r="U126">
+        <v>1.825</v>
+      </c>
+      <c r="V126">
+        <v>1.975</v>
+      </c>
+      <c r="W126">
+        <v>-1</v>
+      </c>
+      <c r="X126">
         <v>4</v>
       </c>
-      <c r="M126">
-        <v>2.7</v>
-      </c>
-      <c r="N126">
-        <v>2.05</v>
-      </c>
-      <c r="O126">
-        <v>4</v>
-      </c>
-      <c r="P126">
-        <v>2.7</v>
-      </c>
-      <c r="Q126">
-        <v>-0.25</v>
-      </c>
-      <c r="R126">
-        <v>1.875</v>
-      </c>
-      <c r="S126">
-        <v>1.925</v>
-      </c>
-      <c r="T126">
-        <v>2.5</v>
-      </c>
-      <c r="U126">
-        <v>1.8</v>
-      </c>
-      <c r="V126">
-        <v>2</v>
-      </c>
-      <c r="W126">
-        <v>1.05</v>
-      </c>
-      <c r="X126">
-        <v>-1</v>
-      </c>
       <c r="Y126">
         <v>-1</v>
       </c>
       <c r="Z126">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA126">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB126">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC126">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="127" spans="1:29">
@@ -11873,7 +11873,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>7725153</v>
+        <v>7719544</v>
       </c>
       <c r="C127" t="s">
         <v>28</v>
@@ -11885,76 +11885,76 @@
         <v>45311.5</v>
       </c>
       <c r="F127" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="G127" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I127">
         <v>0</v>
       </c>
       <c r="J127" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K127">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="L127">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M127">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="N127">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="O127">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P127">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="Q127">
         <v>-0.25</v>
       </c>
       <c r="R127">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="S127">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="T127">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U127">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="V127">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W127">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X127">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y127">
         <v>-1</v>
       </c>
       <c r="Z127">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AA127">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
       <c r="AB127">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC127">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="128" spans="1:29">
@@ -12407,7 +12407,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>7761786</v>
+        <v>7761811</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12419,76 +12419,76 @@
         <v>45321.69791666666</v>
       </c>
       <c r="F133" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="G133" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H133">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I133">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J133" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K133">
-        <v>2.875</v>
+        <v>2.375</v>
       </c>
       <c r="L133">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M133">
-        <v>2</v>
+        <v>2.375</v>
       </c>
       <c r="N133">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="O133">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P133">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="Q133">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R133">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="S133">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T133">
         <v>2.75</v>
       </c>
       <c r="U133">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V133">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W133">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="X133">
         <v>-1</v>
       </c>
       <c r="Y133">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z133">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA133">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB133">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC133">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="134" spans="1:29">
@@ -12496,7 +12496,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>7761811</v>
+        <v>7761786</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12508,76 +12508,76 @@
         <v>45321.69791666666</v>
       </c>
       <c r="F134" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="G134" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I134">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J134" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K134">
-        <v>2.375</v>
+        <v>2.875</v>
       </c>
       <c r="L134">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M134">
-        <v>2.375</v>
+        <v>2</v>
       </c>
       <c r="N134">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="O134">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P134">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="Q134">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R134">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="S134">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T134">
         <v>2.75</v>
       </c>
       <c r="U134">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V134">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W134">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="X134">
         <v>-1</v>
       </c>
       <c r="Y134">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z134">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA134">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB134">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC134">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -12953,7 +12953,7 @@
         <v>45325.5</v>
       </c>
       <c r="F139" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G139" t="s">
         <v>35</v>
@@ -13220,7 +13220,7 @@
         <v>45332.5</v>
       </c>
       <c r="F142" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G142" t="s">
         <v>57</v>
@@ -13475,7 +13475,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>7844460</v>
+        <v>7844461</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13487,76 +13487,76 @@
         <v>45339.5</v>
       </c>
       <c r="F145" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="G145" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="H145">
+        <v>1</v>
+      </c>
+      <c r="I145">
+        <v>1</v>
+      </c>
+      <c r="J145" t="s">
+        <v>90</v>
+      </c>
+      <c r="K145">
+        <v>1.6</v>
+      </c>
+      <c r="L145">
         <v>4</v>
       </c>
-      <c r="I145">
-        <v>2</v>
-      </c>
-      <c r="J145" t="s">
-        <v>89</v>
-      </c>
-      <c r="K145">
-        <v>1.8</v>
-      </c>
-      <c r="L145">
-        <v>3.8</v>
-      </c>
       <c r="M145">
+        <v>4.2</v>
+      </c>
+      <c r="N145">
+        <v>1.75</v>
+      </c>
+      <c r="O145">
+        <v>4</v>
+      </c>
+      <c r="P145">
         <v>3.4</v>
-      </c>
-      <c r="N145">
-        <v>1.8</v>
-      </c>
-      <c r="O145">
-        <v>3.8</v>
-      </c>
-      <c r="P145">
-        <v>3.3</v>
       </c>
       <c r="Q145">
         <v>-0.5</v>
       </c>
       <c r="R145">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S145">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T145">
         <v>2.75</v>
       </c>
       <c r="U145">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V145">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W145">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X145">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y145">
         <v>-1</v>
       </c>
       <c r="Z145">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA145">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB145">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC145">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="146" spans="1:29">
@@ -13564,7 +13564,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>7844459</v>
+        <v>7844460</v>
       </c>
       <c r="C146" t="s">
         <v>28</v>
@@ -13576,58 +13576,58 @@
         <v>45339.5</v>
       </c>
       <c r="F146" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G146" t="s">
-        <v>50</v>
+        <v>76</v>
       </c>
       <c r="H146">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I146">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J146" t="s">
         <v>89</v>
       </c>
       <c r="K146">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="L146">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="M146">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="N146">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="O146">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="P146">
-        <v>5.25</v>
+        <v>3.3</v>
       </c>
       <c r="Q146">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R146">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S146">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T146">
         <v>2.75</v>
       </c>
       <c r="U146">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V146">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W146">
-        <v>0.3999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="X146">
         <v>-1</v>
@@ -13636,16 +13636,16 @@
         <v>-1</v>
       </c>
       <c r="Z146">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA146">
         <v>-1</v>
       </c>
       <c r="AB146">
-        <v>0.45</v>
+        <v>0.8</v>
       </c>
       <c r="AC146">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="147" spans="1:29">
@@ -13653,7 +13653,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>7844458</v>
+        <v>7844459</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13665,76 +13665,76 @@
         <v>45339.5</v>
       </c>
       <c r="F147" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="G147" t="s">
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I147">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J147" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K147">
-        <v>3.6</v>
+        <v>1.4</v>
       </c>
       <c r="L147">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="M147">
-        <v>1.8</v>
+        <v>5.5</v>
       </c>
       <c r="N147">
+        <v>1.4</v>
+      </c>
+      <c r="O147">
         <v>4.5</v>
       </c>
-      <c r="O147">
-        <v>3.6</v>
-      </c>
       <c r="P147">
-        <v>1.571</v>
+        <v>5.25</v>
       </c>
       <c r="Q147">
-        <v>1</v>
+        <v>-1.25</v>
       </c>
       <c r="R147">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="S147">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T147">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U147">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V147">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W147">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X147">
         <v>-1</v>
       </c>
       <c r="Y147">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="Z147">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA147">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB147">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AC147">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="148" spans="1:29">
@@ -13742,7 +13742,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>7844461</v>
+        <v>7844458</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13754,76 +13754,76 @@
         <v>45339.5</v>
       </c>
       <c r="F148" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="G148" t="s">
-        <v>62</v>
+        <v>85</v>
       </c>
       <c r="H148">
+        <v>0</v>
+      </c>
+      <c r="I148">
+        <v>2</v>
+      </c>
+      <c r="J148" t="s">
+        <v>91</v>
+      </c>
+      <c r="K148">
+        <v>3.6</v>
+      </c>
+      <c r="L148">
+        <v>3.6</v>
+      </c>
+      <c r="M148">
+        <v>1.8</v>
+      </c>
+      <c r="N148">
+        <v>4.5</v>
+      </c>
+      <c r="O148">
+        <v>3.6</v>
+      </c>
+      <c r="P148">
+        <v>1.571</v>
+      </c>
+      <c r="Q148">
         <v>1</v>
       </c>
-      <c r="I148">
-        <v>1</v>
-      </c>
-      <c r="J148" t="s">
-        <v>90</v>
-      </c>
-      <c r="K148">
-        <v>1.6</v>
-      </c>
-      <c r="L148">
-        <v>4</v>
-      </c>
-      <c r="M148">
-        <v>4.2</v>
-      </c>
-      <c r="N148">
+      <c r="R148">
         <v>1.75</v>
       </c>
-      <c r="O148">
-        <v>4</v>
-      </c>
-      <c r="P148">
-        <v>3.4</v>
-      </c>
-      <c r="Q148">
-        <v>-0.5</v>
-      </c>
-      <c r="R148">
-        <v>1.8</v>
-      </c>
       <c r="S148">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T148">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U148">
+        <v>1.95</v>
+      </c>
+      <c r="V148">
         <v>1.85</v>
       </c>
-      <c r="V148">
-        <v>1.95</v>
-      </c>
       <c r="W148">
         <v>-1</v>
       </c>
       <c r="X148">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y148">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="Z148">
         <v>-1</v>
       </c>
       <c r="AA148">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AB148">
         <v>-1</v>
       </c>
       <c r="AC148">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="149" spans="1:29">
@@ -14113,7 +14113,7 @@
         <v>32</v>
       </c>
       <c r="G152" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H152">
         <v>2</v>
@@ -14187,7 +14187,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>7915228</v>
+        <v>7915227</v>
       </c>
       <c r="C153" t="s">
         <v>28</v>
@@ -14199,73 +14199,73 @@
         <v>45356.69791666666</v>
       </c>
       <c r="F153" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G153" t="s">
-        <v>32</v>
+        <v>73</v>
       </c>
       <c r="H153">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I153">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J153" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K153">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="L153">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="M153">
-        <v>1.571</v>
+        <v>1.8</v>
       </c>
       <c r="N153">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="O153">
         <v>4.5</v>
       </c>
       <c r="P153">
-        <v>1.666</v>
+        <v>1.8</v>
       </c>
       <c r="Q153">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R153">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S153">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T153">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U153">
+        <v>1.85</v>
+      </c>
+      <c r="V153">
         <v>1.95</v>
       </c>
-      <c r="V153">
-        <v>1.85</v>
-      </c>
       <c r="W153">
         <v>-1</v>
       </c>
       <c r="X153">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y153">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z153">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA153">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB153">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC153">
         <v>-1</v>
@@ -14276,7 +14276,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>7915227</v>
+        <v>7915228</v>
       </c>
       <c r="C154" t="s">
         <v>28</v>
@@ -14288,73 +14288,73 @@
         <v>45356.69791666666</v>
       </c>
       <c r="F154" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G154" t="s">
-        <v>74</v>
+        <v>32</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J154" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K154">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="L154">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="M154">
-        <v>1.8</v>
+        <v>1.571</v>
       </c>
       <c r="N154">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="O154">
         <v>4.5</v>
       </c>
       <c r="P154">
-        <v>1.8</v>
+        <v>1.666</v>
       </c>
       <c r="Q154">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R154">
+        <v>1.9</v>
+      </c>
+      <c r="S154">
+        <v>1.9</v>
+      </c>
+      <c r="T154">
+        <v>3</v>
+      </c>
+      <c r="U154">
         <v>1.95</v>
       </c>
-      <c r="S154">
+      <c r="V154">
         <v>1.85</v>
       </c>
-      <c r="T154">
-        <v>3.25</v>
-      </c>
-      <c r="U154">
-        <v>1.85</v>
-      </c>
-      <c r="V154">
-        <v>1.95</v>
-      </c>
       <c r="W154">
         <v>-1</v>
       </c>
       <c r="X154">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y154">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z154">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA154">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB154">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AC154">
         <v>-1</v>
@@ -14736,7 +14736,7 @@
         <v>56</v>
       </c>
       <c r="G159" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H159">
         <v>0</v>
@@ -15166,7 +15166,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>7976756</v>
+        <v>7976965</v>
       </c>
       <c r="C164" t="s">
         <v>28</v>
@@ -15178,73 +15178,73 @@
         <v>45370.69791666666</v>
       </c>
       <c r="F164" t="s">
-        <v>29</v>
+        <v>79</v>
       </c>
       <c r="G164" t="s">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="H164">
+        <v>3</v>
+      </c>
+      <c r="I164">
         <v>4</v>
       </c>
-      <c r="I164">
-        <v>0</v>
-      </c>
       <c r="J164" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K164">
-        <v>1.571</v>
+        <v>1.8</v>
       </c>
       <c r="L164">
         <v>4</v>
       </c>
       <c r="M164">
-        <v>4.333</v>
+        <v>3.25</v>
       </c>
       <c r="N164">
-        <v>1.571</v>
+        <v>1.8</v>
       </c>
       <c r="O164">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P164">
-        <v>4.5</v>
+        <v>3.25</v>
       </c>
       <c r="Q164">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R164">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S164">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T164">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U164">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V164">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W164">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X164">
         <v>-1</v>
       </c>
       <c r="Y164">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Z164">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA164">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB164">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
       <c r="AC164">
         <v>-1</v>
@@ -15255,7 +15255,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>7976965</v>
+        <v>7976756</v>
       </c>
       <c r="C165" t="s">
         <v>28</v>
@@ -15267,73 +15267,73 @@
         <v>45370.69791666666</v>
       </c>
       <c r="F165" t="s">
-        <v>79</v>
+        <v>29</v>
       </c>
       <c r="G165" t="s">
-        <v>87</v>
+        <v>52</v>
       </c>
       <c r="H165">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I165">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J165" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K165">
-        <v>1.8</v>
+        <v>1.571</v>
       </c>
       <c r="L165">
         <v>4</v>
       </c>
       <c r="M165">
-        <v>3.25</v>
+        <v>4.333</v>
       </c>
       <c r="N165">
+        <v>1.571</v>
+      </c>
+      <c r="O165">
+        <v>3.8</v>
+      </c>
+      <c r="P165">
+        <v>4.5</v>
+      </c>
+      <c r="Q165">
+        <v>-1</v>
+      </c>
+      <c r="R165">
+        <v>1.975</v>
+      </c>
+      <c r="S165">
+        <v>1.825</v>
+      </c>
+      <c r="T165">
+        <v>2.75</v>
+      </c>
+      <c r="U165">
         <v>1.8</v>
       </c>
-      <c r="O165">
-        <v>4</v>
-      </c>
-      <c r="P165">
-        <v>3.25</v>
-      </c>
-      <c r="Q165">
-        <v>-0.5</v>
-      </c>
-      <c r="R165">
-        <v>1.85</v>
-      </c>
-      <c r="S165">
-        <v>1.95</v>
-      </c>
-      <c r="T165">
-        <v>3</v>
-      </c>
-      <c r="U165">
-        <v>1.875</v>
-      </c>
       <c r="V165">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W165">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X165">
         <v>-1</v>
       </c>
       <c r="Y165">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Z165">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA165">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB165">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
       <c r="AC165">
         <v>-1</v>
@@ -15878,7 +15878,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>8010145</v>
+        <v>8010865</v>
       </c>
       <c r="C172" t="s">
         <v>28</v>
@@ -15890,70 +15890,70 @@
         <v>45377.69791666666</v>
       </c>
       <c r="F172" t="s">
-        <v>79</v>
+        <v>41</v>
       </c>
       <c r="G172" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="H172">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I172">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J172" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K172">
+        <v>1.727</v>
+      </c>
+      <c r="L172">
         <v>4</v>
       </c>
-      <c r="L172">
-        <v>4.2</v>
-      </c>
       <c r="M172">
-        <v>1.6</v>
+        <v>3.5</v>
       </c>
       <c r="N172">
+        <v>1.666</v>
+      </c>
+      <c r="O172">
         <v>4</v>
       </c>
-      <c r="O172">
-        <v>4.2</v>
-      </c>
       <c r="P172">
-        <v>1.6</v>
+        <v>3.75</v>
       </c>
       <c r="Q172">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R172">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S172">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="T172">
         <v>3</v>
       </c>
       <c r="U172">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="V172">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W172">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X172">
         <v>-1</v>
       </c>
       <c r="Y172">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z172">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AA172">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AB172">
         <v>0</v>
@@ -15967,7 +15967,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>8010143</v>
+        <v>8010145</v>
       </c>
       <c r="C173" t="s">
         <v>28</v>
@@ -15979,70 +15979,70 @@
         <v>45377.69791666666</v>
       </c>
       <c r="F173" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="G173" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H173">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I173">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J173" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K173">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="L173">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="M173">
-        <v>1.833</v>
+        <v>1.6</v>
       </c>
       <c r="N173">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="O173">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="P173">
-        <v>1.909</v>
+        <v>1.6</v>
       </c>
       <c r="Q173">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R173">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S173">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T173">
         <v>3</v>
       </c>
       <c r="U173">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="V173">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W173">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="X173">
         <v>-1</v>
       </c>
       <c r="Y173">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="Z173">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA173">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AB173">
         <v>0</v>
@@ -16056,7 +16056,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>8010864</v>
+        <v>8010143</v>
       </c>
       <c r="C174" t="s">
         <v>28</v>
@@ -16068,37 +16068,37 @@
         <v>45377.69791666666</v>
       </c>
       <c r="F174" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="G174" t="s">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="H174">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I174">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J174" t="s">
         <v>89</v>
       </c>
       <c r="K174">
-        <v>2.45</v>
+        <v>3.75</v>
       </c>
       <c r="L174">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="M174">
-        <v>2.1</v>
+        <v>1.833</v>
       </c>
       <c r="N174">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="O174">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="P174">
-        <v>1.85</v>
+        <v>1.909</v>
       </c>
       <c r="Q174">
         <v>0.5</v>
@@ -16110,16 +16110,16 @@
         <v>1.95</v>
       </c>
       <c r="T174">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U174">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V174">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W174">
-        <v>1.75</v>
+        <v>2.5</v>
       </c>
       <c r="X174">
         <v>-1</v>
@@ -16134,10 +16134,10 @@
         <v>-1</v>
       </c>
       <c r="AB174">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC174">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="175" spans="1:29">
@@ -16145,7 +16145,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>8010865</v>
+        <v>8010864</v>
       </c>
       <c r="C175" t="s">
         <v>28</v>
@@ -16157,58 +16157,58 @@
         <v>45377.69791666666</v>
       </c>
       <c r="F175" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G175" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="H175">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I175">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J175" t="s">
         <v>89</v>
       </c>
       <c r="K175">
-        <v>1.727</v>
+        <v>2.45</v>
       </c>
       <c r="L175">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="M175">
-        <v>3.5</v>
+        <v>2.1</v>
       </c>
       <c r="N175">
-        <v>1.666</v>
+        <v>2.75</v>
       </c>
       <c r="O175">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="P175">
-        <v>3.75</v>
+        <v>1.85</v>
       </c>
       <c r="Q175">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R175">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S175">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T175">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U175">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V175">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W175">
-        <v>0.6659999999999999</v>
+        <v>1.75</v>
       </c>
       <c r="X175">
         <v>-1</v>
@@ -16217,16 +16217,16 @@
         <v>-1</v>
       </c>
       <c r="Z175">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA175">
         <v>-1</v>
       </c>
       <c r="AB175">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC175">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="176" spans="1:29">
@@ -16338,7 +16338,7 @@
         <v>60</v>
       </c>
       <c r="G177" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H177">
         <v>2</v>
@@ -16857,7 +16857,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>8027516</v>
+        <v>8027459</v>
       </c>
       <c r="C183" t="s">
         <v>28</v>
@@ -16869,70 +16869,70 @@
         <v>45381.5</v>
       </c>
       <c r="F183" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G183" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="H183">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I183">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J183" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K183">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="L183">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="M183">
-        <v>1.909</v>
+        <v>1.5</v>
       </c>
       <c r="N183">
-        <v>3.1</v>
+        <v>5.25</v>
       </c>
       <c r="O183">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="P183">
-        <v>1.909</v>
+        <v>1.4</v>
       </c>
       <c r="Q183">
-        <v>0.5</v>
+        <v>1.25</v>
       </c>
       <c r="R183">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S183">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T183">
         <v>3</v>
       </c>
       <c r="U183">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V183">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W183">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="X183">
         <v>-1</v>
       </c>
       <c r="Y183">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Z183">
-        <v>0.825</v>
+        <v>0.45</v>
       </c>
       <c r="AA183">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB183">
         <v>0</v>
@@ -17035,7 +17035,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>8027459</v>
+        <v>8027516</v>
       </c>
       <c r="C185" t="s">
         <v>28</v>
@@ -17047,70 +17047,70 @@
         <v>45381.5</v>
       </c>
       <c r="F185" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G185" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="H185">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I185">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J185" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K185">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="L185">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="M185">
-        <v>1.5</v>
+        <v>1.909</v>
       </c>
       <c r="N185">
-        <v>5.25</v>
+        <v>3.1</v>
       </c>
       <c r="O185">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="P185">
-        <v>1.4</v>
+        <v>1.909</v>
       </c>
       <c r="Q185">
-        <v>1.25</v>
+        <v>0.5</v>
       </c>
       <c r="R185">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S185">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T185">
         <v>3</v>
       </c>
       <c r="U185">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V185">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W185">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="X185">
         <v>-1</v>
       </c>
       <c r="Y185">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z185">
-        <v>0.45</v>
+        <v>0.825</v>
       </c>
       <c r="AA185">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB185">
         <v>0</v>
@@ -17124,7 +17124,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>8035189</v>
+        <v>8035502</v>
       </c>
       <c r="C186" t="s">
         <v>28</v>
@@ -17136,55 +17136,55 @@
         <v>45383.45833333334</v>
       </c>
       <c r="F186" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G186" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="H186">
         <v>0</v>
       </c>
       <c r="I186">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J186" t="s">
         <v>91</v>
       </c>
       <c r="K186">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="L186">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M186">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="N186">
-        <v>2.7</v>
+        <v>1.95</v>
       </c>
       <c r="O186">
         <v>3.6</v>
       </c>
       <c r="P186">
-        <v>2.15</v>
+        <v>3.2</v>
       </c>
       <c r="Q186">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R186">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S186">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T186">
         <v>3</v>
       </c>
       <c r="U186">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="V186">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="W186">
         <v>-1</v>
@@ -17193,19 +17193,19 @@
         <v>-1</v>
       </c>
       <c r="Y186">
-        <v>1.15</v>
+        <v>2.2</v>
       </c>
       <c r="Z186">
         <v>-1</v>
       </c>
       <c r="AA186">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AB186">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC186">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="187" spans="1:29">
@@ -17213,7 +17213,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>8035268</v>
+        <v>8035189</v>
       </c>
       <c r="C187" t="s">
         <v>28</v>
@@ -17225,55 +17225,55 @@
         <v>45383.45833333334</v>
       </c>
       <c r="F187" t="s">
-        <v>75</v>
+        <v>32</v>
       </c>
       <c r="G187" t="s">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="H187">
+        <v>0</v>
+      </c>
+      <c r="I187">
         <v>1</v>
-      </c>
-      <c r="I187">
-        <v>2</v>
       </c>
       <c r="J187" t="s">
         <v>91</v>
       </c>
       <c r="K187">
-        <v>1.833</v>
+        <v>2.3</v>
       </c>
       <c r="L187">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M187">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
       <c r="N187">
-        <v>2</v>
+        <v>2.7</v>
       </c>
       <c r="O187">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P187">
-        <v>2.75</v>
+        <v>2.15</v>
       </c>
       <c r="Q187">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R187">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S187">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T187">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U187">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="V187">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W187">
         <v>-1</v>
@@ -17282,19 +17282,19 @@
         <v>-1</v>
       </c>
       <c r="Y187">
-        <v>1.75</v>
+        <v>1.15</v>
       </c>
       <c r="Z187">
         <v>-1</v>
       </c>
       <c r="AA187">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB187">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
       <c r="AC187">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="188" spans="1:29">
@@ -17302,7 +17302,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>8035502</v>
+        <v>8035268</v>
       </c>
       <c r="C188" t="s">
         <v>28</v>
@@ -17314,76 +17314,76 @@
         <v>45383.45833333334</v>
       </c>
       <c r="F188" t="s">
-        <v>34</v>
+        <v>76</v>
       </c>
       <c r="G188" t="s">
-        <v>53</v>
+        <v>87</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I188">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J188" t="s">
         <v>91</v>
       </c>
       <c r="K188">
-        <v>2</v>
+        <v>1.833</v>
       </c>
       <c r="L188">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M188">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="N188">
+        <v>2</v>
+      </c>
+      <c r="O188">
+        <v>4</v>
+      </c>
+      <c r="P188">
+        <v>2.75</v>
+      </c>
+      <c r="Q188">
+        <v>-0.25</v>
+      </c>
+      <c r="R188">
+        <v>1.85</v>
+      </c>
+      <c r="S188">
         <v>1.95</v>
       </c>
-      <c r="O188">
-        <v>3.6</v>
-      </c>
-      <c r="P188">
-        <v>3.2</v>
-      </c>
-      <c r="Q188">
+      <c r="T188">
+        <v>2.75</v>
+      </c>
+      <c r="U188">
+        <v>1.75</v>
+      </c>
+      <c r="V188">
+        <v>1.95</v>
+      </c>
+      <c r="W188">
+        <v>-1</v>
+      </c>
+      <c r="X188">
+        <v>-1</v>
+      </c>
+      <c r="Y188">
+        <v>1.75</v>
+      </c>
+      <c r="Z188">
+        <v>-1</v>
+      </c>
+      <c r="AA188">
+        <v>0.95</v>
+      </c>
+      <c r="AB188">
+        <v>0.375</v>
+      </c>
+      <c r="AC188">
         <v>-0.5</v>
-      </c>
-      <c r="R188">
-        <v>2</v>
-      </c>
-      <c r="S188">
-        <v>1.8</v>
-      </c>
-      <c r="T188">
-        <v>3</v>
-      </c>
-      <c r="U188">
-        <v>2.025</v>
-      </c>
-      <c r="V188">
-        <v>1.775</v>
-      </c>
-      <c r="W188">
-        <v>-1</v>
-      </c>
-      <c r="X188">
-        <v>-1</v>
-      </c>
-      <c r="Y188">
-        <v>2.2</v>
-      </c>
-      <c r="Z188">
-        <v>-1</v>
-      </c>
-      <c r="AA188">
-        <v>0.8</v>
-      </c>
-      <c r="AB188">
-        <v>0</v>
-      </c>
-      <c r="AC188">
-        <v>-0</v>
       </c>
     </row>
     <row r="189" spans="1:29">

--- a/England Northern League Division One/England Northern League Division One.xlsx
+++ b/England Northern League Division One/England Northern League Division One.xlsx
@@ -118,10 +118,10 @@
     <t>Cleethorpes Town</t>
   </si>
   <si>
-    <t>Corby</t>
+    <t>Widnes</t>
   </si>
   <si>
-    <t>Widnes</t>
+    <t>Corby</t>
   </si>
   <si>
     <t>Coleshill Town</t>
@@ -136,25 +136,31 @@
     <t>Cambridge City</t>
   </si>
   <si>
-    <t>Coventry Sphinx</t>
+    <t>Grantham</t>
   </si>
   <si>
-    <t>Grantham</t>
+    <t>North Ferriby</t>
   </si>
   <si>
     <t>Liversedge</t>
   </si>
   <si>
-    <t>North Ferriby</t>
+    <t>AFC Rushden  Diamonds</t>
   </si>
   <si>
     <t>Pontefract Collieries</t>
   </si>
   <si>
-    <t>AFC Rushden  Diamonds</t>
+    <t>Coventry Sphinx</t>
   </si>
   <si>
     <t>Leek Town</t>
+  </si>
+  <si>
+    <t>Mossley</t>
+  </si>
+  <si>
+    <t>Runcorn Linnets</t>
   </si>
   <si>
     <t>Hednesford</t>
@@ -163,22 +169,16 @@
     <t>Dunston UTS</t>
   </si>
   <si>
-    <t>Runcorn Linnets</t>
+    <t>Avro FC</t>
   </si>
   <si>
-    <t>Mossley</t>
-  </si>
-  <si>
-    <t>Stockton Town</t>
+    <t>Grimsby Borough</t>
   </si>
   <si>
     <t>Winterton Rangers</t>
   </si>
   <si>
-    <t>Grimsby Borough</t>
-  </si>
-  <si>
-    <t>Avro FC</t>
+    <t>Stockton Town</t>
   </si>
   <si>
     <t>Stalybridge</t>
@@ -205,19 +205,19 @@
     <t>1874 Northwich</t>
   </si>
   <si>
-    <t>Ossett United</t>
+    <t>Bedworth Utd</t>
   </si>
   <si>
-    <t>Bedworth Utd</t>
+    <t>Ossett United</t>
   </si>
   <si>
     <t>Newton Aycliffe</t>
   </si>
   <si>
-    <t>Nantwich Town</t>
+    <t>Sporting Khalsa</t>
   </si>
   <si>
-    <t>Sporting Khalsa</t>
+    <t>Nantwich Town</t>
   </si>
   <si>
     <t>Harborough Town</t>
@@ -235,10 +235,10 @@
     <t>Trafford</t>
   </si>
   <si>
-    <t>Quorn</t>
+    <t>Belper Town</t>
   </si>
   <si>
-    <t>Belper Town</t>
+    <t>Quorn</t>
   </si>
   <si>
     <t>Newcastle Town</t>
@@ -763,7 +763,7 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H2">
         <v>3</v>
@@ -852,7 +852,7 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H3">
         <v>3</v>
@@ -1119,7 +1119,7 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H6">
         <v>1</v>
@@ -1193,7 +1193,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7072687</v>
+        <v>7072691</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1208,73 +1208,73 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K7">
-        <v>1.95</v>
+        <v>2.25</v>
       </c>
       <c r="L7">
         <v>3.5</v>
       </c>
       <c r="M7">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="N7">
-        <v>1.75</v>
+        <v>2.375</v>
       </c>
       <c r="O7">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P7">
-        <v>4</v>
+        <v>2.6</v>
       </c>
       <c r="Q7">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R7">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S7">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T7">
         <v>2.75</v>
       </c>
       <c r="U7">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V7">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W7">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X7">
         <v>-1</v>
       </c>
       <c r="Y7">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z7">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA7">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB7">
         <v>-1</v>
       </c>
       <c r="AC7">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1282,7 +1282,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7072691</v>
+        <v>7072687</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1297,73 +1297,73 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K8">
-        <v>2.25</v>
+        <v>1.95</v>
       </c>
       <c r="L8">
         <v>3.5</v>
       </c>
       <c r="M8">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="N8">
-        <v>2.375</v>
+        <v>1.75</v>
       </c>
       <c r="O8">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P8">
-        <v>2.6</v>
+        <v>4</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R8">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S8">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T8">
         <v>2.75</v>
       </c>
       <c r="U8">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V8">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W8">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X8">
         <v>-1</v>
       </c>
       <c r="Y8">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z8">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA8">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB8">
         <v>-1</v>
       </c>
       <c r="AC8">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1475,7 +1475,7 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -1653,7 +1653,7 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H12">
         <v>2</v>
@@ -1727,7 +1727,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>7100393</v>
+        <v>7100107</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1742,73 +1742,73 @@
         <v>40</v>
       </c>
       <c r="G13" t="s">
-        <v>67</v>
+        <v>31</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13">
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K13">
+        <v>2.4</v>
+      </c>
+      <c r="L13">
+        <v>3.6</v>
+      </c>
+      <c r="M13">
+        <v>2.4</v>
+      </c>
+      <c r="N13">
         <v>2.9</v>
       </c>
-      <c r="L13">
-        <v>3.75</v>
-      </c>
-      <c r="M13">
-        <v>2</v>
-      </c>
-      <c r="N13">
-        <v>2.8</v>
-      </c>
       <c r="O13">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P13">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="Q13">
         <v>0.25</v>
       </c>
       <c r="R13">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S13">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T13">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U13">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="V13">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W13">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="X13">
         <v>-1</v>
       </c>
       <c r="Y13">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z13">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA13">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB13">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC13">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="14" spans="1:29">
@@ -1816,7 +1816,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>7100107</v>
+        <v>7100109</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1831,70 +1831,70 @@
         <v>41</v>
       </c>
       <c r="G14" t="s">
-        <v>31</v>
+        <v>73</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J14" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K14">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="L14">
         <v>3.6</v>
       </c>
       <c r="M14">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="N14">
-        <v>2.9</v>
+        <v>1.95</v>
       </c>
       <c r="O14">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P14">
+        <v>3.1</v>
+      </c>
+      <c r="Q14">
+        <v>-0.5</v>
+      </c>
+      <c r="R14">
+        <v>2</v>
+      </c>
+      <c r="S14">
+        <v>1.8</v>
+      </c>
+      <c r="T14">
+        <v>2.75</v>
+      </c>
+      <c r="U14">
+        <v>1.825</v>
+      </c>
+      <c r="V14">
+        <v>1.975</v>
+      </c>
+      <c r="W14">
+        <v>-1</v>
+      </c>
+      <c r="X14">
+        <v>-1</v>
+      </c>
+      <c r="Y14">
         <v>2.1</v>
       </c>
-      <c r="Q14">
-        <v>0.25</v>
-      </c>
-      <c r="R14">
-        <v>1.875</v>
-      </c>
-      <c r="S14">
-        <v>1.925</v>
-      </c>
-      <c r="T14">
-        <v>2.5</v>
-      </c>
-      <c r="U14">
-        <v>1.9</v>
-      </c>
-      <c r="V14">
-        <v>1.9</v>
-      </c>
-      <c r="W14">
-        <v>1.9</v>
-      </c>
-      <c r="X14">
-        <v>-1</v>
-      </c>
-      <c r="Y14">
-        <v>-1</v>
-      </c>
       <c r="Z14">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA14">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB14">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AC14">
         <v>-1</v>
@@ -1994,7 +1994,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>7100109</v>
+        <v>7100111</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -2006,76 +2006,76 @@
         <v>45160.65625</v>
       </c>
       <c r="F16" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="G16" t="s">
-        <v>74</v>
+        <v>33</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K16">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="L16">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M16">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="N16">
+        <v>3.1</v>
+      </c>
+      <c r="O16">
+        <v>3.3</v>
+      </c>
+      <c r="P16">
+        <v>2.05</v>
+      </c>
+      <c r="Q16">
+        <v>0.25</v>
+      </c>
+      <c r="R16">
         <v>1.95</v>
       </c>
-      <c r="O16">
-        <v>3.75</v>
-      </c>
-      <c r="P16">
-        <v>3.1</v>
-      </c>
-      <c r="Q16">
+      <c r="S16">
+        <v>1.85</v>
+      </c>
+      <c r="T16">
+        <v>2.5</v>
+      </c>
+      <c r="U16">
+        <v>1.8</v>
+      </c>
+      <c r="V16">
+        <v>2</v>
+      </c>
+      <c r="W16">
+        <v>-1</v>
+      </c>
+      <c r="X16">
+        <v>2.3</v>
+      </c>
+      <c r="Y16">
+        <v>-1</v>
+      </c>
+      <c r="Z16">
+        <v>0.475</v>
+      </c>
+      <c r="AA16">
         <v>-0.5</v>
       </c>
-      <c r="R16">
-        <v>2</v>
-      </c>
-      <c r="S16">
-        <v>1.8</v>
-      </c>
-      <c r="T16">
-        <v>2.75</v>
-      </c>
-      <c r="U16">
-        <v>1.825</v>
-      </c>
-      <c r="V16">
-        <v>1.975</v>
-      </c>
-      <c r="W16">
-        <v>-1</v>
-      </c>
-      <c r="X16">
-        <v>-1</v>
-      </c>
-      <c r="Y16">
-        <v>2.1</v>
-      </c>
-      <c r="Z16">
-        <v>-1</v>
-      </c>
-      <c r="AA16">
-        <v>0.8</v>
-      </c>
       <c r="AB16">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC16">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -2083,7 +2083,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>7100110</v>
+        <v>7100282</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -2095,13 +2095,13 @@
         <v>45160.65625</v>
       </c>
       <c r="F17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G17" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17">
         <v>3</v>
@@ -2110,40 +2110,40 @@
         <v>91</v>
       </c>
       <c r="K17">
+        <v>2.2</v>
+      </c>
+      <c r="L17">
+        <v>4</v>
+      </c>
+      <c r="M17">
+        <v>2.45</v>
+      </c>
+      <c r="N17">
         <v>2.25</v>
       </c>
-      <c r="L17">
-        <v>3.25</v>
-      </c>
-      <c r="M17">
-        <v>2.75</v>
-      </c>
-      <c r="N17">
-        <v>2.625</v>
-      </c>
       <c r="O17">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="P17">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
       <c r="R17">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S17">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T17">
         <v>2.75</v>
       </c>
       <c r="U17">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V17">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W17">
         <v>-1</v>
@@ -2152,19 +2152,19 @@
         <v>-1</v>
       </c>
       <c r="Y17">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="Z17">
         <v>-1</v>
       </c>
       <c r="AA17">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AB17">
-        <v>0.95</v>
+        <v>0.4125</v>
       </c>
       <c r="AC17">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2172,7 +2172,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>7100111</v>
+        <v>7100110</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2184,76 +2184,76 @@
         <v>45160.65625</v>
       </c>
       <c r="F18" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="G18" t="s">
-        <v>33</v>
+        <v>83</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J18" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K18">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L18">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M18">
         <v>2.75</v>
       </c>
       <c r="N18">
-        <v>3.1</v>
+        <v>2.625</v>
       </c>
       <c r="O18">
         <v>3.3</v>
       </c>
       <c r="P18">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="Q18">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R18">
+        <v>2</v>
+      </c>
+      <c r="S18">
+        <v>1.8</v>
+      </c>
+      <c r="T18">
+        <v>2.75</v>
+      </c>
+      <c r="U18">
         <v>1.95</v>
       </c>
-      <c r="S18">
+      <c r="V18">
         <v>1.85</v>
       </c>
-      <c r="T18">
-        <v>2.5</v>
-      </c>
-      <c r="U18">
-        <v>1.8</v>
-      </c>
-      <c r="V18">
-        <v>2</v>
-      </c>
       <c r="W18">
         <v>-1</v>
       </c>
       <c r="X18">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y18">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z18">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AA18">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AB18">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC18">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2261,7 +2261,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>7100282</v>
+        <v>7100393</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2276,53 +2276,53 @@
         <v>45</v>
       </c>
       <c r="G19" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J19" t="s">
         <v>91</v>
       </c>
       <c r="K19">
-        <v>2.2</v>
+        <v>2.9</v>
       </c>
       <c r="L19">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M19">
-        <v>2.45</v>
+        <v>2</v>
       </c>
       <c r="N19">
-        <v>2.25</v>
+        <v>2.8</v>
       </c>
       <c r="O19">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P19">
-        <v>2.4</v>
+        <v>2.05</v>
       </c>
       <c r="Q19">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R19">
+        <v>1.95</v>
+      </c>
+      <c r="S19">
         <v>1.85</v>
       </c>
-      <c r="S19">
+      <c r="T19">
+        <v>3</v>
+      </c>
+      <c r="U19">
+        <v>1.75</v>
+      </c>
+      <c r="V19">
         <v>1.95</v>
       </c>
-      <c r="T19">
-        <v>2.75</v>
-      </c>
-      <c r="U19">
-        <v>1.825</v>
-      </c>
-      <c r="V19">
-        <v>1.975</v>
-      </c>
       <c r="W19">
         <v>-1</v>
       </c>
@@ -2330,19 +2330,19 @@
         <v>-1</v>
       </c>
       <c r="Y19">
-        <v>1.4</v>
+        <v>1.05</v>
       </c>
       <c r="Z19">
         <v>-1</v>
       </c>
       <c r="AA19">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB19">
+        <v>-1</v>
+      </c>
+      <c r="AC19">
         <v>0.95</v>
-      </c>
-      <c r="AB19">
-        <v>0.4125</v>
-      </c>
-      <c r="AC19">
-        <v>-0.5</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2439,7 +2439,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>7100543</v>
+        <v>7100545</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2454,16 +2454,16 @@
         <v>47</v>
       </c>
       <c r="G21" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I21">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J21" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K21">
         <v>1.909</v>
@@ -2475,52 +2475,52 @@
         <v>3.1</v>
       </c>
       <c r="N21">
-        <v>2.3</v>
+        <v>1.85</v>
       </c>
       <c r="O21">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P21">
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
       <c r="Q21">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R21">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S21">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T21">
         <v>2.75</v>
       </c>
       <c r="U21">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V21">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W21">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X21">
         <v>-1</v>
       </c>
       <c r="Y21">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z21">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA21">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB21">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC21">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2528,7 +2528,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7100106</v>
+        <v>7100546</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2543,58 +2543,58 @@
         <v>48</v>
       </c>
       <c r="G22" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" t="s">
         <v>90</v>
       </c>
       <c r="K22">
-        <v>2.05</v>
+        <v>1.615</v>
       </c>
       <c r="L22">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="M22">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="N22">
-        <v>1.85</v>
+        <v>1.45</v>
       </c>
       <c r="O22">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="P22">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="Q22">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R22">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S22">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T22">
         <v>2.75</v>
       </c>
       <c r="U22">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V22">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W22">
         <v>-1</v>
       </c>
       <c r="X22">
-        <v>2.4</v>
+        <v>3.333</v>
       </c>
       <c r="Y22">
         <v>-1</v>
@@ -2603,13 +2603,13 @@
         <v>-1</v>
       </c>
       <c r="AA22">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AB22">
         <v>-1</v>
       </c>
       <c r="AC22">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2617,7 +2617,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>7100546</v>
+        <v>7100543</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2632,37 +2632,37 @@
         <v>49</v>
       </c>
       <c r="G23" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J23" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K23">
-        <v>1.615</v>
+        <v>1.909</v>
       </c>
       <c r="L23">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M23">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="N23">
-        <v>1.45</v>
+        <v>2.3</v>
       </c>
       <c r="O23">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="P23">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="Q23">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R23">
         <v>1.8</v>
@@ -2674,19 +2674,19 @@
         <v>2.75</v>
       </c>
       <c r="U23">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V23">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W23">
         <v>-1</v>
       </c>
       <c r="X23">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y23">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z23">
         <v>-1</v>
@@ -2695,10 +2695,10 @@
         <v>1</v>
       </c>
       <c r="AB23">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC23">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2706,7 +2706,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>7100545</v>
+        <v>7100106</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2721,73 +2721,73 @@
         <v>50</v>
       </c>
       <c r="G24" t="s">
-        <v>35</v>
+        <v>84</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K24">
-        <v>1.909</v>
+        <v>2.05</v>
       </c>
       <c r="L24">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="M24">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="N24">
         <v>1.85</v>
       </c>
       <c r="O24">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P24">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="Q24">
         <v>-0.5</v>
       </c>
       <c r="R24">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S24">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T24">
         <v>2.75</v>
       </c>
       <c r="U24">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V24">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W24">
+        <v>-1</v>
+      </c>
+      <c r="X24">
+        <v>2.4</v>
+      </c>
+      <c r="Y24">
+        <v>-1</v>
+      </c>
+      <c r="Z24">
+        <v>-1</v>
+      </c>
+      <c r="AA24">
         <v>0.8500000000000001</v>
       </c>
-      <c r="X24">
-        <v>-1</v>
-      </c>
-      <c r="Y24">
-        <v>-1</v>
-      </c>
-      <c r="Z24">
-        <v>0.925</v>
-      </c>
-      <c r="AA24">
-        <v>-1</v>
-      </c>
       <c r="AB24">
         <v>-1</v>
       </c>
       <c r="AC24">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -2795,7 +2795,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>7104129</v>
+        <v>7104131</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2810,73 +2810,73 @@
         <v>51</v>
       </c>
       <c r="G25" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K25">
-        <v>1.533</v>
+        <v>2.25</v>
       </c>
       <c r="L25">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M25">
-        <v>4.75</v>
+        <v>2.6</v>
       </c>
       <c r="N25">
-        <v>1.45</v>
+        <v>1.833</v>
       </c>
       <c r="O25">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P25">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="Q25">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R25">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="S25">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T25">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U25">
+        <v>1.775</v>
+      </c>
+      <c r="V25">
         <v>1.925</v>
       </c>
-      <c r="V25">
-        <v>1.875</v>
-      </c>
       <c r="W25">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X25">
         <v>-1</v>
       </c>
       <c r="Y25">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z25">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA25">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB25">
         <v>-1</v>
       </c>
       <c r="AC25">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="26" spans="1:29">
@@ -2884,7 +2884,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>7104130</v>
+        <v>7104106</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2899,16 +2899,16 @@
         <v>52</v>
       </c>
       <c r="G26" t="s">
-        <v>69</v>
+        <v>30</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I26">
         <v>2</v>
       </c>
       <c r="J26" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K26">
         <v>2.375</v>
@@ -2920,13 +2920,13 @@
         <v>2.375</v>
       </c>
       <c r="N26">
-        <v>2.625</v>
+        <v>2.6</v>
       </c>
       <c r="O26">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P26">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="Q26">
         <v>0.25</v>
@@ -2938,34 +2938,34 @@
         <v>1.975</v>
       </c>
       <c r="T26">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U26">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="V26">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W26">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="X26">
         <v>-1</v>
       </c>
       <c r="Y26">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z26">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA26">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB26">
-        <v>0.4</v>
+        <v>0.75</v>
       </c>
       <c r="AC26">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -2973,7 +2973,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>7104106</v>
+        <v>7104130</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2988,16 +2988,16 @@
         <v>53</v>
       </c>
       <c r="G27" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="H27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I27">
         <v>2</v>
       </c>
       <c r="J27" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K27">
         <v>2.375</v>
@@ -3009,13 +3009,13 @@
         <v>2.375</v>
       </c>
       <c r="N27">
-        <v>2.6</v>
+        <v>2.625</v>
       </c>
       <c r="O27">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P27">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="Q27">
         <v>0.25</v>
@@ -3027,34 +3027,34 @@
         <v>1.975</v>
       </c>
       <c r="T27">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U27">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="V27">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W27">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="X27">
         <v>-1</v>
       </c>
       <c r="Y27">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z27">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA27">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB27">
-        <v>0.75</v>
+        <v>0.4</v>
       </c>
       <c r="AC27">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -3062,7 +3062,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>7104131</v>
+        <v>7104129</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -3077,73 +3077,73 @@
         <v>54</v>
       </c>
       <c r="G28" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J28" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K28">
-        <v>2.25</v>
+        <v>1.533</v>
       </c>
       <c r="L28">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M28">
-        <v>2.6</v>
+        <v>4.75</v>
       </c>
       <c r="N28">
-        <v>1.833</v>
+        <v>1.45</v>
       </c>
       <c r="O28">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P28">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="Q28">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R28">
+        <v>1.75</v>
+      </c>
+      <c r="S28">
+        <v>1.95</v>
+      </c>
+      <c r="T28">
+        <v>3</v>
+      </c>
+      <c r="U28">
+        <v>1.925</v>
+      </c>
+      <c r="V28">
         <v>1.875</v>
       </c>
-      <c r="S28">
-        <v>1.925</v>
-      </c>
-      <c r="T28">
-        <v>2.5</v>
-      </c>
-      <c r="U28">
-        <v>1.775</v>
-      </c>
-      <c r="V28">
-        <v>1.925</v>
-      </c>
       <c r="W28">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X28">
         <v>-1</v>
       </c>
       <c r="Y28">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z28">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA28">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB28">
         <v>-1</v>
       </c>
       <c r="AC28">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -3522,7 +3522,7 @@
         <v>44</v>
       </c>
       <c r="G33" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H33">
         <v>4</v>
@@ -3608,7 +3608,7 @@
         <v>45166.45833333334</v>
       </c>
       <c r="F34" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G34" t="s">
         <v>69</v>
@@ -3697,7 +3697,7 @@
         <v>45166.45833333334</v>
       </c>
       <c r="F35" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G35" t="s">
         <v>33</v>
@@ -3878,7 +3878,7 @@
         <v>32</v>
       </c>
       <c r="G37" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H37">
         <v>3</v>
@@ -4145,7 +4145,7 @@
         <v>59</v>
       </c>
       <c r="G40" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H40">
         <v>3</v>
@@ -4231,7 +4231,7 @@
         <v>45182.65625</v>
       </c>
       <c r="F41" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G41" t="s">
         <v>80</v>
@@ -4323,7 +4323,7 @@
         <v>30</v>
       </c>
       <c r="G42" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H42">
         <v>0</v>
@@ -4397,7 +4397,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>7258502</v>
+        <v>7261755</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4409,13 +4409,13 @@
         <v>45195.65625</v>
       </c>
       <c r="F43" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="G43" t="s">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="H43">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I43">
         <v>1</v>
@@ -4424,43 +4424,43 @@
         <v>89</v>
       </c>
       <c r="K43">
-        <v>2.35</v>
+        <v>1.533</v>
       </c>
       <c r="L43">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M43">
-        <v>2.55</v>
+        <v>4.75</v>
       </c>
       <c r="N43">
-        <v>2.375</v>
+        <v>1.533</v>
       </c>
       <c r="O43">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P43">
-        <v>2.55</v>
+        <v>4.75</v>
       </c>
       <c r="Q43">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R43">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S43">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T43">
         <v>2.75</v>
       </c>
       <c r="U43">
+        <v>1.925</v>
+      </c>
+      <c r="V43">
         <v>1.875</v>
       </c>
-      <c r="V43">
-        <v>1.925</v>
-      </c>
       <c r="W43">
-        <v>1.375</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X43">
         <v>-1</v>
@@ -4469,16 +4469,16 @@
         <v>-1</v>
       </c>
       <c r="Z43">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AA43">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB43">
-        <v>0.875</v>
+        <v>0.4625</v>
       </c>
       <c r="AC43">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="44" spans="1:29">
@@ -4486,7 +4486,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>7261755</v>
+        <v>7258502</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4498,13 +4498,13 @@
         <v>45195.65625</v>
       </c>
       <c r="F44" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="G44" t="s">
-        <v>81</v>
+        <v>37</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I44">
         <v>1</v>
@@ -4513,43 +4513,43 @@
         <v>89</v>
       </c>
       <c r="K44">
-        <v>1.533</v>
+        <v>2.35</v>
       </c>
       <c r="L44">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M44">
-        <v>4.75</v>
+        <v>2.55</v>
       </c>
       <c r="N44">
-        <v>1.533</v>
+        <v>2.375</v>
       </c>
       <c r="O44">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P44">
-        <v>4.75</v>
+        <v>2.55</v>
       </c>
       <c r="Q44">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R44">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S44">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T44">
         <v>2.75</v>
       </c>
       <c r="U44">
+        <v>1.875</v>
+      </c>
+      <c r="V44">
         <v>1.925</v>
       </c>
-      <c r="V44">
-        <v>1.875</v>
-      </c>
       <c r="W44">
-        <v>0.5329999999999999</v>
+        <v>1.375</v>
       </c>
       <c r="X44">
         <v>-1</v>
@@ -4558,16 +4558,16 @@
         <v>-1</v>
       </c>
       <c r="Z44">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AA44">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB44">
-        <v>0.4625</v>
+        <v>0.875</v>
       </c>
       <c r="AC44">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="45" spans="1:29">
@@ -4679,7 +4679,7 @@
         <v>33</v>
       </c>
       <c r="G46" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H46">
         <v>4</v>
@@ -4753,7 +4753,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>7287695</v>
+        <v>7287701</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4765,55 +4765,55 @@
         <v>45202.65625</v>
       </c>
       <c r="F47" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="G47" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I47">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J47" t="s">
         <v>91</v>
       </c>
       <c r="K47">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="L47">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M47">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="N47">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="O47">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P47">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="Q47">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R47">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S47">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T47">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U47">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V47">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="W47">
         <v>-1</v>
@@ -4822,19 +4822,19 @@
         <v>-1</v>
       </c>
       <c r="Y47">
-        <v>1.6</v>
+        <v>1.1</v>
       </c>
       <c r="Z47">
         <v>-1</v>
       </c>
       <c r="AA47">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB47">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC47">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="48" spans="1:29">
@@ -4842,7 +4842,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>7287701</v>
+        <v>7287695</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4854,55 +4854,55 @@
         <v>45202.65625</v>
       </c>
       <c r="F48" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="G48" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48">
         <v>1</v>
-      </c>
-      <c r="I48">
-        <v>3</v>
       </c>
       <c r="J48" t="s">
         <v>91</v>
       </c>
       <c r="K48">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="L48">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M48">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="N48">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="O48">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="P48">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="Q48">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R48">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S48">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T48">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U48">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V48">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="W48">
         <v>-1</v>
@@ -4911,19 +4911,19 @@
         <v>-1</v>
       </c>
       <c r="Y48">
-        <v>1.1</v>
+        <v>1.6</v>
       </c>
       <c r="Z48">
         <v>-1</v>
       </c>
       <c r="AA48">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB48">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC48">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="49" spans="1:29">
@@ -4931,7 +4931,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>7287633</v>
+        <v>7287638</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
@@ -4946,7 +4946,7 @@
         <v>63</v>
       </c>
       <c r="G49" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H49">
         <v>0</v>
@@ -4958,61 +4958,61 @@
         <v>90</v>
       </c>
       <c r="K49">
-        <v>2.55</v>
+        <v>1.909</v>
       </c>
       <c r="L49">
+        <v>3.25</v>
+      </c>
+      <c r="M49">
+        <v>3.5</v>
+      </c>
+      <c r="N49">
+        <v>2</v>
+      </c>
+      <c r="O49">
+        <v>3.25</v>
+      </c>
+      <c r="P49">
         <v>3.2</v>
       </c>
-      <c r="M49">
-        <v>2.45</v>
-      </c>
-      <c r="N49">
-        <v>2.55</v>
-      </c>
-      <c r="O49">
-        <v>3.2</v>
-      </c>
-      <c r="P49">
-        <v>2.45</v>
-      </c>
       <c r="Q49">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R49">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S49">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T49">
         <v>2.75</v>
       </c>
       <c r="U49">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V49">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W49">
         <v>-1</v>
       </c>
       <c r="X49">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="Y49">
         <v>-1</v>
       </c>
       <c r="Z49">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA49">
-        <v>-0</v>
+        <v>0.5</v>
       </c>
       <c r="AB49">
         <v>-1</v>
       </c>
       <c r="AC49">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="50" spans="1:29">
@@ -5020,7 +5020,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>7287638</v>
+        <v>7287633</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -5035,7 +5035,7 @@
         <v>64</v>
       </c>
       <c r="G50" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H50">
         <v>0</v>
@@ -5047,61 +5047,61 @@
         <v>90</v>
       </c>
       <c r="K50">
-        <v>1.909</v>
+        <v>2.55</v>
       </c>
       <c r="L50">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M50">
-        <v>3.5</v>
+        <v>2.45</v>
       </c>
       <c r="N50">
-        <v>2</v>
+        <v>2.55</v>
       </c>
       <c r="O50">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="P50">
-        <v>3.2</v>
+        <v>2.45</v>
       </c>
       <c r="Q50">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R50">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S50">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T50">
         <v>2.75</v>
       </c>
       <c r="U50">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V50">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W50">
         <v>-1</v>
       </c>
       <c r="X50">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="Y50">
         <v>-1</v>
       </c>
       <c r="Z50">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA50">
-        <v>0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB50">
         <v>-1</v>
       </c>
       <c r="AC50">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -5121,7 +5121,7 @@
         <v>45203.65625</v>
       </c>
       <c r="F51" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G51" t="s">
         <v>61</v>
@@ -5376,7 +5376,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>7319624</v>
+        <v>7319608</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5391,7 +5391,7 @@
         <v>66</v>
       </c>
       <c r="G54" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="H54">
         <v>3</v>
@@ -5403,31 +5403,31 @@
         <v>89</v>
       </c>
       <c r="K54">
-        <v>2.4</v>
+        <v>1.95</v>
       </c>
       <c r="L54">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="M54">
-        <v>2.4</v>
+        <v>2.75</v>
       </c>
       <c r="N54">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="O54">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P54">
-        <v>2.4</v>
+        <v>2.75</v>
       </c>
       <c r="Q54">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R54">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S54">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T54">
         <v>2.75</v>
@@ -5439,7 +5439,7 @@
         <v>1.9</v>
       </c>
       <c r="W54">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="X54">
         <v>-1</v>
@@ -5448,7 +5448,7 @@
         <v>-1</v>
       </c>
       <c r="Z54">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AA54">
         <v>-1</v>
@@ -5465,7 +5465,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>7319608</v>
+        <v>7319624</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5480,7 +5480,7 @@
         <v>67</v>
       </c>
       <c r="G55" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="H55">
         <v>3</v>
@@ -5492,31 +5492,31 @@
         <v>89</v>
       </c>
       <c r="K55">
-        <v>1.95</v>
+        <v>2.4</v>
       </c>
       <c r="L55">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="M55">
-        <v>2.75</v>
+        <v>2.4</v>
       </c>
       <c r="N55">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="O55">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P55">
-        <v>2.75</v>
+        <v>2.4</v>
       </c>
       <c r="Q55">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R55">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S55">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T55">
         <v>2.75</v>
@@ -5528,7 +5528,7 @@
         <v>1.9</v>
       </c>
       <c r="W55">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="X55">
         <v>-1</v>
@@ -5537,7 +5537,7 @@
         <v>-1</v>
       </c>
       <c r="Z55">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA55">
         <v>-1</v>
@@ -5836,7 +5836,7 @@
         <v>56</v>
       </c>
       <c r="G59" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="H59">
         <v>2</v>
@@ -5922,7 +5922,7 @@
         <v>45216.65625</v>
       </c>
       <c r="F60" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G60" t="s">
         <v>68</v>
@@ -6103,7 +6103,7 @@
         <v>69</v>
       </c>
       <c r="G62" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H62">
         <v>2</v>
@@ -6192,7 +6192,7 @@
         <v>46</v>
       </c>
       <c r="G63" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H63">
         <v>2</v>
@@ -6278,10 +6278,10 @@
         <v>45220.45833333334</v>
       </c>
       <c r="F64" t="s">
+        <v>52</v>
+      </c>
+      <c r="G64" t="s">
         <v>53</v>
-      </c>
-      <c r="G64" t="s">
-        <v>52</v>
       </c>
       <c r="H64">
         <v>1</v>
@@ -6459,7 +6459,7 @@
         <v>71</v>
       </c>
       <c r="G66" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H66">
         <v>1</v>
@@ -6533,7 +6533,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>7395879</v>
+        <v>7395812</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6545,76 +6545,76 @@
         <v>45227.45833333334</v>
       </c>
       <c r="F67" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G67" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I67">
         <v>1</v>
       </c>
       <c r="J67" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K67">
-        <v>1.727</v>
+        <v>2</v>
       </c>
       <c r="L67">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M67">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="N67">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="O67">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P67">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="Q67">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R67">
+        <v>1.8</v>
+      </c>
+      <c r="S67">
+        <v>2</v>
+      </c>
+      <c r="T67">
+        <v>2.75</v>
+      </c>
+      <c r="U67">
+        <v>1.75</v>
+      </c>
+      <c r="V67">
         <v>1.95</v>
       </c>
-      <c r="S67">
-        <v>1.85</v>
-      </c>
-      <c r="T67">
-        <v>3</v>
-      </c>
-      <c r="U67">
-        <v>1.9</v>
-      </c>
-      <c r="V67">
-        <v>1.9</v>
-      </c>
       <c r="W67">
         <v>-1</v>
       </c>
       <c r="X67">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y67">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Z67">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA67">
-        <v>0.8500000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AB67">
         <v>-1</v>
       </c>
       <c r="AC67">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="68" spans="1:29">
@@ -6711,7 +6711,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>7395812</v>
+        <v>7395879</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6723,76 +6723,76 @@
         <v>45227.45833333334</v>
       </c>
       <c r="F69" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G69" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="H69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69">
         <v>1</v>
       </c>
       <c r="J69" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K69">
-        <v>2</v>
+        <v>1.727</v>
       </c>
       <c r="L69">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M69">
+        <v>3.75</v>
+      </c>
+      <c r="N69">
+        <v>1.7</v>
+      </c>
+      <c r="O69">
+        <v>3.75</v>
+      </c>
+      <c r="P69">
+        <v>3.8</v>
+      </c>
+      <c r="Q69">
+        <v>-0.75</v>
+      </c>
+      <c r="R69">
+        <v>1.95</v>
+      </c>
+      <c r="S69">
+        <v>1.85</v>
+      </c>
+      <c r="T69">
         <v>3</v>
       </c>
-      <c r="N69">
-        <v>2</v>
-      </c>
-      <c r="O69">
-        <v>3.6</v>
-      </c>
-      <c r="P69">
-        <v>3</v>
-      </c>
-      <c r="Q69">
-        <v>-0.25</v>
-      </c>
-      <c r="R69">
-        <v>1.8</v>
-      </c>
-      <c r="S69">
-        <v>2</v>
-      </c>
-      <c r="T69">
-        <v>2.75</v>
-      </c>
       <c r="U69">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="V69">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W69">
         <v>-1</v>
       </c>
       <c r="X69">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y69">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z69">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA69">
-        <v>0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB69">
         <v>-1</v>
       </c>
       <c r="AC69">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -6815,7 +6815,7 @@
         <v>72</v>
       </c>
       <c r="G70" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H70">
         <v>2</v>
@@ -7079,7 +7079,7 @@
         <v>45237.69791666666</v>
       </c>
       <c r="F73" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G73" t="s">
         <v>39</v>
@@ -7346,7 +7346,7 @@
         <v>45237.69791666666</v>
       </c>
       <c r="F76" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G76" t="s">
         <v>71</v>
@@ -7613,10 +7613,10 @@
         <v>45244.69791666666</v>
       </c>
       <c r="F79" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G79" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H79">
         <v>4</v>
@@ -7702,7 +7702,7 @@
         <v>45244.69791666666</v>
       </c>
       <c r="F80" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G80" t="s">
         <v>46</v>
@@ -7880,10 +7880,10 @@
         <v>45252.69791666666</v>
       </c>
       <c r="F82" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G82" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H82">
         <v>2</v>
@@ -8325,10 +8325,10 @@
         <v>45269.5</v>
       </c>
       <c r="F87" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G87" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="H87">
         <v>0</v>
@@ -8503,10 +8503,10 @@
         <v>45272.69791666666</v>
       </c>
       <c r="F89" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G89" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H89">
         <v>0</v>
@@ -8859,7 +8859,7 @@
         <v>45282.69791666666</v>
       </c>
       <c r="F93" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G93" t="s">
         <v>29</v>
@@ -8948,10 +8948,10 @@
         <v>45283.5</v>
       </c>
       <c r="F94" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G94" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="H94">
         <v>1</v>
@@ -9114,7 +9114,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>7624929</v>
+        <v>7624928</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -9126,58 +9126,58 @@
         <v>45286.41666666666</v>
       </c>
       <c r="F96" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="G96" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J96" t="s">
         <v>89</v>
       </c>
       <c r="K96">
-        <v>1.727</v>
+        <v>2.75</v>
       </c>
       <c r="L96">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="M96">
-        <v>3.5</v>
+        <v>2.25</v>
       </c>
       <c r="N96">
+        <v>2.9</v>
+      </c>
+      <c r="O96">
+        <v>3.3</v>
+      </c>
+      <c r="P96">
+        <v>2.25</v>
+      </c>
+      <c r="Q96">
+        <v>0.25</v>
+      </c>
+      <c r="R96">
+        <v>1.85</v>
+      </c>
+      <c r="S96">
         <v>1.95</v>
-      </c>
-      <c r="O96">
-        <v>3.8</v>
-      </c>
-      <c r="P96">
-        <v>3</v>
-      </c>
-      <c r="Q96">
-        <v>-0.25</v>
-      </c>
-      <c r="R96">
-        <v>1.8</v>
-      </c>
-      <c r="S96">
-        <v>2</v>
       </c>
       <c r="T96">
         <v>2.75</v>
       </c>
       <c r="U96">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V96">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W96">
-        <v>0.95</v>
+        <v>1.9</v>
       </c>
       <c r="X96">
         <v>-1</v>
@@ -9186,16 +9186,16 @@
         <v>-1</v>
       </c>
       <c r="Z96">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA96">
         <v>-1</v>
       </c>
       <c r="AB96">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AC96">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="97" spans="1:29">
@@ -9203,7 +9203,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>7624928</v>
+        <v>7624929</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9215,58 +9215,58 @@
         <v>45286.41666666666</v>
       </c>
       <c r="F97" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="G97" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H97">
+        <v>2</v>
+      </c>
+      <c r="I97">
         <v>1</v>
-      </c>
-      <c r="I97">
-        <v>0</v>
       </c>
       <c r="J97" t="s">
         <v>89</v>
       </c>
       <c r="K97">
-        <v>2.75</v>
+        <v>1.727</v>
       </c>
       <c r="L97">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="M97">
-        <v>2.25</v>
+        <v>3.5</v>
       </c>
       <c r="N97">
-        <v>2.9</v>
+        <v>1.95</v>
       </c>
       <c r="O97">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="P97">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="Q97">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R97">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S97">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T97">
         <v>2.75</v>
       </c>
       <c r="U97">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V97">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W97">
-        <v>1.9</v>
+        <v>0.95</v>
       </c>
       <c r="X97">
         <v>-1</v>
@@ -9275,16 +9275,16 @@
         <v>-1</v>
       </c>
       <c r="Z97">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AA97">
         <v>-1</v>
       </c>
       <c r="AB97">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AC97">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="98" spans="1:29">
@@ -9307,7 +9307,7 @@
         <v>39</v>
       </c>
       <c r="G98" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H98">
         <v>1</v>
@@ -9396,7 +9396,7 @@
         <v>69</v>
       </c>
       <c r="G99" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H99">
         <v>1</v>
@@ -9485,7 +9485,7 @@
         <v>70</v>
       </c>
       <c r="G100" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H100">
         <v>2</v>
@@ -9559,7 +9559,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>7639918</v>
+        <v>7639915</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9571,49 +9571,49 @@
         <v>45290.5</v>
       </c>
       <c r="F101" t="s">
-        <v>31</v>
+        <v>73</v>
       </c>
       <c r="G101" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J101" t="s">
         <v>89</v>
       </c>
       <c r="K101">
-        <v>2.5</v>
+        <v>1.3</v>
       </c>
       <c r="L101">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="M101">
-        <v>2.35</v>
+        <v>7</v>
       </c>
       <c r="N101">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="O101">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="P101">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="Q101">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R101">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S101">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T101">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U101">
         <v>1.95</v>
@@ -9622,7 +9622,7 @@
         <v>1.85</v>
       </c>
       <c r="W101">
-        <v>1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X101">
         <v>-1</v>
@@ -9631,16 +9631,16 @@
         <v>-1</v>
       </c>
       <c r="Z101">
-        <v>0.8</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA101">
         <v>-1</v>
       </c>
       <c r="AB101">
-        <v>0.475</v>
+        <v>0.95</v>
       </c>
       <c r="AC101">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9648,7 +9648,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>7640085</v>
+        <v>7639918</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9660,49 +9660,49 @@
         <v>45290.5</v>
       </c>
       <c r="F102" t="s">
-        <v>73</v>
+        <v>31</v>
       </c>
       <c r="G102" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H102">
+        <v>2</v>
+      </c>
+      <c r="I102">
         <v>1</v>
       </c>
-      <c r="I102">
-        <v>2</v>
-      </c>
       <c r="J102" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K102">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="L102">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M102">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="N102">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="O102">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P102">
-        <v>2.55</v>
+        <v>3</v>
       </c>
       <c r="Q102">
         <v>-0.25</v>
       </c>
       <c r="R102">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S102">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T102">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U102">
         <v>1.95</v>
@@ -9711,25 +9711,25 @@
         <v>1.85</v>
       </c>
       <c r="W102">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X102">
         <v>-1</v>
       </c>
       <c r="Y102">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="Z102">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA102">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB102">
-        <v>0</v>
+        <v>0.475</v>
       </c>
       <c r="AC102">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -9737,7 +9737,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>7639915</v>
+        <v>7640085</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9752,46 +9752,46 @@
         <v>74</v>
       </c>
       <c r="G103" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H103">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I103">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J103" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K103">
-        <v>1.3</v>
+        <v>2.25</v>
       </c>
       <c r="L103">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M103">
-        <v>7</v>
+        <v>2.4</v>
       </c>
       <c r="N103">
-        <v>1.4</v>
+        <v>2.15</v>
       </c>
       <c r="O103">
-        <v>4.75</v>
+        <v>3.8</v>
       </c>
       <c r="P103">
-        <v>5.5</v>
+        <v>2.55</v>
       </c>
       <c r="Q103">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R103">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S103">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T103">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U103">
         <v>1.95</v>
@@ -9800,25 +9800,25 @@
         <v>1.85</v>
       </c>
       <c r="W103">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X103">
         <v>-1</v>
       </c>
       <c r="Y103">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="Z103">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA103">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB103">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AC103">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9838,10 +9838,10 @@
         <v>45292.375</v>
       </c>
       <c r="F104" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G104" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H104">
         <v>3</v>
@@ -9915,7 +9915,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>7649184</v>
+        <v>7649124</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9927,58 +9927,58 @@
         <v>45292.5</v>
       </c>
       <c r="F105" t="s">
-        <v>66</v>
+        <v>30</v>
       </c>
       <c r="G105" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I105">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J105" t="s">
         <v>89</v>
       </c>
       <c r="K105">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="L105">
         <v>3.75</v>
       </c>
       <c r="M105">
-        <v>3.4</v>
+        <v>2.25</v>
       </c>
       <c r="N105">
-        <v>1.7</v>
+        <v>2.55</v>
       </c>
       <c r="O105">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P105">
-        <v>3.75</v>
+        <v>2.25</v>
       </c>
       <c r="Q105">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R105">
-        <v>1.95</v>
+        <v>1.725</v>
       </c>
       <c r="S105">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T105">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U105">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="V105">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W105">
-        <v>0.7</v>
+        <v>1.55</v>
       </c>
       <c r="X105">
         <v>-1</v>
@@ -9987,16 +9987,16 @@
         <v>-1</v>
       </c>
       <c r="Z105">
-        <v>0.95</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA105">
         <v>-1</v>
       </c>
       <c r="AB105">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC105">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -10004,7 +10004,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>7649124</v>
+        <v>7649184</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -10016,58 +10016,58 @@
         <v>45292.5</v>
       </c>
       <c r="F106" t="s">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="G106" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="H106">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I106">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J106" t="s">
         <v>89</v>
       </c>
       <c r="K106">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="L106">
         <v>3.75</v>
       </c>
       <c r="M106">
-        <v>2.25</v>
+        <v>3.4</v>
       </c>
       <c r="N106">
-        <v>2.55</v>
+        <v>1.7</v>
       </c>
       <c r="O106">
+        <v>3.8</v>
+      </c>
+      <c r="P106">
         <v>3.75</v>
       </c>
-      <c r="P106">
-        <v>2.25</v>
-      </c>
       <c r="Q106">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R106">
-        <v>1.725</v>
+        <v>1.95</v>
       </c>
       <c r="S106">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T106">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U106">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="V106">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W106">
-        <v>1.55</v>
+        <v>0.7</v>
       </c>
       <c r="X106">
         <v>-1</v>
@@ -10076,16 +10076,16 @@
         <v>-1</v>
       </c>
       <c r="Z106">
-        <v>0.7250000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AA106">
         <v>-1</v>
       </c>
       <c r="AB106">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC106">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="107" spans="1:29">
@@ -10182,7 +10182,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>7649295</v>
+        <v>7649294</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10194,76 +10194,76 @@
         <v>45292.5</v>
       </c>
       <c r="F108" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="G108" t="s">
-        <v>87</v>
+        <v>36</v>
       </c>
       <c r="H108">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I108">
         <v>2</v>
       </c>
       <c r="J108" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K108">
-        <v>1.909</v>
+        <v>2.25</v>
       </c>
       <c r="L108">
         <v>3.6</v>
       </c>
       <c r="M108">
-        <v>3.2</v>
+        <v>2.55</v>
       </c>
       <c r="N108">
-        <v>1.909</v>
+        <v>1.65</v>
       </c>
       <c r="O108">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P108">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="Q108">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R108">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S108">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T108">
         <v>2.75</v>
       </c>
       <c r="U108">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="V108">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W108">
         <v>-1</v>
       </c>
       <c r="X108">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y108">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z108">
         <v>-1</v>
       </c>
       <c r="AA108">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AB108">
-        <v>0.4125</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC108">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10271,7 +10271,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>7649294</v>
+        <v>7649295</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10283,76 +10283,76 @@
         <v>45292.5</v>
       </c>
       <c r="F109" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="G109" t="s">
-        <v>36</v>
+        <v>87</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I109">
         <v>2</v>
       </c>
       <c r="J109" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K109">
-        <v>2.25</v>
+        <v>1.909</v>
       </c>
       <c r="L109">
         <v>3.6</v>
       </c>
       <c r="M109">
-        <v>2.55</v>
+        <v>3.2</v>
       </c>
       <c r="N109">
-        <v>1.65</v>
+        <v>1.909</v>
       </c>
       <c r="O109">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P109">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="Q109">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R109">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S109">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T109">
         <v>2.75</v>
       </c>
       <c r="U109">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="V109">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W109">
         <v>-1</v>
       </c>
       <c r="X109">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y109">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z109">
         <v>-1</v>
       </c>
       <c r="AA109">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AB109">
-        <v>0.7749999999999999</v>
+        <v>0.4125</v>
       </c>
       <c r="AC109">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="110" spans="1:29">
@@ -10372,7 +10372,7 @@
         <v>45297.5</v>
       </c>
       <c r="F110" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G110" t="s">
         <v>57</v>
@@ -10464,7 +10464,7 @@
         <v>77</v>
       </c>
       <c r="G111" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H111">
         <v>0</v>
@@ -10716,7 +10716,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>7674973</v>
+        <v>7675037</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10728,76 +10728,76 @@
         <v>45300.69791666666</v>
       </c>
       <c r="F114" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="G114" t="s">
-        <v>53</v>
+        <v>85</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I114">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J114" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K114">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="L114">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M114">
-        <v>3.4</v>
+        <v>2.6</v>
       </c>
       <c r="N114">
-        <v>1.8</v>
+        <v>2.375</v>
       </c>
       <c r="O114">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P114">
-        <v>3.4</v>
+        <v>2.45</v>
       </c>
       <c r="Q114">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R114">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S114">
+        <v>1.925</v>
+      </c>
+      <c r="T114">
+        <v>2.75</v>
+      </c>
+      <c r="U114">
+        <v>1.75</v>
+      </c>
+      <c r="V114">
         <v>1.95</v>
       </c>
-      <c r="T114">
-        <v>3</v>
-      </c>
-      <c r="U114">
-        <v>1.825</v>
-      </c>
-      <c r="V114">
-        <v>1.975</v>
-      </c>
       <c r="W114">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X114">
         <v>-1</v>
       </c>
       <c r="Y114">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z114">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA114">
+        <v>-1</v>
+      </c>
+      <c r="AB114">
+        <v>-1</v>
+      </c>
+      <c r="AC114">
         <v>0.95</v>
-      </c>
-      <c r="AB114">
-        <v>-1</v>
-      </c>
-      <c r="AC114">
-        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="115" spans="1:29">
@@ -10805,7 +10805,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>7674972</v>
+        <v>7674973</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10817,46 +10817,46 @@
         <v>45300.69791666666</v>
       </c>
       <c r="F115" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G115" t="s">
-        <v>84</v>
+        <v>52</v>
       </c>
       <c r="H115">
+        <v>0</v>
+      </c>
+      <c r="I115">
         <v>1</v>
-      </c>
-      <c r="I115">
-        <v>2</v>
       </c>
       <c r="J115" t="s">
         <v>91</v>
       </c>
       <c r="K115">
-        <v>2.375</v>
+        <v>1.8</v>
       </c>
       <c r="L115">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M115">
-        <v>2.375</v>
+        <v>3.4</v>
       </c>
       <c r="N115">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="O115">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P115">
-        <v>2.55</v>
+        <v>3.4</v>
       </c>
       <c r="Q115">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R115">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S115">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T115">
         <v>3</v>
@@ -10874,19 +10874,19 @@
         <v>-1</v>
       </c>
       <c r="Y115">
-        <v>1.55</v>
+        <v>2.4</v>
       </c>
       <c r="Z115">
         <v>-1</v>
       </c>
       <c r="AA115">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AB115">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC115">
-        <v>-0</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="116" spans="1:29">
@@ -10894,7 +10894,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>7674710</v>
+        <v>7674972</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10906,76 +10906,76 @@
         <v>45300.69791666666</v>
       </c>
       <c r="F116" t="s">
-        <v>78</v>
+        <v>42</v>
       </c>
       <c r="G116" t="s">
-        <v>37</v>
+        <v>84</v>
       </c>
       <c r="H116">
         <v>1</v>
       </c>
       <c r="I116">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J116" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K116">
-        <v>1.2</v>
+        <v>2.375</v>
       </c>
       <c r="L116">
-        <v>6.5</v>
+        <v>3.6</v>
       </c>
       <c r="M116">
-        <v>8</v>
+        <v>2.375</v>
       </c>
       <c r="N116">
-        <v>1.181</v>
+        <v>2.2</v>
       </c>
       <c r="O116">
-        <v>6.5</v>
+        <v>3.6</v>
       </c>
       <c r="P116">
-        <v>10</v>
+        <v>2.55</v>
       </c>
       <c r="Q116">
-        <v>-2.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R116">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S116">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T116">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="U116">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V116">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="W116">
-        <v>0.181</v>
+        <v>-1</v>
       </c>
       <c r="X116">
         <v>-1</v>
       </c>
       <c r="Y116">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="Z116">
         <v>-1</v>
       </c>
       <c r="AA116">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AB116">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC116">
-        <v>0.7749999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="117" spans="1:29">
@@ -10983,7 +10983,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>7675037</v>
+        <v>7674710</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10995,10 +10995,10 @@
         <v>45300.69791666666</v>
       </c>
       <c r="F117" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="G117" t="s">
-        <v>85</v>
+        <v>37</v>
       </c>
       <c r="H117">
         <v>1</v>
@@ -11010,43 +11010,43 @@
         <v>89</v>
       </c>
       <c r="K117">
-        <v>2.25</v>
+        <v>1.2</v>
       </c>
       <c r="L117">
-        <v>3.5</v>
+        <v>6.5</v>
       </c>
       <c r="M117">
-        <v>2.6</v>
+        <v>8</v>
       </c>
       <c r="N117">
-        <v>2.375</v>
+        <v>1.181</v>
       </c>
       <c r="O117">
-        <v>3.5</v>
+        <v>6.5</v>
       </c>
       <c r="P117">
-        <v>2.45</v>
+        <v>10</v>
       </c>
       <c r="Q117">
-        <v>0</v>
+        <v>-2.25</v>
       </c>
       <c r="R117">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S117">
+        <v>1.85</v>
+      </c>
+      <c r="T117">
+        <v>3.75</v>
+      </c>
+      <c r="U117">
         <v>1.925</v>
       </c>
-      <c r="T117">
-        <v>2.75</v>
-      </c>
-      <c r="U117">
-        <v>1.75</v>
-      </c>
       <c r="V117">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="W117">
-        <v>1.375</v>
+        <v>0.181</v>
       </c>
       <c r="X117">
         <v>-1</v>
@@ -11055,16 +11055,16 @@
         <v>-1</v>
       </c>
       <c r="Z117">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA117">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB117">
         <v>-1</v>
       </c>
       <c r="AC117">
-        <v>0.95</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="118" spans="1:29">
@@ -11176,7 +11176,7 @@
         <v>33</v>
       </c>
       <c r="G119" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H119">
         <v>2</v>
@@ -11262,10 +11262,10 @@
         <v>45304.5</v>
       </c>
       <c r="F120" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G120" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H120">
         <v>2</v>
@@ -11354,7 +11354,7 @@
         <v>70</v>
       </c>
       <c r="G121" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="H121">
         <v>2</v>
@@ -11529,7 +11529,7 @@
         <v>45307.69791666666</v>
       </c>
       <c r="F123" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G123" t="s">
         <v>88</v>
@@ -11618,10 +11618,10 @@
         <v>45311.5</v>
       </c>
       <c r="F124" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G124" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H124">
         <v>3</v>
@@ -11707,7 +11707,7 @@
         <v>45311.5</v>
       </c>
       <c r="F125" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G125" t="s">
         <v>42</v>
@@ -11796,7 +11796,7 @@
         <v>45311.5</v>
       </c>
       <c r="F126" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G126" t="s">
         <v>59</v>
@@ -11885,10 +11885,10 @@
         <v>45311.5</v>
       </c>
       <c r="F127" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G127" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H127">
         <v>0</v>
@@ -12066,7 +12066,7 @@
         <v>32</v>
       </c>
       <c r="G129" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H129">
         <v>0</v>
@@ -12155,7 +12155,7 @@
         <v>33</v>
       </c>
       <c r="G130" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H130">
         <v>1</v>
@@ -12330,7 +12330,7 @@
         <v>45321.69791666666</v>
       </c>
       <c r="F132" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G132" t="s">
         <v>87</v>
@@ -12419,7 +12419,7 @@
         <v>45321.69791666666</v>
       </c>
       <c r="F133" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G133" t="s">
         <v>79</v>
@@ -12597,7 +12597,7 @@
         <v>45321.69791666666</v>
       </c>
       <c r="F135" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G135" t="s">
         <v>31</v>
@@ -12689,7 +12689,7 @@
         <v>80</v>
       </c>
       <c r="G136" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H136">
         <v>3</v>
@@ -12867,7 +12867,7 @@
         <v>75</v>
       </c>
       <c r="G138" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H138">
         <v>1</v>
@@ -13042,7 +13042,7 @@
         <v>45328.69791666666</v>
       </c>
       <c r="F140" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G140" t="s">
         <v>80</v>
@@ -13134,7 +13134,7 @@
         <v>33</v>
       </c>
       <c r="G141" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H141">
         <v>1</v>
@@ -13309,7 +13309,7 @@
         <v>45332.5</v>
       </c>
       <c r="F143" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G143" t="s">
         <v>86</v>
@@ -13401,7 +13401,7 @@
         <v>31</v>
       </c>
       <c r="G144" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H144">
         <v>2</v>
@@ -13475,7 +13475,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>7844461</v>
+        <v>7844462</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13487,76 +13487,76 @@
         <v>45339.5</v>
       </c>
       <c r="F145" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="G145" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="H145">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I145">
         <v>1</v>
       </c>
       <c r="J145" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K145">
-        <v>1.6</v>
+        <v>2.4</v>
       </c>
       <c r="L145">
         <v>4</v>
       </c>
       <c r="M145">
-        <v>4.2</v>
+        <v>2.25</v>
       </c>
       <c r="N145">
-        <v>1.75</v>
+        <v>2.875</v>
       </c>
       <c r="O145">
         <v>4</v>
       </c>
       <c r="P145">
-        <v>3.4</v>
+        <v>1.95</v>
       </c>
       <c r="Q145">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R145">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S145">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T145">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U145">
+        <v>1.95</v>
+      </c>
+      <c r="V145">
         <v>1.85</v>
       </c>
-      <c r="V145">
-        <v>1.95</v>
-      </c>
       <c r="W145">
         <v>-1</v>
       </c>
       <c r="X145">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y145">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z145">
         <v>-1</v>
       </c>
       <c r="AA145">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AB145">
         <v>-1</v>
       </c>
       <c r="AC145">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="146" spans="1:29">
@@ -13564,7 +13564,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>7844462</v>
+        <v>7844460</v>
       </c>
       <c r="C146" t="s">
         <v>28</v>
@@ -13576,76 +13576,76 @@
         <v>45339.5</v>
       </c>
       <c r="F146" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="G146" t="s">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I146">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J146" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K146">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="L146">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="M146">
-        <v>2.25</v>
+        <v>3.4</v>
       </c>
       <c r="N146">
-        <v>2.875</v>
+        <v>1.8</v>
       </c>
       <c r="O146">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P146">
-        <v>1.95</v>
+        <v>3.3</v>
       </c>
       <c r="Q146">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R146">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="S146">
         <v>1.95</v>
       </c>
       <c r="T146">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U146">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V146">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W146">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X146">
         <v>-1</v>
       </c>
       <c r="Y146">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z146">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA146">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB146">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC146">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="147" spans="1:29">
@@ -13653,7 +13653,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>7844458</v>
+        <v>7844461</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13665,76 +13665,76 @@
         <v>45339.5</v>
       </c>
       <c r="F147" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="G147" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I147">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J147" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K147">
-        <v>3.6</v>
+        <v>1.6</v>
       </c>
       <c r="L147">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M147">
+        <v>4.2</v>
+      </c>
+      <c r="N147">
+        <v>1.75</v>
+      </c>
+      <c r="O147">
+        <v>4</v>
+      </c>
+      <c r="P147">
+        <v>3.4</v>
+      </c>
+      <c r="Q147">
+        <v>-0.5</v>
+      </c>
+      <c r="R147">
         <v>1.8</v>
       </c>
-      <c r="N147">
-        <v>4.5</v>
-      </c>
-      <c r="O147">
-        <v>3.6</v>
-      </c>
-      <c r="P147">
-        <v>1.571</v>
-      </c>
-      <c r="Q147">
+      <c r="S147">
+        <v>2</v>
+      </c>
+      <c r="T147">
+        <v>2.75</v>
+      </c>
+      <c r="U147">
+        <v>1.85</v>
+      </c>
+      <c r="V147">
+        <v>1.95</v>
+      </c>
+      <c r="W147">
+        <v>-1</v>
+      </c>
+      <c r="X147">
+        <v>3</v>
+      </c>
+      <c r="Y147">
+        <v>-1</v>
+      </c>
+      <c r="Z147">
+        <v>-1</v>
+      </c>
+      <c r="AA147">
         <v>1</v>
       </c>
-      <c r="R147">
-        <v>1.75</v>
-      </c>
-      <c r="S147">
-        <v>1.95</v>
-      </c>
-      <c r="T147">
-        <v>3</v>
-      </c>
-      <c r="U147">
-        <v>1.95</v>
-      </c>
-      <c r="V147">
-        <v>1.85</v>
-      </c>
-      <c r="W147">
-        <v>-1</v>
-      </c>
-      <c r="X147">
-        <v>-1</v>
-      </c>
-      <c r="Y147">
-        <v>0.571</v>
-      </c>
-      <c r="Z147">
-        <v>-1</v>
-      </c>
-      <c r="AA147">
+      <c r="AB147">
+        <v>-1</v>
+      </c>
+      <c r="AC147">
         <v>0.95</v>
-      </c>
-      <c r="AB147">
-        <v>-1</v>
-      </c>
-      <c r="AC147">
-        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="148" spans="1:29">
@@ -13742,7 +13742,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>7844459</v>
+        <v>7844458</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13754,76 +13754,76 @@
         <v>45339.5</v>
       </c>
       <c r="F148" t="s">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="G148" t="s">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="H148">
+        <v>0</v>
+      </c>
+      <c r="I148">
+        <v>2</v>
+      </c>
+      <c r="J148" t="s">
+        <v>91</v>
+      </c>
+      <c r="K148">
+        <v>3.6</v>
+      </c>
+      <c r="L148">
+        <v>3.6</v>
+      </c>
+      <c r="M148">
+        <v>1.8</v>
+      </c>
+      <c r="N148">
+        <v>4.5</v>
+      </c>
+      <c r="O148">
+        <v>3.6</v>
+      </c>
+      <c r="P148">
+        <v>1.571</v>
+      </c>
+      <c r="Q148">
+        <v>1</v>
+      </c>
+      <c r="R148">
+        <v>1.75</v>
+      </c>
+      <c r="S148">
+        <v>1.95</v>
+      </c>
+      <c r="T148">
         <v>3</v>
       </c>
-      <c r="I148">
-        <v>0</v>
-      </c>
-      <c r="J148" t="s">
-        <v>89</v>
-      </c>
-      <c r="K148">
-        <v>1.4</v>
-      </c>
-      <c r="L148">
-        <v>4.5</v>
-      </c>
-      <c r="M148">
-        <v>5.5</v>
-      </c>
-      <c r="N148">
-        <v>1.4</v>
-      </c>
-      <c r="O148">
-        <v>4.5</v>
-      </c>
-      <c r="P148">
-        <v>5.25</v>
-      </c>
-      <c r="Q148">
-        <v>-1.25</v>
-      </c>
-      <c r="R148">
-        <v>1.9</v>
-      </c>
-      <c r="S148">
-        <v>1.9</v>
-      </c>
-      <c r="T148">
-        <v>2.75</v>
-      </c>
       <c r="U148">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V148">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W148">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X148">
         <v>-1</v>
       </c>
       <c r="Y148">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="Z148">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA148">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB148">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AC148">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="149" spans="1:29">
@@ -13831,7 +13831,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>7844460</v>
+        <v>7844459</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -13843,58 +13843,58 @@
         <v>45339.5</v>
       </c>
       <c r="F149" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G149" t="s">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="H149">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I149">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J149" t="s">
         <v>89</v>
       </c>
       <c r="K149">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="L149">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="M149">
-        <v>3.4</v>
+        <v>5.5</v>
       </c>
       <c r="N149">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="O149">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="P149">
-        <v>3.3</v>
+        <v>5.25</v>
       </c>
       <c r="Q149">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R149">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S149">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T149">
         <v>2.75</v>
       </c>
       <c r="U149">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V149">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W149">
-        <v>0.8</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X149">
         <v>-1</v>
@@ -13903,16 +13903,16 @@
         <v>-1</v>
       </c>
       <c r="Z149">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA149">
         <v>-1</v>
       </c>
       <c r="AB149">
-        <v>0.8</v>
+        <v>0.45</v>
       </c>
       <c r="AC149">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="150" spans="1:29">
@@ -13932,10 +13932,10 @@
         <v>45342.69791666666</v>
       </c>
       <c r="F150" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G150" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H150">
         <v>1</v>
@@ -14113,7 +14113,7 @@
         <v>32</v>
       </c>
       <c r="G152" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H152">
         <v>2</v>
@@ -14187,7 +14187,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>7915178</v>
+        <v>7915177</v>
       </c>
       <c r="C153" t="s">
         <v>28</v>
@@ -14199,76 +14199,76 @@
         <v>45356.69791666666</v>
       </c>
       <c r="F153" t="s">
-        <v>80</v>
+        <v>29</v>
       </c>
       <c r="G153" t="s">
-        <v>85</v>
+        <v>52</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I153">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J153" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K153">
-        <v>2.6</v>
+        <v>1.8</v>
       </c>
       <c r="L153">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M153">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="N153">
-        <v>2.5</v>
+        <v>1.85</v>
       </c>
       <c r="O153">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="P153">
-        <v>2.1</v>
+        <v>2.875</v>
       </c>
       <c r="Q153">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R153">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S153">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T153">
         <v>3</v>
       </c>
       <c r="U153">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V153">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W153">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X153">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y153">
         <v>-1</v>
       </c>
       <c r="Z153">
-        <v>0.4125</v>
+        <v>0.925</v>
       </c>
       <c r="AA153">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB153">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC153">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="154" spans="1:29">
@@ -14276,7 +14276,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>7915179</v>
+        <v>7915228</v>
       </c>
       <c r="C154" t="s">
         <v>28</v>
@@ -14288,40 +14288,40 @@
         <v>45356.69791666666</v>
       </c>
       <c r="F154" t="s">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="G154" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="H154">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I154">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J154" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K154">
-        <v>2.25</v>
+        <v>3.75</v>
       </c>
       <c r="L154">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="M154">
-        <v>2.25</v>
+        <v>1.571</v>
       </c>
       <c r="N154">
-        <v>2.25</v>
+        <v>3.4</v>
       </c>
       <c r="O154">
         <v>4.5</v>
       </c>
       <c r="P154">
-        <v>2.25</v>
+        <v>1.666</v>
       </c>
       <c r="Q154">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R154">
         <v>1.9</v>
@@ -14333,28 +14333,28 @@
         <v>3</v>
       </c>
       <c r="U154">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V154">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W154">
         <v>-1</v>
       </c>
       <c r="X154">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y154">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z154">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA154">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB154">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AC154">
         <v>-1</v>
@@ -14365,7 +14365,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>7915227</v>
+        <v>7915178</v>
       </c>
       <c r="C155" t="s">
         <v>28</v>
@@ -14377,76 +14377,76 @@
         <v>45356.69791666666</v>
       </c>
       <c r="F155" t="s">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="G155" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="H155">
         <v>0</v>
       </c>
       <c r="I155">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J155" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K155">
+        <v>2.6</v>
+      </c>
+      <c r="L155">
+        <v>4</v>
+      </c>
+      <c r="M155">
+        <v>2.1</v>
+      </c>
+      <c r="N155">
+        <v>2.5</v>
+      </c>
+      <c r="O155">
+        <v>4.2</v>
+      </c>
+      <c r="P155">
+        <v>2.1</v>
+      </c>
+      <c r="Q155">
+        <v>0.25</v>
+      </c>
+      <c r="R155">
+        <v>1.825</v>
+      </c>
+      <c r="S155">
+        <v>1.975</v>
+      </c>
+      <c r="T155">
         <v>3</v>
       </c>
-      <c r="L155">
-        <v>4.5</v>
-      </c>
-      <c r="M155">
-        <v>1.8</v>
-      </c>
-      <c r="N155">
-        <v>3</v>
-      </c>
-      <c r="O155">
-        <v>4.5</v>
-      </c>
-      <c r="P155">
-        <v>1.8</v>
-      </c>
-      <c r="Q155">
-        <v>0.5</v>
-      </c>
-      <c r="R155">
-        <v>1.95</v>
-      </c>
-      <c r="S155">
-        <v>1.85</v>
-      </c>
-      <c r="T155">
-        <v>3.25</v>
-      </c>
       <c r="U155">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V155">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W155">
         <v>-1</v>
       </c>
       <c r="X155">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y155">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z155">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AA155">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB155">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC155">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="156" spans="1:29">
@@ -14454,7 +14454,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>7915228</v>
+        <v>7915179</v>
       </c>
       <c r="C156" t="s">
         <v>28</v>
@@ -14466,40 +14466,40 @@
         <v>45356.69791666666</v>
       </c>
       <c r="F156" t="s">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="G156" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="H156">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I156">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J156" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K156">
-        <v>3.75</v>
+        <v>2.25</v>
       </c>
       <c r="L156">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="M156">
-        <v>1.571</v>
+        <v>2.25</v>
       </c>
       <c r="N156">
-        <v>3.4</v>
+        <v>2.25</v>
       </c>
       <c r="O156">
         <v>4.5</v>
       </c>
       <c r="P156">
-        <v>1.666</v>
+        <v>2.25</v>
       </c>
       <c r="Q156">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R156">
         <v>1.9</v>
@@ -14511,28 +14511,28 @@
         <v>3</v>
       </c>
       <c r="U156">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V156">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W156">
         <v>-1</v>
       </c>
       <c r="X156">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y156">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z156">
+        <v>-1</v>
+      </c>
+      <c r="AA156">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AA156">
-        <v>-1</v>
-      </c>
       <c r="AB156">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AC156">
         <v>-1</v>
@@ -14543,7 +14543,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>7915177</v>
+        <v>7915227</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14555,73 +14555,73 @@
         <v>45356.69791666666</v>
       </c>
       <c r="F157" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="G157" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="H157">
+        <v>0</v>
+      </c>
+      <c r="I157">
+        <v>5</v>
+      </c>
+      <c r="J157" t="s">
+        <v>91</v>
+      </c>
+      <c r="K157">
         <v>3</v>
-      </c>
-      <c r="I157">
-        <v>2</v>
-      </c>
-      <c r="J157" t="s">
-        <v>89</v>
-      </c>
-      <c r="K157">
-        <v>1.8</v>
       </c>
       <c r="L157">
         <v>4.5</v>
       </c>
       <c r="M157">
+        <v>1.8</v>
+      </c>
+      <c r="N157">
         <v>3</v>
-      </c>
-      <c r="N157">
-        <v>1.85</v>
       </c>
       <c r="O157">
         <v>4.5</v>
       </c>
       <c r="P157">
-        <v>2.875</v>
+        <v>1.8</v>
       </c>
       <c r="Q157">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R157">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S157">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T157">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U157">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V157">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W157">
+        <v>-1</v>
+      </c>
+      <c r="X157">
+        <v>-1</v>
+      </c>
+      <c r="Y157">
+        <v>0.8</v>
+      </c>
+      <c r="Z157">
+        <v>-1</v>
+      </c>
+      <c r="AA157">
         <v>0.8500000000000001</v>
       </c>
-      <c r="X157">
-        <v>-1</v>
-      </c>
-      <c r="Y157">
-        <v>-1</v>
-      </c>
-      <c r="Z157">
-        <v>0.925</v>
-      </c>
-      <c r="AA157">
-        <v>-1</v>
-      </c>
       <c r="AB157">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC157">
         <v>-1</v>
@@ -14825,7 +14825,7 @@
         <v>44</v>
       </c>
       <c r="G160" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H160">
         <v>4</v>
@@ -15003,7 +15003,7 @@
         <v>60</v>
       </c>
       <c r="G162" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="H162">
         <v>2</v>
@@ -15089,7 +15089,7 @@
         <v>45370.69791666666</v>
       </c>
       <c r="F163" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G163" t="s">
         <v>81</v>
@@ -15166,7 +15166,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>7976966</v>
+        <v>7976989</v>
       </c>
       <c r="C164" t="s">
         <v>28</v>
@@ -15178,55 +15178,55 @@
         <v>45370.69791666666</v>
       </c>
       <c r="F164" t="s">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="G164" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="H164">
         <v>0</v>
       </c>
       <c r="I164">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J164" t="s">
         <v>91</v>
       </c>
       <c r="K164">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="L164">
+        <v>3.6</v>
+      </c>
+      <c r="M164">
+        <v>1.727</v>
+      </c>
+      <c r="N164">
         <v>4</v>
       </c>
-      <c r="M164">
-        <v>2</v>
-      </c>
-      <c r="N164">
-        <v>2.7</v>
-      </c>
       <c r="O164">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P164">
-        <v>2.1</v>
+        <v>1.727</v>
       </c>
       <c r="Q164">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R164">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S164">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T164">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U164">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V164">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W164">
         <v>-1</v>
@@ -15235,19 +15235,19 @@
         <v>-1</v>
       </c>
       <c r="Y164">
-        <v>1.1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Z164">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA164">
-        <v>0.95</v>
+        <v>0.4875</v>
       </c>
       <c r="AB164">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AC164">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165" spans="1:29">
@@ -15255,7 +15255,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>7976989</v>
+        <v>7976966</v>
       </c>
       <c r="C165" t="s">
         <v>28</v>
@@ -15267,55 +15267,55 @@
         <v>45370.69791666666</v>
       </c>
       <c r="F165" t="s">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="G165" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="H165">
         <v>0</v>
       </c>
       <c r="I165">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J165" t="s">
         <v>91</v>
       </c>
       <c r="K165">
+        <v>2.75</v>
+      </c>
+      <c r="L165">
         <v>4</v>
       </c>
-      <c r="L165">
-        <v>3.6</v>
-      </c>
       <c r="M165">
-        <v>1.727</v>
+        <v>2</v>
       </c>
       <c r="N165">
-        <v>4</v>
+        <v>2.7</v>
       </c>
       <c r="O165">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P165">
-        <v>1.727</v>
+        <v>2.1</v>
       </c>
       <c r="Q165">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R165">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S165">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T165">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U165">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V165">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W165">
         <v>-1</v>
@@ -15324,19 +15324,19 @@
         <v>-1</v>
       </c>
       <c r="Y165">
-        <v>0.7270000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="Z165">
+        <v>-1</v>
+      </c>
+      <c r="AA165">
+        <v>0.95</v>
+      </c>
+      <c r="AB165">
+        <v>0.425</v>
+      </c>
+      <c r="AC165">
         <v>-0.5</v>
-      </c>
-      <c r="AA165">
-        <v>0.4875</v>
-      </c>
-      <c r="AB165">
-        <v>-1</v>
-      </c>
-      <c r="AC165">
-        <v>1</v>
       </c>
     </row>
     <row r="166" spans="1:29">
@@ -15344,7 +15344,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>7976756</v>
+        <v>7976965</v>
       </c>
       <c r="C166" t="s">
         <v>28</v>
@@ -15356,73 +15356,73 @@
         <v>45370.69791666666</v>
       </c>
       <c r="F166" t="s">
-        <v>29</v>
+        <v>79</v>
       </c>
       <c r="G166" t="s">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="H166">
+        <v>3</v>
+      </c>
+      <c r="I166">
         <v>4</v>
       </c>
-      <c r="I166">
-        <v>0</v>
-      </c>
       <c r="J166" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K166">
-        <v>1.571</v>
+        <v>1.8</v>
       </c>
       <c r="L166">
         <v>4</v>
       </c>
       <c r="M166">
-        <v>4.333</v>
+        <v>3.25</v>
       </c>
       <c r="N166">
-        <v>1.571</v>
+        <v>1.8</v>
       </c>
       <c r="O166">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P166">
-        <v>4.5</v>
+        <v>3.25</v>
       </c>
       <c r="Q166">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R166">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S166">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T166">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U166">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V166">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W166">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X166">
         <v>-1</v>
       </c>
       <c r="Y166">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Z166">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA166">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB166">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
       <c r="AC166">
         <v>-1</v>
@@ -15433,7 +15433,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>7976965</v>
+        <v>7976756</v>
       </c>
       <c r="C167" t="s">
         <v>28</v>
@@ -15445,73 +15445,73 @@
         <v>45370.69791666666</v>
       </c>
       <c r="F167" t="s">
-        <v>79</v>
+        <v>29</v>
       </c>
       <c r="G167" t="s">
-        <v>87</v>
+        <v>53</v>
       </c>
       <c r="H167">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I167">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J167" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K167">
-        <v>1.8</v>
+        <v>1.571</v>
       </c>
       <c r="L167">
         <v>4</v>
       </c>
       <c r="M167">
-        <v>3.25</v>
+        <v>4.333</v>
       </c>
       <c r="N167">
+        <v>1.571</v>
+      </c>
+      <c r="O167">
+        <v>3.8</v>
+      </c>
+      <c r="P167">
+        <v>4.5</v>
+      </c>
+      <c r="Q167">
+        <v>-1</v>
+      </c>
+      <c r="R167">
+        <v>1.975</v>
+      </c>
+      <c r="S167">
+        <v>1.825</v>
+      </c>
+      <c r="T167">
+        <v>2.75</v>
+      </c>
+      <c r="U167">
         <v>1.8</v>
       </c>
-      <c r="O167">
-        <v>4</v>
-      </c>
-      <c r="P167">
-        <v>3.25</v>
-      </c>
-      <c r="Q167">
-        <v>-0.5</v>
-      </c>
-      <c r="R167">
-        <v>1.85</v>
-      </c>
-      <c r="S167">
-        <v>1.95</v>
-      </c>
-      <c r="T167">
-        <v>3</v>
-      </c>
-      <c r="U167">
-        <v>1.875</v>
-      </c>
       <c r="V167">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W167">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X167">
         <v>-1</v>
       </c>
       <c r="Y167">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Z167">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA167">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB167">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
       <c r="AC167">
         <v>-1</v>
@@ -15626,7 +15626,7 @@
         <v>32</v>
       </c>
       <c r="G169" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="H169">
         <v>2</v>
@@ -15804,7 +15804,7 @@
         <v>33</v>
       </c>
       <c r="G171" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="H171">
         <v>0</v>
@@ -15967,7 +15967,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>8010864</v>
+        <v>8010865</v>
       </c>
       <c r="C173" t="s">
         <v>28</v>
@@ -15979,58 +15979,58 @@
         <v>45377.69791666666</v>
       </c>
       <c r="F173" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G173" t="s">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="H173">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I173">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J173" t="s">
         <v>89</v>
       </c>
       <c r="K173">
-        <v>2.45</v>
+        <v>1.727</v>
       </c>
       <c r="L173">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="M173">
-        <v>2.1</v>
+        <v>3.5</v>
       </c>
       <c r="N173">
-        <v>2.75</v>
+        <v>1.666</v>
       </c>
       <c r="O173">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="P173">
+        <v>3.75</v>
+      </c>
+      <c r="Q173">
+        <v>-0.75</v>
+      </c>
+      <c r="R173">
+        <v>1.875</v>
+      </c>
+      <c r="S173">
+        <v>1.925</v>
+      </c>
+      <c r="T173">
+        <v>3</v>
+      </c>
+      <c r="U173">
+        <v>1.95</v>
+      </c>
+      <c r="V173">
         <v>1.85</v>
       </c>
-      <c r="Q173">
-        <v>0.5</v>
-      </c>
-      <c r="R173">
-        <v>1.85</v>
-      </c>
-      <c r="S173">
-        <v>1.95</v>
-      </c>
-      <c r="T173">
-        <v>3.25</v>
-      </c>
-      <c r="U173">
-        <v>1.9</v>
-      </c>
-      <c r="V173">
-        <v>1.9</v>
-      </c>
       <c r="W173">
-        <v>1.75</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X173">
         <v>-1</v>
@@ -16039,16 +16039,16 @@
         <v>-1</v>
       </c>
       <c r="Z173">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AA173">
         <v>-1</v>
       </c>
       <c r="AB173">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC173">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="174" spans="1:29">
@@ -16056,7 +16056,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>8010145</v>
+        <v>8010864</v>
       </c>
       <c r="C174" t="s">
         <v>28</v>
@@ -16068,76 +16068,76 @@
         <v>45377.69791666666</v>
       </c>
       <c r="F174" t="s">
-        <v>79</v>
+        <v>43</v>
       </c>
       <c r="G174" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="H174">
+        <v>4</v>
+      </c>
+      <c r="I174">
         <v>1</v>
       </c>
-      <c r="I174">
-        <v>2</v>
-      </c>
       <c r="J174" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K174">
-        <v>4</v>
+        <v>2.45</v>
       </c>
       <c r="L174">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="M174">
-        <v>1.6</v>
+        <v>2.1</v>
       </c>
       <c r="N174">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="O174">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="P174">
-        <v>1.6</v>
+        <v>1.85</v>
       </c>
       <c r="Q174">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R174">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S174">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T174">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U174">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="V174">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W174">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="X174">
         <v>-1</v>
       </c>
       <c r="Y174">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z174">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA174">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AB174">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC174">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="175" spans="1:29">
@@ -16145,7 +16145,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>8010865</v>
+        <v>8010145</v>
       </c>
       <c r="C175" t="s">
         <v>28</v>
@@ -16157,70 +16157,70 @@
         <v>45377.69791666666</v>
       </c>
       <c r="F175" t="s">
-        <v>42</v>
+        <v>79</v>
       </c>
       <c r="G175" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="H175">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I175">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J175" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K175">
-        <v>1.727</v>
+        <v>4</v>
       </c>
       <c r="L175">
+        <v>4.2</v>
+      </c>
+      <c r="M175">
+        <v>1.6</v>
+      </c>
+      <c r="N175">
         <v>4</v>
       </c>
-      <c r="M175">
-        <v>3.5</v>
-      </c>
-      <c r="N175">
-        <v>1.666</v>
-      </c>
       <c r="O175">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P175">
-        <v>3.75</v>
+        <v>1.6</v>
       </c>
       <c r="Q175">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="R175">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S175">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="T175">
         <v>3</v>
       </c>
       <c r="U175">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="V175">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W175">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X175">
         <v>-1</v>
       </c>
       <c r="Y175">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="Z175">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AA175">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AB175">
         <v>0</v>
@@ -16249,7 +16249,7 @@
         <v>57</v>
       </c>
       <c r="G176" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H176">
         <v>3</v>
@@ -16338,7 +16338,7 @@
         <v>61</v>
       </c>
       <c r="G177" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H177">
         <v>2</v>
@@ -16691,7 +16691,7 @@
         <v>45381.5</v>
       </c>
       <c r="F181" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G181" t="s">
         <v>84</v>
@@ -16768,7 +16768,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>8027514</v>
+        <v>8027515</v>
       </c>
       <c r="C182" t="s">
         <v>28</v>
@@ -16780,56 +16780,56 @@
         <v>45381.5</v>
       </c>
       <c r="F182" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="G182" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="H182">
         <v>0</v>
       </c>
       <c r="I182">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J182" t="s">
         <v>91</v>
       </c>
       <c r="K182">
-        <v>2</v>
+        <v>2.375</v>
       </c>
       <c r="L182">
+        <v>3.6</v>
+      </c>
+      <c r="M182">
+        <v>2.375</v>
+      </c>
+      <c r="N182">
+        <v>2.45</v>
+      </c>
+      <c r="O182">
         <v>3.4</v>
       </c>
-      <c r="M182">
-        <v>3.1</v>
-      </c>
-      <c r="N182">
-        <v>2.05</v>
-      </c>
-      <c r="O182">
-        <v>3.2</v>
-      </c>
       <c r="P182">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
       <c r="Q182">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R182">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S182">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T182">
         <v>2.5</v>
       </c>
       <c r="U182">
+        <v>1.825</v>
+      </c>
+      <c r="V182">
         <v>1.975</v>
       </c>
-      <c r="V182">
-        <v>1.825</v>
-      </c>
       <c r="W182">
         <v>-1</v>
       </c>
@@ -16837,19 +16837,19 @@
         <v>-1</v>
       </c>
       <c r="Y182">
-        <v>2.1</v>
+        <v>1.4</v>
       </c>
       <c r="Z182">
         <v>-1</v>
       </c>
       <c r="AA182">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AB182">
         <v>-1</v>
       </c>
       <c r="AC182">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="183" spans="1:29">
@@ -16857,7 +16857,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>8027515</v>
+        <v>8027516</v>
       </c>
       <c r="C183" t="s">
         <v>28</v>
@@ -16869,76 +16869,76 @@
         <v>45381.5</v>
       </c>
       <c r="F183" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G183" t="s">
-        <v>85</v>
+        <v>59</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I183">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J183" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K183">
-        <v>2.375</v>
+        <v>3.1</v>
       </c>
       <c r="L183">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M183">
-        <v>2.375</v>
+        <v>1.909</v>
       </c>
       <c r="N183">
-        <v>2.45</v>
+        <v>3.1</v>
       </c>
       <c r="O183">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P183">
-        <v>2.4</v>
+        <v>1.909</v>
       </c>
       <c r="Q183">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R183">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S183">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T183">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U183">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V183">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W183">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="X183">
         <v>-1</v>
       </c>
       <c r="Y183">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Z183">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA183">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB183">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC183">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="184" spans="1:29">
@@ -16946,7 +16946,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>8027516</v>
+        <v>8027514</v>
       </c>
       <c r="C184" t="s">
         <v>28</v>
@@ -16958,76 +16958,76 @@
         <v>45381.5</v>
       </c>
       <c r="F184" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G184" t="s">
-        <v>59</v>
+        <v>88</v>
       </c>
       <c r="H184">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I184">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J184" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K184">
+        <v>2</v>
+      </c>
+      <c r="L184">
+        <v>3.4</v>
+      </c>
+      <c r="M184">
         <v>3.1</v>
       </c>
-      <c r="L184">
-        <v>3.75</v>
-      </c>
-      <c r="M184">
-        <v>1.909</v>
-      </c>
       <c r="N184">
+        <v>2.05</v>
+      </c>
+      <c r="O184">
+        <v>3.2</v>
+      </c>
+      <c r="P184">
         <v>3.1</v>
       </c>
-      <c r="O184">
-        <v>3.75</v>
-      </c>
-      <c r="P184">
-        <v>1.909</v>
-      </c>
       <c r="Q184">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R184">
+        <v>1.85</v>
+      </c>
+      <c r="S184">
+        <v>1.95</v>
+      </c>
+      <c r="T184">
+        <v>2.5</v>
+      </c>
+      <c r="U184">
+        <v>1.975</v>
+      </c>
+      <c r="V184">
         <v>1.825</v>
       </c>
-      <c r="S184">
-        <v>1.975</v>
-      </c>
-      <c r="T184">
-        <v>3</v>
-      </c>
-      <c r="U184">
-        <v>1.95</v>
-      </c>
-      <c r="V184">
-        <v>1.85</v>
-      </c>
       <c r="W184">
+        <v>-1</v>
+      </c>
+      <c r="X184">
+        <v>-1</v>
+      </c>
+      <c r="Y184">
         <v>2.1</v>
       </c>
-      <c r="X184">
-        <v>-1</v>
-      </c>
-      <c r="Y184">
-        <v>-1</v>
-      </c>
       <c r="Z184">
+        <v>-1</v>
+      </c>
+      <c r="AA184">
+        <v>0.95</v>
+      </c>
+      <c r="AB184">
+        <v>-1</v>
+      </c>
+      <c r="AC184">
         <v>0.825</v>
-      </c>
-      <c r="AA184">
-        <v>-1</v>
-      </c>
-      <c r="AB184">
-        <v>0</v>
-      </c>
-      <c r="AC184">
-        <v>-0</v>
       </c>
     </row>
     <row r="185" spans="1:29">
@@ -17228,7 +17228,7 @@
         <v>33</v>
       </c>
       <c r="G187" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H187">
         <v>0</v>
@@ -17302,7 +17302,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>8035189</v>
+        <v>8035268</v>
       </c>
       <c r="C188" t="s">
         <v>28</v>
@@ -17314,55 +17314,55 @@
         <v>45383.45833333334</v>
       </c>
       <c r="F188" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="G188" t="s">
-        <v>61</v>
+        <v>87</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I188">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J188" t="s">
         <v>91</v>
       </c>
       <c r="K188">
-        <v>2.3</v>
+        <v>1.833</v>
       </c>
       <c r="L188">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M188">
-        <v>2.4</v>
+        <v>3.1</v>
       </c>
       <c r="N188">
-        <v>2.7</v>
+        <v>2</v>
       </c>
       <c r="O188">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P188">
-        <v>2.15</v>
+        <v>2.75</v>
       </c>
       <c r="Q188">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R188">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S188">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T188">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U188">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="V188">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W188">
         <v>-1</v>
@@ -17371,19 +17371,19 @@
         <v>-1</v>
       </c>
       <c r="Y188">
-        <v>1.15</v>
+        <v>1.75</v>
       </c>
       <c r="Z188">
         <v>-1</v>
       </c>
       <c r="AA188">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AB188">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
       <c r="AC188">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="189" spans="1:29">
@@ -17391,7 +17391,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>8035546</v>
+        <v>8035189</v>
       </c>
       <c r="C189" t="s">
         <v>28</v>
@@ -17403,76 +17403,76 @@
         <v>45383.45833333334</v>
       </c>
       <c r="F189" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G189" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="H189">
+        <v>0</v>
+      </c>
+      <c r="I189">
         <v>1</v>
       </c>
-      <c r="I189">
-        <v>0</v>
-      </c>
       <c r="J189" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K189">
-        <v>2.8</v>
+        <v>2.3</v>
       </c>
       <c r="L189">
+        <v>3.75</v>
+      </c>
+      <c r="M189">
+        <v>2.4</v>
+      </c>
+      <c r="N189">
+        <v>2.7</v>
+      </c>
+      <c r="O189">
         <v>3.6</v>
       </c>
-      <c r="M189">
-        <v>2.1</v>
-      </c>
-      <c r="N189">
-        <v>2.55</v>
-      </c>
-      <c r="O189">
-        <v>3.4</v>
-      </c>
       <c r="P189">
-        <v>2.375</v>
+        <v>2.15</v>
       </c>
       <c r="Q189">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R189">
+        <v>1.825</v>
+      </c>
+      <c r="S189">
         <v>1.975</v>
       </c>
-      <c r="S189">
+      <c r="T189">
+        <v>3</v>
+      </c>
+      <c r="U189">
         <v>1.825</v>
       </c>
-      <c r="T189">
-        <v>2.75</v>
-      </c>
-      <c r="U189">
-        <v>1.925</v>
-      </c>
       <c r="V189">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="W189">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="X189">
         <v>-1</v>
       </c>
       <c r="Y189">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z189">
+        <v>-1</v>
+      </c>
+      <c r="AA189">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AA189">
-        <v>-1</v>
-      </c>
       <c r="AB189">
         <v>-1</v>
       </c>
       <c r="AC189">
-        <v>0.7749999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="190" spans="1:29">
@@ -17480,7 +17480,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>8035268</v>
+        <v>8035546</v>
       </c>
       <c r="C190" t="s">
         <v>28</v>
@@ -17492,76 +17492,76 @@
         <v>45383.45833333334</v>
       </c>
       <c r="F190" t="s">
-        <v>76</v>
+        <v>31</v>
       </c>
       <c r="G190" t="s">
-        <v>87</v>
+        <v>44</v>
       </c>
       <c r="H190">
         <v>1</v>
       </c>
       <c r="I190">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J190" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K190">
-        <v>1.833</v>
+        <v>2.8</v>
       </c>
       <c r="L190">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M190">
-        <v>3.1</v>
+        <v>2.1</v>
       </c>
       <c r="N190">
-        <v>2</v>
+        <v>2.55</v>
       </c>
       <c r="O190">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P190">
-        <v>2.75</v>
+        <v>2.375</v>
       </c>
       <c r="Q190">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R190">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S190">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T190">
         <v>2.75</v>
       </c>
       <c r="U190">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="V190">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="W190">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X190">
         <v>-1</v>
       </c>
       <c r="Y190">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z190">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA190">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB190">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
       <c r="AC190">
-        <v>-0.5</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="191" spans="1:29">

--- a/England Northern League Division One/England Northern League Division One.xlsx
+++ b/England Northern League Division One/England Northern League Division One.xlsx
@@ -115,13 +115,13 @@
     <t>Stocksbridge PS</t>
   </si>
   <si>
-    <t>Widnes</t>
+    <t>Cleethorpes Town</t>
   </si>
   <si>
     <t>Corby</t>
   </si>
   <si>
-    <t>Cleethorpes Town</t>
+    <t>Widnes</t>
   </si>
   <si>
     <t>Coleshill Town</t>
@@ -187,13 +187,13 @@
     <t>Shepshed Dynamo</t>
   </si>
   <si>
+    <t>Prescot Cables</t>
+  </si>
+  <si>
     <t>Gresley Rovers</t>
   </si>
   <si>
     <t>Witton Albion</t>
-  </si>
-  <si>
-    <t>Prescot Cables</t>
   </si>
   <si>
     <t>Kidsgrove Ath</t>
@@ -217,10 +217,10 @@
     <t>Nantwich Town</t>
   </si>
   <si>
-    <t>Harborough Town</t>
+    <t>Sporting Khalsa</t>
   </si>
   <si>
-    <t>Sporting Khalsa</t>
+    <t>Harborough Town</t>
   </si>
   <si>
     <t>Carlton Town</t>
@@ -1104,7 +1104,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>7072691</v>
+        <v>7072686</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -1119,73 +1119,73 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>71</v>
+        <v>39</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K6">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="L6">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M6">
-        <v>2.6</v>
+        <v>2.9</v>
       </c>
       <c r="N6">
-        <v>2.375</v>
+        <v>1.7</v>
       </c>
       <c r="O6">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P6">
-        <v>2.6</v>
+        <v>4</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R6">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S6">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T6">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U6">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="V6">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W6">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X6">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y6">
         <v>-1</v>
       </c>
       <c r="Z6">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA6">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB6">
         <v>-1</v>
       </c>
       <c r="AC6">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1282,7 +1282,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7072686</v>
+        <v>7072691</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1297,73 +1297,73 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>39</v>
+        <v>71</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K8">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="L8">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M8">
-        <v>2.9</v>
+        <v>2.6</v>
       </c>
       <c r="N8">
-        <v>1.7</v>
+        <v>2.375</v>
       </c>
       <c r="O8">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P8">
-        <v>4</v>
+        <v>2.6</v>
       </c>
       <c r="Q8">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R8">
+        <v>1.8</v>
+      </c>
+      <c r="S8">
+        <v>2</v>
+      </c>
+      <c r="T8">
+        <v>2.75</v>
+      </c>
+      <c r="U8">
         <v>1.925</v>
       </c>
-      <c r="S8">
+      <c r="V8">
         <v>1.875</v>
       </c>
-      <c r="T8">
-        <v>2.5</v>
-      </c>
-      <c r="U8">
-        <v>1.75</v>
-      </c>
-      <c r="V8">
-        <v>1.95</v>
-      </c>
       <c r="W8">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X8">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y8">
         <v>-1</v>
       </c>
       <c r="Z8">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA8">
+        <v>-1</v>
+      </c>
+      <c r="AB8">
+        <v>-1</v>
+      </c>
+      <c r="AC8">
         <v>0.875</v>
-      </c>
-      <c r="AB8">
-        <v>-1</v>
-      </c>
-      <c r="AC8">
-        <v>0.95</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1831,7 +1831,7 @@
         <v>41</v>
       </c>
       <c r="G14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -2187,7 +2187,7 @@
         <v>45</v>
       </c>
       <c r="G18" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H18">
         <v>1</v>
@@ -2543,7 +2543,7 @@
         <v>29</v>
       </c>
       <c r="G22" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H22">
         <v>1</v>
@@ -3433,7 +3433,7 @@
         <v>48</v>
       </c>
       <c r="G32" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H32">
         <v>2</v>
@@ -3952,7 +3952,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>7197960</v>
+        <v>7197966</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3967,37 +3967,37 @@
         <v>57</v>
       </c>
       <c r="G38" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38">
         <v>2</v>
       </c>
       <c r="J38" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K38">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="L38">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M38">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="N38">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="O38">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P38">
-        <v>1.95</v>
+        <v>2.5</v>
       </c>
       <c r="Q38">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R38">
         <v>1.8</v>
@@ -4006,34 +4006,34 @@
         <v>2</v>
       </c>
       <c r="T38">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U38">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V38">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="W38">
         <v>-1</v>
       </c>
       <c r="X38">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y38">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z38">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA38">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB38">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC38">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -4041,7 +4041,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>7197970</v>
+        <v>7197960</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -4056,70 +4056,70 @@
         <v>58</v>
       </c>
       <c r="G39" t="s">
-        <v>43</v>
+        <v>87</v>
       </c>
       <c r="H39">
+        <v>2</v>
+      </c>
+      <c r="I39">
+        <v>2</v>
+      </c>
+      <c r="J39" t="s">
+        <v>90</v>
+      </c>
+      <c r="K39">
+        <v>2.4</v>
+      </c>
+      <c r="L39">
+        <v>3.6</v>
+      </c>
+      <c r="M39">
+        <v>2.4</v>
+      </c>
+      <c r="N39">
         <v>3</v>
       </c>
-      <c r="I39">
-        <v>2</v>
-      </c>
-      <c r="J39" t="s">
-        <v>89</v>
-      </c>
-      <c r="K39">
-        <v>2.35</v>
-      </c>
-      <c r="L39">
-        <v>3.4</v>
-      </c>
-      <c r="M39">
-        <v>2.6</v>
-      </c>
-      <c r="N39">
-        <v>2.05</v>
-      </c>
       <c r="O39">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P39">
-        <v>3.1</v>
+        <v>1.95</v>
       </c>
       <c r="Q39">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R39">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S39">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T39">
         <v>3</v>
       </c>
       <c r="U39">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V39">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="W39">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X39">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y39">
         <v>-1</v>
       </c>
       <c r="Z39">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="AA39">
         <v>-1</v>
       </c>
       <c r="AB39">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AC39">
         <v>-1</v>
@@ -4130,7 +4130,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>7197966</v>
+        <v>7197970</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4145,73 +4145,73 @@
         <v>59</v>
       </c>
       <c r="G40" t="s">
-        <v>77</v>
+        <v>43</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I40">
         <v>2</v>
       </c>
       <c r="J40" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K40">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="L40">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M40">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="N40">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="O40">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P40">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q40">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R40">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S40">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T40">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U40">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V40">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W40">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X40">
         <v>-1</v>
       </c>
       <c r="Y40">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z40">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA40">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB40">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC40">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4231,7 +4231,7 @@
         <v>45182.65625</v>
       </c>
       <c r="F41" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G41" t="s">
         <v>80</v>
@@ -4676,7 +4676,7 @@
         <v>45196.65625</v>
       </c>
       <c r="F46" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G46" t="s">
         <v>52</v>
@@ -4842,7 +4842,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>7287638</v>
+        <v>7287695</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4854,46 +4854,46 @@
         <v>45202.65625</v>
       </c>
       <c r="F48" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="G48" t="s">
-        <v>38</v>
+        <v>68</v>
       </c>
       <c r="H48">
         <v>0</v>
       </c>
       <c r="I48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J48" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K48">
-        <v>1.909</v>
+        <v>2.4</v>
       </c>
       <c r="L48">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M48">
-        <v>3.5</v>
+        <v>2.6</v>
       </c>
       <c r="N48">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="O48">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="P48">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="Q48">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R48">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S48">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T48">
         <v>2.75</v>
@@ -4902,28 +4902,28 @@
         <v>1.925</v>
       </c>
       <c r="V48">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="W48">
         <v>-1</v>
       </c>
       <c r="X48">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y48">
-        <v>-1</v>
+        <v>1.6</v>
   